--- a/data/stock.xlsx
+++ b/data/stock.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\blocks\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78DFFF6B-F6F3-4CA1-83C6-A08894B1E324}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D5F91F6-2AC5-4966-9472-B2FA4B7D3205}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3315" yWindow="1155" windowWidth="21600" windowHeight="11295" xr2:uid="{FC0CBB84-858B-49F6-BA69-44D83C89F7C4}"/>
   </bookViews>
@@ -1203,8 +1203,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCDC9875-9E8E-485C-910E-47B83A1F9902}">
   <dimension ref="A1:E171"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="D88" sqref="D88"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1253,7 +1253,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="3">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C3" s="3">
         <v>220</v>

--- a/data/stock.xlsx
+++ b/data/stock.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\blocks\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D5F91F6-2AC5-4966-9472-B2FA4B7D3205}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9861427A-8A94-4E2A-A5F5-58CB3028C544}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3315" yWindow="1155" windowWidth="21600" windowHeight="11295" xr2:uid="{FC0CBB84-858B-49F6-BA69-44D83C89F7C4}"/>
   </bookViews>
@@ -1204,7 +1204,7 @@
   <dimension ref="A1:E171"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1253,7 +1253,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="3">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C3" s="3">
         <v>220</v>

--- a/data/stock.xlsx
+++ b/data/stock.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\blocks\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9861427A-8A94-4E2A-A5F5-58CB3028C544}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D21B5533-D92E-46FA-BD61-B9280D3DC471}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3315" yWindow="1155" windowWidth="21600" windowHeight="11295" xr2:uid="{FC0CBB84-858B-49F6-BA69-44D83C89F7C4}"/>
   </bookViews>
@@ -1204,7 +1204,7 @@
   <dimension ref="A1:E171"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/stock.xlsx
+++ b/data/stock.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\blocks\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D21B5533-D92E-46FA-BD61-B9280D3DC471}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12B44B84-A93E-42E7-8FC1-2B3925C29DA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3315" yWindow="1155" windowWidth="21600" windowHeight="11295" xr2:uid="{FC0CBB84-858B-49F6-BA69-44D83C89F7C4}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="223">
   <si>
     <t>Product</t>
   </si>
@@ -697,6 +697,12 @@
   </si>
   <si>
     <t>Doflamingo.jpg</t>
+  </si>
+  <si>
+    <t>Moonknight moon white.jpg</t>
+  </si>
+  <si>
+    <t>Moonknight black comic.jpg</t>
   </si>
 </sst>
 </file>
@@ -1203,14 +1209,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCDC9875-9E8E-485C-910E-47B83A1F9902}">
   <dimension ref="A1:E171"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.28515625" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1837,7 +1843,7 @@
         <v>250</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>185</v>
+        <v>221</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>6</v>
@@ -1939,7 +1945,7 @@
         <v>250</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>185</v>
+        <v>222</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>6</v>

--- a/data/stock.xlsx
+++ b/data/stock.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\blocks\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12B44B84-A93E-42E7-8FC1-2B3925C29DA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40A2CAFB-FC52-4344-A27F-83075EFF2AB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3315" yWindow="1155" windowWidth="21600" windowHeight="11295" xr2:uid="{FC0CBB84-858B-49F6-BA69-44D83C89F7C4}"/>
   </bookViews>
@@ -699,10 +699,10 @@
     <t>Doflamingo.jpg</t>
   </si>
   <si>
-    <t>Moonknight moon white.jpg</t>
-  </si>
-  <si>
-    <t>Moonknight black comic.jpg</t>
+    <t>Moonknight moon white.png</t>
+  </si>
+  <si>
+    <t>Moonknight black comic.png</t>
   </si>
 </sst>
 </file>
@@ -1210,13 +1210,13 @@
   <dimension ref="A1:E171"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="G42" sqref="G42"/>
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>

--- a/data/stock.xlsx
+++ b/data/stock.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\blocks\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40A2CAFB-FC52-4344-A27F-83075EFF2AB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1E16C61-D347-42AB-80BA-73E973759B50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3315" yWindow="1155" windowWidth="21600" windowHeight="11295" xr2:uid="{FC0CBB84-858B-49F6-BA69-44D83C89F7C4}"/>
   </bookViews>
@@ -636,15 +636,9 @@
     <t>Zoro Wano.jpg</t>
   </si>
   <si>
-    <t>Nika Luffy color.jpg</t>
-  </si>
-  <si>
     <t>Nika Luffy white.jpg</t>
   </si>
   <si>
-    <t>Luffy (dy).jpg</t>
-  </si>
-  <si>
     <t>nika luffy white tp.jpg</t>
   </si>
   <si>
@@ -703,6 +697,12 @@
   </si>
   <si>
     <t>Moonknight black comic.png</t>
+  </si>
+  <si>
+    <t>nika Luffy color.jpg</t>
+  </si>
+  <si>
+    <t>luffy (dy).jpg</t>
   </si>
 </sst>
 </file>
@@ -1209,8 +1209,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCDC9875-9E8E-485C-910E-47B83A1F9902}">
   <dimension ref="A1:E171"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="D72" sqref="D72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1843,7 +1843,7 @@
         <v>250</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>6</v>
@@ -1945,7 +1945,7 @@
         <v>250</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>6</v>
@@ -2421,7 +2421,7 @@
         <v>300</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>200</v>
+        <v>221</v>
       </c>
       <c r="E71" s="3" t="s">
         <v>68</v>
@@ -2438,7 +2438,7 @@
         <v>270</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>202</v>
+        <v>222</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>68</v>
@@ -2455,7 +2455,7 @@
         <v>300</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E73" s="3" t="s">
         <v>68</v>
@@ -2591,7 +2591,7 @@
         <v>300</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E81" s="3" t="s">
         <v>68</v>
@@ -2642,7 +2642,7 @@
         <v>350</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E84" s="3" t="s">
         <v>68</v>
@@ -2659,7 +2659,7 @@
         <v>350</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E85" s="3" t="s">
         <v>68</v>
@@ -2676,7 +2676,7 @@
         <v>320</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E86" s="3" t="s">
         <v>68</v>
@@ -2693,7 +2693,7 @@
         <v>320</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E87" s="3" t="s">
         <v>68</v>
@@ -2710,7 +2710,7 @@
         <v>320</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E88" s="3" t="s">
         <v>68</v>
@@ -2727,7 +2727,7 @@
         <v>320</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E89" s="3" t="s">
         <v>68</v>
@@ -2744,7 +2744,7 @@
         <v>320</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E90" s="3" t="s">
         <v>68</v>
@@ -2761,7 +2761,7 @@
         <v>320</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E91" s="3" t="s">
         <v>68</v>
@@ -2778,7 +2778,7 @@
         <v>320</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E92" s="3" t="s">
         <v>68</v>
@@ -2795,7 +2795,7 @@
         <v>320</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E93" s="3" t="s">
         <v>68</v>
@@ -2812,7 +2812,7 @@
         <v>320</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E94" s="3" t="s">
         <v>68</v>
@@ -2829,7 +2829,7 @@
         <v>320</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E95" s="3" t="s">
         <v>68</v>
@@ -2846,7 +2846,7 @@
         <v>320</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E96" s="3" t="s">
         <v>68</v>
@@ -2863,7 +2863,7 @@
         <v>320</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E97" s="3" t="s">
         <v>68</v>
@@ -2880,7 +2880,7 @@
         <v>320</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E98" s="3" t="s">
         <v>68</v>
@@ -2897,7 +2897,7 @@
         <v>320</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E99" s="3" t="s">
         <v>68</v>
@@ -2914,7 +2914,7 @@
         <v>320</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E100" s="3" t="s">
         <v>68</v>

--- a/data/stock.xlsx
+++ b/data/stock.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\blocks\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1E16C61-D347-42AB-80BA-73E973759B50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7A3DDEA-BEF1-4863-8D4B-F53B23CD626B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3315" yWindow="1155" windowWidth="21600" windowHeight="11295" xr2:uid="{FC0CBB84-858B-49F6-BA69-44D83C89F7C4}"/>
   </bookViews>
@@ -699,10 +699,10 @@
     <t>Moonknight black comic.png</t>
   </si>
   <si>
-    <t>nika Luffy color.jpg</t>
-  </si>
-  <si>
     <t>luffy (dy).jpg</t>
+  </si>
+  <si>
+    <t>nika luffy color.jpg</t>
   </si>
 </sst>
 </file>
@@ -1210,7 +1210,7 @@
   <dimension ref="A1:E171"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="D72" sqref="D72"/>
+      <selection activeCell="D71" sqref="D71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2421,7 +2421,7 @@
         <v>300</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E71" s="3" t="s">
         <v>68</v>
@@ -2438,7 +2438,7 @@
         <v>270</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>68</v>

--- a/data/stock.xlsx
+++ b/data/stock.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\blocks\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7A3DDEA-BEF1-4863-8D4B-F53B23CD626B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B608AFB5-AB7A-4511-8ED5-7236FC8A9E75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3315" yWindow="1155" windowWidth="21600" windowHeight="11295" xr2:uid="{FC0CBB84-858B-49F6-BA69-44D83C89F7C4}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="232">
   <si>
     <t>Product</t>
   </si>
@@ -703,13 +703,40 @@
   </si>
   <si>
     <t>nika luffy color.jpg</t>
+  </si>
+  <si>
+    <t>John Wick</t>
+  </si>
+  <si>
+    <t>Winston</t>
+  </si>
+  <si>
+    <t>Getsuga Ichigo</t>
+  </si>
+  <si>
+    <t>vasto Ichigo</t>
+  </si>
+  <si>
+    <t>Aizen</t>
+  </si>
+  <si>
+    <t>Kenpachi</t>
+  </si>
+  <si>
+    <t>Jeagerjaques</t>
+  </si>
+  <si>
+    <t>Kaiju no.08</t>
+  </si>
+  <si>
+    <t>Others</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -727,6 +754,13 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -751,7 +785,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -762,6 +796,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1207,10 +1248,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCDC9875-9E8E-485C-910E-47B83A1F9902}">
-  <dimension ref="A1:E171"/>
+  <dimension ref="A1:E179"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="D71" sqref="D71"/>
+    <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
+      <selection activeCell="H178" sqref="H178"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2004,7 +2045,7 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B47" s="3">
         <v>4</v>
@@ -2021,7 +2062,7 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B48" s="3">
         <v>0</v>
@@ -2038,7 +2079,7 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B49" s="3">
         <v>0</v>
@@ -2055,7 +2096,7 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B50" s="3">
         <v>1</v>
@@ -2072,7 +2113,7 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B51" s="3">
         <v>2</v>
@@ -2089,7 +2130,7 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B52" s="3">
         <v>4</v>
@@ -2106,7 +2147,7 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B53" s="3">
         <v>1</v>
@@ -4127,7 +4168,144 @@
         <v>164</v>
       </c>
     </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A172" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="B172" s="6">
+        <v>7</v>
+      </c>
+      <c r="C172" s="3">
+        <v>250</v>
+      </c>
+      <c r="D172" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E172" s="7" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>224</v>
+      </c>
+      <c r="B173" s="6">
+        <v>1</v>
+      </c>
+      <c r="C173" s="3">
+        <v>250</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E173" s="7" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>225</v>
+      </c>
+      <c r="B174" s="6">
+        <v>1</v>
+      </c>
+      <c r="C174" s="7">
+        <v>220</v>
+      </c>
+      <c r="D174" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E174" s="7" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>226</v>
+      </c>
+      <c r="B175" s="6">
+        <v>1</v>
+      </c>
+      <c r="C175" s="7">
+        <v>220</v>
+      </c>
+      <c r="D175" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E175" s="7" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>227</v>
+      </c>
+      <c r="B176" s="6">
+        <v>2</v>
+      </c>
+      <c r="C176" s="7">
+        <v>220</v>
+      </c>
+      <c r="D176" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E176" s="7" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>228</v>
+      </c>
+      <c r="B177" s="6">
+        <v>1</v>
+      </c>
+      <c r="C177" s="7">
+        <v>220</v>
+      </c>
+      <c r="D177" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E177" s="7" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>229</v>
+      </c>
+      <c r="B178" s="6">
+        <v>1</v>
+      </c>
+      <c r="C178" s="7">
+        <v>220</v>
+      </c>
+      <c r="D178" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E178" s="7" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>230</v>
+      </c>
+      <c r="B179" s="6">
+        <v>5</v>
+      </c>
+      <c r="C179" s="7">
+        <v>350</v>
+      </c>
+      <c r="D179" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E179" s="7" t="s">
+        <v>231</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/stock.xlsx
+++ b/data/stock.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\blocks\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B608AFB5-AB7A-4511-8ED5-7236FC8A9E75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE23E87E-EF06-41A3-89BD-E2D6F851E946}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3315" yWindow="1155" windowWidth="21600" windowHeight="11295" xr2:uid="{FC0CBB84-858B-49F6-BA69-44D83C89F7C4}"/>
+    <workbookView xWindow="3870" yWindow="1725" windowWidth="21600" windowHeight="11295" xr2:uid="{FC0CBB84-858B-49F6-BA69-44D83C89F7C4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="252">
   <si>
     <t>Product</t>
   </si>
@@ -730,6 +730,66 @@
   </si>
   <si>
     <t>Others</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Black Adam hood.jpg  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Black Adam bald.jpg  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Batman Affleck.jpg  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Batman Keaton.jpg  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gotham Stand.jpg  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">placeholder.jpg  </t>
+  </si>
+  <si>
+    <t>Batmobile black.jpeg</t>
+  </si>
+  <si>
+    <t>Batmobile white.jpeg</t>
+  </si>
+  <si>
+    <t>Hellbat Black.png</t>
+  </si>
+  <si>
+    <t>Hellbat White.png</t>
+  </si>
+  <si>
+    <t>Hellbat Gold.png</t>
+  </si>
+  <si>
+    <t>Shanks.jpg</t>
+  </si>
+  <si>
+    <t>Marco.jpg</t>
+  </si>
+  <si>
+    <t>Akainu WM.jpg</t>
+  </si>
+  <si>
+    <t>Fujitora WM.jpg</t>
+  </si>
+  <si>
+    <t>Aramaki WM.jpg</t>
+  </si>
+  <si>
+    <t>Sengoku WM.jpg</t>
+  </si>
+  <si>
+    <t>Garp WM.jpg</t>
+  </si>
+  <si>
+    <t>Dragon.jpg</t>
+  </si>
+  <si>
+    <t>Ben Beckman.jpg</t>
   </si>
 </sst>
 </file>
@@ -785,7 +845,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -797,11 +857,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1250,8 +1309,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCDC9875-9E8E-485C-910E-47B83A1F9902}">
   <dimension ref="A1:E179"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
-      <selection activeCell="H178" sqref="H178"/>
+    <sheetView tabSelected="1" topLeftCell="A74" zoomScale="148" zoomScaleNormal="148" workbookViewId="0">
+      <selection activeCell="D111" sqref="D111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2054,7 +2113,7 @@
         <v>150</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>185</v>
+        <v>237</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>52</v>
@@ -2071,7 +2130,7 @@
         <v>300</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>185</v>
+        <v>237</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>52</v>
@@ -2088,7 +2147,7 @@
         <v>300</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>185</v>
+        <v>237</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>52</v>
@@ -2105,7 +2164,7 @@
         <v>180</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>185</v>
+        <v>232</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>52</v>
@@ -2122,7 +2181,7 @@
         <v>160</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>185</v>
+        <v>233</v>
       </c>
       <c r="E51" s="3" t="s">
         <v>52</v>
@@ -2139,7 +2198,7 @@
         <v>160</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>185</v>
+        <v>237</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>52</v>
@@ -2156,7 +2215,7 @@
         <v>180</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>185</v>
+        <v>237</v>
       </c>
       <c r="E53" s="3" t="s">
         <v>52</v>
@@ -2173,7 +2232,7 @@
         <v>350</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>185</v>
+        <v>234</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>52</v>
@@ -2190,7 +2249,7 @@
         <v>350</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>185</v>
+        <v>235</v>
       </c>
       <c r="E55" s="3" t="s">
         <v>52</v>
@@ -2207,7 +2266,7 @@
         <v>500</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>185</v>
+        <v>236</v>
       </c>
       <c r="E56" s="3" t="s">
         <v>52</v>
@@ -2224,7 +2283,7 @@
         <v>350</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>185</v>
+        <v>240</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>52</v>
@@ -2241,7 +2300,7 @@
         <v>350</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>185</v>
+        <v>241</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>52</v>
@@ -2258,7 +2317,7 @@
         <v>350</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>185</v>
+        <v>242</v>
       </c>
       <c r="E59" s="3" t="s">
         <v>52</v>
@@ -2275,7 +2334,7 @@
         <v>500</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>185</v>
+        <v>238</v>
       </c>
       <c r="E60" s="3" t="s">
         <v>52</v>
@@ -2292,7 +2351,7 @@
         <v>500</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>185</v>
+        <v>239</v>
       </c>
       <c r="E61" s="3" t="s">
         <v>52</v>
@@ -2309,7 +2368,7 @@
         <v>300</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>185</v>
+        <v>243</v>
       </c>
       <c r="E62" s="3" t="s">
         <v>68</v>
@@ -2343,7 +2402,7 @@
         <v>300</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>185</v>
+        <v>244</v>
       </c>
       <c r="E64" s="3" t="s">
         <v>68</v>
@@ -3039,8 +3098,8 @@
       <c r="C105" s="3">
         <v>300</v>
       </c>
-      <c r="D105" s="2" t="s">
-        <v>185</v>
+      <c r="D105" s="1" t="s">
+        <v>245</v>
       </c>
       <c r="E105" s="3" t="s">
         <v>68</v>
@@ -3056,8 +3115,8 @@
       <c r="C106" s="3">
         <v>300</v>
       </c>
-      <c r="D106" s="2" t="s">
-        <v>185</v>
+      <c r="D106" s="1" t="s">
+        <v>246</v>
       </c>
       <c r="E106" s="3" t="s">
         <v>68</v>
@@ -3073,8 +3132,8 @@
       <c r="C107" s="3">
         <v>300</v>
       </c>
-      <c r="D107" s="2" t="s">
-        <v>185</v>
+      <c r="D107" s="1" t="s">
+        <v>247</v>
       </c>
       <c r="E107" s="3" t="s">
         <v>68</v>
@@ -3090,8 +3149,8 @@
       <c r="C108" s="3">
         <v>300</v>
       </c>
-      <c r="D108" s="2" t="s">
-        <v>185</v>
+      <c r="D108" s="1" t="s">
+        <v>248</v>
       </c>
       <c r="E108" s="3" t="s">
         <v>68</v>
@@ -3107,8 +3166,8 @@
       <c r="C109" s="3">
         <v>300</v>
       </c>
-      <c r="D109" s="2" t="s">
-        <v>185</v>
+      <c r="D109" s="1" t="s">
+        <v>249</v>
       </c>
       <c r="E109" s="3" t="s">
         <v>68</v>
@@ -3124,8 +3183,8 @@
       <c r="C110" s="3">
         <v>300</v>
       </c>
-      <c r="D110" s="2" t="s">
-        <v>185</v>
+      <c r="D110" s="1" t="s">
+        <v>250</v>
       </c>
       <c r="E110" s="3" t="s">
         <v>68</v>
@@ -3141,8 +3200,8 @@
       <c r="C111" s="3">
         <v>300</v>
       </c>
-      <c r="D111" s="2" t="s">
-        <v>185</v>
+      <c r="D111" s="1" t="s">
+        <v>251</v>
       </c>
       <c r="E111" s="3" t="s">
         <v>68</v>
@@ -4169,10 +4228,10 @@
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A172" s="5" t="s">
+      <c r="A172" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="B172" s="6">
+      <c r="B172" s="5">
         <v>7</v>
       </c>
       <c r="C172" s="3">
@@ -4181,7 +4240,7 @@
       <c r="D172" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="E172" s="7" t="s">
+      <c r="E172" s="6" t="s">
         <v>231</v>
       </c>
     </row>
@@ -4189,7 +4248,7 @@
       <c r="A173" t="s">
         <v>224</v>
       </c>
-      <c r="B173" s="6">
+      <c r="B173" s="5">
         <v>1</v>
       </c>
       <c r="C173" s="3">
@@ -4198,7 +4257,7 @@
       <c r="D173" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="E173" s="7" t="s">
+      <c r="E173" s="6" t="s">
         <v>231</v>
       </c>
     </row>
@@ -4206,16 +4265,16 @@
       <c r="A174" t="s">
         <v>225</v>
       </c>
-      <c r="B174" s="6">
-        <v>1</v>
-      </c>
-      <c r="C174" s="7">
+      <c r="B174" s="5">
+        <v>1</v>
+      </c>
+      <c r="C174" s="6">
         <v>220</v>
       </c>
       <c r="D174" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="E174" s="7" t="s">
+      <c r="E174" s="6" t="s">
         <v>231</v>
       </c>
     </row>
@@ -4223,16 +4282,16 @@
       <c r="A175" t="s">
         <v>226</v>
       </c>
-      <c r="B175" s="6">
-        <v>1</v>
-      </c>
-      <c r="C175" s="7">
+      <c r="B175" s="5">
+        <v>1</v>
+      </c>
+      <c r="C175" s="6">
         <v>220</v>
       </c>
       <c r="D175" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="E175" s="7" t="s">
+      <c r="E175" s="6" t="s">
         <v>231</v>
       </c>
     </row>
@@ -4240,16 +4299,16 @@
       <c r="A176" t="s">
         <v>227</v>
       </c>
-      <c r="B176" s="6">
+      <c r="B176" s="5">
         <v>2</v>
       </c>
-      <c r="C176" s="7">
+      <c r="C176" s="6">
         <v>220</v>
       </c>
       <c r="D176" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="E176" s="7" t="s">
+      <c r="E176" s="6" t="s">
         <v>231</v>
       </c>
     </row>
@@ -4257,16 +4316,16 @@
       <c r="A177" t="s">
         <v>228</v>
       </c>
-      <c r="B177" s="6">
-        <v>1</v>
-      </c>
-      <c r="C177" s="7">
+      <c r="B177" s="5">
+        <v>1</v>
+      </c>
+      <c r="C177" s="6">
         <v>220</v>
       </c>
       <c r="D177" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="E177" s="7" t="s">
+      <c r="E177" s="6" t="s">
         <v>231</v>
       </c>
     </row>
@@ -4274,16 +4333,16 @@
       <c r="A178" t="s">
         <v>229</v>
       </c>
-      <c r="B178" s="6">
-        <v>1</v>
-      </c>
-      <c r="C178" s="7">
+      <c r="B178" s="5">
+        <v>1</v>
+      </c>
+      <c r="C178" s="6">
         <v>220</v>
       </c>
       <c r="D178" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="E178" s="7" t="s">
+      <c r="E178" s="6" t="s">
         <v>231</v>
       </c>
     </row>
@@ -4291,16 +4350,16 @@
       <c r="A179" t="s">
         <v>230</v>
       </c>
-      <c r="B179" s="6">
+      <c r="B179" s="5">
         <v>5</v>
       </c>
-      <c r="C179" s="7">
+      <c r="C179" s="6">
         <v>350</v>
       </c>
       <c r="D179" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="E179" s="7" t="s">
+      <c r="E179" s="6" t="s">
         <v>231</v>
       </c>
     </row>

--- a/data/stock.xlsx
+++ b/data/stock.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\blocks\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE23E87E-EF06-41A3-89BD-E2D6F851E946}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB58C1FC-384C-41E7-85C2-227707189C02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3870" yWindow="1725" windowWidth="21600" windowHeight="11295" xr2:uid="{FC0CBB84-858B-49F6-BA69-44D83C89F7C4}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="253">
   <si>
     <t>Product</t>
   </si>
@@ -790,6 +790,9 @@
   </si>
   <si>
     <t>Ben Beckman.jpg</t>
+  </si>
+  <si>
+    <t>Moonknight black.png</t>
   </si>
 </sst>
 </file>
@@ -1309,8 +1312,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCDC9875-9E8E-485C-910E-47B83A1F9902}">
   <dimension ref="A1:E179"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A74" zoomScale="148" zoomScaleNormal="148" workbookViewId="0">
-      <selection activeCell="D111" sqref="D111"/>
+    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="148" zoomScaleNormal="148" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2028,7 +2031,7 @@
         <v>250</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>185</v>
+        <v>252</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>6</v>
@@ -2198,7 +2201,7 @@
         <v>160</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>237</v>
+        <v>185</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>52</v>
@@ -2215,7 +2218,7 @@
         <v>180</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>237</v>
+        <v>185</v>
       </c>
       <c r="E53" s="3" t="s">
         <v>52</v>

--- a/data/stock.xlsx
+++ b/data/stock.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\blocks\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB58C1FC-384C-41E7-85C2-227707189C02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA5ED1C0-1952-4439-98FC-C63A011C70FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3870" yWindow="1725" windowWidth="21600" windowHeight="11295" xr2:uid="{FC0CBB84-858B-49F6-BA69-44D83C89F7C4}"/>
+    <workbookView xWindow="0" yWindow="480" windowWidth="21600" windowHeight="11295" xr2:uid="{FC0CBB84-858B-49F6-BA69-44D83C89F7C4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -732,21 +732,6 @@
     <t>Others</t>
   </si>
   <si>
-    <t xml:space="preserve">Black Adam hood.jpg  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Black Adam bald.jpg  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Batman Affleck.jpg  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Batman Keaton.jpg  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gotham Stand.jpg  </t>
-  </si>
-  <si>
     <t xml:space="preserve">placeholder.jpg  </t>
   </si>
   <si>
@@ -793,6 +778,21 @@
   </si>
   <si>
     <t>Moonknight black.png</t>
+  </si>
+  <si>
+    <t>Black Adam hood.jpg</t>
+  </si>
+  <si>
+    <t>Black Adam bald.jpg</t>
+  </si>
+  <si>
+    <t>Batman Affleck.jpg</t>
+  </si>
+  <si>
+    <t>Batman Keaton.jpg</t>
+  </si>
+  <si>
+    <t>Gotham Stand.jpg</t>
   </si>
 </sst>
 </file>
@@ -1312,8 +1312,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCDC9875-9E8E-485C-910E-47B83A1F9902}">
   <dimension ref="A1:E179"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="148" zoomScaleNormal="148" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+    <sheetView tabSelected="1" topLeftCell="A53" zoomScale="148" zoomScaleNormal="148" workbookViewId="0">
+      <selection activeCell="D63" sqref="D63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2031,7 +2031,7 @@
         <v>250</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>6</v>
@@ -2116,7 +2116,7 @@
         <v>150</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>52</v>
@@ -2133,7 +2133,7 @@
         <v>300</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>52</v>
@@ -2150,7 +2150,7 @@
         <v>300</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>52</v>
@@ -2167,7 +2167,7 @@
         <v>180</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>232</v>
+        <v>248</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>52</v>
@@ -2184,7 +2184,7 @@
         <v>160</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>233</v>
+        <v>249</v>
       </c>
       <c r="E51" s="3" t="s">
         <v>52</v>
@@ -2235,7 +2235,7 @@
         <v>350</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>234</v>
+        <v>250</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>52</v>
@@ -2252,7 +2252,7 @@
         <v>350</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>235</v>
+        <v>251</v>
       </c>
       <c r="E55" s="3" t="s">
         <v>52</v>
@@ -2269,7 +2269,7 @@
         <v>500</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>236</v>
+        <v>252</v>
       </c>
       <c r="E56" s="3" t="s">
         <v>52</v>
@@ -2286,7 +2286,7 @@
         <v>350</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>52</v>
@@ -2303,7 +2303,7 @@
         <v>350</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>52</v>
@@ -2320,7 +2320,7 @@
         <v>350</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="E59" s="3" t="s">
         <v>52</v>
@@ -2337,7 +2337,7 @@
         <v>500</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="E60" s="3" t="s">
         <v>52</v>
@@ -2354,7 +2354,7 @@
         <v>500</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="E61" s="3" t="s">
         <v>52</v>
@@ -2371,7 +2371,7 @@
         <v>300</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="E62" s="3" t="s">
         <v>68</v>
@@ -2405,7 +2405,7 @@
         <v>300</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="E64" s="3" t="s">
         <v>68</v>
@@ -3102,7 +3102,7 @@
         <v>300</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="E105" s="3" t="s">
         <v>68</v>
@@ -3119,7 +3119,7 @@
         <v>300</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="E106" s="3" t="s">
         <v>68</v>
@@ -3136,7 +3136,7 @@
         <v>300</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="E107" s="3" t="s">
         <v>68</v>
@@ -3153,7 +3153,7 @@
         <v>300</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="E108" s="3" t="s">
         <v>68</v>
@@ -3170,7 +3170,7 @@
         <v>300</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="E109" s="3" t="s">
         <v>68</v>
@@ -3187,7 +3187,7 @@
         <v>300</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="E110" s="3" t="s">
         <v>68</v>
@@ -3204,7 +3204,7 @@
         <v>300</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="E111" s="3" t="s">
         <v>68</v>

--- a/data/stock.xlsx
+++ b/data/stock.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\blocks\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA5ED1C0-1952-4439-98FC-C63A011C70FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF58FC63-D827-4C0F-A5EC-BCBE7E23A755}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="480" windowWidth="21600" windowHeight="11295" xr2:uid="{FC0CBB84-858B-49F6-BA69-44D83C89F7C4}"/>
+    <workbookView xWindow="4080" yWindow="1290" windowWidth="21600" windowHeight="11295" xr2:uid="{FC0CBB84-858B-49F6-BA69-44D83C89F7C4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="254">
   <si>
     <t>Product</t>
   </si>
@@ -588,9 +588,6 @@
     <t>Thanos.jpg</t>
   </si>
   <si>
-    <t>Hawkeye.jpg</t>
-  </si>
-  <si>
     <t>placeholder.jpg</t>
   </si>
   <si>
@@ -793,6 +790,12 @@
   </si>
   <si>
     <t>Gotham Stand.jpg</t>
+  </si>
+  <si>
+    <t>Sasuke &amp; Naruto(war).jpg</t>
+  </si>
+  <si>
+    <t>Hawkeye.jpeg</t>
   </si>
 </sst>
 </file>
@@ -1312,8 +1315,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCDC9875-9E8E-485C-910E-47B83A1F9902}">
   <dimension ref="A1:E179"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" zoomScale="148" zoomScaleNormal="148" workbookViewId="0">
-      <selection activeCell="D63" sqref="D63"/>
+    <sheetView tabSelected="1" zoomScale="148" zoomScaleNormal="148" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1419,7 +1422,7 @@
         <v>180</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>6</v>
@@ -1436,7 +1439,7 @@
         <v>180</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>184</v>
+        <v>253</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>6</v>
@@ -1453,7 +1456,7 @@
         <v>180</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>6</v>
@@ -1470,7 +1473,7 @@
         <v>200</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>6</v>
@@ -1487,7 +1490,7 @@
         <v>200</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>6</v>
@@ -1504,7 +1507,7 @@
         <v>200</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>6</v>
@@ -1521,7 +1524,7 @@
         <v>200</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>6</v>
@@ -1538,7 +1541,7 @@
         <v>200</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>6</v>
@@ -1555,7 +1558,7 @@
         <v>200</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>6</v>
@@ -1572,7 +1575,7 @@
         <v>200</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>6</v>
@@ -1589,7 +1592,7 @@
         <v>200</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>6</v>
@@ -1606,7 +1609,7 @@
         <v>200</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>6</v>
@@ -1623,7 +1626,7 @@
         <v>200</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>6</v>
@@ -1640,7 +1643,7 @@
         <v>200</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>6</v>
@@ -1657,7 +1660,7 @@
         <v>180</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>6</v>
@@ -1674,7 +1677,7 @@
         <v>180</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>6</v>
@@ -1691,7 +1694,7 @@
         <v>180</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>6</v>
@@ -1708,7 +1711,7 @@
         <v>180</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>6</v>
@@ -1725,7 +1728,7 @@
         <v>180</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>6</v>
@@ -1742,7 +1745,7 @@
         <v>180</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>6</v>
@@ -1759,7 +1762,7 @@
         <v>180</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>6</v>
@@ -1776,7 +1779,7 @@
         <v>250</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>6</v>
@@ -1793,7 +1796,7 @@
         <v>250</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>6</v>
@@ -1810,7 +1813,7 @@
         <v>250</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>6</v>
@@ -1827,7 +1830,7 @@
         <v>450</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>6</v>
@@ -1844,7 +1847,7 @@
         <v>380</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>6</v>
@@ -1861,7 +1864,7 @@
         <v>800</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>6</v>
@@ -1878,7 +1881,7 @@
         <v>250</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>6</v>
@@ -1895,7 +1898,7 @@
         <v>250</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>6</v>
@@ -1912,7 +1915,7 @@
         <v>250</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>6</v>
@@ -1929,7 +1932,7 @@
         <v>850</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>6</v>
@@ -1946,7 +1949,7 @@
         <v>250</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>6</v>
@@ -1963,7 +1966,7 @@
         <v>250</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>6</v>
@@ -1980,7 +1983,7 @@
         <v>250</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>6</v>
@@ -1997,7 +2000,7 @@
         <v>250</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>6</v>
@@ -2014,7 +2017,7 @@
         <v>250</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>6</v>
@@ -2031,7 +2034,7 @@
         <v>250</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>6</v>
@@ -2048,7 +2051,7 @@
         <v>250</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>6</v>
@@ -2065,7 +2068,7 @@
         <v>360</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>6</v>
@@ -2082,7 +2085,7 @@
         <v>360</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>6</v>
@@ -2099,7 +2102,7 @@
         <v>180</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E46" s="3" t="s">
         <v>6</v>
@@ -2116,7 +2119,7 @@
         <v>150</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>52</v>
@@ -2133,7 +2136,7 @@
         <v>300</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>52</v>
@@ -2150,7 +2153,7 @@
         <v>300</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>52</v>
@@ -2167,7 +2170,7 @@
         <v>180</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>52</v>
@@ -2184,7 +2187,7 @@
         <v>160</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E51" s="3" t="s">
         <v>52</v>
@@ -2201,7 +2204,7 @@
         <v>160</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>52</v>
@@ -2218,7 +2221,7 @@
         <v>180</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E53" s="3" t="s">
         <v>52</v>
@@ -2235,7 +2238,7 @@
         <v>350</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>52</v>
@@ -2252,7 +2255,7 @@
         <v>350</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E55" s="3" t="s">
         <v>52</v>
@@ -2269,7 +2272,7 @@
         <v>500</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E56" s="3" t="s">
         <v>52</v>
@@ -2286,7 +2289,7 @@
         <v>350</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>52</v>
@@ -2303,7 +2306,7 @@
         <v>350</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>52</v>
@@ -2320,7 +2323,7 @@
         <v>350</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E59" s="3" t="s">
         <v>52</v>
@@ -2337,7 +2340,7 @@
         <v>500</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E60" s="3" t="s">
         <v>52</v>
@@ -2354,7 +2357,7 @@
         <v>500</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E61" s="3" t="s">
         <v>52</v>
@@ -2371,7 +2374,7 @@
         <v>300</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E62" s="3" t="s">
         <v>68</v>
@@ -2379,7 +2382,7 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B63" s="3">
         <v>1</v>
@@ -2388,7 +2391,7 @@
         <v>300</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E63" s="3" t="s">
         <v>68</v>
@@ -2405,7 +2408,7 @@
         <v>300</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E64" s="3" t="s">
         <v>68</v>
@@ -2422,7 +2425,7 @@
         <v>300</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E65" s="3" t="s">
         <v>68</v>
@@ -2439,7 +2442,7 @@
         <v>300</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E66" s="3" t="s">
         <v>68</v>
@@ -2456,7 +2459,7 @@
         <v>270</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E67" s="3" t="s">
         <v>68</v>
@@ -2473,7 +2476,7 @@
         <v>270</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E68" s="3" t="s">
         <v>68</v>
@@ -2490,7 +2493,7 @@
         <v>300</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E69" s="3" t="s">
         <v>68</v>
@@ -2507,7 +2510,7 @@
         <v>300</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E70" s="3" t="s">
         <v>68</v>
@@ -2524,7 +2527,7 @@
         <v>300</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E71" s="3" t="s">
         <v>68</v>
@@ -2541,7 +2544,7 @@
         <v>270</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>68</v>
@@ -2558,7 +2561,7 @@
         <v>300</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E73" s="3" t="s">
         <v>68</v>
@@ -2575,7 +2578,7 @@
         <v>300</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E74" s="3" t="s">
         <v>68</v>
@@ -2592,7 +2595,7 @@
         <v>300</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E75" s="3" t="s">
         <v>68</v>
@@ -2609,7 +2612,7 @@
         <v>300</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E76" s="3" t="s">
         <v>68</v>
@@ -2626,7 +2629,7 @@
         <v>300</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E77" s="3" t="s">
         <v>68</v>
@@ -2643,7 +2646,7 @@
         <v>300</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E78" s="3" t="s">
         <v>68</v>
@@ -2660,7 +2663,7 @@
         <v>300</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E79" s="3" t="s">
         <v>68</v>
@@ -2677,7 +2680,7 @@
         <v>300</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E80" s="3" t="s">
         <v>68</v>
@@ -2694,7 +2697,7 @@
         <v>300</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E81" s="3" t="s">
         <v>68</v>
@@ -2711,7 +2714,7 @@
         <v>320</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E82" s="3" t="s">
         <v>68</v>
@@ -2728,7 +2731,7 @@
         <v>350</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E83" s="3" t="s">
         <v>68</v>
@@ -2745,7 +2748,7 @@
         <v>350</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E84" s="3" t="s">
         <v>68</v>
@@ -2762,7 +2765,7 @@
         <v>350</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E85" s="3" t="s">
         <v>68</v>
@@ -2779,7 +2782,7 @@
         <v>320</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E86" s="3" t="s">
         <v>68</v>
@@ -2796,7 +2799,7 @@
         <v>320</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E87" s="3" t="s">
         <v>68</v>
@@ -2813,7 +2816,7 @@
         <v>320</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E88" s="3" t="s">
         <v>68</v>
@@ -2830,7 +2833,7 @@
         <v>320</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E89" s="3" t="s">
         <v>68</v>
@@ -2847,7 +2850,7 @@
         <v>320</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E90" s="3" t="s">
         <v>68</v>
@@ -2864,7 +2867,7 @@
         <v>320</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E91" s="3" t="s">
         <v>68</v>
@@ -2881,7 +2884,7 @@
         <v>320</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E92" s="3" t="s">
         <v>68</v>
@@ -2898,7 +2901,7 @@
         <v>320</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E93" s="3" t="s">
         <v>68</v>
@@ -2915,7 +2918,7 @@
         <v>320</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E94" s="3" t="s">
         <v>68</v>
@@ -2932,7 +2935,7 @@
         <v>320</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E95" s="3" t="s">
         <v>68</v>
@@ -2949,7 +2952,7 @@
         <v>320</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E96" s="3" t="s">
         <v>68</v>
@@ -2966,7 +2969,7 @@
         <v>320</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E97" s="3" t="s">
         <v>68</v>
@@ -2983,7 +2986,7 @@
         <v>320</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E98" s="3" t="s">
         <v>68</v>
@@ -3000,7 +3003,7 @@
         <v>320</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E99" s="3" t="s">
         <v>68</v>
@@ -3017,7 +3020,7 @@
         <v>320</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E100" s="3" t="s">
         <v>68</v>
@@ -3034,7 +3037,7 @@
         <v>300</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E101" s="3" t="s">
         <v>68</v>
@@ -3051,7 +3054,7 @@
         <v>300</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E102" s="3" t="s">
         <v>68</v>
@@ -3068,7 +3071,7 @@
         <v>300</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E103" s="3" t="s">
         <v>68</v>
@@ -3085,7 +3088,7 @@
         <v>300</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E104" s="3" t="s">
         <v>68</v>
@@ -3102,7 +3105,7 @@
         <v>300</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E105" s="3" t="s">
         <v>68</v>
@@ -3119,7 +3122,7 @@
         <v>300</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E106" s="3" t="s">
         <v>68</v>
@@ -3136,7 +3139,7 @@
         <v>300</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E107" s="3" t="s">
         <v>68</v>
@@ -3153,7 +3156,7 @@
         <v>300</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E108" s="3" t="s">
         <v>68</v>
@@ -3170,7 +3173,7 @@
         <v>300</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E109" s="3" t="s">
         <v>68</v>
@@ -3187,7 +3190,7 @@
         <v>300</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E110" s="3" t="s">
         <v>68</v>
@@ -3204,7 +3207,7 @@
         <v>300</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E111" s="3" t="s">
         <v>68</v>
@@ -3221,7 +3224,7 @@
         <v>300</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E112" s="3" t="s">
         <v>68</v>
@@ -3238,7 +3241,7 @@
         <v>400</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E113" s="3" t="s">
         <v>68</v>
@@ -3255,7 +3258,7 @@
         <v>400</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E114" s="3" t="s">
         <v>68</v>
@@ -3272,7 +3275,7 @@
         <v>300</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E115" s="3" t="s">
         <v>68</v>
@@ -3289,7 +3292,7 @@
         <v>300</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E116" s="3" t="s">
         <v>68</v>
@@ -3306,7 +3309,7 @@
         <v>300</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E117" s="3" t="s">
         <v>68</v>
@@ -3323,7 +3326,7 @@
         <v>300</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E118" s="3" t="s">
         <v>68</v>
@@ -3340,7 +3343,7 @@
         <v>300</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E119" s="3" t="s">
         <v>68</v>
@@ -3357,7 +3360,7 @@
         <v>300</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E120" s="3" t="s">
         <v>68</v>
@@ -3374,7 +3377,7 @@
         <v>300</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E121" s="3" t="s">
         <v>68</v>
@@ -3391,7 +3394,7 @@
         <v>500</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E122" s="3" t="s">
         <v>68</v>
@@ -3408,7 +3411,7 @@
         <v>300</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E123" s="3" t="s">
         <v>68</v>
@@ -3425,7 +3428,7 @@
         <v>300</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E124" s="3" t="s">
         <v>68</v>
@@ -3442,7 +3445,7 @@
         <v>220</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E125" s="3" t="s">
         <v>131</v>
@@ -3459,7 +3462,7 @@
         <v>500</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E126" s="3" t="s">
         <v>131</v>
@@ -3476,7 +3479,7 @@
         <v>500</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E127" s="3" t="s">
         <v>131</v>
@@ -3493,7 +3496,7 @@
         <v>500</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E128" s="3" t="s">
         <v>131</v>
@@ -3510,7 +3513,7 @@
         <v>500</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E129" s="3" t="s">
         <v>131</v>
@@ -3527,7 +3530,7 @@
         <v>500</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>185</v>
+        <v>252</v>
       </c>
       <c r="E130" s="3" t="s">
         <v>131</v>
@@ -3544,7 +3547,7 @@
         <v>220</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E131" s="3" t="s">
         <v>131</v>
@@ -3561,7 +3564,7 @@
         <v>220</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E132" s="3" t="s">
         <v>131</v>
@@ -3578,7 +3581,7 @@
         <v>220</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E133" s="3" t="s">
         <v>131</v>
@@ -3595,7 +3598,7 @@
         <v>220</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E134" s="3" t="s">
         <v>131</v>
@@ -3612,7 +3615,7 @@
         <v>200</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E135" s="3" t="s">
         <v>131</v>
@@ -3629,7 +3632,7 @@
         <v>220</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E136" s="3" t="s">
         <v>131</v>
@@ -3646,7 +3649,7 @@
         <v>200</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E137" s="3" t="s">
         <v>131</v>
@@ -3663,7 +3666,7 @@
         <v>250</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E138" s="3" t="s">
         <v>131</v>
@@ -3680,7 +3683,7 @@
         <v>220</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E139" s="3" t="s">
         <v>131</v>
@@ -3697,7 +3700,7 @@
         <v>200</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E140" s="3" t="s">
         <v>131</v>
@@ -3714,7 +3717,7 @@
         <v>250</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E141" s="3" t="s">
         <v>131</v>
@@ -3731,7 +3734,7 @@
         <v>220</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E142" s="3" t="s">
         <v>131</v>
@@ -3748,7 +3751,7 @@
         <v>200</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E143" s="3" t="s">
         <v>131</v>
@@ -3765,7 +3768,7 @@
         <v>350</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E144" s="3" t="s">
         <v>131</v>
@@ -3782,7 +3785,7 @@
         <v>350</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E145" s="3" t="s">
         <v>131</v>
@@ -3799,7 +3802,7 @@
         <v>350</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E146" s="3" t="s">
         <v>131</v>
@@ -3816,7 +3819,7 @@
         <v>350</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E147" s="3" t="s">
         <v>131</v>
@@ -3833,7 +3836,7 @@
         <v>350</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E148" s="3" t="s">
         <v>131</v>
@@ -3850,7 +3853,7 @@
         <v>350</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E149" s="3" t="s">
         <v>131</v>
@@ -3867,7 +3870,7 @@
         <v>220</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E150" s="3" t="s">
         <v>131</v>
@@ -3884,7 +3887,7 @@
         <v>240</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E151" s="3" t="s">
         <v>158</v>
@@ -3901,7 +3904,7 @@
         <v>460</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E152" s="3" t="s">
         <v>158</v>
@@ -3918,7 +3921,7 @@
         <v>250</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E153" s="3" t="s">
         <v>158</v>
@@ -3935,7 +3938,7 @@
         <v>250</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E154" s="3" t="s">
         <v>158</v>
@@ -3952,7 +3955,7 @@
         <v>240</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E155" s="3" t="s">
         <v>158</v>
@@ -3969,7 +3972,7 @@
         <v>250</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E156" s="3" t="s">
         <v>164</v>
@@ -3986,7 +3989,7 @@
         <v>250</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E157" s="3" t="s">
         <v>164</v>
@@ -4003,7 +4006,7 @@
         <v>250</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E158" s="3" t="s">
         <v>164</v>
@@ -4020,7 +4023,7 @@
         <v>250</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E159" s="3" t="s">
         <v>164</v>
@@ -4037,7 +4040,7 @@
         <v>250</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E160" s="3" t="s">
         <v>164</v>
@@ -4054,7 +4057,7 @@
         <v>250</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E161" s="3" t="s">
         <v>164</v>
@@ -4071,7 +4074,7 @@
         <v>250</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E162" s="3" t="s">
         <v>164</v>
@@ -4088,7 +4091,7 @@
         <v>250</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E163" s="3" t="s">
         <v>164</v>
@@ -4105,7 +4108,7 @@
         <v>250</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E164" s="3" t="s">
         <v>164</v>
@@ -4122,7 +4125,7 @@
         <v>250</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E165" s="3" t="s">
         <v>164</v>
@@ -4139,7 +4142,7 @@
         <v>250</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E166" s="3" t="s">
         <v>164</v>
@@ -4156,7 +4159,7 @@
         <v>250</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E167" s="3" t="s">
         <v>164</v>
@@ -4173,7 +4176,7 @@
         <v>250</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E168" s="3" t="s">
         <v>164</v>
@@ -4190,7 +4193,7 @@
         <v>250</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E169" s="3" t="s">
         <v>164</v>
@@ -4207,7 +4210,7 @@
         <v>250</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E170" s="3" t="s">
         <v>164</v>
@@ -4224,7 +4227,7 @@
         <v>250</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E171" s="3" t="s">
         <v>164</v>
@@ -4232,7 +4235,7 @@
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B172" s="5">
         <v>7</v>
@@ -4241,15 +4244,15 @@
         <v>250</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E172" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B173" s="5">
         <v>1</v>
@@ -4258,15 +4261,15 @@
         <v>250</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E173" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B174" s="5">
         <v>1</v>
@@ -4275,15 +4278,15 @@
         <v>220</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E174" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B175" s="5">
         <v>1</v>
@@ -4292,15 +4295,15 @@
         <v>220</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E175" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B176" s="5">
         <v>2</v>
@@ -4309,15 +4312,15 @@
         <v>220</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E176" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B177" s="5">
         <v>1</v>
@@ -4326,15 +4329,15 @@
         <v>220</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E177" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B178" s="5">
         <v>1</v>
@@ -4343,15 +4346,15 @@
         <v>220</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E178" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B179" s="5">
         <v>5</v>
@@ -4360,10 +4363,10 @@
         <v>350</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E179" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>

--- a/data/stock.xlsx
+++ b/data/stock.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\blocks\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF58FC63-D827-4C0F-A5EC-BCBE7E23A755}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C943793-7C4B-4991-AAB9-F57A02BBF255}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4080" yWindow="1290" windowWidth="21600" windowHeight="11295" xr2:uid="{FC0CBB84-858B-49F6-BA69-44D83C89F7C4}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="253">
   <si>
     <t>Product</t>
   </si>
@@ -727,9 +727,6 @@
   </si>
   <si>
     <t>Others</t>
-  </si>
-  <si>
-    <t xml:space="preserve">placeholder.jpg  </t>
   </si>
   <si>
     <t>Batmobile black.jpeg</t>
@@ -1315,8 +1312,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCDC9875-9E8E-485C-910E-47B83A1F9902}">
   <dimension ref="A1:E179"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="148" zoomScaleNormal="148" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A172" zoomScale="148" zoomScaleNormal="148" workbookViewId="0">
+      <selection activeCell="D179" sqref="D179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1436,10 +1433,10 @@
         <v>2</v>
       </c>
       <c r="C7" s="3">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>6</v>
@@ -2034,7 +2031,7 @@
         <v>250</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>6</v>
@@ -2119,7 +2116,7 @@
         <v>150</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>231</v>
+        <v>184</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>52</v>
@@ -2136,7 +2133,7 @@
         <v>300</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>231</v>
+        <v>184</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>52</v>
@@ -2153,7 +2150,7 @@
         <v>300</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>231</v>
+        <v>184</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>52</v>
@@ -2170,7 +2167,7 @@
         <v>180</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>52</v>
@@ -2187,7 +2184,7 @@
         <v>160</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E51" s="3" t="s">
         <v>52</v>
@@ -2238,7 +2235,7 @@
         <v>350</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>52</v>
@@ -2255,7 +2252,7 @@
         <v>350</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E55" s="3" t="s">
         <v>52</v>
@@ -2272,7 +2269,7 @@
         <v>500</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E56" s="3" t="s">
         <v>52</v>
@@ -2289,7 +2286,7 @@
         <v>350</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>52</v>
@@ -2306,7 +2303,7 @@
         <v>350</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>52</v>
@@ -2323,7 +2320,7 @@
         <v>350</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E59" s="3" t="s">
         <v>52</v>
@@ -2340,7 +2337,7 @@
         <v>500</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E60" s="3" t="s">
         <v>52</v>
@@ -2357,7 +2354,7 @@
         <v>500</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E61" s="3" t="s">
         <v>52</v>
@@ -2374,7 +2371,7 @@
         <v>300</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E62" s="3" t="s">
         <v>68</v>
@@ -2408,7 +2405,7 @@
         <v>300</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E64" s="3" t="s">
         <v>68</v>
@@ -3105,7 +3102,7 @@
         <v>300</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E105" s="3" t="s">
         <v>68</v>
@@ -3122,7 +3119,7 @@
         <v>300</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E106" s="3" t="s">
         <v>68</v>
@@ -3139,7 +3136,7 @@
         <v>300</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E107" s="3" t="s">
         <v>68</v>
@@ -3156,7 +3153,7 @@
         <v>300</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E108" s="3" t="s">
         <v>68</v>
@@ -3173,7 +3170,7 @@
         <v>300</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E109" s="3" t="s">
         <v>68</v>
@@ -3190,7 +3187,7 @@
         <v>300</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E110" s="3" t="s">
         <v>68</v>
@@ -3207,7 +3204,7 @@
         <v>300</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E111" s="3" t="s">
         <v>68</v>
@@ -3530,7 +3527,7 @@
         <v>500</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E130" s="3" t="s">
         <v>131</v>

--- a/data/stock.xlsx
+++ b/data/stock.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\blocks\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C943793-7C4B-4991-AAB9-F57A02BBF255}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86FF8A6F-91F1-4A51-B550-9AB54C8B3894}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4080" yWindow="1290" windowWidth="21600" windowHeight="11295" xr2:uid="{FC0CBB84-858B-49F6-BA69-44D83C89F7C4}"/>
   </bookViews>
@@ -789,10 +789,10 @@
     <t>Gotham Stand.jpg</t>
   </si>
   <si>
-    <t>Sasuke &amp; Naruto(war).jpg</t>
-  </si>
-  <si>
     <t>Hawkeye.jpeg</t>
+  </si>
+  <si>
+    <t>Sasuke &amp; Naruto(war).png</t>
   </si>
 </sst>
 </file>
@@ -1312,8 +1312,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCDC9875-9E8E-485C-910E-47B83A1F9902}">
   <dimension ref="A1:E179"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A172" zoomScale="148" zoomScaleNormal="148" workbookViewId="0">
-      <selection activeCell="D179" sqref="D179"/>
+    <sheetView tabSelected="1" topLeftCell="A127" zoomScale="148" zoomScaleNormal="148" workbookViewId="0">
+      <selection activeCell="D130" sqref="D130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1436,7 +1436,7 @@
         <v>200</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>6</v>
@@ -3527,7 +3527,7 @@
         <v>500</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E130" s="3" t="s">
         <v>131</v>

--- a/data/stock.xlsx
+++ b/data/stock.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\blocks\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86FF8A6F-91F1-4A51-B550-9AB54C8B3894}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86A075D8-9E77-4187-8D7B-B5732B74770E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4080" yWindow="1290" windowWidth="21600" windowHeight="11295" xr2:uid="{FC0CBB84-858B-49F6-BA69-44D83C89F7C4}"/>
+    <workbookView xWindow="3435" yWindow="2790" windowWidth="21600" windowHeight="11295" xr2:uid="{FC0CBB84-858B-49F6-BA69-44D83C89F7C4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="285">
   <si>
     <t>Product</t>
   </si>
@@ -186,9 +186,6 @@
     <t>Iron Patriot new</t>
   </si>
   <si>
-    <t>Warmachine TV</t>
-  </si>
-  <si>
     <t>Joker</t>
   </si>
   <si>
@@ -793,6 +790,105 @@
   </si>
   <si>
     <t>Sasuke &amp; Naruto(war).png</t>
+  </si>
+  <si>
+    <t>Wolverine.png</t>
+  </si>
+  <si>
+    <t>Thor Gold.jpg</t>
+  </si>
+  <si>
+    <t>Captain America.jpg</t>
+  </si>
+  <si>
+    <t>DrStrange.jpg</t>
+  </si>
+  <si>
+    <t>Spiderman Tobey.jpg</t>
+  </si>
+  <si>
+    <t>Spiderman Tom.jpg</t>
+  </si>
+  <si>
+    <t>Doctor Octous.jpg</t>
+  </si>
+  <si>
+    <t>Moonknight white.png</t>
+  </si>
+  <si>
+    <t>MrMoonknight.png</t>
+  </si>
+  <si>
+    <t>DrStrange Supreme.png</t>
+  </si>
+  <si>
+    <t>Warmachine</t>
+  </si>
+  <si>
+    <t>Warmachine.jpeg</t>
+  </si>
+  <si>
+    <t>Superman.jpg</t>
+  </si>
+  <si>
+    <t>Batman (silver).jpg</t>
+  </si>
+  <si>
+    <t>Batman (black).jpg</t>
+  </si>
+  <si>
+    <t>Gold sengoku.jpeg</t>
+  </si>
+  <si>
+    <t>Zoro Asura wano.jpeg</t>
+  </si>
+  <si>
+    <t>Zoro Asura (suit).jpeg</t>
+  </si>
+  <si>
+    <t>Gol D Roger.jpeg</t>
+  </si>
+  <si>
+    <t>Luffy (Big arm).jpeg</t>
+  </si>
+  <si>
+    <t>Sanji (eye heart).jpeg</t>
+  </si>
+  <si>
+    <t>Brook WM.jpeg</t>
+  </si>
+  <si>
+    <t>Ussopp WM.jpeg</t>
+  </si>
+  <si>
+    <t>Robin WM.jpeg</t>
+  </si>
+  <si>
+    <t>Chopper WM.jpeg</t>
+  </si>
+  <si>
+    <t>Franky WM.jpeg</t>
+  </si>
+  <si>
+    <t>Boa WM.jpeg</t>
+  </si>
+  <si>
+    <t>Mihawk white dress.jpeg</t>
+  </si>
+  <si>
+    <t>Geto.jpg</t>
+  </si>
+  <si>
+    <t>Gojo.jpg</t>
+  </si>
+  <si>
+    <t>Sukuna.jpg</t>
+  </si>
+  <si>
+    <t>John Wick.jpg</t>
+  </si>
+  <si>
+    <t>Kaiju no8.jpg</t>
   </si>
 </sst>
 </file>
@@ -1312,8 +1408,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCDC9875-9E8E-485C-910E-47B83A1F9902}">
   <dimension ref="A1:E179"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" zoomScale="148" zoomScaleNormal="148" workbookViewId="0">
-      <selection activeCell="D130" sqref="D130"/>
+    <sheetView tabSelected="1" topLeftCell="A143" zoomScale="148" zoomScaleNormal="148" workbookViewId="0">
+      <selection activeCell="D181" sqref="D181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1351,7 +1447,7 @@
         <v>220</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>6</v>
@@ -1368,7 +1464,7 @@
         <v>220</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>6</v>
@@ -1385,7 +1481,7 @@
         <v>350</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>6</v>
@@ -1402,7 +1498,7 @@
         <v>180</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>6</v>
@@ -1419,7 +1515,7 @@
         <v>180</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>6</v>
@@ -1436,7 +1532,7 @@
         <v>200</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>6</v>
@@ -1453,7 +1549,7 @@
         <v>180</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>6</v>
@@ -1470,7 +1566,7 @@
         <v>200</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>6</v>
@@ -1487,7 +1583,7 @@
         <v>200</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>6</v>
@@ -1504,7 +1600,7 @@
         <v>200</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>6</v>
@@ -1521,7 +1617,7 @@
         <v>200</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>6</v>
@@ -1538,7 +1634,7 @@
         <v>200</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>6</v>
@@ -1555,7 +1651,7 @@
         <v>200</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>6</v>
@@ -1572,7 +1668,7 @@
         <v>200</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>6</v>
@@ -1589,7 +1685,7 @@
         <v>200</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>6</v>
@@ -1606,7 +1702,7 @@
         <v>200</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>6</v>
@@ -1623,7 +1719,7 @@
         <v>200</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>184</v>
+        <v>252</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>6</v>
@@ -1640,7 +1736,7 @@
         <v>200</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>6</v>
@@ -1657,7 +1753,7 @@
         <v>180</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>6</v>
@@ -1674,7 +1770,7 @@
         <v>180</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>184</v>
+        <v>254</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>6</v>
@@ -1691,7 +1787,7 @@
         <v>180</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>6</v>
@@ -1708,7 +1804,7 @@
         <v>180</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>6</v>
@@ -1725,7 +1821,7 @@
         <v>180</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>6</v>
@@ -1742,7 +1838,7 @@
         <v>180</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>184</v>
+        <v>253</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>6</v>
@@ -1759,7 +1855,7 @@
         <v>180</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>184</v>
+        <v>255</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>6</v>
@@ -1776,7 +1872,7 @@
         <v>250</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>184</v>
+        <v>256</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>6</v>
@@ -1793,7 +1889,7 @@
         <v>250</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>6</v>
@@ -1810,7 +1906,7 @@
         <v>250</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>184</v>
+        <v>257</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>6</v>
@@ -1827,7 +1923,7 @@
         <v>450</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>184</v>
+        <v>258</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>6</v>
@@ -1844,7 +1940,7 @@
         <v>380</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>6</v>
@@ -1861,7 +1957,7 @@
         <v>800</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>6</v>
@@ -1878,7 +1974,7 @@
         <v>250</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>6</v>
@@ -1895,7 +1991,7 @@
         <v>250</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>6</v>
@@ -1912,7 +2008,7 @@
         <v>250</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>6</v>
@@ -1929,7 +2025,7 @@
         <v>850</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>6</v>
@@ -1946,7 +2042,7 @@
         <v>250</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>6</v>
@@ -1963,7 +2059,7 @@
         <v>250</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>184</v>
+        <v>259</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>6</v>
@@ -1980,7 +2076,7 @@
         <v>250</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>184</v>
+        <v>260</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>6</v>
@@ -1997,7 +2093,7 @@
         <v>250</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>184</v>
+        <v>261</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>6</v>
@@ -2014,7 +2110,7 @@
         <v>250</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>6</v>
@@ -2031,7 +2127,7 @@
         <v>250</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>6</v>
@@ -2048,7 +2144,7 @@
         <v>250</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>6</v>
@@ -2065,7 +2161,7 @@
         <v>360</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>6</v>
@@ -2082,7 +2178,7 @@
         <v>360</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>6</v>
@@ -2090,7 +2186,7 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>262</v>
       </c>
       <c r="B46" s="3">
         <v>2</v>
@@ -2099,7 +2195,7 @@
         <v>180</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>184</v>
+        <v>263</v>
       </c>
       <c r="E46" s="3" t="s">
         <v>6</v>
@@ -2107,7 +2203,7 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B47" s="3">
         <v>4</v>
@@ -2116,15 +2212,15 @@
         <v>150</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>184</v>
+        <v>264</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B48" s="3">
         <v>0</v>
@@ -2133,15 +2229,15 @@
         <v>300</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B49" s="3">
         <v>0</v>
@@ -2150,15 +2246,15 @@
         <v>300</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B50" s="3">
         <v>1</v>
@@ -2167,15 +2263,15 @@
         <v>180</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B51" s="3">
         <v>2</v>
@@ -2184,15 +2280,15 @@
         <v>160</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B52" s="3">
         <v>4</v>
@@ -2201,15 +2297,15 @@
         <v>160</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>184</v>
+        <v>265</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B53" s="3">
         <v>1</v>
@@ -2218,15 +2314,15 @@
         <v>180</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>184</v>
+        <v>266</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B54" s="3">
         <v>2</v>
@@ -2235,15 +2331,15 @@
         <v>350</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B55" s="3">
         <v>3</v>
@@ -2252,15 +2348,15 @@
         <v>350</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B56" s="3">
         <v>4</v>
@@ -2269,15 +2365,15 @@
         <v>500</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B57" s="3">
         <v>3</v>
@@ -2286,15 +2382,15 @@
         <v>350</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B58" s="3">
         <v>0</v>
@@ -2303,15 +2399,15 @@
         <v>350</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B59" s="3">
         <v>1</v>
@@ -2320,15 +2416,15 @@
         <v>350</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B60" s="3">
         <v>0</v>
@@ -2337,15 +2433,15 @@
         <v>500</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B61" s="3">
         <v>0</v>
@@ -2354,15 +2450,15 @@
         <v>500</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B62" s="3">
         <v>0</v>
@@ -2371,15 +2467,15 @@
         <v>300</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B63" s="3">
         <v>1</v>
@@ -2388,15 +2484,15 @@
         <v>300</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B64" s="3">
         <v>0</v>
@@ -2405,15 +2501,15 @@
         <v>300</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B65" s="3">
         <v>0</v>
@@ -2422,15 +2518,15 @@
         <v>300</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B66" s="3">
         <v>1</v>
@@ -2439,15 +2535,15 @@
         <v>300</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B67" s="3">
         <v>0</v>
@@ -2456,15 +2552,15 @@
         <v>270</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B68" s="3">
         <v>0</v>
@@ -2473,15 +2569,15 @@
         <v>270</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B69" s="3">
         <v>1</v>
@@ -2490,15 +2586,15 @@
         <v>300</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B70" s="3">
         <v>0</v>
@@ -2507,15 +2603,15 @@
         <v>300</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B71" s="3">
         <v>1</v>
@@ -2524,15 +2620,15 @@
         <v>300</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B72" s="3">
         <v>2</v>
@@ -2541,15 +2637,15 @@
         <v>270</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B73" s="3">
         <v>0</v>
@@ -2558,15 +2654,15 @@
         <v>300</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B74" s="3">
         <v>0</v>
@@ -2575,15 +2671,15 @@
         <v>300</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B75" s="3">
         <v>0</v>
@@ -2592,15 +2688,15 @@
         <v>300</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B76" s="3">
         <v>0</v>
@@ -2609,15 +2705,15 @@
         <v>300</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B77" s="3">
         <v>0</v>
@@ -2626,15 +2722,15 @@
         <v>300</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B78" s="3">
         <v>0</v>
@@ -2643,15 +2739,15 @@
         <v>300</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B79" s="3">
         <v>0</v>
@@ -2660,15 +2756,15 @@
         <v>300</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B80" s="3">
         <v>0</v>
@@ -2677,15 +2773,15 @@
         <v>300</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B81" s="3">
         <v>1</v>
@@ -2694,15 +2790,15 @@
         <v>300</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B82" s="3">
         <v>3</v>
@@ -2711,15 +2807,15 @@
         <v>320</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B83" s="3">
         <v>1</v>
@@ -2728,15 +2824,15 @@
         <v>350</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B84" s="3">
         <v>2</v>
@@ -2745,15 +2841,15 @@
         <v>350</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B85" s="3">
         <v>1</v>
@@ -2762,15 +2858,15 @@
         <v>350</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B86" s="3">
         <v>2</v>
@@ -2779,15 +2875,15 @@
         <v>320</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B87" s="3">
         <v>1</v>
@@ -2796,15 +2892,15 @@
         <v>320</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B88" s="3">
         <v>1</v>
@@ -2813,15 +2909,15 @@
         <v>320</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B89" s="3">
         <v>1</v>
@@ -2830,15 +2926,15 @@
         <v>320</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B90" s="3">
         <v>1</v>
@@ -2847,15 +2943,15 @@
         <v>320</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B91" s="3">
         <v>1</v>
@@ -2864,15 +2960,15 @@
         <v>320</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B92" s="3">
         <v>2</v>
@@ -2881,15 +2977,15 @@
         <v>320</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B93" s="3">
         <v>0</v>
@@ -2898,15 +2994,15 @@
         <v>320</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B94" s="3">
         <v>1</v>
@@ -2915,15 +3011,15 @@
         <v>320</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B95" s="3">
         <v>1</v>
@@ -2932,15 +3028,15 @@
         <v>320</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B96" s="3">
         <v>2</v>
@@ -2949,15 +3045,15 @@
         <v>320</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B97" s="3">
         <v>2</v>
@@ -2966,15 +3062,15 @@
         <v>320</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B98" s="3">
         <v>1</v>
@@ -2983,15 +3079,15 @@
         <v>320</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B99" s="3">
         <v>2</v>
@@ -3000,15 +3096,15 @@
         <v>320</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B100" s="3">
         <v>0</v>
@@ -3017,15 +3113,15 @@
         <v>320</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B101" s="3">
         <v>0</v>
@@ -3034,15 +3130,15 @@
         <v>300</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B102" s="3">
         <v>2</v>
@@ -3051,15 +3147,15 @@
         <v>300</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B103" s="3">
         <v>1</v>
@@ -3068,15 +3164,15 @@
         <v>300</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>184</v>
+        <v>267</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B104" s="3">
         <v>1</v>
@@ -3085,15 +3181,15 @@
         <v>300</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B105" s="3">
         <v>1</v>
@@ -3102,15 +3198,15 @@
         <v>300</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B106" s="3">
         <v>1</v>
@@ -3119,15 +3215,15 @@
         <v>300</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B107" s="3">
         <v>1</v>
@@ -3136,15 +3232,15 @@
         <v>300</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B108" s="3">
         <v>1</v>
@@ -3153,15 +3249,15 @@
         <v>300</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B109" s="3">
         <v>2</v>
@@ -3170,15 +3266,15 @@
         <v>300</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E109" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B110" s="3">
         <v>2</v>
@@ -3187,15 +3283,15 @@
         <v>300</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E110" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B111" s="3">
         <v>1</v>
@@ -3204,15 +3300,15 @@
         <v>300</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B112" s="3">
         <v>1</v>
@@ -3221,15 +3317,15 @@
         <v>300</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B113" s="3">
         <v>0</v>
@@ -3238,15 +3334,15 @@
         <v>400</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>184</v>
+        <v>268</v>
       </c>
       <c r="E113" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B114" s="3">
         <v>1</v>
@@ -3255,15 +3351,15 @@
         <v>400</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>184</v>
+        <v>269</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B115" s="3">
         <v>0</v>
@@ -3272,15 +3368,15 @@
         <v>300</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>184</v>
+        <v>270</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B116" s="3">
         <v>2</v>
@@ -3289,15 +3385,15 @@
         <v>300</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>184</v>
+        <v>271</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B117" s="3">
         <v>1</v>
@@ -3306,15 +3402,15 @@
         <v>300</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>184</v>
+        <v>272</v>
       </c>
       <c r="E117" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B118" s="3">
         <v>1</v>
@@ -3323,15 +3419,15 @@
         <v>300</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>184</v>
+        <v>273</v>
       </c>
       <c r="E118" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B119" s="3">
         <v>1</v>
@@ -3340,15 +3436,15 @@
         <v>300</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>184</v>
+        <v>274</v>
       </c>
       <c r="E119" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B120" s="3">
         <v>1</v>
@@ -3357,15 +3453,15 @@
         <v>300</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>184</v>
+        <v>275</v>
       </c>
       <c r="E120" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B121" s="3">
         <v>1</v>
@@ -3374,15 +3470,15 @@
         <v>300</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>184</v>
+        <v>276</v>
       </c>
       <c r="E121" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B122" s="3">
         <v>0</v>
@@ -3391,15 +3487,15 @@
         <v>500</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>184</v>
+        <v>277</v>
       </c>
       <c r="E122" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B123" s="3">
         <v>1</v>
@@ -3408,15 +3504,15 @@
         <v>300</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>184</v>
+        <v>278</v>
       </c>
       <c r="E123" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B124" s="3">
         <v>1</v>
@@ -3425,15 +3521,15 @@
         <v>300</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>184</v>
+        <v>279</v>
       </c>
       <c r="E124" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B125" s="3">
         <v>2</v>
@@ -3442,15 +3538,15 @@
         <v>220</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E125" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B126" s="3">
         <v>1</v>
@@ -3459,15 +3555,15 @@
         <v>500</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E126" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B127" s="3">
         <v>1</v>
@@ -3476,15 +3572,15 @@
         <v>500</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E127" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B128" s="3">
         <v>1</v>
@@ -3493,15 +3589,15 @@
         <v>500</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E128" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B129" s="3">
         <v>0</v>
@@ -3510,15 +3606,15 @@
         <v>500</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E129" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B130" s="3">
         <v>1</v>
@@ -3527,15 +3623,15 @@
         <v>500</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E130" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B131" s="3">
         <v>1</v>
@@ -3544,15 +3640,15 @@
         <v>220</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E131" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B132" s="3">
         <v>3</v>
@@ -3561,15 +3657,15 @@
         <v>220</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E132" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B133" s="3">
         <v>1</v>
@@ -3578,15 +3674,15 @@
         <v>220</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E133" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B134" s="3">
         <v>2</v>
@@ -3595,15 +3691,15 @@
         <v>220</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E134" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B135" s="3">
         <v>2</v>
@@ -3612,15 +3708,15 @@
         <v>200</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E135" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B136" s="3">
         <v>1</v>
@@ -3629,15 +3725,15 @@
         <v>220</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E136" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B137" s="3">
         <v>2</v>
@@ -3646,15 +3742,15 @@
         <v>200</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E137" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B138" s="3">
         <v>3</v>
@@ -3663,15 +3759,15 @@
         <v>250</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E138" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B139" s="3">
         <v>1</v>
@@ -3680,15 +3776,15 @@
         <v>220</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E139" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B140" s="3">
         <v>3</v>
@@ -3697,15 +3793,15 @@
         <v>200</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E140" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B141" s="3">
         <v>3</v>
@@ -3714,15 +3810,15 @@
         <v>250</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E141" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B142" s="3">
         <v>3</v>
@@ -3731,15 +3827,15 @@
         <v>220</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E142" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B143" s="3">
         <v>0</v>
@@ -3748,15 +3844,15 @@
         <v>200</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E143" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B144" s="3">
         <v>2</v>
@@ -3765,15 +3861,15 @@
         <v>350</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E144" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B145" s="3">
         <v>1</v>
@@ -3782,15 +3878,15 @@
         <v>350</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E145" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B146" s="3">
         <v>2</v>
@@ -3799,15 +3895,15 @@
         <v>350</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E146" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B147" s="3">
         <v>1</v>
@@ -3816,15 +3912,15 @@
         <v>350</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E147" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B148" s="3">
         <v>1</v>
@@ -3833,15 +3929,15 @@
         <v>350</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E148" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B149" s="3">
         <v>2</v>
@@ -3850,15 +3946,15 @@
         <v>350</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E149" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B150" s="3">
         <v>1</v>
@@ -3867,15 +3963,15 @@
         <v>220</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E150" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B151" s="3">
         <v>1</v>
@@ -3884,15 +3980,15 @@
         <v>240</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>184</v>
+        <v>280</v>
       </c>
       <c r="E151" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B152" s="3">
         <v>0</v>
@@ -3901,15 +3997,15 @@
         <v>460</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E152" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B153" s="3">
         <v>1</v>
@@ -3918,15 +4014,15 @@
         <v>250</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>184</v>
+        <v>281</v>
       </c>
       <c r="E153" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B154" s="3">
         <v>5</v>
@@ -3935,15 +4031,15 @@
         <v>250</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>184</v>
+        <v>282</v>
       </c>
       <c r="E154" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B155" s="3">
         <v>0</v>
@@ -3952,15 +4048,15 @@
         <v>240</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E155" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B156" s="3">
         <v>3</v>
@@ -3969,15 +4065,15 @@
         <v>250</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E156" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B157" s="3">
         <v>3</v>
@@ -3986,15 +4082,15 @@
         <v>250</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E157" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B158" s="3">
         <v>1</v>
@@ -4003,15 +4099,15 @@
         <v>250</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E158" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B159" s="3">
         <v>1</v>
@@ -4020,15 +4116,15 @@
         <v>250</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E159" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B160" s="3">
         <v>2</v>
@@ -4037,15 +4133,15 @@
         <v>250</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E160" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B161" s="3">
         <v>2</v>
@@ -4054,15 +4150,15 @@
         <v>250</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E161" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B162" s="3">
         <v>1</v>
@@ -4071,15 +4167,15 @@
         <v>250</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E162" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B163" s="3">
         <v>0</v>
@@ -4088,15 +4184,15 @@
         <v>250</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E163" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B164" s="3">
         <v>2</v>
@@ -4105,15 +4201,15 @@
         <v>250</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E164" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B165" s="3">
         <v>1</v>
@@ -4122,15 +4218,15 @@
         <v>250</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E165" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B166" s="3">
         <v>1</v>
@@ -4139,15 +4235,15 @@
         <v>250</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E166" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B167" s="3">
         <v>2</v>
@@ -4156,15 +4252,15 @@
         <v>250</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E167" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B168" s="3">
         <v>1</v>
@@ -4173,15 +4269,15 @@
         <v>250</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E168" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B169" s="3">
         <v>2</v>
@@ -4190,15 +4286,15 @@
         <v>250</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E169" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B170" s="3">
         <v>1</v>
@@ -4207,15 +4303,15 @@
         <v>250</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E170" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B171" s="3">
         <v>1</v>
@@ -4224,15 +4320,15 @@
         <v>250</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E171" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B172" s="5">
         <v>7</v>
@@ -4241,15 +4337,15 @@
         <v>250</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>184</v>
+        <v>283</v>
       </c>
       <c r="E172" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B173" s="5">
         <v>1</v>
@@ -4258,15 +4354,15 @@
         <v>250</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E173" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B174" s="5">
         <v>1</v>
@@ -4275,15 +4371,15 @@
         <v>220</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E174" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B175" s="5">
         <v>1</v>
@@ -4292,15 +4388,15 @@
         <v>220</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E175" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B176" s="5">
         <v>2</v>
@@ -4309,15 +4405,15 @@
         <v>220</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E176" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B177" s="5">
         <v>1</v>
@@ -4326,15 +4422,15 @@
         <v>220</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E177" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B178" s="5">
         <v>1</v>
@@ -4343,15 +4439,15 @@
         <v>220</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E178" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B179" s="5">
         <v>5</v>
@@ -4360,10 +4456,10 @@
         <v>350</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>184</v>
+        <v>284</v>
       </c>
       <c r="E179" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>

--- a/data/stock.xlsx
+++ b/data/stock.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\blocks\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86A075D8-9E77-4187-8D7B-B5732B74770E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6291AE87-6746-457B-8B48-B58537821B1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3435" yWindow="2790" windowWidth="21600" windowHeight="11295" xr2:uid="{FC0CBB84-858B-49F6-BA69-44D83C89F7C4}"/>
+    <workbookView xWindow="4140" yWindow="1065" windowWidth="21600" windowHeight="11295" xr2:uid="{FC0CBB84-858B-49F6-BA69-44D83C89F7C4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1408,8 +1408,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCDC9875-9E8E-485C-910E-47B83A1F9902}">
   <dimension ref="A1:E179"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A143" zoomScale="148" zoomScaleNormal="148" workbookViewId="0">
-      <selection activeCell="D181" sqref="D181"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H45" sqref="H45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2192,7 +2192,7 @@
         <v>2</v>
       </c>
       <c r="C46" s="3">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>263</v>

--- a/data/stock.xlsx
+++ b/data/stock.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\blocks\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6291AE87-6746-457B-8B48-B58537821B1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EA4D1B7-D8C6-4EB4-9DDA-25EE846C656B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4140" yWindow="1065" windowWidth="21600" windowHeight="11295" xr2:uid="{FC0CBB84-858B-49F6-BA69-44D83C89F7C4}"/>
   </bookViews>
@@ -1408,8 +1408,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCDC9875-9E8E-485C-910E-47B83A1F9902}">
   <dimension ref="A1:E179"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H45" sqref="H45"/>
+    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2209,7 +2209,7 @@
         <v>4</v>
       </c>
       <c r="C47" s="3">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>264</v>
@@ -2226,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="C48" s="3">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>183</v>
@@ -2243,7 +2243,7 @@
         <v>0</v>
       </c>
       <c r="C49" s="3">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>183</v>
@@ -2260,7 +2260,7 @@
         <v>1</v>
       </c>
       <c r="C50" s="3">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>245</v>
@@ -2294,7 +2294,7 @@
         <v>4</v>
       </c>
       <c r="C52" s="3">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>265</v>
@@ -2311,7 +2311,7 @@
         <v>1</v>
       </c>
       <c r="C53" s="3">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>266</v>

--- a/data/stock.xlsx
+++ b/data/stock.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\blocks\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EA4D1B7-D8C6-4EB4-9DDA-25EE846C656B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17FD0169-F5E4-4A77-ABA8-B0E0CE2E1AC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4140" yWindow="1065" windowWidth="21600" windowHeight="11295" xr2:uid="{FC0CBB84-858B-49F6-BA69-44D83C89F7C4}"/>
+    <workbookView xWindow="4005" yWindow="1365" windowWidth="21600" windowHeight="11295" xr2:uid="{FC0CBB84-858B-49F6-BA69-44D83C89F7C4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="298">
   <si>
     <t>Product</t>
   </si>
@@ -889,6 +889,45 @@
   </si>
   <si>
     <t>Kaiju no8.jpg</t>
+  </si>
+  <si>
+    <t>Cyclops 97.jpg</t>
+  </si>
+  <si>
+    <t>Magneto 97.jpg</t>
+  </si>
+  <si>
+    <t>Jean 97.jpg</t>
+  </si>
+  <si>
+    <t>Wolverine 97.jpg</t>
+  </si>
+  <si>
+    <t>Beast 97.jpg</t>
+  </si>
+  <si>
+    <t>Storm 97.jpg</t>
+  </si>
+  <si>
+    <t>Wolverine full sleeve.jpg</t>
+  </si>
+  <si>
+    <t>Deadpool Gold gun.jpg</t>
+  </si>
+  <si>
+    <t>Warmachine new.jpg</t>
+  </si>
+  <si>
+    <t>Iron patriot new.jpg</t>
+  </si>
+  <si>
+    <t>Law wano (xinh).jpg</t>
+  </si>
+  <si>
+    <t>Sabo (xinh).jpg</t>
+  </si>
+  <si>
+    <t>Rayleigh (young).jpg</t>
   </si>
 </sst>
 </file>
@@ -1408,8 +1447,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCDC9875-9E8E-485C-910E-47B83A1F9902}">
   <dimension ref="A1:E179"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C54" sqref="C54"/>
+    <sheetView tabSelected="1" topLeftCell="A103" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1583,7 +1622,7 @@
         <v>200</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>183</v>
+        <v>285</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>6</v>
@@ -1617,7 +1656,7 @@
         <v>200</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>183</v>
+        <v>286</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>6</v>
@@ -1634,7 +1673,7 @@
         <v>200</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>183</v>
+        <v>287</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>6</v>
@@ -1651,7 +1690,7 @@
         <v>200</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>183</v>
+        <v>288</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>6</v>
@@ -1668,7 +1707,7 @@
         <v>200</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>183</v>
+        <v>289</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>6</v>
@@ -1685,7 +1724,7 @@
         <v>200</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>183</v>
+        <v>290</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>6</v>
@@ -1869,7 +1908,7 @@
         <v>2</v>
       </c>
       <c r="C27" s="3">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>256</v>
@@ -1886,7 +1925,7 @@
         <v>1</v>
       </c>
       <c r="C28" s="3">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>186</v>
@@ -1903,7 +1942,7 @@
         <v>2</v>
       </c>
       <c r="C29" s="3">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>257</v>
@@ -1971,10 +2010,10 @@
         <v>1</v>
       </c>
       <c r="C33" s="3">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>183</v>
+        <v>291</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>6</v>
@@ -1988,7 +2027,7 @@
         <v>0</v>
       </c>
       <c r="C34" s="3">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>183</v>
@@ -2005,10 +2044,10 @@
         <v>2</v>
       </c>
       <c r="C35" s="3">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>183</v>
+        <v>292</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>6</v>
@@ -2161,7 +2200,7 @@
         <v>360</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>183</v>
+        <v>293</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>6</v>
@@ -2178,7 +2217,7 @@
         <v>360</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>183</v>
+        <v>294</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>6</v>
@@ -2804,7 +2843,7 @@
         <v>3</v>
       </c>
       <c r="C82" s="3">
-        <v>320</v>
+        <v>350</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>194</v>
@@ -3147,7 +3186,7 @@
         <v>300</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>183</v>
+        <v>295</v>
       </c>
       <c r="E102" s="3" t="s">
         <v>67</v>
@@ -3181,7 +3220,7 @@
         <v>300</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>183</v>
+        <v>296</v>
       </c>
       <c r="E104" s="3" t="s">
         <v>67</v>
@@ -3317,7 +3356,7 @@
         <v>300</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>183</v>
+        <v>297</v>
       </c>
       <c r="E112" s="3" t="s">
         <v>67</v>

--- a/data/stock.xlsx
+++ b/data/stock.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\blocks\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17FD0169-F5E4-4A77-ABA8-B0E0CE2E1AC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8C50AC6-2EE6-4106-8108-BE4D3D17781A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4005" yWindow="1365" windowWidth="21600" windowHeight="11295" xr2:uid="{FC0CBB84-858B-49F6-BA69-44D83C89F7C4}"/>
   </bookViews>
@@ -1447,8 +1447,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCDC9875-9E8E-485C-910E-47B83A1F9902}">
   <dimension ref="A1:E179"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView tabSelected="1" topLeftCell="A175" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C154" sqref="C154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4016,7 +4016,7 @@
         <v>1</v>
       </c>
       <c r="C151" s="3">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="D151" s="2" t="s">
         <v>280</v>

--- a/data/stock.xlsx
+++ b/data/stock.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\blocks\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8C50AC6-2EE6-4106-8108-BE4D3D17781A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2FA1B4E-35E7-47AD-8121-074A61A3DF15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4005" yWindow="1365" windowWidth="21600" windowHeight="11295" xr2:uid="{FC0CBB84-858B-49F6-BA69-44D83C89F7C4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FC0CBB84-858B-49F6-BA69-44D83C89F7C4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="306">
   <si>
     <t>Product</t>
   </si>
@@ -294,12 +294,6 @@
     <t>Nika Luffy white TP</t>
   </si>
   <si>
-    <t>Zoro rizz green (dy)</t>
-  </si>
-  <si>
-    <t>Zoro rizz purple (dy)</t>
-  </si>
-  <si>
     <t>Zoro dress black (dy)</t>
   </si>
   <si>
@@ -462,21 +456,9 @@
     <t>Sasuke</t>
   </si>
   <si>
-    <t>Jiraya KDL</t>
-  </si>
-  <si>
-    <t>Hashirama wood</t>
-  </si>
-  <si>
-    <t>Itachi Crow</t>
-  </si>
-  <si>
     <t>Obito war</t>
   </si>
   <si>
-    <t>Itachi akatsuki WM</t>
-  </si>
-  <si>
     <t>Obito Akatsuki</t>
   </si>
   <si>
@@ -928,6 +910,48 @@
   </si>
   <si>
     <t>Rayleigh (young).jpg</t>
+  </si>
+  <si>
+    <t>Naruto sage.jpg</t>
+  </si>
+  <si>
+    <t>borusara.jpg</t>
+  </si>
+  <si>
+    <t>barsas.jpg</t>
+  </si>
+  <si>
+    <t>barboru.jpg</t>
+  </si>
+  <si>
+    <t>Jiraya kdl.jpg</t>
+  </si>
+  <si>
+    <t>Jiraya</t>
+  </si>
+  <si>
+    <t>Hashirama</t>
+  </si>
+  <si>
+    <t>Hashirama wood.jpg</t>
+  </si>
+  <si>
+    <t>Itachi crow.jpg</t>
+  </si>
+  <si>
+    <t>Itachi Reincarnated</t>
+  </si>
+  <si>
+    <t>Itachi akatsuki</t>
+  </si>
+  <si>
+    <t>Itachi akatsuki.jpg</t>
+  </si>
+  <si>
+    <t>Zoro Topless green (dy)</t>
+  </si>
+  <si>
+    <t>Zoro Topless purple (dy)</t>
   </si>
 </sst>
 </file>
@@ -1447,8 +1471,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCDC9875-9E8E-485C-910E-47B83A1F9902}">
   <dimension ref="A1:E179"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A175" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C154" sqref="C154"/>
+    <sheetView tabSelected="1" topLeftCell="A121" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A88" sqref="A88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1486,7 +1510,7 @@
         <v>220</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>6</v>
@@ -1503,7 +1527,7 @@
         <v>220</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>6</v>
@@ -1520,7 +1544,7 @@
         <v>350</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>6</v>
@@ -1537,7 +1561,7 @@
         <v>180</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>6</v>
@@ -1554,7 +1578,7 @@
         <v>180</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>6</v>
@@ -1571,7 +1595,7 @@
         <v>200</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>6</v>
@@ -1588,7 +1612,7 @@
         <v>180</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>6</v>
@@ -1605,7 +1629,7 @@
         <v>200</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>6</v>
@@ -1622,7 +1646,7 @@
         <v>200</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>6</v>
@@ -1639,7 +1663,7 @@
         <v>200</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>6</v>
@@ -1656,7 +1680,7 @@
         <v>200</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>6</v>
@@ -1673,7 +1697,7 @@
         <v>200</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>6</v>
@@ -1690,7 +1714,7 @@
         <v>200</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>6</v>
@@ -1707,7 +1731,7 @@
         <v>200</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>6</v>
@@ -1724,7 +1748,7 @@
         <v>200</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>6</v>
@@ -1741,7 +1765,7 @@
         <v>200</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>6</v>
@@ -1758,7 +1782,7 @@
         <v>200</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>6</v>
@@ -1775,7 +1799,7 @@
         <v>200</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>6</v>
@@ -1792,7 +1816,7 @@
         <v>180</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>6</v>
@@ -1809,7 +1833,7 @@
         <v>180</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>6</v>
@@ -1826,7 +1850,7 @@
         <v>180</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>6</v>
@@ -1843,7 +1867,7 @@
         <v>180</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>6</v>
@@ -1860,7 +1884,7 @@
         <v>180</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>6</v>
@@ -1877,7 +1901,7 @@
         <v>180</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>6</v>
@@ -1894,7 +1918,7 @@
         <v>180</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>6</v>
@@ -1911,7 +1935,7 @@
         <v>270</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>6</v>
@@ -1928,7 +1952,7 @@
         <v>270</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>6</v>
@@ -1945,7 +1969,7 @@
         <v>270</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>6</v>
@@ -1962,7 +1986,7 @@
         <v>450</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>6</v>
@@ -1979,7 +2003,7 @@
         <v>380</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>6</v>
@@ -1996,7 +2020,7 @@
         <v>800</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>6</v>
@@ -2013,7 +2037,7 @@
         <v>270</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>6</v>
@@ -2030,7 +2054,7 @@
         <v>270</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>6</v>
@@ -2047,7 +2071,7 @@
         <v>270</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>6</v>
@@ -2064,7 +2088,7 @@
         <v>850</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>6</v>
@@ -2081,7 +2105,7 @@
         <v>250</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>6</v>
@@ -2098,7 +2122,7 @@
         <v>250</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>6</v>
@@ -2115,7 +2139,7 @@
         <v>250</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>6</v>
@@ -2132,7 +2156,7 @@
         <v>250</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>6</v>
@@ -2149,7 +2173,7 @@
         <v>250</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>6</v>
@@ -2166,7 +2190,7 @@
         <v>250</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>6</v>
@@ -2183,7 +2207,7 @@
         <v>250</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>6</v>
@@ -2200,7 +2224,7 @@
         <v>360</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>6</v>
@@ -2217,7 +2241,7 @@
         <v>360</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>6</v>
@@ -2225,7 +2249,7 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="B46" s="3">
         <v>2</v>
@@ -2234,7 +2258,7 @@
         <v>200</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="E46" s="3" t="s">
         <v>6</v>
@@ -2251,7 +2275,7 @@
         <v>180</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>51</v>
@@ -2268,7 +2292,7 @@
         <v>150</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>51</v>
@@ -2285,7 +2309,7 @@
         <v>180</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>51</v>
@@ -2302,7 +2326,7 @@
         <v>160</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>51</v>
@@ -2319,7 +2343,7 @@
         <v>160</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="E51" s="3" t="s">
         <v>51</v>
@@ -2336,7 +2360,7 @@
         <v>300</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>51</v>
@@ -2353,7 +2377,7 @@
         <v>300</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="E53" s="3" t="s">
         <v>51</v>
@@ -2370,7 +2394,7 @@
         <v>350</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>51</v>
@@ -2387,7 +2411,7 @@
         <v>350</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="E55" s="3" t="s">
         <v>51</v>
@@ -2404,7 +2428,7 @@
         <v>500</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="E56" s="3" t="s">
         <v>51</v>
@@ -2421,7 +2445,7 @@
         <v>350</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>51</v>
@@ -2438,7 +2462,7 @@
         <v>350</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>51</v>
@@ -2455,7 +2479,7 @@
         <v>350</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="E59" s="3" t="s">
         <v>51</v>
@@ -2472,7 +2496,7 @@
         <v>500</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="E60" s="3" t="s">
         <v>51</v>
@@ -2489,7 +2513,7 @@
         <v>500</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="E61" s="3" t="s">
         <v>51</v>
@@ -2506,7 +2530,7 @@
         <v>300</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="E62" s="3" t="s">
         <v>67</v>
@@ -2514,7 +2538,7 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="B63" s="3">
         <v>1</v>
@@ -2523,7 +2547,7 @@
         <v>300</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="E63" s="3" t="s">
         <v>67</v>
@@ -2540,7 +2564,7 @@
         <v>300</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="E64" s="3" t="s">
         <v>67</v>
@@ -2557,7 +2581,7 @@
         <v>300</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="E65" s="3" t="s">
         <v>67</v>
@@ -2574,7 +2598,7 @@
         <v>300</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="E66" s="3" t="s">
         <v>67</v>
@@ -2591,7 +2615,7 @@
         <v>270</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="E67" s="3" t="s">
         <v>67</v>
@@ -2608,7 +2632,7 @@
         <v>270</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="E68" s="3" t="s">
         <v>67</v>
@@ -2625,7 +2649,7 @@
         <v>300</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="E69" s="3" t="s">
         <v>67</v>
@@ -2642,7 +2666,7 @@
         <v>300</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="E70" s="3" t="s">
         <v>67</v>
@@ -2659,7 +2683,7 @@
         <v>300</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="E71" s="3" t="s">
         <v>67</v>
@@ -2676,7 +2700,7 @@
         <v>270</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>67</v>
@@ -2693,7 +2717,7 @@
         <v>300</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="E73" s="3" t="s">
         <v>67</v>
@@ -2710,7 +2734,7 @@
         <v>300</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="E74" s="3" t="s">
         <v>67</v>
@@ -2727,7 +2751,7 @@
         <v>300</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="E75" s="3" t="s">
         <v>67</v>
@@ -2744,7 +2768,7 @@
         <v>300</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="E76" s="3" t="s">
         <v>67</v>
@@ -2761,7 +2785,7 @@
         <v>300</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="E77" s="3" t="s">
         <v>67</v>
@@ -2778,7 +2802,7 @@
         <v>300</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="E78" s="3" t="s">
         <v>67</v>
@@ -2795,7 +2819,7 @@
         <v>300</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="E79" s="3" t="s">
         <v>67</v>
@@ -2812,7 +2836,7 @@
         <v>300</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="E80" s="3" t="s">
         <v>67</v>
@@ -2829,7 +2853,7 @@
         <v>300</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="E81" s="3" t="s">
         <v>67</v>
@@ -2837,7 +2861,7 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>304</v>
       </c>
       <c r="B82" s="3">
         <v>3</v>
@@ -2846,7 +2870,7 @@
         <v>350</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="E82" s="3" t="s">
         <v>67</v>
@@ -2854,7 +2878,7 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>305</v>
       </c>
       <c r="B83" s="3">
         <v>1</v>
@@ -2863,7 +2887,7 @@
         <v>350</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="E83" s="3" t="s">
         <v>67</v>
@@ -2871,7 +2895,7 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B84" s="3">
         <v>2</v>
@@ -2880,7 +2904,7 @@
         <v>350</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="E84" s="3" t="s">
         <v>67</v>
@@ -2888,7 +2912,7 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B85" s="3">
         <v>1</v>
@@ -2897,7 +2921,7 @@
         <v>350</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="E85" s="3" t="s">
         <v>67</v>
@@ -2905,7 +2929,7 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B86" s="3">
         <v>2</v>
@@ -2914,7 +2938,7 @@
         <v>320</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="E86" s="3" t="s">
         <v>67</v>
@@ -2922,7 +2946,7 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B87" s="3">
         <v>1</v>
@@ -2931,7 +2955,7 @@
         <v>320</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="E87" s="3" t="s">
         <v>67</v>
@@ -2939,7 +2963,7 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B88" s="3">
         <v>1</v>
@@ -2948,7 +2972,7 @@
         <v>320</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="E88" s="3" t="s">
         <v>67</v>
@@ -2956,7 +2980,7 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B89" s="3">
         <v>1</v>
@@ -2965,7 +2989,7 @@
         <v>320</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="E89" s="3" t="s">
         <v>67</v>
@@ -2973,7 +2997,7 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B90" s="3">
         <v>1</v>
@@ -2982,7 +3006,7 @@
         <v>320</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="E90" s="3" t="s">
         <v>67</v>
@@ -2990,7 +3014,7 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B91" s="3">
         <v>1</v>
@@ -2999,7 +3023,7 @@
         <v>320</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="E91" s="3" t="s">
         <v>67</v>
@@ -3007,7 +3031,7 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B92" s="3">
         <v>2</v>
@@ -3016,7 +3040,7 @@
         <v>320</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="E92" s="3" t="s">
         <v>67</v>
@@ -3024,7 +3048,7 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B93" s="3">
         <v>0</v>
@@ -3033,7 +3057,7 @@
         <v>320</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="E93" s="3" t="s">
         <v>67</v>
@@ -3041,7 +3065,7 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B94" s="3">
         <v>1</v>
@@ -3050,7 +3074,7 @@
         <v>320</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="E94" s="3" t="s">
         <v>67</v>
@@ -3058,7 +3082,7 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B95" s="3">
         <v>1</v>
@@ -3067,7 +3091,7 @@
         <v>320</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="E95" s="3" t="s">
         <v>67</v>
@@ -3075,7 +3099,7 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B96" s="3">
         <v>2</v>
@@ -3084,7 +3108,7 @@
         <v>320</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="E96" s="3" t="s">
         <v>67</v>
@@ -3092,7 +3116,7 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B97" s="3">
         <v>2</v>
@@ -3101,7 +3125,7 @@
         <v>320</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="E97" s="3" t="s">
         <v>67</v>
@@ -3109,7 +3133,7 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B98" s="3">
         <v>1</v>
@@ -3118,7 +3142,7 @@
         <v>320</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="E98" s="3" t="s">
         <v>67</v>
@@ -3126,7 +3150,7 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B99" s="3">
         <v>2</v>
@@ -3135,7 +3159,7 @@
         <v>320</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="E99" s="3" t="s">
         <v>67</v>
@@ -3143,7 +3167,7 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B100" s="3">
         <v>0</v>
@@ -3152,7 +3176,7 @@
         <v>320</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="E100" s="3" t="s">
         <v>67</v>
@@ -3160,7 +3184,7 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B101" s="3">
         <v>0</v>
@@ -3169,7 +3193,7 @@
         <v>300</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="E101" s="3" t="s">
         <v>67</v>
@@ -3177,7 +3201,7 @@
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B102" s="3">
         <v>2</v>
@@ -3186,7 +3210,7 @@
         <v>300</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="E102" s="3" t="s">
         <v>67</v>
@@ -3194,7 +3218,7 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B103" s="3">
         <v>1</v>
@@ -3203,7 +3227,7 @@
         <v>300</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="E103" s="3" t="s">
         <v>67</v>
@@ -3211,7 +3235,7 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B104" s="3">
         <v>1</v>
@@ -3220,7 +3244,7 @@
         <v>300</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="E104" s="3" t="s">
         <v>67</v>
@@ -3228,7 +3252,7 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B105" s="3">
         <v>1</v>
@@ -3237,7 +3261,7 @@
         <v>300</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="E105" s="3" t="s">
         <v>67</v>
@@ -3245,7 +3269,7 @@
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B106" s="3">
         <v>1</v>
@@ -3254,7 +3278,7 @@
         <v>300</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="E106" s="3" t="s">
         <v>67</v>
@@ -3262,7 +3286,7 @@
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B107" s="3">
         <v>1</v>
@@ -3271,7 +3295,7 @@
         <v>300</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="E107" s="3" t="s">
         <v>67</v>
@@ -3279,7 +3303,7 @@
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B108" s="3">
         <v>1</v>
@@ -3288,7 +3312,7 @@
         <v>300</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="E108" s="3" t="s">
         <v>67</v>
@@ -3296,7 +3320,7 @@
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B109" s="3">
         <v>2</v>
@@ -3305,7 +3329,7 @@
         <v>300</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="E109" s="3" t="s">
         <v>67</v>
@@ -3313,7 +3337,7 @@
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B110" s="3">
         <v>2</v>
@@ -3322,7 +3346,7 @@
         <v>300</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="E110" s="3" t="s">
         <v>67</v>
@@ -3330,7 +3354,7 @@
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B111" s="3">
         <v>1</v>
@@ -3339,7 +3363,7 @@
         <v>300</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="E111" s="3" t="s">
         <v>67</v>
@@ -3347,7 +3371,7 @@
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B112" s="3">
         <v>1</v>
@@ -3356,7 +3380,7 @@
         <v>300</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="E112" s="3" t="s">
         <v>67</v>
@@ -3364,7 +3388,7 @@
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B113" s="3">
         <v>0</v>
@@ -3373,7 +3397,7 @@
         <v>400</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="E113" s="3" t="s">
         <v>67</v>
@@ -3381,7 +3405,7 @@
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B114" s="3">
         <v>1</v>
@@ -3390,7 +3414,7 @@
         <v>400</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="E114" s="3" t="s">
         <v>67</v>
@@ -3398,7 +3422,7 @@
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B115" s="3">
         <v>0</v>
@@ -3407,7 +3431,7 @@
         <v>300</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="E115" s="3" t="s">
         <v>67</v>
@@ -3415,7 +3439,7 @@
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B116" s="3">
         <v>2</v>
@@ -3424,7 +3448,7 @@
         <v>300</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="E116" s="3" t="s">
         <v>67</v>
@@ -3432,7 +3456,7 @@
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B117" s="3">
         <v>1</v>
@@ -3441,7 +3465,7 @@
         <v>300</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="E117" s="3" t="s">
         <v>67</v>
@@ -3449,7 +3473,7 @@
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B118" s="3">
         <v>1</v>
@@ -3458,7 +3482,7 @@
         <v>300</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="E118" s="3" t="s">
         <v>67</v>
@@ -3466,7 +3490,7 @@
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B119" s="3">
         <v>1</v>
@@ -3475,7 +3499,7 @@
         <v>300</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="E119" s="3" t="s">
         <v>67</v>
@@ -3483,7 +3507,7 @@
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B120" s="3">
         <v>1</v>
@@ -3492,7 +3516,7 @@
         <v>300</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="E120" s="3" t="s">
         <v>67</v>
@@ -3500,7 +3524,7 @@
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B121" s="3">
         <v>1</v>
@@ -3509,7 +3533,7 @@
         <v>300</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="E121" s="3" t="s">
         <v>67</v>
@@ -3517,7 +3541,7 @@
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B122" s="3">
         <v>0</v>
@@ -3526,7 +3550,7 @@
         <v>500</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="E122" s="3" t="s">
         <v>67</v>
@@ -3534,7 +3558,7 @@
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B123" s="3">
         <v>1</v>
@@ -3543,7 +3567,7 @@
         <v>300</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="E123" s="3" t="s">
         <v>67</v>
@@ -3551,7 +3575,7 @@
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B124" s="3">
         <v>1</v>
@@ -3560,7 +3584,7 @@
         <v>300</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="E124" s="3" t="s">
         <v>67</v>
@@ -3568,24 +3592,24 @@
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B125" s="3">
         <v>2</v>
       </c>
       <c r="C125" s="3">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>183</v>
+        <v>292</v>
       </c>
       <c r="E125" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B126" s="3">
         <v>1</v>
@@ -3594,15 +3618,15 @@
         <v>500</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>183</v>
+        <v>293</v>
       </c>
       <c r="E126" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B127" s="3">
         <v>1</v>
@@ -3611,15 +3635,15 @@
         <v>500</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>183</v>
+        <v>294</v>
       </c>
       <c r="E127" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B128" s="3">
         <v>1</v>
@@ -3628,15 +3652,15 @@
         <v>500</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>183</v>
+        <v>295</v>
       </c>
       <c r="E128" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B129" s="3">
         <v>0</v>
@@ -3645,15 +3669,15 @@
         <v>500</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="E129" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B130" s="3">
         <v>1</v>
@@ -3662,15 +3686,15 @@
         <v>500</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="E130" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B131" s="3">
         <v>1</v>
@@ -3679,15 +3703,15 @@
         <v>220</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="E131" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B132" s="3">
         <v>3</v>
@@ -3696,15 +3720,15 @@
         <v>220</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="E132" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B133" s="3">
         <v>1</v>
@@ -3713,15 +3737,15 @@
         <v>220</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="E133" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B134" s="3">
         <v>2</v>
@@ -3730,15 +3754,15 @@
         <v>220</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="E134" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B135" s="3">
         <v>2</v>
@@ -3747,15 +3771,15 @@
         <v>200</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="E135" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B136" s="3">
         <v>1</v>
@@ -3764,15 +3788,15 @@
         <v>220</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="E136" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>142</v>
+        <v>297</v>
       </c>
       <c r="B137" s="3">
         <v>2</v>
@@ -3781,15 +3805,15 @@
         <v>200</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>183</v>
+        <v>296</v>
       </c>
       <c r="E137" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
-        <v>143</v>
+        <v>298</v>
       </c>
       <c r="B138" s="3">
         <v>3</v>
@@ -3798,15 +3822,15 @@
         <v>250</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>183</v>
+        <v>299</v>
       </c>
       <c r="E138" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>144</v>
+        <v>301</v>
       </c>
       <c r="B139" s="3">
         <v>1</v>
@@ -3815,15 +3839,15 @@
         <v>220</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>183</v>
+        <v>300</v>
       </c>
       <c r="E139" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B140" s="3">
         <v>3</v>
@@ -3832,15 +3856,15 @@
         <v>200</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="E140" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
-        <v>146</v>
+        <v>302</v>
       </c>
       <c r="B141" s="3">
         <v>3</v>
@@ -3849,15 +3873,15 @@
         <v>250</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>183</v>
+        <v>303</v>
       </c>
       <c r="E141" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="B142" s="3">
         <v>3</v>
@@ -3866,15 +3890,15 @@
         <v>220</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="E142" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="B143" s="3">
         <v>0</v>
@@ -3883,15 +3907,15 @@
         <v>200</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="E143" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="B144" s="3">
         <v>2</v>
@@ -3900,15 +3924,15 @@
         <v>350</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="E144" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="B145" s="3">
         <v>1</v>
@@ -3917,15 +3941,15 @@
         <v>350</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="E145" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="B146" s="3">
         <v>2</v>
@@ -3934,15 +3958,15 @@
         <v>350</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="E146" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="B147" s="3">
         <v>1</v>
@@ -3951,15 +3975,15 @@
         <v>350</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="E147" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="B148" s="3">
         <v>1</v>
@@ -3968,15 +3992,15 @@
         <v>350</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="E148" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="B149" s="3">
         <v>2</v>
@@ -3985,15 +4009,15 @@
         <v>350</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="E149" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="B150" s="3">
         <v>1</v>
@@ -4002,15 +4026,15 @@
         <v>220</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="E150" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="B151" s="3">
         <v>1</v>
@@ -4019,15 +4043,15 @@
         <v>250</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="E151" s="3" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="B152" s="3">
         <v>0</v>
@@ -4036,15 +4060,15 @@
         <v>460</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="E152" s="3" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="B153" s="3">
         <v>1</v>
@@ -4053,15 +4077,15 @@
         <v>250</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="E153" s="3" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="B154" s="3">
         <v>5</v>
@@ -4070,15 +4094,15 @@
         <v>250</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="E154" s="3" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="B155" s="3">
         <v>0</v>
@@ -4087,15 +4111,15 @@
         <v>240</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="E155" s="3" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="B156" s="3">
         <v>3</v>
@@ -4104,15 +4128,15 @@
         <v>250</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="E156" s="3" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="B157" s="3">
         <v>3</v>
@@ -4121,15 +4145,15 @@
         <v>250</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="E157" s="3" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="B158" s="3">
         <v>1</v>
@@ -4138,15 +4162,15 @@
         <v>250</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="E158" s="3" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="B159" s="3">
         <v>1</v>
@@ -4155,15 +4179,15 @@
         <v>250</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="E159" s="3" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="B160" s="3">
         <v>2</v>
@@ -4172,15 +4196,15 @@
         <v>250</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="E160" s="3" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="B161" s="3">
         <v>2</v>
@@ -4189,15 +4213,15 @@
         <v>250</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="E161" s="3" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="B162" s="3">
         <v>1</v>
@@ -4206,15 +4230,15 @@
         <v>250</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="E162" s="3" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="B163" s="3">
         <v>0</v>
@@ -4223,15 +4247,15 @@
         <v>250</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="E163" s="3" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="B164" s="3">
         <v>2</v>
@@ -4240,15 +4264,15 @@
         <v>250</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="E164" s="3" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="B165" s="3">
         <v>1</v>
@@ -4257,15 +4281,15 @@
         <v>250</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="E165" s="3" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="B166" s="3">
         <v>1</v>
@@ -4274,15 +4298,15 @@
         <v>250</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="E166" s="3" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B167" s="3">
         <v>2</v>
@@ -4291,15 +4315,15 @@
         <v>250</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="E167" s="3" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="B168" s="3">
         <v>1</v>
@@ -4308,15 +4332,15 @@
         <v>250</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="E168" s="3" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="B169" s="3">
         <v>2</v>
@@ -4325,15 +4349,15 @@
         <v>250</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="E169" s="3" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="B170" s="3">
         <v>1</v>
@@ -4342,15 +4366,15 @@
         <v>250</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="E170" s="3" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B171" s="3">
         <v>1</v>
@@ -4359,15 +4383,15 @@
         <v>250</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="E171" s="3" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="B172" s="5">
         <v>7</v>
@@ -4376,15 +4400,15 @@
         <v>250</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="E172" s="6" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="B173" s="5">
         <v>1</v>
@@ -4393,15 +4417,15 @@
         <v>250</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="E173" s="6" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B174" s="5">
         <v>1</v>
@@ -4410,15 +4434,15 @@
         <v>220</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="E174" s="6" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="B175" s="5">
         <v>1</v>
@@ -4427,15 +4451,15 @@
         <v>220</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="E175" s="6" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="B176" s="5">
         <v>2</v>
@@ -4444,15 +4468,15 @@
         <v>220</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="E176" s="6" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="B177" s="5">
         <v>1</v>
@@ -4461,15 +4485,15 @@
         <v>220</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="E177" s="6" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="B178" s="5">
         <v>1</v>
@@ -4478,15 +4502,15 @@
         <v>220</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="E178" s="6" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="B179" s="5">
         <v>5</v>
@@ -4495,10 +4519,10 @@
         <v>350</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="E179" s="6" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
     </row>
   </sheetData>

--- a/data/stock.xlsx
+++ b/data/stock.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\blocks\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2FA1B4E-35E7-47AD-8121-074A61A3DF15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9B84E78-52EC-41B4-9918-EFA8CA765A8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FC0CBB84-858B-49F6-BA69-44D83C89F7C4}"/>
+    <workbookView xWindow="3210" yWindow="1845" windowWidth="21600" windowHeight="11295" xr2:uid="{FC0CBB84-858B-49F6-BA69-44D83C89F7C4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="320">
   <si>
     <t>Product</t>
   </si>
@@ -952,6 +952,48 @@
   </si>
   <si>
     <t>Zoro Topless purple (dy)</t>
+  </si>
+  <si>
+    <t>Luffy G4 WM</t>
+  </si>
+  <si>
+    <t>Luffy G4 WM.jpg</t>
+  </si>
+  <si>
+    <t>Miles Morales</t>
+  </si>
+  <si>
+    <t>Spider-Gwen</t>
+  </si>
+  <si>
+    <t>Spiderman 2099</t>
+  </si>
+  <si>
+    <t>Spot (White)</t>
+  </si>
+  <si>
+    <t>Spider-Punk</t>
+  </si>
+  <si>
+    <t>Spiderman India</t>
+  </si>
+  <si>
+    <t>Miles morales.jpg</t>
+  </si>
+  <si>
+    <t>Spider-Gwen.jpg</t>
+  </si>
+  <si>
+    <t>Spider-Punk.jpg</t>
+  </si>
+  <si>
+    <t>Spiderman2099.jpg</t>
+  </si>
+  <si>
+    <t>Spot(white).jpg</t>
+  </si>
+  <si>
+    <t>Spiderman India.jpg</t>
   </si>
 </sst>
 </file>
@@ -1469,10 +1511,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCDC9875-9E8E-485C-910E-47B83A1F9902}">
-  <dimension ref="A1:E179"/>
+  <dimension ref="A1:E186"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A88" sqref="A88"/>
+    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1637,16 +1679,16 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>308</v>
       </c>
       <c r="B10" s="3">
         <v>2</v>
       </c>
       <c r="C10" s="3">
-        <v>200</v>
+        <v>280</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>279</v>
+        <v>314</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>6</v>
@@ -1654,16 +1696,16 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>309</v>
       </c>
       <c r="B11" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C11" s="3">
-        <v>200</v>
+        <v>280</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>177</v>
+        <v>315</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>6</v>
@@ -1671,16 +1713,16 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>310</v>
       </c>
       <c r="B12" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C12" s="3">
-        <v>200</v>
+        <v>280</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>280</v>
+        <v>317</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>6</v>
@@ -1688,16 +1730,16 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>311</v>
       </c>
       <c r="B13" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C13" s="3">
-        <v>200</v>
+        <v>280</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>281</v>
+        <v>318</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>6</v>
@@ -1705,16 +1747,16 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>312</v>
       </c>
       <c r="B14" s="3">
         <v>1</v>
       </c>
       <c r="C14" s="3">
-        <v>200</v>
+        <v>280</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>282</v>
+        <v>316</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>6</v>
@@ -1722,16 +1764,16 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>313</v>
       </c>
       <c r="B15" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C15" s="3">
-        <v>200</v>
+        <v>280</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>283</v>
+        <v>319</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>6</v>
@@ -1739,16 +1781,16 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B16" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C16" s="3">
         <v>200</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>6</v>
@@ -1756,7 +1798,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B17" s="3">
         <v>0</v>
@@ -1773,16 +1815,16 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B18" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C18" s="3">
         <v>200</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>246</v>
+        <v>280</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>6</v>
@@ -1790,7 +1832,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B19" s="3">
         <v>1</v>
@@ -1799,7 +1841,7 @@
         <v>200</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>178</v>
+        <v>281</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>6</v>
@@ -1807,16 +1849,16 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B20" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C20" s="3">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>179</v>
+        <v>282</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>6</v>
@@ -1824,16 +1866,16 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B21" s="3">
         <v>2</v>
       </c>
       <c r="C21" s="3">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>248</v>
+        <v>283</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>6</v>
@@ -1841,16 +1883,16 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B22" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C22" s="3">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>177</v>
+        <v>284</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>6</v>
@@ -1858,13 +1900,13 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B23" s="3">
         <v>0</v>
       </c>
       <c r="C23" s="3">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>177</v>
@@ -1875,16 +1917,16 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B24" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C24" s="3">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>177</v>
+        <v>246</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>6</v>
@@ -1892,16 +1934,16 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B25" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C25" s="3">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>247</v>
+        <v>178</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>6</v>
@@ -1909,16 +1951,16 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B26" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C26" s="3">
         <v>180</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>249</v>
+        <v>179</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>6</v>
@@ -1926,16 +1968,16 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B27" s="3">
         <v>2</v>
       </c>
       <c r="C27" s="3">
-        <v>270</v>
+        <v>180</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>6</v>
@@ -1943,16 +1985,16 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B28" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C28" s="3">
-        <v>270</v>
+        <v>180</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>6</v>
@@ -1960,16 +2002,16 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B29" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C29" s="3">
-        <v>270</v>
+        <v>180</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>251</v>
+        <v>177</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>6</v>
@@ -1977,16 +2019,16 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B30" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C30" s="3">
-        <v>450</v>
+        <v>180</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>252</v>
+        <v>177</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>6</v>
@@ -1994,16 +2036,16 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B31" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C31" s="3">
-        <v>380</v>
+        <v>180</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>182</v>
+        <v>247</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>6</v>
@@ -2011,16 +2053,16 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B32" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C32" s="3">
-        <v>800</v>
+        <v>180</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>184</v>
+        <v>249</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>6</v>
@@ -2028,16 +2070,16 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B33" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C33" s="3">
         <v>270</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>285</v>
+        <v>250</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>6</v>
@@ -2045,16 +2087,16 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B34" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C34" s="3">
         <v>270</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>6</v>
@@ -2062,7 +2104,7 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B35" s="3">
         <v>2</v>
@@ -2071,7 +2113,7 @@
         <v>270</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>286</v>
+        <v>251</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>6</v>
@@ -2079,16 +2121,16 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B36" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C36" s="3">
-        <v>850</v>
+        <v>450</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>183</v>
+        <v>252</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>6</v>
@@ -2096,16 +2138,16 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B37" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C37" s="3">
-        <v>250</v>
+        <v>380</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>211</v>
+        <v>182</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>6</v>
@@ -2113,16 +2155,16 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B38" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C38" s="3">
-        <v>250</v>
+        <v>800</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>253</v>
+        <v>184</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>6</v>
@@ -2130,16 +2172,16 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B39" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C39" s="3">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>254</v>
+        <v>285</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>6</v>
@@ -2147,16 +2189,16 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B40" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C40" s="3">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>255</v>
+        <v>177</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>6</v>
@@ -2164,16 +2206,16 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B41" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C41" s="3">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>181</v>
+        <v>286</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>6</v>
@@ -2181,16 +2223,16 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B42" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C42" s="3">
-        <v>250</v>
+        <v>850</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>238</v>
+        <v>183</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>6</v>
@@ -2198,16 +2240,16 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B43" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C43" s="3">
         <v>250</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>6</v>
@@ -2215,16 +2257,16 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B44" s="3">
         <v>2</v>
       </c>
       <c r="C44" s="3">
-        <v>360</v>
+        <v>250</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>287</v>
+        <v>253</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>6</v>
@@ -2232,16 +2274,16 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B45" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C45" s="3">
-        <v>360</v>
+        <v>250</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>288</v>
+        <v>254</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>6</v>
@@ -2249,16 +2291,16 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>256</v>
+        <v>44</v>
       </c>
       <c r="B46" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C46" s="3">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E46" s="3" t="s">
         <v>6</v>
@@ -2266,118 +2308,118 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="B47" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C47" s="3">
-        <v>180</v>
+        <v>250</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>258</v>
+        <v>181</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>51</v>
+        <v>6</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B48" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C48" s="3">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>177</v>
+        <v>238</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>51</v>
+        <v>6</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="B49" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C49" s="3">
-        <v>180</v>
+        <v>250</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>177</v>
+        <v>212</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>51</v>
+        <v>6</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B50" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C50" s="3">
-        <v>160</v>
+        <v>360</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>239</v>
+        <v>287</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>51</v>
+        <v>6</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B51" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C51" s="3">
-        <v>160</v>
+        <v>360</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>240</v>
+        <v>288</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>51</v>
+        <v>6</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>256</v>
       </c>
       <c r="B52" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C52" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>51</v>
+        <v>6</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B53" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C53" s="3">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E53" s="3" t="s">
         <v>51</v>
@@ -2385,16 +2427,16 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B54" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C54" s="3">
-        <v>350</v>
+        <v>150</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>241</v>
+        <v>177</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>51</v>
@@ -2402,16 +2444,16 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B55" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C55" s="3">
-        <v>350</v>
+        <v>180</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>242</v>
+        <v>177</v>
       </c>
       <c r="E55" s="3" t="s">
         <v>51</v>
@@ -2419,16 +2461,16 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B56" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C56" s="3">
-        <v>500</v>
+        <v>160</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="E56" s="3" t="s">
         <v>51</v>
@@ -2436,16 +2478,16 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B57" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C57" s="3">
-        <v>350</v>
+        <v>160</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>226</v>
+        <v>240</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>51</v>
@@ -2453,16 +2495,16 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="B58" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C58" s="3">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>227</v>
+        <v>259</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>51</v>
@@ -2470,16 +2512,16 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="B59" s="3">
         <v>1</v>
       </c>
       <c r="C59" s="3">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>228</v>
+        <v>260</v>
       </c>
       <c r="E59" s="3" t="s">
         <v>51</v>
@@ -2487,16 +2529,16 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B60" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C60" s="3">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>224</v>
+        <v>241</v>
       </c>
       <c r="E60" s="3" t="s">
         <v>51</v>
@@ -2504,16 +2546,16 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B61" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C61" s="3">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>225</v>
+        <v>242</v>
       </c>
       <c r="E61" s="3" t="s">
         <v>51</v>
@@ -2521,118 +2563,118 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B62" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C62" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>229</v>
+        <v>243</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>190</v>
+        <v>61</v>
       </c>
       <c r="B63" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C63" s="3">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>191</v>
+        <v>226</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B64" s="3">
         <v>0</v>
       </c>
       <c r="C64" s="3">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B65" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C65" s="3">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>177</v>
+        <v>228</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B66" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C66" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>187</v>
+        <v>224</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B67" s="3">
         <v>0</v>
       </c>
       <c r="C67" s="3">
-        <v>270</v>
+        <v>500</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>177</v>
+        <v>225</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B68" s="3">
         <v>0</v>
       </c>
       <c r="C68" s="3">
-        <v>270</v>
+        <v>300</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>185</v>
+        <v>229</v>
       </c>
       <c r="E68" s="3" t="s">
         <v>67</v>
@@ -2640,7 +2682,7 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>190</v>
       </c>
       <c r="B69" s="3">
         <v>1</v>
@@ -2649,7 +2691,7 @@
         <v>300</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="E69" s="3" t="s">
         <v>67</v>
@@ -2657,7 +2699,7 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B70" s="3">
         <v>0</v>
@@ -2666,7 +2708,7 @@
         <v>300</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>177</v>
+        <v>230</v>
       </c>
       <c r="E70" s="3" t="s">
         <v>67</v>
@@ -2674,16 +2716,16 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B71" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C71" s="3">
         <v>300</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>214</v>
+        <v>177</v>
       </c>
       <c r="E71" s="3" t="s">
         <v>67</v>
@@ -2691,16 +2733,16 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B72" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C72" s="3">
-        <v>270</v>
+        <v>300</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>213</v>
+        <v>187</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>67</v>
@@ -2708,16 +2750,16 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B73" s="3">
         <v>0</v>
       </c>
       <c r="C73" s="3">
-        <v>300</v>
+        <v>270</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="E73" s="3" t="s">
         <v>67</v>
@@ -2725,16 +2767,16 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B74" s="3">
         <v>0</v>
       </c>
       <c r="C74" s="3">
-        <v>300</v>
+        <v>270</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="E74" s="3" t="s">
         <v>67</v>
@@ -2742,16 +2784,16 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B75" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C75" s="3">
         <v>300</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="E75" s="3" t="s">
         <v>67</v>
@@ -2759,7 +2801,7 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B76" s="3">
         <v>0</v>
@@ -2776,16 +2818,16 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B77" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C77" s="3">
         <v>300</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>177</v>
+        <v>214</v>
       </c>
       <c r="E77" s="3" t="s">
         <v>67</v>
@@ -2793,16 +2835,16 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B78" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C78" s="3">
-        <v>300</v>
+        <v>270</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>177</v>
+        <v>213</v>
       </c>
       <c r="E78" s="3" t="s">
         <v>67</v>
@@ -2810,7 +2852,7 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B79" s="3">
         <v>0</v>
@@ -2819,7 +2861,7 @@
         <v>300</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>177</v>
+        <v>192</v>
       </c>
       <c r="E79" s="3" t="s">
         <v>67</v>
@@ -2827,7 +2869,7 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B80" s="3">
         <v>0</v>
@@ -2844,16 +2886,16 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>306</v>
       </c>
       <c r="B81" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C81" s="3">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>193</v>
+        <v>307</v>
       </c>
       <c r="E81" s="3" t="s">
         <v>67</v>
@@ -2861,16 +2903,16 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>304</v>
+        <v>79</v>
       </c>
       <c r="B82" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C82" s="3">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="E82" s="3" t="s">
         <v>67</v>
@@ -2878,16 +2920,16 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>305</v>
+        <v>80</v>
       </c>
       <c r="B83" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C83" s="3">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="E83" s="3" t="s">
         <v>67</v>
@@ -2895,16 +2937,16 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B84" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C84" s="3">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>194</v>
+        <v>177</v>
       </c>
       <c r="E84" s="3" t="s">
         <v>67</v>
@@ -2912,16 +2954,16 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B85" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C85" s="3">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>195</v>
+        <v>177</v>
       </c>
       <c r="E85" s="3" t="s">
         <v>67</v>
@@ -2929,16 +2971,16 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B86" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C86" s="3">
-        <v>320</v>
+        <v>300</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>196</v>
+        <v>177</v>
       </c>
       <c r="E86" s="3" t="s">
         <v>67</v>
@@ -2946,16 +2988,16 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B87" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C87" s="3">
-        <v>320</v>
-      </c>
-      <c r="D87" s="1" t="s">
-        <v>197</v>
+        <v>300</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>177</v>
       </c>
       <c r="E87" s="3" t="s">
         <v>67</v>
@@ -2963,16 +3005,16 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B88" s="3">
         <v>1</v>
       </c>
       <c r="C88" s="3">
-        <v>320</v>
-      </c>
-      <c r="D88" s="1" t="s">
-        <v>210</v>
+        <v>300</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>193</v>
       </c>
       <c r="E88" s="3" t="s">
         <v>67</v>
@@ -2980,16 +3022,16 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>304</v>
       </c>
       <c r="B89" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C89" s="3">
-        <v>320</v>
-      </c>
-      <c r="D89" s="1" t="s">
-        <v>198</v>
+        <v>350</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>188</v>
       </c>
       <c r="E89" s="3" t="s">
         <v>67</v>
@@ -2997,16 +3039,16 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>305</v>
       </c>
       <c r="B90" s="3">
         <v>1</v>
       </c>
       <c r="C90" s="3">
-        <v>320</v>
-      </c>
-      <c r="D90" s="1" t="s">
-        <v>199</v>
+        <v>350</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>189</v>
       </c>
       <c r="E90" s="3" t="s">
         <v>67</v>
@@ -3014,16 +3056,16 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="B91" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C91" s="3">
-        <v>320</v>
-      </c>
-      <c r="D91" s="1" t="s">
-        <v>200</v>
+        <v>350</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>194</v>
       </c>
       <c r="E91" s="3" t="s">
         <v>67</v>
@@ -3031,16 +3073,16 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="B92" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C92" s="3">
-        <v>320</v>
-      </c>
-      <c r="D92" s="1" t="s">
-        <v>201</v>
+        <v>350</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>195</v>
       </c>
       <c r="E92" s="3" t="s">
         <v>67</v>
@@ -3048,16 +3090,16 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="B93" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C93" s="3">
         <v>320</v>
       </c>
-      <c r="D93" s="1" t="s">
-        <v>202</v>
+      <c r="D93" s="2" t="s">
+        <v>196</v>
       </c>
       <c r="E93" s="3" t="s">
         <v>67</v>
@@ -3065,7 +3107,7 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="B94" s="3">
         <v>1</v>
@@ -3074,7 +3116,7 @@
         <v>320</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="E94" s="3" t="s">
         <v>67</v>
@@ -3082,7 +3124,7 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="B95" s="3">
         <v>1</v>
@@ -3091,7 +3133,7 @@
         <v>320</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="E95" s="3" t="s">
         <v>67</v>
@@ -3099,16 +3141,16 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="B96" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C96" s="3">
         <v>320</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="E96" s="3" t="s">
         <v>67</v>
@@ -3116,16 +3158,16 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="B97" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C97" s="3">
         <v>320</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="E97" s="3" t="s">
         <v>67</v>
@@ -3133,7 +3175,7 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="B98" s="3">
         <v>1</v>
@@ -3142,7 +3184,7 @@
         <v>320</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="E98" s="3" t="s">
         <v>67</v>
@@ -3150,7 +3192,7 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="B99" s="3">
         <v>2</v>
@@ -3159,7 +3201,7 @@
         <v>320</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="E99" s="3" t="s">
         <v>67</v>
@@ -3167,7 +3209,7 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="B100" s="3">
         <v>0</v>
@@ -3176,7 +3218,7 @@
         <v>320</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="E100" s="3" t="s">
         <v>67</v>
@@ -3184,16 +3226,16 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="B101" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C101" s="3">
-        <v>300</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>177</v>
+        <v>320</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>203</v>
       </c>
       <c r="E101" s="3" t="s">
         <v>67</v>
@@ -3201,16 +3243,16 @@
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="B102" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C102" s="3">
-        <v>300</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>289</v>
+        <v>320</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>204</v>
       </c>
       <c r="E102" s="3" t="s">
         <v>67</v>
@@ -3218,16 +3260,16 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="B103" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C103" s="3">
-        <v>300</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>261</v>
+        <v>320</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>205</v>
       </c>
       <c r="E103" s="3" t="s">
         <v>67</v>
@@ -3235,16 +3277,16 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="B104" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C104" s="3">
-        <v>300</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>290</v>
+        <v>320</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>206</v>
       </c>
       <c r="E104" s="3" t="s">
         <v>67</v>
@@ -3252,16 +3294,16 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="B105" s="3">
         <v>1</v>
       </c>
       <c r="C105" s="3">
-        <v>300</v>
+        <v>320</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>231</v>
+        <v>207</v>
       </c>
       <c r="E105" s="3" t="s">
         <v>67</v>
@@ -3269,16 +3311,16 @@
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="B106" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C106" s="3">
-        <v>300</v>
+        <v>320</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>232</v>
+        <v>208</v>
       </c>
       <c r="E106" s="3" t="s">
         <v>67</v>
@@ -3286,16 +3328,16 @@
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="B107" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C107" s="3">
-        <v>300</v>
+        <v>320</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>233</v>
+        <v>209</v>
       </c>
       <c r="E107" s="3" t="s">
         <v>67</v>
@@ -3303,16 +3345,16 @@
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="B108" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C108" s="3">
         <v>300</v>
       </c>
-      <c r="D108" s="1" t="s">
-        <v>234</v>
+      <c r="D108" s="2" t="s">
+        <v>177</v>
       </c>
       <c r="E108" s="3" t="s">
         <v>67</v>
@@ -3320,7 +3362,7 @@
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="B109" s="3">
         <v>2</v>
@@ -3328,8 +3370,8 @@
       <c r="C109" s="3">
         <v>300</v>
       </c>
-      <c r="D109" s="1" t="s">
-        <v>235</v>
+      <c r="D109" s="2" t="s">
+        <v>289</v>
       </c>
       <c r="E109" s="3" t="s">
         <v>67</v>
@@ -3337,16 +3379,16 @@
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="B110" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C110" s="3">
         <v>300</v>
       </c>
-      <c r="D110" s="1" t="s">
-        <v>236</v>
+      <c r="D110" s="2" t="s">
+        <v>261</v>
       </c>
       <c r="E110" s="3" t="s">
         <v>67</v>
@@ -3354,7 +3396,7 @@
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="B111" s="3">
         <v>1</v>
@@ -3362,8 +3404,8 @@
       <c r="C111" s="3">
         <v>300</v>
       </c>
-      <c r="D111" s="1" t="s">
-        <v>237</v>
+      <c r="D111" s="2" t="s">
+        <v>290</v>
       </c>
       <c r="E111" s="3" t="s">
         <v>67</v>
@@ -3371,7 +3413,7 @@
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="B112" s="3">
         <v>1</v>
@@ -3379,8 +3421,8 @@
       <c r="C112" s="3">
         <v>300</v>
       </c>
-      <c r="D112" s="2" t="s">
-        <v>291</v>
+      <c r="D112" s="1" t="s">
+        <v>231</v>
       </c>
       <c r="E112" s="3" t="s">
         <v>67</v>
@@ -3388,16 +3430,16 @@
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="B113" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C113" s="3">
-        <v>400</v>
-      </c>
-      <c r="D113" s="2" t="s">
-        <v>262</v>
+        <v>300</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>232</v>
       </c>
       <c r="E113" s="3" t="s">
         <v>67</v>
@@ -3405,16 +3447,16 @@
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="B114" s="3">
         <v>1</v>
       </c>
       <c r="C114" s="3">
-        <v>400</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>263</v>
+        <v>300</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>233</v>
       </c>
       <c r="E114" s="3" t="s">
         <v>67</v>
@@ -3422,16 +3464,16 @@
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="B115" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C115" s="3">
         <v>300</v>
       </c>
-      <c r="D115" s="2" t="s">
-        <v>264</v>
+      <c r="D115" s="1" t="s">
+        <v>234</v>
       </c>
       <c r="E115" s="3" t="s">
         <v>67</v>
@@ -3439,7 +3481,7 @@
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="B116" s="3">
         <v>2</v>
@@ -3447,8 +3489,8 @@
       <c r="C116" s="3">
         <v>300</v>
       </c>
-      <c r="D116" s="2" t="s">
-        <v>265</v>
+      <c r="D116" s="1" t="s">
+        <v>235</v>
       </c>
       <c r="E116" s="3" t="s">
         <v>67</v>
@@ -3456,16 +3498,16 @@
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="B117" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C117" s="3">
         <v>300</v>
       </c>
-      <c r="D117" s="2" t="s">
-        <v>266</v>
+      <c r="D117" s="1" t="s">
+        <v>236</v>
       </c>
       <c r="E117" s="3" t="s">
         <v>67</v>
@@ -3473,7 +3515,7 @@
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="B118" s="3">
         <v>1</v>
@@ -3481,8 +3523,8 @@
       <c r="C118" s="3">
         <v>300</v>
       </c>
-      <c r="D118" s="2" t="s">
-        <v>267</v>
+      <c r="D118" s="1" t="s">
+        <v>237</v>
       </c>
       <c r="E118" s="3" t="s">
         <v>67</v>
@@ -3490,7 +3532,7 @@
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="B119" s="3">
         <v>1</v>
@@ -3499,7 +3541,7 @@
         <v>300</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>268</v>
+        <v>291</v>
       </c>
       <c r="E119" s="3" t="s">
         <v>67</v>
@@ -3507,16 +3549,16 @@
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="B120" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C120" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="E120" s="3" t="s">
         <v>67</v>
@@ -3524,16 +3566,16 @@
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="B121" s="3">
         <v>1</v>
       </c>
       <c r="C121" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="E121" s="3" t="s">
         <v>67</v>
@@ -3541,16 +3583,16 @@
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="B122" s="3">
         <v>0</v>
       </c>
       <c r="C122" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="E122" s="3" t="s">
         <v>67</v>
@@ -3558,16 +3600,16 @@
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="B123" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C123" s="3">
         <v>300</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="E123" s="3" t="s">
         <v>67</v>
@@ -3575,7 +3617,7 @@
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="B124" s="3">
         <v>1</v>
@@ -3584,7 +3626,7 @@
         <v>300</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="E124" s="3" t="s">
         <v>67</v>
@@ -3592,75 +3634,75 @@
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="B125" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C125" s="3">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>292</v>
+        <v>267</v>
       </c>
       <c r="E125" s="3" t="s">
-        <v>128</v>
+        <v>67</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="B126" s="3">
         <v>1</v>
       </c>
       <c r="C126" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>293</v>
+        <v>268</v>
       </c>
       <c r="E126" s="3" t="s">
-        <v>128</v>
+        <v>67</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="B127" s="3">
         <v>1</v>
       </c>
       <c r="C127" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>294</v>
+        <v>269</v>
       </c>
       <c r="E127" s="3" t="s">
-        <v>128</v>
+        <v>67</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="B128" s="3">
         <v>1</v>
       </c>
       <c r="C128" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>295</v>
+        <v>270</v>
       </c>
       <c r="E128" s="3" t="s">
-        <v>128</v>
+        <v>67</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="B129" s="3">
         <v>0</v>
@@ -3669,58 +3711,58 @@
         <v>500</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>177</v>
+        <v>271</v>
       </c>
       <c r="E129" s="3" t="s">
-        <v>128</v>
+        <v>67</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="B130" s="3">
         <v>1</v>
       </c>
       <c r="C130" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>245</v>
+        <v>272</v>
       </c>
       <c r="E130" s="3" t="s">
-        <v>128</v>
+        <v>67</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="B131" s="3">
         <v>1</v>
       </c>
       <c r="C131" s="3">
-        <v>220</v>
+        <v>300</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>177</v>
+        <v>273</v>
       </c>
       <c r="E131" s="3" t="s">
-        <v>128</v>
+        <v>67</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="B132" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C132" s="3">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>177</v>
+        <v>292</v>
       </c>
       <c r="E132" s="3" t="s">
         <v>128</v>
@@ -3728,16 +3770,16 @@
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="B133" s="3">
         <v>1</v>
       </c>
       <c r="C133" s="3">
-        <v>220</v>
+        <v>500</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>177</v>
+        <v>293</v>
       </c>
       <c r="E133" s="3" t="s">
         <v>128</v>
@@ -3745,16 +3787,16 @@
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="B134" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C134" s="3">
-        <v>220</v>
+        <v>500</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>177</v>
+        <v>294</v>
       </c>
       <c r="E134" s="3" t="s">
         <v>128</v>
@@ -3762,16 +3804,16 @@
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="B135" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C135" s="3">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>177</v>
+        <v>295</v>
       </c>
       <c r="E135" s="3" t="s">
         <v>128</v>
@@ -3779,13 +3821,13 @@
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="B136" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C136" s="3">
-        <v>220</v>
+        <v>500</v>
       </c>
       <c r="D136" s="2" t="s">
         <v>177</v>
@@ -3796,16 +3838,16 @@
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>297</v>
+        <v>133</v>
       </c>
       <c r="B137" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C137" s="3">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>296</v>
+        <v>245</v>
       </c>
       <c r="E137" s="3" t="s">
         <v>128</v>
@@ -3813,16 +3855,16 @@
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
-        <v>298</v>
+        <v>134</v>
       </c>
       <c r="B138" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C138" s="3">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>299</v>
+        <v>177</v>
       </c>
       <c r="E138" s="3" t="s">
         <v>128</v>
@@ -3830,16 +3872,16 @@
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>301</v>
+        <v>135</v>
       </c>
       <c r="B139" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C139" s="3">
         <v>220</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>300</v>
+        <v>177</v>
       </c>
       <c r="E139" s="3" t="s">
         <v>128</v>
@@ -3847,13 +3889,13 @@
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B140" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C140" s="3">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="D140" s="2" t="s">
         <v>177</v>
@@ -3864,16 +3906,16 @@
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
-        <v>302</v>
+        <v>137</v>
       </c>
       <c r="B141" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C141" s="3">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>303</v>
+        <v>177</v>
       </c>
       <c r="E141" s="3" t="s">
         <v>128</v>
@@ -3881,13 +3923,13 @@
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B142" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C142" s="3">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="D142" s="2" t="s">
         <v>177</v>
@@ -3898,13 +3940,13 @@
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B143" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C143" s="3">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="D143" s="2" t="s">
         <v>177</v>
@@ -3915,16 +3957,16 @@
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
-        <v>143</v>
+        <v>297</v>
       </c>
       <c r="B144" s="3">
         <v>2</v>
       </c>
       <c r="C144" s="3">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>177</v>
+        <v>296</v>
       </c>
       <c r="E144" s="3" t="s">
         <v>128</v>
@@ -3932,16 +3974,16 @@
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
-        <v>144</v>
+        <v>298</v>
       </c>
       <c r="B145" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C145" s="3">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>177</v>
+        <v>299</v>
       </c>
       <c r="E145" s="3" t="s">
         <v>128</v>
@@ -3949,16 +3991,16 @@
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
-        <v>145</v>
+        <v>301</v>
       </c>
       <c r="B146" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C146" s="3">
-        <v>350</v>
+        <v>220</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>177</v>
+        <v>300</v>
       </c>
       <c r="E146" s="3" t="s">
         <v>128</v>
@@ -3966,13 +4008,13 @@
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B147" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C147" s="3">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="D147" s="2" t="s">
         <v>177</v>
@@ -3983,16 +4025,16 @@
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
-        <v>147</v>
+        <v>302</v>
       </c>
       <c r="B148" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C148" s="3">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>177</v>
+        <v>303</v>
       </c>
       <c r="E148" s="3" t="s">
         <v>128</v>
@@ -4000,13 +4042,13 @@
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="B149" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C149" s="3">
-        <v>350</v>
+        <v>220</v>
       </c>
       <c r="D149" s="2" t="s">
         <v>177</v>
@@ -4017,13 +4059,13 @@
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="B150" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C150" s="3">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="D150" s="2" t="s">
         <v>177</v>
@@ -4034,126 +4076,126 @@
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="B151" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C151" s="3">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>274</v>
+        <v>177</v>
       </c>
       <c r="E151" s="3" t="s">
-        <v>151</v>
+        <v>128</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="B152" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C152" s="3">
-        <v>460</v>
+        <v>350</v>
       </c>
       <c r="D152" s="2" t="s">
         <v>177</v>
       </c>
       <c r="E152" s="3" t="s">
-        <v>151</v>
+        <v>128</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="B153" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C153" s="3">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>275</v>
+        <v>177</v>
       </c>
       <c r="E153" s="3" t="s">
-        <v>151</v>
+        <v>128</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="B154" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C154" s="3">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>276</v>
+        <v>177</v>
       </c>
       <c r="E154" s="3" t="s">
-        <v>151</v>
+        <v>128</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="B155" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C155" s="3">
-        <v>240</v>
+        <v>350</v>
       </c>
       <c r="D155" s="2" t="s">
         <v>177</v>
       </c>
       <c r="E155" s="3" t="s">
-        <v>151</v>
+        <v>128</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="B156" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C156" s="3">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="D156" s="2" t="s">
         <v>177</v>
       </c>
       <c r="E156" s="3" t="s">
-        <v>157</v>
+        <v>128</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="B157" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C157" s="3">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="D157" s="2" t="s">
         <v>177</v>
       </c>
       <c r="E157" s="3" t="s">
-        <v>157</v>
+        <v>128</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="B158" s="3">
         <v>1</v>
@@ -4162,86 +4204,86 @@
         <v>250</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>177</v>
+        <v>274</v>
       </c>
       <c r="E158" s="3" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="B159" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C159" s="3">
-        <v>250</v>
+        <v>460</v>
       </c>
       <c r="D159" s="2" t="s">
         <v>177</v>
       </c>
       <c r="E159" s="3" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="B160" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C160" s="3">
         <v>250</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>177</v>
+        <v>275</v>
       </c>
       <c r="E160" s="3" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="B161" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C161" s="3">
         <v>250</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>177</v>
+        <v>276</v>
       </c>
       <c r="E161" s="3" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="B162" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C162" s="3">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="D162" s="2" t="s">
         <v>177</v>
       </c>
       <c r="E162" s="3" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="B163" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C163" s="3">
         <v>250</v>
@@ -4255,10 +4297,10 @@
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="B164" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C164" s="3">
         <v>250</v>
@@ -4272,7 +4314,7 @@
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="B165" s="3">
         <v>1</v>
@@ -4289,7 +4331,7 @@
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="B166" s="3">
         <v>1</v>
@@ -4306,7 +4348,7 @@
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="B167" s="3">
         <v>2</v>
@@ -4323,10 +4365,10 @@
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="B168" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C168" s="3">
         <v>250</v>
@@ -4340,10 +4382,10 @@
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="B169" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C169" s="3">
         <v>250</v>
@@ -4357,10 +4399,10 @@
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="B170" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C170" s="3">
         <v>250</v>
@@ -4374,10 +4416,10 @@
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="B171" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C171" s="3">
         <v>250</v>
@@ -4391,26 +4433,26 @@
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="B172" s="5">
-        <v>7</v>
+        <v>166</v>
+      </c>
+      <c r="B172" s="3">
+        <v>1</v>
       </c>
       <c r="C172" s="3">
         <v>250</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="E172" s="6" t="s">
-        <v>223</v>
+        <v>177</v>
+      </c>
+      <c r="E172" s="3" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A173" t="s">
-        <v>216</v>
-      </c>
-      <c r="B173" s="5">
+      <c r="A173" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B173" s="3">
         <v>1</v>
       </c>
       <c r="C173" s="3">
@@ -4419,109 +4461,228 @@
       <c r="D173" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="E173" s="6" t="s">
+      <c r="E173" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A174" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B174" s="3">
+        <v>2</v>
+      </c>
+      <c r="C174" s="3">
+        <v>250</v>
+      </c>
+      <c r="D174" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E174" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A175" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B175" s="3">
+        <v>1</v>
+      </c>
+      <c r="C175" s="3">
+        <v>250</v>
+      </c>
+      <c r="D175" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E175" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A176" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B176" s="3">
+        <v>2</v>
+      </c>
+      <c r="C176" s="3">
+        <v>250</v>
+      </c>
+      <c r="D176" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E176" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A177" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B177" s="3">
+        <v>1</v>
+      </c>
+      <c r="C177" s="3">
+        <v>250</v>
+      </c>
+      <c r="D177" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E177" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A178" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B178" s="3">
+        <v>1</v>
+      </c>
+      <c r="C178" s="3">
+        <v>250</v>
+      </c>
+      <c r="D178" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E178" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A179" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B179" s="5">
+        <v>7</v>
+      </c>
+      <c r="C179" s="3">
+        <v>250</v>
+      </c>
+      <c r="D179" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="E179" s="6" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A174" t="s">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>216</v>
+      </c>
+      <c r="B180" s="5">
+        <v>1</v>
+      </c>
+      <c r="C180" s="3">
+        <v>250</v>
+      </c>
+      <c r="D180" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E180" s="6" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
         <v>217</v>
       </c>
-      <c r="B174" s="5">
-        <v>1</v>
-      </c>
-      <c r="C174" s="6">
+      <c r="B181" s="5">
+        <v>1</v>
+      </c>
+      <c r="C181" s="6">
         <v>220</v>
       </c>
-      <c r="D174" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="E174" s="6" t="s">
+      <c r="D181" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E181" s="6" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A175" t="s">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
         <v>218</v>
       </c>
-      <c r="B175" s="5">
-        <v>1</v>
-      </c>
-      <c r="C175" s="6">
+      <c r="B182" s="5">
+        <v>1</v>
+      </c>
+      <c r="C182" s="6">
         <v>220</v>
       </c>
-      <c r="D175" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="E175" s="6" t="s">
+      <c r="D182" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E182" s="6" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A176" t="s">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
         <v>219</v>
       </c>
-      <c r="B176" s="5">
+      <c r="B183" s="5">
         <v>2</v>
       </c>
-      <c r="C176" s="6">
+      <c r="C183" s="6">
         <v>220</v>
       </c>
-      <c r="D176" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="E176" s="6" t="s">
+      <c r="D183" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E183" s="6" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A177" t="s">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
         <v>220</v>
       </c>
-      <c r="B177" s="5">
-        <v>1</v>
-      </c>
-      <c r="C177" s="6">
+      <c r="B184" s="5">
+        <v>1</v>
+      </c>
+      <c r="C184" s="6">
         <v>220</v>
       </c>
-      <c r="D177" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="E177" s="6" t="s">
+      <c r="D184" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E184" s="6" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A178" t="s">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
         <v>221</v>
       </c>
-      <c r="B178" s="5">
-        <v>1</v>
-      </c>
-      <c r="C178" s="6">
+      <c r="B185" s="5">
+        <v>1</v>
+      </c>
+      <c r="C185" s="6">
         <v>220</v>
       </c>
-      <c r="D178" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="E178" s="6" t="s">
+      <c r="D185" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E185" s="6" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A179" t="s">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
         <v>222</v>
       </c>
-      <c r="B179" s="5">
+      <c r="B186" s="5">
         <v>5</v>
       </c>
-      <c r="C179" s="6">
+      <c r="C186" s="6">
         <v>350</v>
       </c>
-      <c r="D179" s="2" t="s">
+      <c r="D186" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="E179" s="6" t="s">
+      <c r="E186" s="6" t="s">
         <v>223</v>
       </c>
     </row>

--- a/data/stock.xlsx
+++ b/data/stock.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\blocks\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9B84E78-52EC-41B4-9918-EFA8CA765A8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64B2DF25-3CA9-46CE-A057-166450C20D94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3210" yWindow="1845" windowWidth="21600" windowHeight="11295" xr2:uid="{FC0CBB84-858B-49F6-BA69-44D83C89F7C4}"/>
+    <workbookView xWindow="3840" yWindow="990" windowWidth="21600" windowHeight="11295" xr2:uid="{FC0CBB84-858B-49F6-BA69-44D83C89F7C4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="334">
   <si>
     <t>Product</t>
   </si>
@@ -994,6 +994,48 @@
   </si>
   <si>
     <t>Spiderman India.jpg</t>
+  </si>
+  <si>
+    <t>sasuke sus.jpg</t>
+  </si>
+  <si>
+    <t>madara sus.jpg</t>
+  </si>
+  <si>
+    <t>kakashi sus.jpg</t>
+  </si>
+  <si>
+    <t>shisui sus.jpg</t>
+  </si>
+  <si>
+    <t>itachi sus.jpg</t>
+  </si>
+  <si>
+    <t>hagoromo sus.jpg</t>
+  </si>
+  <si>
+    <t>kakashi cape.jpg</t>
+  </si>
+  <si>
+    <t>madara six path.jpg</t>
+  </si>
+  <si>
+    <t>madara.jpg</t>
+  </si>
+  <si>
+    <t>minato.jpg</t>
+  </si>
+  <si>
+    <t>sasuke.jpg</t>
+  </si>
+  <si>
+    <t>obito akatsuki.jpg</t>
+  </si>
+  <si>
+    <t>obito war.jpg</t>
+  </si>
+  <si>
+    <t>obito six path.jpg</t>
   </si>
 </sst>
 </file>
@@ -1513,8 +1555,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCDC9875-9E8E-485C-910E-47B83A1F9902}">
   <dimension ref="A1:E186"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="A128" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D139" sqref="D139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2838,10 +2880,10 @@
         <v>76</v>
       </c>
       <c r="B78" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C78" s="3">
-        <v>270</v>
+        <v>300</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>213</v>
@@ -2889,7 +2931,7 @@
         <v>306</v>
       </c>
       <c r="B81" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C81" s="3">
         <v>350</v>
@@ -3756,7 +3798,7 @@
         <v>127</v>
       </c>
       <c r="B132" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C132" s="3">
         <v>250</v>
@@ -3858,13 +3900,13 @@
         <v>134</v>
       </c>
       <c r="B138" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C138" s="3">
         <v>220</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>177</v>
+        <v>326</v>
       </c>
       <c r="E138" s="3" t="s">
         <v>128</v>
@@ -3881,7 +3923,7 @@
         <v>220</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>177</v>
+        <v>333</v>
       </c>
       <c r="E139" s="3" t="s">
         <v>128</v>
@@ -3898,7 +3940,7 @@
         <v>220</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>177</v>
+        <v>327</v>
       </c>
       <c r="E140" s="3" t="s">
         <v>128</v>
@@ -3915,7 +3957,7 @@
         <v>220</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>177</v>
+        <v>328</v>
       </c>
       <c r="E141" s="3" t="s">
         <v>128</v>
@@ -3929,10 +3971,10 @@
         <v>2</v>
       </c>
       <c r="C142" s="3">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>177</v>
+        <v>329</v>
       </c>
       <c r="E142" s="3" t="s">
         <v>128</v>
@@ -3946,10 +3988,10 @@
         <v>1</v>
       </c>
       <c r="C143" s="3">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>177</v>
+        <v>330</v>
       </c>
       <c r="E143" s="3" t="s">
         <v>128</v>
@@ -3963,7 +4005,7 @@
         <v>2</v>
       </c>
       <c r="C144" s="3">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="D144" s="2" t="s">
         <v>296</v>
@@ -4014,10 +4056,10 @@
         <v>3</v>
       </c>
       <c r="C147" s="3">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>177</v>
+        <v>332</v>
       </c>
       <c r="E147" s="3" t="s">
         <v>128</v>
@@ -4028,7 +4070,7 @@
         <v>302</v>
       </c>
       <c r="B148" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C148" s="3">
         <v>250</v>
@@ -4051,7 +4093,7 @@
         <v>220</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>177</v>
+        <v>331</v>
       </c>
       <c r="E149" s="3" t="s">
         <v>128</v>
@@ -4085,7 +4127,7 @@
         <v>350</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>177</v>
+        <v>320</v>
       </c>
       <c r="E151" s="3" t="s">
         <v>128</v>
@@ -4102,7 +4144,7 @@
         <v>350</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>177</v>
+        <v>321</v>
       </c>
       <c r="E152" s="3" t="s">
         <v>128</v>
@@ -4119,7 +4161,7 @@
         <v>350</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>177</v>
+        <v>322</v>
       </c>
       <c r="E153" s="3" t="s">
         <v>128</v>
@@ -4136,7 +4178,7 @@
         <v>350</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>177</v>
+        <v>323</v>
       </c>
       <c r="E154" s="3" t="s">
         <v>128</v>
@@ -4153,7 +4195,7 @@
         <v>350</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>177</v>
+        <v>324</v>
       </c>
       <c r="E155" s="3" t="s">
         <v>128</v>
@@ -4170,7 +4212,7 @@
         <v>350</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>177</v>
+        <v>325</v>
       </c>
       <c r="E156" s="3" t="s">
         <v>128</v>
@@ -4521,7 +4563,7 @@
         <v>171</v>
       </c>
       <c r="B177" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C177" s="3">
         <v>250</v>
@@ -4538,7 +4580,7 @@
         <v>172</v>
       </c>
       <c r="B178" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C178" s="3">
         <v>250</v>

--- a/data/stock.xlsx
+++ b/data/stock.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\blocks\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64B2DF25-3CA9-46CE-A057-166450C20D94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BD80D47-31A1-4E88-B5CA-B0B9DF18EE67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3840" yWindow="990" windowWidth="21600" windowHeight="11295" xr2:uid="{FC0CBB84-858B-49F6-BA69-44D83C89F7C4}"/>
+    <workbookView xWindow="4170" yWindow="1395" windowWidth="21600" windowHeight="11295" xr2:uid="{FC0CBB84-858B-49F6-BA69-44D83C89F7C4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="335">
   <si>
     <t>Product</t>
   </si>
@@ -1036,6 +1036,9 @@
   </si>
   <si>
     <t>obito six path.jpg</t>
+  </si>
+  <si>
+    <t>naruto kid.jpg</t>
   </si>
 </sst>
 </file>
@@ -1555,8 +1558,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCDC9875-9E8E-485C-910E-47B83A1F9902}">
   <dimension ref="A1:E186"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A128" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D139" sqref="D139"/>
+    <sheetView tabSelected="1" topLeftCell="A149" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D157" sqref="D157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4229,7 +4232,7 @@
         <v>220</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>177</v>
+        <v>334</v>
       </c>
       <c r="E157" s="3" t="s">
         <v>128</v>

--- a/data/stock.xlsx
+++ b/data/stock.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\blocks\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BD80D47-31A1-4E88-B5CA-B0B9DF18EE67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A6DE697-B3C4-4C46-A3A1-15745B3961E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4170" yWindow="1395" windowWidth="21600" windowHeight="11295" xr2:uid="{FC0CBB84-858B-49F6-BA69-44D83C89F7C4}"/>
+    <workbookView xWindow="4170" yWindow="1440" windowWidth="21600" windowHeight="11250" xr2:uid="{FC0CBB84-858B-49F6-BA69-44D83C89F7C4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="342">
   <si>
     <t>Product</t>
   </si>
@@ -159,33 +159,12 @@
     <t>Rhino</t>
   </si>
   <si>
-    <t>Moonknight moon white</t>
-  </si>
-  <si>
-    <t>Moonknight white</t>
-  </si>
-  <si>
     <t>Mr. Moonknight</t>
   </si>
   <si>
     <t>Dr. Strange Supreme</t>
   </si>
   <si>
-    <t>Shang chi</t>
-  </si>
-  <si>
-    <t>Moonknight black</t>
-  </si>
-  <si>
-    <t>Moonknight black comic</t>
-  </si>
-  <si>
-    <t>War Machine new</t>
-  </si>
-  <si>
-    <t>Iron Patriot new</t>
-  </si>
-  <si>
     <t>Joker</t>
   </si>
   <si>
@@ -201,12 +180,6 @@
     <t>Superman</t>
   </si>
   <si>
-    <t>Black Adam hood</t>
-  </si>
-  <si>
-    <t>Black Adam bald</t>
-  </si>
-  <si>
     <t>Dr. Fate Cape</t>
   </si>
   <si>
@@ -423,21 +396,9 @@
     <t>Naruto</t>
   </si>
   <si>
-    <t>boruto &amp; sarada</t>
-  </si>
-  <si>
-    <t>Sasuke &amp; Baryon</t>
-  </si>
-  <si>
-    <t>Baryon &amp; Boruto</t>
-  </si>
-  <si>
     <t>Marriage set</t>
   </si>
   <si>
-    <t>Sasuke &amp; Naruto(war)</t>
-  </si>
-  <si>
     <t>Kakashi cape</t>
   </si>
   <si>
@@ -690,9 +651,6 @@
     <t>Getsuga Ichigo</t>
   </si>
   <si>
-    <t>vasto Ichigo</t>
-  </si>
-  <si>
     <t>Aizen</t>
   </si>
   <si>
@@ -771,9 +729,6 @@
     <t>Hawkeye.jpeg</t>
   </si>
   <si>
-    <t>Sasuke &amp; Naruto(war).png</t>
-  </si>
-  <si>
     <t>Wolverine.png</t>
   </si>
   <si>
@@ -915,15 +870,6 @@
     <t>Naruto sage.jpg</t>
   </si>
   <si>
-    <t>borusara.jpg</t>
-  </si>
-  <si>
-    <t>barsas.jpg</t>
-  </si>
-  <si>
-    <t>barboru.jpg</t>
-  </si>
-  <si>
     <t>Jiraya kdl.jpg</t>
   </si>
   <si>
@@ -1039,6 +985,81 @@
   </si>
   <si>
     <t>naruto kid.jpg</t>
+  </si>
+  <si>
+    <t>Naruto Baryon</t>
+  </si>
+  <si>
+    <t>Sasuke (Adult)</t>
+  </si>
+  <si>
+    <t>Boruto</t>
+  </si>
+  <si>
+    <t>Sarada</t>
+  </si>
+  <si>
+    <t>Naruto(war)</t>
+  </si>
+  <si>
+    <t>Moonknight Moon White</t>
+  </si>
+  <si>
+    <t>Moonknight White</t>
+  </si>
+  <si>
+    <t>Moonknight Black</t>
+  </si>
+  <si>
+    <t>Shang Chi</t>
+  </si>
+  <si>
+    <t>Moonknight Black Comic</t>
+  </si>
+  <si>
+    <t>War Machine New</t>
+  </si>
+  <si>
+    <t>Iron Patriot New</t>
+  </si>
+  <si>
+    <t>Black Adam Hood</t>
+  </si>
+  <si>
+    <t>Black Adam Bald</t>
+  </si>
+  <si>
+    <t>Vasto Ichigo</t>
+  </si>
+  <si>
+    <t>winston.jpg</t>
+  </si>
+  <si>
+    <t>ichigo.jpg</t>
+  </si>
+  <si>
+    <t>aizen.jpg</t>
+  </si>
+  <si>
+    <t>Kenpachi.jpg</t>
+  </si>
+  <si>
+    <t>jaeger.jpg</t>
+  </si>
+  <si>
+    <t>naruto bar.jpg</t>
+  </si>
+  <si>
+    <t>sasuke adult.jpg</t>
+  </si>
+  <si>
+    <t>boruto.jpg</t>
+  </si>
+  <si>
+    <t>sarada.jpg</t>
+  </si>
+  <si>
+    <t>naruto war.jpg</t>
   </si>
 </sst>
 </file>
@@ -1556,10 +1577,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCDC9875-9E8E-485C-910E-47B83A1F9902}">
-  <dimension ref="A1:E186"/>
+  <dimension ref="A1:E187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A149" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D157" sqref="D157"/>
+    <sheetView tabSelected="1" topLeftCell="A124" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F144" sqref="F144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1597,7 +1618,7 @@
         <v>220</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>6</v>
@@ -1614,7 +1635,7 @@
         <v>220</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>6</v>
@@ -1631,7 +1652,7 @@
         <v>350</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>6</v>
@@ -1648,7 +1669,7 @@
         <v>180</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>6</v>
@@ -1665,7 +1686,7 @@
         <v>180</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>6</v>
@@ -1682,7 +1703,7 @@
         <v>200</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>244</v>
+        <v>230</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>6</v>
@@ -1699,7 +1720,7 @@
         <v>180</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>6</v>
@@ -1716,7 +1737,7 @@
         <v>200</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>6</v>
@@ -1724,7 +1745,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>308</v>
+        <v>290</v>
       </c>
       <c r="B10" s="3">
         <v>2</v>
@@ -1733,7 +1754,7 @@
         <v>280</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>314</v>
+        <v>296</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>6</v>
@@ -1741,7 +1762,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>309</v>
+        <v>291</v>
       </c>
       <c r="B11" s="3">
         <v>2</v>
@@ -1750,7 +1771,7 @@
         <v>280</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>315</v>
+        <v>297</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>6</v>
@@ -1758,7 +1779,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>310</v>
+        <v>292</v>
       </c>
       <c r="B12" s="3">
         <v>3</v>
@@ -1767,7 +1788,7 @@
         <v>280</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>317</v>
+        <v>299</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>6</v>
@@ -1775,7 +1796,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>311</v>
+        <v>293</v>
       </c>
       <c r="B13" s="3">
         <v>2</v>
@@ -1784,7 +1805,7 @@
         <v>280</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>318</v>
+        <v>300</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>6</v>
@@ -1792,7 +1813,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>312</v>
+        <v>294</v>
       </c>
       <c r="B14" s="3">
         <v>1</v>
@@ -1801,7 +1822,7 @@
         <v>280</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>316</v>
+        <v>298</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>6</v>
@@ -1809,7 +1830,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>313</v>
+        <v>295</v>
       </c>
       <c r="B15" s="3">
         <v>1</v>
@@ -1818,7 +1839,7 @@
         <v>280</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>319</v>
+        <v>301</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>6</v>
@@ -1835,7 +1856,7 @@
         <v>200</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>6</v>
@@ -1852,7 +1873,7 @@
         <v>200</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>6</v>
@@ -1869,7 +1890,7 @@
         <v>200</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>6</v>
@@ -1886,7 +1907,7 @@
         <v>200</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>6</v>
@@ -1903,7 +1924,7 @@
         <v>200</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>6</v>
@@ -1920,7 +1941,7 @@
         <v>200</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>6</v>
@@ -1937,7 +1958,7 @@
         <v>200</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>284</v>
+        <v>269</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>6</v>
@@ -1954,7 +1975,7 @@
         <v>200</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>6</v>
@@ -1971,7 +1992,7 @@
         <v>200</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>6</v>
@@ -1985,10 +2006,10 @@
         <v>1</v>
       </c>
       <c r="C25" s="3">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>6</v>
@@ -2005,7 +2026,7 @@
         <v>180</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>6</v>
@@ -2022,7 +2043,7 @@
         <v>180</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>248</v>
+        <v>233</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>6</v>
@@ -2039,7 +2060,7 @@
         <v>180</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>6</v>
@@ -2056,7 +2077,7 @@
         <v>180</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>6</v>
@@ -2073,7 +2094,7 @@
         <v>180</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>6</v>
@@ -2090,7 +2111,7 @@
         <v>180</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>6</v>
@@ -2107,7 +2128,7 @@
         <v>180</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>249</v>
+        <v>234</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>6</v>
@@ -2124,7 +2145,7 @@
         <v>270</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>6</v>
@@ -2141,7 +2162,7 @@
         <v>270</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>6</v>
@@ -2158,7 +2179,7 @@
         <v>270</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>6</v>
@@ -2175,7 +2196,7 @@
         <v>450</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>6</v>
@@ -2192,7 +2213,7 @@
         <v>380</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>6</v>
@@ -2209,7 +2230,7 @@
         <v>800</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>6</v>
@@ -2226,7 +2247,7 @@
         <v>270</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>6</v>
@@ -2243,7 +2264,7 @@
         <v>270</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>6</v>
@@ -2260,7 +2281,7 @@
         <v>270</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>6</v>
@@ -2277,7 +2298,7 @@
         <v>850</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>6</v>
@@ -2285,7 +2306,7 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>41</v>
+        <v>322</v>
       </c>
       <c r="B43" s="3">
         <v>2</v>
@@ -2294,7 +2315,7 @@
         <v>250</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>6</v>
@@ -2302,7 +2323,7 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>42</v>
+        <v>323</v>
       </c>
       <c r="B44" s="3">
         <v>2</v>
@@ -2311,7 +2332,7 @@
         <v>250</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>6</v>
@@ -2319,7 +2340,7 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B45" s="3">
         <v>2</v>
@@ -2328,7 +2349,7 @@
         <v>250</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>6</v>
@@ -2336,16 +2357,16 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B46" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C46" s="3">
         <v>250</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>255</v>
+        <v>240</v>
       </c>
       <c r="E46" s="3" t="s">
         <v>6</v>
@@ -2353,7 +2374,7 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>45</v>
+        <v>325</v>
       </c>
       <c r="B47" s="3">
         <v>1</v>
@@ -2362,7 +2383,7 @@
         <v>250</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>6</v>
@@ -2370,7 +2391,7 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>46</v>
+        <v>324</v>
       </c>
       <c r="B48" s="3">
         <v>1</v>
@@ -2379,7 +2400,7 @@
         <v>250</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>6</v>
@@ -2387,7 +2408,7 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>47</v>
+        <v>326</v>
       </c>
       <c r="B49" s="3">
         <v>1</v>
@@ -2396,7 +2417,7 @@
         <v>250</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>6</v>
@@ -2404,7 +2425,7 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>48</v>
+        <v>327</v>
       </c>
       <c r="B50" s="3">
         <v>2</v>
@@ -2413,7 +2434,7 @@
         <v>360</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>287</v>
+        <v>272</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>6</v>
@@ -2421,7 +2442,7 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>49</v>
+        <v>328</v>
       </c>
       <c r="B51" s="3">
         <v>1</v>
@@ -2430,7 +2451,7 @@
         <v>360</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
       <c r="E51" s="3" t="s">
         <v>6</v>
@@ -2438,7 +2459,7 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="B52" s="3">
         <v>2</v>
@@ -2447,7 +2468,7 @@
         <v>200</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>6</v>
@@ -2455,7 +2476,7 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B53" s="3">
         <v>4</v>
@@ -2464,15 +2485,15 @@
         <v>180</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>258</v>
+        <v>243</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="B54" s="3">
         <v>0</v>
@@ -2481,15 +2502,15 @@
         <v>150</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="B55" s="3">
         <v>0</v>
@@ -2498,15 +2519,15 @@
         <v>180</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>329</v>
       </c>
       <c r="B56" s="3">
         <v>1</v>
@@ -2515,15 +2536,15 @@
         <v>160</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>330</v>
       </c>
       <c r="B57" s="3">
         <v>2</v>
@@ -2532,15 +2553,15 @@
         <v>160</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B58" s="3">
         <v>4</v>
@@ -2549,32 +2570,32 @@
         <v>300</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>259</v>
+        <v>244</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="B59" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C59" s="3">
         <v>300</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="B60" s="3">
         <v>2</v>
@@ -2583,15 +2604,15 @@
         <v>350</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="B61" s="3">
         <v>3</v>
@@ -2600,15 +2621,15 @@
         <v>350</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="B62" s="3">
         <v>4</v>
@@ -2617,15 +2638,15 @@
         <v>500</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>243</v>
+        <v>229</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="B63" s="3">
         <v>3</v>
@@ -2634,15 +2655,15 @@
         <v>350</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="B64" s="3">
         <v>0</v>
@@ -2651,15 +2672,15 @@
         <v>350</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="B65" s="3">
         <v>1</v>
@@ -2668,15 +2689,15 @@
         <v>350</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="B66" s="3">
         <v>0</v>
@@ -2685,15 +2706,15 @@
         <v>500</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>224</v>
+        <v>210</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="B67" s="3">
         <v>0</v>
@@ -2702,15 +2723,15 @@
         <v>500</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="B68" s="3">
         <v>0</v>
@@ -2719,15 +2740,15 @@
         <v>300</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="B69" s="3">
         <v>1</v>
@@ -2736,15 +2757,15 @@
         <v>300</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="B70" s="3">
         <v>0</v>
@@ -2753,15 +2774,15 @@
         <v>300</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="B71" s="3">
         <v>0</v>
@@ -2770,15 +2791,15 @@
         <v>300</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="B72" s="3">
         <v>1</v>
@@ -2787,15 +2808,15 @@
         <v>300</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="B73" s="3">
         <v>0</v>
@@ -2804,15 +2825,15 @@
         <v>270</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="B74" s="3">
         <v>0</v>
@@ -2821,15 +2842,15 @@
         <v>270</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="B75" s="3">
         <v>1</v>
@@ -2838,15 +2859,15 @@
         <v>300</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="B76" s="3">
         <v>0</v>
@@ -2855,15 +2876,15 @@
         <v>300</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="B77" s="3">
         <v>1</v>
@@ -2872,15 +2893,15 @@
         <v>300</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="B78" s="3">
         <v>1</v>
@@ -2889,15 +2910,15 @@
         <v>300</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B79" s="3">
         <v>0</v>
@@ -2906,15 +2927,15 @@
         <v>300</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="B80" s="3">
         <v>0</v>
@@ -2923,15 +2944,15 @@
         <v>300</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>306</v>
+        <v>288</v>
       </c>
       <c r="B81" s="3">
         <v>2</v>
@@ -2940,15 +2961,15 @@
         <v>350</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>307</v>
+        <v>289</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="B82" s="3">
         <v>0</v>
@@ -2957,15 +2978,15 @@
         <v>300</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="B83" s="3">
         <v>0</v>
@@ -2974,15 +2995,15 @@
         <v>300</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="B84" s="3">
         <v>0</v>
@@ -2991,15 +3012,15 @@
         <v>300</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="B85" s="3">
         <v>0</v>
@@ -3008,15 +3029,15 @@
         <v>300</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="B86" s="3">
         <v>0</v>
@@ -3025,15 +3046,15 @@
         <v>300</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="B87" s="3">
         <v>0</v>
@@ -3042,15 +3063,15 @@
         <v>300</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="B88" s="3">
         <v>1</v>
@@ -3059,32 +3080,32 @@
         <v>300</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>304</v>
+        <v>286</v>
       </c>
       <c r="B89" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C89" s="3">
         <v>350</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>305</v>
+        <v>287</v>
       </c>
       <c r="B90" s="3">
         <v>1</v>
@@ -3093,15 +3114,15 @@
         <v>350</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="B91" s="3">
         <v>2</v>
@@ -3110,15 +3131,15 @@
         <v>350</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="B92" s="3">
         <v>1</v>
@@ -3127,15 +3148,15 @@
         <v>350</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="B93" s="3">
         <v>2</v>
@@ -3144,15 +3165,15 @@
         <v>320</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="B94" s="3">
         <v>1</v>
@@ -3161,15 +3182,15 @@
         <v>320</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="B95" s="3">
         <v>1</v>
@@ -3178,15 +3199,15 @@
         <v>320</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="B96" s="3">
         <v>1</v>
@@ -3195,15 +3216,15 @@
         <v>320</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="B97" s="3">
         <v>1</v>
@@ -3212,15 +3233,15 @@
         <v>320</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="B98" s="3">
         <v>1</v>
@@ -3229,15 +3250,15 @@
         <v>320</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="B99" s="3">
         <v>2</v>
@@ -3246,15 +3267,15 @@
         <v>320</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="B100" s="3">
         <v>0</v>
@@ -3263,15 +3284,15 @@
         <v>320</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="B101" s="3">
         <v>1</v>
@@ -3280,15 +3301,15 @@
         <v>320</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="B102" s="3">
         <v>1</v>
@@ -3297,15 +3318,15 @@
         <v>320</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="B103" s="3">
         <v>2</v>
@@ -3314,15 +3335,15 @@
         <v>320</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="B104" s="3">
         <v>2</v>
@@ -3331,15 +3352,15 @@
         <v>320</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="B105" s="3">
         <v>1</v>
@@ -3348,15 +3369,15 @@
         <v>320</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="B106" s="3">
         <v>2</v>
@@ -3365,15 +3386,15 @@
         <v>320</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="B107" s="3">
         <v>0</v>
@@ -3382,15 +3403,15 @@
         <v>320</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="B108" s="3">
         <v>0</v>
@@ -3399,15 +3420,15 @@
         <v>300</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="B109" s="3">
         <v>2</v>
@@ -3416,15 +3437,15 @@
         <v>300</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
       <c r="E109" s="3" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="B110" s="3">
         <v>1</v>
@@ -3433,15 +3454,15 @@
         <v>300</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>261</v>
+        <v>246</v>
       </c>
       <c r="E110" s="3" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="B111" s="3">
         <v>1</v>
@@ -3450,15 +3471,15 @@
         <v>300</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B112" s="3">
         <v>1</v>
@@ -3467,15 +3488,15 @@
         <v>300</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="B113" s="3">
         <v>1</v>
@@ -3484,15 +3505,15 @@
         <v>300</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="E113" s="3" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="B114" s="3">
         <v>1</v>
@@ -3501,15 +3522,15 @@
         <v>300</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="B115" s="3">
         <v>1</v>
@@ -3518,32 +3539,32 @@
         <v>300</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="B116" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C116" s="3">
         <v>300</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="B117" s="3">
         <v>2</v>
@@ -3552,15 +3573,15 @@
         <v>300</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="E117" s="3" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="B118" s="3">
         <v>1</v>
@@ -3569,15 +3590,15 @@
         <v>300</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
       <c r="E118" s="3" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="B119" s="3">
         <v>1</v>
@@ -3586,15 +3607,15 @@
         <v>300</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
       <c r="E119" s="3" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="B120" s="3">
         <v>0</v>
@@ -3603,15 +3624,15 @@
         <v>400</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="E120" s="3" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="B121" s="3">
         <v>1</v>
@@ -3620,15 +3641,15 @@
         <v>400</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>263</v>
+        <v>248</v>
       </c>
       <c r="E121" s="3" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="B122" s="3">
         <v>0</v>
@@ -3637,15 +3658,15 @@
         <v>300</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
       <c r="E122" s="3" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="B123" s="3">
         <v>2</v>
@@ -3654,15 +3675,15 @@
         <v>300</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
       <c r="E123" s="3" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="B124" s="3">
         <v>1</v>
@@ -3671,15 +3692,15 @@
         <v>300</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
       <c r="E124" s="3" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="B125" s="3">
         <v>1</v>
@@ -3688,15 +3709,15 @@
         <v>300</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
       <c r="E125" s="3" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="B126" s="3">
         <v>1</v>
@@ -3705,15 +3726,15 @@
         <v>300</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
       <c r="E126" s="3" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="B127" s="3">
         <v>1</v>
@@ -3722,15 +3743,15 @@
         <v>300</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="E127" s="3" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="B128" s="3">
         <v>1</v>
@@ -3739,15 +3760,15 @@
         <v>300</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="E128" s="3" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="B129" s="3">
         <v>0</v>
@@ -3756,15 +3777,15 @@
         <v>500</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
       <c r="E129" s="3" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="B130" s="3">
         <v>1</v>
@@ -3773,15 +3794,15 @@
         <v>300</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>272</v>
+        <v>257</v>
       </c>
       <c r="E130" s="3" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="B131" s="3">
         <v>1</v>
@@ -3790,15 +3811,15 @@
         <v>300</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
       <c r="E131" s="3" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="B132" s="3">
         <v>1</v>
@@ -3807,389 +3828,389 @@
         <v>250</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>292</v>
+        <v>277</v>
       </c>
       <c r="E132" s="3" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>129</v>
+        <v>317</v>
       </c>
       <c r="B133" s="3">
         <v>1</v>
       </c>
       <c r="C133" s="3">
-        <v>500</v>
+        <v>280</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>293</v>
+        <v>337</v>
       </c>
       <c r="E133" s="3" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>130</v>
+        <v>318</v>
       </c>
       <c r="B134" s="3">
         <v>1</v>
       </c>
       <c r="C134" s="3">
-        <v>500</v>
+        <v>280</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>294</v>
+        <v>338</v>
       </c>
       <c r="E134" s="3" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>131</v>
+        <v>319</v>
       </c>
       <c r="B135" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C135" s="3">
-        <v>500</v>
+        <v>260</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>295</v>
+        <v>339</v>
       </c>
       <c r="E135" s="3" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>132</v>
+        <v>320</v>
       </c>
       <c r="B136" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C136" s="3">
-        <v>500</v>
+        <v>260</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>177</v>
+        <v>340</v>
       </c>
       <c r="E136" s="3" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="B137" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C137" s="3">
         <v>500</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>245</v>
+        <v>164</v>
       </c>
       <c r="E137" s="3" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
-        <v>134</v>
+        <v>321</v>
       </c>
       <c r="B138" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C138" s="3">
-        <v>220</v>
+        <v>280</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>326</v>
+        <v>341</v>
       </c>
       <c r="E138" s="3" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="B139" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C139" s="3">
         <v>220</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>333</v>
+        <v>308</v>
       </c>
       <c r="E139" s="3" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="B140" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C140" s="3">
         <v>220</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="E140" s="3" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="B141" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C141" s="3">
         <v>220</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>328</v>
+        <v>309</v>
       </c>
       <c r="E141" s="3" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="B142" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C142" s="3">
         <v>220</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>329</v>
+        <v>310</v>
       </c>
       <c r="E142" s="3" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="B143" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C143" s="3">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>330</v>
+        <v>311</v>
       </c>
       <c r="E143" s="3" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
-        <v>297</v>
+        <v>126</v>
       </c>
       <c r="B144" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C144" s="3">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>296</v>
+        <v>312</v>
       </c>
       <c r="E144" s="3" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
-        <v>298</v>
+        <v>279</v>
       </c>
       <c r="B145" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C145" s="3">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>299</v>
+        <v>278</v>
       </c>
       <c r="E145" s="3" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
-        <v>301</v>
+        <v>280</v>
       </c>
       <c r="B146" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C146" s="3">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>300</v>
+        <v>281</v>
       </c>
       <c r="E146" s="3" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
-        <v>140</v>
+        <v>283</v>
       </c>
       <c r="B147" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C147" s="3">
         <v>220</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>332</v>
+        <v>282</v>
       </c>
       <c r="E147" s="3" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
-        <v>302</v>
+        <v>127</v>
       </c>
       <c r="B148" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C148" s="3">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>303</v>
+        <v>314</v>
       </c>
       <c r="E148" s="3" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
-        <v>141</v>
+        <v>284</v>
       </c>
       <c r="B149" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C149" s="3">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>331</v>
+        <v>285</v>
       </c>
       <c r="E149" s="3" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="B150" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C150" s="3">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>177</v>
+        <v>313</v>
       </c>
       <c r="E150" s="3" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="B151" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C151" s="3">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>320</v>
+        <v>164</v>
       </c>
       <c r="E151" s="3" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="B152" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C152" s="3">
         <v>350</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>321</v>
+        <v>302</v>
       </c>
       <c r="E152" s="3" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="B153" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C153" s="3">
         <v>350</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>322</v>
+        <v>303</v>
       </c>
       <c r="E153" s="3" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="B154" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C154" s="3">
         <v>350</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>323</v>
+        <v>304</v>
       </c>
       <c r="E154" s="3" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="B155" s="3">
         <v>1</v>
@@ -4198,151 +4219,151 @@
         <v>350</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>324</v>
+        <v>305</v>
       </c>
       <c r="E155" s="3" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="B156" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C156" s="3">
         <v>350</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>325</v>
+        <v>306</v>
       </c>
       <c r="E156" s="3" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="B157" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C157" s="3">
-        <v>220</v>
+        <v>350</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>334</v>
+        <v>307</v>
       </c>
       <c r="E157" s="3" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="B158" s="3">
         <v>1</v>
       </c>
       <c r="C158" s="3">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>274</v>
+        <v>316</v>
       </c>
       <c r="E158" s="3" t="s">
-        <v>151</v>
+        <v>119</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="B159" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C159" s="3">
-        <v>460</v>
+        <v>250</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>177</v>
+        <v>259</v>
       </c>
       <c r="E159" s="3" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="B160" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C160" s="3">
-        <v>250</v>
+        <v>460</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>275</v>
+        <v>164</v>
       </c>
       <c r="E160" s="3" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="B161" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C161" s="3">
         <v>250</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>276</v>
+        <v>260</v>
       </c>
       <c r="E161" s="3" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="B162" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C162" s="3">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>177</v>
+        <v>261</v>
       </c>
       <c r="E162" s="3" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="B163" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C163" s="3">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="E163" s="3" t="s">
-        <v>157</v>
+        <v>138</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="B164" s="3">
         <v>3</v>
@@ -4351,32 +4372,32 @@
         <v>250</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="E164" s="3" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="B165" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C165" s="3">
         <v>250</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="E165" s="3" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="B166" s="3">
         <v>1</v>
@@ -4385,32 +4406,32 @@
         <v>250</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="E166" s="3" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="B167" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C167" s="3">
         <v>250</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="E167" s="3" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="B168" s="3">
         <v>2</v>
@@ -4419,83 +4440,83 @@
         <v>250</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="E168" s="3" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="B169" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C169" s="3">
         <v>250</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="E169" s="3" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="B170" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C170" s="3">
         <v>250</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="E170" s="3" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="B171" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C171" s="3">
         <v>250</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="E171" s="3" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="B172" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C172" s="3">
         <v>250</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="E172" s="3" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="B173" s="3">
         <v>1</v>
@@ -4504,83 +4525,83 @@
         <v>250</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="E173" s="3" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="B174" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C174" s="3">
         <v>250</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="E174" s="3" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
       <c r="B175" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C175" s="3">
         <v>250</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="E175" s="3" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="B176" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C176" s="3">
         <v>250</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="E176" s="3" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="B177" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C177" s="3">
         <v>250</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="E177" s="3" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="B178" s="3">
         <v>0</v>
@@ -4589,66 +4610,66 @@
         <v>250</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="E178" s="3" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="B179" s="5">
-        <v>7</v>
+        <v>159</v>
+      </c>
+      <c r="B179" s="3">
+        <v>0</v>
       </c>
       <c r="C179" s="3">
         <v>250</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="E179" s="6" t="s">
-        <v>223</v>
+        <v>164</v>
+      </c>
+      <c r="E179" s="3" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A180" t="s">
-        <v>216</v>
+      <c r="A180" s="1" t="s">
+        <v>202</v>
       </c>
       <c r="B180" s="5">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C180" s="3">
         <v>250</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>177</v>
+        <v>262</v>
       </c>
       <c r="E180" s="6" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="B181" s="5">
         <v>1</v>
       </c>
-      <c r="C181" s="6">
-        <v>220</v>
+      <c r="C181" s="3">
+        <v>250</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>177</v>
+        <v>332</v>
       </c>
       <c r="E181" s="6" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="B182" s="5">
         <v>1</v>
@@ -4657,49 +4678,49 @@
         <v>220</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>177</v>
+        <v>333</v>
       </c>
       <c r="E182" s="6" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>219</v>
+        <v>331</v>
       </c>
       <c r="B183" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C183" s="6">
         <v>220</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="E183" s="6" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
       <c r="B184" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C184" s="6">
         <v>220</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>177</v>
+        <v>334</v>
       </c>
       <c r="E184" s="6" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>221</v>
+        <v>206</v>
       </c>
       <c r="B185" s="5">
         <v>1</v>
@@ -4708,27 +4729,44 @@
         <v>220</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>177</v>
+        <v>335</v>
       </c>
       <c r="E185" s="6" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
       <c r="B186" s="5">
+        <v>1</v>
+      </c>
+      <c r="C186" s="6">
+        <v>220</v>
+      </c>
+      <c r="D186" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="E186" s="6" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>208</v>
+      </c>
+      <c r="B187" s="5">
         <v>5</v>
       </c>
-      <c r="C186" s="6">
+      <c r="C187" s="6">
         <v>350</v>
       </c>
-      <c r="D186" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="E186" s="6" t="s">
-        <v>223</v>
+      <c r="D187" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="E187" s="6" t="s">
+        <v>209</v>
       </c>
     </row>
   </sheetData>

--- a/data/stock.xlsx
+++ b/data/stock.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\blocks\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A6DE697-B3C4-4C46-A3A1-15745B3961E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F78E2A00-725D-4D8D-AC33-67B25DD762CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4170" yWindow="1440" windowWidth="21600" windowHeight="11250" xr2:uid="{FC0CBB84-858B-49F6-BA69-44D83C89F7C4}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="357">
   <si>
     <t>Product</t>
   </si>
@@ -318,9 +318,6 @@
     <t>Marco Blue</t>
   </si>
   <si>
-    <t>Luffy cape (xinh)</t>
-  </si>
-  <si>
     <t>Law Wano (xinh)</t>
   </si>
   <si>
@@ -1060,6 +1057,54 @@
   </si>
   <si>
     <t>naruto war.jpg</t>
+  </si>
+  <si>
+    <t>Zoro Topless Green (WM)</t>
+  </si>
+  <si>
+    <t>zoro topless green WM.jpg</t>
+  </si>
+  <si>
+    <t>rengoku.jpg</t>
+  </si>
+  <si>
+    <t>uzui.jpg</t>
+  </si>
+  <si>
+    <t>tanjiro blue.jpg</t>
+  </si>
+  <si>
+    <t>sanemi.jpg</t>
+  </si>
+  <si>
+    <t>zenitsu.jpg</t>
+  </si>
+  <si>
+    <t>giyu.jpg</t>
+  </si>
+  <si>
+    <t>obanai.jpg</t>
+  </si>
+  <si>
+    <t>inosuke.jpg</t>
+  </si>
+  <si>
+    <t>gyomei.jpg</t>
+  </si>
+  <si>
+    <t>nezuko kid.jpg</t>
+  </si>
+  <si>
+    <t>nezuko adult.jpg</t>
+  </si>
+  <si>
+    <t>tanjiro green.jpg</t>
+  </si>
+  <si>
+    <t>Yonko Luffy</t>
+  </si>
+  <si>
+    <t>yonko luffy.jpg</t>
   </si>
 </sst>
 </file>
@@ -1577,10 +1622,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCDC9875-9E8E-485C-910E-47B83A1F9902}">
-  <dimension ref="A1:E187"/>
+  <dimension ref="A1:E188"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A124" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F144" sqref="F144"/>
+    <sheetView tabSelected="1" topLeftCell="A74" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D109" sqref="D109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1618,7 +1663,7 @@
         <v>220</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>6</v>
@@ -1635,7 +1680,7 @@
         <v>220</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>6</v>
@@ -1652,7 +1697,7 @@
         <v>350</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>6</v>
@@ -1669,7 +1714,7 @@
         <v>180</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>6</v>
@@ -1686,7 +1731,7 @@
         <v>180</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>6</v>
@@ -1703,7 +1748,7 @@
         <v>200</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>6</v>
@@ -1720,7 +1765,7 @@
         <v>180</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>6</v>
@@ -1737,7 +1782,7 @@
         <v>200</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>6</v>
@@ -1745,7 +1790,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B10" s="3">
         <v>2</v>
@@ -1754,7 +1799,7 @@
         <v>280</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>6</v>
@@ -1762,7 +1807,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B11" s="3">
         <v>2</v>
@@ -1771,7 +1816,7 @@
         <v>280</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>6</v>
@@ -1779,7 +1824,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B12" s="3">
         <v>3</v>
@@ -1788,7 +1833,7 @@
         <v>280</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>6</v>
@@ -1796,7 +1841,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B13" s="3">
         <v>2</v>
@@ -1805,7 +1850,7 @@
         <v>280</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>6</v>
@@ -1813,7 +1858,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B14" s="3">
         <v>1</v>
@@ -1822,7 +1867,7 @@
         <v>280</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>6</v>
@@ -1830,7 +1875,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B15" s="3">
         <v>1</v>
@@ -1839,7 +1884,7 @@
         <v>280</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>6</v>
@@ -1856,7 +1901,7 @@
         <v>200</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>6</v>
@@ -1873,7 +1918,7 @@
         <v>200</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>6</v>
@@ -1890,7 +1935,7 @@
         <v>200</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>6</v>
@@ -1907,7 +1952,7 @@
         <v>200</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>6</v>
@@ -1924,7 +1969,7 @@
         <v>200</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>6</v>
@@ -1941,7 +1986,7 @@
         <v>200</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>6</v>
@@ -1958,7 +2003,7 @@
         <v>200</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>6</v>
@@ -1975,7 +2020,7 @@
         <v>200</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>6</v>
@@ -1992,7 +2037,7 @@
         <v>200</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>6</v>
@@ -2009,7 +2054,7 @@
         <v>220</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>6</v>
@@ -2026,7 +2071,7 @@
         <v>180</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>6</v>
@@ -2043,7 +2088,7 @@
         <v>180</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>6</v>
@@ -2060,7 +2105,7 @@
         <v>180</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>6</v>
@@ -2077,7 +2122,7 @@
         <v>180</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>6</v>
@@ -2094,7 +2139,7 @@
         <v>180</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>6</v>
@@ -2111,7 +2156,7 @@
         <v>180</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>6</v>
@@ -2128,7 +2173,7 @@
         <v>180</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>6</v>
@@ -2145,7 +2190,7 @@
         <v>270</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>6</v>
@@ -2162,7 +2207,7 @@
         <v>270</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>6</v>
@@ -2179,7 +2224,7 @@
         <v>270</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>6</v>
@@ -2196,7 +2241,7 @@
         <v>450</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>6</v>
@@ -2213,7 +2258,7 @@
         <v>380</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>6</v>
@@ -2230,7 +2275,7 @@
         <v>800</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>6</v>
@@ -2247,7 +2292,7 @@
         <v>270</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>6</v>
@@ -2264,7 +2309,7 @@
         <v>270</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>6</v>
@@ -2281,7 +2326,7 @@
         <v>270</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>6</v>
@@ -2298,7 +2343,7 @@
         <v>850</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>6</v>
@@ -2306,7 +2351,7 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B43" s="3">
         <v>2</v>
@@ -2315,7 +2360,7 @@
         <v>250</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>6</v>
@@ -2323,7 +2368,7 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B44" s="3">
         <v>2</v>
@@ -2332,7 +2377,7 @@
         <v>250</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>6</v>
@@ -2349,7 +2394,7 @@
         <v>250</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>6</v>
@@ -2366,7 +2411,7 @@
         <v>250</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E46" s="3" t="s">
         <v>6</v>
@@ -2374,7 +2419,7 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B47" s="3">
         <v>1</v>
@@ -2383,7 +2428,7 @@
         <v>250</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>6</v>
@@ -2391,7 +2436,7 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B48" s="3">
         <v>1</v>
@@ -2400,7 +2445,7 @@
         <v>250</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>6</v>
@@ -2408,7 +2453,7 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B49" s="3">
         <v>1</v>
@@ -2417,7 +2462,7 @@
         <v>250</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>6</v>
@@ -2425,7 +2470,7 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B50" s="3">
         <v>2</v>
@@ -2434,7 +2479,7 @@
         <v>360</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>6</v>
@@ -2442,7 +2487,7 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B51" s="3">
         <v>1</v>
@@ -2451,7 +2496,7 @@
         <v>360</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E51" s="3" t="s">
         <v>6</v>
@@ -2459,7 +2504,7 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B52" s="3">
         <v>2</v>
@@ -2468,7 +2513,7 @@
         <v>200</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>6</v>
@@ -2485,7 +2530,7 @@
         <v>180</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E53" s="3" t="s">
         <v>44</v>
@@ -2502,7 +2547,7 @@
         <v>150</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>44</v>
@@ -2519,7 +2564,7 @@
         <v>180</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E55" s="3" t="s">
         <v>44</v>
@@ -2527,7 +2572,7 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B56" s="3">
         <v>1</v>
@@ -2536,7 +2581,7 @@
         <v>160</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E56" s="3" t="s">
         <v>44</v>
@@ -2544,7 +2589,7 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B57" s="3">
         <v>2</v>
@@ -2553,7 +2598,7 @@
         <v>160</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>44</v>
@@ -2570,7 +2615,7 @@
         <v>300</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>44</v>
@@ -2587,7 +2632,7 @@
         <v>300</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E59" s="3" t="s">
         <v>44</v>
@@ -2604,7 +2649,7 @@
         <v>350</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E60" s="3" t="s">
         <v>44</v>
@@ -2621,7 +2666,7 @@
         <v>350</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E61" s="3" t="s">
         <v>44</v>
@@ -2638,7 +2683,7 @@
         <v>500</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E62" s="3" t="s">
         <v>44</v>
@@ -2655,7 +2700,7 @@
         <v>350</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E63" s="3" t="s">
         <v>44</v>
@@ -2672,7 +2717,7 @@
         <v>350</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E64" s="3" t="s">
         <v>44</v>
@@ -2689,7 +2734,7 @@
         <v>350</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E65" s="3" t="s">
         <v>44</v>
@@ -2706,7 +2751,7 @@
         <v>500</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E66" s="3" t="s">
         <v>44</v>
@@ -2723,7 +2768,7 @@
         <v>500</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E67" s="3" t="s">
         <v>44</v>
@@ -2734,13 +2779,13 @@
         <v>57</v>
       </c>
       <c r="B68" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C68" s="3">
         <v>300</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E68" s="3" t="s">
         <v>58</v>
@@ -2748,7 +2793,7 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B69" s="3">
         <v>1</v>
@@ -2757,7 +2802,7 @@
         <v>300</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E69" s="3" t="s">
         <v>58</v>
@@ -2774,7 +2819,7 @@
         <v>300</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E70" s="3" t="s">
         <v>58</v>
@@ -2791,7 +2836,7 @@
         <v>300</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E71" s="3" t="s">
         <v>58</v>
@@ -2808,7 +2853,7 @@
         <v>300</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>58</v>
@@ -2825,7 +2870,7 @@
         <v>270</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E73" s="3" t="s">
         <v>58</v>
@@ -2842,7 +2887,7 @@
         <v>270</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E74" s="3" t="s">
         <v>58</v>
@@ -2859,7 +2904,7 @@
         <v>300</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E75" s="3" t="s">
         <v>58</v>
@@ -2876,7 +2921,7 @@
         <v>300</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E76" s="3" t="s">
         <v>58</v>
@@ -2893,7 +2938,7 @@
         <v>300</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E77" s="3" t="s">
         <v>58</v>
@@ -2910,7 +2955,7 @@
         <v>300</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E78" s="3" t="s">
         <v>58</v>
@@ -2927,7 +2972,7 @@
         <v>300</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E79" s="3" t="s">
         <v>58</v>
@@ -2944,7 +2989,7 @@
         <v>300</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E80" s="3" t="s">
         <v>58</v>
@@ -2952,7 +2997,7 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B81" s="3">
         <v>2</v>
@@ -2961,7 +3006,7 @@
         <v>350</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E81" s="3" t="s">
         <v>58</v>
@@ -2978,7 +3023,7 @@
         <v>300</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E82" s="3" t="s">
         <v>58</v>
@@ -2995,7 +3040,7 @@
         <v>300</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E83" s="3" t="s">
         <v>58</v>
@@ -3012,7 +3057,7 @@
         <v>300</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E84" s="3" t="s">
         <v>58</v>
@@ -3029,7 +3074,7 @@
         <v>300</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E85" s="3" t="s">
         <v>58</v>
@@ -3046,7 +3091,7 @@
         <v>300</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E86" s="3" t="s">
         <v>58</v>
@@ -3063,7 +3108,7 @@
         <v>300</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E87" s="3" t="s">
         <v>58</v>
@@ -3080,7 +3125,7 @@
         <v>300</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E88" s="3" t="s">
         <v>58</v>
@@ -3088,16 +3133,16 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>286</v>
+        <v>341</v>
       </c>
       <c r="B89" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C89" s="3">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>175</v>
+        <v>342</v>
       </c>
       <c r="E89" s="3" t="s">
         <v>58</v>
@@ -3105,16 +3150,16 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B90" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C90" s="3">
         <v>350</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E90" s="3" t="s">
         <v>58</v>
@@ -3122,16 +3167,16 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>77</v>
+        <v>286</v>
       </c>
       <c r="B91" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C91" s="3">
         <v>350</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="E91" s="3" t="s">
         <v>58</v>
@@ -3139,16 +3184,16 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B92" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C92" s="3">
         <v>350</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E92" s="3" t="s">
         <v>58</v>
@@ -3156,16 +3201,16 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B93" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C93" s="3">
-        <v>320</v>
+        <v>350</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E93" s="3" t="s">
         <v>58</v>
@@ -3173,16 +3218,16 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B94" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C94" s="3">
         <v>320</v>
       </c>
-      <c r="D94" s="1" t="s">
-        <v>184</v>
+      <c r="D94" s="2" t="s">
+        <v>182</v>
       </c>
       <c r="E94" s="3" t="s">
         <v>58</v>
@@ -3190,7 +3235,7 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B95" s="3">
         <v>1</v>
@@ -3199,7 +3244,7 @@
         <v>320</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="E95" s="3" t="s">
         <v>58</v>
@@ -3207,7 +3252,7 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B96" s="3">
         <v>1</v>
@@ -3216,7 +3261,7 @@
         <v>320</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="E96" s="3" t="s">
         <v>58</v>
@@ -3224,7 +3269,7 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B97" s="3">
         <v>1</v>
@@ -3233,7 +3278,7 @@
         <v>320</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E97" s="3" t="s">
         <v>58</v>
@@ -3241,7 +3286,7 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B98" s="3">
         <v>1</v>
@@ -3250,7 +3295,7 @@
         <v>320</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E98" s="3" t="s">
         <v>58</v>
@@ -3258,16 +3303,16 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B99" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C99" s="3">
         <v>320</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E99" s="3" t="s">
         <v>58</v>
@@ -3275,16 +3320,16 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B100" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C100" s="3">
         <v>320</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E100" s="3" t="s">
         <v>58</v>
@@ -3292,16 +3337,16 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B101" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C101" s="3">
         <v>320</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E101" s="3" t="s">
         <v>58</v>
@@ -3309,7 +3354,7 @@
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B102" s="3">
         <v>1</v>
@@ -3318,7 +3363,7 @@
         <v>320</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E102" s="3" t="s">
         <v>58</v>
@@ -3326,16 +3371,16 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B103" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C103" s="3">
         <v>320</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E103" s="3" t="s">
         <v>58</v>
@@ -3343,7 +3388,7 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B104" s="3">
         <v>2</v>
@@ -3352,7 +3397,7 @@
         <v>320</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E104" s="3" t="s">
         <v>58</v>
@@ -3360,16 +3405,16 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B105" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C105" s="3">
         <v>320</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E105" s="3" t="s">
         <v>58</v>
@@ -3377,16 +3422,16 @@
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B106" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C106" s="3">
         <v>320</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E106" s="3" t="s">
         <v>58</v>
@@ -3394,16 +3439,16 @@
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B107" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C107" s="3">
         <v>320</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E107" s="3" t="s">
         <v>58</v>
@@ -3411,16 +3456,16 @@
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B108" s="3">
         <v>0</v>
       </c>
       <c r="C108" s="3">
-        <v>300</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>164</v>
+        <v>320</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>195</v>
       </c>
       <c r="E108" s="3" t="s">
         <v>58</v>
@@ -3428,16 +3473,16 @@
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>95</v>
+        <v>355</v>
       </c>
       <c r="B109" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C109" s="3">
-        <v>300</v>
+        <v>320</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>274</v>
+        <v>356</v>
       </c>
       <c r="E109" s="3" t="s">
         <v>58</v>
@@ -3445,16 +3490,16 @@
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B110" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C110" s="3">
         <v>300</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>246</v>
+        <v>273</v>
       </c>
       <c r="E110" s="3" t="s">
         <v>58</v>
@@ -3462,7 +3507,7 @@
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B111" s="3">
         <v>1</v>
@@ -3471,7 +3516,7 @@
         <v>300</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>275</v>
+        <v>245</v>
       </c>
       <c r="E111" s="3" t="s">
         <v>58</v>
@@ -3479,7 +3524,7 @@
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B112" s="3">
         <v>1</v>
@@ -3487,8 +3532,8 @@
       <c r="C112" s="3">
         <v>300</v>
       </c>
-      <c r="D112" s="1" t="s">
-        <v>217</v>
+      <c r="D112" s="2" t="s">
+        <v>274</v>
       </c>
       <c r="E112" s="3" t="s">
         <v>58</v>
@@ -3496,7 +3541,7 @@
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B113" s="3">
         <v>1</v>
@@ -3505,7 +3550,7 @@
         <v>300</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E113" s="3" t="s">
         <v>58</v>
@@ -3513,7 +3558,7 @@
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B114" s="3">
         <v>1</v>
@@ -3522,7 +3567,7 @@
         <v>300</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E114" s="3" t="s">
         <v>58</v>
@@ -3530,7 +3575,7 @@
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B115" s="3">
         <v>1</v>
@@ -3539,7 +3584,7 @@
         <v>300</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E115" s="3" t="s">
         <v>58</v>
@@ -3547,7 +3592,7 @@
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B116" s="3">
         <v>1</v>
@@ -3556,7 +3601,7 @@
         <v>300</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E116" s="3" t="s">
         <v>58</v>
@@ -3564,16 +3609,16 @@
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B117" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C117" s="3">
         <v>300</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E117" s="3" t="s">
         <v>58</v>
@@ -3581,16 +3626,16 @@
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B118" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C118" s="3">
         <v>300</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E118" s="3" t="s">
         <v>58</v>
@@ -3598,7 +3643,7 @@
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B119" s="3">
         <v>1</v>
@@ -3606,8 +3651,8 @@
       <c r="C119" s="3">
         <v>300</v>
       </c>
-      <c r="D119" s="2" t="s">
-        <v>276</v>
+      <c r="D119" s="1" t="s">
+        <v>222</v>
       </c>
       <c r="E119" s="3" t="s">
         <v>58</v>
@@ -3615,16 +3660,16 @@
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B120" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C120" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>247</v>
+        <v>275</v>
       </c>
       <c r="E120" s="3" t="s">
         <v>58</v>
@@ -3632,16 +3677,16 @@
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B121" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C121" s="3">
         <v>400</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E121" s="3" t="s">
         <v>58</v>
@@ -3649,16 +3694,16 @@
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B122" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C122" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E122" s="3" t="s">
         <v>58</v>
@@ -3666,16 +3711,16 @@
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B123" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C123" s="3">
         <v>300</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E123" s="3" t="s">
         <v>58</v>
@@ -3683,16 +3728,16 @@
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B124" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C124" s="3">
         <v>300</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E124" s="3" t="s">
         <v>58</v>
@@ -3700,7 +3745,7 @@
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B125" s="3">
         <v>1</v>
@@ -3709,7 +3754,7 @@
         <v>300</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E125" s="3" t="s">
         <v>58</v>
@@ -3717,7 +3762,7 @@
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B126" s="3">
         <v>1</v>
@@ -3726,7 +3771,7 @@
         <v>300</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E126" s="3" t="s">
         <v>58</v>
@@ -3734,7 +3779,7 @@
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B127" s="3">
         <v>1</v>
@@ -3743,7 +3788,7 @@
         <v>300</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E127" s="3" t="s">
         <v>58</v>
@@ -3751,16 +3796,16 @@
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B128" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C128" s="3">
         <v>300</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E128" s="3" t="s">
         <v>58</v>
@@ -3768,16 +3813,16 @@
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B129" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C129" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E129" s="3" t="s">
         <v>58</v>
@@ -3785,16 +3830,16 @@
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B130" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C130" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E130" s="3" t="s">
         <v>58</v>
@@ -3802,7 +3847,7 @@
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B131" s="3">
         <v>1</v>
@@ -3811,7 +3856,7 @@
         <v>300</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E131" s="3" t="s">
         <v>58</v>
@@ -3819,41 +3864,41 @@
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B132" s="3">
         <v>1</v>
       </c>
       <c r="C132" s="3">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>277</v>
+        <v>257</v>
       </c>
       <c r="E132" s="3" t="s">
-        <v>119</v>
+        <v>58</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>317</v>
+        <v>117</v>
       </c>
       <c r="B133" s="3">
         <v>1</v>
       </c>
       <c r="C133" s="3">
-        <v>280</v>
+        <v>250</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>337</v>
+        <v>276</v>
       </c>
       <c r="E133" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B134" s="3">
         <v>1</v>
@@ -3862,134 +3907,134 @@
         <v>280</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="E134" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B135" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C135" s="3">
-        <v>260</v>
+        <v>280</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E135" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B136" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C136" s="3">
         <v>260</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="E136" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>120</v>
+        <v>319</v>
       </c>
       <c r="B137" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C137" s="3">
-        <v>500</v>
+        <v>260</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>164</v>
+        <v>339</v>
       </c>
       <c r="E137" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
-        <v>321</v>
+        <v>119</v>
       </c>
       <c r="B138" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C138" s="3">
-        <v>280</v>
+        <v>500</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>341</v>
+        <v>163</v>
       </c>
       <c r="E138" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>121</v>
+        <v>320</v>
       </c>
       <c r="B139" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C139" s="3">
-        <v>220</v>
+        <v>280</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>308</v>
+        <v>340</v>
       </c>
       <c r="E139" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B140" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C140" s="3">
         <v>220</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="E140" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B141" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C141" s="3">
         <v>220</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="E141" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B142" s="3">
         <v>1</v>
@@ -3998,236 +4043,236 @@
         <v>220</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E142" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B143" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C143" s="3">
         <v>220</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="E143" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B144" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C144" s="3">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="E144" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
-        <v>279</v>
+        <v>125</v>
       </c>
       <c r="B145" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C145" s="3">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>278</v>
+        <v>311</v>
       </c>
       <c r="E145" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B146" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C146" s="3">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="E146" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="B147" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C147" s="3">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E147" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
-        <v>127</v>
+        <v>282</v>
       </c>
       <c r="B148" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C148" s="3">
         <v>220</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>314</v>
+        <v>281</v>
       </c>
       <c r="E148" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
-        <v>284</v>
+        <v>126</v>
       </c>
       <c r="B149" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C149" s="3">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>285</v>
+        <v>313</v>
       </c>
       <c r="E149" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
-        <v>128</v>
+        <v>283</v>
       </c>
       <c r="B150" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C150" s="3">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>313</v>
+        <v>284</v>
       </c>
       <c r="E150" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B151" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C151" s="3">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>164</v>
+        <v>312</v>
       </c>
       <c r="E151" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B152" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C152" s="3">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>302</v>
+        <v>163</v>
       </c>
       <c r="E152" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B153" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C153" s="3">
         <v>350</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E153" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B154" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C154" s="3">
         <v>350</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E154" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B155" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C155" s="3">
         <v>350</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="E155" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B156" s="3">
         <v>1</v>
@@ -4236,151 +4281,151 @@
         <v>350</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E156" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B157" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C157" s="3">
         <v>350</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="E157" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B158" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C158" s="3">
-        <v>220</v>
+        <v>350</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="E158" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B159" s="3">
         <v>1</v>
       </c>
       <c r="C159" s="3">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>259</v>
+        <v>315</v>
       </c>
       <c r="E159" s="3" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B160" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C160" s="3">
-        <v>460</v>
+        <v>250</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>164</v>
+        <v>258</v>
       </c>
       <c r="E160" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B161" s="3">
         <v>0</v>
       </c>
       <c r="C161" s="3">
-        <v>250</v>
+        <v>460</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>260</v>
+        <v>163</v>
       </c>
       <c r="E161" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B162" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C162" s="3">
         <v>250</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E162" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B163" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C163" s="3">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>164</v>
+        <v>260</v>
       </c>
       <c r="E163" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B164" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C164" s="3">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E164" s="3" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B165" s="3">
         <v>3</v>
@@ -4389,32 +4434,32 @@
         <v>250</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>164</v>
+        <v>343</v>
       </c>
       <c r="E165" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B166" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C166" s="3">
         <v>250</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>164</v>
+        <v>344</v>
       </c>
       <c r="E166" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B167" s="3">
         <v>1</v>
@@ -4423,32 +4468,32 @@
         <v>250</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>164</v>
+        <v>345</v>
       </c>
       <c r="E167" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B168" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C168" s="3">
         <v>250</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>164</v>
+        <v>346</v>
       </c>
       <c r="E168" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B169" s="3">
         <v>2</v>
@@ -4457,168 +4502,168 @@
         <v>250</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>164</v>
+        <v>347</v>
       </c>
       <c r="E169" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B170" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C170" s="3">
         <v>250</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>164</v>
+        <v>348</v>
       </c>
       <c r="E170" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B171" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C171" s="3">
         <v>250</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>164</v>
+        <v>349</v>
       </c>
       <c r="E171" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B172" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C172" s="3">
         <v>250</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E172" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B173" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C173" s="3">
         <v>250</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>164</v>
+        <v>350</v>
       </c>
       <c r="E173" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B174" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C174" s="3">
         <v>250</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E174" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B175" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C175" s="3">
         <v>250</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>164</v>
+        <v>351</v>
       </c>
       <c r="E175" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B176" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C176" s="3">
         <v>250</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>164</v>
+        <v>352</v>
       </c>
       <c r="E176" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B177" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C177" s="3">
         <v>250</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>164</v>
+        <v>353</v>
       </c>
       <c r="E177" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B178" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C178" s="3">
         <v>250</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>164</v>
+        <v>354</v>
       </c>
       <c r="E178" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B179" s="3">
         <v>0</v>
@@ -4627,117 +4672,117 @@
         <v>250</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E179" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="B180" s="5">
-        <v>7</v>
+        <v>158</v>
+      </c>
+      <c r="B180" s="3">
+        <v>0</v>
       </c>
       <c r="C180" s="3">
         <v>250</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="E180" s="6" t="s">
-        <v>209</v>
+        <v>163</v>
+      </c>
+      <c r="E180" s="3" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A181" t="s">
-        <v>203</v>
+      <c r="A181" s="1" t="s">
+        <v>201</v>
       </c>
       <c r="B181" s="5">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C181" s="3">
         <v>250</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>332</v>
+        <v>261</v>
       </c>
       <c r="E181" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B182" s="5">
         <v>1</v>
       </c>
-      <c r="C182" s="6">
-        <v>220</v>
+      <c r="C182" s="3">
+        <v>250</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E182" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>331</v>
+        <v>203</v>
       </c>
       <c r="B183" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C183" s="6">
         <v>220</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>164</v>
+        <v>332</v>
       </c>
       <c r="E183" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>205</v>
+        <v>330</v>
       </c>
       <c r="B184" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C184" s="6">
         <v>220</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>334</v>
+        <v>163</v>
       </c>
       <c r="E184" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B185" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C185" s="6">
         <v>220</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="E185" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B186" s="5">
         <v>1</v>
@@ -4746,27 +4791,44 @@
         <v>220</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E186" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
+        <v>206</v>
+      </c>
+      <c r="B187" s="5">
+        <v>1</v>
+      </c>
+      <c r="C187" s="6">
+        <v>220</v>
+      </c>
+      <c r="D187" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="E187" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="B187" s="5">
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>207</v>
+      </c>
+      <c r="B188" s="5">
         <v>5</v>
       </c>
-      <c r="C187" s="6">
+      <c r="C188" s="6">
         <v>350</v>
       </c>
-      <c r="D187" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="E187" s="6" t="s">
-        <v>209</v>
+      <c r="D188" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="E188" s="6" t="s">
+        <v>208</v>
       </c>
     </row>
   </sheetData>

--- a/data/stock.xlsx
+++ b/data/stock.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\blocks\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F78E2A00-725D-4D8D-AC33-67B25DD762CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD7235DE-78E2-48C6-A325-1ACA58513FCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4170" yWindow="1440" windowWidth="21600" windowHeight="11250" xr2:uid="{FC0CBB84-858B-49F6-BA69-44D83C89F7C4}"/>
   </bookViews>
@@ -1038,12 +1038,6 @@
     <t>aizen.jpg</t>
   </si>
   <si>
-    <t>Kenpachi.jpg</t>
-  </si>
-  <si>
-    <t>jaeger.jpg</t>
-  </si>
-  <si>
     <t>naruto bar.jpg</t>
   </si>
   <si>
@@ -1105,6 +1099,12 @@
   </si>
   <si>
     <t>yonko luffy.jpg</t>
+  </si>
+  <si>
+    <t>kenpachi.jpg</t>
+  </si>
+  <si>
+    <t>jeager.jpg</t>
   </si>
 </sst>
 </file>
@@ -1624,8 +1624,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCDC9875-9E8E-485C-910E-47B83A1F9902}">
   <dimension ref="A1:E188"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A74" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D109" sqref="D109"/>
+    <sheetView tabSelected="1" topLeftCell="A179" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D191" sqref="D191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3133,7 +3133,7 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B89" s="3">
         <v>1</v>
@@ -3142,7 +3142,7 @@
         <v>300</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="E89" s="3" t="s">
         <v>58</v>
@@ -3473,7 +3473,7 @@
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B109" s="3">
         <v>1</v>
@@ -3482,7 +3482,7 @@
         <v>320</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="E109" s="3" t="s">
         <v>58</v>
@@ -3907,7 +3907,7 @@
         <v>280</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E134" s="3" t="s">
         <v>118</v>
@@ -3924,7 +3924,7 @@
         <v>280</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="E135" s="3" t="s">
         <v>118</v>
@@ -3941,7 +3941,7 @@
         <v>260</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="E136" s="3" t="s">
         <v>118</v>
@@ -3958,7 +3958,7 @@
         <v>260</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E137" s="3" t="s">
         <v>118</v>
@@ -3992,7 +3992,7 @@
         <v>280</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="E139" s="3" t="s">
         <v>118</v>
@@ -4434,7 +4434,7 @@
         <v>250</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="E165" s="3" t="s">
         <v>143</v>
@@ -4451,7 +4451,7 @@
         <v>250</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="E166" s="3" t="s">
         <v>143</v>
@@ -4468,7 +4468,7 @@
         <v>250</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="E167" s="3" t="s">
         <v>143</v>
@@ -4485,7 +4485,7 @@
         <v>250</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="E168" s="3" t="s">
         <v>143</v>
@@ -4502,7 +4502,7 @@
         <v>250</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="E169" s="3" t="s">
         <v>143</v>
@@ -4519,7 +4519,7 @@
         <v>250</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="E170" s="3" t="s">
         <v>143</v>
@@ -4536,7 +4536,7 @@
         <v>250</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="E171" s="3" t="s">
         <v>143</v>
@@ -4570,7 +4570,7 @@
         <v>250</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E173" s="3" t="s">
         <v>143</v>
@@ -4604,7 +4604,7 @@
         <v>250</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="E175" s="3" t="s">
         <v>143</v>
@@ -4621,7 +4621,7 @@
         <v>250</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="E176" s="3" t="s">
         <v>143</v>
@@ -4638,7 +4638,7 @@
         <v>250</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="E177" s="3" t="s">
         <v>143</v>
@@ -4655,7 +4655,7 @@
         <v>250</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="E178" s="3" t="s">
         <v>143</v>
@@ -4791,7 +4791,7 @@
         <v>220</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>334</v>
+        <v>355</v>
       </c>
       <c r="E186" s="6" t="s">
         <v>208</v>
@@ -4808,7 +4808,7 @@
         <v>220</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>335</v>
+        <v>356</v>
       </c>
       <c r="E187" s="6" t="s">
         <v>208</v>

--- a/data/stock.xlsx
+++ b/data/stock.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\blocks\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD7235DE-78E2-48C6-A325-1ACA58513FCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A803ADA8-6AB1-4744-89C0-262839A2104B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4170" yWindow="1440" windowWidth="21600" windowHeight="11250" xr2:uid="{FC0CBB84-858B-49F6-BA69-44D83C89F7C4}"/>
+    <workbookView xWindow="390" yWindow="1335" windowWidth="21600" windowHeight="11250" xr2:uid="{FC0CBB84-858B-49F6-BA69-44D83C89F7C4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1056,9 +1056,6 @@
     <t>Zoro Topless Green (WM)</t>
   </si>
   <si>
-    <t>zoro topless green WM.jpg</t>
-  </si>
-  <si>
     <t>rengoku.jpg</t>
   </si>
   <si>
@@ -1105,6 +1102,9 @@
   </si>
   <si>
     <t>jeager.jpg</t>
+  </si>
+  <si>
+    <t>zoro topless green WM.jpeg</t>
   </si>
 </sst>
 </file>
@@ -1624,8 +1624,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCDC9875-9E8E-485C-910E-47B83A1F9902}">
   <dimension ref="A1:E188"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A179" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D191" sqref="D191"/>
+    <sheetView tabSelected="1" topLeftCell="A86" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D89" sqref="D89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3142,7 +3142,7 @@
         <v>300</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>340</v>
+        <v>356</v>
       </c>
       <c r="E89" s="3" t="s">
         <v>58</v>
@@ -3473,7 +3473,7 @@
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B109" s="3">
         <v>1</v>
@@ -3482,7 +3482,7 @@
         <v>320</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E109" s="3" t="s">
         <v>58</v>
@@ -4434,7 +4434,7 @@
         <v>250</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E165" s="3" t="s">
         <v>143</v>
@@ -4451,7 +4451,7 @@
         <v>250</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E166" s="3" t="s">
         <v>143</v>
@@ -4468,7 +4468,7 @@
         <v>250</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E167" s="3" t="s">
         <v>143</v>
@@ -4485,7 +4485,7 @@
         <v>250</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E168" s="3" t="s">
         <v>143</v>
@@ -4502,7 +4502,7 @@
         <v>250</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E169" s="3" t="s">
         <v>143</v>
@@ -4519,7 +4519,7 @@
         <v>250</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E170" s="3" t="s">
         <v>143</v>
@@ -4536,7 +4536,7 @@
         <v>250</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E171" s="3" t="s">
         <v>143</v>
@@ -4570,7 +4570,7 @@
         <v>250</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E173" s="3" t="s">
         <v>143</v>
@@ -4604,7 +4604,7 @@
         <v>250</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E175" s="3" t="s">
         <v>143</v>
@@ -4621,7 +4621,7 @@
         <v>250</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E176" s="3" t="s">
         <v>143</v>
@@ -4638,7 +4638,7 @@
         <v>250</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E177" s="3" t="s">
         <v>143</v>
@@ -4655,7 +4655,7 @@
         <v>250</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E178" s="3" t="s">
         <v>143</v>
@@ -4791,7 +4791,7 @@
         <v>220</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E186" s="6" t="s">
         <v>208</v>
@@ -4808,7 +4808,7 @@
         <v>220</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E187" s="6" t="s">
         <v>208</v>

--- a/data/stock.xlsx
+++ b/data/stock.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\blocks\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A803ADA8-6AB1-4744-89C0-262839A2104B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F87A6A52-A3AD-426B-B9FB-728339FEFBA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="390" yWindow="1335" windowWidth="21600" windowHeight="11250" xr2:uid="{FC0CBB84-858B-49F6-BA69-44D83C89F7C4}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="367">
   <si>
     <t>Product</t>
   </si>
@@ -1105,6 +1105,36 @@
   </si>
   <si>
     <t>zoro topless green WM.jpeg</t>
+  </si>
+  <si>
+    <t>One Piece Wanted Poster stickers set</t>
+  </si>
+  <si>
+    <t>Pokemon Stickers set</t>
+  </si>
+  <si>
+    <t>Manga Cover Stickers set</t>
+  </si>
+  <si>
+    <t>3D Kawaii Stickers</t>
+  </si>
+  <si>
+    <t>Stickers</t>
+  </si>
+  <si>
+    <t>op sticker.jpg</t>
+  </si>
+  <si>
+    <t>pokemon sticker.jpg</t>
+  </si>
+  <si>
+    <t>manga cover sticker.jpg</t>
+  </si>
+  <si>
+    <t>Goku</t>
+  </si>
+  <si>
+    <t>DBZ</t>
   </si>
 </sst>
 </file>
@@ -1622,15 +1652,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCDC9875-9E8E-485C-910E-47B83A1F9902}">
-  <dimension ref="A1:E188"/>
+  <dimension ref="A1:E193"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A86" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D89" sqref="D89"/>
+    <sheetView tabSelected="1" topLeftCell="A182" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C189" sqref="C189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
@@ -4831,6 +4861,91 @@
         <v>208</v>
       </c>
     </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>357</v>
+      </c>
+      <c r="B189" s="5">
+        <v>10</v>
+      </c>
+      <c r="C189" s="6">
+        <v>250</v>
+      </c>
+      <c r="D189" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="E189" s="6" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>358</v>
+      </c>
+      <c r="B190" s="5">
+        <v>3</v>
+      </c>
+      <c r="C190" s="6">
+        <v>250</v>
+      </c>
+      <c r="D190" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="E190" s="6" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>359</v>
+      </c>
+      <c r="B191" s="5">
+        <v>24</v>
+      </c>
+      <c r="C191" s="6">
+        <v>250</v>
+      </c>
+      <c r="D191" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="E191" s="6" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>360</v>
+      </c>
+      <c r="B192" s="5">
+        <v>0</v>
+      </c>
+      <c r="C192" s="6">
+        <v>250</v>
+      </c>
+      <c r="D192" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="E192" s="6" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>365</v>
+      </c>
+      <c r="B193" s="5">
+        <v>0</v>
+      </c>
+      <c r="C193" s="6">
+        <v>300</v>
+      </c>
+      <c r="D193" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="E193" s="6" t="s">
+        <v>366</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/data/stock.xlsx
+++ b/data/stock.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\blocks\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F87A6A52-A3AD-426B-B9FB-728339FEFBA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{429BB806-EA00-46FC-8CB0-5D536B8A5685}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="390" yWindow="1335" windowWidth="21600" windowHeight="11250" xr2:uid="{FC0CBB84-858B-49F6-BA69-44D83C89F7C4}"/>
   </bookViews>
@@ -1128,13 +1128,13 @@
     <t>pokemon sticker.jpg</t>
   </si>
   <si>
+    <t>Goku</t>
+  </si>
+  <si>
+    <t>DBZ</t>
+  </si>
+  <si>
     <t>manga cover sticker.jpg</t>
-  </si>
-  <si>
-    <t>Goku</t>
-  </si>
-  <si>
-    <t>DBZ</t>
   </si>
 </sst>
 </file>
@@ -1655,7 +1655,7 @@
   <dimension ref="A1:E193"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A182" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C189" sqref="C189"/>
+      <selection activeCell="D191" sqref="D191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4906,7 +4906,7 @@
         <v>250</v>
       </c>
       <c r="D191" s="4" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="E191" s="6" t="s">
         <v>361</v>
@@ -4931,7 +4931,7 @@
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B193" s="5">
         <v>0</v>
@@ -4943,7 +4943,7 @@
         <v>163</v>
       </c>
       <c r="E193" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
   </sheetData>

--- a/data/stock.xlsx
+++ b/data/stock.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\blocks\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{429BB806-EA00-46FC-8CB0-5D536B8A5685}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{474F2F82-D4B0-4E0D-A368-24D098CA7284}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="390" yWindow="1335" windowWidth="21600" windowHeight="11250" xr2:uid="{FC0CBB84-858B-49F6-BA69-44D83C89F7C4}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="371">
   <si>
     <t>Product</t>
   </si>
@@ -1135,6 +1135,18 @@
   </si>
   <si>
     <t>manga cover sticker.jpg</t>
+  </si>
+  <si>
+    <t>display box.jpg</t>
+  </si>
+  <si>
+    <t>baseplate.jpg</t>
+  </si>
+  <si>
+    <t>Display Box (grey)</t>
+  </si>
+  <si>
+    <t>Baseplate</t>
   </si>
 </sst>
 </file>
@@ -1190,7 +1202,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -1206,6 +1218,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1652,10 +1667,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCDC9875-9E8E-485C-910E-47B83A1F9902}">
-  <dimension ref="A1:E193"/>
+  <dimension ref="A1:E195"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A182" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D191" sqref="D191"/>
+      <selection activeCell="G193" sqref="G193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4946,6 +4961,40 @@
         <v>365</v>
       </c>
     </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>369</v>
+      </c>
+      <c r="B194" s="5">
+        <v>4</v>
+      </c>
+      <c r="C194" s="7">
+        <v>800</v>
+      </c>
+      <c r="D194" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="E194" s="7" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>370</v>
+      </c>
+      <c r="B195" s="5">
+        <v>13</v>
+      </c>
+      <c r="C195" s="7">
+        <v>200</v>
+      </c>
+      <c r="D195" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="E195" s="7" t="s">
+        <v>208</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/data/stock.xlsx
+++ b/data/stock.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\blocks\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{474F2F82-D4B0-4E0D-A368-24D098CA7284}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{222A135E-EF2A-4CF0-885F-A26D6F851889}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="390" yWindow="1335" windowWidth="21600" windowHeight="11250" xr2:uid="{FC0CBB84-858B-49F6-BA69-44D83C89F7C4}"/>
   </bookViews>
@@ -1202,7 +1202,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -1218,9 +1218,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1669,8 +1666,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCDC9875-9E8E-485C-910E-47B83A1F9902}">
   <dimension ref="A1:E195"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A182" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G193" sqref="G193"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1943,7 +1940,7 @@
         <v>2</v>
       </c>
       <c r="C16" s="3">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>263</v>
@@ -1960,7 +1957,7 @@
         <v>0</v>
       </c>
       <c r="C17" s="3">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>163</v>
@@ -1977,7 +1974,7 @@
         <v>2</v>
       </c>
       <c r="C18" s="3">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>264</v>
@@ -1994,7 +1991,7 @@
         <v>1</v>
       </c>
       <c r="C19" s="3">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>265</v>
@@ -2011,7 +2008,7 @@
         <v>1</v>
       </c>
       <c r="C20" s="3">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>266</v>
@@ -2028,7 +2025,7 @@
         <v>2</v>
       </c>
       <c r="C21" s="3">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>267</v>
@@ -2045,7 +2042,7 @@
         <v>1</v>
       </c>
       <c r="C22" s="3">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>268</v>
@@ -2062,7 +2059,7 @@
         <v>0</v>
       </c>
       <c r="C23" s="3">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>163</v>
@@ -4968,13 +4965,13 @@
       <c r="B194" s="5">
         <v>4</v>
       </c>
-      <c r="C194" s="7">
+      <c r="C194" s="6">
         <v>800</v>
       </c>
       <c r="D194" s="4" t="s">
         <v>367</v>
       </c>
-      <c r="E194" s="7" t="s">
+      <c r="E194" s="6" t="s">
         <v>208</v>
       </c>
     </row>
@@ -4985,13 +4982,13 @@
       <c r="B195" s="5">
         <v>13</v>
       </c>
-      <c r="C195" s="7">
+      <c r="C195" s="6">
         <v>200</v>
       </c>
       <c r="D195" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="E195" s="7" t="s">
+      <c r="E195" s="6" t="s">
         <v>208</v>
       </c>
     </row>

--- a/data/stock.xlsx
+++ b/data/stock.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\blocks\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{222A135E-EF2A-4CF0-885F-A26D6F851889}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11483B86-94A9-4554-86B8-E2DFA202718E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="390" yWindow="1335" windowWidth="21600" windowHeight="11250" xr2:uid="{FC0CBB84-858B-49F6-BA69-44D83C89F7C4}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="374">
   <si>
     <t>Product</t>
   </si>
@@ -1116,9 +1116,6 @@
     <t>Manga Cover Stickers set</t>
   </si>
   <si>
-    <t>3D Kawaii Stickers</t>
-  </si>
-  <si>
     <t>Stickers</t>
   </si>
   <si>
@@ -1147,6 +1144,18 @@
   </si>
   <si>
     <t>Baseplate</t>
+  </si>
+  <si>
+    <t>3D Kawaii Sticker</t>
+  </si>
+  <si>
+    <t>3d.jpg</t>
+  </si>
+  <si>
+    <t>3d set.jpg</t>
+  </si>
+  <si>
+    <t>3D Kawaii Stickers set (5x sticker)</t>
   </si>
 </sst>
 </file>
@@ -1664,10 +1673,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCDC9875-9E8E-485C-910E-47B83A1F9902}">
-  <dimension ref="A1:E195"/>
+  <dimension ref="A1:E196"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" topLeftCell="A185" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A193" sqref="A193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4884,10 +4893,10 @@
         <v>250</v>
       </c>
       <c r="D189" s="4" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E189" s="6" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
@@ -4901,10 +4910,10 @@
         <v>250</v>
       </c>
       <c r="D190" s="4" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E190" s="6" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
@@ -4918,77 +4927,94 @@
         <v>250</v>
       </c>
       <c r="D191" s="4" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E191" s="6" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
+        <v>370</v>
+      </c>
+      <c r="B192" s="5">
+        <v>6</v>
+      </c>
+      <c r="C192" s="6">
+        <v>150</v>
+      </c>
+      <c r="D192" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="E192" s="6" t="s">
         <v>360</v>
-      </c>
-      <c r="B192" s="5">
-        <v>0</v>
-      </c>
-      <c r="C192" s="6">
-        <v>250</v>
-      </c>
-      <c r="D192" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="E192" s="6" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="B193" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C193" s="6">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="D193" s="4" t="s">
-        <v>163</v>
+        <v>372</v>
       </c>
       <c r="E193" s="6" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="B194" s="5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C194" s="6">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="D194" s="4" t="s">
-        <v>367</v>
+        <v>163</v>
       </c>
       <c r="E194" s="6" t="s">
-        <v>208</v>
+        <v>364</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B195" s="5">
+        <v>4</v>
+      </c>
+      <c r="C195" s="6">
+        <v>800</v>
+      </c>
+      <c r="D195" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="E195" s="6" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>369</v>
+      </c>
+      <c r="B196" s="5">
         <v>13</v>
       </c>
-      <c r="C195" s="6">
+      <c r="C196" s="6">
         <v>200</v>
       </c>
-      <c r="D195" s="4" t="s">
-        <v>368</v>
-      </c>
-      <c r="E195" s="6" t="s">
+      <c r="D196" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="E196" s="6" t="s">
         <v>208</v>
       </c>
     </row>

--- a/data/stock.xlsx
+++ b/data/stock.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\blocks\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11483B86-94A9-4554-86B8-E2DFA202718E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3C56A8B-0433-4B40-B447-3C8FF484D76A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="390" yWindow="1335" windowWidth="21600" windowHeight="11250" xr2:uid="{FC0CBB84-858B-49F6-BA69-44D83C89F7C4}"/>
   </bookViews>
@@ -1146,16 +1146,16 @@
     <t>Baseplate</t>
   </si>
   <si>
-    <t>3D Kawaii Sticker</t>
-  </si>
-  <si>
     <t>3d.jpg</t>
   </si>
   <si>
     <t>3d set.jpg</t>
   </si>
   <si>
-    <t>3D Kawaii Stickers set (5x sticker)</t>
+    <t>3D cute scenerio DIY set (4x sticker)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3D cute scenerio DIY </t>
   </si>
 </sst>
 </file>
@@ -1676,7 +1676,7 @@
   <dimension ref="A1:E196"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A185" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A193" sqref="A193"/>
+      <selection activeCell="B193" sqref="B193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4935,7 +4935,7 @@
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="B192" s="5">
         <v>6</v>
@@ -4944,7 +4944,7 @@
         <v>150</v>
       </c>
       <c r="D192" s="4" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E192" s="6" t="s">
         <v>360</v>
@@ -4952,16 +4952,16 @@
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B193" s="5">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C193" s="6">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="D193" s="4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E193" s="6" t="s">
         <v>360</v>

--- a/data/stock.xlsx
+++ b/data/stock.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\blocks\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3C56A8B-0433-4B40-B447-3C8FF484D76A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C415319-94A1-4261-8787-13B141DB10A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="390" yWindow="1335" windowWidth="21600" windowHeight="11250" xr2:uid="{FC0CBB84-858B-49F6-BA69-44D83C89F7C4}"/>
   </bookViews>
@@ -1675,8 +1675,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCDC9875-9E8E-485C-910E-47B83A1F9902}">
   <dimension ref="A1:E196"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A185" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B193" sqref="B193"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1878,7 +1878,7 @@
         <v>291</v>
       </c>
       <c r="B12" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C12" s="3">
         <v>280</v>
@@ -2575,7 +2575,7 @@
         <v>47</v>
       </c>
       <c r="B53" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C53" s="3">
         <v>180</v>
@@ -2643,7 +2643,7 @@
         <v>329</v>
       </c>
       <c r="B57" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C57" s="3">
         <v>160</v>
@@ -2660,7 +2660,7 @@
         <v>46</v>
       </c>
       <c r="B58" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C58" s="3">
         <v>300</v>
@@ -4751,7 +4751,7 @@
         <v>201</v>
       </c>
       <c r="B181" s="5">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C181" s="3">
         <v>250</v>

--- a/data/stock.xlsx
+++ b/data/stock.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\blocks\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C415319-94A1-4261-8787-13B141DB10A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D152069-3021-49F3-8F1F-EB002FA60C37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="390" yWindow="1335" windowWidth="21600" windowHeight="11250" xr2:uid="{FC0CBB84-858B-49F6-BA69-44D83C89F7C4}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="378">
   <si>
     <t>Product</t>
   </si>
@@ -237,9 +237,6 @@
     <t>Nika Luffy color (dy)</t>
   </si>
   <si>
-    <t>Luffy (dy)</t>
-  </si>
-  <si>
     <t>Nika Luffy white (dy)</t>
   </si>
   <si>
@@ -357,9 +354,6 @@
     <t>Zoro Asura (suit) DY</t>
   </si>
   <si>
-    <t>Gol D Roger</t>
-  </si>
-  <si>
     <t>Luffy (Big arm)</t>
   </si>
   <si>
@@ -1155,7 +1149,25 @@
     <t>3D cute scenerio DIY set (4x sticker)</t>
   </si>
   <si>
-    <t xml:space="preserve">3D cute scenerio DIY </t>
+    <t>3damuse.jpg</t>
+  </si>
+  <si>
+    <t>3dwinter.jpg</t>
+  </si>
+  <si>
+    <t>3D cute scenerio DIY Sticker (Amusement)</t>
+  </si>
+  <si>
+    <t>3D cute scenerio DIY Sticker (Winter)</t>
+  </si>
+  <si>
+    <t>3D cute scenerio DIY Sticker (Store)</t>
+  </si>
+  <si>
+    <t>Monkey D. Luffy (dy)</t>
+  </si>
+  <si>
+    <t>Gol D. Roger</t>
   </si>
 </sst>
 </file>
@@ -1673,15 +1685,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCDC9875-9E8E-485C-910E-47B83A1F9902}">
-  <dimension ref="A1:E196"/>
+  <dimension ref="A1:E198"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A123" sqref="A123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
@@ -1714,7 +1726,7 @@
         <v>220</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>6</v>
@@ -1731,7 +1743,7 @@
         <v>220</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>6</v>
@@ -1748,7 +1760,7 @@
         <v>350</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>6</v>
@@ -1765,7 +1777,7 @@
         <v>180</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>6</v>
@@ -1782,7 +1794,7 @@
         <v>180</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>6</v>
@@ -1799,7 +1811,7 @@
         <v>200</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>6</v>
@@ -1816,7 +1828,7 @@
         <v>180</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>6</v>
@@ -1833,7 +1845,7 @@
         <v>200</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>6</v>
@@ -1841,7 +1853,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B10" s="3">
         <v>2</v>
@@ -1850,7 +1862,7 @@
         <v>280</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>6</v>
@@ -1858,7 +1870,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B11" s="3">
         <v>2</v>
@@ -1867,7 +1879,7 @@
         <v>280</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>6</v>
@@ -1875,7 +1887,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B12" s="3">
         <v>2</v>
@@ -1884,7 +1896,7 @@
         <v>280</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>6</v>
@@ -1892,7 +1904,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B13" s="3">
         <v>2</v>
@@ -1901,7 +1913,7 @@
         <v>280</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>6</v>
@@ -1909,7 +1921,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B14" s="3">
         <v>1</v>
@@ -1918,7 +1930,7 @@
         <v>280</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>6</v>
@@ -1926,7 +1938,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B15" s="3">
         <v>1</v>
@@ -1935,7 +1947,7 @@
         <v>280</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>6</v>
@@ -1952,7 +1964,7 @@
         <v>220</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>6</v>
@@ -1969,7 +1981,7 @@
         <v>220</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>6</v>
@@ -1986,7 +1998,7 @@
         <v>220</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>6</v>
@@ -2003,7 +2015,7 @@
         <v>220</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>6</v>
@@ -2020,7 +2032,7 @@
         <v>220</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>6</v>
@@ -2037,7 +2049,7 @@
         <v>220</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>6</v>
@@ -2054,7 +2066,7 @@
         <v>220</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>6</v>
@@ -2071,7 +2083,7 @@
         <v>220</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>6</v>
@@ -2088,7 +2100,7 @@
         <v>200</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>6</v>
@@ -2105,7 +2117,7 @@
         <v>220</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>6</v>
@@ -2122,7 +2134,7 @@
         <v>180</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>6</v>
@@ -2139,7 +2151,7 @@
         <v>180</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>6</v>
@@ -2156,7 +2168,7 @@
         <v>180</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>6</v>
@@ -2173,7 +2185,7 @@
         <v>180</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>6</v>
@@ -2190,7 +2202,7 @@
         <v>180</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>6</v>
@@ -2207,7 +2219,7 @@
         <v>180</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>6</v>
@@ -2224,7 +2236,7 @@
         <v>180</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>6</v>
@@ -2241,7 +2253,7 @@
         <v>270</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>6</v>
@@ -2258,7 +2270,7 @@
         <v>270</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>6</v>
@@ -2275,7 +2287,7 @@
         <v>270</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>6</v>
@@ -2292,7 +2304,7 @@
         <v>450</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>6</v>
@@ -2309,7 +2321,7 @@
         <v>380</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>6</v>
@@ -2326,7 +2338,7 @@
         <v>800</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>6</v>
@@ -2343,7 +2355,7 @@
         <v>270</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>6</v>
@@ -2360,7 +2372,7 @@
         <v>270</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>6</v>
@@ -2377,7 +2389,7 @@
         <v>270</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>6</v>
@@ -2394,7 +2406,7 @@
         <v>850</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>6</v>
@@ -2402,7 +2414,7 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B43" s="3">
         <v>2</v>
@@ -2411,7 +2423,7 @@
         <v>250</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>6</v>
@@ -2419,7 +2431,7 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B44" s="3">
         <v>2</v>
@@ -2428,7 +2440,7 @@
         <v>250</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>6</v>
@@ -2445,7 +2457,7 @@
         <v>250</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>6</v>
@@ -2462,7 +2474,7 @@
         <v>250</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E46" s="3" t="s">
         <v>6</v>
@@ -2470,7 +2482,7 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B47" s="3">
         <v>1</v>
@@ -2479,7 +2491,7 @@
         <v>250</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>6</v>
@@ -2487,7 +2499,7 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B48" s="3">
         <v>1</v>
@@ -2496,7 +2508,7 @@
         <v>250</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>6</v>
@@ -2504,7 +2516,7 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B49" s="3">
         <v>1</v>
@@ -2513,7 +2525,7 @@
         <v>250</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>6</v>
@@ -2521,7 +2533,7 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B50" s="3">
         <v>2</v>
@@ -2530,7 +2542,7 @@
         <v>360</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>6</v>
@@ -2538,7 +2550,7 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B51" s="3">
         <v>1</v>
@@ -2547,7 +2559,7 @@
         <v>360</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E51" s="3" t="s">
         <v>6</v>
@@ -2555,7 +2567,7 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B52" s="3">
         <v>2</v>
@@ -2564,7 +2576,7 @@
         <v>200</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>6</v>
@@ -2581,7 +2593,7 @@
         <v>180</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E53" s="3" t="s">
         <v>44</v>
@@ -2598,7 +2610,7 @@
         <v>150</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>44</v>
@@ -2615,7 +2627,7 @@
         <v>180</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E55" s="3" t="s">
         <v>44</v>
@@ -2623,7 +2635,7 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B56" s="3">
         <v>1</v>
@@ -2632,7 +2644,7 @@
         <v>160</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E56" s="3" t="s">
         <v>44</v>
@@ -2640,7 +2652,7 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B57" s="3">
         <v>1</v>
@@ -2649,7 +2661,7 @@
         <v>160</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>44</v>
@@ -2666,7 +2678,7 @@
         <v>300</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>44</v>
@@ -2683,7 +2695,7 @@
         <v>300</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E59" s="3" t="s">
         <v>44</v>
@@ -2700,7 +2712,7 @@
         <v>350</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E60" s="3" t="s">
         <v>44</v>
@@ -2717,7 +2729,7 @@
         <v>350</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E61" s="3" t="s">
         <v>44</v>
@@ -2734,7 +2746,7 @@
         <v>500</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E62" s="3" t="s">
         <v>44</v>
@@ -2751,7 +2763,7 @@
         <v>350</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E63" s="3" t="s">
         <v>44</v>
@@ -2768,7 +2780,7 @@
         <v>350</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E64" s="3" t="s">
         <v>44</v>
@@ -2785,7 +2797,7 @@
         <v>350</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E65" s="3" t="s">
         <v>44</v>
@@ -2802,7 +2814,7 @@
         <v>500</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E66" s="3" t="s">
         <v>44</v>
@@ -2819,7 +2831,7 @@
         <v>500</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E67" s="3" t="s">
         <v>44</v>
@@ -2836,7 +2848,7 @@
         <v>300</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E68" s="3" t="s">
         <v>58</v>
@@ -2844,7 +2856,7 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B69" s="3">
         <v>1</v>
@@ -2853,7 +2865,7 @@
         <v>300</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E69" s="3" t="s">
         <v>58</v>
@@ -2870,7 +2882,7 @@
         <v>300</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E70" s="3" t="s">
         <v>58</v>
@@ -2887,7 +2899,7 @@
         <v>300</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E71" s="3" t="s">
         <v>58</v>
@@ -2904,7 +2916,7 @@
         <v>300</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>58</v>
@@ -2921,7 +2933,7 @@
         <v>270</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E73" s="3" t="s">
         <v>58</v>
@@ -2938,7 +2950,7 @@
         <v>270</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E74" s="3" t="s">
         <v>58</v>
@@ -2955,7 +2967,7 @@
         <v>300</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E75" s="3" t="s">
         <v>58</v>
@@ -2972,7 +2984,7 @@
         <v>300</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E76" s="3" t="s">
         <v>58</v>
@@ -2989,7 +3001,7 @@
         <v>300</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E77" s="3" t="s">
         <v>58</v>
@@ -2997,7 +3009,7 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>67</v>
+        <v>376</v>
       </c>
       <c r="B78" s="3">
         <v>1</v>
@@ -3006,7 +3018,7 @@
         <v>300</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E78" s="3" t="s">
         <v>58</v>
@@ -3014,7 +3026,7 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B79" s="3">
         <v>0</v>
@@ -3023,7 +3035,7 @@
         <v>300</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E79" s="3" t="s">
         <v>58</v>
@@ -3031,7 +3043,7 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B80" s="3">
         <v>0</v>
@@ -3040,7 +3052,7 @@
         <v>300</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E80" s="3" t="s">
         <v>58</v>
@@ -3048,7 +3060,7 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B81" s="3">
         <v>2</v>
@@ -3057,7 +3069,7 @@
         <v>350</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E81" s="3" t="s">
         <v>58</v>
@@ -3065,7 +3077,7 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B82" s="3">
         <v>0</v>
@@ -3074,7 +3086,7 @@
         <v>300</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E82" s="3" t="s">
         <v>58</v>
@@ -3082,7 +3094,7 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B83" s="3">
         <v>0</v>
@@ -3091,7 +3103,7 @@
         <v>300</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E83" s="3" t="s">
         <v>58</v>
@@ -3099,7 +3111,7 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B84" s="3">
         <v>0</v>
@@ -3108,7 +3120,7 @@
         <v>300</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E84" s="3" t="s">
         <v>58</v>
@@ -3116,7 +3128,7 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B85" s="3">
         <v>0</v>
@@ -3125,7 +3137,7 @@
         <v>300</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E85" s="3" t="s">
         <v>58</v>
@@ -3133,7 +3145,7 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B86" s="3">
         <v>0</v>
@@ -3142,7 +3154,7 @@
         <v>300</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E86" s="3" t="s">
         <v>58</v>
@@ -3150,7 +3162,7 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B87" s="3">
         <v>0</v>
@@ -3159,7 +3171,7 @@
         <v>300</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E87" s="3" t="s">
         <v>58</v>
@@ -3167,7 +3179,7 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B88" s="3">
         <v>1</v>
@@ -3176,7 +3188,7 @@
         <v>300</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E88" s="3" t="s">
         <v>58</v>
@@ -3184,7 +3196,7 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B89" s="3">
         <v>1</v>
@@ -3193,7 +3205,7 @@
         <v>300</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="E89" s="3" t="s">
         <v>58</v>
@@ -3201,7 +3213,7 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B90" s="3">
         <v>2</v>
@@ -3210,7 +3222,7 @@
         <v>350</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E90" s="3" t="s">
         <v>58</v>
@@ -3218,7 +3230,7 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B91" s="3">
         <v>1</v>
@@ -3227,7 +3239,7 @@
         <v>350</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E91" s="3" t="s">
         <v>58</v>
@@ -3235,7 +3247,7 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B92" s="3">
         <v>2</v>
@@ -3244,7 +3256,7 @@
         <v>350</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E92" s="3" t="s">
         <v>58</v>
@@ -3252,7 +3264,7 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B93" s="3">
         <v>1</v>
@@ -3261,7 +3273,7 @@
         <v>350</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E93" s="3" t="s">
         <v>58</v>
@@ -3269,7 +3281,7 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B94" s="3">
         <v>2</v>
@@ -3278,7 +3290,7 @@
         <v>320</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E94" s="3" t="s">
         <v>58</v>
@@ -3286,7 +3298,7 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B95" s="3">
         <v>1</v>
@@ -3295,7 +3307,7 @@
         <v>320</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E95" s="3" t="s">
         <v>58</v>
@@ -3303,7 +3315,7 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B96" s="3">
         <v>1</v>
@@ -3312,7 +3324,7 @@
         <v>320</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E96" s="3" t="s">
         <v>58</v>
@@ -3320,7 +3332,7 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B97" s="3">
         <v>1</v>
@@ -3329,7 +3341,7 @@
         <v>320</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E97" s="3" t="s">
         <v>58</v>
@@ -3337,7 +3349,7 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B98" s="3">
         <v>1</v>
@@ -3346,7 +3358,7 @@
         <v>320</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E98" s="3" t="s">
         <v>58</v>
@@ -3354,7 +3366,7 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B99" s="3">
         <v>1</v>
@@ -3363,7 +3375,7 @@
         <v>320</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E99" s="3" t="s">
         <v>58</v>
@@ -3371,7 +3383,7 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B100" s="3">
         <v>2</v>
@@ -3380,7 +3392,7 @@
         <v>320</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E100" s="3" t="s">
         <v>58</v>
@@ -3388,7 +3400,7 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B101" s="3">
         <v>0</v>
@@ -3397,7 +3409,7 @@
         <v>320</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E101" s="3" t="s">
         <v>58</v>
@@ -3405,7 +3417,7 @@
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B102" s="3">
         <v>1</v>
@@ -3414,7 +3426,7 @@
         <v>320</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E102" s="3" t="s">
         <v>58</v>
@@ -3422,7 +3434,7 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B103" s="3">
         <v>1</v>
@@ -3431,7 +3443,7 @@
         <v>320</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E103" s="3" t="s">
         <v>58</v>
@@ -3439,7 +3451,7 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B104" s="3">
         <v>2</v>
@@ -3448,7 +3460,7 @@
         <v>320</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E104" s="3" t="s">
         <v>58</v>
@@ -3456,7 +3468,7 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B105" s="3">
         <v>2</v>
@@ -3465,7 +3477,7 @@
         <v>320</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E105" s="3" t="s">
         <v>58</v>
@@ -3473,7 +3485,7 @@
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B106" s="3">
         <v>1</v>
@@ -3482,7 +3494,7 @@
         <v>320</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E106" s="3" t="s">
         <v>58</v>
@@ -3490,7 +3502,7 @@
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B107" s="3">
         <v>2</v>
@@ -3499,7 +3511,7 @@
         <v>320</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E107" s="3" t="s">
         <v>58</v>
@@ -3507,7 +3519,7 @@
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B108" s="3">
         <v>0</v>
@@ -3516,7 +3528,7 @@
         <v>320</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E108" s="3" t="s">
         <v>58</v>
@@ -3524,7 +3536,7 @@
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B109" s="3">
         <v>1</v>
@@ -3533,7 +3545,7 @@
         <v>320</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="E109" s="3" t="s">
         <v>58</v>
@@ -3541,7 +3553,7 @@
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B110" s="3">
         <v>2</v>
@@ -3550,7 +3562,7 @@
         <v>300</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E110" s="3" t="s">
         <v>58</v>
@@ -3558,7 +3570,7 @@
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B111" s="3">
         <v>1</v>
@@ -3567,7 +3579,7 @@
         <v>300</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E111" s="3" t="s">
         <v>58</v>
@@ -3575,7 +3587,7 @@
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B112" s="3">
         <v>1</v>
@@ -3584,7 +3596,7 @@
         <v>300</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E112" s="3" t="s">
         <v>58</v>
@@ -3592,7 +3604,7 @@
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B113" s="3">
         <v>1</v>
@@ -3601,7 +3613,7 @@
         <v>300</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E113" s="3" t="s">
         <v>58</v>
@@ -3609,7 +3621,7 @@
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B114" s="3">
         <v>1</v>
@@ -3618,7 +3630,7 @@
         <v>300</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E114" s="3" t="s">
         <v>58</v>
@@ -3626,7 +3638,7 @@
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B115" s="3">
         <v>1</v>
@@ -3635,7 +3647,7 @@
         <v>300</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E115" s="3" t="s">
         <v>58</v>
@@ -3643,7 +3655,7 @@
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B116" s="3">
         <v>1</v>
@@ -3652,7 +3664,7 @@
         <v>300</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E116" s="3" t="s">
         <v>58</v>
@@ -3660,7 +3672,7 @@
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B117" s="3">
         <v>1</v>
@@ -3669,7 +3681,7 @@
         <v>300</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E117" s="3" t="s">
         <v>58</v>
@@ -3677,7 +3689,7 @@
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B118" s="3">
         <v>2</v>
@@ -3686,7 +3698,7 @@
         <v>300</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E118" s="3" t="s">
         <v>58</v>
@@ -3694,7 +3706,7 @@
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B119" s="3">
         <v>1</v>
@@ -3703,7 +3715,7 @@
         <v>300</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E119" s="3" t="s">
         <v>58</v>
@@ -3711,7 +3723,7 @@
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B120" s="3">
         <v>1</v>
@@ -3720,7 +3732,7 @@
         <v>300</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E120" s="3" t="s">
         <v>58</v>
@@ -3728,7 +3740,7 @@
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B121" s="3">
         <v>0</v>
@@ -3737,7 +3749,7 @@
         <v>400</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E121" s="3" t="s">
         <v>58</v>
@@ -3745,7 +3757,7 @@
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B122" s="3">
         <v>1</v>
@@ -3754,7 +3766,7 @@
         <v>400</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E122" s="3" t="s">
         <v>58</v>
@@ -3762,7 +3774,7 @@
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>107</v>
+        <v>377</v>
       </c>
       <c r="B123" s="3">
         <v>1</v>
@@ -3771,7 +3783,7 @@
         <v>300</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E123" s="3" t="s">
         <v>58</v>
@@ -3779,7 +3791,7 @@
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B124" s="3">
         <v>2</v>
@@ -3788,7 +3800,7 @@
         <v>300</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E124" s="3" t="s">
         <v>58</v>
@@ -3796,7 +3808,7 @@
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B125" s="3">
         <v>1</v>
@@ -3805,7 +3817,7 @@
         <v>300</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E125" s="3" t="s">
         <v>58</v>
@@ -3813,7 +3825,7 @@
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B126" s="3">
         <v>1</v>
@@ -3822,7 +3834,7 @@
         <v>300</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E126" s="3" t="s">
         <v>58</v>
@@ -3830,7 +3842,7 @@
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B127" s="3">
         <v>1</v>
@@ -3839,7 +3851,7 @@
         <v>300</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E127" s="3" t="s">
         <v>58</v>
@@ -3847,7 +3859,7 @@
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B128" s="3">
         <v>2</v>
@@ -3856,7 +3868,7 @@
         <v>300</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E128" s="3" t="s">
         <v>58</v>
@@ -3864,7 +3876,7 @@
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B129" s="3">
         <v>1</v>
@@ -3873,7 +3885,7 @@
         <v>300</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E129" s="3" t="s">
         <v>58</v>
@@ -3881,7 +3893,7 @@
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B130" s="3">
         <v>0</v>
@@ -3890,7 +3902,7 @@
         <v>500</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E130" s="3" t="s">
         <v>58</v>
@@ -3898,7 +3910,7 @@
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B131" s="3">
         <v>1</v>
@@ -3907,7 +3919,7 @@
         <v>300</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E131" s="3" t="s">
         <v>58</v>
@@ -3915,7 +3927,7 @@
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B132" s="3">
         <v>1</v>
@@ -3924,7 +3936,7 @@
         <v>300</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E132" s="3" t="s">
         <v>58</v>
@@ -3932,7 +3944,7 @@
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B133" s="3">
         <v>1</v>
@@ -3941,15 +3953,15 @@
         <v>250</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E133" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B134" s="3">
         <v>1</v>
@@ -3958,15 +3970,15 @@
         <v>280</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E134" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B135" s="3">
         <v>1</v>
@@ -3975,15 +3987,15 @@
         <v>280</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="E135" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B136" s="3">
         <v>2</v>
@@ -3992,15 +4004,15 @@
         <v>260</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E136" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B137" s="3">
         <v>1</v>
@@ -4009,15 +4021,15 @@
         <v>260</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="E137" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B138" s="3">
         <v>0</v>
@@ -4026,15 +4038,15 @@
         <v>500</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E138" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B139" s="3">
         <v>1</v>
@@ -4043,15 +4055,15 @@
         <v>280</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="E139" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B140" s="3">
         <v>0</v>
@@ -4060,15 +4072,15 @@
         <v>220</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="E140" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B141" s="3">
         <v>3</v>
@@ -4077,15 +4089,15 @@
         <v>220</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="E141" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B142" s="3">
         <v>1</v>
@@ -4094,15 +4106,15 @@
         <v>220</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="E142" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B143" s="3">
         <v>1</v>
@@ -4111,15 +4123,15 @@
         <v>220</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="E143" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B144" s="3">
         <v>2</v>
@@ -4128,15 +4140,15 @@
         <v>220</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E144" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B145" s="3">
         <v>1</v>
@@ -4145,15 +4157,15 @@
         <v>250</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="E145" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B146" s="3">
         <v>2</v>
@@ -4162,15 +4174,15 @@
         <v>220</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E146" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B147" s="3">
         <v>3</v>
@@ -4179,15 +4191,15 @@
         <v>250</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E147" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B148" s="3">
         <v>1</v>
@@ -4196,15 +4208,15 @@
         <v>220</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E148" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B149" s="3">
         <v>3</v>
@@ -4213,15 +4225,15 @@
         <v>220</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="E149" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B150" s="3">
         <v>2</v>
@@ -4230,15 +4242,15 @@
         <v>250</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E150" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B151" s="3">
         <v>3</v>
@@ -4247,15 +4259,15 @@
         <v>220</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="E151" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B152" s="3">
         <v>0</v>
@@ -4264,15 +4276,15 @@
         <v>200</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E152" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B153" s="3">
         <v>2</v>
@@ -4281,15 +4293,15 @@
         <v>350</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E153" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B154" s="3">
         <v>1</v>
@@ -4298,15 +4310,15 @@
         <v>350</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E154" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B155" s="3">
         <v>2</v>
@@ -4315,15 +4327,15 @@
         <v>350</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E155" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B156" s="3">
         <v>1</v>
@@ -4332,15 +4344,15 @@
         <v>350</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E156" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B157" s="3">
         <v>1</v>
@@ -4349,15 +4361,15 @@
         <v>350</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="E157" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B158" s="3">
         <v>2</v>
@@ -4366,15 +4378,15 @@
         <v>350</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E158" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B159" s="3">
         <v>1</v>
@@ -4383,15 +4395,15 @@
         <v>220</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="E159" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B160" s="3">
         <v>1</v>
@@ -4400,15 +4412,15 @@
         <v>250</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E160" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B161" s="3">
         <v>0</v>
@@ -4417,15 +4429,15 @@
         <v>460</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E161" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B162" s="3">
         <v>0</v>
@@ -4434,15 +4446,15 @@
         <v>250</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E162" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B163" s="3">
         <v>4</v>
@@ -4451,15 +4463,15 @@
         <v>250</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E163" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B164" s="3">
         <v>0</v>
@@ -4468,15 +4480,15 @@
         <v>240</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E164" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B165" s="3">
         <v>3</v>
@@ -4485,15 +4497,15 @@
         <v>250</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="E165" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B166" s="3">
         <v>3</v>
@@ -4502,15 +4514,15 @@
         <v>250</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E166" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B167" s="3">
         <v>1</v>
@@ -4519,15 +4531,15 @@
         <v>250</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="E167" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B168" s="3">
         <v>1</v>
@@ -4536,15 +4548,15 @@
         <v>250</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="E168" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B169" s="3">
         <v>2</v>
@@ -4553,15 +4565,15 @@
         <v>250</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="E169" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B170" s="3">
         <v>2</v>
@@ -4570,15 +4582,15 @@
         <v>250</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="E170" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B171" s="3">
         <v>1</v>
@@ -4587,15 +4599,15 @@
         <v>250</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="E171" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B172" s="3">
         <v>0</v>
@@ -4604,15 +4616,15 @@
         <v>250</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E172" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B173" s="3">
         <v>2</v>
@@ -4621,15 +4633,15 @@
         <v>250</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="E173" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B174" s="3">
         <v>0</v>
@@ -4638,15 +4650,15 @@
         <v>250</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E174" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B175" s="3">
         <v>1</v>
@@ -4655,15 +4667,15 @@
         <v>250</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="E175" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B176" s="3">
         <v>2</v>
@@ -4672,15 +4684,15 @@
         <v>250</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="E176" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B177" s="3">
         <v>1</v>
@@ -4689,15 +4701,15 @@
         <v>250</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E177" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B178" s="3">
         <v>2</v>
@@ -4706,15 +4718,15 @@
         <v>250</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="E178" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B179" s="3">
         <v>0</v>
@@ -4723,15 +4735,15 @@
         <v>250</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E179" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B180" s="3">
         <v>0</v>
@@ -4740,15 +4752,15 @@
         <v>250</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E180" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B181" s="5">
         <v>6</v>
@@ -4757,15 +4769,15 @@
         <v>250</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E181" s="6" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B182" s="5">
         <v>1</v>
@@ -4774,15 +4786,15 @@
         <v>250</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="E182" s="6" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B183" s="5">
         <v>1</v>
@@ -4791,15 +4803,15 @@
         <v>220</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E183" s="6" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B184" s="5">
         <v>0</v>
@@ -4808,15 +4820,15 @@
         <v>220</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E184" s="6" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B185" s="5">
         <v>2</v>
@@ -4825,15 +4837,15 @@
         <v>220</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E185" s="6" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B186" s="5">
         <v>1</v>
@@ -4842,15 +4854,15 @@
         <v>220</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="E186" s="6" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B187" s="5">
         <v>1</v>
@@ -4859,15 +4871,15 @@
         <v>220</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="E187" s="6" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B188" s="5">
         <v>5</v>
@@ -4876,15 +4888,15 @@
         <v>350</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E188" s="6" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B189" s="5">
         <v>10</v>
@@ -4893,15 +4905,15 @@
         <v>250</v>
       </c>
       <c r="D189" s="4" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E189" s="6" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B190" s="5">
         <v>3</v>
@@ -4910,15 +4922,15 @@
         <v>250</v>
       </c>
       <c r="D190" s="4" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="E190" s="6" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B191" s="5">
         <v>24</v>
@@ -4927,15 +4939,15 @@
         <v>250</v>
       </c>
       <c r="D191" s="4" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="E191" s="6" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="B192" s="5">
         <v>6</v>
@@ -4944,78 +4956,112 @@
         <v>150</v>
       </c>
       <c r="D192" s="4" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="E192" s="6" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B193" s="5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C193" s="6">
-        <v>550</v>
+        <v>150</v>
       </c>
       <c r="D193" s="4" t="s">
         <v>371</v>
       </c>
       <c r="E193" s="6" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="B194" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C194" s="6">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="D194" s="4" t="s">
-        <v>163</v>
+        <v>372</v>
       </c>
       <c r="E194" s="6" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="B195" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C195" s="6">
-        <v>800</v>
+        <v>550</v>
       </c>
       <c r="D195" s="4" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="E195" s="6" t="s">
-        <v>208</v>
+        <v>358</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="B196" s="5">
+        <v>0</v>
+      </c>
+      <c r="C196" s="6">
+        <v>300</v>
+      </c>
+      <c r="D196" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="E196" s="6" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>366</v>
+      </c>
+      <c r="B197" s="5">
+        <v>4</v>
+      </c>
+      <c r="C197" s="6">
+        <v>800</v>
+      </c>
+      <c r="D197" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="E197" s="6" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>367</v>
+      </c>
+      <c r="B198" s="5">
         <v>13</v>
       </c>
-      <c r="C196" s="6">
+      <c r="C198" s="6">
         <v>200</v>
       </c>
-      <c r="D196" s="4" t="s">
-        <v>367</v>
-      </c>
-      <c r="E196" s="6" t="s">
-        <v>208</v>
+      <c r="D198" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="E198" s="6" t="s">
+        <v>206</v>
       </c>
     </row>
   </sheetData>

--- a/data/stock.xlsx
+++ b/data/stock.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\blocks\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D152069-3021-49F3-8F1F-EB002FA60C37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA1F2B5E-FC21-417E-B391-899C3BFAD5BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="390" yWindow="1335" windowWidth="21600" windowHeight="11250" xr2:uid="{FC0CBB84-858B-49F6-BA69-44D83C89F7C4}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="385">
   <si>
     <t>Product</t>
   </si>
@@ -1168,6 +1168,27 @@
   </si>
   <si>
     <t>Gol D. Roger</t>
+  </si>
+  <si>
+    <t>Pokeball</t>
+  </si>
+  <si>
+    <t>Greatball</t>
+  </si>
+  <si>
+    <t>Masterball</t>
+  </si>
+  <si>
+    <t>Pikaball</t>
+  </si>
+  <si>
+    <t>Random Mini Pokemon</t>
+  </si>
+  <si>
+    <t>Pokemon</t>
+  </si>
+  <si>
+    <t>Sleeping Ash's Pikachu</t>
   </si>
 </sst>
 </file>
@@ -1223,7 +1244,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -1239,6 +1260,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1685,10 +1709,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCDC9875-9E8E-485C-910E-47B83A1F9902}">
-  <dimension ref="A1:E198"/>
+  <dimension ref="A1:E204"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A123" sqref="A123"/>
+    <sheetView tabSelected="1" topLeftCell="A193" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A204" sqref="A204"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5064,6 +5088,108 @@
         <v>206</v>
       </c>
     </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>378</v>
+      </c>
+      <c r="B199" s="5">
+        <v>3</v>
+      </c>
+      <c r="C199" s="7">
+        <v>150</v>
+      </c>
+      <c r="D199" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="E199" s="7" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>379</v>
+      </c>
+      <c r="B200" s="5">
+        <v>2</v>
+      </c>
+      <c r="C200" s="7">
+        <v>150</v>
+      </c>
+      <c r="D200" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="E200" s="7" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>380</v>
+      </c>
+      <c r="B201" s="5">
+        <v>1</v>
+      </c>
+      <c r="C201" s="7">
+        <v>150</v>
+      </c>
+      <c r="D201" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="E201" s="7" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>381</v>
+      </c>
+      <c r="B202" s="5">
+        <v>1</v>
+      </c>
+      <c r="C202" s="7">
+        <v>150</v>
+      </c>
+      <c r="D202" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="E202" s="7" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>382</v>
+      </c>
+      <c r="B203" s="5">
+        <v>10</v>
+      </c>
+      <c r="C203" s="7">
+        <v>30</v>
+      </c>
+      <c r="D203" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="E203" s="7" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>384</v>
+      </c>
+      <c r="B204" s="5">
+        <v>1</v>
+      </c>
+      <c r="C204" s="7">
+        <v>550</v>
+      </c>
+      <c r="D204" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="E204" s="7" t="s">
+        <v>383</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/data/stock.xlsx
+++ b/data/stock.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\blocks\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA1F2B5E-FC21-417E-B391-899C3BFAD5BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{288BCB09-AFAA-418C-9D0B-823B2DB4293A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="390" yWindow="1335" windowWidth="21600" windowHeight="11250" xr2:uid="{FC0CBB84-858B-49F6-BA69-44D83C89F7C4}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="404">
   <si>
     <t>Product</t>
   </si>
@@ -1189,6 +1189,63 @@
   </si>
   <si>
     <t>Sleeping Ash's Pikachu</t>
+  </si>
+  <si>
+    <t>pokeball.jpg</t>
+  </si>
+  <si>
+    <t>greatball.jpg</t>
+  </si>
+  <si>
+    <t>masterball.jpg</t>
+  </si>
+  <si>
+    <t>mini pokemon.jpg</t>
+  </si>
+  <si>
+    <t>sleeping ash.jpg</t>
+  </si>
+  <si>
+    <t>Sleeping Pikachu</t>
+  </si>
+  <si>
+    <t>sleeping pika.jpg</t>
+  </si>
+  <si>
+    <t>Sleeping Bulbasaur</t>
+  </si>
+  <si>
+    <t>Sleeping Munchlax</t>
+  </si>
+  <si>
+    <t>Sleeping Komala</t>
+  </si>
+  <si>
+    <t>Sleeping Rowlet</t>
+  </si>
+  <si>
+    <t>Sleeping Slowpoke</t>
+  </si>
+  <si>
+    <t>Sleeping Meowth</t>
+  </si>
+  <si>
+    <t>sleeping bulb.jpg</t>
+  </si>
+  <si>
+    <t>sleeping munch.jpg</t>
+  </si>
+  <si>
+    <t>sleeping komala.jpg</t>
+  </si>
+  <si>
+    <t>sleeping rowlet.jpg</t>
+  </si>
+  <si>
+    <t>sleeping meowth.jpg</t>
+  </si>
+  <si>
+    <t>sleeping slow.jpg</t>
   </si>
 </sst>
 </file>
@@ -1244,7 +1301,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -1260,9 +1317,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1709,10 +1763,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCDC9875-9E8E-485C-910E-47B83A1F9902}">
-  <dimension ref="A1:E204"/>
+  <dimension ref="A1:E212"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A193" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A204" sqref="A204"/>
+    <sheetView tabSelected="1" topLeftCell="A199" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D213" sqref="D213"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5095,13 +5149,13 @@
       <c r="B199" s="5">
         <v>3</v>
       </c>
-      <c r="C199" s="7">
+      <c r="C199" s="6">
         <v>150</v>
       </c>
       <c r="D199" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="E199" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="E199" s="6" t="s">
         <v>383</v>
       </c>
     </row>
@@ -5112,13 +5166,13 @@
       <c r="B200" s="5">
         <v>2</v>
       </c>
-      <c r="C200" s="7">
+      <c r="C200" s="6">
         <v>150</v>
       </c>
       <c r="D200" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="E200" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="E200" s="6" t="s">
         <v>383</v>
       </c>
     </row>
@@ -5129,13 +5183,13 @@
       <c r="B201" s="5">
         <v>1</v>
       </c>
-      <c r="C201" s="7">
+      <c r="C201" s="6">
         <v>150</v>
       </c>
       <c r="D201" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="E201" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="E201" s="6" t="s">
         <v>383</v>
       </c>
     </row>
@@ -5146,13 +5200,13 @@
       <c r="B202" s="5">
         <v>1</v>
       </c>
-      <c r="C202" s="7">
+      <c r="C202" s="6">
         <v>150</v>
       </c>
       <c r="D202" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="E202" s="7" t="s">
+      <c r="E202" s="6" t="s">
         <v>383</v>
       </c>
     </row>
@@ -5163,13 +5217,13 @@
       <c r="B203" s="5">
         <v>10</v>
       </c>
-      <c r="C203" s="7">
+      <c r="C203" s="6">
         <v>30</v>
       </c>
       <c r="D203" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="E203" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="E203" s="6" t="s">
         <v>383</v>
       </c>
     </row>
@@ -5180,15 +5234,139 @@
       <c r="B204" s="5">
         <v>1</v>
       </c>
-      <c r="C204" s="7">
+      <c r="C204" s="6">
         <v>550</v>
       </c>
       <c r="D204" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="E204" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="E204" s="6" t="s">
         <v>383</v>
       </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>390</v>
+      </c>
+      <c r="B205" s="5">
+        <v>1</v>
+      </c>
+      <c r="C205" s="6">
+        <v>550</v>
+      </c>
+      <c r="D205" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="E205" s="6" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>392</v>
+      </c>
+      <c r="B206" s="5">
+        <v>1</v>
+      </c>
+      <c r="C206" s="6">
+        <v>550</v>
+      </c>
+      <c r="D206" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="E206" s="6" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>393</v>
+      </c>
+      <c r="B207" s="5">
+        <v>1</v>
+      </c>
+      <c r="C207" s="6">
+        <v>550</v>
+      </c>
+      <c r="D207" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="E207" s="6" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>394</v>
+      </c>
+      <c r="B208" s="5">
+        <v>1</v>
+      </c>
+      <c r="C208" s="6">
+        <v>550</v>
+      </c>
+      <c r="D208" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="E208" s="6" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>395</v>
+      </c>
+      <c r="B209" s="5">
+        <v>1</v>
+      </c>
+      <c r="C209" s="6">
+        <v>550</v>
+      </c>
+      <c r="D209" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="E209" s="6" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>397</v>
+      </c>
+      <c r="B210" s="5">
+        <v>1</v>
+      </c>
+      <c r="C210" s="6">
+        <v>550</v>
+      </c>
+      <c r="D210" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="E210" s="6" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>396</v>
+      </c>
+      <c r="B211" s="5">
+        <v>1</v>
+      </c>
+      <c r="C211" s="6">
+        <v>550</v>
+      </c>
+      <c r="D211" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="E211" s="6" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B212" s="5"/>
+      <c r="C212" s="6"/>
+      <c r="E212" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/stock.xlsx
+++ b/data/stock.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\blocks\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{288BCB09-AFAA-418C-9D0B-823B2DB4293A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDBE2BC7-C85B-49F2-BFFE-576FB9740535}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="1335" windowWidth="21600" windowHeight="11250" xr2:uid="{FC0CBB84-858B-49F6-BA69-44D83C89F7C4}"/>
+    <workbookView xWindow="2070" yWindow="1635" windowWidth="21600" windowHeight="11250" xr2:uid="{FC0CBB84-858B-49F6-BA69-44D83C89F7C4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="414">
   <si>
     <t>Product</t>
   </si>
@@ -702,12 +702,6 @@
     <t>Moonknight black.png</t>
   </si>
   <si>
-    <t>Black Adam hood.jpg</t>
-  </si>
-  <si>
-    <t>Black Adam bald.jpg</t>
-  </si>
-  <si>
     <t>Batman Affleck.jpg</t>
   </si>
   <si>
@@ -1246,6 +1240,42 @@
   </si>
   <si>
     <t>sleeping slow.jpg</t>
+  </si>
+  <si>
+    <t>pikaball.jpg</t>
+  </si>
+  <si>
+    <t>Cute Alien Cat Keyring</t>
+  </si>
+  <si>
+    <t>Cute Astro Bear Keyring</t>
+  </si>
+  <si>
+    <t>Cute Pink Cat Keyring</t>
+  </si>
+  <si>
+    <t>Labubu The Cute Monster Keyring</t>
+  </si>
+  <si>
+    <t>alien.jpg</t>
+  </si>
+  <si>
+    <t>astro.jpg</t>
+  </si>
+  <si>
+    <t>pink.jpg</t>
+  </si>
+  <si>
+    <t>labubu.jpg</t>
+  </si>
+  <si>
+    <t>adam hood.jpg</t>
+  </si>
+  <si>
+    <t>adam bald.jpg</t>
+  </si>
+  <si>
+    <t>Bleach</t>
   </si>
 </sst>
 </file>
@@ -1763,10 +1793,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCDC9875-9E8E-485C-910E-47B83A1F9902}">
-  <dimension ref="A1:E212"/>
+  <dimension ref="A1:E215"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A199" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D213" sqref="D213"/>
+    <sheetView tabSelected="1" topLeftCell="A179" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E183" sqref="E183:E187"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1889,7 +1919,7 @@
         <v>200</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>6</v>
@@ -1931,7 +1961,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B10" s="3">
         <v>2</v>
@@ -1940,7 +1970,7 @@
         <v>280</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>6</v>
@@ -1948,7 +1978,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B11" s="3">
         <v>2</v>
@@ -1957,7 +1987,7 @@
         <v>280</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>6</v>
@@ -1965,7 +1995,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B12" s="3">
         <v>2</v>
@@ -1974,7 +2004,7 @@
         <v>280</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>6</v>
@@ -1982,7 +2012,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B13" s="3">
         <v>2</v>
@@ -1991,7 +2021,7 @@
         <v>280</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>6</v>
@@ -1999,7 +2029,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B14" s="3">
         <v>1</v>
@@ -2008,7 +2038,7 @@
         <v>280</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>6</v>
@@ -2016,7 +2046,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B15" s="3">
         <v>1</v>
@@ -2025,7 +2055,7 @@
         <v>280</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>6</v>
@@ -2042,7 +2072,7 @@
         <v>220</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>6</v>
@@ -2076,7 +2106,7 @@
         <v>220</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>6</v>
@@ -2093,7 +2123,7 @@
         <v>220</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>6</v>
@@ -2110,7 +2140,7 @@
         <v>220</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>6</v>
@@ -2127,7 +2157,7 @@
         <v>220</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>6</v>
@@ -2144,7 +2174,7 @@
         <v>220</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>6</v>
@@ -2178,7 +2208,7 @@
         <v>200</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>6</v>
@@ -2229,7 +2259,7 @@
         <v>180</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>6</v>
@@ -2297,7 +2327,7 @@
         <v>180</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>6</v>
@@ -2314,7 +2344,7 @@
         <v>180</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>6</v>
@@ -2331,7 +2361,7 @@
         <v>270</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>6</v>
@@ -2365,7 +2395,7 @@
         <v>270</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>6</v>
@@ -2382,7 +2412,7 @@
         <v>450</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>6</v>
@@ -2433,7 +2463,7 @@
         <v>270</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>6</v>
@@ -2467,7 +2497,7 @@
         <v>270</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>6</v>
@@ -2492,7 +2522,7 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B43" s="3">
         <v>2</v>
@@ -2509,7 +2539,7 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B44" s="3">
         <v>2</v>
@@ -2518,7 +2548,7 @@
         <v>250</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>6</v>
@@ -2535,7 +2565,7 @@
         <v>250</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>6</v>
@@ -2552,7 +2582,7 @@
         <v>250</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E46" s="3" t="s">
         <v>6</v>
@@ -2560,7 +2590,7 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B47" s="3">
         <v>1</v>
@@ -2577,7 +2607,7 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B48" s="3">
         <v>1</v>
@@ -2594,7 +2624,7 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B49" s="3">
         <v>1</v>
@@ -2611,7 +2641,7 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B50" s="3">
         <v>2</v>
@@ -2620,7 +2650,7 @@
         <v>360</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>6</v>
@@ -2628,7 +2658,7 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B51" s="3">
         <v>1</v>
@@ -2637,7 +2667,7 @@
         <v>360</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E51" s="3" t="s">
         <v>6</v>
@@ -2645,7 +2675,7 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B52" s="3">
         <v>2</v>
@@ -2654,7 +2684,7 @@
         <v>200</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>6</v>
@@ -2671,7 +2701,7 @@
         <v>180</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E53" s="3" t="s">
         <v>44</v>
@@ -2713,16 +2743,16 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B56" s="3">
         <v>1</v>
       </c>
       <c r="C56" s="3">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>222</v>
+        <v>411</v>
       </c>
       <c r="E56" s="3" t="s">
         <v>44</v>
@@ -2730,16 +2760,16 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B57" s="3">
         <v>1</v>
       </c>
       <c r="C57" s="3">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>223</v>
+        <v>412</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>44</v>
@@ -2756,7 +2786,7 @@
         <v>300</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>44</v>
@@ -2773,7 +2803,7 @@
         <v>300</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E59" s="3" t="s">
         <v>44</v>
@@ -2790,7 +2820,7 @@
         <v>350</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E60" s="3" t="s">
         <v>44</v>
@@ -2807,7 +2837,7 @@
         <v>350</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E61" s="3" t="s">
         <v>44</v>
@@ -2824,7 +2854,7 @@
         <v>500</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E62" s="3" t="s">
         <v>44</v>
@@ -3087,7 +3117,7 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B78" s="3">
         <v>1</v>
@@ -3138,7 +3168,7 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B81" s="3">
         <v>2</v>
@@ -3147,7 +3177,7 @@
         <v>350</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E81" s="3" t="s">
         <v>58</v>
@@ -3274,7 +3304,7 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B89" s="3">
         <v>1</v>
@@ -3283,7 +3313,7 @@
         <v>300</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="E89" s="3" t="s">
         <v>58</v>
@@ -3291,7 +3321,7 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B90" s="3">
         <v>2</v>
@@ -3308,7 +3338,7 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B91" s="3">
         <v>1</v>
@@ -3614,7 +3644,7 @@
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B109" s="3">
         <v>1</v>
@@ -3623,7 +3653,7 @@
         <v>320</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="E109" s="3" t="s">
         <v>58</v>
@@ -3640,7 +3670,7 @@
         <v>300</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E110" s="3" t="s">
         <v>58</v>
@@ -3657,7 +3687,7 @@
         <v>300</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E111" s="3" t="s">
         <v>58</v>
@@ -3674,7 +3704,7 @@
         <v>300</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E112" s="3" t="s">
         <v>58</v>
@@ -3810,7 +3840,7 @@
         <v>300</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E120" s="3" t="s">
         <v>58</v>
@@ -3827,7 +3857,7 @@
         <v>400</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E121" s="3" t="s">
         <v>58</v>
@@ -3844,7 +3874,7 @@
         <v>400</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E122" s="3" t="s">
         <v>58</v>
@@ -3852,7 +3882,7 @@
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B123" s="3">
         <v>1</v>
@@ -3861,7 +3891,7 @@
         <v>300</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E123" s="3" t="s">
         <v>58</v>
@@ -3878,7 +3908,7 @@
         <v>300</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E124" s="3" t="s">
         <v>58</v>
@@ -3895,7 +3925,7 @@
         <v>300</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E125" s="3" t="s">
         <v>58</v>
@@ -3912,7 +3942,7 @@
         <v>300</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E126" s="3" t="s">
         <v>58</v>
@@ -3929,7 +3959,7 @@
         <v>300</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E127" s="3" t="s">
         <v>58</v>
@@ -3946,7 +3976,7 @@
         <v>300</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E128" s="3" t="s">
         <v>58</v>
@@ -3963,7 +3993,7 @@
         <v>300</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E129" s="3" t="s">
         <v>58</v>
@@ -3980,7 +4010,7 @@
         <v>500</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E130" s="3" t="s">
         <v>58</v>
@@ -3997,7 +4027,7 @@
         <v>300</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E131" s="3" t="s">
         <v>58</v>
@@ -4014,7 +4044,7 @@
         <v>300</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E132" s="3" t="s">
         <v>58</v>
@@ -4031,7 +4061,7 @@
         <v>250</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E133" s="3" t="s">
         <v>116</v>
@@ -4039,7 +4069,7 @@
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B134" s="3">
         <v>1</v>
@@ -4048,7 +4078,7 @@
         <v>280</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E134" s="3" t="s">
         <v>116</v>
@@ -4056,7 +4086,7 @@
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B135" s="3">
         <v>1</v>
@@ -4065,7 +4095,7 @@
         <v>280</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E135" s="3" t="s">
         <v>116</v>
@@ -4073,7 +4103,7 @@
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B136" s="3">
         <v>2</v>
@@ -4082,7 +4112,7 @@
         <v>260</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E136" s="3" t="s">
         <v>116</v>
@@ -4090,7 +4120,7 @@
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B137" s="3">
         <v>1</v>
@@ -4099,7 +4129,7 @@
         <v>260</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="E137" s="3" t="s">
         <v>116</v>
@@ -4124,7 +4154,7 @@
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B139" s="3">
         <v>1</v>
@@ -4133,7 +4163,7 @@
         <v>280</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E139" s="3" t="s">
         <v>116</v>
@@ -4150,7 +4180,7 @@
         <v>220</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="E140" s="3" t="s">
         <v>116</v>
@@ -4167,7 +4197,7 @@
         <v>220</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="E141" s="3" t="s">
         <v>116</v>
@@ -4184,7 +4214,7 @@
         <v>220</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E142" s="3" t="s">
         <v>116</v>
@@ -4201,7 +4231,7 @@
         <v>220</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="E143" s="3" t="s">
         <v>116</v>
@@ -4218,7 +4248,7 @@
         <v>220</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="E144" s="3" t="s">
         <v>116</v>
@@ -4235,7 +4265,7 @@
         <v>250</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="E145" s="3" t="s">
         <v>116</v>
@@ -4243,7 +4273,7 @@
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B146" s="3">
         <v>2</v>
@@ -4252,7 +4282,7 @@
         <v>220</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E146" s="3" t="s">
         <v>116</v>
@@ -4260,7 +4290,7 @@
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B147" s="3">
         <v>3</v>
@@ -4269,7 +4299,7 @@
         <v>250</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E147" s="3" t="s">
         <v>116</v>
@@ -4277,7 +4307,7 @@
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B148" s="3">
         <v>1</v>
@@ -4286,7 +4316,7 @@
         <v>220</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E148" s="3" t="s">
         <v>116</v>
@@ -4303,7 +4333,7 @@
         <v>220</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="E149" s="3" t="s">
         <v>116</v>
@@ -4311,7 +4341,7 @@
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B150" s="3">
         <v>2</v>
@@ -4320,7 +4350,7 @@
         <v>250</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E150" s="3" t="s">
         <v>116</v>
@@ -4337,7 +4367,7 @@
         <v>220</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E151" s="3" t="s">
         <v>116</v>
@@ -4371,7 +4401,7 @@
         <v>350</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="E153" s="3" t="s">
         <v>116</v>
@@ -4388,7 +4418,7 @@
         <v>350</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E154" s="3" t="s">
         <v>116</v>
@@ -4405,7 +4435,7 @@
         <v>350</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E155" s="3" t="s">
         <v>116</v>
@@ -4422,7 +4452,7 @@
         <v>350</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E156" s="3" t="s">
         <v>116</v>
@@ -4439,7 +4469,7 @@
         <v>350</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E157" s="3" t="s">
         <v>116</v>
@@ -4456,7 +4486,7 @@
         <v>350</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E158" s="3" t="s">
         <v>116</v>
@@ -4473,7 +4503,7 @@
         <v>220</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="E159" s="3" t="s">
         <v>116</v>
@@ -4490,7 +4520,7 @@
         <v>250</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E160" s="3" t="s">
         <v>135</v>
@@ -4524,7 +4554,7 @@
         <v>250</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E162" s="3" t="s">
         <v>135</v>
@@ -4541,7 +4571,7 @@
         <v>250</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E163" s="3" t="s">
         <v>135</v>
@@ -4575,7 +4605,7 @@
         <v>250</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="E165" s="3" t="s">
         <v>141</v>
@@ -4592,7 +4622,7 @@
         <v>250</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E166" s="3" t="s">
         <v>141</v>
@@ -4609,7 +4639,7 @@
         <v>250</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="E167" s="3" t="s">
         <v>141</v>
@@ -4626,7 +4656,7 @@
         <v>250</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E168" s="3" t="s">
         <v>141</v>
@@ -4643,7 +4673,7 @@
         <v>250</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="E169" s="3" t="s">
         <v>141</v>
@@ -4660,7 +4690,7 @@
         <v>250</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="E170" s="3" t="s">
         <v>141</v>
@@ -4677,7 +4707,7 @@
         <v>250</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="E171" s="3" t="s">
         <v>141</v>
@@ -4711,7 +4741,7 @@
         <v>250</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="E173" s="3" t="s">
         <v>141</v>
@@ -4745,7 +4775,7 @@
         <v>250</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="E175" s="3" t="s">
         <v>141</v>
@@ -4762,7 +4792,7 @@
         <v>250</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="E176" s="3" t="s">
         <v>141</v>
@@ -4779,7 +4809,7 @@
         <v>250</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="E177" s="3" t="s">
         <v>141</v>
@@ -4796,7 +4826,7 @@
         <v>250</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="E178" s="3" t="s">
         <v>141</v>
@@ -4847,7 +4877,7 @@
         <v>250</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E181" s="6" t="s">
         <v>206</v>
@@ -4864,7 +4894,7 @@
         <v>250</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="E182" s="6" t="s">
         <v>206</v>
@@ -4881,15 +4911,15 @@
         <v>220</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="E183" s="6" t="s">
-        <v>206</v>
+        <v>413</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B184" s="5">
         <v>0</v>
@@ -4901,7 +4931,7 @@
         <v>161</v>
       </c>
       <c r="E184" s="6" t="s">
-        <v>206</v>
+        <v>413</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
@@ -4915,10 +4945,10 @@
         <v>220</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="E185" s="6" t="s">
-        <v>206</v>
+        <v>413</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
@@ -4932,10 +4962,10 @@
         <v>220</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="E186" s="6" t="s">
-        <v>206</v>
+        <v>413</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
@@ -4949,10 +4979,10 @@
         <v>220</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="E187" s="6" t="s">
-        <v>206</v>
+        <v>413</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
@@ -4966,7 +4996,7 @@
         <v>350</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E188" s="6" t="s">
         <v>206</v>
@@ -4974,7 +5004,7 @@
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B189" s="5">
         <v>10</v>
@@ -4983,15 +5013,15 @@
         <v>250</v>
       </c>
       <c r="D189" s="4" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="E189" s="6" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B190" s="5">
         <v>3</v>
@@ -5000,15 +5030,15 @@
         <v>250</v>
       </c>
       <c r="D190" s="4" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="E190" s="6" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B191" s="5">
         <v>24</v>
@@ -5017,15 +5047,15 @@
         <v>250</v>
       </c>
       <c r="D191" s="4" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E191" s="6" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B192" s="5">
         <v>6</v>
@@ -5034,15 +5064,15 @@
         <v>150</v>
       </c>
       <c r="D192" s="4" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="E192" s="6" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B193" s="5">
         <v>2</v>
@@ -5051,15 +5081,15 @@
         <v>150</v>
       </c>
       <c r="D193" s="4" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="E193" s="6" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B194" s="5">
         <v>2</v>
@@ -5068,15 +5098,15 @@
         <v>150</v>
       </c>
       <c r="D194" s="4" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="E194" s="6" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B195" s="5">
         <v>5</v>
@@ -5085,15 +5115,15 @@
         <v>550</v>
       </c>
       <c r="D195" s="4" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="E195" s="6" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B196" s="5">
         <v>0</v>
@@ -5105,12 +5135,12 @@
         <v>161</v>
       </c>
       <c r="E196" s="6" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B197" s="5">
         <v>4</v>
@@ -5119,7 +5149,7 @@
         <v>800</v>
       </c>
       <c r="D197" s="4" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="E197" s="6" t="s">
         <v>206</v>
@@ -5127,7 +5157,7 @@
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B198" s="5">
         <v>13</v>
@@ -5136,7 +5166,7 @@
         <v>200</v>
       </c>
       <c r="D198" s="4" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="E198" s="6" t="s">
         <v>206</v>
@@ -5144,7 +5174,7 @@
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B199" s="5">
         <v>3</v>
@@ -5153,15 +5183,15 @@
         <v>150</v>
       </c>
       <c r="D199" s="4" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E199" s="6" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B200" s="5">
         <v>2</v>
@@ -5170,15 +5200,15 @@
         <v>150</v>
       </c>
       <c r="D200" s="4" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="E200" s="6" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B201" s="5">
         <v>1</v>
@@ -5187,15 +5217,15 @@
         <v>150</v>
       </c>
       <c r="D201" s="4" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="E201" s="6" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B202" s="5">
         <v>1</v>
@@ -5204,15 +5234,15 @@
         <v>150</v>
       </c>
       <c r="D202" s="4" t="s">
-        <v>161</v>
+        <v>402</v>
       </c>
       <c r="E202" s="6" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B203" s="5">
         <v>10</v>
@@ -5221,15 +5251,15 @@
         <v>30</v>
       </c>
       <c r="D203" s="4" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="E203" s="6" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B204" s="5">
         <v>1</v>
@@ -5238,15 +5268,15 @@
         <v>550</v>
       </c>
       <c r="D204" s="4" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="E204" s="6" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B205" s="5">
         <v>1</v>
@@ -5255,15 +5285,15 @@
         <v>550</v>
       </c>
       <c r="D205" s="4" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="E205" s="6" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B206" s="5">
         <v>1</v>
@@ -5272,15 +5302,15 @@
         <v>550</v>
       </c>
       <c r="D206" s="4" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="E206" s="6" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B207" s="5">
         <v>1</v>
@@ -5289,15 +5319,15 @@
         <v>550</v>
       </c>
       <c r="D207" s="4" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="E207" s="6" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B208" s="5">
         <v>1</v>
@@ -5306,15 +5336,15 @@
         <v>550</v>
       </c>
       <c r="D208" s="4" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="E208" s="6" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B209" s="5">
         <v>1</v>
@@ -5323,15 +5353,15 @@
         <v>550</v>
       </c>
       <c r="D209" s="4" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="E209" s="6" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B210" s="5">
         <v>1</v>
@@ -5340,15 +5370,15 @@
         <v>550</v>
       </c>
       <c r="D210" s="4" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="E210" s="6" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B211" s="5">
         <v>1</v>
@@ -5357,16 +5387,79 @@
         <v>550</v>
       </c>
       <c r="D211" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="E211" s="6" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
         <v>403</v>
       </c>
-      <c r="E211" s="6" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B212" s="5"/>
-      <c r="C212" s="6"/>
-      <c r="E212" s="6"/>
+      <c r="B212" s="5">
+        <v>6</v>
+      </c>
+      <c r="C212" s="6">
+        <v>250</v>
+      </c>
+      <c r="D212" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="E212" s="6" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>404</v>
+      </c>
+      <c r="B213" s="5">
+        <v>1</v>
+      </c>
+      <c r="C213" s="6">
+        <v>250</v>
+      </c>
+      <c r="D213" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="E213" s="6" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>405</v>
+      </c>
+      <c r="B214" s="5">
+        <v>4</v>
+      </c>
+      <c r="C214" s="6">
+        <v>250</v>
+      </c>
+      <c r="D214" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="E214" s="6" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>406</v>
+      </c>
+      <c r="B215" s="5">
+        <v>1</v>
+      </c>
+      <c r="C215" s="6">
+        <v>250</v>
+      </c>
+      <c r="D215" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="E215" s="6" t="s">
+        <v>206</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/stock.xlsx
+++ b/data/stock.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\blocks\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDBE2BC7-C85B-49F2-BFFE-576FB9740535}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{163F40C2-0F0D-4352-A39E-50025C410A22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2070" yWindow="1635" windowWidth="21600" windowHeight="11250" xr2:uid="{FC0CBB84-858B-49F6-BA69-44D83C89F7C4}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="417">
   <si>
     <t>Product</t>
   </si>
@@ -1276,6 +1276,15 @@
   </si>
   <si>
     <t>Bleach</t>
+  </si>
+  <si>
+    <t>3D cute scenerio DIY set (5x sticker)</t>
+  </si>
+  <si>
+    <t>3d5.jpg</t>
+  </si>
+  <si>
+    <t>joker.jpg</t>
   </si>
 </sst>
 </file>
@@ -1793,10 +1802,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCDC9875-9E8E-485C-910E-47B83A1F9902}">
-  <dimension ref="A1:E215"/>
+  <dimension ref="A1:E216"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A179" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E183" sqref="E183:E187"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1845,7 +1854,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" s="3">
         <v>220</v>
@@ -2718,7 +2727,7 @@
         <v>150</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>161</v>
+        <v>416</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>44</v>
@@ -5024,7 +5033,7 @@
         <v>354</v>
       </c>
       <c r="B190" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C190" s="6">
         <v>250</v>
@@ -5109,7 +5118,7 @@
         <v>368</v>
       </c>
       <c r="B195" s="5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C195" s="6">
         <v>550</v>
@@ -5123,50 +5132,50 @@
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>359</v>
+        <v>414</v>
       </c>
       <c r="B196" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C196" s="6">
-        <v>300</v>
+        <v>650</v>
       </c>
       <c r="D196" s="4" t="s">
-        <v>161</v>
+        <v>415</v>
       </c>
       <c r="E196" s="6" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="B197" s="5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C197" s="6">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="D197" s="4" t="s">
-        <v>362</v>
+        <v>161</v>
       </c>
       <c r="E197" s="6" t="s">
-        <v>206</v>
+        <v>360</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B198" s="5">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C198" s="6">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="D198" s="4" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E198" s="6" t="s">
         <v>206</v>
@@ -5174,33 +5183,33 @@
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>376</v>
+        <v>365</v>
       </c>
       <c r="B199" s="5">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C199" s="6">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="D199" s="4" t="s">
-        <v>383</v>
+        <v>363</v>
       </c>
       <c r="E199" s="6" t="s">
-        <v>381</v>
+        <v>206</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B200" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C200" s="6">
         <v>150</v>
       </c>
       <c r="D200" s="4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E200" s="6" t="s">
         <v>381</v>
@@ -5208,16 +5217,16 @@
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B201" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C201" s="6">
         <v>150</v>
       </c>
       <c r="D201" s="4" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E201" s="6" t="s">
         <v>381</v>
@@ -5225,7 +5234,7 @@
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B202" s="5">
         <v>1</v>
@@ -5234,7 +5243,7 @@
         <v>150</v>
       </c>
       <c r="D202" s="4" t="s">
-        <v>402</v>
+        <v>385</v>
       </c>
       <c r="E202" s="6" t="s">
         <v>381</v>
@@ -5242,16 +5251,16 @@
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B203" s="5">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C203" s="6">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="D203" s="4" t="s">
-        <v>386</v>
+        <v>402</v>
       </c>
       <c r="E203" s="6" t="s">
         <v>381</v>
@@ -5259,16 +5268,16 @@
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B204" s="5">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C204" s="6">
-        <v>550</v>
+        <v>30</v>
       </c>
       <c r="D204" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E204" s="6" t="s">
         <v>381</v>
@@ -5276,7 +5285,7 @@
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="B205" s="5">
         <v>1</v>
@@ -5285,7 +5294,7 @@
         <v>550</v>
       </c>
       <c r="D205" s="4" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="E205" s="6" t="s">
         <v>381</v>
@@ -5293,7 +5302,7 @@
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B206" s="5">
         <v>1</v>
@@ -5302,7 +5311,7 @@
         <v>550</v>
       </c>
       <c r="D206" s="4" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="E206" s="6" t="s">
         <v>381</v>
@@ -5310,7 +5319,7 @@
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B207" s="5">
         <v>1</v>
@@ -5319,7 +5328,7 @@
         <v>550</v>
       </c>
       <c r="D207" s="4" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E207" s="6" t="s">
         <v>381</v>
@@ -5327,7 +5336,7 @@
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B208" s="5">
         <v>1</v>
@@ -5336,7 +5345,7 @@
         <v>550</v>
       </c>
       <c r="D208" s="4" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E208" s="6" t="s">
         <v>381</v>
@@ -5344,7 +5353,7 @@
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B209" s="5">
         <v>1</v>
@@ -5353,7 +5362,7 @@
         <v>550</v>
       </c>
       <c r="D209" s="4" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E209" s="6" t="s">
         <v>381</v>
@@ -5361,7 +5370,7 @@
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B210" s="5">
         <v>1</v>
@@ -5370,7 +5379,7 @@
         <v>550</v>
       </c>
       <c r="D210" s="4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E210" s="6" t="s">
         <v>381</v>
@@ -5378,7 +5387,7 @@
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B211" s="5">
         <v>1</v>
@@ -5387,7 +5396,7 @@
         <v>550</v>
       </c>
       <c r="D211" s="4" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E211" s="6" t="s">
         <v>381</v>
@@ -5395,33 +5404,33 @@
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="B212" s="5">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C212" s="6">
-        <v>250</v>
+        <v>550</v>
       </c>
       <c r="D212" s="4" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="E212" s="6" t="s">
-        <v>206</v>
+        <v>381</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B213" s="5">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C213" s="6">
         <v>250</v>
       </c>
       <c r="D213" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E213" s="6" t="s">
         <v>206</v>
@@ -5429,16 +5438,16 @@
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B214" s="5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C214" s="6">
         <v>250</v>
       </c>
       <c r="D214" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E214" s="6" t="s">
         <v>206</v>
@@ -5446,18 +5455,35 @@
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B215" s="5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C215" s="6">
         <v>250</v>
       </c>
       <c r="D215" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="E215" s="6" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>406</v>
+      </c>
+      <c r="B216" s="5">
+        <v>1</v>
+      </c>
+      <c r="C216" s="6">
+        <v>250</v>
+      </c>
+      <c r="D216" s="4" t="s">
         <v>410</v>
       </c>
-      <c r="E215" s="6" t="s">
+      <c r="E216" s="6" t="s">
         <v>206</v>
       </c>
     </row>

--- a/data/stock.xlsx
+++ b/data/stock.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\blocks\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{163F40C2-0F0D-4352-A39E-50025C410A22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{651DC3AB-2397-47D3-87FE-D4773AF61C16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2070" yWindow="1635" windowWidth="21600" windowHeight="11250" xr2:uid="{FC0CBB84-858B-49F6-BA69-44D83C89F7C4}"/>
   </bookViews>
@@ -1804,8 +1804,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCDC9875-9E8E-485C-910E-47B83A1F9902}">
   <dimension ref="A1:E216"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B54" sqref="B54"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B215" sqref="B215"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5458,7 +5458,7 @@
         <v>405</v>
       </c>
       <c r="B215" s="5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C215" s="6">
         <v>250</v>

--- a/data/stock.xlsx
+++ b/data/stock.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\blocks\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{651DC3AB-2397-47D3-87FE-D4773AF61C16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98E70FD1-D00F-4DBA-857E-A72F7D6EEDB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2070" yWindow="1635" windowWidth="21600" windowHeight="11250" xr2:uid="{FC0CBB84-858B-49F6-BA69-44D83C89F7C4}"/>
+    <workbookView xWindow="3240" yWindow="1260" windowWidth="21600" windowHeight="11250" xr2:uid="{FC0CBB84-858B-49F6-BA69-44D83C89F7C4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="431">
   <si>
     <t>Product</t>
   </si>
@@ -1285,6 +1285,48 @@
   </si>
   <si>
     <t>joker.jpg</t>
+  </si>
+  <si>
+    <t>Spot (Black)</t>
+  </si>
+  <si>
+    <t>spot black.jpg</t>
+  </si>
+  <si>
+    <t>spiderman2099 kdl.jpg</t>
+  </si>
+  <si>
+    <t>Spiderman 2099 v2</t>
+  </si>
+  <si>
+    <t>Prowler</t>
+  </si>
+  <si>
+    <t>prowler.jpg</t>
+  </si>
+  <si>
+    <t>Wonder Woman</t>
+  </si>
+  <si>
+    <t>wonder woman.jpg</t>
+  </si>
+  <si>
+    <t>General Zod</t>
+  </si>
+  <si>
+    <t>zod.jpg</t>
+  </si>
+  <si>
+    <t>The Flash</t>
+  </si>
+  <si>
+    <t>Cyborg</t>
+  </si>
+  <si>
+    <t>flash.jpg</t>
+  </si>
+  <si>
+    <t>cyborg.jpg</t>
   </si>
 </sst>
 </file>
@@ -1802,10 +1844,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCDC9875-9E8E-485C-910E-47B83A1F9902}">
-  <dimension ref="A1:E216"/>
+  <dimension ref="A1:E223"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B215" sqref="B215"/>
+    <sheetView tabSelected="1" topLeftCell="A56" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D62" sqref="D62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2004,16 +2046,16 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>287</v>
+        <v>420</v>
       </c>
       <c r="B12" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C12" s="3">
         <v>280</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>294</v>
+        <v>419</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>6</v>
@@ -2021,7 +2063,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B13" s="3">
         <v>2</v>
@@ -2030,7 +2072,7 @@
         <v>280</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>6</v>
@@ -2038,16 +2080,16 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B14" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C14" s="3">
         <v>280</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>6</v>
@@ -2055,7 +2097,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>290</v>
+        <v>417</v>
       </c>
       <c r="B15" s="3">
         <v>1</v>
@@ -2064,7 +2106,7 @@
         <v>280</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>296</v>
+        <v>418</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>6</v>
@@ -2072,16 +2114,16 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>14</v>
+        <v>289</v>
       </c>
       <c r="B16" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C16" s="3">
-        <v>220</v>
+        <v>280</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>259</v>
+        <v>293</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>6</v>
@@ -2089,16 +2131,16 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>15</v>
+        <v>290</v>
       </c>
       <c r="B17" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17" s="3">
-        <v>220</v>
+        <v>280</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>161</v>
+        <v>296</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>6</v>
@@ -2106,16 +2148,16 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>16</v>
+        <v>421</v>
       </c>
       <c r="B18" s="3">
         <v>2</v>
       </c>
       <c r="C18" s="3">
-        <v>220</v>
+        <v>280</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>260</v>
+        <v>422</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>6</v>
@@ -2123,16 +2165,16 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B19" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C19" s="3">
         <v>220</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>6</v>
@@ -2140,16 +2182,16 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B20" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C20" s="3">
         <v>220</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>262</v>
+        <v>161</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>6</v>
@@ -2157,7 +2199,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B21" s="3">
         <v>2</v>
@@ -2166,7 +2208,7 @@
         <v>220</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>6</v>
@@ -2174,7 +2216,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B22" s="3">
         <v>1</v>
@@ -2183,7 +2225,7 @@
         <v>220</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>6</v>
@@ -2191,16 +2233,16 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B23" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C23" s="3">
         <v>220</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>161</v>
+        <v>262</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>6</v>
@@ -2208,16 +2250,16 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B24" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C24" s="3">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>226</v>
+        <v>263</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>6</v>
@@ -2225,7 +2267,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B25" s="3">
         <v>1</v>
@@ -2234,7 +2276,7 @@
         <v>220</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>162</v>
+        <v>264</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>6</v>
@@ -2242,16 +2284,16 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B26" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C26" s="3">
-        <v>180</v>
+        <v>220</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>6</v>
@@ -2259,16 +2301,16 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B27" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C27" s="3">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>6</v>
@@ -2276,16 +2318,16 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B28" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C28" s="3">
-        <v>180</v>
+        <v>220</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>6</v>
@@ -2293,16 +2335,16 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B29" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C29" s="3">
         <v>180</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>6</v>
@@ -2310,16 +2352,16 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B30" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C30" s="3">
         <v>180</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>161</v>
+        <v>228</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>6</v>
@@ -2327,16 +2369,16 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B31" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C31" s="3">
         <v>180</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>227</v>
+        <v>161</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>6</v>
@@ -2344,16 +2386,16 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B32" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C32" s="3">
         <v>180</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>229</v>
+        <v>161</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>6</v>
@@ -2361,16 +2403,16 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B33" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C33" s="3">
-        <v>270</v>
+        <v>180</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>230</v>
+        <v>161</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>6</v>
@@ -2378,16 +2420,16 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B34" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C34" s="3">
-        <v>270</v>
+        <v>180</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>164</v>
+        <v>227</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>6</v>
@@ -2395,16 +2437,16 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B35" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C35" s="3">
-        <v>270</v>
+        <v>180</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>6</v>
@@ -2412,16 +2454,16 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B36" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C36" s="3">
-        <v>450</v>
+        <v>270</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>6</v>
@@ -2429,16 +2471,16 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B37" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C37" s="3">
-        <v>380</v>
+        <v>270</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>6</v>
@@ -2446,16 +2488,16 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B38" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C38" s="3">
-        <v>800</v>
+        <v>270</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>168</v>
+        <v>231</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>6</v>
@@ -2463,16 +2505,16 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B39" s="3">
         <v>1</v>
       </c>
       <c r="C39" s="3">
-        <v>270</v>
+        <v>450</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>265</v>
+        <v>232</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>6</v>
@@ -2480,16 +2522,16 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B40" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C40" s="3">
-        <v>270</v>
+        <v>380</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>6</v>
@@ -2497,16 +2539,16 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B41" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C41" s="3">
-        <v>270</v>
+        <v>800</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>266</v>
+        <v>168</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>6</v>
@@ -2514,16 +2556,16 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B42" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C42" s="3">
-        <v>850</v>
+        <v>270</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>167</v>
+        <v>265</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>6</v>
@@ -2531,16 +2573,16 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>317</v>
+        <v>38</v>
       </c>
       <c r="B43" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C43" s="3">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>195</v>
+        <v>161</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>6</v>
@@ -2548,16 +2590,16 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>318</v>
+        <v>39</v>
       </c>
       <c r="B44" s="3">
         <v>2</v>
       </c>
       <c r="C44" s="3">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>233</v>
+        <v>266</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>6</v>
@@ -2565,16 +2607,16 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B45" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C45" s="3">
-        <v>250</v>
+        <v>850</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>234</v>
+        <v>167</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>6</v>
@@ -2582,7 +2624,7 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>42</v>
+        <v>317</v>
       </c>
       <c r="B46" s="3">
         <v>2</v>
@@ -2591,7 +2633,7 @@
         <v>250</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>235</v>
+        <v>195</v>
       </c>
       <c r="E46" s="3" t="s">
         <v>6</v>
@@ -2599,16 +2641,16 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B47" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C47" s="3">
         <v>250</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>165</v>
+        <v>233</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>6</v>
@@ -2616,16 +2658,16 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>319</v>
+        <v>41</v>
       </c>
       <c r="B48" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C48" s="3">
         <v>250</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>221</v>
+        <v>234</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>6</v>
@@ -2633,16 +2675,16 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>321</v>
+        <v>42</v>
       </c>
       <c r="B49" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C49" s="3">
         <v>250</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>196</v>
+        <v>235</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>6</v>
@@ -2650,16 +2692,16 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B50" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C50" s="3">
-        <v>360</v>
+        <v>250</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>267</v>
+        <v>165</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>6</v>
@@ -2667,16 +2709,16 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B51" s="3">
         <v>1</v>
       </c>
       <c r="C51" s="3">
-        <v>360</v>
+        <v>250</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>268</v>
+        <v>221</v>
       </c>
       <c r="E51" s="3" t="s">
         <v>6</v>
@@ -2684,16 +2726,16 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>236</v>
+        <v>321</v>
       </c>
       <c r="B52" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C52" s="3">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>237</v>
+        <v>196</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>6</v>
@@ -2701,67 +2743,67 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>47</v>
+        <v>322</v>
       </c>
       <c r="B53" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C53" s="3">
-        <v>180</v>
+        <v>360</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>238</v>
+        <v>267</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>44</v>
+        <v>6</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>43</v>
+        <v>323</v>
       </c>
       <c r="B54" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C54" s="3">
-        <v>150</v>
+        <v>360</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>416</v>
+        <v>268</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>44</v>
+        <v>6</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>48</v>
+        <v>236</v>
       </c>
       <c r="B55" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C55" s="3">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>161</v>
+        <v>237</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>44</v>
+        <v>6</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>324</v>
+        <v>47</v>
       </c>
       <c r="B56" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C56" s="3">
         <v>180</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>411</v>
+        <v>238</v>
       </c>
       <c r="E56" s="3" t="s">
         <v>44</v>
@@ -2769,16 +2811,16 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>325</v>
+        <v>425</v>
       </c>
       <c r="B57" s="3">
         <v>1</v>
       </c>
       <c r="C57" s="3">
-        <v>180</v>
+        <v>250</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>412</v>
+        <v>426</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>44</v>
@@ -2786,16 +2828,16 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B58" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C58" s="3">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>239</v>
+        <v>416</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>44</v>
@@ -2803,16 +2845,16 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>45</v>
+        <v>423</v>
       </c>
       <c r="B59" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C59" s="3">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>240</v>
+        <v>424</v>
       </c>
       <c r="E59" s="3" t="s">
         <v>44</v>
@@ -2820,16 +2862,16 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B60" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C60" s="3">
-        <v>350</v>
+        <v>180</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>222</v>
+        <v>161</v>
       </c>
       <c r="E60" s="3" t="s">
         <v>44</v>
@@ -2837,16 +2879,16 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>50</v>
+        <v>427</v>
       </c>
       <c r="B61" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C61" s="3">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>223</v>
+        <v>429</v>
       </c>
       <c r="E61" s="3" t="s">
         <v>44</v>
@@ -2854,16 +2896,16 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>51</v>
+        <v>428</v>
       </c>
       <c r="B62" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C62" s="3">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>224</v>
+        <v>430</v>
       </c>
       <c r="E62" s="3" t="s">
         <v>44</v>
@@ -2871,16 +2913,16 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>52</v>
+        <v>324</v>
       </c>
       <c r="B63" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C63" s="3">
-        <v>350</v>
+        <v>180</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>209</v>
+        <v>411</v>
       </c>
       <c r="E63" s="3" t="s">
         <v>44</v>
@@ -2888,16 +2930,16 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>53</v>
+        <v>325</v>
       </c>
       <c r="B64" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C64" s="3">
-        <v>350</v>
+        <v>180</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>210</v>
+        <v>412</v>
       </c>
       <c r="E64" s="3" t="s">
         <v>44</v>
@@ -2905,16 +2947,16 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B65" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C65" s="3">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>211</v>
+        <v>239</v>
       </c>
       <c r="E65" s="3" t="s">
         <v>44</v>
@@ -2922,16 +2964,16 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="B66" s="3">
         <v>0</v>
       </c>
       <c r="C66" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>207</v>
+        <v>240</v>
       </c>
       <c r="E66" s="3" t="s">
         <v>44</v>
@@ -2939,16 +2981,16 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B67" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C67" s="3">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="E67" s="3" t="s">
         <v>44</v>
@@ -2956,126 +2998,126 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B68" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C68" s="3">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>212</v>
+        <v>223</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>174</v>
+        <v>51</v>
       </c>
       <c r="B69" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C69" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>175</v>
+        <v>224</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B70" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C70" s="3">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="B71" s="3">
         <v>0</v>
       </c>
       <c r="C71" s="3">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>161</v>
+        <v>210</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="B72" s="3">
         <v>1</v>
       </c>
       <c r="C72" s="3">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>171</v>
+        <v>211</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="B73" s="3">
         <v>0</v>
       </c>
       <c r="C73" s="3">
-        <v>270</v>
+        <v>500</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>161</v>
+        <v>207</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B74" s="3">
         <v>0</v>
       </c>
       <c r="C74" s="3">
-        <v>270</v>
+        <v>500</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>169</v>
+        <v>208</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B75" s="3">
         <v>1</v>
@@ -3084,7 +3126,7 @@
         <v>300</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>170</v>
+        <v>212</v>
       </c>
       <c r="E75" s="3" t="s">
         <v>58</v>
@@ -3092,16 +3134,16 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>65</v>
+        <v>174</v>
       </c>
       <c r="B76" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C76" s="3">
         <v>300</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="E76" s="3" t="s">
         <v>58</v>
@@ -3109,16 +3151,16 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="B77" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C77" s="3">
         <v>300</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="E77" s="3" t="s">
         <v>58</v>
@@ -3126,16 +3168,16 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>374</v>
+        <v>60</v>
       </c>
       <c r="B78" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C78" s="3">
         <v>300</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>197</v>
+        <v>161</v>
       </c>
       <c r="E78" s="3" t="s">
         <v>58</v>
@@ -3143,16 +3185,16 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B79" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C79" s="3">
         <v>300</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="E79" s="3" t="s">
         <v>58</v>
@@ -3160,13 +3202,13 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B80" s="3">
         <v>0</v>
       </c>
       <c r="C80" s="3">
-        <v>300</v>
+        <v>270</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>161</v>
@@ -3177,16 +3219,16 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>283</v>
+        <v>63</v>
       </c>
       <c r="B81" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C81" s="3">
-        <v>350</v>
+        <v>270</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>284</v>
+        <v>169</v>
       </c>
       <c r="E81" s="3" t="s">
         <v>58</v>
@@ -3194,16 +3236,16 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B82" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C82" s="3">
         <v>300</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="E82" s="3" t="s">
         <v>58</v>
@@ -3211,7 +3253,7 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B83" s="3">
         <v>0</v>
@@ -3228,16 +3270,16 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B84" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C84" s="3">
         <v>300</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>161</v>
+        <v>198</v>
       </c>
       <c r="E84" s="3" t="s">
         <v>58</v>
@@ -3245,16 +3287,16 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>72</v>
+        <v>374</v>
       </c>
       <c r="B85" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C85" s="3">
         <v>300</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>161</v>
+        <v>197</v>
       </c>
       <c r="E85" s="3" t="s">
         <v>58</v>
@@ -3262,7 +3304,7 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B86" s="3">
         <v>0</v>
@@ -3271,7 +3313,7 @@
         <v>300</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>161</v>
+        <v>176</v>
       </c>
       <c r="E86" s="3" t="s">
         <v>58</v>
@@ -3279,7 +3321,7 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B87" s="3">
         <v>0</v>
@@ -3296,16 +3338,16 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>75</v>
+        <v>283</v>
       </c>
       <c r="B88" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C88" s="3">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>177</v>
+        <v>284</v>
       </c>
       <c r="E88" s="3" t="s">
         <v>58</v>
@@ -3313,16 +3355,16 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>335</v>
+        <v>69</v>
       </c>
       <c r="B89" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C89" s="3">
         <v>300</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>352</v>
+        <v>161</v>
       </c>
       <c r="E89" s="3" t="s">
         <v>58</v>
@@ -3330,16 +3372,16 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>281</v>
+        <v>70</v>
       </c>
       <c r="B90" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C90" s="3">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="E90" s="3" t="s">
         <v>58</v>
@@ -3347,16 +3389,16 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>282</v>
+        <v>71</v>
       </c>
       <c r="B91" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C91" s="3">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="E91" s="3" t="s">
         <v>58</v>
@@ -3364,16 +3406,16 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B92" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C92" s="3">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
       <c r="E92" s="3" t="s">
         <v>58</v>
@@ -3381,16 +3423,16 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B93" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C93" s="3">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
       <c r="E93" s="3" t="s">
         <v>58</v>
@@ -3398,16 +3440,16 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B94" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C94" s="3">
-        <v>320</v>
+        <v>300</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
       <c r="E94" s="3" t="s">
         <v>58</v>
@@ -3415,16 +3457,16 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B95" s="3">
         <v>1</v>
       </c>
       <c r="C95" s="3">
-        <v>320</v>
-      </c>
-      <c r="D95" s="1" t="s">
-        <v>181</v>
+        <v>300</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>177</v>
       </c>
       <c r="E95" s="3" t="s">
         <v>58</v>
@@ -3432,16 +3474,16 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>80</v>
+        <v>335</v>
       </c>
       <c r="B96" s="3">
         <v>1</v>
       </c>
       <c r="C96" s="3">
-        <v>320</v>
-      </c>
-      <c r="D96" s="1" t="s">
-        <v>194</v>
+        <v>300</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>352</v>
       </c>
       <c r="E96" s="3" t="s">
         <v>58</v>
@@ -3449,16 +3491,16 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>81</v>
+        <v>281</v>
       </c>
       <c r="B97" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C97" s="3">
-        <v>320</v>
-      </c>
-      <c r="D97" s="1" t="s">
-        <v>182</v>
+        <v>350</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>172</v>
       </c>
       <c r="E97" s="3" t="s">
         <v>58</v>
@@ -3466,16 +3508,16 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>82</v>
+        <v>282</v>
       </c>
       <c r="B98" s="3">
         <v>1</v>
       </c>
       <c r="C98" s="3">
-        <v>320</v>
-      </c>
-      <c r="D98" s="1" t="s">
-        <v>183</v>
+        <v>350</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>173</v>
       </c>
       <c r="E98" s="3" t="s">
         <v>58</v>
@@ -3483,16 +3525,16 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B99" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C99" s="3">
-        <v>320</v>
-      </c>
-      <c r="D99" s="1" t="s">
-        <v>184</v>
+        <v>350</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>178</v>
       </c>
       <c r="E99" s="3" t="s">
         <v>58</v>
@@ -3500,16 +3542,16 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="B100" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C100" s="3">
-        <v>320</v>
-      </c>
-      <c r="D100" s="1" t="s">
-        <v>185</v>
+        <v>350</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>179</v>
       </c>
       <c r="E100" s="3" t="s">
         <v>58</v>
@@ -3517,16 +3559,16 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="B101" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C101" s="3">
         <v>320</v>
       </c>
-      <c r="D101" s="1" t="s">
-        <v>186</v>
+      <c r="D101" s="2" t="s">
+        <v>180</v>
       </c>
       <c r="E101" s="3" t="s">
         <v>58</v>
@@ -3534,7 +3576,7 @@
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="B102" s="3">
         <v>1</v>
@@ -3543,7 +3585,7 @@
         <v>320</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="E102" s="3" t="s">
         <v>58</v>
@@ -3551,7 +3593,7 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="B103" s="3">
         <v>1</v>
@@ -3560,7 +3602,7 @@
         <v>320</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="E103" s="3" t="s">
         <v>58</v>
@@ -3568,16 +3610,16 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="B104" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C104" s="3">
         <v>320</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="E104" s="3" t="s">
         <v>58</v>
@@ -3585,16 +3627,16 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="B105" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C105" s="3">
         <v>320</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="E105" s="3" t="s">
         <v>58</v>
@@ -3602,7 +3644,7 @@
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="B106" s="3">
         <v>1</v>
@@ -3611,7 +3653,7 @@
         <v>320</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="E106" s="3" t="s">
         <v>58</v>
@@ -3619,7 +3661,7 @@
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="B107" s="3">
         <v>2</v>
@@ -3628,7 +3670,7 @@
         <v>320</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="E107" s="3" t="s">
         <v>58</v>
@@ -3636,7 +3678,7 @@
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="B108" s="3">
         <v>0</v>
@@ -3645,7 +3687,7 @@
         <v>320</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="E108" s="3" t="s">
         <v>58</v>
@@ -3653,7 +3695,7 @@
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>348</v>
+        <v>86</v>
       </c>
       <c r="B109" s="3">
         <v>1</v>
@@ -3661,8 +3703,8 @@
       <c r="C109" s="3">
         <v>320</v>
       </c>
-      <c r="D109" s="2" t="s">
-        <v>349</v>
+      <c r="D109" s="1" t="s">
+        <v>187</v>
       </c>
       <c r="E109" s="3" t="s">
         <v>58</v>
@@ -3670,16 +3712,16 @@
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B110" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C110" s="3">
-        <v>300</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>269</v>
+        <v>320</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>188</v>
       </c>
       <c r="E110" s="3" t="s">
         <v>58</v>
@@ -3687,16 +3729,16 @@
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="B111" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C111" s="3">
-        <v>300</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>241</v>
+        <v>320</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>189</v>
       </c>
       <c r="E111" s="3" t="s">
         <v>58</v>
@@ -3704,16 +3746,16 @@
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B112" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C112" s="3">
-        <v>300</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>270</v>
+        <v>320</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>190</v>
       </c>
       <c r="E112" s="3" t="s">
         <v>58</v>
@@ -3721,16 +3763,16 @@
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B113" s="3">
         <v>1</v>
       </c>
       <c r="C113" s="3">
-        <v>300</v>
+        <v>320</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>214</v>
+        <v>191</v>
       </c>
       <c r="E113" s="3" t="s">
         <v>58</v>
@@ -3738,16 +3780,16 @@
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B114" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C114" s="3">
-        <v>300</v>
+        <v>320</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>215</v>
+        <v>192</v>
       </c>
       <c r="E114" s="3" t="s">
         <v>58</v>
@@ -3755,16 +3797,16 @@
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B115" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C115" s="3">
-        <v>300</v>
+        <v>320</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>216</v>
+        <v>193</v>
       </c>
       <c r="E115" s="3" t="s">
         <v>58</v>
@@ -3772,16 +3814,16 @@
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>99</v>
+        <v>348</v>
       </c>
       <c r="B116" s="3">
         <v>1</v>
       </c>
       <c r="C116" s="3">
-        <v>300</v>
-      </c>
-      <c r="D116" s="1" t="s">
-        <v>217</v>
+        <v>320</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>349</v>
       </c>
       <c r="E116" s="3" t="s">
         <v>58</v>
@@ -3789,16 +3831,16 @@
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="B117" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C117" s="3">
         <v>300</v>
       </c>
-      <c r="D117" s="1" t="s">
-        <v>218</v>
+      <c r="D117" s="2" t="s">
+        <v>269</v>
       </c>
       <c r="E117" s="3" t="s">
         <v>58</v>
@@ -3806,16 +3848,16 @@
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="B118" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C118" s="3">
         <v>300</v>
       </c>
-      <c r="D118" s="1" t="s">
-        <v>219</v>
+      <c r="D118" s="2" t="s">
+        <v>241</v>
       </c>
       <c r="E118" s="3" t="s">
         <v>58</v>
@@ -3823,7 +3865,7 @@
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="B119" s="3">
         <v>1</v>
@@ -3831,8 +3873,8 @@
       <c r="C119" s="3">
         <v>300</v>
       </c>
-      <c r="D119" s="1" t="s">
-        <v>220</v>
+      <c r="D119" s="2" t="s">
+        <v>270</v>
       </c>
       <c r="E119" s="3" t="s">
         <v>58</v>
@@ -3840,7 +3882,7 @@
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="B120" s="3">
         <v>1</v>
@@ -3848,8 +3890,8 @@
       <c r="C120" s="3">
         <v>300</v>
       </c>
-      <c r="D120" s="2" t="s">
-        <v>271</v>
+      <c r="D120" s="1" t="s">
+        <v>214</v>
       </c>
       <c r="E120" s="3" t="s">
         <v>58</v>
@@ -3857,16 +3899,16 @@
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="B121" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C121" s="3">
-        <v>400</v>
-      </c>
-      <c r="D121" s="2" t="s">
-        <v>242</v>
+        <v>300</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>215</v>
       </c>
       <c r="E121" s="3" t="s">
         <v>58</v>
@@ -3874,16 +3916,16 @@
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="B122" s="3">
         <v>1</v>
       </c>
       <c r="C122" s="3">
-        <v>400</v>
-      </c>
-      <c r="D122" s="2" t="s">
-        <v>243</v>
+        <v>300</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>216</v>
       </c>
       <c r="E122" s="3" t="s">
         <v>58</v>
@@ -3891,7 +3933,7 @@
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>375</v>
+        <v>99</v>
       </c>
       <c r="B123" s="3">
         <v>1</v>
@@ -3899,8 +3941,8 @@
       <c r="C123" s="3">
         <v>300</v>
       </c>
-      <c r="D123" s="2" t="s">
-        <v>244</v>
+      <c r="D123" s="1" t="s">
+        <v>217</v>
       </c>
       <c r="E123" s="3" t="s">
         <v>58</v>
@@ -3908,16 +3950,16 @@
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B124" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C124" s="3">
         <v>300</v>
       </c>
-      <c r="D124" s="2" t="s">
-        <v>245</v>
+      <c r="D124" s="1" t="s">
+        <v>218</v>
       </c>
       <c r="E124" s="3" t="s">
         <v>58</v>
@@ -3925,16 +3967,16 @@
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B125" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C125" s="3">
         <v>300</v>
       </c>
-      <c r="D125" s="2" t="s">
-        <v>246</v>
+      <c r="D125" s="1" t="s">
+        <v>219</v>
       </c>
       <c r="E125" s="3" t="s">
         <v>58</v>
@@ -3942,7 +3984,7 @@
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B126" s="3">
         <v>1</v>
@@ -3950,8 +3992,8 @@
       <c r="C126" s="3">
         <v>300</v>
       </c>
-      <c r="D126" s="2" t="s">
-        <v>247</v>
+      <c r="D126" s="1" t="s">
+        <v>220</v>
       </c>
       <c r="E126" s="3" t="s">
         <v>58</v>
@@ -3959,7 +4001,7 @@
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B127" s="3">
         <v>1</v>
@@ -3968,7 +4010,7 @@
         <v>300</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>248</v>
+        <v>271</v>
       </c>
       <c r="E127" s="3" t="s">
         <v>58</v>
@@ -3976,16 +4018,16 @@
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="B128" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C128" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="E128" s="3" t="s">
         <v>58</v>
@@ -3993,16 +4035,16 @@
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="B129" s="3">
         <v>1</v>
       </c>
       <c r="C129" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="E129" s="3" t="s">
         <v>58</v>
@@ -4010,16 +4052,16 @@
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>112</v>
+        <v>375</v>
       </c>
       <c r="B130" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C130" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="E130" s="3" t="s">
         <v>58</v>
@@ -4027,16 +4069,16 @@
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="B131" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C131" s="3">
         <v>300</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="E131" s="3" t="s">
         <v>58</v>
@@ -4044,7 +4086,7 @@
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="B132" s="3">
         <v>1</v>
@@ -4053,7 +4095,7 @@
         <v>300</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="E132" s="3" t="s">
         <v>58</v>
@@ -4061,135 +4103,135 @@
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="B133" s="3">
         <v>1</v>
       </c>
       <c r="C133" s="3">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>272</v>
+        <v>247</v>
       </c>
       <c r="E133" s="3" t="s">
-        <v>116</v>
+        <v>58</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>312</v>
+        <v>109</v>
       </c>
       <c r="B134" s="3">
         <v>1</v>
       </c>
       <c r="C134" s="3">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>330</v>
+        <v>248</v>
       </c>
       <c r="E134" s="3" t="s">
-        <v>116</v>
+        <v>58</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>313</v>
+        <v>110</v>
       </c>
       <c r="B135" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C135" s="3">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>331</v>
+        <v>249</v>
       </c>
       <c r="E135" s="3" t="s">
-        <v>116</v>
+        <v>58</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>314</v>
+        <v>111</v>
       </c>
       <c r="B136" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C136" s="3">
-        <v>260</v>
+        <v>300</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>332</v>
+        <v>250</v>
       </c>
       <c r="E136" s="3" t="s">
-        <v>116</v>
+        <v>58</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>315</v>
+        <v>112</v>
       </c>
       <c r="B137" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C137" s="3">
-        <v>260</v>
+        <v>500</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>333</v>
+        <v>251</v>
       </c>
       <c r="E137" s="3" t="s">
-        <v>116</v>
+        <v>58</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B138" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C138" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>161</v>
+        <v>252</v>
       </c>
       <c r="E138" s="3" t="s">
-        <v>116</v>
+        <v>58</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>316</v>
+        <v>114</v>
       </c>
       <c r="B139" s="3">
         <v>1</v>
       </c>
       <c r="C139" s="3">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>334</v>
+        <v>253</v>
       </c>
       <c r="E139" s="3" t="s">
-        <v>116</v>
+        <v>58</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B140" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C140" s="3">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
       <c r="E140" s="3" t="s">
         <v>116</v>
@@ -4197,16 +4239,16 @@
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
-        <v>119</v>
+        <v>312</v>
       </c>
       <c r="B141" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C141" s="3">
-        <v>220</v>
+        <v>280</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>310</v>
+        <v>330</v>
       </c>
       <c r="E141" s="3" t="s">
         <v>116</v>
@@ -4214,16 +4256,16 @@
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
-        <v>120</v>
+        <v>313</v>
       </c>
       <c r="B142" s="3">
         <v>1</v>
       </c>
       <c r="C142" s="3">
-        <v>220</v>
+        <v>280</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>304</v>
+        <v>331</v>
       </c>
       <c r="E142" s="3" t="s">
         <v>116</v>
@@ -4231,16 +4273,16 @@
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
-        <v>121</v>
+        <v>314</v>
       </c>
       <c r="B143" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C143" s="3">
-        <v>220</v>
+        <v>260</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>305</v>
+        <v>332</v>
       </c>
       <c r="E143" s="3" t="s">
         <v>116</v>
@@ -4248,16 +4290,16 @@
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
-        <v>122</v>
+        <v>315</v>
       </c>
       <c r="B144" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C144" s="3">
-        <v>220</v>
+        <v>260</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>306</v>
+        <v>333</v>
       </c>
       <c r="E144" s="3" t="s">
         <v>116</v>
@@ -4265,16 +4307,16 @@
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="B145" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C145" s="3">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>307</v>
+        <v>161</v>
       </c>
       <c r="E145" s="3" t="s">
         <v>116</v>
@@ -4282,16 +4324,16 @@
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
-        <v>274</v>
+        <v>316</v>
       </c>
       <c r="B146" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C146" s="3">
-        <v>220</v>
+        <v>280</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>273</v>
+        <v>334</v>
       </c>
       <c r="E146" s="3" t="s">
         <v>116</v>
@@ -4299,16 +4341,16 @@
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
-        <v>275</v>
+        <v>118</v>
       </c>
       <c r="B147" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C147" s="3">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>276</v>
+        <v>303</v>
       </c>
       <c r="E147" s="3" t="s">
         <v>116</v>
@@ -4316,16 +4358,16 @@
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
-        <v>278</v>
+        <v>119</v>
       </c>
       <c r="B148" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C148" s="3">
         <v>220</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>277</v>
+        <v>310</v>
       </c>
       <c r="E148" s="3" t="s">
         <v>116</v>
@@ -4333,16 +4375,16 @@
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B149" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C149" s="3">
         <v>220</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="E149" s="3" t="s">
         <v>116</v>
@@ -4350,16 +4392,16 @@
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
-        <v>279</v>
+        <v>121</v>
       </c>
       <c r="B150" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C150" s="3">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>280</v>
+        <v>305</v>
       </c>
       <c r="E150" s="3" t="s">
         <v>116</v>
@@ -4367,16 +4409,16 @@
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B151" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C151" s="3">
         <v>220</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="E151" s="3" t="s">
         <v>116</v>
@@ -4384,16 +4426,16 @@
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B152" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C152" s="3">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>161</v>
+        <v>307</v>
       </c>
       <c r="E152" s="3" t="s">
         <v>116</v>
@@ -4401,16 +4443,16 @@
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
-        <v>127</v>
+        <v>274</v>
       </c>
       <c r="B153" s="3">
         <v>2</v>
       </c>
       <c r="C153" s="3">
-        <v>350</v>
+        <v>220</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>297</v>
+        <v>273</v>
       </c>
       <c r="E153" s="3" t="s">
         <v>116</v>
@@ -4418,16 +4460,16 @@
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
-        <v>128</v>
+        <v>275</v>
       </c>
       <c r="B154" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C154" s="3">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>298</v>
+        <v>276</v>
       </c>
       <c r="E154" s="3" t="s">
         <v>116</v>
@@ -4435,16 +4477,16 @@
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
-        <v>129</v>
+        <v>278</v>
       </c>
       <c r="B155" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C155" s="3">
-        <v>350</v>
+        <v>220</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>299</v>
+        <v>277</v>
       </c>
       <c r="E155" s="3" t="s">
         <v>116</v>
@@ -4452,16 +4494,16 @@
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="B156" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C156" s="3">
-        <v>350</v>
+        <v>220</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>300</v>
+        <v>309</v>
       </c>
       <c r="E156" s="3" t="s">
         <v>116</v>
@@ -4469,16 +4511,16 @@
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
-        <v>131</v>
+        <v>279</v>
       </c>
       <c r="B157" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C157" s="3">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>301</v>
+        <v>280</v>
       </c>
       <c r="E157" s="3" t="s">
         <v>116</v>
@@ -4486,16 +4528,16 @@
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="B158" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C158" s="3">
-        <v>350</v>
+        <v>220</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="E158" s="3" t="s">
         <v>116</v>
@@ -4503,16 +4545,16 @@
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="B159" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C159" s="3">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>311</v>
+        <v>161</v>
       </c>
       <c r="E159" s="3" t="s">
         <v>116</v>
@@ -4520,126 +4562,126 @@
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="B160" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C160" s="3">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>254</v>
+        <v>297</v>
       </c>
       <c r="E160" s="3" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="B161" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C161" s="3">
-        <v>460</v>
+        <v>350</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>161</v>
+        <v>298</v>
       </c>
       <c r="E161" s="3" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="B162" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C162" s="3">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>255</v>
+        <v>299</v>
       </c>
       <c r="E162" s="3" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="B163" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C163" s="3">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>256</v>
+        <v>300</v>
       </c>
       <c r="E163" s="3" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="B164" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C164" s="3">
-        <v>240</v>
+        <v>350</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>161</v>
+        <v>301</v>
       </c>
       <c r="E164" s="3" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B165" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C165" s="3">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>336</v>
+        <v>302</v>
       </c>
       <c r="E165" s="3" t="s">
-        <v>141</v>
+        <v>116</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="B166" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C166" s="3">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>337</v>
+        <v>311</v>
       </c>
       <c r="E166" s="3" t="s">
-        <v>141</v>
+        <v>116</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="B167" s="3">
         <v>1</v>
@@ -4648,92 +4690,92 @@
         <v>250</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>338</v>
+        <v>254</v>
       </c>
       <c r="E167" s="3" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="B168" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C168" s="3">
-        <v>250</v>
+        <v>460</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>339</v>
+        <v>161</v>
       </c>
       <c r="E168" s="3" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="B169" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C169" s="3">
         <v>250</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>340</v>
+        <v>255</v>
       </c>
       <c r="E169" s="3" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="B170" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C170" s="3">
         <v>250</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>341</v>
+        <v>256</v>
       </c>
       <c r="E170" s="3" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="B171" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C171" s="3">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>342</v>
+        <v>161</v>
       </c>
       <c r="E171" s="3" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="B172" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C172" s="3">
         <v>250</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>161</v>
+        <v>336</v>
       </c>
       <c r="E172" s="3" t="s">
         <v>141</v>
@@ -4741,16 +4783,16 @@
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="B173" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C173" s="3">
         <v>250</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="E173" s="3" t="s">
         <v>141</v>
@@ -4758,16 +4800,16 @@
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="B174" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C174" s="3">
         <v>250</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>161</v>
+        <v>338</v>
       </c>
       <c r="E174" s="3" t="s">
         <v>141</v>
@@ -4775,7 +4817,7 @@
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="B175" s="3">
         <v>1</v>
@@ -4784,7 +4826,7 @@
         <v>250</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="E175" s="3" t="s">
         <v>141</v>
@@ -4792,7 +4834,7 @@
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="B176" s="3">
         <v>2</v>
@@ -4801,7 +4843,7 @@
         <v>250</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="E176" s="3" t="s">
         <v>141</v>
@@ -4809,16 +4851,16 @@
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="B177" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C177" s="3">
         <v>250</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="E177" s="3" t="s">
         <v>141</v>
@@ -4826,16 +4868,16 @@
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="B178" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C178" s="3">
         <v>250</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="E178" s="3" t="s">
         <v>141</v>
@@ -4843,7 +4885,7 @@
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="B179" s="3">
         <v>0</v>
@@ -4860,16 +4902,16 @@
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="B180" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C180" s="3">
         <v>250</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>161</v>
+        <v>343</v>
       </c>
       <c r="E180" s="3" t="s">
         <v>141</v>
@@ -4877,135 +4919,135 @@
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="B181" s="5">
-        <v>6</v>
+        <v>150</v>
+      </c>
+      <c r="B181" s="3">
+        <v>0</v>
       </c>
       <c r="C181" s="3">
         <v>250</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="E181" s="6" t="s">
-        <v>206</v>
+        <v>161</v>
+      </c>
+      <c r="E181" s="3" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A182" t="s">
-        <v>200</v>
-      </c>
-      <c r="B182" s="5">
+      <c r="A182" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B182" s="3">
         <v>1</v>
       </c>
       <c r="C182" s="3">
         <v>250</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="E182" s="6" t="s">
-        <v>206</v>
+        <v>344</v>
+      </c>
+      <c r="E182" s="3" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A183" t="s">
-        <v>201</v>
-      </c>
-      <c r="B183" s="5">
-        <v>1</v>
-      </c>
-      <c r="C183" s="6">
-        <v>220</v>
+      <c r="A183" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B183" s="3">
+        <v>2</v>
+      </c>
+      <c r="C183" s="3">
+        <v>250</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="E183" s="6" t="s">
-        <v>413</v>
+        <v>345</v>
+      </c>
+      <c r="E183" s="3" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A184" t="s">
-        <v>326</v>
-      </c>
-      <c r="B184" s="5">
+      <c r="A184" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B184" s="3">
+        <v>1</v>
+      </c>
+      <c r="C184" s="3">
+        <v>250</v>
+      </c>
+      <c r="D184" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="E184" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A185" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B185" s="3">
+        <v>2</v>
+      </c>
+      <c r="C185" s="3">
+        <v>250</v>
+      </c>
+      <c r="D185" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="E185" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A186" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B186" s="3">
         <v>0</v>
       </c>
-      <c r="C184" s="6">
-        <v>220</v>
-      </c>
-      <c r="D184" s="2" t="s">
+      <c r="C186" s="3">
+        <v>250</v>
+      </c>
+      <c r="D186" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="E184" s="6" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A185" t="s">
-        <v>202</v>
-      </c>
-      <c r="B185" s="5">
-        <v>2</v>
-      </c>
-      <c r="C185" s="6">
-        <v>220</v>
-      </c>
-      <c r="D185" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="E185" s="6" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A186" t="s">
-        <v>203</v>
-      </c>
-      <c r="B186" s="5">
-        <v>1</v>
-      </c>
-      <c r="C186" s="6">
-        <v>220</v>
-      </c>
-      <c r="D186" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="E186" s="6" t="s">
-        <v>413</v>
+      <c r="E186" s="3" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A187" t="s">
-        <v>204</v>
-      </c>
-      <c r="B187" s="5">
-        <v>1</v>
-      </c>
-      <c r="C187" s="6">
-        <v>220</v>
+      <c r="A187" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B187" s="3">
+        <v>0</v>
+      </c>
+      <c r="C187" s="3">
+        <v>250</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="E187" s="6" t="s">
-        <v>413</v>
+        <v>161</v>
+      </c>
+      <c r="E187" s="3" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A188" t="s">
-        <v>205</v>
+      <c r="A188" s="1" t="s">
+        <v>199</v>
       </c>
       <c r="B188" s="5">
-        <v>5</v>
-      </c>
-      <c r="C188" s="6">
-        <v>350</v>
+        <v>6</v>
+      </c>
+      <c r="C188" s="3">
+        <v>250</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E188" s="6" t="s">
         <v>206</v>
@@ -5013,135 +5055,135 @@
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>353</v>
+        <v>200</v>
       </c>
       <c r="B189" s="5">
-        <v>10</v>
-      </c>
-      <c r="C189" s="6">
+        <v>1</v>
+      </c>
+      <c r="C189" s="3">
         <v>250</v>
       </c>
-      <c r="D189" s="4" t="s">
-        <v>357</v>
+      <c r="D189" s="2" t="s">
+        <v>327</v>
       </c>
       <c r="E189" s="6" t="s">
-        <v>356</v>
+        <v>206</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>354</v>
+        <v>201</v>
       </c>
       <c r="B190" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C190" s="6">
-        <v>250</v>
-      </c>
-      <c r="D190" s="4" t="s">
-        <v>358</v>
+        <v>220</v>
+      </c>
+      <c r="D190" s="2" t="s">
+        <v>328</v>
       </c>
       <c r="E190" s="6" t="s">
-        <v>356</v>
+        <v>413</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>355</v>
+        <v>326</v>
       </c>
       <c r="B191" s="5">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="C191" s="6">
-        <v>250</v>
-      </c>
-      <c r="D191" s="4" t="s">
-        <v>361</v>
+        <v>220</v>
+      </c>
+      <c r="D191" s="2" t="s">
+        <v>161</v>
       </c>
       <c r="E191" s="6" t="s">
-        <v>356</v>
+        <v>413</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>373</v>
+        <v>202</v>
       </c>
       <c r="B192" s="5">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C192" s="6">
-        <v>150</v>
-      </c>
-      <c r="D192" s="4" t="s">
-        <v>366</v>
+        <v>220</v>
+      </c>
+      <c r="D192" s="2" t="s">
+        <v>329</v>
       </c>
       <c r="E192" s="6" t="s">
-        <v>356</v>
+        <v>413</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>371</v>
+        <v>203</v>
       </c>
       <c r="B193" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C193" s="6">
-        <v>150</v>
-      </c>
-      <c r="D193" s="4" t="s">
-        <v>369</v>
+        <v>220</v>
+      </c>
+      <c r="D193" s="2" t="s">
+        <v>350</v>
       </c>
       <c r="E193" s="6" t="s">
-        <v>356</v>
+        <v>413</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>372</v>
+        <v>204</v>
       </c>
       <c r="B194" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C194" s="6">
-        <v>150</v>
-      </c>
-      <c r="D194" s="4" t="s">
-        <v>370</v>
+        <v>220</v>
+      </c>
+      <c r="D194" s="2" t="s">
+        <v>351</v>
       </c>
       <c r="E194" s="6" t="s">
-        <v>356</v>
+        <v>413</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>368</v>
+        <v>205</v>
       </c>
       <c r="B195" s="5">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C195" s="6">
-        <v>550</v>
-      </c>
-      <c r="D195" s="4" t="s">
-        <v>367</v>
+        <v>350</v>
+      </c>
+      <c r="D195" s="2" t="s">
+        <v>258</v>
       </c>
       <c r="E195" s="6" t="s">
-        <v>356</v>
+        <v>206</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>414</v>
+        <v>353</v>
       </c>
       <c r="B196" s="5">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C196" s="6">
-        <v>650</v>
+        <v>250</v>
       </c>
       <c r="D196" s="4" t="s">
-        <v>415</v>
+        <v>357</v>
       </c>
       <c r="E196" s="6" t="s">
         <v>356</v>
@@ -5149,75 +5191,75 @@
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="B197" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C197" s="6">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="D197" s="4" t="s">
-        <v>161</v>
+        <v>358</v>
       </c>
       <c r="E197" s="6" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="B198" s="5">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="C198" s="6">
-        <v>800</v>
+        <v>250</v>
       </c>
       <c r="D198" s="4" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E198" s="6" t="s">
-        <v>206</v>
+        <v>356</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="B199" s="5">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C199" s="6">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="D199" s="4" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="E199" s="6" t="s">
-        <v>206</v>
+        <v>356</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="B200" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C200" s="6">
         <v>150</v>
       </c>
       <c r="D200" s="4" t="s">
-        <v>383</v>
+        <v>369</v>
       </c>
       <c r="E200" s="6" t="s">
-        <v>381</v>
+        <v>356</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="B201" s="5">
         <v>2</v>
@@ -5226,109 +5268,109 @@
         <v>150</v>
       </c>
       <c r="D201" s="4" t="s">
-        <v>384</v>
+        <v>370</v>
       </c>
       <c r="E201" s="6" t="s">
-        <v>381</v>
+        <v>356</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="B202" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C202" s="6">
-        <v>150</v>
+        <v>550</v>
       </c>
       <c r="D202" s="4" t="s">
-        <v>385</v>
+        <v>367</v>
       </c>
       <c r="E202" s="6" t="s">
-        <v>381</v>
+        <v>356</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>379</v>
+        <v>414</v>
       </c>
       <c r="B203" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C203" s="6">
-        <v>150</v>
+        <v>650</v>
       </c>
       <c r="D203" s="4" t="s">
-        <v>402</v>
+        <v>415</v>
       </c>
       <c r="E203" s="6" t="s">
-        <v>381</v>
+        <v>356</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>380</v>
+        <v>359</v>
       </c>
       <c r="B204" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C204" s="6">
-        <v>30</v>
+        <v>300</v>
       </c>
       <c r="D204" s="4" t="s">
-        <v>386</v>
+        <v>161</v>
       </c>
       <c r="E204" s="6" t="s">
-        <v>381</v>
+        <v>360</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>382</v>
+        <v>364</v>
       </c>
       <c r="B205" s="5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C205" s="6">
-        <v>550</v>
+        <v>800</v>
       </c>
       <c r="D205" s="4" t="s">
-        <v>387</v>
+        <v>362</v>
       </c>
       <c r="E205" s="6" t="s">
-        <v>381</v>
+        <v>206</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>388</v>
+        <v>365</v>
       </c>
       <c r="B206" s="5">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C206" s="6">
-        <v>550</v>
+        <v>200</v>
       </c>
       <c r="D206" s="4" t="s">
-        <v>389</v>
+        <v>363</v>
       </c>
       <c r="E206" s="6" t="s">
-        <v>381</v>
+        <v>206</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>390</v>
+        <v>376</v>
       </c>
       <c r="B207" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C207" s="6">
-        <v>550</v>
+        <v>150</v>
       </c>
       <c r="D207" s="4" t="s">
-        <v>396</v>
+        <v>383</v>
       </c>
       <c r="E207" s="6" t="s">
         <v>381</v>
@@ -5336,16 +5378,16 @@
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>391</v>
+        <v>377</v>
       </c>
       <c r="B208" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C208" s="6">
-        <v>550</v>
+        <v>150</v>
       </c>
       <c r="D208" s="4" t="s">
-        <v>397</v>
+        <v>384</v>
       </c>
       <c r="E208" s="6" t="s">
         <v>381</v>
@@ -5353,16 +5395,16 @@
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>392</v>
+        <v>378</v>
       </c>
       <c r="B209" s="5">
         <v>1</v>
       </c>
       <c r="C209" s="6">
-        <v>550</v>
+        <v>150</v>
       </c>
       <c r="D209" s="4" t="s">
-        <v>398</v>
+        <v>385</v>
       </c>
       <c r="E209" s="6" t="s">
         <v>381</v>
@@ -5370,16 +5412,16 @@
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>393</v>
+        <v>379</v>
       </c>
       <c r="B210" s="5">
         <v>1</v>
       </c>
       <c r="C210" s="6">
-        <v>550</v>
+        <v>150</v>
       </c>
       <c r="D210" s="4" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="E210" s="6" t="s">
         <v>381</v>
@@ -5387,16 +5429,16 @@
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>395</v>
+        <v>380</v>
       </c>
       <c r="B211" s="5">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C211" s="6">
-        <v>550</v>
+        <v>30</v>
       </c>
       <c r="D211" s="4" t="s">
-        <v>400</v>
+        <v>386</v>
       </c>
       <c r="E211" s="6" t="s">
         <v>381</v>
@@ -5404,7 +5446,7 @@
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>394</v>
+        <v>382</v>
       </c>
       <c r="B212" s="5">
         <v>1</v>
@@ -5413,7 +5455,7 @@
         <v>550</v>
       </c>
       <c r="D212" s="4" t="s">
-        <v>401</v>
+        <v>387</v>
       </c>
       <c r="E212" s="6" t="s">
         <v>381</v>
@@ -5421,69 +5463,188 @@
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>403</v>
+        <v>388</v>
       </c>
       <c r="B213" s="5">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C213" s="6">
-        <v>250</v>
+        <v>550</v>
       </c>
       <c r="D213" s="4" t="s">
-        <v>407</v>
+        <v>389</v>
       </c>
       <c r="E213" s="6" t="s">
-        <v>206</v>
+        <v>381</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>404</v>
+        <v>390</v>
       </c>
       <c r="B214" s="5">
         <v>1</v>
       </c>
       <c r="C214" s="6">
-        <v>250</v>
+        <v>550</v>
       </c>
       <c r="D214" s="4" t="s">
-        <v>408</v>
+        <v>396</v>
       </c>
       <c r="E214" s="6" t="s">
-        <v>206</v>
+        <v>381</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>405</v>
+        <v>391</v>
       </c>
       <c r="B215" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C215" s="6">
-        <v>250</v>
+        <v>550</v>
       </c>
       <c r="D215" s="4" t="s">
-        <v>409</v>
+        <v>397</v>
       </c>
       <c r="E215" s="6" t="s">
-        <v>206</v>
+        <v>381</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
+        <v>392</v>
+      </c>
+      <c r="B216" s="5">
+        <v>1</v>
+      </c>
+      <c r="C216" s="6">
+        <v>550</v>
+      </c>
+      <c r="D216" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="E216" s="6" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>393</v>
+      </c>
+      <c r="B217" s="5">
+        <v>1</v>
+      </c>
+      <c r="C217" s="6">
+        <v>550</v>
+      </c>
+      <c r="D217" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="E217" s="6" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>395</v>
+      </c>
+      <c r="B218" s="5">
+        <v>1</v>
+      </c>
+      <c r="C218" s="6">
+        <v>550</v>
+      </c>
+      <c r="D218" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="E218" s="6" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>394</v>
+      </c>
+      <c r="B219" s="5">
+        <v>1</v>
+      </c>
+      <c r="C219" s="6">
+        <v>550</v>
+      </c>
+      <c r="D219" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="E219" s="6" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>403</v>
+      </c>
+      <c r="B220" s="5">
+        <v>6</v>
+      </c>
+      <c r="C220" s="6">
+        <v>250</v>
+      </c>
+      <c r="D220" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="E220" s="6" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>404</v>
+      </c>
+      <c r="B221" s="5">
+        <v>1</v>
+      </c>
+      <c r="C221" s="6">
+        <v>250</v>
+      </c>
+      <c r="D221" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="E221" s="6" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>405</v>
+      </c>
+      <c r="B222" s="5">
+        <v>2</v>
+      </c>
+      <c r="C222" s="6">
+        <v>250</v>
+      </c>
+      <c r="D222" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="E222" s="6" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
         <v>406</v>
       </c>
-      <c r="B216" s="5">
-        <v>1</v>
-      </c>
-      <c r="C216" s="6">
+      <c r="B223" s="5">
+        <v>1</v>
+      </c>
+      <c r="C223" s="6">
         <v>250</v>
       </c>
-      <c r="D216" s="4" t="s">
+      <c r="D223" s="4" t="s">
         <v>410</v>
       </c>
-      <c r="E216" s="6" t="s">
+      <c r="E223" s="6" t="s">
         <v>206</v>
       </c>
     </row>

--- a/data/stock.xlsx
+++ b/data/stock.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\blocks\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98E70FD1-D00F-4DBA-857E-A72F7D6EEDB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44189D74-116D-4B5B-B48E-250CC441B1C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3240" yWindow="1260" windowWidth="21600" windowHeight="11250" xr2:uid="{FC0CBB84-858B-49F6-BA69-44D83C89F7C4}"/>
   </bookViews>
@@ -1846,7 +1846,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCDC9875-9E8E-485C-910E-47B83A1F9902}">
   <dimension ref="A1:E223"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="D62" sqref="D62"/>
     </sheetView>
   </sheetViews>

--- a/data/stock.xlsx
+++ b/data/stock.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\blocks\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44189D74-116D-4B5B-B48E-250CC441B1C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6F6E931-7BDD-42C3-A361-FA85E734CAEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3240" yWindow="1260" windowWidth="21600" windowHeight="11250" xr2:uid="{FC0CBB84-858B-49F6-BA69-44D83C89F7C4}"/>
   </bookViews>
@@ -1846,8 +1846,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCDC9875-9E8E-485C-910E-47B83A1F9902}">
   <dimension ref="A1:E223"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D62" sqref="D62"/>
+    <sheetView tabSelected="1" topLeftCell="A170" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A227" sqref="A227"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/stock.xlsx
+++ b/data/stock.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\blocks\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6F6E931-7BDD-42C3-A361-FA85E734CAEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B60A3569-F0FE-48EA-8860-629D9495601A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3240" yWindow="1260" windowWidth="21600" windowHeight="11250" xr2:uid="{FC0CBB84-858B-49F6-BA69-44D83C89F7C4}"/>
+    <workbookView xWindow="3240" yWindow="2265" windowWidth="21600" windowHeight="11250" xr2:uid="{FC0CBB84-858B-49F6-BA69-44D83C89F7C4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="431">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="432">
   <si>
     <t>Product</t>
   </si>
@@ -1327,6 +1327,9 @@
   </si>
   <si>
     <t>cyborg.jpg</t>
+  </si>
+  <si>
+    <t>Stickers, Pokemon</t>
   </si>
 </sst>
 </file>
@@ -1846,15 +1849,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCDC9875-9E8E-485C-910E-47B83A1F9902}">
   <dimension ref="A1:E223"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A170" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A227" sqref="A227"/>
+    <sheetView tabSelected="1" topLeftCell="A194" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E197" sqref="E197"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="38.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -5203,7 +5206,7 @@
         <v>358</v>
       </c>
       <c r="E197" s="6" t="s">
-        <v>356</v>
+        <v>431</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">

--- a/data/stock.xlsx
+++ b/data/stock.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\blocks\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B60A3569-F0FE-48EA-8860-629D9495601A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3056B8FD-A5AB-4717-92E8-C9C6D506B983}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3240" yWindow="2265" windowWidth="21600" windowHeight="11250" xr2:uid="{FC0CBB84-858B-49F6-BA69-44D83C89F7C4}"/>
   </bookViews>
@@ -1119,9 +1119,6 @@
     <t>DBZ</t>
   </si>
   <si>
-    <t>manga cover sticker.jpg</t>
-  </si>
-  <si>
     <t>display box.jpg</t>
   </si>
   <si>
@@ -1330,6 +1327,9 @@
   </si>
   <si>
     <t>Stickers, Pokemon</t>
+  </si>
+  <si>
+    <t>manga cover sticker2.jpg</t>
   </si>
 </sst>
 </file>
@@ -1849,8 +1849,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCDC9875-9E8E-485C-910E-47B83A1F9902}">
   <dimension ref="A1:E223"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A194" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E197" sqref="E197"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B197" sqref="B197"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2049,7 +2049,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B12" s="3">
         <v>3</v>
@@ -2058,7 +2058,7 @@
         <v>280</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>6</v>
@@ -2100,7 +2100,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B15" s="3">
         <v>1</v>
@@ -2109,7 +2109,7 @@
         <v>280</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>6</v>
@@ -2151,7 +2151,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B18" s="3">
         <v>2</v>
@@ -2160,7 +2160,7 @@
         <v>280</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>6</v>
@@ -2814,7 +2814,7 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B57" s="3">
         <v>1</v>
@@ -2823,7 +2823,7 @@
         <v>250</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>44</v>
@@ -2840,7 +2840,7 @@
         <v>150</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>44</v>
@@ -2848,7 +2848,7 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B59" s="3">
         <v>1</v>
@@ -2857,7 +2857,7 @@
         <v>250</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E59" s="3" t="s">
         <v>44</v>
@@ -2882,7 +2882,7 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B61" s="3">
         <v>1</v>
@@ -2891,7 +2891,7 @@
         <v>250</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E61" s="3" t="s">
         <v>44</v>
@@ -2899,7 +2899,7 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B62" s="3">
         <v>1</v>
@@ -2908,7 +2908,7 @@
         <v>250</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E62" s="3" t="s">
         <v>44</v>
@@ -2925,7 +2925,7 @@
         <v>180</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E63" s="3" t="s">
         <v>44</v>
@@ -2942,7 +2942,7 @@
         <v>180</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E64" s="3" t="s">
         <v>44</v>
@@ -3290,7 +3290,7 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B85" s="3">
         <v>1</v>
@@ -4055,7 +4055,7 @@
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B130" s="3">
         <v>1</v>
@@ -5087,7 +5087,7 @@
         <v>328</v>
       </c>
       <c r="E190" s="6" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
@@ -5104,7 +5104,7 @@
         <v>161</v>
       </c>
       <c r="E191" s="6" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
@@ -5121,7 +5121,7 @@
         <v>329</v>
       </c>
       <c r="E192" s="6" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
@@ -5138,7 +5138,7 @@
         <v>350</v>
       </c>
       <c r="E193" s="6" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
@@ -5155,7 +5155,7 @@
         <v>351</v>
       </c>
       <c r="E194" s="6" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
@@ -5197,7 +5197,7 @@
         <v>354</v>
       </c>
       <c r="B197" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C197" s="6">
         <v>250</v>
@@ -5206,7 +5206,7 @@
         <v>358</v>
       </c>
       <c r="E197" s="6" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">
@@ -5220,7 +5220,7 @@
         <v>250</v>
       </c>
       <c r="D198" s="4" t="s">
-        <v>361</v>
+        <v>431</v>
       </c>
       <c r="E198" s="6" t="s">
         <v>356</v>
@@ -5228,7 +5228,7 @@
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B199" s="5">
         <v>6</v>
@@ -5237,7 +5237,7 @@
         <v>150</v>
       </c>
       <c r="D199" s="4" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E199" s="6" t="s">
         <v>356</v>
@@ -5245,7 +5245,7 @@
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B200" s="5">
         <v>2</v>
@@ -5254,7 +5254,7 @@
         <v>150</v>
       </c>
       <c r="D200" s="4" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E200" s="6" t="s">
         <v>356</v>
@@ -5262,7 +5262,7 @@
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B201" s="5">
         <v>2</v>
@@ -5271,7 +5271,7 @@
         <v>150</v>
       </c>
       <c r="D201" s="4" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E201" s="6" t="s">
         <v>356</v>
@@ -5279,7 +5279,7 @@
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B202" s="5">
         <v>2</v>
@@ -5288,7 +5288,7 @@
         <v>550</v>
       </c>
       <c r="D202" s="4" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E202" s="6" t="s">
         <v>356</v>
@@ -5296,7 +5296,7 @@
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B203" s="5">
         <v>2</v>
@@ -5305,7 +5305,7 @@
         <v>650</v>
       </c>
       <c r="D203" s="4" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E203" s="6" t="s">
         <v>356</v>
@@ -5330,7 +5330,7 @@
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B205" s="5">
         <v>4</v>
@@ -5339,7 +5339,7 @@
         <v>800</v>
       </c>
       <c r="D205" s="4" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E205" s="6" t="s">
         <v>206</v>
@@ -5347,7 +5347,7 @@
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B206" s="5">
         <v>13</v>
@@ -5356,7 +5356,7 @@
         <v>200</v>
       </c>
       <c r="D206" s="4" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E206" s="6" t="s">
         <v>206</v>
@@ -5364,7 +5364,7 @@
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B207" s="5">
         <v>3</v>
@@ -5373,15 +5373,15 @@
         <v>150</v>
       </c>
       <c r="D207" s="4" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E207" s="6" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B208" s="5">
         <v>2</v>
@@ -5390,15 +5390,15 @@
         <v>150</v>
       </c>
       <c r="D208" s="4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E208" s="6" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B209" s="5">
         <v>1</v>
@@ -5407,15 +5407,15 @@
         <v>150</v>
       </c>
       <c r="D209" s="4" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E209" s="6" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B210" s="5">
         <v>1</v>
@@ -5424,15 +5424,15 @@
         <v>150</v>
       </c>
       <c r="D210" s="4" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E210" s="6" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B211" s="5">
         <v>10</v>
@@ -5441,15 +5441,15 @@
         <v>30</v>
       </c>
       <c r="D211" s="4" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E211" s="6" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B212" s="5">
         <v>1</v>
@@ -5458,15 +5458,15 @@
         <v>550</v>
       </c>
       <c r="D212" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E212" s="6" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B213" s="5">
         <v>1</v>
@@ -5475,15 +5475,15 @@
         <v>550</v>
       </c>
       <c r="D213" s="4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E213" s="6" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B214" s="5">
         <v>1</v>
@@ -5492,15 +5492,15 @@
         <v>550</v>
       </c>
       <c r="D214" s="4" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E214" s="6" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B215" s="5">
         <v>1</v>
@@ -5509,15 +5509,15 @@
         <v>550</v>
       </c>
       <c r="D215" s="4" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E215" s="6" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B216" s="5">
         <v>1</v>
@@ -5526,15 +5526,15 @@
         <v>550</v>
       </c>
       <c r="D216" s="4" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E216" s="6" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B217" s="5">
         <v>1</v>
@@ -5543,15 +5543,15 @@
         <v>550</v>
       </c>
       <c r="D217" s="4" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E217" s="6" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B218" s="5">
         <v>1</v>
@@ -5560,15 +5560,15 @@
         <v>550</v>
       </c>
       <c r="D218" s="4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E218" s="6" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B219" s="5">
         <v>1</v>
@@ -5577,15 +5577,15 @@
         <v>550</v>
       </c>
       <c r="D219" s="4" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E219" s="6" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B220" s="5">
         <v>6</v>
@@ -5594,7 +5594,7 @@
         <v>250</v>
       </c>
       <c r="D220" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E220" s="6" t="s">
         <v>206</v>
@@ -5602,7 +5602,7 @@
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B221" s="5">
         <v>1</v>
@@ -5611,7 +5611,7 @@
         <v>250</v>
       </c>
       <c r="D221" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E221" s="6" t="s">
         <v>206</v>
@@ -5619,7 +5619,7 @@
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B222" s="5">
         <v>2</v>
@@ -5628,7 +5628,7 @@
         <v>250</v>
       </c>
       <c r="D222" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E222" s="6" t="s">
         <v>206</v>
@@ -5636,7 +5636,7 @@
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B223" s="5">
         <v>1</v>
@@ -5645,7 +5645,7 @@
         <v>250</v>
       </c>
       <c r="D223" s="4" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E223" s="6" t="s">
         <v>206</v>

--- a/data/stock.xlsx
+++ b/data/stock.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\blocks\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3056B8FD-A5AB-4717-92E8-C9C6D506B983}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9375E4C-9E81-4BA2-8760-DAACFED94E6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3240" yWindow="2265" windowWidth="21600" windowHeight="11250" xr2:uid="{FC0CBB84-858B-49F6-BA69-44D83C89F7C4}"/>
   </bookViews>
@@ -1850,7 +1850,7 @@
   <dimension ref="A1:E223"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B197" sqref="B197"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/stock.xlsx
+++ b/data/stock.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\blocks\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9375E4C-9E81-4BA2-8760-DAACFED94E6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C78667DF-12B4-4E0A-9AA2-02528A21AB82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3240" yWindow="2265" windowWidth="21600" windowHeight="11250" xr2:uid="{FC0CBB84-858B-49F6-BA69-44D83C89F7C4}"/>
+    <workbookView xWindow="5010" yWindow="2055" windowWidth="21600" windowHeight="11250" xr2:uid="{FC0CBB84-858B-49F6-BA69-44D83C89F7C4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="432">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="791" uniqueCount="512">
   <si>
     <t>Product</t>
   </si>
@@ -1330,6 +1330,246 @@
   </si>
   <si>
     <t>manga cover sticker2.jpg</t>
+  </si>
+  <si>
+    <t>Loki Mischievious</t>
+  </si>
+  <si>
+    <t>Lord Loki</t>
+  </si>
+  <si>
+    <t>Daredevil</t>
+  </si>
+  <si>
+    <t>Punisher</t>
+  </si>
+  <si>
+    <t>Deadpool gold gun v2</t>
+  </si>
+  <si>
+    <t>Thor endgame MCU</t>
+  </si>
+  <si>
+    <t>Loki (God ofStories)</t>
+  </si>
+  <si>
+    <t>Loki TVA Varient</t>
+  </si>
+  <si>
+    <t>Ironman Pulse Hands</t>
+  </si>
+  <si>
+    <t>Kraven The Hunter</t>
+  </si>
+  <si>
+    <t>Spiderman (Symbiote Suit)</t>
+  </si>
+  <si>
+    <t>Spiderman (Anti-venom Suit)</t>
+  </si>
+  <si>
+    <t>deadpool gold gun v2.jpg</t>
+  </si>
+  <si>
+    <t>loki gos.jpg</t>
+  </si>
+  <si>
+    <t>loki tva.jpg</t>
+  </si>
+  <si>
+    <t>punisher.jpg</t>
+  </si>
+  <si>
+    <t>loki mis.jpg</t>
+  </si>
+  <si>
+    <t>loki lord.jpg</t>
+  </si>
+  <si>
+    <t>ironman hand.jpg</t>
+  </si>
+  <si>
+    <t>daredevil.jpg</t>
+  </si>
+  <si>
+    <t>symbiote suit.jpg</t>
+  </si>
+  <si>
+    <t>anti venom.jpg</t>
+  </si>
+  <si>
+    <t>thor endgame mcu.jpg</t>
+  </si>
+  <si>
+    <t>Alfred</t>
+  </si>
+  <si>
+    <t>Catwoman</t>
+  </si>
+  <si>
+    <t>Joker (Lego Movie)</t>
+  </si>
+  <si>
+    <t>Batman (Lego Movie)</t>
+  </si>
+  <si>
+    <t>Harley (Lego Movie)</t>
+  </si>
+  <si>
+    <t>Batman (Batman Begins)</t>
+  </si>
+  <si>
+    <t>Batman (Dark Knight Rises)</t>
+  </si>
+  <si>
+    <t>alfred.jpg</t>
+  </si>
+  <si>
+    <t>catwoman.jpg</t>
+  </si>
+  <si>
+    <t>batman begins.jpg</t>
+  </si>
+  <si>
+    <t>batman rises.jpg</t>
+  </si>
+  <si>
+    <t>batman lego.jpg</t>
+  </si>
+  <si>
+    <t>joker lego.jpg</t>
+  </si>
+  <si>
+    <t>harley lego.jpg</t>
+  </si>
+  <si>
+    <t>Darth Vader</t>
+  </si>
+  <si>
+    <t>Mandalorian</t>
+  </si>
+  <si>
+    <t>Baby Yoda</t>
+  </si>
+  <si>
+    <t>Boba Fett</t>
+  </si>
+  <si>
+    <t>Ashoka</t>
+  </si>
+  <si>
+    <t>Luke Skywalker</t>
+  </si>
+  <si>
+    <t>Battle-Droid</t>
+  </si>
+  <si>
+    <t>Star Wars</t>
+  </si>
+  <si>
+    <t>darth vader.jpg</t>
+  </si>
+  <si>
+    <t>boba fett.jpg</t>
+  </si>
+  <si>
+    <t>ashoka.jpg</t>
+  </si>
+  <si>
+    <t>manda.jpg</t>
+  </si>
+  <si>
+    <t>yoda.jpg</t>
+  </si>
+  <si>
+    <t>luke.jpg</t>
+  </si>
+  <si>
+    <t>bdroid.jpg</t>
+  </si>
+  <si>
+    <t>Luffy Marineford</t>
+  </si>
+  <si>
+    <t>Ace Marineford</t>
+  </si>
+  <si>
+    <t>Ace Full Power</t>
+  </si>
+  <si>
+    <t>luffy marineford.jpg</t>
+  </si>
+  <si>
+    <t>ace marineford.jpg</t>
+  </si>
+  <si>
+    <t>ace full fire.jpg</t>
+  </si>
+  <si>
+    <t>Might Guy(8th gate)</t>
+  </si>
+  <si>
+    <t>Tobirama</t>
+  </si>
+  <si>
+    <t>Naruto Kurama mode</t>
+  </si>
+  <si>
+    <t>Rin (Kid)</t>
+  </si>
+  <si>
+    <t>Obito (kid)</t>
+  </si>
+  <si>
+    <t>Kakashi (Kid)</t>
+  </si>
+  <si>
+    <t>Kakashi (Jonin)</t>
+  </si>
+  <si>
+    <t>Itachi (Anbu)</t>
+  </si>
+  <si>
+    <t>Madara six path v2</t>
+  </si>
+  <si>
+    <t>Kakashi (Anbu)</t>
+  </si>
+  <si>
+    <t>guy.jpg</t>
+  </si>
+  <si>
+    <t>tobirama.jpg</t>
+  </si>
+  <si>
+    <t>itachi anbu.jpg</t>
+  </si>
+  <si>
+    <t>kakashi jonin.jpg</t>
+  </si>
+  <si>
+    <t>kakashi anbu.jpg</t>
+  </si>
+  <si>
+    <t>kakashi kid.jpg</t>
+  </si>
+  <si>
+    <t>madara six path kdl.jpg</t>
+  </si>
+  <si>
+    <t>minato kdl.jpg</t>
+  </si>
+  <si>
+    <t>naruto kurama.jpg</t>
+  </si>
+  <si>
+    <t>obito kid.jpg</t>
+  </si>
+  <si>
+    <t>tsunade.jpg</t>
+  </si>
+  <si>
+    <t>rin kid.jpg</t>
   </si>
 </sst>
 </file>
@@ -1385,7 +1625,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -1402,6 +1642,10 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1847,10 +2091,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCDC9875-9E8E-485C-910E-47B83A1F9902}">
-  <dimension ref="A1:E223"/>
+  <dimension ref="A1:E263"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="A186" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D189" sqref="D189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2021,7 +2265,7 @@
         <v>2</v>
       </c>
       <c r="C10" s="3">
-        <v>280</v>
+        <v>250</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>291</v>
@@ -2038,7 +2282,7 @@
         <v>2</v>
       </c>
       <c r="C11" s="3">
-        <v>280</v>
+        <v>250</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>292</v>
@@ -2055,7 +2299,7 @@
         <v>3</v>
       </c>
       <c r="C12" s="3">
-        <v>280</v>
+        <v>250</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>418</v>
@@ -2072,7 +2316,7 @@
         <v>2</v>
       </c>
       <c r="C13" s="3">
-        <v>280</v>
+        <v>250</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>294</v>
@@ -2089,7 +2333,7 @@
         <v>2</v>
       </c>
       <c r="C14" s="3">
-        <v>280</v>
+        <v>250</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>295</v>
@@ -2106,7 +2350,7 @@
         <v>1</v>
       </c>
       <c r="C15" s="3">
-        <v>280</v>
+        <v>250</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>417</v>
@@ -2123,7 +2367,7 @@
         <v>1</v>
       </c>
       <c r="C16" s="3">
-        <v>280</v>
+        <v>250</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>293</v>
@@ -2140,7 +2384,7 @@
         <v>1</v>
       </c>
       <c r="C17" s="3">
-        <v>280</v>
+        <v>250</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>296</v>
@@ -2157,7 +2401,7 @@
         <v>2</v>
       </c>
       <c r="C18" s="3">
-        <v>280</v>
+        <v>250</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>421</v>
@@ -2443,7 +2687,7 @@
         <v>30</v>
       </c>
       <c r="B35" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C35" s="3">
         <v>180</v>
@@ -2610,16 +2854,16 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>40</v>
+        <v>436</v>
       </c>
       <c r="B45" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C45" s="3">
-        <v>850</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>167</v>
+        <v>250</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>444</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>6</v>
@@ -2627,16 +2871,16 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>317</v>
+        <v>40</v>
       </c>
       <c r="B46" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C46" s="3">
-        <v>250</v>
+        <v>850</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>195</v>
+        <v>167</v>
       </c>
       <c r="E46" s="3" t="s">
         <v>6</v>
@@ -2644,7 +2888,7 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B47" s="3">
         <v>2</v>
@@ -2653,7 +2897,7 @@
         <v>250</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>233</v>
+        <v>195</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>6</v>
@@ -2661,7 +2905,7 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>41</v>
+        <v>318</v>
       </c>
       <c r="B48" s="3">
         <v>2</v>
@@ -2670,7 +2914,7 @@
         <v>250</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>6</v>
@@ -2678,7 +2922,7 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B49" s="3">
         <v>2</v>
@@ -2687,7 +2931,7 @@
         <v>250</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>6</v>
@@ -2695,16 +2939,16 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>320</v>
+        <v>42</v>
       </c>
       <c r="B50" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C50" s="3">
         <v>250</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>165</v>
+        <v>235</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>6</v>
@@ -2712,7 +2956,7 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B51" s="3">
         <v>1</v>
@@ -2721,7 +2965,7 @@
         <v>250</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>221</v>
+        <v>165</v>
       </c>
       <c r="E51" s="3" t="s">
         <v>6</v>
@@ -2729,7 +2973,7 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B52" s="3">
         <v>1</v>
@@ -2738,7 +2982,7 @@
         <v>250</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>196</v>
+        <v>221</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>6</v>
@@ -2746,16 +2990,16 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B53" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C53" s="3">
-        <v>360</v>
+        <v>250</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>267</v>
+        <v>196</v>
       </c>
       <c r="E53" s="3" t="s">
         <v>6</v>
@@ -2763,16 +3007,16 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B54" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C54" s="3">
         <v>360</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>6</v>
@@ -2780,16 +3024,16 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>236</v>
+        <v>323</v>
       </c>
       <c r="B55" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C55" s="3">
-        <v>200</v>
+        <v>360</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>237</v>
+        <v>268</v>
       </c>
       <c r="E55" s="3" t="s">
         <v>6</v>
@@ -2797,220 +3041,220 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>47</v>
+        <v>236</v>
       </c>
       <c r="B56" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C56" s="3">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>44</v>
+        <v>6</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
-        <v>424</v>
+      <c r="A57" s="7" t="s">
+        <v>438</v>
       </c>
       <c r="B57" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C57" s="3">
-        <v>250</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>425</v>
+        <v>260</v>
+      </c>
+      <c r="D57" s="8" t="s">
+        <v>445</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>44</v>
+        <v>6</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
-        <v>43</v>
+      <c r="A58" s="7" t="s">
+        <v>439</v>
       </c>
       <c r="B58" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C58" s="3">
-        <v>150</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>415</v>
+        <v>260</v>
+      </c>
+      <c r="D58" s="8" t="s">
+        <v>446</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>44</v>
+        <v>6</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="B59" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C59" s="3">
-        <v>250</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>423</v>
+        <v>260</v>
+      </c>
+      <c r="D59" s="8" t="s">
+        <v>448</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>44</v>
+        <v>6</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>48</v>
+        <v>433</v>
       </c>
       <c r="B60" s="3">
+        <v>4</v>
+      </c>
+      <c r="C60" s="3">
+        <v>260</v>
+      </c>
+      <c r="D60" s="8" t="s">
+        <v>449</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="B61" s="3">
+        <v>1</v>
+      </c>
+      <c r="C61" s="3">
+        <v>220</v>
+      </c>
+      <c r="D61" s="8" t="s">
+        <v>450</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="B62" s="3">
         <v>0</v>
       </c>
-      <c r="C60" s="3">
-        <v>180</v>
-      </c>
-      <c r="D60" s="2" t="s">
+      <c r="C62" s="3">
+        <v>250</v>
+      </c>
+      <c r="D62" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="E60" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="B61" s="3">
-        <v>1</v>
-      </c>
-      <c r="C61" s="3">
-        <v>250</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>428</v>
-      </c>
-      <c r="E61" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="B62" s="3">
-        <v>1</v>
-      </c>
-      <c r="C62" s="3">
-        <v>250</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>429</v>
-      </c>
       <c r="E62" s="3" t="s">
-        <v>44</v>
+        <v>6</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>324</v>
+        <v>434</v>
       </c>
       <c r="B63" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C63" s="3">
-        <v>180</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>410</v>
+        <v>250</v>
+      </c>
+      <c r="D63" s="8" t="s">
+        <v>451</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>44</v>
+        <v>6</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="s">
-        <v>325</v>
+      <c r="A64" s="7" t="s">
+        <v>442</v>
       </c>
       <c r="B64" s="3">
         <v>1</v>
       </c>
       <c r="C64" s="3">
-        <v>180</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>411</v>
+        <v>250</v>
+      </c>
+      <c r="D64" s="8" t="s">
+        <v>452</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>44</v>
+        <v>6</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>46</v>
+        <v>435</v>
       </c>
       <c r="B65" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C65" s="3">
-        <v>300</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>239</v>
+        <v>250</v>
+      </c>
+      <c r="D65" s="8" t="s">
+        <v>447</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>44</v>
+        <v>6</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="s">
-        <v>45</v>
+      <c r="A66" s="7" t="s">
+        <v>443</v>
       </c>
       <c r="B66" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C66" s="3">
-        <v>300</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>240</v>
+        <v>250</v>
+      </c>
+      <c r="D66" s="8" t="s">
+        <v>453</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>44</v>
+        <v>6</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>49</v>
+        <v>437</v>
       </c>
       <c r="B67" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C67" s="3">
-        <v>350</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
+      </c>
+      <c r="D67" s="8" t="s">
+        <v>454</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>44</v>
+        <v>6</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B68" s="3">
         <v>3</v>
       </c>
       <c r="C68" s="3">
-        <v>350</v>
+        <v>180</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>223</v>
+        <v>238</v>
       </c>
       <c r="E68" s="3" t="s">
         <v>44</v>
@@ -3018,16 +3262,16 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>51</v>
+        <v>424</v>
       </c>
       <c r="B69" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C69" s="3">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>224</v>
+        <v>425</v>
       </c>
       <c r="E69" s="3" t="s">
         <v>44</v>
@@ -3035,16 +3279,16 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="B70" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C70" s="3">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>209</v>
+        <v>415</v>
       </c>
       <c r="E70" s="3" t="s">
         <v>44</v>
@@ -3052,16 +3296,16 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>53</v>
+        <v>422</v>
       </c>
       <c r="B71" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C71" s="3">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>210</v>
+        <v>423</v>
       </c>
       <c r="E71" s="3" t="s">
         <v>44</v>
@@ -3069,16 +3313,16 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B72" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C72" s="3">
-        <v>350</v>
+        <v>180</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>211</v>
+        <v>161</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>44</v>
@@ -3086,16 +3330,16 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>55</v>
+        <v>426</v>
       </c>
       <c r="B73" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C73" s="3">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>207</v>
+        <v>428</v>
       </c>
       <c r="E73" s="3" t="s">
         <v>44</v>
@@ -3103,16 +3347,16 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>56</v>
+        <v>427</v>
       </c>
       <c r="B74" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C74" s="3">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>208</v>
+        <v>429</v>
       </c>
       <c r="E74" s="3" t="s">
         <v>44</v>
@@ -3120,58 +3364,58 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>57</v>
+        <v>324</v>
       </c>
       <c r="B75" s="3">
         <v>1</v>
       </c>
       <c r="C75" s="3">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>212</v>
+        <v>410</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>174</v>
+        <v>325</v>
       </c>
       <c r="B76" s="3">
         <v>1</v>
       </c>
       <c r="C76" s="3">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>175</v>
+        <v>411</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="B77" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C77" s="3">
         <v>300</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>213</v>
+        <v>239</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="B78" s="3">
         <v>0</v>
@@ -3180,279 +3424,279 @@
         <v>300</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>161</v>
+        <v>240</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="B79" s="3">
         <v>1</v>
       </c>
       <c r="C79" s="3">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>171</v>
+        <v>222</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="B80" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C80" s="3">
-        <v>270</v>
+        <v>350</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>161</v>
+        <v>223</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="B81" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C81" s="3">
-        <v>270</v>
+        <v>500</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>169</v>
+        <v>224</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" s="1" t="s">
-        <v>64</v>
+      <c r="A82" s="7" t="s">
+        <v>457</v>
       </c>
       <c r="B82" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C82" s="3">
-        <v>300</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>170</v>
+        <v>220</v>
+      </c>
+      <c r="D82" s="8" t="s">
+        <v>467</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" s="1" t="s">
-        <v>65</v>
+      <c r="A83" s="7" t="s">
+        <v>458</v>
       </c>
       <c r="B83" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C83" s="3">
-        <v>300</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>161</v>
+        <v>220</v>
+      </c>
+      <c r="D83" s="8" t="s">
+        <v>466</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B84" s="3">
-        <v>1</v>
-      </c>
-      <c r="C84" s="3">
-        <v>300</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>198</v>
+      <c r="A84" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="B84" s="6">
+        <v>1</v>
+      </c>
+      <c r="C84" s="6">
+        <v>200</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>462</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" s="1" t="s">
-        <v>373</v>
+      <c r="A85" s="7" t="s">
+        <v>459</v>
       </c>
       <c r="B85" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C85" s="3">
-        <v>300</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>197</v>
+        <v>220</v>
+      </c>
+      <c r="D85" s="8" t="s">
+        <v>468</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" s="1" t="s">
-        <v>67</v>
+      <c r="A86" s="7" t="s">
+        <v>460</v>
       </c>
       <c r="B86" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C86" s="3">
-        <v>300</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>176</v>
+        <v>250</v>
+      </c>
+      <c r="D86" s="8" t="s">
+        <v>464</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" s="1" t="s">
-        <v>68</v>
+      <c r="A87" s="7" t="s">
+        <v>461</v>
       </c>
       <c r="B87" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C87" s="3">
-        <v>300</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>161</v>
+        <v>250</v>
+      </c>
+      <c r="D87" s="8" t="s">
+        <v>465</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>283</v>
+        <v>456</v>
       </c>
       <c r="B88" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C88" s="3">
-        <v>350</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>284</v>
+        <v>220</v>
+      </c>
+      <c r="D88" s="8" t="s">
+        <v>463</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="B89" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C89" s="3">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>161</v>
+        <v>209</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="B90" s="3">
         <v>0</v>
       </c>
       <c r="C90" s="3">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>161</v>
+        <v>210</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="B91" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C91" s="3">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>161</v>
+        <v>211</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="B92" s="3">
         <v>0</v>
       </c>
       <c r="C92" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>161</v>
+        <v>207</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="B93" s="3">
         <v>0</v>
       </c>
       <c r="C93" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>161</v>
+        <v>208</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="B94" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C94" s="3">
         <v>300</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>161</v>
+        <v>212</v>
       </c>
       <c r="E94" s="3" t="s">
         <v>58</v>
@@ -3460,16 +3704,16 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>75</v>
+        <v>174</v>
       </c>
       <c r="B95" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C95" s="3">
         <v>300</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E95" s="3" t="s">
         <v>58</v>
@@ -3477,16 +3721,16 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>335</v>
+        <v>59</v>
       </c>
       <c r="B96" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C96" s="3">
         <v>300</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>352</v>
+        <v>213</v>
       </c>
       <c r="E96" s="3" t="s">
         <v>58</v>
@@ -3494,16 +3738,16 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>281</v>
+        <v>60</v>
       </c>
       <c r="B97" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C97" s="3">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="E97" s="3" t="s">
         <v>58</v>
@@ -3511,16 +3755,16 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>282</v>
+        <v>61</v>
       </c>
       <c r="B98" s="3">
         <v>1</v>
       </c>
       <c r="C98" s="3">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E98" s="3" t="s">
         <v>58</v>
@@ -3528,16 +3772,16 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="B99" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C99" s="3">
-        <v>350</v>
+        <v>270</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
       <c r="E99" s="3" t="s">
         <v>58</v>
@@ -3545,16 +3789,16 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="B100" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C100" s="3">
-        <v>350</v>
+        <v>270</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="E100" s="3" t="s">
         <v>58</v>
@@ -3562,16 +3806,16 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="B101" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C101" s="3">
-        <v>320</v>
+        <v>300</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="E101" s="3" t="s">
         <v>58</v>
@@ -3579,16 +3823,16 @@
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="B102" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C102" s="3">
-        <v>320</v>
-      </c>
-      <c r="D102" s="1" t="s">
-        <v>181</v>
+        <v>300</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>161</v>
       </c>
       <c r="E102" s="3" t="s">
         <v>58</v>
@@ -3596,16 +3840,16 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="B103" s="3">
         <v>1</v>
       </c>
       <c r="C103" s="3">
-        <v>320</v>
-      </c>
-      <c r="D103" s="1" t="s">
-        <v>194</v>
+        <v>300</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>198</v>
       </c>
       <c r="E103" s="3" t="s">
         <v>58</v>
@@ -3613,16 +3857,16 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>81</v>
+        <v>373</v>
       </c>
       <c r="B104" s="3">
         <v>1</v>
       </c>
       <c r="C104" s="3">
-        <v>320</v>
-      </c>
-      <c r="D104" s="1" t="s">
-        <v>182</v>
+        <v>300</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>197</v>
       </c>
       <c r="E104" s="3" t="s">
         <v>58</v>
@@ -3630,16 +3874,16 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="B105" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C105" s="3">
-        <v>320</v>
-      </c>
-      <c r="D105" s="1" t="s">
-        <v>183</v>
+        <v>300</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>176</v>
       </c>
       <c r="E105" s="3" t="s">
         <v>58</v>
@@ -3647,16 +3891,16 @@
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="B106" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C106" s="3">
-        <v>320</v>
-      </c>
-      <c r="D106" s="1" t="s">
-        <v>184</v>
+        <v>300</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>161</v>
       </c>
       <c r="E106" s="3" t="s">
         <v>58</v>
@@ -3664,16 +3908,16 @@
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>84</v>
+        <v>283</v>
       </c>
       <c r="B107" s="3">
         <v>2</v>
       </c>
       <c r="C107" s="3">
-        <v>320</v>
-      </c>
-      <c r="D107" s="1" t="s">
-        <v>185</v>
+        <v>350</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>284</v>
       </c>
       <c r="E107" s="3" t="s">
         <v>58</v>
@@ -3681,16 +3925,16 @@
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="B108" s="3">
         <v>0</v>
       </c>
       <c r="C108" s="3">
-        <v>320</v>
-      </c>
-      <c r="D108" s="1" t="s">
-        <v>186</v>
+        <v>300</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>161</v>
       </c>
       <c r="E108" s="3" t="s">
         <v>58</v>
@@ -3698,16 +3942,16 @@
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="B109" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C109" s="3">
-        <v>320</v>
-      </c>
-      <c r="D109" s="1" t="s">
-        <v>187</v>
+        <v>300</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>161</v>
       </c>
       <c r="E109" s="3" t="s">
         <v>58</v>
@@ -3715,16 +3959,16 @@
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="B110" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C110" s="3">
-        <v>320</v>
-      </c>
-      <c r="D110" s="1" t="s">
-        <v>188</v>
+        <v>300</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>161</v>
       </c>
       <c r="E110" s="3" t="s">
         <v>58</v>
@@ -3732,16 +3976,16 @@
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="B111" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C111" s="3">
-        <v>320</v>
-      </c>
-      <c r="D111" s="1" t="s">
-        <v>189</v>
+        <v>300</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>161</v>
       </c>
       <c r="E111" s="3" t="s">
         <v>58</v>
@@ -3749,16 +3993,16 @@
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="B112" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C112" s="3">
-        <v>320</v>
-      </c>
-      <c r="D112" s="1" t="s">
-        <v>190</v>
+        <v>300</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>161</v>
       </c>
       <c r="E112" s="3" t="s">
         <v>58</v>
@@ -3766,16 +4010,16 @@
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="B113" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C113" s="3">
-        <v>320</v>
-      </c>
-      <c r="D113" s="1" t="s">
-        <v>191</v>
+        <v>300</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>161</v>
       </c>
       <c r="E113" s="3" t="s">
         <v>58</v>
@@ -3783,16 +4027,16 @@
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="B114" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C114" s="3">
-        <v>320</v>
-      </c>
-      <c r="D114" s="1" t="s">
-        <v>192</v>
+        <v>300</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>177</v>
       </c>
       <c r="E114" s="3" t="s">
         <v>58</v>
@@ -3800,16 +4044,16 @@
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>92</v>
+        <v>335</v>
       </c>
       <c r="B115" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C115" s="3">
-        <v>320</v>
-      </c>
-      <c r="D115" s="1" t="s">
-        <v>193</v>
+        <v>300</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>352</v>
       </c>
       <c r="E115" s="3" t="s">
         <v>58</v>
@@ -3817,16 +4061,16 @@
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>348</v>
+        <v>281</v>
       </c>
       <c r="B116" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C116" s="3">
-        <v>320</v>
+        <v>350</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>349</v>
+        <v>172</v>
       </c>
       <c r="E116" s="3" t="s">
         <v>58</v>
@@ -3834,16 +4078,16 @@
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>93</v>
+        <v>282</v>
       </c>
       <c r="B117" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C117" s="3">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>269</v>
+        <v>173</v>
       </c>
       <c r="E117" s="3" t="s">
         <v>58</v>
@@ -3851,16 +4095,16 @@
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="B118" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C118" s="3">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>241</v>
+        <v>178</v>
       </c>
       <c r="E118" s="3" t="s">
         <v>58</v>
@@ -3868,16 +4112,16 @@
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="B119" s="3">
         <v>1</v>
       </c>
       <c r="C119" s="3">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>270</v>
+        <v>179</v>
       </c>
       <c r="E119" s="3" t="s">
         <v>58</v>
@@ -3885,16 +4129,16 @@
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="B120" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C120" s="3">
-        <v>300</v>
-      </c>
-      <c r="D120" s="1" t="s">
-        <v>214</v>
+        <v>320</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>180</v>
       </c>
       <c r="E120" s="3" t="s">
         <v>58</v>
@@ -3902,16 +4146,16 @@
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="B121" s="3">
         <v>1</v>
       </c>
       <c r="C121" s="3">
-        <v>300</v>
+        <v>320</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>215</v>
+        <v>181</v>
       </c>
       <c r="E121" s="3" t="s">
         <v>58</v>
@@ -3919,16 +4163,16 @@
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="B122" s="3">
         <v>1</v>
       </c>
       <c r="C122" s="3">
-        <v>300</v>
+        <v>320</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>216</v>
+        <v>194</v>
       </c>
       <c r="E122" s="3" t="s">
         <v>58</v>
@@ -3936,16 +4180,16 @@
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="B123" s="3">
         <v>1</v>
       </c>
       <c r="C123" s="3">
-        <v>300</v>
+        <v>320</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>217</v>
+        <v>182</v>
       </c>
       <c r="E123" s="3" t="s">
         <v>58</v>
@@ -3953,16 +4197,16 @@
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="B124" s="3">
         <v>1</v>
       </c>
       <c r="C124" s="3">
-        <v>300</v>
+        <v>320</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>218</v>
+        <v>183</v>
       </c>
       <c r="E124" s="3" t="s">
         <v>58</v>
@@ -3970,16 +4214,16 @@
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="B125" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C125" s="3">
-        <v>300</v>
+        <v>320</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>219</v>
+        <v>184</v>
       </c>
       <c r="E125" s="3" t="s">
         <v>58</v>
@@ -3987,16 +4231,16 @@
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="B126" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C126" s="3">
-        <v>300</v>
+        <v>320</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>220</v>
+        <v>185</v>
       </c>
       <c r="E126" s="3" t="s">
         <v>58</v>
@@ -4004,16 +4248,16 @@
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="B127" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C127" s="3">
-        <v>300</v>
-      </c>
-      <c r="D127" s="2" t="s">
-        <v>271</v>
+        <v>320</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>186</v>
       </c>
       <c r="E127" s="3" t="s">
         <v>58</v>
@@ -4021,16 +4265,16 @@
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="B128" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C128" s="3">
-        <v>400</v>
-      </c>
-      <c r="D128" s="2" t="s">
-        <v>242</v>
+        <v>320</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>187</v>
       </c>
       <c r="E128" s="3" t="s">
         <v>58</v>
@@ -4038,16 +4282,16 @@
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="B129" s="3">
         <v>1</v>
       </c>
       <c r="C129" s="3">
-        <v>400</v>
-      </c>
-      <c r="D129" s="2" t="s">
-        <v>243</v>
+        <v>320</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>188</v>
       </c>
       <c r="E129" s="3" t="s">
         <v>58</v>
@@ -4055,16 +4299,16 @@
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>374</v>
+        <v>88</v>
       </c>
       <c r="B130" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C130" s="3">
-        <v>300</v>
-      </c>
-      <c r="D130" s="2" t="s">
-        <v>244</v>
+        <v>320</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>189</v>
       </c>
       <c r="E130" s="3" t="s">
         <v>58</v>
@@ -4072,16 +4316,16 @@
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="B131" s="3">
         <v>2</v>
       </c>
       <c r="C131" s="3">
-        <v>300</v>
-      </c>
-      <c r="D131" s="2" t="s">
-        <v>245</v>
+        <v>320</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>190</v>
       </c>
       <c r="E131" s="3" t="s">
         <v>58</v>
@@ -4089,16 +4333,16 @@
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="B132" s="3">
         <v>1</v>
       </c>
       <c r="C132" s="3">
-        <v>300</v>
-      </c>
-      <c r="D132" s="2" t="s">
-        <v>246</v>
+        <v>320</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>191</v>
       </c>
       <c r="E132" s="3" t="s">
         <v>58</v>
@@ -4106,16 +4350,16 @@
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="B133" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C133" s="3">
-        <v>300</v>
-      </c>
-      <c r="D133" s="2" t="s">
-        <v>247</v>
+        <v>320</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>192</v>
       </c>
       <c r="E133" s="3" t="s">
         <v>58</v>
@@ -4123,16 +4367,16 @@
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="B134" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C134" s="3">
-        <v>300</v>
-      </c>
-      <c r="D134" s="2" t="s">
-        <v>248</v>
+        <v>320</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>193</v>
       </c>
       <c r="E134" s="3" t="s">
         <v>58</v>
@@ -4140,16 +4384,16 @@
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>110</v>
+        <v>348</v>
       </c>
       <c r="B135" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C135" s="3">
-        <v>300</v>
+        <v>320</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>249</v>
+        <v>349</v>
       </c>
       <c r="E135" s="3" t="s">
         <v>58</v>
@@ -4157,16 +4401,16 @@
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="B136" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C136" s="3">
         <v>300</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>250</v>
+        <v>269</v>
       </c>
       <c r="E136" s="3" t="s">
         <v>58</v>
@@ -4174,16 +4418,16 @@
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="B137" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C137" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="E137" s="3" t="s">
         <v>58</v>
@@ -4191,7 +4435,7 @@
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="B138" s="3">
         <v>1</v>
@@ -4200,7 +4444,7 @@
         <v>300</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>252</v>
+        <v>270</v>
       </c>
       <c r="E138" s="3" t="s">
         <v>58</v>
@@ -4208,7 +4452,7 @@
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="B139" s="3">
         <v>1</v>
@@ -4216,8 +4460,8 @@
       <c r="C139" s="3">
         <v>300</v>
       </c>
-      <c r="D139" s="2" t="s">
-        <v>253</v>
+      <c r="D139" s="1" t="s">
+        <v>214</v>
       </c>
       <c r="E139" s="3" t="s">
         <v>58</v>
@@ -4225,390 +4469,390 @@
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="B140" s="3">
         <v>1</v>
       </c>
       <c r="C140" s="3">
-        <v>250</v>
-      </c>
-      <c r="D140" s="2" t="s">
-        <v>272</v>
+        <v>300</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>215</v>
       </c>
       <c r="E140" s="3" t="s">
-        <v>116</v>
+        <v>58</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
-        <v>312</v>
+        <v>98</v>
       </c>
       <c r="B141" s="3">
         <v>1</v>
       </c>
       <c r="C141" s="3">
-        <v>280</v>
-      </c>
-      <c r="D141" s="2" t="s">
-        <v>330</v>
+        <v>300</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>216</v>
       </c>
       <c r="E141" s="3" t="s">
-        <v>116</v>
+        <v>58</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
-        <v>313</v>
+        <v>99</v>
       </c>
       <c r="B142" s="3">
         <v>1</v>
       </c>
       <c r="C142" s="3">
-        <v>280</v>
-      </c>
-      <c r="D142" s="2" t="s">
-        <v>331</v>
+        <v>300</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>217</v>
       </c>
       <c r="E142" s="3" t="s">
-        <v>116</v>
+        <v>58</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
-        <v>314</v>
+        <v>100</v>
       </c>
       <c r="B143" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C143" s="3">
-        <v>260</v>
-      </c>
-      <c r="D143" s="2" t="s">
-        <v>332</v>
+        <v>300</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>218</v>
       </c>
       <c r="E143" s="3" t="s">
-        <v>116</v>
+        <v>58</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
-        <v>315</v>
+        <v>101</v>
       </c>
       <c r="B144" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C144" s="3">
-        <v>260</v>
-      </c>
-      <c r="D144" s="2" t="s">
-        <v>333</v>
+        <v>300</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>219</v>
       </c>
       <c r="E144" s="3" t="s">
-        <v>116</v>
+        <v>58</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="B145" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C145" s="3">
-        <v>500</v>
-      </c>
-      <c r="D145" s="2" t="s">
-        <v>161</v>
+        <v>300</v>
+      </c>
+      <c r="D145" s="1" t="s">
+        <v>220</v>
       </c>
       <c r="E145" s="3" t="s">
-        <v>116</v>
+        <v>58</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
-        <v>316</v>
+        <v>103</v>
       </c>
       <c r="B146" s="3">
         <v>1</v>
       </c>
       <c r="C146" s="3">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>334</v>
+        <v>271</v>
       </c>
       <c r="E146" s="3" t="s">
-        <v>116</v>
+        <v>58</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="B147" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C147" s="3">
-        <v>220</v>
+        <v>400</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>303</v>
+        <v>242</v>
       </c>
       <c r="E147" s="3" t="s">
-        <v>116</v>
+        <v>58</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="B148" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C148" s="3">
-        <v>220</v>
+        <v>400</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>310</v>
+        <v>243</v>
       </c>
       <c r="E148" s="3" t="s">
-        <v>116</v>
+        <v>58</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
-        <v>120</v>
+        <v>374</v>
       </c>
       <c r="B149" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C149" s="3">
-        <v>220</v>
+        <v>300</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>304</v>
+        <v>244</v>
       </c>
       <c r="E149" s="3" t="s">
-        <v>116</v>
+        <v>58</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="B150" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C150" s="3">
-        <v>220</v>
+        <v>300</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>305</v>
+        <v>245</v>
       </c>
       <c r="E150" s="3" t="s">
-        <v>116</v>
+        <v>58</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="B151" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C151" s="3">
-        <v>220</v>
+        <v>300</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>306</v>
+        <v>246</v>
       </c>
       <c r="E151" s="3" t="s">
-        <v>116</v>
+        <v>58</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="B152" s="3">
         <v>1</v>
       </c>
       <c r="C152" s="3">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>307</v>
+        <v>247</v>
       </c>
       <c r="E152" s="3" t="s">
-        <v>116</v>
+        <v>58</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
-        <v>274</v>
+        <v>109</v>
       </c>
       <c r="B153" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C153" s="3">
-        <v>220</v>
+        <v>300</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>273</v>
+        <v>248</v>
       </c>
       <c r="E153" s="3" t="s">
-        <v>116</v>
+        <v>58</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
-        <v>275</v>
+        <v>110</v>
       </c>
       <c r="B154" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C154" s="3">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>276</v>
+        <v>249</v>
       </c>
       <c r="E154" s="3" t="s">
-        <v>116</v>
+        <v>58</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
-        <v>278</v>
+        <v>111</v>
       </c>
       <c r="B155" s="3">
         <v>1</v>
       </c>
       <c r="C155" s="3">
-        <v>220</v>
+        <v>300</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>277</v>
+        <v>250</v>
       </c>
       <c r="E155" s="3" t="s">
-        <v>116</v>
+        <v>58</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="B156" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C156" s="3">
-        <v>220</v>
+        <v>500</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>309</v>
+        <v>251</v>
       </c>
       <c r="E156" s="3" t="s">
-        <v>116</v>
+        <v>58</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
-        <v>279</v>
+        <v>484</v>
       </c>
       <c r="B157" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C157" s="3">
-        <v>250</v>
-      </c>
-      <c r="D157" s="2" t="s">
         <v>280</v>
       </c>
+      <c r="D157" s="8" t="s">
+        <v>487</v>
+      </c>
       <c r="E157" s="3" t="s">
-        <v>116</v>
+        <v>58</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
-        <v>125</v>
+        <v>485</v>
       </c>
       <c r="B158" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C158" s="3">
-        <v>220</v>
-      </c>
-      <c r="D158" s="2" t="s">
-        <v>308</v>
+        <v>280</v>
+      </c>
+      <c r="D158" s="8" t="s">
+        <v>488</v>
       </c>
       <c r="E158" s="3" t="s">
-        <v>116</v>
+        <v>58</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A159" s="1" t="s">
-        <v>126</v>
+      <c r="A159" s="7" t="s">
+        <v>486</v>
       </c>
       <c r="B159" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C159" s="3">
-        <v>200</v>
-      </c>
-      <c r="D159" s="2" t="s">
-        <v>161</v>
+        <v>280</v>
+      </c>
+      <c r="D159" s="8" t="s">
+        <v>489</v>
       </c>
       <c r="E159" s="3" t="s">
-        <v>116</v>
+        <v>58</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="B160" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C160" s="3">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>297</v>
+        <v>252</v>
       </c>
       <c r="E160" s="3" t="s">
-        <v>116</v>
+        <v>58</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="B161" s="3">
         <v>1</v>
       </c>
       <c r="C161" s="3">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>298</v>
+        <v>253</v>
       </c>
       <c r="E161" s="3" t="s">
-        <v>116</v>
+        <v>58</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="B162" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C162" s="3">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>299</v>
+        <v>272</v>
       </c>
       <c r="E162" s="3" t="s">
         <v>116</v>
@@ -4616,16 +4860,16 @@
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
-        <v>130</v>
+        <v>312</v>
       </c>
       <c r="B163" s="3">
         <v>1</v>
       </c>
       <c r="C163" s="3">
-        <v>350</v>
+        <v>280</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>300</v>
+        <v>330</v>
       </c>
       <c r="E163" s="3" t="s">
         <v>116</v>
@@ -4633,16 +4877,16 @@
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
-        <v>131</v>
+        <v>313</v>
       </c>
       <c r="B164" s="3">
         <v>1</v>
       </c>
       <c r="C164" s="3">
-        <v>350</v>
+        <v>280</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>301</v>
+        <v>331</v>
       </c>
       <c r="E164" s="3" t="s">
         <v>116</v>
@@ -4650,16 +4894,16 @@
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
-        <v>132</v>
+        <v>314</v>
       </c>
       <c r="B165" s="3">
         <v>2</v>
       </c>
       <c r="C165" s="3">
-        <v>350</v>
+        <v>260</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>302</v>
+        <v>332</v>
       </c>
       <c r="E165" s="3" t="s">
         <v>116</v>
@@ -4667,16 +4911,16 @@
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
-        <v>133</v>
+        <v>315</v>
       </c>
       <c r="B166" s="3">
         <v>1</v>
       </c>
       <c r="C166" s="3">
-        <v>220</v>
+        <v>260</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>311</v>
+        <v>333</v>
       </c>
       <c r="E166" s="3" t="s">
         <v>116</v>
@@ -4684,126 +4928,126 @@
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="B167" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C167" s="3">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>254</v>
+        <v>161</v>
       </c>
       <c r="E167" s="3" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
-        <v>136</v>
+        <v>316</v>
       </c>
       <c r="B168" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C168" s="3">
-        <v>460</v>
+        <v>280</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>161</v>
+        <v>334</v>
       </c>
       <c r="E168" s="3" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="B169" s="3">
         <v>0</v>
       </c>
       <c r="C169" s="3">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>255</v>
+        <v>303</v>
       </c>
       <c r="E169" s="3" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
       <c r="B170" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C170" s="3">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>256</v>
+        <v>310</v>
       </c>
       <c r="E170" s="3" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="B171" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C171" s="3">
-        <v>240</v>
+        <v>220</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>161</v>
+        <v>304</v>
       </c>
       <c r="E171" s="3" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="B172" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C172" s="3">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>336</v>
+        <v>305</v>
       </c>
       <c r="E172" s="3" t="s">
-        <v>141</v>
+        <v>116</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
-        <v>142</v>
+        <v>122</v>
       </c>
       <c r="B173" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C173" s="3">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>337</v>
+        <v>306</v>
       </c>
       <c r="E173" s="3" t="s">
-        <v>141</v>
+        <v>116</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
-        <v>143</v>
+        <v>123</v>
       </c>
       <c r="B174" s="3">
         <v>1</v>
@@ -4812,842 +5056,1522 @@
         <v>250</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>338</v>
+        <v>307</v>
       </c>
       <c r="E174" s="3" t="s">
-        <v>141</v>
+        <v>116</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
-        <v>144</v>
+        <v>274</v>
       </c>
       <c r="B175" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C175" s="3">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>339</v>
+        <v>273</v>
       </c>
       <c r="E175" s="3" t="s">
-        <v>141</v>
+        <v>116</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
-        <v>145</v>
+        <v>275</v>
       </c>
       <c r="B176" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C176" s="3">
         <v>250</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>340</v>
+        <v>276</v>
       </c>
       <c r="E176" s="3" t="s">
-        <v>141</v>
+        <v>116</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
-        <v>146</v>
+        <v>278</v>
       </c>
       <c r="B177" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C177" s="3">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>341</v>
+        <v>277</v>
       </c>
       <c r="E177" s="3" t="s">
-        <v>141</v>
+        <v>116</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
-        <v>147</v>
+        <v>124</v>
       </c>
       <c r="B178" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C178" s="3">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>342</v>
+        <v>309</v>
       </c>
       <c r="E178" s="3" t="s">
-        <v>141</v>
+        <v>116</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
-        <v>148</v>
+        <v>279</v>
       </c>
       <c r="B179" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C179" s="3">
         <v>250</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>161</v>
+        <v>280</v>
       </c>
       <c r="E179" s="3" t="s">
-        <v>141</v>
+        <v>116</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
-        <v>149</v>
+        <v>125</v>
       </c>
       <c r="B180" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C180" s="3">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>343</v>
+        <v>308</v>
       </c>
       <c r="E180" s="3" t="s">
-        <v>141</v>
+        <v>116</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="B181" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C181" s="3">
-        <v>250</v>
-      </c>
-      <c r="D181" s="2" t="s">
-        <v>161</v>
+        <v>220</v>
+      </c>
+      <c r="D181" s="8" t="s">
+        <v>510</v>
       </c>
       <c r="E181" s="3" t="s">
-        <v>141</v>
+        <v>116</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
-        <v>151</v>
+        <v>127</v>
       </c>
       <c r="B182" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C182" s="3">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>344</v>
+        <v>297</v>
       </c>
       <c r="E182" s="3" t="s">
-        <v>141</v>
+        <v>116</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
-        <v>152</v>
+        <v>128</v>
       </c>
       <c r="B183" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C183" s="3">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>345</v>
+        <v>298</v>
       </c>
       <c r="E183" s="3" t="s">
-        <v>141</v>
+        <v>116</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
-        <v>153</v>
+        <v>129</v>
       </c>
       <c r="B184" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C184" s="3">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>346</v>
+        <v>299</v>
       </c>
       <c r="E184" s="3" t="s">
-        <v>141</v>
+        <v>116</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
-        <v>154</v>
+        <v>130</v>
       </c>
       <c r="B185" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C185" s="3">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>347</v>
+        <v>300</v>
       </c>
       <c r="E185" s="3" t="s">
-        <v>141</v>
+        <v>116</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
-        <v>155</v>
+        <v>131</v>
       </c>
       <c r="B186" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C186" s="3">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>161</v>
+        <v>301</v>
       </c>
       <c r="E186" s="3" t="s">
-        <v>141</v>
+        <v>116</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
-        <v>156</v>
+        <v>132</v>
       </c>
       <c r="B187" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C187" s="3">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>161</v>
+        <v>302</v>
       </c>
       <c r="E187" s="3" t="s">
-        <v>141</v>
+        <v>116</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B188" s="3">
+        <v>1</v>
+      </c>
+      <c r="C188" s="3">
+        <v>220</v>
+      </c>
+      <c r="D188" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="E188" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A189" s="7" t="s">
+        <v>493</v>
+      </c>
+      <c r="B189" s="3">
+        <v>1</v>
+      </c>
+      <c r="C189" s="3">
+        <v>220</v>
+      </c>
+      <c r="D189" s="8" t="s">
+        <v>511</v>
+      </c>
+      <c r="E189" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A190" s="7" t="s">
+        <v>494</v>
+      </c>
+      <c r="B190" s="3">
+        <v>1</v>
+      </c>
+      <c r="C190" s="3">
+        <v>220</v>
+      </c>
+      <c r="D190" s="8" t="s">
+        <v>509</v>
+      </c>
+      <c r="E190" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A191" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="B191" s="3">
+        <v>1</v>
+      </c>
+      <c r="C191" s="3">
+        <v>220</v>
+      </c>
+      <c r="D191" s="8" t="s">
+        <v>505</v>
+      </c>
+      <c r="E191" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A192" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="B192" s="3">
+        <v>1</v>
+      </c>
+      <c r="C192" s="3">
+        <v>250</v>
+      </c>
+      <c r="D192" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="E192" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A193" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="B193" s="3">
+        <v>2</v>
+      </c>
+      <c r="C193" s="3">
+        <v>250</v>
+      </c>
+      <c r="D193" s="8" t="s">
+        <v>504</v>
+      </c>
+      <c r="E193" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A194" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B194" s="3">
+        <v>1</v>
+      </c>
+      <c r="C194" s="3">
+        <v>220</v>
+      </c>
+      <c r="D194" s="8" t="s">
+        <v>507</v>
+      </c>
+      <c r="E194" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A195" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="B195" s="3">
+        <v>1</v>
+      </c>
+      <c r="C195" s="3">
+        <v>220</v>
+      </c>
+      <c r="D195" s="8" t="s">
+        <v>501</v>
+      </c>
+      <c r="E195" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A196" s="7" t="s">
+        <v>497</v>
+      </c>
+      <c r="B196" s="3">
+        <v>1</v>
+      </c>
+      <c r="C196" s="3">
+        <v>250</v>
+      </c>
+      <c r="D196" s="8" t="s">
+        <v>502</v>
+      </c>
+      <c r="E196" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A197" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="B197" s="3">
+        <v>1</v>
+      </c>
+      <c r="C197" s="3">
+        <v>250</v>
+      </c>
+      <c r="D197" s="8" t="s">
+        <v>508</v>
+      </c>
+      <c r="E197" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A198" s="7" t="s">
+        <v>496</v>
+      </c>
+      <c r="B198" s="3">
+        <v>1</v>
+      </c>
+      <c r="C198" s="3">
+        <v>250</v>
+      </c>
+      <c r="D198" s="8" t="s">
+        <v>503</v>
+      </c>
+      <c r="E198" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A199" s="7" t="s">
+        <v>498</v>
+      </c>
+      <c r="B199" s="3">
+        <v>1</v>
+      </c>
+      <c r="C199" s="3">
+        <v>250</v>
+      </c>
+      <c r="D199" s="8" t="s">
+        <v>506</v>
+      </c>
+      <c r="E199" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A200" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B200" s="3">
+        <v>1</v>
+      </c>
+      <c r="C200" s="3">
+        <v>250</v>
+      </c>
+      <c r="D200" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="E200" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A201" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B201" s="3">
+        <v>0</v>
+      </c>
+      <c r="C201" s="3">
+        <v>460</v>
+      </c>
+      <c r="D201" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E201" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A202" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B202" s="3">
+        <v>0</v>
+      </c>
+      <c r="C202" s="3">
+        <v>250</v>
+      </c>
+      <c r="D202" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="E202" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A203" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B203" s="3">
+        <v>4</v>
+      </c>
+      <c r="C203" s="3">
+        <v>250</v>
+      </c>
+      <c r="D203" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="E203" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A204" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B204" s="3">
+        <v>0</v>
+      </c>
+      <c r="C204" s="3">
+        <v>240</v>
+      </c>
+      <c r="D204" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E204" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A205" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B205" s="3">
+        <v>3</v>
+      </c>
+      <c r="C205" s="3">
+        <v>250</v>
+      </c>
+      <c r="D205" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="E205" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A206" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B206" s="3">
+        <v>3</v>
+      </c>
+      <c r="C206" s="3">
+        <v>250</v>
+      </c>
+      <c r="D206" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="E206" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A207" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B207" s="3">
+        <v>1</v>
+      </c>
+      <c r="C207" s="3">
+        <v>250</v>
+      </c>
+      <c r="D207" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="E207" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A208" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B208" s="3">
+        <v>1</v>
+      </c>
+      <c r="C208" s="3">
+        <v>250</v>
+      </c>
+      <c r="D208" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="E208" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A209" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B209" s="3">
+        <v>2</v>
+      </c>
+      <c r="C209" s="3">
+        <v>250</v>
+      </c>
+      <c r="D209" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="E209" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A210" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B210" s="3">
+        <v>2</v>
+      </c>
+      <c r="C210" s="3">
+        <v>250</v>
+      </c>
+      <c r="D210" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="E210" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A211" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B211" s="3">
+        <v>1</v>
+      </c>
+      <c r="C211" s="3">
+        <v>250</v>
+      </c>
+      <c r="D211" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="E211" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A212" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B212" s="3">
+        <v>0</v>
+      </c>
+      <c r="C212" s="3">
+        <v>250</v>
+      </c>
+      <c r="D212" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E212" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A213" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B213" s="3">
+        <v>2</v>
+      </c>
+      <c r="C213" s="3">
+        <v>250</v>
+      </c>
+      <c r="D213" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="E213" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A214" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B214" s="3">
+        <v>0</v>
+      </c>
+      <c r="C214" s="3">
+        <v>250</v>
+      </c>
+      <c r="D214" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E214" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A215" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B215" s="3">
+        <v>1</v>
+      </c>
+      <c r="C215" s="3">
+        <v>250</v>
+      </c>
+      <c r="D215" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="E215" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A216" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B216" s="3">
+        <v>2</v>
+      </c>
+      <c r="C216" s="3">
+        <v>250</v>
+      </c>
+      <c r="D216" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="E216" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A217" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B217" s="3">
+        <v>1</v>
+      </c>
+      <c r="C217" s="3">
+        <v>250</v>
+      </c>
+      <c r="D217" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="E217" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A218" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B218" s="3">
+        <v>2</v>
+      </c>
+      <c r="C218" s="3">
+        <v>250</v>
+      </c>
+      <c r="D218" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="E218" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A219" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B219" s="3">
+        <v>0</v>
+      </c>
+      <c r="C219" s="3">
+        <v>250</v>
+      </c>
+      <c r="D219" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E219" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A220" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B220" s="3">
+        <v>0</v>
+      </c>
+      <c r="C220" s="3">
+        <v>250</v>
+      </c>
+      <c r="D220" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E220" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A221" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="B221" s="3">
+        <v>4</v>
+      </c>
+      <c r="C221" s="3">
+        <v>250</v>
+      </c>
+      <c r="D221" s="8" t="s">
+        <v>477</v>
+      </c>
+      <c r="E221" s="6" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A222" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="B222" s="3">
+        <v>2</v>
+      </c>
+      <c r="C222" s="3">
+        <v>250</v>
+      </c>
+      <c r="D222" s="8" t="s">
+        <v>480</v>
+      </c>
+      <c r="E222" s="6" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A223" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="B223" s="3">
+        <v>2</v>
+      </c>
+      <c r="C223" s="3">
+        <v>220</v>
+      </c>
+      <c r="D223" s="8" t="s">
+        <v>481</v>
+      </c>
+      <c r="E223" s="6" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A224" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="B224" s="3">
+        <v>1</v>
+      </c>
+      <c r="C224" s="3">
+        <v>220</v>
+      </c>
+      <c r="D224" s="8" t="s">
+        <v>478</v>
+      </c>
+      <c r="E224" s="6" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A225" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="B225" s="3">
+        <v>1</v>
+      </c>
+      <c r="C225" s="3">
+        <v>220</v>
+      </c>
+      <c r="D225" s="8" t="s">
+        <v>479</v>
+      </c>
+      <c r="E225" s="6" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A226" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="B226" s="3">
+        <v>2</v>
+      </c>
+      <c r="C226" s="3">
+        <v>220</v>
+      </c>
+      <c r="D226" s="8" t="s">
+        <v>482</v>
+      </c>
+      <c r="E226" s="6" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A227" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="B227" s="3">
+        <v>1</v>
+      </c>
+      <c r="C227" s="3">
+        <v>160</v>
+      </c>
+      <c r="D227" s="8" t="s">
+        <v>483</v>
+      </c>
+      <c r="E227" s="6" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A228" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="B188" s="5">
-        <v>6</v>
-      </c>
-      <c r="C188" s="3">
-        <v>250</v>
-      </c>
-      <c r="D188" s="2" t="s">
+      <c r="B228" s="5">
+        <v>6</v>
+      </c>
+      <c r="C228" s="3">
+        <v>250</v>
+      </c>
+      <c r="D228" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="E188" s="6" t="s">
+      <c r="E228" s="6" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A189" t="s">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
         <v>200</v>
       </c>
-      <c r="B189" s="5">
-        <v>1</v>
-      </c>
-      <c r="C189" s="3">
-        <v>250</v>
-      </c>
-      <c r="D189" s="2" t="s">
+      <c r="B229" s="5">
+        <v>1</v>
+      </c>
+      <c r="C229" s="3">
+        <v>250</v>
+      </c>
+      <c r="D229" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="E189" s="6" t="s">
+      <c r="E229" s="6" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A190" t="s">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
         <v>201</v>
       </c>
-      <c r="B190" s="5">
-        <v>1</v>
-      </c>
-      <c r="C190" s="6">
+      <c r="B230" s="5">
+        <v>1</v>
+      </c>
+      <c r="C230" s="6">
         <v>220</v>
       </c>
-      <c r="D190" s="2" t="s">
+      <c r="D230" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="E190" s="6" t="s">
+      <c r="E230" s="6" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A191" t="s">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
         <v>326</v>
       </c>
-      <c r="B191" s="5">
+      <c r="B231" s="5">
         <v>0</v>
       </c>
-      <c r="C191" s="6">
+      <c r="C231" s="6">
         <v>220</v>
       </c>
-      <c r="D191" s="2" t="s">
+      <c r="D231" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="E191" s="6" t="s">
+      <c r="E231" s="6" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A192" t="s">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
         <v>202</v>
       </c>
-      <c r="B192" s="5">
+      <c r="B232" s="5">
         <v>2</v>
       </c>
-      <c r="C192" s="6">
+      <c r="C232" s="6">
         <v>220</v>
       </c>
-      <c r="D192" s="2" t="s">
+      <c r="D232" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="E192" s="6" t="s">
+      <c r="E232" s="6" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A193" t="s">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
         <v>203</v>
       </c>
-      <c r="B193" s="5">
-        <v>1</v>
-      </c>
-      <c r="C193" s="6">
+      <c r="B233" s="5">
+        <v>1</v>
+      </c>
+      <c r="C233" s="6">
         <v>220</v>
       </c>
-      <c r="D193" s="2" t="s">
+      <c r="D233" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="E193" s="6" t="s">
+      <c r="E233" s="6" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A194" t="s">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
         <v>204</v>
       </c>
-      <c r="B194" s="5">
-        <v>1</v>
-      </c>
-      <c r="C194" s="6">
+      <c r="B234" s="5">
+        <v>1</v>
+      </c>
+      <c r="C234" s="6">
         <v>220</v>
       </c>
-      <c r="D194" s="2" t="s">
+      <c r="D234" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="E194" s="6" t="s">
+      <c r="E234" s="6" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A195" t="s">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
         <v>205</v>
       </c>
-      <c r="B195" s="5">
+      <c r="B235" s="5">
         <v>5</v>
       </c>
-      <c r="C195" s="6">
+      <c r="C235" s="6">
         <v>350</v>
       </c>
-      <c r="D195" s="2" t="s">
+      <c r="D235" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="E195" s="6" t="s">
+      <c r="E235" s="6" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A196" t="s">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
         <v>353</v>
       </c>
-      <c r="B196" s="5">
+      <c r="B236" s="5">
         <v>10</v>
       </c>
-      <c r="C196" s="6">
-        <v>250</v>
-      </c>
-      <c r="D196" s="4" t="s">
+      <c r="C236" s="6">
+        <v>250</v>
+      </c>
+      <c r="D236" s="4" t="s">
         <v>357</v>
       </c>
-      <c r="E196" s="6" t="s">
+      <c r="E236" s="6" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A197" t="s">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
         <v>354</v>
       </c>
-      <c r="B197" s="5">
-        <v>1</v>
-      </c>
-      <c r="C197" s="6">
-        <v>250</v>
-      </c>
-      <c r="D197" s="4" t="s">
+      <c r="B237" s="5">
+        <v>1</v>
+      </c>
+      <c r="C237" s="6">
+        <v>250</v>
+      </c>
+      <c r="D237" s="4" t="s">
         <v>358</v>
       </c>
-      <c r="E197" s="6" t="s">
+      <c r="E237" s="6" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A198" t="s">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
         <v>355</v>
       </c>
-      <c r="B198" s="5">
+      <c r="B238" s="5">
         <v>24</v>
       </c>
-      <c r="C198" s="6">
-        <v>250</v>
-      </c>
-      <c r="D198" s="4" t="s">
+      <c r="C238" s="6">
+        <v>250</v>
+      </c>
+      <c r="D238" s="4" t="s">
         <v>431</v>
       </c>
-      <c r="E198" s="6" t="s">
+      <c r="E238" s="6" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A199" t="s">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
         <v>372</v>
       </c>
-      <c r="B199" s="5">
-        <v>6</v>
-      </c>
-      <c r="C199" s="6">
+      <c r="B239" s="5">
+        <v>6</v>
+      </c>
+      <c r="C239" s="6">
         <v>150</v>
       </c>
-      <c r="D199" s="4" t="s">
+      <c r="D239" s="4" t="s">
         <v>365</v>
       </c>
-      <c r="E199" s="6" t="s">
+      <c r="E239" s="6" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A200" t="s">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
         <v>370</v>
       </c>
-      <c r="B200" s="5">
+      <c r="B240" s="5">
         <v>2</v>
       </c>
-      <c r="C200" s="6">
+      <c r="C240" s="6">
         <v>150</v>
       </c>
-      <c r="D200" s="4" t="s">
+      <c r="D240" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="E200" s="6" t="s">
+      <c r="E240" s="6" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A201" t="s">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
         <v>371</v>
       </c>
-      <c r="B201" s="5">
+      <c r="B241" s="5">
         <v>2</v>
       </c>
-      <c r="C201" s="6">
+      <c r="C241" s="6">
         <v>150</v>
       </c>
-      <c r="D201" s="4" t="s">
+      <c r="D241" s="4" t="s">
         <v>369</v>
       </c>
-      <c r="E201" s="6" t="s">
+      <c r="E241" s="6" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A202" t="s">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
         <v>367</v>
       </c>
-      <c r="B202" s="5">
+      <c r="B242" s="5">
         <v>2</v>
       </c>
-      <c r="C202" s="6">
+      <c r="C242" s="6">
         <v>550</v>
       </c>
-      <c r="D202" s="4" t="s">
+      <c r="D242" s="4" t="s">
         <v>366</v>
       </c>
-      <c r="E202" s="6" t="s">
+      <c r="E242" s="6" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A203" t="s">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
         <v>413</v>
       </c>
-      <c r="B203" s="5">
+      <c r="B243" s="5">
         <v>2</v>
       </c>
-      <c r="C203" s="6">
+      <c r="C243" s="6">
         <v>650</v>
       </c>
-      <c r="D203" s="4" t="s">
+      <c r="D243" s="4" t="s">
         <v>414</v>
       </c>
-      <c r="E203" s="6" t="s">
+      <c r="E243" s="6" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A204" t="s">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
         <v>359</v>
       </c>
-      <c r="B204" s="5">
+      <c r="B244" s="5">
         <v>0</v>
       </c>
-      <c r="C204" s="6">
+      <c r="C244" s="6">
         <v>300</v>
       </c>
-      <c r="D204" s="4" t="s">
+      <c r="D244" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="E204" s="6" t="s">
+      <c r="E244" s="6" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A205" t="s">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
         <v>363</v>
       </c>
-      <c r="B205" s="5">
+      <c r="B245" s="5">
         <v>4</v>
       </c>
-      <c r="C205" s="6">
+      <c r="C245" s="6">
         <v>800</v>
       </c>
-      <c r="D205" s="4" t="s">
+      <c r="D245" s="4" t="s">
         <v>361</v>
       </c>
-      <c r="E205" s="6" t="s">
+      <c r="E245" s="6" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A206" t="s">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
         <v>364</v>
       </c>
-      <c r="B206" s="5">
+      <c r="B246" s="5">
         <v>13</v>
       </c>
-      <c r="C206" s="6">
+      <c r="C246" s="6">
         <v>200</v>
       </c>
-      <c r="D206" s="4" t="s">
+      <c r="D246" s="4" t="s">
         <v>362</v>
       </c>
-      <c r="E206" s="6" t="s">
+      <c r="E246" s="6" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A207" t="s">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
         <v>375</v>
       </c>
-      <c r="B207" s="5">
+      <c r="B247" s="5">
         <v>3</v>
       </c>
-      <c r="C207" s="6">
+      <c r="C247" s="6">
         <v>150</v>
       </c>
-      <c r="D207" s="4" t="s">
+      <c r="D247" s="4" t="s">
         <v>382</v>
       </c>
-      <c r="E207" s="6" t="s">
+      <c r="E247" s="6" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A208" t="s">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
         <v>376</v>
       </c>
-      <c r="B208" s="5">
+      <c r="B248" s="5">
         <v>2</v>
       </c>
-      <c r="C208" s="6">
+      <c r="C248" s="6">
         <v>150</v>
       </c>
-      <c r="D208" s="4" t="s">
+      <c r="D248" s="4" t="s">
         <v>383</v>
       </c>
-      <c r="E208" s="6" t="s">
+      <c r="E248" s="6" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A209" t="s">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
         <v>377</v>
       </c>
-      <c r="B209" s="5">
-        <v>1</v>
-      </c>
-      <c r="C209" s="6">
+      <c r="B249" s="5">
+        <v>1</v>
+      </c>
+      <c r="C249" s="6">
         <v>150</v>
       </c>
-      <c r="D209" s="4" t="s">
+      <c r="D249" s="4" t="s">
         <v>384</v>
       </c>
-      <c r="E209" s="6" t="s">
+      <c r="E249" s="6" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A210" t="s">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
         <v>378</v>
       </c>
-      <c r="B210" s="5">
-        <v>1</v>
-      </c>
-      <c r="C210" s="6">
+      <c r="B250" s="5">
+        <v>1</v>
+      </c>
+      <c r="C250" s="6">
         <v>150</v>
       </c>
-      <c r="D210" s="4" t="s">
+      <c r="D250" s="4" t="s">
         <v>401</v>
       </c>
-      <c r="E210" s="6" t="s">
+      <c r="E250" s="6" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A211" t="s">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
         <v>379</v>
       </c>
-      <c r="B211" s="5">
+      <c r="B251" s="5">
         <v>10</v>
       </c>
-      <c r="C211" s="6">
+      <c r="C251" s="6">
         <v>30</v>
       </c>
-      <c r="D211" s="4" t="s">
+      <c r="D251" s="4" t="s">
         <v>385</v>
       </c>
-      <c r="E211" s="6" t="s">
+      <c r="E251" s="6" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A212" t="s">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
         <v>381</v>
       </c>
-      <c r="B212" s="5">
-        <v>1</v>
-      </c>
-      <c r="C212" s="6">
+      <c r="B252" s="5">
+        <v>1</v>
+      </c>
+      <c r="C252" s="6">
         <v>550</v>
       </c>
-      <c r="D212" s="4" t="s">
+      <c r="D252" s="4" t="s">
         <v>386</v>
       </c>
-      <c r="E212" s="6" t="s">
+      <c r="E252" s="6" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A213" t="s">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
         <v>387</v>
       </c>
-      <c r="B213" s="5">
-        <v>1</v>
-      </c>
-      <c r="C213" s="6">
+      <c r="B253" s="5">
+        <v>1</v>
+      </c>
+      <c r="C253" s="6">
         <v>550</v>
       </c>
-      <c r="D213" s="4" t="s">
+      <c r="D253" s="4" t="s">
         <v>388</v>
       </c>
-      <c r="E213" s="6" t="s">
+      <c r="E253" s="6" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A214" t="s">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
         <v>389</v>
       </c>
-      <c r="B214" s="5">
-        <v>1</v>
-      </c>
-      <c r="C214" s="6">
+      <c r="B254" s="5">
+        <v>1</v>
+      </c>
+      <c r="C254" s="6">
         <v>550</v>
       </c>
-      <c r="D214" s="4" t="s">
+      <c r="D254" s="4" t="s">
         <v>395</v>
       </c>
-      <c r="E214" s="6" t="s">
+      <c r="E254" s="6" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A215" t="s">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
         <v>390</v>
       </c>
-      <c r="B215" s="5">
-        <v>1</v>
-      </c>
-      <c r="C215" s="6">
+      <c r="B255" s="5">
+        <v>1</v>
+      </c>
+      <c r="C255" s="6">
         <v>550</v>
       </c>
-      <c r="D215" s="4" t="s">
+      <c r="D255" s="4" t="s">
         <v>396</v>
       </c>
-      <c r="E215" s="6" t="s">
+      <c r="E255" s="6" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A216" t="s">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
         <v>391</v>
       </c>
-      <c r="B216" s="5">
-        <v>1</v>
-      </c>
-      <c r="C216" s="6">
+      <c r="B256" s="5">
+        <v>1</v>
+      </c>
+      <c r="C256" s="6">
         <v>550</v>
       </c>
-      <c r="D216" s="4" t="s">
+      <c r="D256" s="4" t="s">
         <v>397</v>
       </c>
-      <c r="E216" s="6" t="s">
+      <c r="E256" s="6" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A217" t="s">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
         <v>392</v>
       </c>
-      <c r="B217" s="5">
-        <v>1</v>
-      </c>
-      <c r="C217" s="6">
+      <c r="B257" s="5">
+        <v>1</v>
+      </c>
+      <c r="C257" s="6">
         <v>550</v>
       </c>
-      <c r="D217" s="4" t="s">
+      <c r="D257" s="4" t="s">
         <v>398</v>
       </c>
-      <c r="E217" s="6" t="s">
+      <c r="E257" s="6" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A218" t="s">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
         <v>394</v>
       </c>
-      <c r="B218" s="5">
-        <v>1</v>
-      </c>
-      <c r="C218" s="6">
+      <c r="B258" s="5">
+        <v>1</v>
+      </c>
+      <c r="C258" s="6">
         <v>550</v>
       </c>
-      <c r="D218" s="4" t="s">
+      <c r="D258" s="4" t="s">
         <v>399</v>
       </c>
-      <c r="E218" s="6" t="s">
+      <c r="E258" s="6" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A219" t="s">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
         <v>393</v>
       </c>
-      <c r="B219" s="5">
-        <v>1</v>
-      </c>
-      <c r="C219" s="6">
+      <c r="B259" s="5">
+        <v>1</v>
+      </c>
+      <c r="C259" s="6">
         <v>550</v>
       </c>
-      <c r="D219" s="4" t="s">
+      <c r="D259" s="4" t="s">
         <v>400</v>
       </c>
-      <c r="E219" s="6" t="s">
+      <c r="E259" s="6" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A220" t="s">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
         <v>402</v>
       </c>
-      <c r="B220" s="5">
-        <v>6</v>
-      </c>
-      <c r="C220" s="6">
-        <v>250</v>
-      </c>
-      <c r="D220" s="4" t="s">
+      <c r="B260" s="5">
+        <v>6</v>
+      </c>
+      <c r="C260" s="6">
+        <v>250</v>
+      </c>
+      <c r="D260" s="4" t="s">
         <v>406</v>
       </c>
-      <c r="E220" s="6" t="s">
+      <c r="E260" s="6" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A221" t="s">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
         <v>403</v>
       </c>
-      <c r="B221" s="5">
-        <v>1</v>
-      </c>
-      <c r="C221" s="6">
-        <v>250</v>
-      </c>
-      <c r="D221" s="4" t="s">
+      <c r="B261" s="5">
+        <v>1</v>
+      </c>
+      <c r="C261" s="6">
+        <v>250</v>
+      </c>
+      <c r="D261" s="4" t="s">
         <v>407</v>
       </c>
-      <c r="E221" s="6" t="s">
+      <c r="E261" s="6" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A222" t="s">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
         <v>404</v>
       </c>
-      <c r="B222" s="5">
+      <c r="B262" s="5">
         <v>2</v>
       </c>
-      <c r="C222" s="6">
-        <v>250</v>
-      </c>
-      <c r="D222" s="4" t="s">
+      <c r="C262" s="6">
+        <v>250</v>
+      </c>
+      <c r="D262" s="4" t="s">
         <v>408</v>
       </c>
-      <c r="E222" s="6" t="s">
+      <c r="E262" s="6" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A223" t="s">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
         <v>405</v>
       </c>
-      <c r="B223" s="5">
-        <v>1</v>
-      </c>
-      <c r="C223" s="6">
-        <v>250</v>
-      </c>
-      <c r="D223" s="4" t="s">
+      <c r="B263" s="5">
+        <v>1</v>
+      </c>
+      <c r="C263" s="6">
+        <v>250</v>
+      </c>
+      <c r="D263" s="4" t="s">
         <v>409</v>
       </c>
-      <c r="E223" s="6" t="s">
+      <c r="E263" s="6" t="s">
         <v>206</v>
       </c>
     </row>

--- a/data/stock.xlsx
+++ b/data/stock.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\blocks\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C78667DF-12B4-4E0A-9AA2-02528A21AB82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{452675DA-85E9-4224-98D5-9345F7C5A7C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5010" yWindow="2055" windowWidth="21600" windowHeight="11250" xr2:uid="{FC0CBB84-858B-49F6-BA69-44D83C89F7C4}"/>
+    <workbookView xWindow="6300" yWindow="1620" windowWidth="21600" windowHeight="11250" xr2:uid="{FC0CBB84-858B-49F6-BA69-44D83C89F7C4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2093,8 +2093,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCDC9875-9E8E-485C-910E-47B83A1F9902}">
   <dimension ref="A1:E263"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A186" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D189" sqref="D189"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2721,7 +2721,7 @@
         <v>32</v>
       </c>
       <c r="B37" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C37" s="3">
         <v>270</v>
@@ -3435,7 +3435,7 @@
         <v>49</v>
       </c>
       <c r="B79" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C79" s="3">
         <v>350</v>
@@ -6512,7 +6512,7 @@
         <v>402</v>
       </c>
       <c r="B260" s="5">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C260" s="6">
         <v>250</v>
@@ -6546,7 +6546,7 @@
         <v>404</v>
       </c>
       <c r="B262" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C262" s="6">
         <v>250</v>

--- a/data/stock.xlsx
+++ b/data/stock.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\blocks\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{452675DA-85E9-4224-98D5-9345F7C5A7C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B822611B-420B-43FF-819C-4FB45BA5BFFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6300" yWindow="1620" windowWidth="21600" windowHeight="11250" xr2:uid="{FC0CBB84-858B-49F6-BA69-44D83C89F7C4}"/>
+    <workbookView xWindow="4200" yWindow="420" windowWidth="21600" windowHeight="11250" xr2:uid="{FC0CBB84-858B-49F6-BA69-44D83C89F7C4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2093,7 +2093,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCDC9875-9E8E-485C-910E-47B83A1F9902}">
   <dimension ref="A1:E263"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A252" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>

--- a/data/stock.xlsx
+++ b/data/stock.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\blocks\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B822611B-420B-43FF-819C-4FB45BA5BFFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D8E6E6F-CB51-4D27-A95C-1E4275DE1772}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4200" yWindow="420" windowWidth="21600" windowHeight="11250" xr2:uid="{FC0CBB84-858B-49F6-BA69-44D83C89F7C4}"/>
+    <workbookView xWindow="3420" yWindow="1455" windowWidth="21600" windowHeight="11250" xr2:uid="{FC0CBB84-858B-49F6-BA69-44D83C89F7C4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="791" uniqueCount="512">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="827" uniqueCount="525">
   <si>
     <t>Product</t>
   </si>
@@ -1570,6 +1570,45 @@
   </si>
   <si>
     <t>rin kid.jpg</t>
+  </si>
+  <si>
+    <t>ds destop fig.jpg</t>
+  </si>
+  <si>
+    <t>Demon Slayer Desktop Figure (Any 1 Figure)</t>
+  </si>
+  <si>
+    <t>Makora</t>
+  </si>
+  <si>
+    <t>Sukuna (Multihands)</t>
+  </si>
+  <si>
+    <t>Sukuna (Fushiguro)</t>
+  </si>
+  <si>
+    <t>Gojo 0.5</t>
+  </si>
+  <si>
+    <t>Gojo (Purple Hollow)</t>
+  </si>
+  <si>
+    <t>Fushiguro Megumi</t>
+  </si>
+  <si>
+    <t>Fushiguro Toji</t>
+  </si>
+  <si>
+    <t>Yuki</t>
+  </si>
+  <si>
+    <t>Zenin Maki</t>
+  </si>
+  <si>
+    <t>Yuta</t>
+  </si>
+  <si>
+    <t>Sukuna (heart)</t>
   </si>
 </sst>
 </file>
@@ -2091,10 +2130,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCDC9875-9E8E-485C-910E-47B83A1F9902}">
-  <dimension ref="A1:E263"/>
+  <dimension ref="A1:E275"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A252" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView tabSelected="1" topLeftCell="A199" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="E204" sqref="E204:E215"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5574,203 +5613,203 @@
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
-        <v>140</v>
+        <v>514</v>
       </c>
       <c r="B205" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C205" s="3">
-        <v>250</v>
-      </c>
-      <c r="D205" s="2" t="s">
-        <v>336</v>
+        <v>400</v>
+      </c>
+      <c r="D205" s="8" t="s">
+        <v>161</v>
       </c>
       <c r="E205" s="3" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
-        <v>142</v>
+        <v>515</v>
       </c>
       <c r="B206" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C206" s="3">
-        <v>250</v>
-      </c>
-      <c r="D206" s="2" t="s">
-        <v>337</v>
+        <v>400</v>
+      </c>
+      <c r="D206" s="8" t="s">
+        <v>161</v>
       </c>
       <c r="E206" s="3" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
-        <v>143</v>
+        <v>516</v>
       </c>
       <c r="B207" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C207" s="3">
-        <v>250</v>
-      </c>
-      <c r="D207" s="2" t="s">
-        <v>338</v>
+        <v>350</v>
+      </c>
+      <c r="D207" s="8" t="s">
+        <v>161</v>
       </c>
       <c r="E207" s="3" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
-        <v>144</v>
+        <v>517</v>
       </c>
       <c r="B208" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C208" s="3">
-        <v>250</v>
-      </c>
-      <c r="D208" s="2" t="s">
-        <v>339</v>
+        <v>400</v>
+      </c>
+      <c r="D208" s="8" t="s">
+        <v>161</v>
       </c>
       <c r="E208" s="3" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
-        <v>145</v>
+        <v>518</v>
       </c>
       <c r="B209" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C209" s="3">
-        <v>250</v>
-      </c>
-      <c r="D209" s="2" t="s">
-        <v>340</v>
+        <v>350</v>
+      </c>
+      <c r="D209" s="8" t="s">
+        <v>161</v>
       </c>
       <c r="E209" s="3" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
-        <v>146</v>
+        <v>519</v>
       </c>
       <c r="B210" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C210" s="3">
-        <v>250</v>
-      </c>
-      <c r="D210" s="2" t="s">
-        <v>341</v>
+        <v>350</v>
+      </c>
+      <c r="D210" s="8" t="s">
+        <v>161</v>
       </c>
       <c r="E210" s="3" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
-        <v>147</v>
+        <v>520</v>
       </c>
       <c r="B211" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C211" s="3">
-        <v>250</v>
-      </c>
-      <c r="D211" s="2" t="s">
-        <v>342</v>
+        <v>400</v>
+      </c>
+      <c r="D211" s="8" t="s">
+        <v>161</v>
       </c>
       <c r="E211" s="3" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
-        <v>148</v>
+        <v>521</v>
       </c>
       <c r="B212" s="3">
         <v>0</v>
       </c>
       <c r="C212" s="3">
-        <v>250</v>
-      </c>
-      <c r="D212" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="D212" s="8" t="s">
         <v>161</v>
       </c>
       <c r="E212" s="3" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
-        <v>149</v>
+        <v>522</v>
       </c>
       <c r="B213" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C213" s="3">
-        <v>250</v>
-      </c>
-      <c r="D213" s="2" t="s">
-        <v>343</v>
+        <v>350</v>
+      </c>
+      <c r="D213" s="8" t="s">
+        <v>161</v>
       </c>
       <c r="E213" s="3" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
-        <v>150</v>
+        <v>523</v>
       </c>
       <c r="B214" s="3">
         <v>0</v>
       </c>
       <c r="C214" s="3">
-        <v>250</v>
-      </c>
-      <c r="D214" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="D214" s="8" t="s">
         <v>161</v>
       </c>
       <c r="E214" s="3" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
-        <v>151</v>
+        <v>524</v>
       </c>
       <c r="B215" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C215" s="3">
-        <v>250</v>
-      </c>
-      <c r="D215" s="2" t="s">
-        <v>344</v>
+        <v>350</v>
+      </c>
+      <c r="D215" s="8" t="s">
+        <v>161</v>
       </c>
       <c r="E215" s="3" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="B216" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C216" s="3">
         <v>250</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="E216" s="3" t="s">
         <v>141</v>
@@ -5778,16 +5817,16 @@
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="B217" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C217" s="3">
         <v>250</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="E217" s="3" t="s">
         <v>141</v>
@@ -5795,16 +5834,16 @@
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="B218" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C218" s="3">
         <v>250</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="E218" s="3" t="s">
         <v>141</v>
@@ -5812,16 +5851,16 @@
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="B219" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C219" s="3">
         <v>250</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>161</v>
+        <v>339</v>
       </c>
       <c r="E219" s="3" t="s">
         <v>141</v>
@@ -5829,458 +5868,458 @@
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="B220" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C220" s="3">
         <v>250</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>161</v>
+        <v>340</v>
       </c>
       <c r="E220" s="3" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A221" s="7" t="s">
-        <v>469</v>
+      <c r="A221" s="1" t="s">
+        <v>146</v>
       </c>
       <c r="B221" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C221" s="3">
         <v>250</v>
       </c>
-      <c r="D221" s="8" t="s">
-        <v>477</v>
-      </c>
-      <c r="E221" s="6" t="s">
-        <v>476</v>
+      <c r="D221" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="E221" s="3" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
-        <v>470</v>
+        <v>147</v>
       </c>
       <c r="B222" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C222" s="3">
         <v>250</v>
       </c>
-      <c r="D222" s="8" t="s">
-        <v>480</v>
-      </c>
-      <c r="E222" s="6" t="s">
-        <v>476</v>
+      <c r="D222" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="E222" s="3" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
-        <v>471</v>
+        <v>148</v>
       </c>
       <c r="B223" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C223" s="3">
-        <v>220</v>
-      </c>
-      <c r="D223" s="8" t="s">
-        <v>481</v>
-      </c>
-      <c r="E223" s="6" t="s">
-        <v>476</v>
+        <v>250</v>
+      </c>
+      <c r="D223" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E223" s="3" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
-        <v>472</v>
+        <v>149</v>
       </c>
       <c r="B224" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C224" s="3">
-        <v>220</v>
-      </c>
-      <c r="D224" s="8" t="s">
-        <v>478</v>
-      </c>
-      <c r="E224" s="6" t="s">
-        <v>476</v>
+        <v>250</v>
+      </c>
+      <c r="D224" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="E224" s="3" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
-        <v>473</v>
+        <v>150</v>
       </c>
       <c r="B225" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C225" s="3">
-        <v>220</v>
-      </c>
-      <c r="D225" s="8" t="s">
-        <v>479</v>
-      </c>
-      <c r="E225" s="6" t="s">
-        <v>476</v>
+        <v>250</v>
+      </c>
+      <c r="D225" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E225" s="3" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
-        <v>474</v>
+        <v>151</v>
       </c>
       <c r="B226" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C226" s="3">
-        <v>220</v>
-      </c>
-      <c r="D226" s="8" t="s">
-        <v>482</v>
-      </c>
-      <c r="E226" s="6" t="s">
-        <v>476</v>
+        <v>250</v>
+      </c>
+      <c r="D226" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="E226" s="3" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
-        <v>475</v>
+        <v>152</v>
       </c>
       <c r="B227" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C227" s="3">
-        <v>160</v>
-      </c>
-      <c r="D227" s="8" t="s">
-        <v>483</v>
-      </c>
-      <c r="E227" s="6" t="s">
-        <v>476</v>
+        <v>250</v>
+      </c>
+      <c r="D227" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="E227" s="3" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="B228" s="5">
-        <v>6</v>
+        <v>153</v>
+      </c>
+      <c r="B228" s="3">
+        <v>1</v>
       </c>
       <c r="C228" s="3">
         <v>250</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="E228" s="6" t="s">
-        <v>206</v>
+        <v>346</v>
+      </c>
+      <c r="E228" s="3" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A229" t="s">
-        <v>200</v>
-      </c>
-      <c r="B229" s="5">
-        <v>1</v>
+      <c r="A229" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B229" s="3">
+        <v>2</v>
       </c>
       <c r="C229" s="3">
         <v>250</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="E229" s="6" t="s">
-        <v>206</v>
+        <v>347</v>
+      </c>
+      <c r="E229" s="3" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A230" t="s">
-        <v>201</v>
-      </c>
-      <c r="B230" s="5">
-        <v>1</v>
-      </c>
-      <c r="C230" s="6">
-        <v>220</v>
+      <c r="A230" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B230" s="3">
+        <v>0</v>
+      </c>
+      <c r="C230" s="3">
+        <v>250</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="E230" s="6" t="s">
-        <v>412</v>
+        <v>161</v>
+      </c>
+      <c r="E230" s="3" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A231" t="s">
-        <v>326</v>
-      </c>
-      <c r="B231" s="5">
+      <c r="A231" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B231" s="3">
         <v>0</v>
       </c>
-      <c r="C231" s="6">
-        <v>220</v>
+      <c r="C231" s="3">
+        <v>250</v>
       </c>
       <c r="D231" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="E231" s="6" t="s">
-        <v>412</v>
+      <c r="E231" s="3" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A232" t="s">
-        <v>202</v>
-      </c>
-      <c r="B232" s="5">
+      <c r="A232" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="B232" s="3">
+        <v>4</v>
+      </c>
+      <c r="C232" s="3">
+        <v>250</v>
+      </c>
+      <c r="D232" s="8" t="s">
+        <v>477</v>
+      </c>
+      <c r="E232" s="6" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A233" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="B233" s="3">
         <v>2</v>
       </c>
-      <c r="C232" s="6">
+      <c r="C233" s="3">
+        <v>250</v>
+      </c>
+      <c r="D233" s="8" t="s">
+        <v>480</v>
+      </c>
+      <c r="E233" s="6" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A234" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="B234" s="3">
+        <v>1</v>
+      </c>
+      <c r="C234" s="3">
         <v>220</v>
       </c>
-      <c r="D232" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="E232" s="6" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A233" t="s">
-        <v>203</v>
-      </c>
-      <c r="B233" s="5">
-        <v>1</v>
-      </c>
-      <c r="C233" s="6">
+      <c r="D234" s="8" t="s">
+        <v>481</v>
+      </c>
+      <c r="E234" s="6" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A235" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="B235" s="3">
+        <v>1</v>
+      </c>
+      <c r="C235" s="3">
         <v>220</v>
       </c>
-      <c r="D233" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="E233" s="6" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A234" t="s">
-        <v>204</v>
-      </c>
-      <c r="B234" s="5">
-        <v>1</v>
-      </c>
-      <c r="C234" s="6">
+      <c r="D235" s="8" t="s">
+        <v>478</v>
+      </c>
+      <c r="E235" s="6" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A236" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="B236" s="3">
+        <v>1</v>
+      </c>
+      <c r="C236" s="3">
         <v>220</v>
       </c>
-      <c r="D234" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="E234" s="6" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A235" t="s">
-        <v>205</v>
-      </c>
-      <c r="B235" s="5">
-        <v>5</v>
-      </c>
-      <c r="C235" s="6">
-        <v>350</v>
-      </c>
-      <c r="D235" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="E235" s="6" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A236" t="s">
-        <v>353</v>
-      </c>
-      <c r="B236" s="5">
-        <v>10</v>
-      </c>
-      <c r="C236" s="6">
-        <v>250</v>
-      </c>
-      <c r="D236" s="4" t="s">
-        <v>357</v>
+      <c r="D236" s="8" t="s">
+        <v>479</v>
       </c>
       <c r="E236" s="6" t="s">
-        <v>356</v>
+        <v>476</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A237" t="s">
-        <v>354</v>
-      </c>
-      <c r="B237" s="5">
-        <v>1</v>
-      </c>
-      <c r="C237" s="6">
-        <v>250</v>
-      </c>
-      <c r="D237" s="4" t="s">
-        <v>358</v>
+      <c r="A237" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="B237" s="3">
+        <v>2</v>
+      </c>
+      <c r="C237" s="3">
+        <v>220</v>
+      </c>
+      <c r="D237" s="8" t="s">
+        <v>482</v>
       </c>
       <c r="E237" s="6" t="s">
-        <v>430</v>
+        <v>476</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A238" t="s">
-        <v>355</v>
-      </c>
-      <c r="B238" s="5">
-        <v>24</v>
-      </c>
-      <c r="C238" s="6">
-        <v>250</v>
-      </c>
-      <c r="D238" s="4" t="s">
-        <v>431</v>
+      <c r="A238" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="B238" s="3">
+        <v>1</v>
+      </c>
+      <c r="C238" s="3">
+        <v>160</v>
+      </c>
+      <c r="D238" s="8" t="s">
+        <v>483</v>
       </c>
       <c r="E238" s="6" t="s">
-        <v>356</v>
+        <v>476</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A239" t="s">
-        <v>372</v>
+      <c r="A239" s="1" t="s">
+        <v>199</v>
       </c>
       <c r="B239" s="5">
         <v>6</v>
       </c>
-      <c r="C239" s="6">
-        <v>150</v>
-      </c>
-      <c r="D239" s="4" t="s">
-        <v>365</v>
+      <c r="C239" s="3">
+        <v>250</v>
+      </c>
+      <c r="D239" s="2" t="s">
+        <v>257</v>
       </c>
       <c r="E239" s="6" t="s">
-        <v>356</v>
+        <v>206</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>370</v>
+        <v>200</v>
       </c>
       <c r="B240" s="5">
-        <v>2</v>
-      </c>
-      <c r="C240" s="6">
-        <v>150</v>
-      </c>
-      <c r="D240" s="4" t="s">
-        <v>368</v>
+        <v>1</v>
+      </c>
+      <c r="C240" s="3">
+        <v>250</v>
+      </c>
+      <c r="D240" s="2" t="s">
+        <v>327</v>
       </c>
       <c r="E240" s="6" t="s">
-        <v>356</v>
+        <v>206</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>371</v>
+        <v>201</v>
       </c>
       <c r="B241" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C241" s="6">
-        <v>150</v>
-      </c>
-      <c r="D241" s="4" t="s">
-        <v>369</v>
+        <v>220</v>
+      </c>
+      <c r="D241" s="2" t="s">
+        <v>328</v>
       </c>
       <c r="E241" s="6" t="s">
-        <v>356</v>
+        <v>412</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>367</v>
+        <v>326</v>
       </c>
       <c r="B242" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C242" s="6">
-        <v>550</v>
-      </c>
-      <c r="D242" s="4" t="s">
-        <v>366</v>
+        <v>220</v>
+      </c>
+      <c r="D242" s="2" t="s">
+        <v>161</v>
       </c>
       <c r="E242" s="6" t="s">
-        <v>356</v>
+        <v>412</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>413</v>
+        <v>202</v>
       </c>
       <c r="B243" s="5">
         <v>2</v>
       </c>
       <c r="C243" s="6">
-        <v>650</v>
-      </c>
-      <c r="D243" s="4" t="s">
-        <v>414</v>
+        <v>220</v>
+      </c>
+      <c r="D243" s="2" t="s">
+        <v>329</v>
       </c>
       <c r="E243" s="6" t="s">
-        <v>356</v>
+        <v>412</v>
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>359</v>
+        <v>203</v>
       </c>
       <c r="B244" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C244" s="6">
-        <v>300</v>
-      </c>
-      <c r="D244" s="4" t="s">
-        <v>161</v>
+        <v>220</v>
+      </c>
+      <c r="D244" s="2" t="s">
+        <v>350</v>
       </c>
       <c r="E244" s="6" t="s">
-        <v>360</v>
+        <v>412</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>363</v>
+        <v>204</v>
       </c>
       <c r="B245" s="5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C245" s="6">
-        <v>800</v>
-      </c>
-      <c r="D245" s="4" t="s">
-        <v>361</v>
+        <v>220</v>
+      </c>
+      <c r="D245" s="2" t="s">
+        <v>351</v>
       </c>
       <c r="E245" s="6" t="s">
-        <v>206</v>
+        <v>412</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>364</v>
+        <v>205</v>
       </c>
       <c r="B246" s="5">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C246" s="6">
-        <v>200</v>
-      </c>
-      <c r="D246" s="4" t="s">
-        <v>362</v>
+        <v>350</v>
+      </c>
+      <c r="D246" s="2" t="s">
+        <v>258</v>
       </c>
       <c r="E246" s="6" t="s">
         <v>206</v>
@@ -6288,203 +6327,203 @@
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>375</v>
+        <v>353</v>
       </c>
       <c r="B247" s="5">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C247" s="6">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="D247" s="4" t="s">
-        <v>382</v>
+        <v>357</v>
       </c>
       <c r="E247" s="6" t="s">
-        <v>380</v>
+        <v>356</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>376</v>
+        <v>354</v>
       </c>
       <c r="B248" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C248" s="6">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="D248" s="4" t="s">
-        <v>383</v>
+        <v>358</v>
       </c>
       <c r="E248" s="6" t="s">
-        <v>380</v>
+        <v>430</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>377</v>
+        <v>355</v>
       </c>
       <c r="B249" s="5">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="C249" s="6">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="D249" s="4" t="s">
-        <v>384</v>
+        <v>431</v>
       </c>
       <c r="E249" s="6" t="s">
-        <v>380</v>
+        <v>356</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="B250" s="5">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C250" s="6">
         <v>150</v>
       </c>
       <c r="D250" s="4" t="s">
-        <v>401</v>
+        <v>365</v>
       </c>
       <c r="E250" s="6" t="s">
-        <v>380</v>
+        <v>356</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="B251" s="5">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C251" s="6">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="D251" s="4" t="s">
-        <v>385</v>
+        <v>368</v>
       </c>
       <c r="E251" s="6" t="s">
-        <v>380</v>
+        <v>356</v>
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="B252" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C252" s="6">
-        <v>550</v>
+        <v>150</v>
       </c>
       <c r="D252" s="4" t="s">
-        <v>386</v>
+        <v>369</v>
       </c>
       <c r="E252" s="6" t="s">
-        <v>380</v>
+        <v>356</v>
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>387</v>
+        <v>367</v>
       </c>
       <c r="B253" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C253" s="6">
         <v>550</v>
       </c>
       <c r="D253" s="4" t="s">
-        <v>388</v>
+        <v>366</v>
       </c>
       <c r="E253" s="6" t="s">
-        <v>380</v>
+        <v>356</v>
       </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>389</v>
+        <v>413</v>
       </c>
       <c r="B254" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C254" s="6">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="D254" s="4" t="s">
-        <v>395</v>
+        <v>414</v>
       </c>
       <c r="E254" s="6" t="s">
-        <v>380</v>
+        <v>356</v>
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>390</v>
+        <v>359</v>
       </c>
       <c r="B255" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C255" s="6">
-        <v>550</v>
+        <v>300</v>
       </c>
       <c r="D255" s="4" t="s">
-        <v>396</v>
+        <v>161</v>
       </c>
       <c r="E255" s="6" t="s">
-        <v>380</v>
+        <v>360</v>
       </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>391</v>
+        <v>363</v>
       </c>
       <c r="B256" s="5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C256" s="6">
-        <v>550</v>
+        <v>800</v>
       </c>
       <c r="D256" s="4" t="s">
-        <v>397</v>
+        <v>361</v>
       </c>
       <c r="E256" s="6" t="s">
-        <v>380</v>
+        <v>206</v>
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>392</v>
+        <v>364</v>
       </c>
       <c r="B257" s="5">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C257" s="6">
-        <v>550</v>
+        <v>200</v>
       </c>
       <c r="D257" s="4" t="s">
-        <v>398</v>
+        <v>362</v>
       </c>
       <c r="E257" s="6" t="s">
-        <v>380</v>
+        <v>206</v>
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>394</v>
+        <v>375</v>
       </c>
       <c r="B258" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C258" s="6">
-        <v>550</v>
+        <v>150</v>
       </c>
       <c r="D258" s="4" t="s">
-        <v>399</v>
+        <v>382</v>
       </c>
       <c r="E258" s="6" t="s">
         <v>380</v>
@@ -6492,16 +6531,16 @@
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>393</v>
+        <v>376</v>
       </c>
       <c r="B259" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C259" s="6">
-        <v>550</v>
+        <v>150</v>
       </c>
       <c r="D259" s="4" t="s">
-        <v>400</v>
+        <v>383</v>
       </c>
       <c r="E259" s="6" t="s">
         <v>380</v>
@@ -6509,69 +6548,273 @@
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>402</v>
+        <v>377</v>
       </c>
       <c r="B260" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C260" s="6">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="D260" s="4" t="s">
-        <v>406</v>
+        <v>384</v>
       </c>
       <c r="E260" s="6" t="s">
-        <v>206</v>
+        <v>380</v>
       </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>403</v>
+        <v>378</v>
       </c>
       <c r="B261" s="5">
         <v>1</v>
       </c>
       <c r="C261" s="6">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="D261" s="4" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="E261" s="6" t="s">
-        <v>206</v>
+        <v>380</v>
       </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>404</v>
+        <v>379</v>
       </c>
       <c r="B262" s="5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C262" s="6">
-        <v>250</v>
+        <v>30</v>
       </c>
       <c r="D262" s="4" t="s">
-        <v>408</v>
+        <v>385</v>
       </c>
       <c r="E262" s="6" t="s">
-        <v>206</v>
+        <v>380</v>
       </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
+        <v>381</v>
+      </c>
+      <c r="B263" s="5">
+        <v>1</v>
+      </c>
+      <c r="C263" s="6">
+        <v>550</v>
+      </c>
+      <c r="D263" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="E263" s="6" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
+        <v>387</v>
+      </c>
+      <c r="B264" s="5">
+        <v>1</v>
+      </c>
+      <c r="C264" s="6">
+        <v>550</v>
+      </c>
+      <c r="D264" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="E264" s="6" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
+        <v>389</v>
+      </c>
+      <c r="B265" s="5">
+        <v>1</v>
+      </c>
+      <c r="C265" s="6">
+        <v>550</v>
+      </c>
+      <c r="D265" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="E265" s="6" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
+        <v>390</v>
+      </c>
+      <c r="B266" s="5">
+        <v>1</v>
+      </c>
+      <c r="C266" s="6">
+        <v>550</v>
+      </c>
+      <c r="D266" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="E266" s="6" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
+        <v>391</v>
+      </c>
+      <c r="B267" s="5">
+        <v>1</v>
+      </c>
+      <c r="C267" s="6">
+        <v>550</v>
+      </c>
+      <c r="D267" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="E267" s="6" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
+        <v>392</v>
+      </c>
+      <c r="B268" s="5">
+        <v>1</v>
+      </c>
+      <c r="C268" s="6">
+        <v>550</v>
+      </c>
+      <c r="D268" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="E268" s="6" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
+        <v>394</v>
+      </c>
+      <c r="B269" s="5">
+        <v>1</v>
+      </c>
+      <c r="C269" s="6">
+        <v>550</v>
+      </c>
+      <c r="D269" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="E269" s="6" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
+        <v>393</v>
+      </c>
+      <c r="B270" s="5">
+        <v>1</v>
+      </c>
+      <c r="C270" s="6">
+        <v>550</v>
+      </c>
+      <c r="D270" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="E270" s="6" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
+        <v>402</v>
+      </c>
+      <c r="B271" s="5">
+        <v>2</v>
+      </c>
+      <c r="C271" s="6">
+        <v>250</v>
+      </c>
+      <c r="D271" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="E271" s="6" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A272" t="s">
+        <v>403</v>
+      </c>
+      <c r="B272" s="5">
+        <v>1</v>
+      </c>
+      <c r="C272" s="6">
+        <v>250</v>
+      </c>
+      <c r="D272" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="E272" s="6" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
+        <v>404</v>
+      </c>
+      <c r="B273" s="5">
+        <v>0</v>
+      </c>
+      <c r="C273" s="6">
+        <v>250</v>
+      </c>
+      <c r="D273" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="E273" s="6" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
         <v>405</v>
       </c>
-      <c r="B263" s="5">
-        <v>1</v>
-      </c>
-      <c r="C263" s="6">
-        <v>250</v>
-      </c>
-      <c r="D263" s="4" t="s">
+      <c r="B274" s="5">
+        <v>1</v>
+      </c>
+      <c r="C274" s="6">
+        <v>250</v>
+      </c>
+      <c r="D274" s="4" t="s">
         <v>409</v>
       </c>
-      <c r="E263" s="6" t="s">
+      <c r="E274" s="6" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
+        <v>513</v>
+      </c>
+      <c r="B275" s="5">
+        <v>4</v>
+      </c>
+      <c r="C275" s="6">
+        <v>220</v>
+      </c>
+      <c r="D275" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="E275" s="6" t="s">
         <v>206</v>
       </c>
     </row>

--- a/data/stock.xlsx
+++ b/data/stock.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\blocks\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D8E6E6F-CB51-4D27-A95C-1E4275DE1772}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BDFEA3C-BD56-4FF3-A925-24B2287FA6F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3420" yWindow="1455" windowWidth="21600" windowHeight="11250" xr2:uid="{FC0CBB84-858B-49F6-BA69-44D83C89F7C4}"/>
+    <workbookView xWindow="3075" yWindow="1800" windowWidth="21600" windowHeight="11250" xr2:uid="{FC0CBB84-858B-49F6-BA69-44D83C89F7C4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="827" uniqueCount="525">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="565">
   <si>
     <t>Product</t>
   </si>
@@ -450,9 +450,6 @@
     <t>Gojo</t>
   </si>
   <si>
-    <t>Sukuna</t>
-  </si>
-  <si>
     <t>Mahito</t>
   </si>
   <si>
@@ -1113,9 +1110,6 @@
     <t>pokemon sticker.jpg</t>
   </si>
   <si>
-    <t>Goku</t>
-  </si>
-  <si>
     <t>DBZ</t>
   </si>
   <si>
@@ -1581,18 +1575,6 @@
     <t>Makora</t>
   </si>
   <si>
-    <t>Sukuna (Multihands)</t>
-  </si>
-  <si>
-    <t>Sukuna (Fushiguro)</t>
-  </si>
-  <si>
-    <t>Gojo 0.5</t>
-  </si>
-  <si>
-    <t>Gojo (Purple Hollow)</t>
-  </si>
-  <si>
     <t>Fushiguro Megumi</t>
   </si>
   <si>
@@ -1608,7 +1590,145 @@
     <t>Yuta</t>
   </si>
   <si>
-    <t>Sukuna (heart)</t>
+    <t>Ryomen Sukuna (True Form)</t>
+  </si>
+  <si>
+    <t>Ryomen Sukuna (Megumi Form)</t>
+  </si>
+  <si>
+    <t>Satoru Gojo (Final Arc)</t>
+  </si>
+  <si>
+    <t>Satoru Gojo (Strongest Form)</t>
+  </si>
+  <si>
+    <t>Ryomen Sukuna (Itadori Form)</t>
+  </si>
+  <si>
+    <t>Itadori Yuji</t>
+  </si>
+  <si>
+    <t>makora.jpg</t>
+  </si>
+  <si>
+    <t>sukuna mult.jpg</t>
+  </si>
+  <si>
+    <t>sukuna fushi.jpg</t>
+  </si>
+  <si>
+    <t>gojo half.jpg</t>
+  </si>
+  <si>
+    <t>gojo purple.jpg</t>
+  </si>
+  <si>
+    <t>megumi.jpg</t>
+  </si>
+  <si>
+    <t>toji.jpg</t>
+  </si>
+  <si>
+    <t>yuki.jpg</t>
+  </si>
+  <si>
+    <t>maki.jpg</t>
+  </si>
+  <si>
+    <t>yuta.jpg</t>
+  </si>
+  <si>
+    <t>sukuna heart.jpg</t>
+  </si>
+  <si>
+    <t>Goku SS4</t>
+  </si>
+  <si>
+    <t>Goku SSG</t>
+  </si>
+  <si>
+    <t>Goku Ultra Instinct</t>
+  </si>
+  <si>
+    <t>Vegeta SSG</t>
+  </si>
+  <si>
+    <t>Son Gohan</t>
+  </si>
+  <si>
+    <t>Jiren Final form</t>
+  </si>
+  <si>
+    <t>Jiren</t>
+  </si>
+  <si>
+    <t>Goku SS2</t>
+  </si>
+  <si>
+    <t>Frieza</t>
+  </si>
+  <si>
+    <t>Birusu</t>
+  </si>
+  <si>
+    <t>Vegeta</t>
+  </si>
+  <si>
+    <t>Hitto</t>
+  </si>
+  <si>
+    <t>Zamasu</t>
+  </si>
+  <si>
+    <t>Majin Buu</t>
+  </si>
+  <si>
+    <t>Piccolo</t>
+  </si>
+  <si>
+    <t>goku ss4.jpg</t>
+  </si>
+  <si>
+    <t>goku ssg.jpg</t>
+  </si>
+  <si>
+    <t>goku ultra instinct.jpg</t>
+  </si>
+  <si>
+    <t>vegeta ssg.jpg</t>
+  </si>
+  <si>
+    <t>son gohan.jpg</t>
+  </si>
+  <si>
+    <t>jiren final form.jpg</t>
+  </si>
+  <si>
+    <t>jiren.jpg</t>
+  </si>
+  <si>
+    <t>goku ss2.jpg</t>
+  </si>
+  <si>
+    <t>frieza.jpg</t>
+  </si>
+  <si>
+    <t>birusu.jpg</t>
+  </si>
+  <si>
+    <t>vegeta.jpg</t>
+  </si>
+  <si>
+    <t>piccolo.jpg</t>
+  </si>
+  <si>
+    <t>majin buu.jpg</t>
+  </si>
+  <si>
+    <t>hitto.jpg</t>
+  </si>
+  <si>
+    <t>zamasu.jpg</t>
   </si>
 </sst>
 </file>
@@ -2130,10 +2250,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCDC9875-9E8E-485C-910E-47B83A1F9902}">
-  <dimension ref="A1:E275"/>
+  <dimension ref="A1:E289"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A199" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E204" sqref="E204:E215"/>
+    <sheetView tabSelected="1" topLeftCell="A243" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B255" sqref="B255:B269"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2171,7 +2291,7 @@
         <v>220</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>6</v>
@@ -2188,7 +2308,7 @@
         <v>220</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>6</v>
@@ -2205,7 +2325,7 @@
         <v>350</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>6</v>
@@ -2222,7 +2342,7 @@
         <v>180</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>6</v>
@@ -2239,7 +2359,7 @@
         <v>180</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>6</v>
@@ -2256,7 +2376,7 @@
         <v>200</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>6</v>
@@ -2273,7 +2393,7 @@
         <v>180</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>6</v>
@@ -2290,7 +2410,7 @@
         <v>200</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>6</v>
@@ -2298,7 +2418,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B10" s="3">
         <v>2</v>
@@ -2307,7 +2427,7 @@
         <v>250</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>6</v>
@@ -2315,7 +2435,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B11" s="3">
         <v>2</v>
@@ -2324,7 +2444,7 @@
         <v>250</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>6</v>
@@ -2332,7 +2452,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B12" s="3">
         <v>3</v>
@@ -2341,7 +2461,7 @@
         <v>250</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>6</v>
@@ -2349,7 +2469,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B13" s="3">
         <v>2</v>
@@ -2358,7 +2478,7 @@
         <v>250</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>6</v>
@@ -2366,7 +2486,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B14" s="3">
         <v>2</v>
@@ -2375,7 +2495,7 @@
         <v>250</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>6</v>
@@ -2383,7 +2503,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B15" s="3">
         <v>1</v>
@@ -2392,7 +2512,7 @@
         <v>250</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>6</v>
@@ -2400,7 +2520,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B16" s="3">
         <v>1</v>
@@ -2409,7 +2529,7 @@
         <v>250</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>6</v>
@@ -2417,7 +2537,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B17" s="3">
         <v>1</v>
@@ -2426,7 +2546,7 @@
         <v>250</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>6</v>
@@ -2434,7 +2554,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B18" s="3">
         <v>2</v>
@@ -2443,7 +2563,7 @@
         <v>250</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>6</v>
@@ -2460,7 +2580,7 @@
         <v>220</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>6</v>
@@ -2477,7 +2597,7 @@
         <v>220</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>6</v>
@@ -2494,7 +2614,7 @@
         <v>220</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>6</v>
@@ -2511,7 +2631,7 @@
         <v>220</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>6</v>
@@ -2528,7 +2648,7 @@
         <v>220</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>6</v>
@@ -2545,7 +2665,7 @@
         <v>220</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>6</v>
@@ -2562,7 +2682,7 @@
         <v>220</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>6</v>
@@ -2579,7 +2699,7 @@
         <v>220</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>6</v>
@@ -2596,7 +2716,7 @@
         <v>200</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>6</v>
@@ -2613,7 +2733,7 @@
         <v>220</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>6</v>
@@ -2630,7 +2750,7 @@
         <v>180</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>6</v>
@@ -2647,7 +2767,7 @@
         <v>180</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>6</v>
@@ -2664,7 +2784,7 @@
         <v>180</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>6</v>
@@ -2681,7 +2801,7 @@
         <v>180</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>6</v>
@@ -2698,7 +2818,7 @@
         <v>180</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>6</v>
@@ -2715,7 +2835,7 @@
         <v>180</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>6</v>
@@ -2732,7 +2852,7 @@
         <v>180</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>6</v>
@@ -2749,7 +2869,7 @@
         <v>270</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>6</v>
@@ -2766,7 +2886,7 @@
         <v>270</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>6</v>
@@ -2783,7 +2903,7 @@
         <v>270</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>6</v>
@@ -2800,7 +2920,7 @@
         <v>450</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>6</v>
@@ -2817,7 +2937,7 @@
         <v>380</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>6</v>
@@ -2834,7 +2954,7 @@
         <v>800</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>6</v>
@@ -2851,7 +2971,7 @@
         <v>270</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>6</v>
@@ -2868,7 +2988,7 @@
         <v>270</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>6</v>
@@ -2885,7 +3005,7 @@
         <v>270</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>6</v>
@@ -2893,7 +3013,7 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B45" s="3">
         <v>1</v>
@@ -2902,7 +3022,7 @@
         <v>250</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>6</v>
@@ -2919,7 +3039,7 @@
         <v>850</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E46" s="3" t="s">
         <v>6</v>
@@ -2927,7 +3047,7 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B47" s="3">
         <v>2</v>
@@ -2936,7 +3056,7 @@
         <v>250</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>6</v>
@@ -2944,7 +3064,7 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B48" s="3">
         <v>2</v>
@@ -2953,7 +3073,7 @@
         <v>250</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>6</v>
@@ -2970,7 +3090,7 @@
         <v>250</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>6</v>
@@ -2987,7 +3107,7 @@
         <v>250</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>6</v>
@@ -2995,7 +3115,7 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B51" s="3">
         <v>1</v>
@@ -3004,7 +3124,7 @@
         <v>250</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E51" s="3" t="s">
         <v>6</v>
@@ -3012,7 +3132,7 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B52" s="3">
         <v>1</v>
@@ -3021,7 +3141,7 @@
         <v>250</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>6</v>
@@ -3029,7 +3149,7 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B53" s="3">
         <v>1</v>
@@ -3038,7 +3158,7 @@
         <v>250</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E53" s="3" t="s">
         <v>6</v>
@@ -3046,7 +3166,7 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B54" s="3">
         <v>2</v>
@@ -3055,7 +3175,7 @@
         <v>360</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>6</v>
@@ -3063,7 +3183,7 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B55" s="3">
         <v>1</v>
@@ -3072,7 +3192,7 @@
         <v>360</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E55" s="3" t="s">
         <v>6</v>
@@ -3080,7 +3200,7 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B56" s="3">
         <v>2</v>
@@ -3089,7 +3209,7 @@
         <v>200</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E56" s="3" t="s">
         <v>6</v>
@@ -3097,7 +3217,7 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B57" s="3">
         <v>4</v>
@@ -3106,7 +3226,7 @@
         <v>260</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>6</v>
@@ -3114,7 +3234,7 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B58" s="3">
         <v>2</v>
@@ -3123,7 +3243,7 @@
         <v>260</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>6</v>
@@ -3131,7 +3251,7 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B59" s="3">
         <v>2</v>
@@ -3140,7 +3260,7 @@
         <v>260</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="E59" s="3" t="s">
         <v>6</v>
@@ -3148,7 +3268,7 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B60" s="3">
         <v>4</v>
@@ -3157,7 +3277,7 @@
         <v>260</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="E60" s="3" t="s">
         <v>6</v>
@@ -3165,7 +3285,7 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="7" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B61" s="3">
         <v>1</v>
@@ -3174,7 +3294,7 @@
         <v>220</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="E61" s="3" t="s">
         <v>6</v>
@@ -3182,7 +3302,7 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="7" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B62" s="3">
         <v>0</v>
@@ -3191,7 +3311,7 @@
         <v>250</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E62" s="3" t="s">
         <v>6</v>
@@ -3199,7 +3319,7 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B63" s="3">
         <v>5</v>
@@ -3208,7 +3328,7 @@
         <v>250</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="E63" s="3" t="s">
         <v>6</v>
@@ -3216,7 +3336,7 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="7" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B64" s="3">
         <v>1</v>
@@ -3225,7 +3345,7 @@
         <v>250</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="E64" s="3" t="s">
         <v>6</v>
@@ -3233,7 +3353,7 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B65" s="3">
         <v>2</v>
@@ -3242,7 +3362,7 @@
         <v>250</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="E65" s="3" t="s">
         <v>6</v>
@@ -3250,7 +3370,7 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="7" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B66" s="3">
         <v>2</v>
@@ -3259,7 +3379,7 @@
         <v>250</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="E66" s="3" t="s">
         <v>6</v>
@@ -3267,7 +3387,7 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B67" s="3">
         <v>3</v>
@@ -3276,7 +3396,7 @@
         <v>220</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="E67" s="3" t="s">
         <v>6</v>
@@ -3293,7 +3413,7 @@
         <v>180</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E68" s="3" t="s">
         <v>44</v>
@@ -3301,7 +3421,7 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B69" s="3">
         <v>1</v>
@@ -3310,7 +3430,7 @@
         <v>250</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="E69" s="3" t="s">
         <v>44</v>
@@ -3327,7 +3447,7 @@
         <v>250</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="E70" s="3" t="s">
         <v>44</v>
@@ -3335,7 +3455,7 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B71" s="3">
         <v>1</v>
@@ -3344,7 +3464,7 @@
         <v>250</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E71" s="3" t="s">
         <v>44</v>
@@ -3361,7 +3481,7 @@
         <v>180</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>44</v>
@@ -3369,7 +3489,7 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B73" s="3">
         <v>1</v>
@@ -3378,7 +3498,7 @@
         <v>250</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E73" s="3" t="s">
         <v>44</v>
@@ -3386,7 +3506,7 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B74" s="3">
         <v>1</v>
@@ -3395,7 +3515,7 @@
         <v>250</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="E74" s="3" t="s">
         <v>44</v>
@@ -3403,7 +3523,7 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B75" s="3">
         <v>1</v>
@@ -3412,7 +3532,7 @@
         <v>180</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="E75" s="3" t="s">
         <v>44</v>
@@ -3420,7 +3540,7 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B76" s="3">
         <v>1</v>
@@ -3429,7 +3549,7 @@
         <v>180</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="E76" s="3" t="s">
         <v>44</v>
@@ -3446,7 +3566,7 @@
         <v>300</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E77" s="3" t="s">
         <v>44</v>
@@ -3463,7 +3583,7 @@
         <v>300</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E78" s="3" t="s">
         <v>44</v>
@@ -3480,7 +3600,7 @@
         <v>350</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E79" s="3" t="s">
         <v>44</v>
@@ -3497,7 +3617,7 @@
         <v>350</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E80" s="3" t="s">
         <v>44</v>
@@ -3514,7 +3634,7 @@
         <v>500</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E81" s="3" t="s">
         <v>44</v>
@@ -3522,7 +3642,7 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="7" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B82" s="3">
         <v>4</v>
@@ -3531,7 +3651,7 @@
         <v>220</v>
       </c>
       <c r="D82" s="8" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="E82" s="3" t="s">
         <v>44</v>
@@ -3539,7 +3659,7 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="7" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B83" s="3">
         <v>2</v>
@@ -3548,7 +3668,7 @@
         <v>220</v>
       </c>
       <c r="D83" s="8" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="E83" s="3" t="s">
         <v>44</v>
@@ -3556,7 +3676,7 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="7" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B84" s="6">
         <v>1</v>
@@ -3565,7 +3685,7 @@
         <v>200</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="E84" s="3" t="s">
         <v>44</v>
@@ -3573,7 +3693,7 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="7" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B85" s="3">
         <v>2</v>
@@ -3582,7 +3702,7 @@
         <v>220</v>
       </c>
       <c r="D85" s="8" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="E85" s="3" t="s">
         <v>44</v>
@@ -3590,7 +3710,7 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="7" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B86" s="3">
         <v>1</v>
@@ -3599,7 +3719,7 @@
         <v>250</v>
       </c>
       <c r="D86" s="8" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="E86" s="3" t="s">
         <v>44</v>
@@ -3607,7 +3727,7 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="7" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B87" s="3">
         <v>1</v>
@@ -3616,7 +3736,7 @@
         <v>250</v>
       </c>
       <c r="D87" s="8" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="E87" s="3" t="s">
         <v>44</v>
@@ -3624,7 +3744,7 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B88" s="3">
         <v>3</v>
@@ -3633,7 +3753,7 @@
         <v>220</v>
       </c>
       <c r="D88" s="8" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="E88" s="3" t="s">
         <v>44</v>
@@ -3650,7 +3770,7 @@
         <v>350</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E89" s="3" t="s">
         <v>44</v>
@@ -3667,7 +3787,7 @@
         <v>350</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E90" s="3" t="s">
         <v>44</v>
@@ -3684,7 +3804,7 @@
         <v>350</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E91" s="3" t="s">
         <v>44</v>
@@ -3701,7 +3821,7 @@
         <v>500</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E92" s="3" t="s">
         <v>44</v>
@@ -3718,7 +3838,7 @@
         <v>500</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E93" s="3" t="s">
         <v>44</v>
@@ -3735,7 +3855,7 @@
         <v>300</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E94" s="3" t="s">
         <v>58</v>
@@ -3743,7 +3863,7 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B95" s="3">
         <v>2</v>
@@ -3752,7 +3872,7 @@
         <v>300</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E95" s="3" t="s">
         <v>58</v>
@@ -3769,7 +3889,7 @@
         <v>300</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E96" s="3" t="s">
         <v>58</v>
@@ -3786,7 +3906,7 @@
         <v>300</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E97" s="3" t="s">
         <v>58</v>
@@ -3803,7 +3923,7 @@
         <v>300</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E98" s="3" t="s">
         <v>58</v>
@@ -3820,7 +3940,7 @@
         <v>270</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E99" s="3" t="s">
         <v>58</v>
@@ -3837,7 +3957,7 @@
         <v>270</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E100" s="3" t="s">
         <v>58</v>
@@ -3854,7 +3974,7 @@
         <v>300</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E101" s="3" t="s">
         <v>58</v>
@@ -3871,7 +3991,7 @@
         <v>300</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E102" s="3" t="s">
         <v>58</v>
@@ -3888,7 +4008,7 @@
         <v>300</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E103" s="3" t="s">
         <v>58</v>
@@ -3896,7 +4016,7 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B104" s="3">
         <v>1</v>
@@ -3905,7 +4025,7 @@
         <v>300</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E104" s="3" t="s">
         <v>58</v>
@@ -3922,7 +4042,7 @@
         <v>300</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E105" s="3" t="s">
         <v>58</v>
@@ -3939,7 +4059,7 @@
         <v>300</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E106" s="3" t="s">
         <v>58</v>
@@ -3947,7 +4067,7 @@
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B107" s="3">
         <v>2</v>
@@ -3956,7 +4076,7 @@
         <v>350</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E107" s="3" t="s">
         <v>58</v>
@@ -3973,7 +4093,7 @@
         <v>300</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E108" s="3" t="s">
         <v>58</v>
@@ -3990,7 +4110,7 @@
         <v>300</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E109" s="3" t="s">
         <v>58</v>
@@ -4007,7 +4127,7 @@
         <v>300</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E110" s="3" t="s">
         <v>58</v>
@@ -4024,7 +4144,7 @@
         <v>300</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E111" s="3" t="s">
         <v>58</v>
@@ -4041,7 +4161,7 @@
         <v>300</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E112" s="3" t="s">
         <v>58</v>
@@ -4058,7 +4178,7 @@
         <v>300</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E113" s="3" t="s">
         <v>58</v>
@@ -4075,7 +4195,7 @@
         <v>300</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E114" s="3" t="s">
         <v>58</v>
@@ -4083,7 +4203,7 @@
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B115" s="3">
         <v>1</v>
@@ -4092,7 +4212,7 @@
         <v>300</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E115" s="3" t="s">
         <v>58</v>
@@ -4100,7 +4220,7 @@
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B116" s="3">
         <v>2</v>
@@ -4109,7 +4229,7 @@
         <v>350</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E116" s="3" t="s">
         <v>58</v>
@@ -4117,7 +4237,7 @@
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B117" s="3">
         <v>1</v>
@@ -4126,7 +4246,7 @@
         <v>350</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E117" s="3" t="s">
         <v>58</v>
@@ -4143,7 +4263,7 @@
         <v>350</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E118" s="3" t="s">
         <v>58</v>
@@ -4160,7 +4280,7 @@
         <v>350</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E119" s="3" t="s">
         <v>58</v>
@@ -4177,7 +4297,7 @@
         <v>320</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E120" s="3" t="s">
         <v>58</v>
@@ -4194,7 +4314,7 @@
         <v>320</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E121" s="3" t="s">
         <v>58</v>
@@ -4211,7 +4331,7 @@
         <v>320</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E122" s="3" t="s">
         <v>58</v>
@@ -4228,7 +4348,7 @@
         <v>320</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E123" s="3" t="s">
         <v>58</v>
@@ -4245,7 +4365,7 @@
         <v>320</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E124" s="3" t="s">
         <v>58</v>
@@ -4262,7 +4382,7 @@
         <v>320</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E125" s="3" t="s">
         <v>58</v>
@@ -4279,7 +4399,7 @@
         <v>320</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E126" s="3" t="s">
         <v>58</v>
@@ -4296,7 +4416,7 @@
         <v>320</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E127" s="3" t="s">
         <v>58</v>
@@ -4313,7 +4433,7 @@
         <v>320</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E128" s="3" t="s">
         <v>58</v>
@@ -4330,7 +4450,7 @@
         <v>320</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E129" s="3" t="s">
         <v>58</v>
@@ -4347,7 +4467,7 @@
         <v>320</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E130" s="3" t="s">
         <v>58</v>
@@ -4364,7 +4484,7 @@
         <v>320</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E131" s="3" t="s">
         <v>58</v>
@@ -4381,7 +4501,7 @@
         <v>320</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E132" s="3" t="s">
         <v>58</v>
@@ -4398,7 +4518,7 @@
         <v>320</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E133" s="3" t="s">
         <v>58</v>
@@ -4415,7 +4535,7 @@
         <v>320</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E134" s="3" t="s">
         <v>58</v>
@@ -4423,7 +4543,7 @@
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B135" s="3">
         <v>1</v>
@@ -4432,7 +4552,7 @@
         <v>320</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E135" s="3" t="s">
         <v>58</v>
@@ -4449,7 +4569,7 @@
         <v>300</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E136" s="3" t="s">
         <v>58</v>
@@ -4466,7 +4586,7 @@
         <v>300</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E137" s="3" t="s">
         <v>58</v>
@@ -4483,7 +4603,7 @@
         <v>300</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E138" s="3" t="s">
         <v>58</v>
@@ -4500,7 +4620,7 @@
         <v>300</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E139" s="3" t="s">
         <v>58</v>
@@ -4517,7 +4637,7 @@
         <v>300</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E140" s="3" t="s">
         <v>58</v>
@@ -4534,7 +4654,7 @@
         <v>300</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E141" s="3" t="s">
         <v>58</v>
@@ -4551,7 +4671,7 @@
         <v>300</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E142" s="3" t="s">
         <v>58</v>
@@ -4568,7 +4688,7 @@
         <v>300</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E143" s="3" t="s">
         <v>58</v>
@@ -4585,7 +4705,7 @@
         <v>300</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E144" s="3" t="s">
         <v>58</v>
@@ -4602,7 +4722,7 @@
         <v>300</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E145" s="3" t="s">
         <v>58</v>
@@ -4619,7 +4739,7 @@
         <v>300</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E146" s="3" t="s">
         <v>58</v>
@@ -4636,7 +4756,7 @@
         <v>400</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E147" s="3" t="s">
         <v>58</v>
@@ -4653,7 +4773,7 @@
         <v>400</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E148" s="3" t="s">
         <v>58</v>
@@ -4661,7 +4781,7 @@
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B149" s="3">
         <v>3</v>
@@ -4670,7 +4790,7 @@
         <v>300</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E149" s="3" t="s">
         <v>58</v>
@@ -4687,7 +4807,7 @@
         <v>300</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E150" s="3" t="s">
         <v>58</v>
@@ -4704,7 +4824,7 @@
         <v>300</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E151" s="3" t="s">
         <v>58</v>
@@ -4721,7 +4841,7 @@
         <v>300</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E152" s="3" t="s">
         <v>58</v>
@@ -4738,7 +4858,7 @@
         <v>300</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E153" s="3" t="s">
         <v>58</v>
@@ -4755,7 +4875,7 @@
         <v>300</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E154" s="3" t="s">
         <v>58</v>
@@ -4772,7 +4892,7 @@
         <v>300</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E155" s="3" t="s">
         <v>58</v>
@@ -4789,7 +4909,7 @@
         <v>500</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E156" s="3" t="s">
         <v>58</v>
@@ -4797,7 +4917,7 @@
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B157" s="3">
         <v>1</v>
@@ -4806,7 +4926,7 @@
         <v>280</v>
       </c>
       <c r="D157" s="8" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="E157" s="3" t="s">
         <v>58</v>
@@ -4814,7 +4934,7 @@
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B158" s="3">
         <v>1</v>
@@ -4823,7 +4943,7 @@
         <v>280</v>
       </c>
       <c r="D158" s="8" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="E158" s="3" t="s">
         <v>58</v>
@@ -4831,7 +4951,7 @@
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" s="7" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B159" s="3">
         <v>1</v>
@@ -4840,7 +4960,7 @@
         <v>280</v>
       </c>
       <c r="D159" s="8" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="E159" s="3" t="s">
         <v>58</v>
@@ -4857,7 +4977,7 @@
         <v>300</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E160" s="3" t="s">
         <v>58</v>
@@ -4874,7 +4994,7 @@
         <v>300</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E161" s="3" t="s">
         <v>58</v>
@@ -4891,7 +5011,7 @@
         <v>250</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E162" s="3" t="s">
         <v>116</v>
@@ -4899,7 +5019,7 @@
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B163" s="3">
         <v>1</v>
@@ -4908,7 +5028,7 @@
         <v>280</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E163" s="3" t="s">
         <v>116</v>
@@ -4916,7 +5036,7 @@
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B164" s="3">
         <v>1</v>
@@ -4925,7 +5045,7 @@
         <v>280</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E164" s="3" t="s">
         <v>116</v>
@@ -4933,7 +5053,7 @@
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B165" s="3">
         <v>2</v>
@@ -4942,7 +5062,7 @@
         <v>260</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E165" s="3" t="s">
         <v>116</v>
@@ -4950,7 +5070,7 @@
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B166" s="3">
         <v>1</v>
@@ -4959,7 +5079,7 @@
         <v>260</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E166" s="3" t="s">
         <v>116</v>
@@ -4976,7 +5096,7 @@
         <v>500</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E167" s="3" t="s">
         <v>116</v>
@@ -4984,7 +5104,7 @@
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B168" s="3">
         <v>1</v>
@@ -4993,7 +5113,7 @@
         <v>280</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E168" s="3" t="s">
         <v>116</v>
@@ -5010,7 +5130,7 @@
         <v>220</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E169" s="3" t="s">
         <v>116</v>
@@ -5027,7 +5147,7 @@
         <v>220</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E170" s="3" t="s">
         <v>116</v>
@@ -5044,7 +5164,7 @@
         <v>220</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E171" s="3" t="s">
         <v>116</v>
@@ -5061,7 +5181,7 @@
         <v>220</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E172" s="3" t="s">
         <v>116</v>
@@ -5078,7 +5198,7 @@
         <v>220</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E173" s="3" t="s">
         <v>116</v>
@@ -5095,7 +5215,7 @@
         <v>250</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E174" s="3" t="s">
         <v>116</v>
@@ -5103,7 +5223,7 @@
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B175" s="3">
         <v>2</v>
@@ -5112,7 +5232,7 @@
         <v>220</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E175" s="3" t="s">
         <v>116</v>
@@ -5120,7 +5240,7 @@
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B176" s="3">
         <v>3</v>
@@ -5129,7 +5249,7 @@
         <v>250</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E176" s="3" t="s">
         <v>116</v>
@@ -5137,7 +5257,7 @@
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B177" s="3">
         <v>1</v>
@@ -5146,7 +5266,7 @@
         <v>220</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E177" s="3" t="s">
         <v>116</v>
@@ -5163,7 +5283,7 @@
         <v>220</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E178" s="3" t="s">
         <v>116</v>
@@ -5171,7 +5291,7 @@
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B179" s="3">
         <v>2</v>
@@ -5180,7 +5300,7 @@
         <v>250</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E179" s="3" t="s">
         <v>116</v>
@@ -5197,7 +5317,7 @@
         <v>220</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E180" s="3" t="s">
         <v>116</v>
@@ -5214,7 +5334,7 @@
         <v>220</v>
       </c>
       <c r="D181" s="8" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="E181" s="3" t="s">
         <v>116</v>
@@ -5231,7 +5351,7 @@
         <v>350</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E182" s="3" t="s">
         <v>116</v>
@@ -5248,7 +5368,7 @@
         <v>350</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E183" s="3" t="s">
         <v>116</v>
@@ -5265,7 +5385,7 @@
         <v>350</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E184" s="3" t="s">
         <v>116</v>
@@ -5282,7 +5402,7 @@
         <v>350</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E185" s="3" t="s">
         <v>116</v>
@@ -5299,7 +5419,7 @@
         <v>350</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E186" s="3" t="s">
         <v>116</v>
@@ -5316,7 +5436,7 @@
         <v>350</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E187" s="3" t="s">
         <v>116</v>
@@ -5333,7 +5453,7 @@
         <v>220</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E188" s="3" t="s">
         <v>116</v>
@@ -5341,7 +5461,7 @@
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" s="7" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B189" s="3">
         <v>1</v>
@@ -5350,7 +5470,7 @@
         <v>220</v>
       </c>
       <c r="D189" s="8" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="E189" s="3" t="s">
         <v>116</v>
@@ -5358,7 +5478,7 @@
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" s="7" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B190" s="3">
         <v>1</v>
@@ -5367,7 +5487,7 @@
         <v>220</v>
       </c>
       <c r="D190" s="8" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="E190" s="3" t="s">
         <v>116</v>
@@ -5375,7 +5495,7 @@
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" s="7" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B191" s="3">
         <v>1</v>
@@ -5384,7 +5504,7 @@
         <v>220</v>
       </c>
       <c r="D191" s="8" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="E191" s="3" t="s">
         <v>116</v>
@@ -5392,7 +5512,7 @@
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B192" s="3">
         <v>1</v>
@@ -5401,7 +5521,7 @@
         <v>250</v>
       </c>
       <c r="D192" s="8" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="E192" s="3" t="s">
         <v>116</v>
@@ -5409,7 +5529,7 @@
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" s="7" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B193" s="3">
         <v>2</v>
@@ -5418,7 +5538,7 @@
         <v>250</v>
       </c>
       <c r="D193" s="8" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="E193" s="3" t="s">
         <v>116</v>
@@ -5435,7 +5555,7 @@
         <v>220</v>
       </c>
       <c r="D194" s="8" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="E194" s="3" t="s">
         <v>116</v>
@@ -5443,7 +5563,7 @@
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="B195" s="3">
         <v>1</v>
@@ -5452,7 +5572,7 @@
         <v>220</v>
       </c>
       <c r="D195" s="8" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="E195" s="3" t="s">
         <v>116</v>
@@ -5460,7 +5580,7 @@
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" s="7" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B196" s="3">
         <v>1</v>
@@ -5469,7 +5589,7 @@
         <v>250</v>
       </c>
       <c r="D196" s="8" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="E196" s="3" t="s">
         <v>116</v>
@@ -5477,7 +5597,7 @@
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B197" s="3">
         <v>1</v>
@@ -5486,7 +5606,7 @@
         <v>250</v>
       </c>
       <c r="D197" s="8" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="E197" s="3" t="s">
         <v>116</v>
@@ -5494,7 +5614,7 @@
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" s="7" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B198" s="3">
         <v>1</v>
@@ -5503,7 +5623,7 @@
         <v>250</v>
       </c>
       <c r="D198" s="8" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="E198" s="3" t="s">
         <v>116</v>
@@ -5511,7 +5631,7 @@
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" s="7" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B199" s="3">
         <v>1</v>
@@ -5520,7 +5640,7 @@
         <v>250</v>
       </c>
       <c r="D199" s="8" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="E199" s="3" t="s">
         <v>116</v>
@@ -5537,7 +5657,7 @@
         <v>250</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E200" s="3" t="s">
         <v>135</v>
@@ -5554,7 +5674,7 @@
         <v>460</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E201" s="3" t="s">
         <v>135</v>
@@ -5571,7 +5691,7 @@
         <v>250</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E202" s="3" t="s">
         <v>135</v>
@@ -5579,7 +5699,7 @@
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
-        <v>138</v>
+        <v>523</v>
       </c>
       <c r="B203" s="3">
         <v>4</v>
@@ -5588,7 +5708,7 @@
         <v>250</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E203" s="3" t="s">
         <v>135</v>
@@ -5596,7 +5716,7 @@
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B204" s="3">
         <v>0</v>
@@ -5605,7 +5725,7 @@
         <v>240</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E204" s="3" t="s">
         <v>135</v>
@@ -5613,7 +5733,7 @@
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="B205" s="3">
         <v>0</v>
@@ -5622,7 +5742,7 @@
         <v>400</v>
       </c>
       <c r="D205" s="8" t="s">
-        <v>161</v>
+        <v>524</v>
       </c>
       <c r="E205" s="3" t="s">
         <v>135</v>
@@ -5630,7 +5750,7 @@
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="B206" s="3">
         <v>0</v>
@@ -5639,7 +5759,7 @@
         <v>400</v>
       </c>
       <c r="D206" s="8" t="s">
-        <v>161</v>
+        <v>525</v>
       </c>
       <c r="E206" s="3" t="s">
         <v>135</v>
@@ -5647,7 +5767,7 @@
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="B207" s="3">
         <v>0</v>
@@ -5656,7 +5776,7 @@
         <v>350</v>
       </c>
       <c r="D207" s="8" t="s">
-        <v>161</v>
+        <v>526</v>
       </c>
       <c r="E207" s="3" t="s">
         <v>135</v>
@@ -5664,7 +5784,7 @@
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="B208" s="3">
         <v>0</v>
@@ -5673,7 +5793,7 @@
         <v>400</v>
       </c>
       <c r="D208" s="8" t="s">
-        <v>161</v>
+        <v>527</v>
       </c>
       <c r="E208" s="3" t="s">
         <v>135</v>
@@ -5681,7 +5801,7 @@
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="B209" s="3">
         <v>0</v>
@@ -5690,7 +5810,7 @@
         <v>350</v>
       </c>
       <c r="D209" s="8" t="s">
-        <v>161</v>
+        <v>528</v>
       </c>
       <c r="E209" s="3" t="s">
         <v>135</v>
@@ -5698,7 +5818,7 @@
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="B210" s="3">
         <v>0</v>
@@ -5707,7 +5827,7 @@
         <v>350</v>
       </c>
       <c r="D210" s="8" t="s">
-        <v>161</v>
+        <v>529</v>
       </c>
       <c r="E210" s="3" t="s">
         <v>135</v>
@@ -5715,7 +5835,7 @@
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="B211" s="3">
         <v>0</v>
@@ -5724,7 +5844,7 @@
         <v>400</v>
       </c>
       <c r="D211" s="8" t="s">
-        <v>161</v>
+        <v>530</v>
       </c>
       <c r="E211" s="3" t="s">
         <v>135</v>
@@ -5732,7 +5852,7 @@
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="B212" s="3">
         <v>0</v>
@@ -5741,7 +5861,7 @@
         <v>350</v>
       </c>
       <c r="D212" s="8" t="s">
-        <v>161</v>
+        <v>531</v>
       </c>
       <c r="E212" s="3" t="s">
         <v>135</v>
@@ -5749,7 +5869,7 @@
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="B213" s="3">
         <v>0</v>
@@ -5758,7 +5878,7 @@
         <v>350</v>
       </c>
       <c r="D213" s="8" t="s">
-        <v>161</v>
+        <v>532</v>
       </c>
       <c r="E213" s="3" t="s">
         <v>135</v>
@@ -5766,7 +5886,7 @@
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="B214" s="3">
         <v>0</v>
@@ -5775,7 +5895,7 @@
         <v>350</v>
       </c>
       <c r="D214" s="8" t="s">
-        <v>161</v>
+        <v>533</v>
       </c>
       <c r="E214" s="3" t="s">
         <v>135</v>
@@ -5783,7 +5903,7 @@
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="B215" s="3">
         <v>0</v>
@@ -5792,7 +5912,7 @@
         <v>350</v>
       </c>
       <c r="D215" s="8" t="s">
-        <v>161</v>
+        <v>534</v>
       </c>
       <c r="E215" s="3" t="s">
         <v>135</v>
@@ -5800,7 +5920,7 @@
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B216" s="3">
         <v>3</v>
@@ -5809,15 +5929,15 @@
         <v>250</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E216" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B217" s="3">
         <v>3</v>
@@ -5826,15 +5946,15 @@
         <v>250</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E217" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B218" s="3">
         <v>1</v>
@@ -5843,15 +5963,15 @@
         <v>250</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E218" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B219" s="3">
         <v>1</v>
@@ -5860,15 +5980,15 @@
         <v>250</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E219" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B220" s="3">
         <v>2</v>
@@ -5877,15 +5997,15 @@
         <v>250</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E220" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B221" s="3">
         <v>2</v>
@@ -5894,15 +6014,15 @@
         <v>250</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E221" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B222" s="3">
         <v>1</v>
@@ -5911,15 +6031,15 @@
         <v>250</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E222" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B223" s="3">
         <v>0</v>
@@ -5928,15 +6048,15 @@
         <v>250</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E223" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B224" s="3">
         <v>2</v>
@@ -5945,15 +6065,15 @@
         <v>250</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E224" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B225" s="3">
         <v>0</v>
@@ -5962,15 +6082,15 @@
         <v>250</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E225" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B226" s="3">
         <v>1</v>
@@ -5979,15 +6099,15 @@
         <v>250</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E226" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B227" s="3">
         <v>2</v>
@@ -5996,15 +6116,15 @@
         <v>250</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E227" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B228" s="3">
         <v>1</v>
@@ -6013,15 +6133,15 @@
         <v>250</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E228" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B229" s="3">
         <v>2</v>
@@ -6030,15 +6150,15 @@
         <v>250</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E229" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B230" s="3">
         <v>0</v>
@@ -6047,15 +6167,15 @@
         <v>250</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E230" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B231" s="3">
         <v>0</v>
@@ -6064,15 +6184,15 @@
         <v>250</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E231" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" s="7" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B232" s="3">
         <v>4</v>
@@ -6081,15 +6201,15 @@
         <v>250</v>
       </c>
       <c r="D232" s="8" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="E232" s="6" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B233" s="3">
         <v>2</v>
@@ -6098,15 +6218,15 @@
         <v>250</v>
       </c>
       <c r="D233" s="8" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="E233" s="6" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B234" s="3">
         <v>1</v>
@@ -6115,15 +6235,15 @@
         <v>220</v>
       </c>
       <c r="D234" s="8" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="E234" s="6" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B235" s="3">
         <v>1</v>
@@ -6132,15 +6252,15 @@
         <v>220</v>
       </c>
       <c r="D235" s="8" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="E235" s="6" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B236" s="3">
         <v>1</v>
@@ -6149,15 +6269,15 @@
         <v>220</v>
       </c>
       <c r="D236" s="8" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="E236" s="6" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B237" s="3">
         <v>2</v>
@@ -6166,15 +6286,15 @@
         <v>220</v>
       </c>
       <c r="D237" s="8" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="E237" s="6" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B238" s="3">
         <v>1</v>
@@ -6183,15 +6303,15 @@
         <v>160</v>
       </c>
       <c r="D238" s="8" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="E238" s="6" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B239" s="5">
         <v>6</v>
@@ -6200,15 +6320,15 @@
         <v>250</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E239" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B240" s="5">
         <v>1</v>
@@ -6217,15 +6337,15 @@
         <v>250</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E240" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B241" s="5">
         <v>1</v>
@@ -6234,15 +6354,15 @@
         <v>220</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E241" s="6" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B242" s="5">
         <v>0</v>
@@ -6251,15 +6371,15 @@
         <v>220</v>
       </c>
       <c r="D242" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E242" s="6" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B243" s="5">
         <v>2</v>
@@ -6268,15 +6388,15 @@
         <v>220</v>
       </c>
       <c r="D243" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E243" s="6" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B244" s="5">
         <v>1</v>
@@ -6285,15 +6405,15 @@
         <v>220</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E244" s="6" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B245" s="5">
         <v>1</v>
@@ -6302,15 +6422,15 @@
         <v>220</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E245" s="6" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B246" s="5">
         <v>5</v>
@@ -6319,15 +6439,15 @@
         <v>350</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E246" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B247" s="5">
         <v>10</v>
@@ -6336,15 +6456,15 @@
         <v>250</v>
       </c>
       <c r="D247" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E247" s="6" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B248" s="5">
         <v>1</v>
@@ -6353,15 +6473,15 @@
         <v>250</v>
       </c>
       <c r="D248" s="4" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E248" s="6" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B249" s="5">
         <v>24</v>
@@ -6370,15 +6490,15 @@
         <v>250</v>
       </c>
       <c r="D249" s="4" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="E249" s="6" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B250" s="5">
         <v>6</v>
@@ -6387,15 +6507,15 @@
         <v>150</v>
       </c>
       <c r="D250" s="4" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="E250" s="6" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B251" s="5">
         <v>2</v>
@@ -6404,15 +6524,15 @@
         <v>150</v>
       </c>
       <c r="D251" s="4" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="E251" s="6" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B252" s="5">
         <v>2</v>
@@ -6421,15 +6541,15 @@
         <v>150</v>
       </c>
       <c r="D252" s="4" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="E252" s="6" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B253" s="5">
         <v>2</v>
@@ -6438,15 +6558,15 @@
         <v>550</v>
       </c>
       <c r="D253" s="4" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="E253" s="6" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B254" s="5">
         <v>2</v>
@@ -6455,15 +6575,15 @@
         <v>650</v>
       </c>
       <c r="D254" s="4" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="E254" s="6" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>359</v>
+        <v>535</v>
       </c>
       <c r="B255" s="5">
         <v>0</v>
@@ -6472,350 +6592,588 @@
         <v>300</v>
       </c>
       <c r="D255" s="4" t="s">
-        <v>161</v>
+        <v>550</v>
       </c>
       <c r="E255" s="6" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>363</v>
+        <v>536</v>
       </c>
       <c r="B256" s="5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C256" s="6">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="D256" s="4" t="s">
-        <v>361</v>
+        <v>551</v>
       </c>
       <c r="E256" s="6" t="s">
-        <v>206</v>
+        <v>358</v>
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>364</v>
+        <v>537</v>
       </c>
       <c r="B257" s="5">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="C257" s="6">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="D257" s="4" t="s">
-        <v>362</v>
+        <v>552</v>
       </c>
       <c r="E257" s="6" t="s">
-        <v>206</v>
+        <v>358</v>
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>375</v>
+        <v>538</v>
       </c>
       <c r="B258" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C258" s="6">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="D258" s="4" t="s">
-        <v>382</v>
+        <v>553</v>
       </c>
       <c r="E258" s="6" t="s">
-        <v>380</v>
+        <v>358</v>
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>376</v>
+        <v>539</v>
       </c>
       <c r="B259" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C259" s="6">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="D259" s="4" t="s">
-        <v>383</v>
+        <v>554</v>
       </c>
       <c r="E259" s="6" t="s">
-        <v>380</v>
+        <v>358</v>
       </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>377</v>
+        <v>540</v>
       </c>
       <c r="B260" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C260" s="6">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="D260" s="4" t="s">
-        <v>384</v>
+        <v>555</v>
       </c>
       <c r="E260" s="6" t="s">
-        <v>380</v>
+        <v>358</v>
       </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>378</v>
+        <v>541</v>
       </c>
       <c r="B261" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C261" s="6">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="D261" s="4" t="s">
-        <v>401</v>
+        <v>556</v>
       </c>
       <c r="E261" s="6" t="s">
-        <v>380</v>
+        <v>358</v>
       </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>379</v>
+        <v>542</v>
       </c>
       <c r="B262" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C262" s="6">
-        <v>30</v>
+        <v>300</v>
       </c>
       <c r="D262" s="4" t="s">
-        <v>385</v>
+        <v>557</v>
       </c>
       <c r="E262" s="6" t="s">
-        <v>380</v>
+        <v>358</v>
       </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>381</v>
+        <v>543</v>
       </c>
       <c r="B263" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C263" s="6">
-        <v>550</v>
+        <v>300</v>
       </c>
       <c r="D263" s="4" t="s">
-        <v>386</v>
+        <v>558</v>
       </c>
       <c r="E263" s="6" t="s">
-        <v>380</v>
+        <v>358</v>
       </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>387</v>
+        <v>544</v>
       </c>
       <c r="B264" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C264" s="6">
-        <v>550</v>
+        <v>300</v>
       </c>
       <c r="D264" s="4" t="s">
-        <v>388</v>
+        <v>559</v>
       </c>
       <c r="E264" s="6" t="s">
-        <v>380</v>
+        <v>358</v>
       </c>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>389</v>
+        <v>545</v>
       </c>
       <c r="B265" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C265" s="6">
-        <v>550</v>
+        <v>300</v>
       </c>
       <c r="D265" s="4" t="s">
-        <v>395</v>
+        <v>560</v>
       </c>
       <c r="E265" s="6" t="s">
-        <v>380</v>
+        <v>358</v>
       </c>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>390</v>
+        <v>549</v>
       </c>
       <c r="B266" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C266" s="6">
-        <v>550</v>
+        <v>300</v>
       </c>
       <c r="D266" s="4" t="s">
-        <v>396</v>
+        <v>561</v>
       </c>
       <c r="E266" s="6" t="s">
-        <v>380</v>
+        <v>358</v>
       </c>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>391</v>
+        <v>548</v>
       </c>
       <c r="B267" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C267" s="6">
-        <v>550</v>
+        <v>300</v>
       </c>
       <c r="D267" s="4" t="s">
-        <v>397</v>
+        <v>562</v>
       </c>
       <c r="E267" s="6" t="s">
-        <v>380</v>
+        <v>358</v>
       </c>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>392</v>
+        <v>546</v>
       </c>
       <c r="B268" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C268" s="6">
-        <v>550</v>
+        <v>300</v>
       </c>
       <c r="D268" s="4" t="s">
-        <v>398</v>
+        <v>563</v>
       </c>
       <c r="E268" s="6" t="s">
-        <v>380</v>
+        <v>358</v>
       </c>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>394</v>
+        <v>547</v>
       </c>
       <c r="B269" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C269" s="6">
-        <v>550</v>
+        <v>300</v>
       </c>
       <c r="D269" s="4" t="s">
-        <v>399</v>
+        <v>564</v>
       </c>
       <c r="E269" s="6" t="s">
-        <v>380</v>
+        <v>358</v>
       </c>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>393</v>
+        <v>361</v>
       </c>
       <c r="B270" s="5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C270" s="6">
-        <v>550</v>
+        <v>800</v>
       </c>
       <c r="D270" s="4" t="s">
-        <v>400</v>
+        <v>359</v>
       </c>
       <c r="E270" s="6" t="s">
-        <v>380</v>
+        <v>205</v>
       </c>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>402</v>
+        <v>362</v>
       </c>
       <c r="B271" s="5">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="C271" s="6">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="D271" s="4" t="s">
-        <v>406</v>
+        <v>360</v>
       </c>
       <c r="E271" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>403</v>
+        <v>373</v>
       </c>
       <c r="B272" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C272" s="6">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="D272" s="4" t="s">
-        <v>407</v>
+        <v>380</v>
       </c>
       <c r="E272" s="6" t="s">
-        <v>206</v>
+        <v>378</v>
       </c>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>404</v>
+        <v>374</v>
       </c>
       <c r="B273" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C273" s="6">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="D273" s="4" t="s">
-        <v>408</v>
+        <v>381</v>
       </c>
       <c r="E273" s="6" t="s">
-        <v>206</v>
+        <v>378</v>
       </c>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>405</v>
+        <v>375</v>
       </c>
       <c r="B274" s="5">
         <v>1</v>
       </c>
       <c r="C274" s="6">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="D274" s="4" t="s">
-        <v>409</v>
+        <v>382</v>
       </c>
       <c r="E274" s="6" t="s">
-        <v>206</v>
+        <v>378</v>
       </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>513</v>
+        <v>376</v>
       </c>
       <c r="B275" s="5">
+        <v>1</v>
+      </c>
+      <c r="C275" s="6">
+        <v>150</v>
+      </c>
+      <c r="D275" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="E275" s="6" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
+        <v>377</v>
+      </c>
+      <c r="B276" s="5">
+        <v>10</v>
+      </c>
+      <c r="C276" s="6">
+        <v>30</v>
+      </c>
+      <c r="D276" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="E276" s="6" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
+        <v>379</v>
+      </c>
+      <c r="B277" s="5">
+        <v>1</v>
+      </c>
+      <c r="C277" s="6">
+        <v>550</v>
+      </c>
+      <c r="D277" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="E277" s="6" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
+        <v>385</v>
+      </c>
+      <c r="B278" s="5">
+        <v>1</v>
+      </c>
+      <c r="C278" s="6">
+        <v>550</v>
+      </c>
+      <c r="D278" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="E278" s="6" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A279" t="s">
+        <v>387</v>
+      </c>
+      <c r="B279" s="5">
+        <v>1</v>
+      </c>
+      <c r="C279" s="6">
+        <v>550</v>
+      </c>
+      <c r="D279" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="E279" s="6" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
+        <v>388</v>
+      </c>
+      <c r="B280" s="5">
+        <v>1</v>
+      </c>
+      <c r="C280" s="6">
+        <v>550</v>
+      </c>
+      <c r="D280" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="E280" s="6" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
+        <v>389</v>
+      </c>
+      <c r="B281" s="5">
+        <v>1</v>
+      </c>
+      <c r="C281" s="6">
+        <v>550</v>
+      </c>
+      <c r="D281" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="E281" s="6" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A282" t="s">
+        <v>390</v>
+      </c>
+      <c r="B282" s="5">
+        <v>1</v>
+      </c>
+      <c r="C282" s="6">
+        <v>550</v>
+      </c>
+      <c r="D282" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="E282" s="6" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
+        <v>392</v>
+      </c>
+      <c r="B283" s="5">
+        <v>1</v>
+      </c>
+      <c r="C283" s="6">
+        <v>550</v>
+      </c>
+      <c r="D283" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="E283" s="6" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
+        <v>391</v>
+      </c>
+      <c r="B284" s="5">
+        <v>1</v>
+      </c>
+      <c r="C284" s="6">
+        <v>550</v>
+      </c>
+      <c r="D284" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="E284" s="6" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A285" t="s">
+        <v>400</v>
+      </c>
+      <c r="B285" s="5">
+        <v>2</v>
+      </c>
+      <c r="C285" s="6">
+        <v>250</v>
+      </c>
+      <c r="D285" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="E285" s="6" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A286" t="s">
+        <v>401</v>
+      </c>
+      <c r="B286" s="5">
+        <v>1</v>
+      </c>
+      <c r="C286" s="6">
+        <v>250</v>
+      </c>
+      <c r="D286" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="E286" s="6" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A287" t="s">
+        <v>402</v>
+      </c>
+      <c r="B287" s="5">
+        <v>0</v>
+      </c>
+      <c r="C287" s="6">
+        <v>250</v>
+      </c>
+      <c r="D287" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="E287" s="6" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A288" t="s">
+        <v>403</v>
+      </c>
+      <c r="B288" s="5">
+        <v>1</v>
+      </c>
+      <c r="C288" s="6">
+        <v>250</v>
+      </c>
+      <c r="D288" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="E288" s="6" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A289" t="s">
+        <v>511</v>
+      </c>
+      <c r="B289" s="5">
         <v>4</v>
       </c>
-      <c r="C275" s="6">
+      <c r="C289" s="6">
         <v>220</v>
       </c>
-      <c r="D275" s="4" t="s">
-        <v>512</v>
-      </c>
-      <c r="E275" s="6" t="s">
-        <v>206</v>
+      <c r="D289" s="4" t="s">
+        <v>510</v>
+      </c>
+      <c r="E289" s="6" t="s">
+        <v>205</v>
       </c>
     </row>
   </sheetData>

--- a/data/stock.xlsx
+++ b/data/stock.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\blocks\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BDFEA3C-BD56-4FF3-A925-24B2287FA6F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEAD224D-5058-4010-B706-EDC44ABA10FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3075" yWindow="1800" windowWidth="21600" windowHeight="11250" xr2:uid="{FC0CBB84-858B-49F6-BA69-44D83C89F7C4}"/>
   </bookViews>
@@ -204,9 +204,6 @@
     <t>Batmobile black</t>
   </si>
   <si>
-    <t>Batmobile white</t>
-  </si>
-  <si>
     <t xml:space="preserve">Shanks </t>
   </si>
   <si>
@@ -1729,6 +1726,9 @@
   </si>
   <si>
     <t>zamasu.jpg</t>
+  </si>
+  <si>
+    <t>Batmobile white (Joker ver.)</t>
   </si>
 </sst>
 </file>
@@ -2252,8 +2252,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCDC9875-9E8E-485C-910E-47B83A1F9902}">
   <dimension ref="A1:E289"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A243" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B255" sqref="B255:B269"/>
+    <sheetView tabSelected="1" topLeftCell="A78" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A93" sqref="A93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2291,7 +2291,7 @@
         <v>220</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>6</v>
@@ -2308,7 +2308,7 @@
         <v>220</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>6</v>
@@ -2325,7 +2325,7 @@
         <v>350</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>6</v>
@@ -2342,7 +2342,7 @@
         <v>180</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>6</v>
@@ -2359,7 +2359,7 @@
         <v>180</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>6</v>
@@ -2376,7 +2376,7 @@
         <v>200</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>6</v>
@@ -2393,7 +2393,7 @@
         <v>180</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>6</v>
@@ -2410,7 +2410,7 @@
         <v>200</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>6</v>
@@ -2418,7 +2418,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B10" s="3">
         <v>2</v>
@@ -2427,7 +2427,7 @@
         <v>250</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>6</v>
@@ -2435,7 +2435,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B11" s="3">
         <v>2</v>
@@ -2444,7 +2444,7 @@
         <v>250</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>6</v>
@@ -2452,7 +2452,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B12" s="3">
         <v>3</v>
@@ -2461,7 +2461,7 @@
         <v>250</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>6</v>
@@ -2469,7 +2469,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B13" s="3">
         <v>2</v>
@@ -2478,7 +2478,7 @@
         <v>250</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>6</v>
@@ -2486,7 +2486,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B14" s="3">
         <v>2</v>
@@ -2495,7 +2495,7 @@
         <v>250</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>6</v>
@@ -2503,7 +2503,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B15" s="3">
         <v>1</v>
@@ -2512,7 +2512,7 @@
         <v>250</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>6</v>
@@ -2520,7 +2520,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B16" s="3">
         <v>1</v>
@@ -2529,7 +2529,7 @@
         <v>250</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>6</v>
@@ -2537,7 +2537,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B17" s="3">
         <v>1</v>
@@ -2546,7 +2546,7 @@
         <v>250</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>6</v>
@@ -2554,7 +2554,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B18" s="3">
         <v>2</v>
@@ -2563,7 +2563,7 @@
         <v>250</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>6</v>
@@ -2580,7 +2580,7 @@
         <v>220</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>6</v>
@@ -2597,7 +2597,7 @@
         <v>220</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>6</v>
@@ -2614,7 +2614,7 @@
         <v>220</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>6</v>
@@ -2631,7 +2631,7 @@
         <v>220</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>6</v>
@@ -2648,7 +2648,7 @@
         <v>220</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>6</v>
@@ -2665,7 +2665,7 @@
         <v>220</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>6</v>
@@ -2682,7 +2682,7 @@
         <v>220</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>6</v>
@@ -2699,7 +2699,7 @@
         <v>220</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>6</v>
@@ -2716,7 +2716,7 @@
         <v>200</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>6</v>
@@ -2733,7 +2733,7 @@
         <v>220</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>6</v>
@@ -2750,7 +2750,7 @@
         <v>180</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>6</v>
@@ -2767,7 +2767,7 @@
         <v>180</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>6</v>
@@ -2784,7 +2784,7 @@
         <v>180</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>6</v>
@@ -2801,7 +2801,7 @@
         <v>180</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>6</v>
@@ -2818,7 +2818,7 @@
         <v>180</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>6</v>
@@ -2835,7 +2835,7 @@
         <v>180</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>6</v>
@@ -2852,7 +2852,7 @@
         <v>180</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>6</v>
@@ -2869,7 +2869,7 @@
         <v>270</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>6</v>
@@ -2886,7 +2886,7 @@
         <v>270</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>6</v>
@@ -2903,7 +2903,7 @@
         <v>270</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>6</v>
@@ -2920,7 +2920,7 @@
         <v>450</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>6</v>
@@ -2937,7 +2937,7 @@
         <v>380</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>6</v>
@@ -2954,7 +2954,7 @@
         <v>800</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>6</v>
@@ -2971,7 +2971,7 @@
         <v>270</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>6</v>
@@ -2988,7 +2988,7 @@
         <v>270</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>6</v>
@@ -3005,7 +3005,7 @@
         <v>270</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>6</v>
@@ -3013,7 +3013,7 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B45" s="3">
         <v>1</v>
@@ -3022,7 +3022,7 @@
         <v>250</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>6</v>
@@ -3039,7 +3039,7 @@
         <v>850</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E46" s="3" t="s">
         <v>6</v>
@@ -3047,7 +3047,7 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B47" s="3">
         <v>2</v>
@@ -3056,7 +3056,7 @@
         <v>250</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>6</v>
@@ -3064,7 +3064,7 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B48" s="3">
         <v>2</v>
@@ -3073,7 +3073,7 @@
         <v>250</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>6</v>
@@ -3090,7 +3090,7 @@
         <v>250</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>6</v>
@@ -3107,7 +3107,7 @@
         <v>250</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>6</v>
@@ -3115,7 +3115,7 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B51" s="3">
         <v>1</v>
@@ -3124,7 +3124,7 @@
         <v>250</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E51" s="3" t="s">
         <v>6</v>
@@ -3132,7 +3132,7 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B52" s="3">
         <v>1</v>
@@ -3141,7 +3141,7 @@
         <v>250</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>6</v>
@@ -3149,7 +3149,7 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B53" s="3">
         <v>1</v>
@@ -3158,7 +3158,7 @@
         <v>250</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E53" s="3" t="s">
         <v>6</v>
@@ -3166,7 +3166,7 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B54" s="3">
         <v>2</v>
@@ -3175,7 +3175,7 @@
         <v>360</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>6</v>
@@ -3183,7 +3183,7 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B55" s="3">
         <v>1</v>
@@ -3192,7 +3192,7 @@
         <v>360</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E55" s="3" t="s">
         <v>6</v>
@@ -3200,7 +3200,7 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B56" s="3">
         <v>2</v>
@@ -3209,7 +3209,7 @@
         <v>200</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E56" s="3" t="s">
         <v>6</v>
@@ -3217,7 +3217,7 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B57" s="3">
         <v>4</v>
@@ -3226,7 +3226,7 @@
         <v>260</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>6</v>
@@ -3234,7 +3234,7 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B58" s="3">
         <v>2</v>
@@ -3243,7 +3243,7 @@
         <v>260</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>6</v>
@@ -3251,7 +3251,7 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B59" s="3">
         <v>2</v>
@@ -3260,7 +3260,7 @@
         <v>260</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E59" s="3" t="s">
         <v>6</v>
@@ -3268,7 +3268,7 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B60" s="3">
         <v>4</v>
@@ -3277,7 +3277,7 @@
         <v>260</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E60" s="3" t="s">
         <v>6</v>
@@ -3285,7 +3285,7 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="7" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B61" s="3">
         <v>1</v>
@@ -3294,7 +3294,7 @@
         <v>220</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E61" s="3" t="s">
         <v>6</v>
@@ -3302,7 +3302,7 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="7" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B62" s="3">
         <v>0</v>
@@ -3311,7 +3311,7 @@
         <v>250</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E62" s="3" t="s">
         <v>6</v>
@@ -3319,7 +3319,7 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B63" s="3">
         <v>5</v>
@@ -3328,7 +3328,7 @@
         <v>250</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E63" s="3" t="s">
         <v>6</v>
@@ -3336,7 +3336,7 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="7" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B64" s="3">
         <v>1</v>
@@ -3345,7 +3345,7 @@
         <v>250</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E64" s="3" t="s">
         <v>6</v>
@@ -3353,7 +3353,7 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B65" s="3">
         <v>2</v>
@@ -3362,7 +3362,7 @@
         <v>250</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E65" s="3" t="s">
         <v>6</v>
@@ -3370,7 +3370,7 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="7" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B66" s="3">
         <v>2</v>
@@ -3379,7 +3379,7 @@
         <v>250</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E66" s="3" t="s">
         <v>6</v>
@@ -3387,7 +3387,7 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B67" s="3">
         <v>3</v>
@@ -3396,7 +3396,7 @@
         <v>220</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E67" s="3" t="s">
         <v>6</v>
@@ -3413,7 +3413,7 @@
         <v>180</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E68" s="3" t="s">
         <v>44</v>
@@ -3421,7 +3421,7 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B69" s="3">
         <v>1</v>
@@ -3430,7 +3430,7 @@
         <v>250</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E69" s="3" t="s">
         <v>44</v>
@@ -3447,7 +3447,7 @@
         <v>250</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E70" s="3" t="s">
         <v>44</v>
@@ -3455,7 +3455,7 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B71" s="3">
         <v>1</v>
@@ -3464,7 +3464,7 @@
         <v>250</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E71" s="3" t="s">
         <v>44</v>
@@ -3481,7 +3481,7 @@
         <v>180</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>44</v>
@@ -3489,7 +3489,7 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B73" s="3">
         <v>1</v>
@@ -3498,7 +3498,7 @@
         <v>250</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E73" s="3" t="s">
         <v>44</v>
@@ -3506,7 +3506,7 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B74" s="3">
         <v>1</v>
@@ -3515,7 +3515,7 @@
         <v>250</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E74" s="3" t="s">
         <v>44</v>
@@ -3523,7 +3523,7 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B75" s="3">
         <v>1</v>
@@ -3532,7 +3532,7 @@
         <v>180</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E75" s="3" t="s">
         <v>44</v>
@@ -3540,7 +3540,7 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B76" s="3">
         <v>1</v>
@@ -3549,7 +3549,7 @@
         <v>180</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E76" s="3" t="s">
         <v>44</v>
@@ -3566,7 +3566,7 @@
         <v>300</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E77" s="3" t="s">
         <v>44</v>
@@ -3583,7 +3583,7 @@
         <v>300</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E78" s="3" t="s">
         <v>44</v>
@@ -3600,7 +3600,7 @@
         <v>350</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E79" s="3" t="s">
         <v>44</v>
@@ -3617,7 +3617,7 @@
         <v>350</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E80" s="3" t="s">
         <v>44</v>
@@ -3634,7 +3634,7 @@
         <v>500</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E81" s="3" t="s">
         <v>44</v>
@@ -3642,7 +3642,7 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="7" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B82" s="3">
         <v>4</v>
@@ -3651,7 +3651,7 @@
         <v>220</v>
       </c>
       <c r="D82" s="8" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E82" s="3" t="s">
         <v>44</v>
@@ -3659,7 +3659,7 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="7" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B83" s="3">
         <v>2</v>
@@ -3668,7 +3668,7 @@
         <v>220</v>
       </c>
       <c r="D83" s="8" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E83" s="3" t="s">
         <v>44</v>
@@ -3676,7 +3676,7 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="7" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B84" s="6">
         <v>1</v>
@@ -3685,7 +3685,7 @@
         <v>200</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E84" s="3" t="s">
         <v>44</v>
@@ -3693,7 +3693,7 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="7" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B85" s="3">
         <v>2</v>
@@ -3702,7 +3702,7 @@
         <v>220</v>
       </c>
       <c r="D85" s="8" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E85" s="3" t="s">
         <v>44</v>
@@ -3710,7 +3710,7 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="7" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B86" s="3">
         <v>1</v>
@@ -3719,7 +3719,7 @@
         <v>250</v>
       </c>
       <c r="D86" s="8" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E86" s="3" t="s">
         <v>44</v>
@@ -3727,7 +3727,7 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="7" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B87" s="3">
         <v>1</v>
@@ -3736,7 +3736,7 @@
         <v>250</v>
       </c>
       <c r="D87" s="8" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E87" s="3" t="s">
         <v>44</v>
@@ -3744,7 +3744,7 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B88" s="3">
         <v>3</v>
@@ -3753,7 +3753,7 @@
         <v>220</v>
       </c>
       <c r="D88" s="8" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E88" s="3" t="s">
         <v>44</v>
@@ -3770,7 +3770,7 @@
         <v>350</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E89" s="3" t="s">
         <v>44</v>
@@ -3787,7 +3787,7 @@
         <v>350</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E90" s="3" t="s">
         <v>44</v>
@@ -3804,7 +3804,7 @@
         <v>350</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E91" s="3" t="s">
         <v>44</v>
@@ -3815,13 +3815,13 @@
         <v>55</v>
       </c>
       <c r="B92" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C92" s="3">
         <v>500</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E92" s="3" t="s">
         <v>44</v>
@@ -3829,16 +3829,16 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>56</v>
+        <v>564</v>
       </c>
       <c r="B93" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C93" s="3">
         <v>500</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E93" s="3" t="s">
         <v>44</v>
@@ -3846,7 +3846,7 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B94" s="3">
         <v>3</v>
@@ -3855,15 +3855,15 @@
         <v>300</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B95" s="3">
         <v>2</v>
@@ -3872,15 +3872,15 @@
         <v>300</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B96" s="3">
         <v>0</v>
@@ -3889,15 +3889,15 @@
         <v>300</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B97" s="3">
         <v>0</v>
@@ -3906,15 +3906,15 @@
         <v>300</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B98" s="3">
         <v>1</v>
@@ -3923,15 +3923,15 @@
         <v>300</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B99" s="3">
         <v>0</v>
@@ -3940,15 +3940,15 @@
         <v>270</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B100" s="3">
         <v>0</v>
@@ -3957,15 +3957,15 @@
         <v>270</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B101" s="3">
         <v>1</v>
@@ -3974,15 +3974,15 @@
         <v>300</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B102" s="3">
         <v>0</v>
@@ -3991,15 +3991,15 @@
         <v>300</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B103" s="3">
         <v>1</v>
@@ -4008,15 +4008,15 @@
         <v>300</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B104" s="3">
         <v>1</v>
@@ -4025,15 +4025,15 @@
         <v>300</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B105" s="3">
         <v>0</v>
@@ -4042,15 +4042,15 @@
         <v>300</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B106" s="3">
         <v>0</v>
@@ -4059,15 +4059,15 @@
         <v>300</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B107" s="3">
         <v>2</v>
@@ -4076,15 +4076,15 @@
         <v>350</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B108" s="3">
         <v>0</v>
@@ -4093,15 +4093,15 @@
         <v>300</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B109" s="3">
         <v>0</v>
@@ -4110,15 +4110,15 @@
         <v>300</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E109" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B110" s="3">
         <v>0</v>
@@ -4127,15 +4127,15 @@
         <v>300</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E110" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B111" s="3">
         <v>0</v>
@@ -4144,15 +4144,15 @@
         <v>300</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B112" s="3">
         <v>0</v>
@@ -4161,15 +4161,15 @@
         <v>300</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B113" s="3">
         <v>0</v>
@@ -4178,15 +4178,15 @@
         <v>300</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E113" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B114" s="3">
         <v>1</v>
@@ -4195,15 +4195,15 @@
         <v>300</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B115" s="3">
         <v>1</v>
@@ -4212,15 +4212,15 @@
         <v>300</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B116" s="3">
         <v>2</v>
@@ -4229,15 +4229,15 @@
         <v>350</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B117" s="3">
         <v>1</v>
@@ -4246,15 +4246,15 @@
         <v>350</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E117" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B118" s="3">
         <v>2</v>
@@ -4263,15 +4263,15 @@
         <v>350</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E118" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B119" s="3">
         <v>1</v>
@@ -4280,15 +4280,15 @@
         <v>350</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E119" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B120" s="3">
         <v>2</v>
@@ -4297,15 +4297,15 @@
         <v>320</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E120" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B121" s="3">
         <v>1</v>
@@ -4314,15 +4314,15 @@
         <v>320</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E121" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B122" s="3">
         <v>1</v>
@@ -4331,15 +4331,15 @@
         <v>320</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E122" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B123" s="3">
         <v>1</v>
@@ -4348,15 +4348,15 @@
         <v>320</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E123" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B124" s="3">
         <v>1</v>
@@ -4365,15 +4365,15 @@
         <v>320</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E124" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B125" s="3">
         <v>1</v>
@@ -4382,15 +4382,15 @@
         <v>320</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E125" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B126" s="3">
         <v>2</v>
@@ -4399,15 +4399,15 @@
         <v>320</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E126" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B127" s="3">
         <v>0</v>
@@ -4416,15 +4416,15 @@
         <v>320</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E127" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B128" s="3">
         <v>1</v>
@@ -4433,15 +4433,15 @@
         <v>320</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E128" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B129" s="3">
         <v>1</v>
@@ -4450,15 +4450,15 @@
         <v>320</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E129" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B130" s="3">
         <v>2</v>
@@ -4467,15 +4467,15 @@
         <v>320</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E130" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B131" s="3">
         <v>2</v>
@@ -4484,15 +4484,15 @@
         <v>320</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E131" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B132" s="3">
         <v>1</v>
@@ -4501,15 +4501,15 @@
         <v>320</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E132" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B133" s="3">
         <v>2</v>
@@ -4518,15 +4518,15 @@
         <v>320</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E133" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B134" s="3">
         <v>0</v>
@@ -4535,15 +4535,15 @@
         <v>320</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E134" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B135" s="3">
         <v>1</v>
@@ -4552,15 +4552,15 @@
         <v>320</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E135" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B136" s="3">
         <v>2</v>
@@ -4569,15 +4569,15 @@
         <v>300</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E136" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B137" s="3">
         <v>1</v>
@@ -4586,15 +4586,15 @@
         <v>300</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E137" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B138" s="3">
         <v>1</v>
@@ -4603,15 +4603,15 @@
         <v>300</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E138" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B139" s="3">
         <v>1</v>
@@ -4620,15 +4620,15 @@
         <v>300</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E139" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B140" s="3">
         <v>1</v>
@@ -4637,15 +4637,15 @@
         <v>300</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E140" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B141" s="3">
         <v>1</v>
@@ -4654,15 +4654,15 @@
         <v>300</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E141" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B142" s="3">
         <v>1</v>
@@ -4671,15 +4671,15 @@
         <v>300</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E142" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B143" s="3">
         <v>1</v>
@@ -4688,15 +4688,15 @@
         <v>300</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E143" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B144" s="3">
         <v>2</v>
@@ -4705,15 +4705,15 @@
         <v>300</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E144" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B145" s="3">
         <v>1</v>
@@ -4722,15 +4722,15 @@
         <v>300</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E145" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B146" s="3">
         <v>1</v>
@@ -4739,15 +4739,15 @@
         <v>300</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E146" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B147" s="3">
         <v>5</v>
@@ -4756,15 +4756,15 @@
         <v>400</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E147" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B148" s="3">
         <v>1</v>
@@ -4773,15 +4773,15 @@
         <v>400</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E148" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B149" s="3">
         <v>3</v>
@@ -4790,15 +4790,15 @@
         <v>300</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E149" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B150" s="3">
         <v>2</v>
@@ -4807,15 +4807,15 @@
         <v>300</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E150" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B151" s="3">
         <v>1</v>
@@ -4824,15 +4824,15 @@
         <v>300</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E151" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B152" s="3">
         <v>1</v>
@@ -4841,15 +4841,15 @@
         <v>300</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E152" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B153" s="3">
         <v>1</v>
@@ -4858,15 +4858,15 @@
         <v>300</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E153" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B154" s="3">
         <v>2</v>
@@ -4875,15 +4875,15 @@
         <v>300</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E154" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B155" s="3">
         <v>1</v>
@@ -4892,15 +4892,15 @@
         <v>300</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E155" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B156" s="3">
         <v>0</v>
@@ -4909,15 +4909,15 @@
         <v>500</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E156" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B157" s="3">
         <v>1</v>
@@ -4926,15 +4926,15 @@
         <v>280</v>
       </c>
       <c r="D157" s="8" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E157" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B158" s="3">
         <v>1</v>
@@ -4943,15 +4943,15 @@
         <v>280</v>
       </c>
       <c r="D158" s="8" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="E158" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" s="7" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B159" s="3">
         <v>1</v>
@@ -4960,15 +4960,15 @@
         <v>280</v>
       </c>
       <c r="D159" s="8" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E159" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B160" s="3">
         <v>1</v>
@@ -4977,15 +4977,15 @@
         <v>300</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E160" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B161" s="3">
         <v>1</v>
@@ -4994,15 +4994,15 @@
         <v>300</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E161" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B162" s="3">
         <v>1</v>
@@ -5011,15 +5011,15 @@
         <v>250</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E162" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B163" s="3">
         <v>1</v>
@@ -5028,15 +5028,15 @@
         <v>280</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E163" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B164" s="3">
         <v>1</v>
@@ -5045,15 +5045,15 @@
         <v>280</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E164" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B165" s="3">
         <v>2</v>
@@ -5062,15 +5062,15 @@
         <v>260</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E165" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B166" s="3">
         <v>1</v>
@@ -5079,15 +5079,15 @@
         <v>260</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E166" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B167" s="3">
         <v>0</v>
@@ -5096,15 +5096,15 @@
         <v>500</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E167" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B168" s="3">
         <v>1</v>
@@ -5113,15 +5113,15 @@
         <v>280</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E168" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B169" s="3">
         <v>0</v>
@@ -5130,15 +5130,15 @@
         <v>220</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E169" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B170" s="3">
         <v>3</v>
@@ -5147,15 +5147,15 @@
         <v>220</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E170" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B171" s="3">
         <v>1</v>
@@ -5164,15 +5164,15 @@
         <v>220</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E171" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B172" s="3">
         <v>1</v>
@@ -5181,15 +5181,15 @@
         <v>220</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E172" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B173" s="3">
         <v>2</v>
@@ -5198,15 +5198,15 @@
         <v>220</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E173" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B174" s="3">
         <v>1</v>
@@ -5215,15 +5215,15 @@
         <v>250</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E174" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B175" s="3">
         <v>2</v>
@@ -5232,15 +5232,15 @@
         <v>220</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E175" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B176" s="3">
         <v>3</v>
@@ -5249,15 +5249,15 @@
         <v>250</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E176" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B177" s="3">
         <v>1</v>
@@ -5266,15 +5266,15 @@
         <v>220</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E177" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B178" s="3">
         <v>3</v>
@@ -5283,15 +5283,15 @@
         <v>220</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E178" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B179" s="3">
         <v>2</v>
@@ -5300,15 +5300,15 @@
         <v>250</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E179" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B180" s="3">
         <v>3</v>
@@ -5317,15 +5317,15 @@
         <v>220</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E180" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B181" s="3">
         <v>1</v>
@@ -5334,15 +5334,15 @@
         <v>220</v>
       </c>
       <c r="D181" s="8" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="E181" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B182" s="3">
         <v>2</v>
@@ -5351,15 +5351,15 @@
         <v>350</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E182" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B183" s="3">
         <v>1</v>
@@ -5368,15 +5368,15 @@
         <v>350</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E183" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B184" s="3">
         <v>2</v>
@@ -5385,15 +5385,15 @@
         <v>350</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E184" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B185" s="3">
         <v>1</v>
@@ -5402,15 +5402,15 @@
         <v>350</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E185" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B186" s="3">
         <v>1</v>
@@ -5419,15 +5419,15 @@
         <v>350</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E186" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B187" s="3">
         <v>2</v>
@@ -5436,15 +5436,15 @@
         <v>350</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E187" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B188" s="3">
         <v>1</v>
@@ -5453,15 +5453,15 @@
         <v>220</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E188" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" s="7" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B189" s="3">
         <v>1</v>
@@ -5470,15 +5470,15 @@
         <v>220</v>
       </c>
       <c r="D189" s="8" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E189" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" s="7" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B190" s="3">
         <v>1</v>
@@ -5487,15 +5487,15 @@
         <v>220</v>
       </c>
       <c r="D190" s="8" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E190" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" s="7" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B191" s="3">
         <v>1</v>
@@ -5504,15 +5504,15 @@
         <v>220</v>
       </c>
       <c r="D191" s="8" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E191" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B192" s="3">
         <v>1</v>
@@ -5521,15 +5521,15 @@
         <v>250</v>
       </c>
       <c r="D192" s="8" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E192" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" s="7" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B193" s="3">
         <v>2</v>
@@ -5538,15 +5538,15 @@
         <v>250</v>
       </c>
       <c r="D193" s="8" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E193" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B194" s="3">
         <v>1</v>
@@ -5555,15 +5555,15 @@
         <v>220</v>
       </c>
       <c r="D194" s="8" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E194" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B195" s="3">
         <v>1</v>
@@ -5572,15 +5572,15 @@
         <v>220</v>
       </c>
       <c r="D195" s="8" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E195" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" s="7" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B196" s="3">
         <v>1</v>
@@ -5589,15 +5589,15 @@
         <v>250</v>
       </c>
       <c r="D196" s="8" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="E196" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B197" s="3">
         <v>1</v>
@@ -5606,15 +5606,15 @@
         <v>250</v>
       </c>
       <c r="D197" s="8" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E197" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" s="7" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B198" s="3">
         <v>1</v>
@@ -5623,15 +5623,15 @@
         <v>250</v>
       </c>
       <c r="D198" s="8" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E198" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" s="7" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B199" s="3">
         <v>1</v>
@@ -5640,15 +5640,15 @@
         <v>250</v>
       </c>
       <c r="D199" s="8" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E199" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B200" s="3">
         <v>1</v>
@@ -5657,15 +5657,15 @@
         <v>250</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E200" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B201" s="3">
         <v>0</v>
@@ -5674,15 +5674,15 @@
         <v>460</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E201" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B202" s="3">
         <v>0</v>
@@ -5691,15 +5691,15 @@
         <v>250</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E202" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B203" s="3">
         <v>4</v>
@@ -5708,15 +5708,15 @@
         <v>250</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E203" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B204" s="3">
         <v>0</v>
@@ -5725,15 +5725,15 @@
         <v>240</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E204" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B205" s="3">
         <v>0</v>
@@ -5742,15 +5742,15 @@
         <v>400</v>
       </c>
       <c r="D205" s="8" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="E205" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B206" s="3">
         <v>0</v>
@@ -5759,15 +5759,15 @@
         <v>400</v>
       </c>
       <c r="D206" s="8" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="E206" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B207" s="3">
         <v>0</v>
@@ -5776,15 +5776,15 @@
         <v>350</v>
       </c>
       <c r="D207" s="8" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="E207" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B208" s="3">
         <v>0</v>
@@ -5793,15 +5793,15 @@
         <v>400</v>
       </c>
       <c r="D208" s="8" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="E208" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B209" s="3">
         <v>0</v>
@@ -5810,15 +5810,15 @@
         <v>350</v>
       </c>
       <c r="D209" s="8" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E209" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B210" s="3">
         <v>0</v>
@@ -5827,15 +5827,15 @@
         <v>350</v>
       </c>
       <c r="D210" s="8" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="E210" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B211" s="3">
         <v>0</v>
@@ -5844,15 +5844,15 @@
         <v>400</v>
       </c>
       <c r="D211" s="8" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="E211" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B212" s="3">
         <v>0</v>
@@ -5861,15 +5861,15 @@
         <v>350</v>
       </c>
       <c r="D212" s="8" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="E212" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B213" s="3">
         <v>0</v>
@@ -5878,15 +5878,15 @@
         <v>350</v>
       </c>
       <c r="D213" s="8" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="E213" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B214" s="3">
         <v>0</v>
@@ -5895,15 +5895,15 @@
         <v>350</v>
       </c>
       <c r="D214" s="8" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="E214" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B215" s="3">
         <v>0</v>
@@ -5912,15 +5912,15 @@
         <v>350</v>
       </c>
       <c r="D215" s="8" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="E215" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B216" s="3">
         <v>3</v>
@@ -5929,15 +5929,15 @@
         <v>250</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E216" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B217" s="3">
         <v>3</v>
@@ -5946,15 +5946,15 @@
         <v>250</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E217" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B218" s="3">
         <v>1</v>
@@ -5963,15 +5963,15 @@
         <v>250</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E218" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B219" s="3">
         <v>1</v>
@@ -5980,15 +5980,15 @@
         <v>250</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E219" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B220" s="3">
         <v>2</v>
@@ -5997,15 +5997,15 @@
         <v>250</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E220" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B221" s="3">
         <v>2</v>
@@ -6014,15 +6014,15 @@
         <v>250</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E221" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B222" s="3">
         <v>1</v>
@@ -6031,15 +6031,15 @@
         <v>250</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E222" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B223" s="3">
         <v>0</v>
@@ -6048,15 +6048,15 @@
         <v>250</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E223" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B224" s="3">
         <v>2</v>
@@ -6065,15 +6065,15 @@
         <v>250</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E224" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B225" s="3">
         <v>0</v>
@@ -6082,15 +6082,15 @@
         <v>250</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E225" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B226" s="3">
         <v>1</v>
@@ -6099,15 +6099,15 @@
         <v>250</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E226" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B227" s="3">
         <v>2</v>
@@ -6116,15 +6116,15 @@
         <v>250</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E227" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B228" s="3">
         <v>1</v>
@@ -6133,15 +6133,15 @@
         <v>250</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E228" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B229" s="3">
         <v>2</v>
@@ -6150,15 +6150,15 @@
         <v>250</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E229" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B230" s="3">
         <v>0</v>
@@ -6167,15 +6167,15 @@
         <v>250</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E230" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B231" s="3">
         <v>0</v>
@@ -6184,15 +6184,15 @@
         <v>250</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E231" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" s="7" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B232" s="3">
         <v>4</v>
@@ -6201,15 +6201,15 @@
         <v>250</v>
       </c>
       <c r="D232" s="8" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="E232" s="6" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B233" s="3">
         <v>2</v>
@@ -6218,15 +6218,15 @@
         <v>250</v>
       </c>
       <c r="D233" s="8" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E233" s="6" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B234" s="3">
         <v>1</v>
@@ -6235,15 +6235,15 @@
         <v>220</v>
       </c>
       <c r="D234" s="8" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="E234" s="6" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B235" s="3">
         <v>1</v>
@@ -6252,15 +6252,15 @@
         <v>220</v>
       </c>
       <c r="D235" s="8" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E235" s="6" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B236" s="3">
         <v>1</v>
@@ -6269,15 +6269,15 @@
         <v>220</v>
       </c>
       <c r="D236" s="8" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E236" s="6" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B237" s="3">
         <v>2</v>
@@ -6286,15 +6286,15 @@
         <v>220</v>
       </c>
       <c r="D237" s="8" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E237" s="6" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B238" s="3">
         <v>1</v>
@@ -6303,15 +6303,15 @@
         <v>160</v>
       </c>
       <c r="D238" s="8" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="E238" s="6" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B239" s="5">
         <v>6</v>
@@ -6320,15 +6320,15 @@
         <v>250</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E239" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B240" s="5">
         <v>1</v>
@@ -6337,15 +6337,15 @@
         <v>250</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E240" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B241" s="5">
         <v>1</v>
@@ -6354,15 +6354,15 @@
         <v>220</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E241" s="6" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B242" s="5">
         <v>0</v>
@@ -6371,15 +6371,15 @@
         <v>220</v>
       </c>
       <c r="D242" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E242" s="6" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B243" s="5">
         <v>2</v>
@@ -6388,15 +6388,15 @@
         <v>220</v>
       </c>
       <c r="D243" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E243" s="6" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B244" s="5">
         <v>1</v>
@@ -6405,15 +6405,15 @@
         <v>220</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E244" s="6" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B245" s="5">
         <v>1</v>
@@ -6422,15 +6422,15 @@
         <v>220</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E245" s="6" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B246" s="5">
         <v>5</v>
@@ -6439,15 +6439,15 @@
         <v>350</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E246" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B247" s="5">
         <v>10</v>
@@ -6456,15 +6456,15 @@
         <v>250</v>
       </c>
       <c r="D247" s="4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E247" s="6" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B248" s="5">
         <v>1</v>
@@ -6473,15 +6473,15 @@
         <v>250</v>
       </c>
       <c r="D248" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E248" s="6" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B249" s="5">
         <v>24</v>
@@ -6490,15 +6490,15 @@
         <v>250</v>
       </c>
       <c r="D249" s="4" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E249" s="6" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B250" s="5">
         <v>6</v>
@@ -6507,15 +6507,15 @@
         <v>150</v>
       </c>
       <c r="D250" s="4" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E250" s="6" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B251" s="5">
         <v>2</v>
@@ -6524,15 +6524,15 @@
         <v>150</v>
       </c>
       <c r="D251" s="4" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E251" s="6" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B252" s="5">
         <v>2</v>
@@ -6541,15 +6541,15 @@
         <v>150</v>
       </c>
       <c r="D252" s="4" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E252" s="6" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B253" s="5">
         <v>2</v>
@@ -6558,15 +6558,15 @@
         <v>550</v>
       </c>
       <c r="D253" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E253" s="6" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B254" s="5">
         <v>2</v>
@@ -6575,15 +6575,15 @@
         <v>650</v>
       </c>
       <c r="D254" s="4" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E254" s="6" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B255" s="5">
         <v>0</v>
@@ -6592,15 +6592,15 @@
         <v>300</v>
       </c>
       <c r="D255" s="4" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="E255" s="6" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B256" s="5">
         <v>0</v>
@@ -6609,15 +6609,15 @@
         <v>300</v>
       </c>
       <c r="D256" s="4" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="E256" s="6" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B257" s="5">
         <v>0</v>
@@ -6626,15 +6626,15 @@
         <v>300</v>
       </c>
       <c r="D257" s="4" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="E257" s="6" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B258" s="5">
         <v>0</v>
@@ -6643,15 +6643,15 @@
         <v>300</v>
       </c>
       <c r="D258" s="4" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="E258" s="6" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B259" s="5">
         <v>0</v>
@@ -6660,15 +6660,15 @@
         <v>300</v>
       </c>
       <c r="D259" s="4" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="E259" s="6" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B260" s="5">
         <v>0</v>
@@ -6677,15 +6677,15 @@
         <v>300</v>
       </c>
       <c r="D260" s="4" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="E260" s="6" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B261" s="5">
         <v>0</v>
@@ -6694,15 +6694,15 @@
         <v>300</v>
       </c>
       <c r="D261" s="4" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E261" s="6" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B262" s="5">
         <v>0</v>
@@ -6711,15 +6711,15 @@
         <v>300</v>
       </c>
       <c r="D262" s="4" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="E262" s="6" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B263" s="5">
         <v>0</v>
@@ -6728,15 +6728,15 @@
         <v>300</v>
       </c>
       <c r="D263" s="4" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="E263" s="6" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B264" s="5">
         <v>0</v>
@@ -6745,15 +6745,15 @@
         <v>300</v>
       </c>
       <c r="D264" s="4" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="E264" s="6" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B265" s="5">
         <v>0</v>
@@ -6762,15 +6762,15 @@
         <v>300</v>
       </c>
       <c r="D265" s="4" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E265" s="6" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B266" s="5">
         <v>0</v>
@@ -6779,15 +6779,15 @@
         <v>300</v>
       </c>
       <c r="D266" s="4" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="E266" s="6" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B267" s="5">
         <v>0</v>
@@ -6796,15 +6796,15 @@
         <v>300</v>
       </c>
       <c r="D267" s="4" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="E267" s="6" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B268" s="5">
         <v>0</v>
@@ -6813,15 +6813,15 @@
         <v>300</v>
       </c>
       <c r="D268" s="4" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="E268" s="6" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B269" s="5">
         <v>0</v>
@@ -6830,15 +6830,15 @@
         <v>300</v>
       </c>
       <c r="D269" s="4" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E269" s="6" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B270" s="5">
         <v>4</v>
@@ -6847,15 +6847,15 @@
         <v>800</v>
       </c>
       <c r="D270" s="4" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E270" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B271" s="5">
         <v>13</v>
@@ -6864,15 +6864,15 @@
         <v>200</v>
       </c>
       <c r="D271" s="4" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E271" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B272" s="5">
         <v>3</v>
@@ -6881,15 +6881,15 @@
         <v>150</v>
       </c>
       <c r="D272" s="4" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E272" s="6" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B273" s="5">
         <v>2</v>
@@ -6898,15 +6898,15 @@
         <v>150</v>
       </c>
       <c r="D273" s="4" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E273" s="6" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B274" s="5">
         <v>1</v>
@@ -6915,15 +6915,15 @@
         <v>150</v>
       </c>
       <c r="D274" s="4" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E274" s="6" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B275" s="5">
         <v>1</v>
@@ -6932,15 +6932,15 @@
         <v>150</v>
       </c>
       <c r="D275" s="4" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E275" s="6" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B276" s="5">
         <v>10</v>
@@ -6949,15 +6949,15 @@
         <v>30</v>
       </c>
       <c r="D276" s="4" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E276" s="6" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B277" s="5">
         <v>1</v>
@@ -6966,15 +6966,15 @@
         <v>550</v>
       </c>
       <c r="D277" s="4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E277" s="6" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B278" s="5">
         <v>1</v>
@@ -6983,15 +6983,15 @@
         <v>550</v>
       </c>
       <c r="D278" s="4" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E278" s="6" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B279" s="5">
         <v>1</v>
@@ -7000,15 +7000,15 @@
         <v>550</v>
       </c>
       <c r="D279" s="4" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E279" s="6" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B280" s="5">
         <v>1</v>
@@ -7017,15 +7017,15 @@
         <v>550</v>
       </c>
       <c r="D280" s="4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E280" s="6" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B281" s="5">
         <v>1</v>
@@ -7034,15 +7034,15 @@
         <v>550</v>
       </c>
       <c r="D281" s="4" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E281" s="6" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B282" s="5">
         <v>1</v>
@@ -7051,15 +7051,15 @@
         <v>550</v>
       </c>
       <c r="D282" s="4" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E282" s="6" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B283" s="5">
         <v>1</v>
@@ -7068,15 +7068,15 @@
         <v>550</v>
       </c>
       <c r="D283" s="4" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E283" s="6" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B284" s="5">
         <v>1</v>
@@ -7085,15 +7085,15 @@
         <v>550</v>
       </c>
       <c r="D284" s="4" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E284" s="6" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B285" s="5">
         <v>2</v>
@@ -7102,15 +7102,15 @@
         <v>250</v>
       </c>
       <c r="D285" s="4" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E285" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B286" s="5">
         <v>1</v>
@@ -7119,15 +7119,15 @@
         <v>250</v>
       </c>
       <c r="D286" s="4" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E286" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B287" s="5">
         <v>0</v>
@@ -7136,15 +7136,15 @@
         <v>250</v>
       </c>
       <c r="D287" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E287" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B288" s="5">
         <v>1</v>
@@ -7153,15 +7153,15 @@
         <v>250</v>
       </c>
       <c r="D288" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E288" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B289" s="5">
         <v>4</v>
@@ -7170,10 +7170,10 @@
         <v>220</v>
       </c>
       <c r="D289" s="4" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E289" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
   </sheetData>

--- a/data/stock.xlsx
+++ b/data/stock.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\blocks\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEAD224D-5058-4010-B706-EDC44ABA10FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEE44633-624E-4300-8401-0BCAE74C0D6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3075" yWindow="1800" windowWidth="21600" windowHeight="11250" xr2:uid="{FC0CBB84-858B-49F6-BA69-44D83C89F7C4}"/>
+    <workbookView xWindow="3525" yWindow="2730" windowWidth="21600" windowHeight="11250" xr2:uid="{FC0CBB84-858B-49F6-BA69-44D83C89F7C4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="565">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="567">
   <si>
     <t>Product</t>
   </si>
@@ -60,18 +60,12 @@
     <t xml:space="preserve">Ironman shield </t>
   </si>
   <si>
-    <t>Deadpool &amp; Wolverine</t>
-  </si>
-  <si>
     <t>Thanos</t>
   </si>
   <si>
     <t xml:space="preserve">Iron Patriot </t>
   </si>
   <si>
-    <t>Hawkeye</t>
-  </si>
-  <si>
     <t>Thor endgame</t>
   </si>
   <si>
@@ -117,27 +111,9 @@
     <t>Wanda</t>
   </si>
   <si>
-    <t>Ironman Heart</t>
-  </si>
-  <si>
-    <t>Thor silver</t>
-  </si>
-  <si>
-    <t>Thor Gold</t>
-  </si>
-  <si>
     <t>Dr. Strange</t>
   </si>
   <si>
-    <t>Spiderman Tobey</t>
-  </si>
-  <si>
-    <t>Spiderman Andrew</t>
-  </si>
-  <si>
-    <t>Spiderman Tom</t>
-  </si>
-  <si>
     <t>Doctor Octous</t>
   </si>
   <si>
@@ -1335,15 +1311,9 @@
     <t>Punisher</t>
   </si>
   <si>
-    <t>Deadpool gold gun v2</t>
-  </si>
-  <si>
     <t>Thor endgame MCU</t>
   </si>
   <si>
-    <t>Loki (God ofStories)</t>
-  </si>
-  <si>
     <t>Loki TVA Varient</t>
   </si>
   <si>
@@ -1729,6 +1699,42 @@
   </si>
   <si>
     <t>Batmobile white (Joker ver.)</t>
+  </si>
+  <si>
+    <t>Batman Diorama Set</t>
+  </si>
+  <si>
+    <t>bat dio.jpg</t>
+  </si>
+  <si>
+    <t>Deadpool &amp; Wolverine Set</t>
+  </si>
+  <si>
+    <t>Hawkeye [Ronin]</t>
+  </si>
+  <si>
+    <t>Ironman [Heart]</t>
+  </si>
+  <si>
+    <t>Thor [Silver]</t>
+  </si>
+  <si>
+    <t>Thor [Gold]</t>
+  </si>
+  <si>
+    <t>Spiderman [Tobey]</t>
+  </si>
+  <si>
+    <t>Spiderman [Andrew]</t>
+  </si>
+  <si>
+    <t>Spiderman [Tom]</t>
+  </si>
+  <si>
+    <t>Deadpool Gold Gun v2</t>
+  </si>
+  <si>
+    <t>Loki (God of Stories)</t>
   </si>
 </sst>
 </file>
@@ -2250,10 +2256,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCDC9875-9E8E-485C-910E-47B83A1F9902}">
-  <dimension ref="A1:E289"/>
+  <dimension ref="A1:E290"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A78" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A93" sqref="A93"/>
+    <sheetView tabSelected="1" topLeftCell="A262" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B178" sqref="B178"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2291,7 +2297,7 @@
         <v>220</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>6</v>
@@ -2308,7 +2314,7 @@
         <v>220</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>6</v>
@@ -2316,7 +2322,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>557</v>
       </c>
       <c r="B4" s="3">
         <v>4</v>
@@ -2325,7 +2331,7 @@
         <v>350</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>6</v>
@@ -2333,7 +2339,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" s="3">
         <v>4</v>
@@ -2342,7 +2348,7 @@
         <v>180</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>6</v>
@@ -2350,7 +2356,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" s="3">
         <v>0</v>
@@ -2359,7 +2365,7 @@
         <v>180</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>6</v>
@@ -2367,7 +2373,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>558</v>
       </c>
       <c r="B7" s="3">
         <v>2</v>
@@ -2376,7 +2382,7 @@
         <v>200</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>6</v>
@@ -2384,7 +2390,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B8" s="3">
         <v>0</v>
@@ -2393,7 +2399,7 @@
         <v>180</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>6</v>
@@ -2401,7 +2407,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B9" s="3">
         <v>0</v>
@@ -2410,7 +2416,7 @@
         <v>200</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>6</v>
@@ -2418,7 +2424,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="B10" s="3">
         <v>2</v>
@@ -2427,7 +2433,7 @@
         <v>250</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>6</v>
@@ -2435,7 +2441,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="B11" s="3">
         <v>2</v>
@@ -2444,7 +2450,7 @@
         <v>250</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>6</v>
@@ -2452,7 +2458,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="B12" s="3">
         <v>3</v>
@@ -2461,7 +2467,7 @@
         <v>250</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>6</v>
@@ -2469,7 +2475,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="B13" s="3">
         <v>2</v>
@@ -2478,7 +2484,7 @@
         <v>250</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>6</v>
@@ -2486,7 +2492,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="B14" s="3">
         <v>2</v>
@@ -2495,7 +2501,7 @@
         <v>250</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>6</v>
@@ -2503,7 +2509,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="B15" s="3">
         <v>1</v>
@@ -2512,7 +2518,7 @@
         <v>250</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>6</v>
@@ -2520,7 +2526,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="B16" s="3">
         <v>1</v>
@@ -2529,7 +2535,7 @@
         <v>250</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>6</v>
@@ -2537,7 +2543,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="B17" s="3">
         <v>1</v>
@@ -2546,7 +2552,7 @@
         <v>250</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>6</v>
@@ -2554,7 +2560,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="B18" s="3">
         <v>2</v>
@@ -2563,7 +2569,7 @@
         <v>250</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>6</v>
@@ -2571,7 +2577,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B19" s="3">
         <v>2</v>
@@ -2580,7 +2586,7 @@
         <v>220</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>6</v>
@@ -2588,7 +2594,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B20" s="3">
         <v>0</v>
@@ -2597,7 +2603,7 @@
         <v>220</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>6</v>
@@ -2605,7 +2611,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B21" s="3">
         <v>2</v>
@@ -2614,7 +2620,7 @@
         <v>220</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>6</v>
@@ -2622,7 +2628,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B22" s="3">
         <v>1</v>
@@ -2631,7 +2637,7 @@
         <v>220</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>6</v>
@@ -2639,7 +2645,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B23" s="3">
         <v>1</v>
@@ -2648,7 +2654,7 @@
         <v>220</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>6</v>
@@ -2656,7 +2662,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B24" s="3">
         <v>2</v>
@@ -2665,7 +2671,7 @@
         <v>220</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>6</v>
@@ -2673,7 +2679,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B25" s="3">
         <v>1</v>
@@ -2682,7 +2688,7 @@
         <v>220</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>6</v>
@@ -2690,7 +2696,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B26" s="3">
         <v>0</v>
@@ -2699,7 +2705,7 @@
         <v>220</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>6</v>
@@ -2707,7 +2713,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B27" s="3">
         <v>1</v>
@@ -2716,7 +2722,7 @@
         <v>200</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>6</v>
@@ -2724,7 +2730,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B28" s="3">
         <v>1</v>
@@ -2733,7 +2739,7 @@
         <v>220</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>6</v>
@@ -2741,7 +2747,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B29" s="3">
         <v>4</v>
@@ -2750,7 +2756,7 @@
         <v>180</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>6</v>
@@ -2758,7 +2764,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B30" s="3">
         <v>2</v>
@@ -2767,7 +2773,7 @@
         <v>180</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>6</v>
@@ -2775,7 +2781,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B31" s="3">
         <v>0</v>
@@ -2784,7 +2790,7 @@
         <v>180</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>6</v>
@@ -2792,7 +2798,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>27</v>
+        <v>559</v>
       </c>
       <c r="B32" s="3">
         <v>0</v>
@@ -2801,7 +2807,7 @@
         <v>180</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>6</v>
@@ -2809,7 +2815,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>28</v>
+        <v>560</v>
       </c>
       <c r="B33" s="3">
         <v>0</v>
@@ -2818,7 +2824,7 @@
         <v>180</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>6</v>
@@ -2826,7 +2832,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>29</v>
+        <v>561</v>
       </c>
       <c r="B34" s="3">
         <v>2</v>
@@ -2835,7 +2841,7 @@
         <v>180</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>6</v>
@@ -2843,7 +2849,7 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B35" s="3">
         <v>4</v>
@@ -2852,7 +2858,7 @@
         <v>180</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>6</v>
@@ -2860,7 +2866,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>31</v>
+        <v>562</v>
       </c>
       <c r="B36" s="3">
         <v>2</v>
@@ -2869,7 +2875,7 @@
         <v>270</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>6</v>
@@ -2877,7 +2883,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>32</v>
+        <v>563</v>
       </c>
       <c r="B37" s="3">
         <v>0</v>
@@ -2886,7 +2892,7 @@
         <v>270</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>6</v>
@@ -2894,7 +2900,7 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>33</v>
+        <v>564</v>
       </c>
       <c r="B38" s="3">
         <v>2</v>
@@ -2903,7 +2909,7 @@
         <v>270</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>6</v>
@@ -2911,7 +2917,7 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B39" s="3">
         <v>1</v>
@@ -2920,7 +2926,7 @@
         <v>450</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>6</v>
@@ -2928,7 +2934,7 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B40" s="3">
         <v>3</v>
@@ -2937,7 +2943,7 @@
         <v>380</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>6</v>
@@ -2945,7 +2951,7 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B41" s="3">
         <v>5</v>
@@ -2954,7 +2960,7 @@
         <v>800</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>6</v>
@@ -2962,7 +2968,7 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B42" s="3">
         <v>1</v>
@@ -2971,7 +2977,7 @@
         <v>270</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>6</v>
@@ -2979,7 +2985,7 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B43" s="3">
         <v>0</v>
@@ -2988,7 +2994,7 @@
         <v>270</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>6</v>
@@ -2996,7 +3002,7 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B44" s="3">
         <v>2</v>
@@ -3005,7 +3011,7 @@
         <v>270</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>6</v>
@@ -3013,7 +3019,7 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>433</v>
+        <v>565</v>
       </c>
       <c r="B45" s="3">
         <v>1</v>
@@ -3022,7 +3028,7 @@
         <v>250</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>441</v>
+        <v>431</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>6</v>
@@ -3030,7 +3036,7 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B46" s="3">
         <v>0</v>
@@ -3039,7 +3045,7 @@
         <v>850</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="E46" s="3" t="s">
         <v>6</v>
@@ -3047,7 +3053,7 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="B47" s="3">
         <v>2</v>
@@ -3056,7 +3062,7 @@
         <v>250</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>6</v>
@@ -3064,7 +3070,7 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="B48" s="3">
         <v>2</v>
@@ -3073,7 +3079,7 @@
         <v>250</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>6</v>
@@ -3081,7 +3087,7 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B49" s="3">
         <v>2</v>
@@ -3090,7 +3096,7 @@
         <v>250</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>6</v>
@@ -3098,7 +3104,7 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B50" s="3">
         <v>2</v>
@@ -3107,7 +3113,7 @@
         <v>250</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>6</v>
@@ -3115,7 +3121,7 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="B51" s="3">
         <v>1</v>
@@ -3124,7 +3130,7 @@
         <v>250</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="E51" s="3" t="s">
         <v>6</v>
@@ -3132,7 +3138,7 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="B52" s="3">
         <v>1</v>
@@ -3141,7 +3147,7 @@
         <v>250</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>6</v>
@@ -3149,7 +3155,7 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="B53" s="3">
         <v>1</v>
@@ -3158,7 +3164,7 @@
         <v>250</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="E53" s="3" t="s">
         <v>6</v>
@@ -3166,7 +3172,7 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="B54" s="3">
         <v>2</v>
@@ -3175,7 +3181,7 @@
         <v>360</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>6</v>
@@ -3183,7 +3189,7 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="B55" s="3">
         <v>1</v>
@@ -3192,7 +3198,7 @@
         <v>360</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="E55" s="3" t="s">
         <v>6</v>
@@ -3200,7 +3206,7 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="B56" s="3">
         <v>2</v>
@@ -3209,7 +3215,7 @@
         <v>200</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="E56" s="3" t="s">
         <v>6</v>
@@ -3217,7 +3223,7 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
-        <v>435</v>
+        <v>566</v>
       </c>
       <c r="B57" s="3">
         <v>4</v>
@@ -3226,7 +3232,7 @@
         <v>260</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>6</v>
@@ -3234,7 +3240,7 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="B58" s="3">
         <v>2</v>
@@ -3243,7 +3249,7 @@
         <v>260</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>6</v>
@@ -3251,7 +3257,7 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="B59" s="3">
         <v>2</v>
@@ -3260,7 +3266,7 @@
         <v>260</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>445</v>
+        <v>435</v>
       </c>
       <c r="E59" s="3" t="s">
         <v>6</v>
@@ -3268,7 +3274,7 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="B60" s="3">
         <v>4</v>
@@ -3277,7 +3283,7 @@
         <v>260</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="E60" s="3" t="s">
         <v>6</v>
@@ -3285,7 +3291,7 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="7" t="s">
-        <v>437</v>
+        <v>427</v>
       </c>
       <c r="B61" s="3">
         <v>1</v>
@@ -3294,7 +3300,7 @@
         <v>220</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="E61" s="3" t="s">
         <v>6</v>
@@ -3302,7 +3308,7 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="7" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="B62" s="3">
         <v>0</v>
@@ -3311,7 +3317,7 @@
         <v>250</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="E62" s="3" t="s">
         <v>6</v>
@@ -3319,7 +3325,7 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="B63" s="3">
         <v>5</v>
@@ -3328,7 +3334,7 @@
         <v>250</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>448</v>
+        <v>438</v>
       </c>
       <c r="E63" s="3" t="s">
         <v>6</v>
@@ -3336,7 +3342,7 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="7" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="B64" s="3">
         <v>1</v>
@@ -3345,7 +3351,7 @@
         <v>250</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>449</v>
+        <v>439</v>
       </c>
       <c r="E64" s="3" t="s">
         <v>6</v>
@@ -3353,7 +3359,7 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="B65" s="3">
         <v>2</v>
@@ -3362,7 +3368,7 @@
         <v>250</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>444</v>
+        <v>434</v>
       </c>
       <c r="E65" s="3" t="s">
         <v>6</v>
@@ -3370,7 +3376,7 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="7" t="s">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="B66" s="3">
         <v>2</v>
@@ -3379,7 +3385,7 @@
         <v>250</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="E66" s="3" t="s">
         <v>6</v>
@@ -3387,7 +3393,7 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="B67" s="3">
         <v>3</v>
@@ -3396,7 +3402,7 @@
         <v>220</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>451</v>
+        <v>441</v>
       </c>
       <c r="E67" s="3" t="s">
         <v>6</v>
@@ -3404,7 +3410,7 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="B68" s="3">
         <v>3</v>
@@ -3413,15 +3419,15 @@
         <v>180</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="B69" s="3">
         <v>1</v>
@@ -3430,15 +3436,15 @@
         <v>250</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B70" s="3">
         <v>5</v>
@@ -3447,15 +3453,15 @@
         <v>250</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="B71" s="3">
         <v>1</v>
@@ -3464,15 +3470,15 @@
         <v>250</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B72" s="3">
         <v>0</v>
@@ -3481,15 +3487,15 @@
         <v>180</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="B73" s="3">
         <v>1</v>
@@ -3498,15 +3504,15 @@
         <v>250</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="B74" s="3">
         <v>1</v>
@@ -3515,15 +3521,15 @@
         <v>250</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="B75" s="3">
         <v>1</v>
@@ -3532,15 +3538,15 @@
         <v>180</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="B76" s="3">
         <v>1</v>
@@ -3549,15 +3555,15 @@
         <v>180</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="B77" s="3">
         <v>3</v>
@@ -3566,15 +3572,15 @@
         <v>300</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B78" s="3">
         <v>0</v>
@@ -3583,151 +3589,151 @@
         <v>300</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>49</v>
+        <v>555</v>
       </c>
       <c r="B79" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C79" s="3">
-        <v>350</v>
+        <v>1000</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>220</v>
+        <v>556</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="B80" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C80" s="3">
         <v>350</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="B81" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C81" s="3">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" s="7" t="s">
-        <v>454</v>
+      <c r="A82" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B82" s="3">
         <v>4</v>
       </c>
       <c r="C82" s="3">
-        <v>220</v>
-      </c>
-      <c r="D82" s="8" t="s">
-        <v>464</v>
+        <v>500</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>214</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="7" t="s">
-        <v>455</v>
+        <v>444</v>
       </c>
       <c r="B83" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C83" s="3">
         <v>220</v>
       </c>
       <c r="D83" s="8" t="s">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="7" t="s">
-        <v>452</v>
-      </c>
-      <c r="B84" s="6">
-        <v>1</v>
-      </c>
-      <c r="C84" s="6">
-        <v>200</v>
-      </c>
-      <c r="D84" s="4" t="s">
-        <v>459</v>
+        <v>445</v>
+      </c>
+      <c r="B84" s="3">
+        <v>2</v>
+      </c>
+      <c r="C84" s="3">
+        <v>220</v>
+      </c>
+      <c r="D84" s="8" t="s">
+        <v>453</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="7" t="s">
-        <v>456</v>
-      </c>
-      <c r="B85" s="3">
-        <v>2</v>
-      </c>
-      <c r="C85" s="3">
-        <v>220</v>
-      </c>
-      <c r="D85" s="8" t="s">
-        <v>465</v>
+        <v>442</v>
+      </c>
+      <c r="B85" s="6">
+        <v>1</v>
+      </c>
+      <c r="C85" s="6">
+        <v>200</v>
+      </c>
+      <c r="D85" s="4" t="s">
+        <v>449</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="7" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="B86" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C86" s="3">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="D86" s="8" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="7" t="s">
-        <v>458</v>
+        <v>447</v>
       </c>
       <c r="B87" s="3">
         <v>1</v>
@@ -3736,168 +3742,168 @@
         <v>250</v>
       </c>
       <c r="D87" s="8" t="s">
-        <v>462</v>
+        <v>451</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" s="1" t="s">
-        <v>453</v>
+      <c r="A88" s="7" t="s">
+        <v>448</v>
       </c>
       <c r="B88" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C88" s="3">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="D88" s="8" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>52</v>
+        <v>443</v>
       </c>
       <c r="B89" s="3">
         <v>3</v>
       </c>
       <c r="C89" s="3">
-        <v>350</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>207</v>
+        <v>220</v>
+      </c>
+      <c r="D89" s="8" t="s">
+        <v>450</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="B90" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C90" s="3">
         <v>350</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="B91" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C91" s="3">
         <v>350</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="B92" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C92" s="3">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>564</v>
+        <v>47</v>
       </c>
       <c r="B93" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C93" s="3">
         <v>500</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>56</v>
+        <v>554</v>
       </c>
       <c r="B94" s="3">
         <v>3</v>
       </c>
       <c r="C94" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>172</v>
+        <v>48</v>
       </c>
       <c r="B95" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C95" s="3">
         <v>300</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>173</v>
+        <v>202</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>58</v>
+        <v>164</v>
       </c>
       <c r="B96" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C96" s="3">
         <v>300</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>211</v>
+        <v>165</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="B97" s="3">
         <v>0</v>
@@ -3906,49 +3912,49 @@
         <v>300</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>159</v>
+        <v>203</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="B98" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C98" s="3">
         <v>300</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="B99" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C99" s="3">
-        <v>270</v>
+        <v>300</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="B100" s="3">
         <v>0</v>
@@ -3957,66 +3963,66 @@
         <v>270</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="B101" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C101" s="3">
-        <v>300</v>
+        <v>270</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="B102" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C102" s="3">
         <v>300</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="B103" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C103" s="3">
         <v>300</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>196</v>
+        <v>151</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>370</v>
+        <v>57</v>
       </c>
       <c r="B104" s="3">
         <v>1</v>
@@ -4025,32 +4031,32 @@
         <v>300</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>66</v>
+        <v>362</v>
       </c>
       <c r="B105" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C105" s="3">
         <v>300</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>174</v>
+        <v>187</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="B106" s="3">
         <v>0</v>
@@ -4059,49 +4065,49 @@
         <v>300</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>281</v>
+        <v>59</v>
       </c>
       <c r="B107" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C107" s="3">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>282</v>
+        <v>151</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>68</v>
+        <v>273</v>
       </c>
       <c r="B108" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C108" s="3">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>159</v>
+        <v>274</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="B109" s="3">
         <v>0</v>
@@ -4110,15 +4116,15 @@
         <v>300</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="E109" s="3" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="B110" s="3">
         <v>0</v>
@@ -4127,15 +4133,15 @@
         <v>300</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="E110" s="3" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="B111" s="3">
         <v>0</v>
@@ -4144,15 +4150,15 @@
         <v>300</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="B112" s="3">
         <v>0</v>
@@ -4161,15 +4167,15 @@
         <v>300</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="B113" s="3">
         <v>0</v>
@@ -4178,32 +4184,32 @@
         <v>300</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="E113" s="3" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="B114" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C114" s="3">
         <v>300</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>175</v>
+        <v>151</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>333</v>
+        <v>66</v>
       </c>
       <c r="B115" s="3">
         <v>1</v>
@@ -4212,117 +4218,117 @@
         <v>300</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>350</v>
+        <v>167</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>279</v>
+        <v>325</v>
       </c>
       <c r="B116" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C116" s="3">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>170</v>
+        <v>342</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="B117" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C117" s="3">
         <v>350</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="E117" s="3" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>75</v>
+        <v>272</v>
       </c>
       <c r="B118" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C118" s="3">
         <v>350</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="E118" s="3" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="B119" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C119" s="3">
         <v>350</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="E119" s="3" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B120" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C120" s="3">
-        <v>320</v>
+        <v>350</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="E120" s="3" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="B121" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C121" s="3">
         <v>320</v>
       </c>
-      <c r="D121" s="1" t="s">
-        <v>179</v>
+      <c r="D121" s="2" t="s">
+        <v>170</v>
       </c>
       <c r="E121" s="3" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="B122" s="3">
         <v>1</v>
@@ -4331,15 +4337,15 @@
         <v>320</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>192</v>
+        <v>171</v>
       </c>
       <c r="E122" s="3" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="B123" s="3">
         <v>1</v>
@@ -4348,15 +4354,15 @@
         <v>320</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="E123" s="3" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="B124" s="3">
         <v>1</v>
@@ -4365,15 +4371,15 @@
         <v>320</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="E124" s="3" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="B125" s="3">
         <v>1</v>
@@ -4382,66 +4388,66 @@
         <v>320</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="E125" s="3" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="B126" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C126" s="3">
         <v>320</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="E126" s="3" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="B127" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C127" s="3">
         <v>320</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="E127" s="3" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="B128" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C128" s="3">
         <v>320</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="E128" s="3" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="B129" s="3">
         <v>1</v>
@@ -4450,32 +4456,32 @@
         <v>320</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="E129" s="3" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="B130" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C130" s="3">
         <v>320</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="E130" s="3" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="B131" s="3">
         <v>2</v>
@@ -4484,117 +4490,117 @@
         <v>320</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="E131" s="3" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="B132" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C132" s="3">
         <v>320</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="E132" s="3" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="B133" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C133" s="3">
         <v>320</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="E133" s="3" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="B134" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C134" s="3">
         <v>320</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="E134" s="3" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>346</v>
+        <v>83</v>
       </c>
       <c r="B135" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C135" s="3">
         <v>320</v>
       </c>
-      <c r="D135" s="2" t="s">
-        <v>347</v>
+      <c r="D135" s="1" t="s">
+        <v>183</v>
       </c>
       <c r="E135" s="3" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>92</v>
+        <v>338</v>
       </c>
       <c r="B136" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C136" s="3">
-        <v>300</v>
+        <v>320</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>267</v>
+        <v>339</v>
       </c>
       <c r="E136" s="3" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="B137" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C137" s="3">
         <v>300</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>239</v>
+        <v>259</v>
       </c>
       <c r="E137" s="3" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="B138" s="3">
         <v>1</v>
@@ -4603,15 +4609,15 @@
         <v>300</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>268</v>
+        <v>231</v>
       </c>
       <c r="E138" s="3" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="B139" s="3">
         <v>1</v>
@@ -4619,16 +4625,16 @@
       <c r="C139" s="3">
         <v>300</v>
       </c>
-      <c r="D139" s="1" t="s">
-        <v>212</v>
+      <c r="D139" s="2" t="s">
+        <v>260</v>
       </c>
       <c r="E139" s="3" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="B140" s="3">
         <v>1</v>
@@ -4637,15 +4643,15 @@
         <v>300</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="E140" s="3" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="B141" s="3">
         <v>1</v>
@@ -4654,15 +4660,15 @@
         <v>300</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="E141" s="3" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="B142" s="3">
         <v>1</v>
@@ -4671,15 +4677,15 @@
         <v>300</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="E142" s="3" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="B143" s="3">
         <v>1</v>
@@ -4688,49 +4694,49 @@
         <v>300</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="E143" s="3" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="B144" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C144" s="3">
         <v>300</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="E144" s="3" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="B145" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C145" s="3">
         <v>300</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="E145" s="3" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="B146" s="3">
         <v>1</v>
@@ -4738,101 +4744,101 @@
       <c r="C146" s="3">
         <v>300</v>
       </c>
-      <c r="D146" s="2" t="s">
-        <v>269</v>
+      <c r="D146" s="1" t="s">
+        <v>210</v>
       </c>
       <c r="E146" s="3" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="B147" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C147" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>240</v>
+        <v>261</v>
       </c>
       <c r="E147" s="3" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="B148" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C148" s="3">
         <v>400</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="E148" s="3" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
-        <v>371</v>
+        <v>96</v>
       </c>
       <c r="B149" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C149" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="E149" s="3" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
-        <v>105</v>
+        <v>363</v>
       </c>
       <c r="B150" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C150" s="3">
         <v>300</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="E150" s="3" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="B151" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C151" s="3">
         <v>300</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="E151" s="3" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B152" s="3">
         <v>1</v>
@@ -4841,15 +4847,15 @@
         <v>300</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="E152" s="3" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="B153" s="3">
         <v>1</v>
@@ -4858,83 +4864,83 @@
         <v>300</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="E153" s="3" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="B154" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C154" s="3">
         <v>300</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="E154" s="3" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="B155" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C155" s="3">
         <v>300</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="E155" s="3" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="B156" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C156" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="E156" s="3" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
-        <v>481</v>
+        <v>103</v>
       </c>
       <c r="B157" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C157" s="3">
-        <v>280</v>
-      </c>
-      <c r="D157" s="8" t="s">
-        <v>484</v>
+        <v>500</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>241</v>
       </c>
       <c r="E157" s="3" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
-        <v>482</v>
+        <v>471</v>
       </c>
       <c r="B158" s="3">
         <v>1</v>
@@ -4943,15 +4949,15 @@
         <v>280</v>
       </c>
       <c r="D158" s="8" t="s">
-        <v>485</v>
+        <v>474</v>
       </c>
       <c r="E158" s="3" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A159" s="7" t="s">
-        <v>483</v>
+      <c r="A159" s="1" t="s">
+        <v>472</v>
       </c>
       <c r="B159" s="3">
         <v>1</v>
@@ -4960,32 +4966,32 @@
         <v>280</v>
       </c>
       <c r="D159" s="8" t="s">
-        <v>486</v>
+        <v>475</v>
       </c>
       <c r="E159" s="3" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A160" s="1" t="s">
-        <v>112</v>
+      <c r="A160" s="7" t="s">
+        <v>473</v>
       </c>
       <c r="B160" s="3">
         <v>1</v>
       </c>
       <c r="C160" s="3">
-        <v>300</v>
-      </c>
-      <c r="D160" s="2" t="s">
-        <v>250</v>
+        <v>280</v>
+      </c>
+      <c r="D160" s="8" t="s">
+        <v>476</v>
       </c>
       <c r="E160" s="3" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="B161" s="3">
         <v>1</v>
@@ -4994,49 +5000,49 @@
         <v>300</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="E161" s="3" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="B162" s="3">
         <v>1</v>
       </c>
       <c r="C162" s="3">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>270</v>
+        <v>243</v>
       </c>
       <c r="E162" s="3" t="s">
-        <v>115</v>
+        <v>49</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
-        <v>310</v>
+        <v>106</v>
       </c>
       <c r="B163" s="3">
         <v>1</v>
       </c>
       <c r="C163" s="3">
-        <v>280</v>
+        <v>250</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>328</v>
+        <v>262</v>
       </c>
       <c r="E163" s="3" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="B164" s="3">
         <v>1</v>
@@ -5045,134 +5051,134 @@
         <v>280</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="E164" s="3" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="B165" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C165" s="3">
-        <v>260</v>
+        <v>280</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="E165" s="3" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="B166" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C166" s="3">
         <v>260</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="E166" s="3" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
-        <v>116</v>
+        <v>305</v>
       </c>
       <c r="B167" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C167" s="3">
-        <v>500</v>
+        <v>260</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>159</v>
+        <v>323</v>
       </c>
       <c r="E167" s="3" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
-        <v>314</v>
+        <v>108</v>
       </c>
       <c r="B168" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C168" s="3">
-        <v>280</v>
+        <v>500</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>332</v>
+        <v>151</v>
       </c>
       <c r="E168" s="3" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
-        <v>117</v>
+        <v>306</v>
       </c>
       <c r="B169" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C169" s="3">
-        <v>220</v>
+        <v>280</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>301</v>
+        <v>324</v>
       </c>
       <c r="E169" s="3" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="B170" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C170" s="3">
         <v>220</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>308</v>
+        <v>293</v>
       </c>
       <c r="E170" s="3" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="B171" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C171" s="3">
         <v>220</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E171" s="3" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="B172" s="3">
         <v>1</v>
@@ -5181,236 +5187,236 @@
         <v>220</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="E172" s="3" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="B173" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C173" s="3">
         <v>220</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="E173" s="3" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="B174" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C174" s="3">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="E174" s="3" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
-        <v>272</v>
+        <v>114</v>
       </c>
       <c r="B175" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C175" s="3">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>271</v>
+        <v>297</v>
       </c>
       <c r="E175" s="3" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="B176" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C176" s="3">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="E176" s="3" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="B177" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C177" s="3">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="E177" s="3" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
-        <v>123</v>
+        <v>268</v>
       </c>
       <c r="B178" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C178" s="3">
         <v>220</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>307</v>
+        <v>267</v>
       </c>
       <c r="E178" s="3" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
-        <v>277</v>
+        <v>115</v>
       </c>
       <c r="B179" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C179" s="3">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>278</v>
+        <v>299</v>
       </c>
       <c r="E179" s="3" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
-        <v>124</v>
+        <v>269</v>
       </c>
       <c r="B180" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C180" s="3">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>306</v>
+        <v>270</v>
       </c>
       <c r="E180" s="3" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="B181" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C181" s="3">
         <v>220</v>
       </c>
-      <c r="D181" s="8" t="s">
-        <v>507</v>
+      <c r="D181" s="2" t="s">
+        <v>298</v>
       </c>
       <c r="E181" s="3" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="B182" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C182" s="3">
-        <v>350</v>
-      </c>
-      <c r="D182" s="2" t="s">
-        <v>295</v>
+        <v>220</v>
+      </c>
+      <c r="D182" s="8" t="s">
+        <v>497</v>
       </c>
       <c r="E182" s="3" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="B183" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C183" s="3">
         <v>350</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="E183" s="3" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="B184" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C184" s="3">
         <v>350</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="E184" s="3" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="B185" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C185" s="3">
         <v>350</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="E185" s="3" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="B186" s="3">
         <v>1</v>
@@ -5419,49 +5425,49 @@
         <v>350</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="E186" s="3" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="B187" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C187" s="3">
         <v>350</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="E187" s="3" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="B188" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C188" s="3">
-        <v>220</v>
+        <v>350</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>309</v>
+        <v>292</v>
       </c>
       <c r="E188" s="3" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A189" s="7" t="s">
-        <v>490</v>
+      <c r="A189" s="1" t="s">
+        <v>124</v>
       </c>
       <c r="B189" s="3">
         <v>1</v>
@@ -5469,16 +5475,16 @@
       <c r="C189" s="3">
         <v>220</v>
       </c>
-      <c r="D189" s="8" t="s">
-        <v>508</v>
+      <c r="D189" s="2" t="s">
+        <v>301</v>
       </c>
       <c r="E189" s="3" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" s="7" t="s">
-        <v>491</v>
+        <v>480</v>
       </c>
       <c r="B190" s="3">
         <v>1</v>
@@ -5487,15 +5493,15 @@
         <v>220</v>
       </c>
       <c r="D190" s="8" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
       <c r="E190" s="3" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" s="7" t="s">
-        <v>492</v>
+        <v>481</v>
       </c>
       <c r="B191" s="3">
         <v>1</v>
@@ -5504,66 +5510,66 @@
         <v>220</v>
       </c>
       <c r="D191" s="8" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="E191" s="3" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A192" s="1" t="s">
-        <v>487</v>
+      <c r="A192" s="7" t="s">
+        <v>482</v>
       </c>
       <c r="B192" s="3">
         <v>1</v>
       </c>
       <c r="C192" s="3">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="D192" s="8" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="E192" s="3" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A193" s="7" t="s">
-        <v>496</v>
+      <c r="A193" s="1" t="s">
+        <v>477</v>
       </c>
       <c r="B193" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C193" s="3">
         <v>250</v>
       </c>
       <c r="D193" s="8" t="s">
-        <v>501</v>
+        <v>487</v>
       </c>
       <c r="E193" s="3" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A194" s="1" t="s">
-        <v>121</v>
+      <c r="A194" s="7" t="s">
+        <v>486</v>
       </c>
       <c r="B194" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C194" s="3">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="D194" s="8" t="s">
-        <v>504</v>
+        <v>491</v>
       </c>
       <c r="E194" s="3" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
-        <v>488</v>
+        <v>113</v>
       </c>
       <c r="B195" s="3">
         <v>1</v>
@@ -5572,32 +5578,32 @@
         <v>220</v>
       </c>
       <c r="D195" s="8" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="E195" s="3" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A196" s="7" t="s">
-        <v>494</v>
+      <c r="A196" s="1" t="s">
+        <v>478</v>
       </c>
       <c r="B196" s="3">
         <v>1</v>
       </c>
       <c r="C196" s="3">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="D196" s="8" t="s">
-        <v>499</v>
+        <v>488</v>
       </c>
       <c r="E196" s="3" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A197" s="1" t="s">
-        <v>489</v>
+      <c r="A197" s="7" t="s">
+        <v>484</v>
       </c>
       <c r="B197" s="3">
         <v>1</v>
@@ -5606,15 +5612,15 @@
         <v>250</v>
       </c>
       <c r="D197" s="8" t="s">
-        <v>505</v>
+        <v>489</v>
       </c>
       <c r="E197" s="3" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A198" s="7" t="s">
-        <v>493</v>
+      <c r="A198" s="1" t="s">
+        <v>479</v>
       </c>
       <c r="B198" s="3">
         <v>1</v>
@@ -5623,15 +5629,15 @@
         <v>250</v>
       </c>
       <c r="D198" s="8" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="E198" s="3" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" s="7" t="s">
-        <v>495</v>
+        <v>483</v>
       </c>
       <c r="B199" s="3">
         <v>1</v>
@@ -5640,15 +5646,15 @@
         <v>250</v>
       </c>
       <c r="D199" s="8" t="s">
-        <v>503</v>
+        <v>490</v>
       </c>
       <c r="E199" s="3" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A200" s="1" t="s">
-        <v>133</v>
+      <c r="A200" s="7" t="s">
+        <v>485</v>
       </c>
       <c r="B200" s="3">
         <v>1</v>
@@ -5656,101 +5662,101 @@
       <c r="C200" s="3">
         <v>250</v>
       </c>
-      <c r="D200" s="2" t="s">
-        <v>252</v>
+      <c r="D200" s="8" t="s">
+        <v>493</v>
       </c>
       <c r="E200" s="3" t="s">
-        <v>134</v>
+        <v>107</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="B201" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C201" s="3">
-        <v>460</v>
+        <v>250</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>159</v>
+        <v>244</v>
       </c>
       <c r="E201" s="3" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="B202" s="3">
         <v>0</v>
       </c>
       <c r="C202" s="3">
-        <v>250</v>
+        <v>460</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>253</v>
+        <v>151</v>
       </c>
       <c r="E202" s="3" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
-        <v>522</v>
+        <v>128</v>
       </c>
       <c r="B203" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C203" s="3">
         <v>250</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="E203" s="3" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
-        <v>137</v>
+        <v>512</v>
       </c>
       <c r="B204" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C204" s="3">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>159</v>
+        <v>246</v>
       </c>
       <c r="E204" s="3" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
-        <v>511</v>
+        <v>129</v>
       </c>
       <c r="B205" s="3">
         <v>0</v>
       </c>
       <c r="C205" s="3">
-        <v>400</v>
-      </c>
-      <c r="D205" s="8" t="s">
-        <v>523</v>
+        <v>240</v>
+      </c>
+      <c r="D205" s="2" t="s">
+        <v>151</v>
       </c>
       <c r="E205" s="3" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
-        <v>517</v>
+        <v>501</v>
       </c>
       <c r="B206" s="3">
         <v>0</v>
@@ -5759,66 +5765,66 @@
         <v>400</v>
       </c>
       <c r="D206" s="8" t="s">
-        <v>524</v>
+        <v>513</v>
       </c>
       <c r="E206" s="3" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
-        <v>518</v>
+        <v>507</v>
       </c>
       <c r="B207" s="3">
         <v>0</v>
       </c>
       <c r="C207" s="3">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="D207" s="8" t="s">
-        <v>525</v>
+        <v>514</v>
       </c>
       <c r="E207" s="3" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
-        <v>519</v>
+        <v>508</v>
       </c>
       <c r="B208" s="3">
         <v>0</v>
       </c>
       <c r="C208" s="3">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="D208" s="8" t="s">
-        <v>526</v>
+        <v>515</v>
       </c>
       <c r="E208" s="3" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
-        <v>520</v>
+        <v>509</v>
       </c>
       <c r="B209" s="3">
         <v>0</v>
       </c>
       <c r="C209" s="3">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="D209" s="8" t="s">
-        <v>527</v>
+        <v>516</v>
       </c>
       <c r="E209" s="3" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B210" s="3">
         <v>0</v>
@@ -5827,49 +5833,49 @@
         <v>350</v>
       </c>
       <c r="D210" s="8" t="s">
-        <v>528</v>
+        <v>517</v>
       </c>
       <c r="E210" s="3" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
-        <v>513</v>
+        <v>502</v>
       </c>
       <c r="B211" s="3">
         <v>0</v>
       </c>
       <c r="C211" s="3">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="D211" s="8" t="s">
-        <v>529</v>
+        <v>518</v>
       </c>
       <c r="E211" s="3" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
-        <v>514</v>
+        <v>503</v>
       </c>
       <c r="B212" s="3">
         <v>0</v>
       </c>
       <c r="C212" s="3">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="D212" s="8" t="s">
-        <v>530</v>
+        <v>519</v>
       </c>
       <c r="E212" s="3" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
-        <v>515</v>
+        <v>504</v>
       </c>
       <c r="B213" s="3">
         <v>0</v>
@@ -5878,15 +5884,15 @@
         <v>350</v>
       </c>
       <c r="D213" s="8" t="s">
-        <v>531</v>
+        <v>520</v>
       </c>
       <c r="E213" s="3" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
-        <v>516</v>
+        <v>505</v>
       </c>
       <c r="B214" s="3">
         <v>0</v>
@@ -5895,15 +5901,15 @@
         <v>350</v>
       </c>
       <c r="D214" s="8" t="s">
-        <v>532</v>
+        <v>521</v>
       </c>
       <c r="E214" s="3" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
-        <v>521</v>
+        <v>506</v>
       </c>
       <c r="B215" s="3">
         <v>0</v>
@@ -5912,32 +5918,32 @@
         <v>350</v>
       </c>
       <c r="D215" s="8" t="s">
-        <v>533</v>
+        <v>522</v>
       </c>
       <c r="E215" s="3" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
-        <v>138</v>
+        <v>511</v>
       </c>
       <c r="B216" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C216" s="3">
-        <v>250</v>
-      </c>
-      <c r="D216" s="2" t="s">
-        <v>334</v>
+        <v>350</v>
+      </c>
+      <c r="D216" s="8" t="s">
+        <v>523</v>
       </c>
       <c r="E216" s="3" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="B217" s="3">
         <v>3</v>
@@ -5946,32 +5952,32 @@
         <v>250</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="E217" s="3" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="B218" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C218" s="3">
         <v>250</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="E218" s="3" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="B219" s="3">
         <v>1</v>
@@ -5980,32 +5986,32 @@
         <v>250</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="E219" s="3" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="B220" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C220" s="3">
         <v>250</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="E220" s="3" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="B221" s="3">
         <v>2</v>
@@ -6014,168 +6020,168 @@
         <v>250</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="E221" s="3" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="B222" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C222" s="3">
         <v>250</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="E222" s="3" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="B223" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C223" s="3">
         <v>250</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>159</v>
+        <v>332</v>
       </c>
       <c r="E223" s="3" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="B224" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C224" s="3">
         <v>250</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>341</v>
+        <v>151</v>
       </c>
       <c r="E224" s="3" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="B225" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C225" s="3">
         <v>250</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>159</v>
+        <v>333</v>
       </c>
       <c r="E225" s="3" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="B226" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C226" s="3">
         <v>250</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>342</v>
+        <v>151</v>
       </c>
       <c r="E226" s="3" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="B227" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C227" s="3">
         <v>250</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="E227" s="3" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="B228" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C228" s="3">
         <v>250</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="E228" s="3" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="B229" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C229" s="3">
         <v>250</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="E229" s="3" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="B230" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C230" s="3">
         <v>250</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>159</v>
+        <v>337</v>
       </c>
       <c r="E230" s="3" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="B231" s="3">
         <v>0</v>
@@ -6184,66 +6190,66 @@
         <v>250</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="E231" s="3" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A232" s="7" t="s">
-        <v>466</v>
+      <c r="A232" s="1" t="s">
+        <v>146</v>
       </c>
       <c r="B232" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C232" s="3">
         <v>250</v>
       </c>
-      <c r="D232" s="8" t="s">
-        <v>474</v>
-      </c>
-      <c r="E232" s="6" t="s">
-        <v>473</v>
+      <c r="D232" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E232" s="3" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A233" s="1" t="s">
-        <v>467</v>
+      <c r="A233" s="7" t="s">
+        <v>456</v>
       </c>
       <c r="B233" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C233" s="3">
         <v>250</v>
       </c>
       <c r="D233" s="8" t="s">
-        <v>477</v>
+        <v>464</v>
       </c>
       <c r="E233" s="6" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
-        <v>468</v>
+        <v>457</v>
       </c>
       <c r="B234" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C234" s="3">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="D234" s="8" t="s">
-        <v>478</v>
+        <v>467</v>
       </c>
       <c r="E234" s="6" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
-        <v>469</v>
+        <v>458</v>
       </c>
       <c r="B235" s="3">
         <v>1</v>
@@ -6252,15 +6258,15 @@
         <v>220</v>
       </c>
       <c r="D235" s="8" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="E235" s="6" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
-        <v>470</v>
+        <v>459</v>
       </c>
       <c r="B236" s="3">
         <v>1</v>
@@ -6269,151 +6275,151 @@
         <v>220</v>
       </c>
       <c r="D236" s="8" t="s">
-        <v>476</v>
+        <v>465</v>
       </c>
       <c r="E236" s="6" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
-        <v>471</v>
+        <v>460</v>
       </c>
       <c r="B237" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C237" s="3">
         <v>220</v>
       </c>
       <c r="D237" s="8" t="s">
-        <v>479</v>
+        <v>466</v>
       </c>
       <c r="E237" s="6" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
-        <v>472</v>
+        <v>461</v>
       </c>
       <c r="B238" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C238" s="3">
-        <v>160</v>
+        <v>220</v>
       </c>
       <c r="D238" s="8" t="s">
-        <v>480</v>
+        <v>469</v>
       </c>
       <c r="E238" s="6" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="B239" s="5">
+        <v>462</v>
+      </c>
+      <c r="B239" s="3">
+        <v>1</v>
+      </c>
+      <c r="C239" s="3">
+        <v>160</v>
+      </c>
+      <c r="D239" s="8" t="s">
+        <v>470</v>
+      </c>
+      <c r="E239" s="6" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A240" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B240" s="5">
         <v>6</v>
-      </c>
-      <c r="C239" s="3">
-        <v>250</v>
-      </c>
-      <c r="D239" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="E239" s="6" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A240" t="s">
-        <v>198</v>
-      </c>
-      <c r="B240" s="5">
-        <v>1</v>
       </c>
       <c r="C240" s="3">
         <v>250</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>325</v>
+        <v>247</v>
       </c>
       <c r="E240" s="6" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="B241" s="5">
         <v>1</v>
       </c>
-      <c r="C241" s="6">
-        <v>220</v>
+      <c r="C241" s="3">
+        <v>250</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="E241" s="6" t="s">
-        <v>409</v>
+        <v>196</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>324</v>
+        <v>191</v>
       </c>
       <c r="B242" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C242" s="6">
         <v>220</v>
       </c>
       <c r="D242" s="2" t="s">
-        <v>159</v>
+        <v>318</v>
       </c>
       <c r="E242" s="6" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>200</v>
+        <v>316</v>
       </c>
       <c r="B243" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C243" s="6">
         <v>220</v>
       </c>
       <c r="D243" s="2" t="s">
-        <v>327</v>
+        <v>151</v>
       </c>
       <c r="E243" s="6" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="B244" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C244" s="6">
         <v>220</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>348</v>
+        <v>319</v>
       </c>
       <c r="E244" s="6" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="B245" s="5">
         <v>1</v>
@@ -6422,117 +6428,117 @@
         <v>220</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="E245" s="6" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="B246" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C246" s="6">
-        <v>350</v>
+        <v>220</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>256</v>
+        <v>341</v>
       </c>
       <c r="E246" s="6" t="s">
-        <v>204</v>
+        <v>401</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>351</v>
+        <v>195</v>
       </c>
       <c r="B247" s="5">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C247" s="6">
-        <v>250</v>
-      </c>
-      <c r="D247" s="4" t="s">
-        <v>355</v>
+        <v>350</v>
+      </c>
+      <c r="D247" s="2" t="s">
+        <v>248</v>
       </c>
       <c r="E247" s="6" t="s">
-        <v>354</v>
+        <v>196</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="B248" s="5">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C248" s="6">
         <v>250</v>
       </c>
       <c r="D248" s="4" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="E248" s="6" t="s">
-        <v>427</v>
+        <v>346</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="B249" s="5">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="C249" s="6">
         <v>250</v>
       </c>
       <c r="D249" s="4" t="s">
-        <v>428</v>
+        <v>348</v>
       </c>
       <c r="E249" s="6" t="s">
-        <v>354</v>
+        <v>419</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>369</v>
+        <v>345</v>
       </c>
       <c r="B250" s="5">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="C250" s="6">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="D250" s="4" t="s">
-        <v>362</v>
+        <v>420</v>
       </c>
       <c r="E250" s="6" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="B251" s="5">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C251" s="6">
         <v>150</v>
       </c>
       <c r="D251" s="4" t="s">
-        <v>365</v>
+        <v>354</v>
       </c>
       <c r="E251" s="6" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="B252" s="5">
         <v>2</v>
@@ -6541,66 +6547,66 @@
         <v>150</v>
       </c>
       <c r="D252" s="4" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="E252" s="6" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="B253" s="5">
         <v>2</v>
       </c>
       <c r="C253" s="6">
-        <v>550</v>
+        <v>150</v>
       </c>
       <c r="D253" s="4" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="E253" s="6" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>410</v>
+        <v>356</v>
       </c>
       <c r="B254" s="5">
         <v>2</v>
       </c>
       <c r="C254" s="6">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="D254" s="4" t="s">
-        <v>411</v>
+        <v>355</v>
       </c>
       <c r="E254" s="6" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>534</v>
+        <v>402</v>
       </c>
       <c r="B255" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C255" s="6">
-        <v>300</v>
+        <v>650</v>
       </c>
       <c r="D255" s="4" t="s">
-        <v>549</v>
+        <v>403</v>
       </c>
       <c r="E255" s="6" t="s">
-        <v>357</v>
+        <v>346</v>
       </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>535</v>
+        <v>524</v>
       </c>
       <c r="B256" s="5">
         <v>0</v>
@@ -6609,15 +6615,15 @@
         <v>300</v>
       </c>
       <c r="D256" s="4" t="s">
-        <v>550</v>
+        <v>539</v>
       </c>
       <c r="E256" s="6" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>536</v>
+        <v>525</v>
       </c>
       <c r="B257" s="5">
         <v>0</v>
@@ -6626,15 +6632,15 @@
         <v>300</v>
       </c>
       <c r="D257" s="4" t="s">
-        <v>551</v>
+        <v>540</v>
       </c>
       <c r="E257" s="6" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>537</v>
+        <v>526</v>
       </c>
       <c r="B258" s="5">
         <v>0</v>
@@ -6643,15 +6649,15 @@
         <v>300</v>
       </c>
       <c r="D258" s="4" t="s">
-        <v>552</v>
+        <v>541</v>
       </c>
       <c r="E258" s="6" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>538</v>
+        <v>527</v>
       </c>
       <c r="B259" s="5">
         <v>0</v>
@@ -6660,15 +6666,15 @@
         <v>300</v>
       </c>
       <c r="D259" s="4" t="s">
-        <v>553</v>
+        <v>542</v>
       </c>
       <c r="E259" s="6" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>539</v>
+        <v>528</v>
       </c>
       <c r="B260" s="5">
         <v>0</v>
@@ -6677,15 +6683,15 @@
         <v>300</v>
       </c>
       <c r="D260" s="4" t="s">
-        <v>554</v>
+        <v>543</v>
       </c>
       <c r="E260" s="6" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>540</v>
+        <v>529</v>
       </c>
       <c r="B261" s="5">
         <v>0</v>
@@ -6694,15 +6700,15 @@
         <v>300</v>
       </c>
       <c r="D261" s="4" t="s">
-        <v>555</v>
+        <v>544</v>
       </c>
       <c r="E261" s="6" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>541</v>
+        <v>530</v>
       </c>
       <c r="B262" s="5">
         <v>0</v>
@@ -6711,15 +6717,15 @@
         <v>300</v>
       </c>
       <c r="D262" s="4" t="s">
-        <v>556</v>
+        <v>545</v>
       </c>
       <c r="E262" s="6" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>542</v>
+        <v>531</v>
       </c>
       <c r="B263" s="5">
         <v>0</v>
@@ -6728,15 +6734,15 @@
         <v>300</v>
       </c>
       <c r="D263" s="4" t="s">
-        <v>557</v>
+        <v>546</v>
       </c>
       <c r="E263" s="6" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>543</v>
+        <v>532</v>
       </c>
       <c r="B264" s="5">
         <v>0</v>
@@ -6745,15 +6751,15 @@
         <v>300</v>
       </c>
       <c r="D264" s="4" t="s">
-        <v>558</v>
+        <v>547</v>
       </c>
       <c r="E264" s="6" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>544</v>
+        <v>533</v>
       </c>
       <c r="B265" s="5">
         <v>0</v>
@@ -6762,15 +6768,15 @@
         <v>300</v>
       </c>
       <c r="D265" s="4" t="s">
-        <v>559</v>
+        <v>548</v>
       </c>
       <c r="E265" s="6" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>548</v>
+        <v>534</v>
       </c>
       <c r="B266" s="5">
         <v>0</v>
@@ -6779,15 +6785,15 @@
         <v>300</v>
       </c>
       <c r="D266" s="4" t="s">
-        <v>560</v>
+        <v>549</v>
       </c>
       <c r="E266" s="6" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>547</v>
+        <v>538</v>
       </c>
       <c r="B267" s="5">
         <v>0</v>
@@ -6796,15 +6802,15 @@
         <v>300</v>
       </c>
       <c r="D267" s="4" t="s">
-        <v>561</v>
+        <v>550</v>
       </c>
       <c r="E267" s="6" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
       <c r="B268" s="5">
         <v>0</v>
@@ -6813,15 +6819,15 @@
         <v>300</v>
       </c>
       <c r="D268" s="4" t="s">
-        <v>562</v>
+        <v>551</v>
       </c>
       <c r="E268" s="6" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>546</v>
+        <v>535</v>
       </c>
       <c r="B269" s="5">
         <v>0</v>
@@ -6830,100 +6836,100 @@
         <v>300</v>
       </c>
       <c r="D269" s="4" t="s">
-        <v>563</v>
+        <v>552</v>
       </c>
       <c r="E269" s="6" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>360</v>
+        <v>536</v>
       </c>
       <c r="B270" s="5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C270" s="6">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="D270" s="4" t="s">
-        <v>358</v>
+        <v>553</v>
       </c>
       <c r="E270" s="6" t="s">
-        <v>204</v>
+        <v>349</v>
       </c>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="B271" s="5">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C271" s="6">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="D271" s="4" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="E271" s="6" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>372</v>
+        <v>353</v>
       </c>
       <c r="B272" s="5">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C272" s="6">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="D272" s="4" t="s">
-        <v>379</v>
+        <v>351</v>
       </c>
       <c r="E272" s="6" t="s">
-        <v>377</v>
+        <v>196</v>
       </c>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="B273" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C273" s="6">
         <v>150</v>
       </c>
       <c r="D273" s="4" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="E273" s="6" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="B274" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C274" s="6">
         <v>150</v>
       </c>
       <c r="D274" s="4" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="E274" s="6" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="B275" s="5">
         <v>1</v>
@@ -6932,49 +6938,49 @@
         <v>150</v>
       </c>
       <c r="D275" s="4" t="s">
-        <v>398</v>
+        <v>373</v>
       </c>
       <c r="E275" s="6" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="B276" s="5">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C276" s="6">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="D276" s="4" t="s">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="E276" s="6" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="B277" s="5">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C277" s="6">
-        <v>550</v>
+        <v>30</v>
       </c>
       <c r="D277" s="4" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="E277" s="6" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>384</v>
+        <v>370</v>
       </c>
       <c r="B278" s="5">
         <v>1</v>
@@ -6983,15 +6989,15 @@
         <v>550</v>
       </c>
       <c r="D278" s="4" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="E278" s="6" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="B279" s="5">
         <v>1</v>
@@ -7000,15 +7006,15 @@
         <v>550</v>
       </c>
       <c r="D279" s="4" t="s">
-        <v>392</v>
+        <v>377</v>
       </c>
       <c r="E279" s="6" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="B280" s="5">
         <v>1</v>
@@ -7017,15 +7023,15 @@
         <v>550</v>
       </c>
       <c r="D280" s="4" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="E280" s="6" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="B281" s="5">
         <v>1</v>
@@ -7034,15 +7040,15 @@
         <v>550</v>
       </c>
       <c r="D281" s="4" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="E281" s="6" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="B282" s="5">
         <v>1</v>
@@ -7051,15 +7057,15 @@
         <v>550</v>
       </c>
       <c r="D282" s="4" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="E282" s="6" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
       <c r="B283" s="5">
         <v>1</v>
@@ -7068,15 +7074,15 @@
         <v>550</v>
       </c>
       <c r="D283" s="4" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="E283" s="6" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="B284" s="5">
         <v>1</v>
@@ -7085,95 +7091,112 @@
         <v>550</v>
       </c>
       <c r="D284" s="4" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="E284" s="6" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>399</v>
+        <v>382</v>
       </c>
       <c r="B285" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C285" s="6">
-        <v>250</v>
+        <v>550</v>
       </c>
       <c r="D285" s="4" t="s">
-        <v>403</v>
+        <v>389</v>
       </c>
       <c r="E285" s="6" t="s">
-        <v>204</v>
+        <v>369</v>
       </c>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="B286" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C286" s="6">
         <v>250</v>
       </c>
       <c r="D286" s="4" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="E286" s="6" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="B287" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C287" s="6">
         <v>250</v>
       </c>
       <c r="D287" s="4" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="E287" s="6" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="B288" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C288" s="6">
         <v>250</v>
       </c>
       <c r="D288" s="4" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="E288" s="6" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>510</v>
+        <v>394</v>
       </c>
       <c r="B289" s="5">
+        <v>1</v>
+      </c>
+      <c r="C289" s="6">
+        <v>250</v>
+      </c>
+      <c r="D289" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="E289" s="6" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A290" t="s">
+        <v>500</v>
+      </c>
+      <c r="B290" s="5">
         <v>4</v>
       </c>
-      <c r="C289" s="6">
+      <c r="C290" s="6">
         <v>220</v>
       </c>
-      <c r="D289" s="4" t="s">
-        <v>509</v>
-      </c>
-      <c r="E289" s="6" t="s">
-        <v>204</v>
+      <c r="D290" s="4" t="s">
+        <v>499</v>
+      </c>
+      <c r="E290" s="6" t="s">
+        <v>196</v>
       </c>
     </row>
   </sheetData>

--- a/data/stock.xlsx
+++ b/data/stock.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\blocks\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEE44633-624E-4300-8401-0BCAE74C0D6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{684CC82D-92E0-42A0-86CF-ED951018CEFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3525" yWindow="2730" windowWidth="21600" windowHeight="11250" xr2:uid="{FC0CBB84-858B-49F6-BA69-44D83C89F7C4}"/>
   </bookViews>
@@ -2258,8 +2258,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCDC9875-9E8E-485C-910E-47B83A1F9902}">
   <dimension ref="A1:E290"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A262" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B178" sqref="B178"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B70" sqref="B70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3447,7 +3447,7 @@
         <v>35</v>
       </c>
       <c r="B70" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C70" s="3">
         <v>250</v>
@@ -3634,7 +3634,7 @@
         <v>42</v>
       </c>
       <c r="B81" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C81" s="3">
         <v>350</v>
@@ -3651,7 +3651,7 @@
         <v>43</v>
       </c>
       <c r="B82" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C82" s="3">
         <v>500</v>
@@ -3736,7 +3736,7 @@
         <v>447</v>
       </c>
       <c r="B87" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C87" s="3">
         <v>250</v>

--- a/data/stock.xlsx
+++ b/data/stock.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\blocks\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{684CC82D-92E0-42A0-86CF-ED951018CEFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E76346AA-EDF6-4587-8FB7-1F52C8E66C6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3525" yWindow="2730" windowWidth="21600" windowHeight="11250" xr2:uid="{FC0CBB84-858B-49F6-BA69-44D83C89F7C4}"/>
   </bookViews>
@@ -57,9 +57,6 @@
     <t>Marvel</t>
   </si>
   <si>
-    <t xml:space="preserve">Ironman shield </t>
-  </si>
-  <si>
     <t>Thanos</t>
   </si>
   <si>
@@ -435,9 +432,6 @@
     <t>Tengen</t>
   </si>
   <si>
-    <t>Tanjiro (blue)</t>
-  </si>
-  <si>
     <t>Sanemi</t>
   </si>
   <si>
@@ -468,9 +462,6 @@
     <t>Nezuko adult</t>
   </si>
   <si>
-    <t>Tanjiro (Green)</t>
-  </si>
-  <si>
     <t>Mitsuri</t>
   </si>
   <si>
@@ -861,9 +852,6 @@
     <t>Luffy G4 WM.jpg</t>
   </si>
   <si>
-    <t>Miles Morales</t>
-  </si>
-  <si>
     <t>Spider-Gwen</t>
   </si>
   <si>
@@ -945,9 +933,6 @@
     <t>Naruto Baryon</t>
   </si>
   <si>
-    <t>Sasuke (Adult)</t>
-  </si>
-  <si>
     <t>Boruto</t>
   </si>
   <si>
@@ -969,9 +954,6 @@
     <t>Shang Chi</t>
   </si>
   <si>
-    <t>Moonknight Black Comic</t>
-  </si>
-  <si>
     <t>War Machine New</t>
   </si>
   <si>
@@ -1323,12 +1305,6 @@
     <t>Kraven The Hunter</t>
   </si>
   <si>
-    <t>Spiderman (Symbiote Suit)</t>
-  </si>
-  <si>
-    <t>Spiderman (Anti-venom Suit)</t>
-  </si>
-  <si>
     <t>deadpool gold gun v2.jpg</t>
   </si>
   <si>
@@ -1467,36 +1443,15 @@
     <t>ace full fire.jpg</t>
   </si>
   <si>
-    <t>Might Guy(8th gate)</t>
-  </si>
-  <si>
     <t>Tobirama</t>
   </si>
   <si>
     <t>Naruto Kurama mode</t>
   </si>
   <si>
-    <t>Rin (Kid)</t>
-  </si>
-  <si>
-    <t>Obito (kid)</t>
-  </si>
-  <si>
-    <t>Kakashi (Kid)</t>
-  </si>
-  <si>
-    <t>Kakashi (Jonin)</t>
-  </si>
-  <si>
-    <t>Itachi (Anbu)</t>
-  </si>
-  <si>
     <t>Madara six path v2</t>
   </si>
   <si>
-    <t>Kakashi (Anbu)</t>
-  </si>
-  <si>
     <t>guy.jpg</t>
   </si>
   <si>
@@ -1557,21 +1512,6 @@
     <t>Yuta</t>
   </si>
   <si>
-    <t>Ryomen Sukuna (True Form)</t>
-  </si>
-  <si>
-    <t>Ryomen Sukuna (Megumi Form)</t>
-  </si>
-  <si>
-    <t>Satoru Gojo (Final Arc)</t>
-  </si>
-  <si>
-    <t>Satoru Gojo (Strongest Form)</t>
-  </si>
-  <si>
-    <t>Ryomen Sukuna (Itadori Form)</t>
-  </si>
-  <si>
     <t>Itadori Yuji</t>
   </si>
   <si>
@@ -1698,9 +1638,6 @@
     <t>zamasu.jpg</t>
   </si>
   <si>
-    <t>Batmobile white (Joker ver.)</t>
-  </si>
-  <si>
     <t>Batman Diorama Set</t>
   </si>
   <si>
@@ -1735,6 +1672,69 @@
   </si>
   <si>
     <t>Loki (God of Stories)</t>
+  </si>
+  <si>
+    <t>Ironman [Shield]</t>
+  </si>
+  <si>
+    <t>Miles Morales [Spiderman]</t>
+  </si>
+  <si>
+    <t>Moonknight Black [Comic]</t>
+  </si>
+  <si>
+    <t>Kakashi [Jonin]</t>
+  </si>
+  <si>
+    <t>Itachi [Anbu]</t>
+  </si>
+  <si>
+    <t>Kakashi [Anbu]</t>
+  </si>
+  <si>
+    <t>Might Guy [8th gate]</t>
+  </si>
+  <si>
+    <t>Kakashi [Kid]</t>
+  </si>
+  <si>
+    <t>Obito [kid]</t>
+  </si>
+  <si>
+    <t>Rin [Kid]</t>
+  </si>
+  <si>
+    <t>Ryomen Sukuna [True Form]</t>
+  </si>
+  <si>
+    <t>Ryomen Sukuna [Megumi Form]</t>
+  </si>
+  <si>
+    <t>Satoru Gojo [Final Arc]</t>
+  </si>
+  <si>
+    <t>Satoru Gojo [Strongest Form]</t>
+  </si>
+  <si>
+    <t>Ryomen Sukuna [Itadori Form]</t>
+  </si>
+  <si>
+    <t>Tanjiro [Blue Kimono]</t>
+  </si>
+  <si>
+    <t>Tanjiro [Green Kimono]</t>
+  </si>
+  <si>
+    <t>Sasuke [Adult]</t>
+  </si>
+  <si>
+    <t>Batmobile white [Joker ver.]</t>
+  </si>
+  <si>
+    <t>Spiderman [Anti-venom Suit]</t>
+  </si>
+  <si>
+    <t>Spiderman [Symbiote Suit]</t>
   </si>
 </sst>
 </file>
@@ -2258,8 +2258,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCDC9875-9E8E-485C-910E-47B83A1F9902}">
   <dimension ref="A1:E290"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B70" sqref="B70"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A64" sqref="A64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2297,7 +2297,7 @@
         <v>220</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>6</v>
@@ -2305,7 +2305,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>546</v>
       </c>
       <c r="B3" s="3">
         <v>8</v>
@@ -2314,7 +2314,7 @@
         <v>220</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>6</v>
@@ -2322,7 +2322,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>557</v>
+        <v>536</v>
       </c>
       <c r="B4" s="3">
         <v>4</v>
@@ -2331,7 +2331,7 @@
         <v>350</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>6</v>
@@ -2339,16 +2339,16 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5" s="3">
         <v>180</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>6</v>
@@ -2356,7 +2356,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" s="3">
         <v>0</v>
@@ -2365,7 +2365,7 @@
         <v>180</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>6</v>
@@ -2373,7 +2373,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>558</v>
+        <v>537</v>
       </c>
       <c r="B7" s="3">
         <v>2</v>
@@ -2382,7 +2382,7 @@
         <v>200</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>6</v>
@@ -2390,7 +2390,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8" s="3">
         <v>0</v>
@@ -2399,7 +2399,7 @@
         <v>180</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>6</v>
@@ -2407,7 +2407,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9" s="3">
         <v>0</v>
@@ -2416,7 +2416,7 @@
         <v>200</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>6</v>
@@ -2424,7 +2424,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>275</v>
+        <v>547</v>
       </c>
       <c r="B10" s="3">
         <v>2</v>
@@ -2433,7 +2433,7 @@
         <v>250</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>6</v>
@@ -2441,7 +2441,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="B11" s="3">
         <v>2</v>
@@ -2450,7 +2450,7 @@
         <v>250</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>6</v>
@@ -2458,7 +2458,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="B12" s="3">
         <v>3</v>
@@ -2467,7 +2467,7 @@
         <v>250</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>6</v>
@@ -2475,7 +2475,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="B13" s="3">
         <v>2</v>
@@ -2484,7 +2484,7 @@
         <v>250</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>6</v>
@@ -2492,7 +2492,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="B14" s="3">
         <v>2</v>
@@ -2501,7 +2501,7 @@
         <v>250</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>6</v>
@@ -2509,7 +2509,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="B15" s="3">
         <v>1</v>
@@ -2518,7 +2518,7 @@
         <v>250</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>6</v>
@@ -2526,7 +2526,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="B16" s="3">
         <v>1</v>
@@ -2535,7 +2535,7 @@
         <v>250</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>6</v>
@@ -2543,7 +2543,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="B17" s="3">
         <v>1</v>
@@ -2552,7 +2552,7 @@
         <v>250</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>6</v>
@@ -2560,7 +2560,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="B18" s="3">
         <v>2</v>
@@ -2569,7 +2569,7 @@
         <v>250</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>6</v>
@@ -2577,7 +2577,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B19" s="3">
         <v>2</v>
@@ -2586,7 +2586,7 @@
         <v>220</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>6</v>
@@ -2594,7 +2594,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B20" s="3">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>220</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>6</v>
@@ -2611,7 +2611,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B21" s="3">
         <v>2</v>
@@ -2620,7 +2620,7 @@
         <v>220</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>6</v>
@@ -2628,7 +2628,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B22" s="3">
         <v>1</v>
@@ -2637,7 +2637,7 @@
         <v>220</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>6</v>
@@ -2645,7 +2645,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B23" s="3">
         <v>1</v>
@@ -2654,7 +2654,7 @@
         <v>220</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>6</v>
@@ -2662,7 +2662,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B24" s="3">
         <v>2</v>
@@ -2671,7 +2671,7 @@
         <v>220</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>6</v>
@@ -2679,7 +2679,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B25" s="3">
         <v>1</v>
@@ -2688,7 +2688,7 @@
         <v>220</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>6</v>
@@ -2696,7 +2696,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B26" s="3">
         <v>0</v>
@@ -2705,7 +2705,7 @@
         <v>220</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>6</v>
@@ -2713,7 +2713,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B27" s="3">
         <v>1</v>
@@ -2722,7 +2722,7 @@
         <v>200</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>6</v>
@@ -2730,7 +2730,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B28" s="3">
         <v>1</v>
@@ -2739,7 +2739,7 @@
         <v>220</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>6</v>
@@ -2747,7 +2747,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B29" s="3">
         <v>4</v>
@@ -2756,7 +2756,7 @@
         <v>180</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>6</v>
@@ -2764,7 +2764,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B30" s="3">
         <v>2</v>
@@ -2773,7 +2773,7 @@
         <v>180</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>6</v>
@@ -2781,7 +2781,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B31" s="3">
         <v>0</v>
@@ -2790,7 +2790,7 @@
         <v>180</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>6</v>
@@ -2798,7 +2798,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>559</v>
+        <v>538</v>
       </c>
       <c r="B32" s="3">
         <v>0</v>
@@ -2807,7 +2807,7 @@
         <v>180</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>6</v>
@@ -2815,7 +2815,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>560</v>
+        <v>539</v>
       </c>
       <c r="B33" s="3">
         <v>0</v>
@@ -2824,7 +2824,7 @@
         <v>180</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>6</v>
@@ -2832,7 +2832,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>561</v>
+        <v>540</v>
       </c>
       <c r="B34" s="3">
         <v>2</v>
@@ -2841,7 +2841,7 @@
         <v>180</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>6</v>
@@ -2849,16 +2849,16 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B35" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C35" s="3">
         <v>180</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>6</v>
@@ -2866,16 +2866,16 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>562</v>
+        <v>541</v>
       </c>
       <c r="B36" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C36" s="3">
         <v>270</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>6</v>
@@ -2883,16 +2883,16 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>563</v>
+        <v>542</v>
       </c>
       <c r="B37" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C37" s="3">
         <v>270</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>6</v>
@@ -2900,7 +2900,7 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>564</v>
+        <v>543</v>
       </c>
       <c r="B38" s="3">
         <v>2</v>
@@ -2909,7 +2909,7 @@
         <v>270</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>6</v>
@@ -2917,16 +2917,16 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B39" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C39" s="3">
         <v>450</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>6</v>
@@ -2934,7 +2934,7 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B40" s="3">
         <v>3</v>
@@ -2943,7 +2943,7 @@
         <v>380</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>6</v>
@@ -2951,7 +2951,7 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B41" s="3">
         <v>5</v>
@@ -2960,7 +2960,7 @@
         <v>800</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>6</v>
@@ -2968,16 +2968,16 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B42" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C42" s="3">
         <v>270</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>6</v>
@@ -2985,7 +2985,7 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B43" s="3">
         <v>0</v>
@@ -2994,7 +2994,7 @@
         <v>270</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>6</v>
@@ -3002,7 +3002,7 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B44" s="3">
         <v>2</v>
@@ -3011,7 +3011,7 @@
         <v>270</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>6</v>
@@ -3019,7 +3019,7 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>565</v>
+        <v>544</v>
       </c>
       <c r="B45" s="3">
         <v>1</v>
@@ -3028,7 +3028,7 @@
         <v>250</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>6</v>
@@ -3036,7 +3036,7 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B46" s="3">
         <v>0</v>
@@ -3045,7 +3045,7 @@
         <v>850</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E46" s="3" t="s">
         <v>6</v>
@@ -3053,7 +3053,7 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="B47" s="3">
         <v>2</v>
@@ -3062,7 +3062,7 @@
         <v>250</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>6</v>
@@ -3070,7 +3070,7 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="B48" s="3">
         <v>2</v>
@@ -3079,7 +3079,7 @@
         <v>250</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>6</v>
@@ -3087,7 +3087,7 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B49" s="3">
         <v>2</v>
@@ -3096,7 +3096,7 @@
         <v>250</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>6</v>
@@ -3104,16 +3104,16 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B50" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C50" s="3">
         <v>250</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>6</v>
@@ -3121,7 +3121,7 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="B51" s="3">
         <v>1</v>
@@ -3130,7 +3130,7 @@
         <v>250</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E51" s="3" t="s">
         <v>6</v>
@@ -3138,7 +3138,7 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="B52" s="3">
         <v>1</v>
@@ -3147,7 +3147,7 @@
         <v>250</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>6</v>
@@ -3155,7 +3155,7 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>311</v>
+        <v>548</v>
       </c>
       <c r="B53" s="3">
         <v>1</v>
@@ -3164,7 +3164,7 @@
         <v>250</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E53" s="3" t="s">
         <v>6</v>
@@ -3172,7 +3172,7 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="B54" s="3">
         <v>2</v>
@@ -3181,7 +3181,7 @@
         <v>360</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>6</v>
@@ -3189,7 +3189,7 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="B55" s="3">
         <v>1</v>
@@ -3198,7 +3198,7 @@
         <v>360</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="E55" s="3" t="s">
         <v>6</v>
@@ -3206,7 +3206,7 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B56" s="3">
         <v>2</v>
@@ -3215,7 +3215,7 @@
         <v>200</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="E56" s="3" t="s">
         <v>6</v>
@@ -3223,7 +3223,7 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
-        <v>566</v>
+        <v>545</v>
       </c>
       <c r="B57" s="3">
         <v>4</v>
@@ -3232,7 +3232,7 @@
         <v>260</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>6</v>
@@ -3240,7 +3240,7 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="B58" s="3">
         <v>2</v>
@@ -3249,7 +3249,7 @@
         <v>260</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>6</v>
@@ -3257,7 +3257,7 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="B59" s="3">
         <v>2</v>
@@ -3266,7 +3266,7 @@
         <v>260</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="E59" s="3" t="s">
         <v>6</v>
@@ -3274,7 +3274,7 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="B60" s="3">
         <v>4</v>
@@ -3283,7 +3283,7 @@
         <v>260</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="E60" s="3" t="s">
         <v>6</v>
@@ -3291,7 +3291,7 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="7" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="B61" s="3">
         <v>1</v>
@@ -3300,7 +3300,7 @@
         <v>220</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="E61" s="3" t="s">
         <v>6</v>
@@ -3308,7 +3308,7 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="7" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="B62" s="3">
         <v>0</v>
@@ -3317,7 +3317,7 @@
         <v>250</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E62" s="3" t="s">
         <v>6</v>
@@ -3325,7 +3325,7 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="B63" s="3">
         <v>5</v>
@@ -3334,7 +3334,7 @@
         <v>250</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="E63" s="3" t="s">
         <v>6</v>
@@ -3342,7 +3342,7 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="7" t="s">
-        <v>429</v>
+        <v>566</v>
       </c>
       <c r="B64" s="3">
         <v>1</v>
@@ -3351,7 +3351,7 @@
         <v>250</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="E64" s="3" t="s">
         <v>6</v>
@@ -3359,7 +3359,7 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="B65" s="3">
         <v>2</v>
@@ -3368,7 +3368,7 @@
         <v>250</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="E65" s="3" t="s">
         <v>6</v>
@@ -3376,7 +3376,7 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="7" t="s">
-        <v>430</v>
+        <v>565</v>
       </c>
       <c r="B66" s="3">
         <v>2</v>
@@ -3385,7 +3385,7 @@
         <v>250</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="E66" s="3" t="s">
         <v>6</v>
@@ -3393,7 +3393,7 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="B67" s="3">
         <v>3</v>
@@ -3402,7 +3402,7 @@
         <v>220</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="E67" s="3" t="s">
         <v>6</v>
@@ -3410,24 +3410,24 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B68" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C68" s="3">
         <v>180</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="B69" s="3">
         <v>1</v>
@@ -3436,32 +3436,32 @@
         <v>250</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B70" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C70" s="3">
         <v>250</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="B71" s="3">
         <v>1</v>
@@ -3470,15 +3470,15 @@
         <v>250</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B72" s="3">
         <v>0</v>
@@ -3487,15 +3487,15 @@
         <v>180</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="B73" s="3">
         <v>1</v>
@@ -3504,15 +3504,15 @@
         <v>250</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="B74" s="3">
         <v>1</v>
@@ -3521,15 +3521,15 @@
         <v>250</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="B75" s="3">
         <v>1</v>
@@ -3538,15 +3538,15 @@
         <v>180</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="B76" s="3">
         <v>1</v>
@@ -3555,15 +3555,15 @@
         <v>180</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B77" s="3">
         <v>3</v>
@@ -3572,15 +3572,15 @@
         <v>300</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B78" s="3">
         <v>0</v>
@@ -3589,15 +3589,15 @@
         <v>300</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>555</v>
+        <v>534</v>
       </c>
       <c r="B79" s="3">
         <v>1</v>
@@ -3606,15 +3606,15 @@
         <v>1000</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>556</v>
+        <v>535</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B80" s="3">
         <v>0</v>
@@ -3623,15 +3623,15 @@
         <v>350</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B81" s="3">
         <v>2</v>
@@ -3640,15 +3640,15 @@
         <v>350</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B82" s="3">
         <v>3</v>
@@ -3657,49 +3657,49 @@
         <v>500</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="7" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="B83" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C83" s="3">
         <v>220</v>
       </c>
       <c r="D83" s="8" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="7" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="B84" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C84" s="3">
         <v>220</v>
       </c>
       <c r="D84" s="8" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="7" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="B85" s="6">
         <v>1</v>
@@ -3708,15 +3708,15 @@
         <v>200</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="7" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="B86" s="3">
         <v>2</v>
@@ -3725,15 +3725,15 @@
         <v>220</v>
       </c>
       <c r="D86" s="8" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="7" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="B87" s="3">
         <v>0</v>
@@ -3742,15 +3742,15 @@
         <v>250</v>
       </c>
       <c r="D87" s="8" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="7" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="B88" s="3">
         <v>0</v>
@@ -3759,15 +3759,15 @@
         <v>250</v>
       </c>
       <c r="D88" s="8" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="B89" s="3">
         <v>3</v>
@@ -3776,15 +3776,15 @@
         <v>220</v>
       </c>
       <c r="D89" s="8" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B90" s="3">
         <v>3</v>
@@ -3793,15 +3793,15 @@
         <v>350</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B91" s="3">
         <v>0</v>
@@ -3810,15 +3810,15 @@
         <v>350</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B92" s="3">
         <v>1</v>
@@ -3827,32 +3827,32 @@
         <v>350</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B93" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C93" s="3">
         <v>500</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>554</v>
+        <v>564</v>
       </c>
       <c r="B94" s="3">
         <v>3</v>
@@ -3861,15 +3861,15 @@
         <v>500</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B95" s="3">
         <v>3</v>
@@ -3878,15 +3878,15 @@
         <v>300</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B96" s="3">
         <v>2</v>
@@ -3895,15 +3895,15 @@
         <v>300</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B97" s="3">
         <v>0</v>
@@ -3912,15 +3912,15 @@
         <v>300</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B98" s="3">
         <v>0</v>
@@ -3929,15 +3929,15 @@
         <v>300</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B99" s="3">
         <v>1</v>
@@ -3946,15 +3946,15 @@
         <v>300</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B100" s="3">
         <v>0</v>
@@ -3963,15 +3963,15 @@
         <v>270</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B101" s="3">
         <v>0</v>
@@ -3980,15 +3980,15 @@
         <v>270</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B102" s="3">
         <v>1</v>
@@ -3997,15 +3997,15 @@
         <v>300</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B103" s="3">
         <v>0</v>
@@ -4014,15 +4014,15 @@
         <v>300</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B104" s="3">
         <v>1</v>
@@ -4031,15 +4031,15 @@
         <v>300</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="B105" s="3">
         <v>1</v>
@@ -4048,15 +4048,15 @@
         <v>300</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B106" s="3">
         <v>0</v>
@@ -4065,15 +4065,15 @@
         <v>300</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B107" s="3">
         <v>0</v>
@@ -4082,15 +4082,15 @@
         <v>300</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B108" s="3">
         <v>2</v>
@@ -4099,15 +4099,15 @@
         <v>350</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B109" s="3">
         <v>0</v>
@@ -4116,15 +4116,15 @@
         <v>300</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E109" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B110" s="3">
         <v>0</v>
@@ -4133,15 +4133,15 @@
         <v>300</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E110" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B111" s="3">
         <v>0</v>
@@ -4150,15 +4150,15 @@
         <v>300</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B112" s="3">
         <v>0</v>
@@ -4167,15 +4167,15 @@
         <v>300</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B113" s="3">
         <v>0</v>
@@ -4184,15 +4184,15 @@
         <v>300</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E113" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B114" s="3">
         <v>0</v>
@@ -4201,15 +4201,15 @@
         <v>300</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B115" s="3">
         <v>1</v>
@@ -4218,15 +4218,15 @@
         <v>300</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="B116" s="3">
         <v>1</v>
@@ -4235,15 +4235,15 @@
         <v>300</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B117" s="3">
         <v>2</v>
@@ -4252,15 +4252,15 @@
         <v>350</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E117" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B118" s="3">
         <v>1</v>
@@ -4269,15 +4269,15 @@
         <v>350</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E118" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B119" s="3">
         <v>2</v>
@@ -4286,15 +4286,15 @@
         <v>350</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E119" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B120" s="3">
         <v>1</v>
@@ -4303,15 +4303,15 @@
         <v>350</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E120" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B121" s="3">
         <v>2</v>
@@ -4320,15 +4320,15 @@
         <v>320</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E121" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B122" s="3">
         <v>1</v>
@@ -4337,15 +4337,15 @@
         <v>320</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E122" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B123" s="3">
         <v>1</v>
@@ -4354,15 +4354,15 @@
         <v>320</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="E123" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B124" s="3">
         <v>1</v>
@@ -4371,15 +4371,15 @@
         <v>320</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E124" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B125" s="3">
         <v>1</v>
@@ -4388,15 +4388,15 @@
         <v>320</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="E125" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B126" s="3">
         <v>1</v>
@@ -4405,15 +4405,15 @@
         <v>320</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="E126" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B127" s="3">
         <v>2</v>
@@ -4422,15 +4422,15 @@
         <v>320</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E127" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B128" s="3">
         <v>0</v>
@@ -4439,15 +4439,15 @@
         <v>320</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="E128" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B129" s="3">
         <v>1</v>
@@ -4456,15 +4456,15 @@
         <v>320</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E129" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B130" s="3">
         <v>1</v>
@@ -4473,15 +4473,15 @@
         <v>320</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E130" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B131" s="3">
         <v>2</v>
@@ -4490,15 +4490,15 @@
         <v>320</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E131" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B132" s="3">
         <v>2</v>
@@ -4507,15 +4507,15 @@
         <v>320</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="E132" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B133" s="3">
         <v>1</v>
@@ -4524,15 +4524,15 @@
         <v>320</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E133" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B134" s="3">
         <v>2</v>
@@ -4541,15 +4541,15 @@
         <v>320</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E134" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B135" s="3">
         <v>0</v>
@@ -4558,15 +4558,15 @@
         <v>320</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E135" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="B136" s="3">
         <v>1</v>
@@ -4575,15 +4575,15 @@
         <v>320</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="E136" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B137" s="3">
         <v>2</v>
@@ -4592,15 +4592,15 @@
         <v>300</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="E137" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B138" s="3">
         <v>1</v>
@@ -4609,15 +4609,15 @@
         <v>300</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E138" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B139" s="3">
         <v>1</v>
@@ -4626,15 +4626,15 @@
         <v>300</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="E139" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B140" s="3">
         <v>1</v>
@@ -4643,15 +4643,15 @@
         <v>300</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="E140" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B141" s="3">
         <v>1</v>
@@ -4660,15 +4660,15 @@
         <v>300</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E141" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B142" s="3">
         <v>1</v>
@@ -4677,15 +4677,15 @@
         <v>300</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E142" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B143" s="3">
         <v>1</v>
@@ -4694,15 +4694,15 @@
         <v>300</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E143" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B144" s="3">
         <v>1</v>
@@ -4711,15 +4711,15 @@
         <v>300</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="E144" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B145" s="3">
         <v>2</v>
@@ -4728,15 +4728,15 @@
         <v>300</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="E145" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B146" s="3">
         <v>1</v>
@@ -4745,15 +4745,15 @@
         <v>300</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="E146" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B147" s="3">
         <v>1</v>
@@ -4762,32 +4762,32 @@
         <v>300</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="E147" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B148" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C148" s="3">
         <v>400</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="E148" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B149" s="3">
         <v>1</v>
@@ -4796,15 +4796,15 @@
         <v>400</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="E149" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="B150" s="3">
         <v>3</v>
@@ -4813,15 +4813,15 @@
         <v>300</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="E150" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B151" s="3">
         <v>2</v>
@@ -4830,15 +4830,15 @@
         <v>300</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="E151" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B152" s="3">
         <v>1</v>
@@ -4847,15 +4847,15 @@
         <v>300</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E152" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B153" s="3">
         <v>1</v>
@@ -4864,15 +4864,15 @@
         <v>300</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="E153" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B154" s="3">
         <v>1</v>
@@ -4881,15 +4881,15 @@
         <v>300</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="E154" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B155" s="3">
         <v>2</v>
@@ -4898,15 +4898,15 @@
         <v>300</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="E155" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B156" s="3">
         <v>1</v>
@@ -4915,15 +4915,15 @@
         <v>300</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="E156" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B157" s="3">
         <v>0</v>
@@ -4932,15 +4932,15 @@
         <v>500</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="E157" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="B158" s="3">
         <v>1</v>
@@ -4949,15 +4949,15 @@
         <v>280</v>
       </c>
       <c r="D158" s="8" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="E158" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="B159" s="3">
         <v>1</v>
@@ -4966,15 +4966,15 @@
         <v>280</v>
       </c>
       <c r="D159" s="8" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="E159" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" s="7" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="B160" s="3">
         <v>1</v>
@@ -4983,15 +4983,15 @@
         <v>280</v>
       </c>
       <c r="D160" s="8" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="E160" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B161" s="3">
         <v>1</v>
@@ -5000,15 +5000,15 @@
         <v>300</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="E161" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B162" s="3">
         <v>1</v>
@@ -5017,15 +5017,15 @@
         <v>300</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="E162" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B163" s="3">
         <v>1</v>
@@ -5034,15 +5034,15 @@
         <v>250</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="E163" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="B164" s="3">
         <v>1</v>
@@ -5051,15 +5051,15 @@
         <v>280</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="E164" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
-        <v>303</v>
+        <v>563</v>
       </c>
       <c r="B165" s="3">
         <v>1</v>
@@ -5068,15 +5068,15 @@
         <v>280</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="E165" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="B166" s="3">
         <v>2</v>
@@ -5085,15 +5085,15 @@
         <v>260</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="E166" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="B167" s="3">
         <v>1</v>
@@ -5102,15 +5102,15 @@
         <v>260</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="E167" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B168" s="3">
         <v>0</v>
@@ -5119,15 +5119,15 @@
         <v>500</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E168" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="B169" s="3">
         <v>1</v>
@@ -5136,15 +5136,15 @@
         <v>280</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="E169" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B170" s="3">
         <v>0</v>
@@ -5153,15 +5153,15 @@
         <v>220</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="E170" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B171" s="3">
         <v>3</v>
@@ -5170,15 +5170,15 @@
         <v>220</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="E171" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B172" s="3">
         <v>1</v>
@@ -5187,15 +5187,15 @@
         <v>220</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="E172" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B173" s="3">
         <v>1</v>
@@ -5204,15 +5204,15 @@
         <v>220</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="E173" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B174" s="3">
         <v>2</v>
@@ -5221,15 +5221,15 @@
         <v>220</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="E174" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B175" s="3">
         <v>1</v>
@@ -5238,15 +5238,15 @@
         <v>250</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="E175" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B176" s="3">
         <v>2</v>
@@ -5255,15 +5255,15 @@
         <v>220</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="E176" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B177" s="3">
         <v>3</v>
@@ -5272,15 +5272,15 @@
         <v>250</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="E177" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B178" s="3">
         <v>0</v>
@@ -5289,15 +5289,15 @@
         <v>220</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="E178" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B179" s="3">
         <v>3</v>
@@ -5306,15 +5306,15 @@
         <v>220</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="E179" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B180" s="3">
         <v>2</v>
@@ -5323,15 +5323,15 @@
         <v>250</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E180" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B181" s="3">
         <v>3</v>
@@ -5340,15 +5340,15 @@
         <v>220</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="E181" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B182" s="3">
         <v>1</v>
@@ -5357,15 +5357,15 @@
         <v>220</v>
       </c>
       <c r="D182" s="8" t="s">
-        <v>497</v>
+        <v>482</v>
       </c>
       <c r="E182" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B183" s="3">
         <v>2</v>
@@ -5374,15 +5374,15 @@
         <v>350</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="E183" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B184" s="3">
         <v>1</v>
@@ -5391,32 +5391,32 @@
         <v>350</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="E184" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B185" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C185" s="3">
         <v>350</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="E185" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B186" s="3">
         <v>1</v>
@@ -5425,15 +5425,15 @@
         <v>350</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="E186" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B187" s="3">
         <v>1</v>
@@ -5442,15 +5442,15 @@
         <v>350</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="E187" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B188" s="3">
         <v>2</v>
@@ -5459,15 +5459,15 @@
         <v>350</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="E188" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B189" s="3">
         <v>1</v>
@@ -5476,15 +5476,15 @@
         <v>220</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="E189" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" s="7" t="s">
-        <v>480</v>
+        <v>555</v>
       </c>
       <c r="B190" s="3">
         <v>1</v>
@@ -5493,15 +5493,15 @@
         <v>220</v>
       </c>
       <c r="D190" s="8" t="s">
-        <v>498</v>
+        <v>483</v>
       </c>
       <c r="E190" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" s="7" t="s">
-        <v>481</v>
+        <v>554</v>
       </c>
       <c r="B191" s="3">
         <v>1</v>
@@ -5510,15 +5510,15 @@
         <v>220</v>
       </c>
       <c r="D191" s="8" t="s">
-        <v>496</v>
+        <v>481</v>
       </c>
       <c r="E191" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" s="7" t="s">
-        <v>482</v>
+        <v>553</v>
       </c>
       <c r="B192" s="3">
         <v>1</v>
@@ -5527,15 +5527,15 @@
         <v>220</v>
       </c>
       <c r="D192" s="8" t="s">
-        <v>492</v>
+        <v>477</v>
       </c>
       <c r="E192" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
-        <v>477</v>
+        <v>552</v>
       </c>
       <c r="B193" s="3">
         <v>1</v>
@@ -5544,15 +5544,15 @@
         <v>250</v>
       </c>
       <c r="D193" s="8" t="s">
-        <v>487</v>
+        <v>472</v>
       </c>
       <c r="E193" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" s="7" t="s">
-        <v>486</v>
+        <v>551</v>
       </c>
       <c r="B194" s="3">
         <v>2</v>
@@ -5561,15 +5561,15 @@
         <v>250</v>
       </c>
       <c r="D194" s="8" t="s">
-        <v>491</v>
+        <v>476</v>
       </c>
       <c r="E194" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B195" s="3">
         <v>1</v>
@@ -5578,15 +5578,15 @@
         <v>220</v>
       </c>
       <c r="D195" s="8" t="s">
-        <v>494</v>
+        <v>479</v>
       </c>
       <c r="E195" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
-        <v>478</v>
+        <v>469</v>
       </c>
       <c r="B196" s="3">
         <v>1</v>
@@ -5595,15 +5595,15 @@
         <v>220</v>
       </c>
       <c r="D196" s="8" t="s">
-        <v>488</v>
+        <v>473</v>
       </c>
       <c r="E196" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" s="7" t="s">
-        <v>484</v>
+        <v>550</v>
       </c>
       <c r="B197" s="3">
         <v>1</v>
@@ -5612,15 +5612,15 @@
         <v>250</v>
       </c>
       <c r="D197" s="8" t="s">
-        <v>489</v>
+        <v>474</v>
       </c>
       <c r="E197" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
-        <v>479</v>
+        <v>470</v>
       </c>
       <c r="B198" s="3">
         <v>1</v>
@@ -5629,32 +5629,32 @@
         <v>250</v>
       </c>
       <c r="D198" s="8" t="s">
-        <v>495</v>
+        <v>480</v>
       </c>
       <c r="E198" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" s="7" t="s">
-        <v>483</v>
+        <v>549</v>
       </c>
       <c r="B199" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C199" s="3">
         <v>250</v>
       </c>
       <c r="D199" s="8" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
       <c r="E199" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" s="7" t="s">
-        <v>485</v>
+        <v>471</v>
       </c>
       <c r="B200" s="3">
         <v>1</v>
@@ -5663,15 +5663,15 @@
         <v>250</v>
       </c>
       <c r="D200" s="8" t="s">
-        <v>493</v>
+        <v>478</v>
       </c>
       <c r="E200" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B201" s="3">
         <v>1</v>
@@ -5680,15 +5680,15 @@
         <v>250</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="E201" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B202" s="3">
         <v>0</v>
@@ -5697,15 +5697,15 @@
         <v>460</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E202" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B203" s="3">
         <v>0</v>
@@ -5714,15 +5714,15 @@
         <v>250</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="E203" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
-        <v>512</v>
+        <v>492</v>
       </c>
       <c r="B204" s="3">
         <v>4</v>
@@ -5731,15 +5731,15 @@
         <v>250</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="E204" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B205" s="3">
         <v>0</v>
@@ -5748,15 +5748,15 @@
         <v>240</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E205" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
-        <v>501</v>
+        <v>486</v>
       </c>
       <c r="B206" s="3">
         <v>0</v>
@@ -5765,15 +5765,15 @@
         <v>400</v>
       </c>
       <c r="D206" s="8" t="s">
-        <v>513</v>
+        <v>493</v>
       </c>
       <c r="E206" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
-        <v>507</v>
+        <v>556</v>
       </c>
       <c r="B207" s="3">
         <v>0</v>
@@ -5782,15 +5782,15 @@
         <v>400</v>
       </c>
       <c r="D207" s="8" t="s">
-        <v>514</v>
+        <v>494</v>
       </c>
       <c r="E207" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
-        <v>508</v>
+        <v>557</v>
       </c>
       <c r="B208" s="3">
         <v>0</v>
@@ -5799,15 +5799,15 @@
         <v>350</v>
       </c>
       <c r="D208" s="8" t="s">
-        <v>515</v>
+        <v>495</v>
       </c>
       <c r="E208" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
-        <v>509</v>
+        <v>558</v>
       </c>
       <c r="B209" s="3">
         <v>0</v>
@@ -5816,15 +5816,15 @@
         <v>400</v>
       </c>
       <c r="D209" s="8" t="s">
-        <v>516</v>
+        <v>496</v>
       </c>
       <c r="E209" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
-        <v>510</v>
+        <v>559</v>
       </c>
       <c r="B210" s="3">
         <v>0</v>
@@ -5833,15 +5833,15 @@
         <v>350</v>
       </c>
       <c r="D210" s="8" t="s">
-        <v>517</v>
+        <v>497</v>
       </c>
       <c r="E210" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
-        <v>502</v>
+        <v>487</v>
       </c>
       <c r="B211" s="3">
         <v>0</v>
@@ -5850,15 +5850,15 @@
         <v>350</v>
       </c>
       <c r="D211" s="8" t="s">
-        <v>518</v>
+        <v>498</v>
       </c>
       <c r="E211" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
-        <v>503</v>
+        <v>488</v>
       </c>
       <c r="B212" s="3">
         <v>0</v>
@@ -5867,15 +5867,15 @@
         <v>400</v>
       </c>
       <c r="D212" s="8" t="s">
-        <v>519</v>
+        <v>499</v>
       </c>
       <c r="E212" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
-        <v>504</v>
+        <v>489</v>
       </c>
       <c r="B213" s="3">
         <v>0</v>
@@ -5884,15 +5884,15 @@
         <v>350</v>
       </c>
       <c r="D213" s="8" t="s">
-        <v>520</v>
+        <v>500</v>
       </c>
       <c r="E213" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
-        <v>505</v>
+        <v>490</v>
       </c>
       <c r="B214" s="3">
         <v>0</v>
@@ -5901,15 +5901,15 @@
         <v>350</v>
       </c>
       <c r="D214" s="8" t="s">
-        <v>521</v>
+        <v>501</v>
       </c>
       <c r="E214" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
-        <v>506</v>
+        <v>491</v>
       </c>
       <c r="B215" s="3">
         <v>0</v>
@@ -5918,15 +5918,15 @@
         <v>350</v>
       </c>
       <c r="D215" s="8" t="s">
-        <v>522</v>
+        <v>502</v>
       </c>
       <c r="E215" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
-        <v>511</v>
+        <v>560</v>
       </c>
       <c r="B216" s="3">
         <v>0</v>
@@ -5935,15 +5935,15 @@
         <v>350</v>
       </c>
       <c r="D216" s="8" t="s">
-        <v>523</v>
+        <v>503</v>
       </c>
       <c r="E216" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B217" s="3">
         <v>3</v>
@@ -5952,15 +5952,15 @@
         <v>250</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="E217" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B218" s="3">
         <v>3</v>
@@ -5969,15 +5969,15 @@
         <v>250</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="E218" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
-        <v>133</v>
+        <v>561</v>
       </c>
       <c r="B219" s="3">
         <v>1</v>
@@ -5986,15 +5986,15 @@
         <v>250</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="E219" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B220" s="3">
         <v>1</v>
@@ -6003,15 +6003,15 @@
         <v>250</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="E220" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B221" s="3">
         <v>2</v>
@@ -6020,15 +6020,15 @@
         <v>250</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="E221" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B222" s="3">
         <v>2</v>
@@ -6037,15 +6037,15 @@
         <v>250</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="E222" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B223" s="3">
         <v>1</v>
@@ -6054,15 +6054,15 @@
         <v>250</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="E223" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B224" s="3">
         <v>0</v>
@@ -6071,15 +6071,15 @@
         <v>250</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E224" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B225" s="3">
         <v>2</v>
@@ -6088,15 +6088,15 @@
         <v>250</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="E225" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B226" s="3">
         <v>0</v>
@@ -6105,15 +6105,15 @@
         <v>250</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E226" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B227" s="3">
         <v>1</v>
@@ -6122,15 +6122,15 @@
         <v>250</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="E227" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B228" s="3">
         <v>2</v>
@@ -6139,15 +6139,15 @@
         <v>250</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="E228" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B229" s="3">
         <v>1</v>
@@ -6156,15 +6156,15 @@
         <v>250</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="E229" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
-        <v>144</v>
+        <v>562</v>
       </c>
       <c r="B230" s="3">
         <v>2</v>
@@ -6173,15 +6173,15 @@
         <v>250</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="E230" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B231" s="3">
         <v>0</v>
@@ -6190,15 +6190,15 @@
         <v>250</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E231" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B232" s="3">
         <v>0</v>
@@ -6207,15 +6207,15 @@
         <v>250</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E232" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" s="7" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="B233" s="3">
         <v>4</v>
@@ -6224,15 +6224,15 @@
         <v>250</v>
       </c>
       <c r="D233" s="8" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="E233" s="6" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="B234" s="3">
         <v>2</v>
@@ -6241,15 +6241,15 @@
         <v>250</v>
       </c>
       <c r="D234" s="8" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="E234" s="6" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="B235" s="3">
         <v>1</v>
@@ -6258,15 +6258,15 @@
         <v>220</v>
       </c>
       <c r="D235" s="8" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
       <c r="E235" s="6" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="B236" s="3">
         <v>1</v>
@@ -6275,15 +6275,15 @@
         <v>220</v>
       </c>
       <c r="D236" s="8" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="E236" s="6" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="B237" s="3">
         <v>1</v>
@@ -6292,15 +6292,15 @@
         <v>220</v>
       </c>
       <c r="D237" s="8" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="E237" s="6" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="B238" s="3">
         <v>2</v>
@@ -6309,15 +6309,15 @@
         <v>220</v>
       </c>
       <c r="D238" s="8" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
       <c r="E238" s="6" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="B239" s="3">
         <v>1</v>
@@ -6326,32 +6326,32 @@
         <v>160</v>
       </c>
       <c r="D239" s="8" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="E239" s="6" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B240" s="5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C240" s="3">
         <v>250</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="E240" s="6" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B241" s="5">
         <v>1</v>
@@ -6360,15 +6360,15 @@
         <v>250</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="E241" s="6" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B242" s="5">
         <v>1</v>
@@ -6377,15 +6377,15 @@
         <v>220</v>
       </c>
       <c r="D242" s="2" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="E242" s="6" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="B243" s="5">
         <v>0</v>
@@ -6394,15 +6394,15 @@
         <v>220</v>
       </c>
       <c r="D243" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E243" s="6" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B244" s="5">
         <v>2</v>
@@ -6411,15 +6411,15 @@
         <v>220</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="E244" s="6" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B245" s="5">
         <v>1</v>
@@ -6428,15 +6428,15 @@
         <v>220</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="E245" s="6" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B246" s="5">
         <v>1</v>
@@ -6445,15 +6445,15 @@
         <v>220</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="E246" s="6" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B247" s="5">
         <v>5</v>
@@ -6462,15 +6462,15 @@
         <v>350</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="E247" s="6" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="B248" s="5">
         <v>10</v>
@@ -6479,15 +6479,15 @@
         <v>250</v>
       </c>
       <c r="D248" s="4" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="E248" s="6" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="B249" s="5">
         <v>1</v>
@@ -6496,15 +6496,15 @@
         <v>250</v>
       </c>
       <c r="D249" s="4" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="E249" s="6" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="B250" s="5">
         <v>24</v>
@@ -6513,15 +6513,15 @@
         <v>250</v>
       </c>
       <c r="D250" s="4" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="E250" s="6" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="B251" s="5">
         <v>6</v>
@@ -6530,15 +6530,15 @@
         <v>150</v>
       </c>
       <c r="D251" s="4" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="E251" s="6" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="B252" s="5">
         <v>2</v>
@@ -6547,15 +6547,15 @@
         <v>150</v>
       </c>
       <c r="D252" s="4" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="E252" s="6" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="B253" s="5">
         <v>2</v>
@@ -6564,15 +6564,15 @@
         <v>150</v>
       </c>
       <c r="D253" s="4" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="E253" s="6" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="B254" s="5">
         <v>2</v>
@@ -6581,15 +6581,15 @@
         <v>550</v>
       </c>
       <c r="D254" s="4" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="E254" s="6" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="B255" s="5">
         <v>2</v>
@@ -6598,15 +6598,15 @@
         <v>650</v>
       </c>
       <c r="D255" s="4" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="E255" s="6" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>524</v>
+        <v>504</v>
       </c>
       <c r="B256" s="5">
         <v>0</v>
@@ -6615,15 +6615,15 @@
         <v>300</v>
       </c>
       <c r="D256" s="4" t="s">
-        <v>539</v>
+        <v>519</v>
       </c>
       <c r="E256" s="6" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>525</v>
+        <v>505</v>
       </c>
       <c r="B257" s="5">
         <v>0</v>
@@ -6632,15 +6632,15 @@
         <v>300</v>
       </c>
       <c r="D257" s="4" t="s">
-        <v>540</v>
+        <v>520</v>
       </c>
       <c r="E257" s="6" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>526</v>
+        <v>506</v>
       </c>
       <c r="B258" s="5">
         <v>0</v>
@@ -6649,15 +6649,15 @@
         <v>300</v>
       </c>
       <c r="D258" s="4" t="s">
-        <v>541</v>
+        <v>521</v>
       </c>
       <c r="E258" s="6" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>527</v>
+        <v>507</v>
       </c>
       <c r="B259" s="5">
         <v>0</v>
@@ -6666,15 +6666,15 @@
         <v>300</v>
       </c>
       <c r="D259" s="4" t="s">
-        <v>542</v>
+        <v>522</v>
       </c>
       <c r="E259" s="6" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>528</v>
+        <v>508</v>
       </c>
       <c r="B260" s="5">
         <v>0</v>
@@ -6683,15 +6683,15 @@
         <v>300</v>
       </c>
       <c r="D260" s="4" t="s">
-        <v>543</v>
+        <v>523</v>
       </c>
       <c r="E260" s="6" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>529</v>
+        <v>509</v>
       </c>
       <c r="B261" s="5">
         <v>0</v>
@@ -6700,15 +6700,15 @@
         <v>300</v>
       </c>
       <c r="D261" s="4" t="s">
-        <v>544</v>
+        <v>524</v>
       </c>
       <c r="E261" s="6" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>530</v>
+        <v>510</v>
       </c>
       <c r="B262" s="5">
         <v>0</v>
@@ -6717,15 +6717,15 @@
         <v>300</v>
       </c>
       <c r="D262" s="4" t="s">
-        <v>545</v>
+        <v>525</v>
       </c>
       <c r="E262" s="6" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>531</v>
+        <v>511</v>
       </c>
       <c r="B263" s="5">
         <v>0</v>
@@ -6734,15 +6734,15 @@
         <v>300</v>
       </c>
       <c r="D263" s="4" t="s">
-        <v>546</v>
+        <v>526</v>
       </c>
       <c r="E263" s="6" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>532</v>
+        <v>512</v>
       </c>
       <c r="B264" s="5">
         <v>0</v>
@@ -6751,15 +6751,15 @@
         <v>300</v>
       </c>
       <c r="D264" s="4" t="s">
-        <v>547</v>
+        <v>527</v>
       </c>
       <c r="E264" s="6" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>533</v>
+        <v>513</v>
       </c>
       <c r="B265" s="5">
         <v>0</v>
@@ -6768,15 +6768,15 @@
         <v>300</v>
       </c>
       <c r="D265" s="4" t="s">
-        <v>548</v>
+        <v>528</v>
       </c>
       <c r="E265" s="6" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>534</v>
+        <v>514</v>
       </c>
       <c r="B266" s="5">
         <v>0</v>
@@ -6785,15 +6785,15 @@
         <v>300</v>
       </c>
       <c r="D266" s="4" t="s">
-        <v>549</v>
+        <v>529</v>
       </c>
       <c r="E266" s="6" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>538</v>
+        <v>518</v>
       </c>
       <c r="B267" s="5">
         <v>0</v>
@@ -6802,15 +6802,15 @@
         <v>300</v>
       </c>
       <c r="D267" s="4" t="s">
-        <v>550</v>
+        <v>530</v>
       </c>
       <c r="E267" s="6" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>537</v>
+        <v>517</v>
       </c>
       <c r="B268" s="5">
         <v>0</v>
@@ -6819,15 +6819,15 @@
         <v>300</v>
       </c>
       <c r="D268" s="4" t="s">
-        <v>551</v>
+        <v>531</v>
       </c>
       <c r="E268" s="6" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>535</v>
+        <v>515</v>
       </c>
       <c r="B269" s="5">
         <v>0</v>
@@ -6836,15 +6836,15 @@
         <v>300</v>
       </c>
       <c r="D269" s="4" t="s">
-        <v>552</v>
+        <v>532</v>
       </c>
       <c r="E269" s="6" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>536</v>
+        <v>516</v>
       </c>
       <c r="B270" s="5">
         <v>0</v>
@@ -6853,15 +6853,15 @@
         <v>300</v>
       </c>
       <c r="D270" s="4" t="s">
-        <v>553</v>
+        <v>533</v>
       </c>
       <c r="E270" s="6" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="B271" s="5">
         <v>4</v>
@@ -6870,15 +6870,15 @@
         <v>800</v>
       </c>
       <c r="D271" s="4" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="E271" s="6" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="B272" s="5">
         <v>13</v>
@@ -6887,15 +6887,15 @@
         <v>200</v>
       </c>
       <c r="D272" s="4" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="E272" s="6" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="B273" s="5">
         <v>3</v>
@@ -6904,15 +6904,15 @@
         <v>150</v>
       </c>
       <c r="D273" s="4" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="E273" s="6" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="B274" s="5">
         <v>2</v>
@@ -6921,15 +6921,15 @@
         <v>150</v>
       </c>
       <c r="D274" s="4" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="E274" s="6" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="B275" s="5">
         <v>1</v>
@@ -6938,15 +6938,15 @@
         <v>150</v>
       </c>
       <c r="D275" s="4" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="E275" s="6" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="B276" s="5">
         <v>1</v>
@@ -6955,15 +6955,15 @@
         <v>150</v>
       </c>
       <c r="D276" s="4" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="E276" s="6" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="B277" s="5">
         <v>10</v>
@@ -6972,15 +6972,15 @@
         <v>30</v>
       </c>
       <c r="D277" s="4" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="E277" s="6" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="B278" s="5">
         <v>1</v>
@@ -6989,15 +6989,15 @@
         <v>550</v>
       </c>
       <c r="D278" s="4" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="E278" s="6" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="B279" s="5">
         <v>1</v>
@@ -7006,15 +7006,15 @@
         <v>550</v>
       </c>
       <c r="D279" s="4" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="E279" s="6" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="B280" s="5">
         <v>1</v>
@@ -7023,15 +7023,15 @@
         <v>550</v>
       </c>
       <c r="D280" s="4" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="E280" s="6" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="B281" s="5">
         <v>1</v>
@@ -7040,15 +7040,15 @@
         <v>550</v>
       </c>
       <c r="D281" s="4" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="E281" s="6" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="B282" s="5">
         <v>1</v>
@@ -7057,15 +7057,15 @@
         <v>550</v>
       </c>
       <c r="D282" s="4" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="E282" s="6" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="B283" s="5">
         <v>1</v>
@@ -7074,15 +7074,15 @@
         <v>550</v>
       </c>
       <c r="D283" s="4" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="E283" s="6" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="B284" s="5">
         <v>1</v>
@@ -7091,15 +7091,15 @@
         <v>550</v>
       </c>
       <c r="D284" s="4" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="E284" s="6" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="B285" s="5">
         <v>1</v>
@@ -7108,15 +7108,15 @@
         <v>550</v>
       </c>
       <c r="D285" s="4" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="E285" s="6" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="B286" s="5">
         <v>2</v>
@@ -7125,15 +7125,15 @@
         <v>250</v>
       </c>
       <c r="D286" s="4" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="E286" s="6" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="B287" s="5">
         <v>1</v>
@@ -7142,15 +7142,15 @@
         <v>250</v>
       </c>
       <c r="D287" s="4" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="E287" s="6" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="B288" s="5">
         <v>0</v>
@@ -7159,15 +7159,15 @@
         <v>250</v>
       </c>
       <c r="D288" s="4" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="E288" s="6" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="B289" s="5">
         <v>1</v>
@@ -7176,15 +7176,15 @@
         <v>250</v>
       </c>
       <c r="D289" s="4" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="E289" s="6" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>500</v>
+        <v>485</v>
       </c>
       <c r="B290" s="5">
         <v>4</v>
@@ -7193,10 +7193,10 @@
         <v>220</v>
       </c>
       <c r="D290" s="4" t="s">
-        <v>499</v>
+        <v>484</v>
       </c>
       <c r="E290" s="6" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>

--- a/data/stock.xlsx
+++ b/data/stock.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\blocks\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E76346AA-EDF6-4587-8FB7-1F52C8E66C6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFE794A2-F617-4067-81BC-BB0297240F99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3525" yWindow="2730" windowWidth="21600" windowHeight="11250" xr2:uid="{FC0CBB84-858B-49F6-BA69-44D83C89F7C4}"/>
+    <workbookView xWindow="2505" yWindow="2220" windowWidth="21600" windowHeight="11250" xr2:uid="{FC0CBB84-858B-49F6-BA69-44D83C89F7C4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="567">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="878" uniqueCount="571">
   <si>
     <t>Product</t>
   </si>
@@ -1735,6 +1735,18 @@
   </si>
   <si>
     <t>Spiderman [Symbiote Suit]</t>
+  </si>
+  <si>
+    <t>Hiraishin Kunai [Metal]</t>
+  </si>
+  <si>
+    <t>Kunai [Metal]</t>
+  </si>
+  <si>
+    <t>kunai.jpg</t>
+  </si>
+  <si>
+    <t>minato kunai.jpg</t>
   </si>
 </sst>
 </file>
@@ -1790,7 +1802,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -1811,6 +1823,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2256,10 +2271,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCDC9875-9E8E-485C-910E-47B83A1F9902}">
-  <dimension ref="A1:E290"/>
+  <dimension ref="A1:E292"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A64" sqref="A64"/>
+    <sheetView tabSelected="1" topLeftCell="A277" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="D292" sqref="D292"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5759,7 +5774,7 @@
         <v>486</v>
       </c>
       <c r="B206" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C206" s="3">
         <v>400</v>
@@ -5776,7 +5791,7 @@
         <v>556</v>
       </c>
       <c r="B207" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C207" s="3">
         <v>400</v>
@@ -5793,7 +5808,7 @@
         <v>557</v>
       </c>
       <c r="B208" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C208" s="3">
         <v>350</v>
@@ -5810,7 +5825,7 @@
         <v>558</v>
       </c>
       <c r="B209" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C209" s="3">
         <v>400</v>
@@ -5827,7 +5842,7 @@
         <v>559</v>
       </c>
       <c r="B210" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C210" s="3">
         <v>350</v>
@@ -5844,7 +5859,7 @@
         <v>487</v>
       </c>
       <c r="B211" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C211" s="3">
         <v>350</v>
@@ -5861,7 +5876,7 @@
         <v>488</v>
       </c>
       <c r="B212" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C212" s="3">
         <v>400</v>
@@ -5878,7 +5893,7 @@
         <v>489</v>
       </c>
       <c r="B213" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C213" s="3">
         <v>350</v>
@@ -5895,7 +5910,7 @@
         <v>490</v>
       </c>
       <c r="B214" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C214" s="3">
         <v>350</v>
@@ -5929,7 +5944,7 @@
         <v>560</v>
       </c>
       <c r="B216" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C216" s="3">
         <v>350</v>
@@ -6609,7 +6624,7 @@
         <v>504</v>
       </c>
       <c r="B256" s="5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C256" s="6">
         <v>300</v>
@@ -6626,7 +6641,7 @@
         <v>505</v>
       </c>
       <c r="B257" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C257" s="6">
         <v>300</v>
@@ -6643,7 +6658,7 @@
         <v>506</v>
       </c>
       <c r="B258" s="5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C258" s="6">
         <v>300</v>
@@ -6660,7 +6675,7 @@
         <v>507</v>
       </c>
       <c r="B259" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C259" s="6">
         <v>300</v>
@@ -6677,7 +6692,7 @@
         <v>508</v>
       </c>
       <c r="B260" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C260" s="6">
         <v>300</v>
@@ -6694,7 +6709,7 @@
         <v>509</v>
       </c>
       <c r="B261" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C261" s="6">
         <v>300</v>
@@ -6711,7 +6726,7 @@
         <v>510</v>
       </c>
       <c r="B262" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C262" s="6">
         <v>300</v>
@@ -6728,7 +6743,7 @@
         <v>511</v>
       </c>
       <c r="B263" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C263" s="6">
         <v>300</v>
@@ -6745,7 +6760,7 @@
         <v>512</v>
       </c>
       <c r="B264" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C264" s="6">
         <v>300</v>
@@ -6762,7 +6777,7 @@
         <v>513</v>
       </c>
       <c r="B265" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C265" s="6">
         <v>300</v>
@@ -6779,7 +6794,7 @@
         <v>514</v>
       </c>
       <c r="B266" s="5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C266" s="6">
         <v>300</v>
@@ -6796,7 +6811,7 @@
         <v>518</v>
       </c>
       <c r="B267" s="5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C267" s="6">
         <v>300</v>
@@ -6813,7 +6828,7 @@
         <v>517</v>
       </c>
       <c r="B268" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C268" s="6">
         <v>300</v>
@@ -7196,6 +7211,40 @@
         <v>484</v>
       </c>
       <c r="E290" s="6" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A291" t="s">
+        <v>568</v>
+      </c>
+      <c r="B291" s="5">
+        <v>2</v>
+      </c>
+      <c r="C291" s="9">
+        <v>1200</v>
+      </c>
+      <c r="D291" s="4" t="s">
+        <v>569</v>
+      </c>
+      <c r="E291" s="6" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A292" t="s">
+        <v>567</v>
+      </c>
+      <c r="B292" s="5">
+        <v>2</v>
+      </c>
+      <c r="C292" s="9">
+        <v>1200</v>
+      </c>
+      <c r="D292" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="E292" s="6" t="s">
         <v>193</v>
       </c>
     </row>

--- a/data/stock.xlsx
+++ b/data/stock.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\blocks\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFE794A2-F617-4067-81BC-BB0297240F99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BF4F431-C2E3-4964-81AC-EF9D3F91639D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2505" yWindow="2220" windowWidth="21600" windowHeight="11250" xr2:uid="{FC0CBB84-858B-49F6-BA69-44D83C89F7C4}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="878" uniqueCount="571">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="587">
   <si>
     <t>Product</t>
   </si>
@@ -1747,6 +1747,54 @@
   </si>
   <si>
     <t>minato kunai.jpg</t>
+  </si>
+  <si>
+    <t>Darth Vader v2</t>
+  </si>
+  <si>
+    <t>Darth Vader Hologram</t>
+  </si>
+  <si>
+    <t>Mandalorian v2</t>
+  </si>
+  <si>
+    <t>Inferno Squad Agent</t>
+  </si>
+  <si>
+    <t>Luke Skywalker Hood</t>
+  </si>
+  <si>
+    <t>C-3P0</t>
+  </si>
+  <si>
+    <t>General Grievous</t>
+  </si>
+  <si>
+    <t>Obi-wan Kenobi</t>
+  </si>
+  <si>
+    <t>darth v2.jpg</t>
+  </si>
+  <si>
+    <t>darth holo.jpg</t>
+  </si>
+  <si>
+    <t>manda2.jpg</t>
+  </si>
+  <si>
+    <t>inferno.jpg</t>
+  </si>
+  <si>
+    <t>luke2.jpg</t>
+  </si>
+  <si>
+    <t>c3p0.jpg</t>
+  </si>
+  <si>
+    <t>grievous.jpg</t>
+  </si>
+  <si>
+    <t>obiwan.jpg</t>
   </si>
 </sst>
 </file>
@@ -1802,7 +1850,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -1823,9 +1871,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2271,10 +2316,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCDC9875-9E8E-485C-910E-47B83A1F9902}">
-  <dimension ref="A1:E292"/>
+  <dimension ref="A1:E300"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A277" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D292" sqref="D292"/>
+    <sheetView tabSelected="1" topLeftCell="A231" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="D248" sqref="D248"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3853,7 +3898,7 @@
         <v>46</v>
       </c>
       <c r="B93" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C93" s="3">
         <v>500</v>
@@ -4465,7 +4510,7 @@
         <v>76</v>
       </c>
       <c r="B129" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C129" s="3">
         <v>320</v>
@@ -4788,7 +4833,7 @@
         <v>94</v>
       </c>
       <c r="B148" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C148" s="3">
         <v>400</v>
@@ -6348,425 +6393,425 @@
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A240" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="B240" s="5">
-        <v>5</v>
+      <c r="A240" s="7" t="s">
+        <v>571</v>
+      </c>
+      <c r="B240" s="3">
+        <v>1</v>
       </c>
       <c r="C240" s="3">
         <v>250</v>
       </c>
-      <c r="D240" s="2" t="s">
-        <v>244</v>
+      <c r="D240" s="8" t="s">
+        <v>579</v>
       </c>
       <c r="E240" s="6" t="s">
-        <v>193</v>
+        <v>455</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A241" t="s">
-        <v>187</v>
-      </c>
-      <c r="B241" s="5">
+      <c r="A241" s="7" t="s">
+        <v>572</v>
+      </c>
+      <c r="B241" s="3">
         <v>1</v>
       </c>
       <c r="C241" s="3">
         <v>250</v>
       </c>
-      <c r="D241" s="2" t="s">
-        <v>311</v>
+      <c r="D241" s="8" t="s">
+        <v>580</v>
       </c>
       <c r="E241" s="6" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A242" s="7" t="s">
+        <v>573</v>
+      </c>
+      <c r="B242" s="3">
+        <v>1</v>
+      </c>
+      <c r="C242" s="3">
+        <v>220</v>
+      </c>
+      <c r="D242" s="8" t="s">
+        <v>581</v>
+      </c>
+      <c r="E242" s="6" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A243" s="7" t="s">
+        <v>574</v>
+      </c>
+      <c r="B243" s="3">
+        <v>1</v>
+      </c>
+      <c r="C243" s="3">
+        <v>220</v>
+      </c>
+      <c r="D243" s="8" t="s">
+        <v>582</v>
+      </c>
+      <c r="E243" s="6" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A244" s="7" t="s">
+        <v>575</v>
+      </c>
+      <c r="B244" s="3">
+        <v>1</v>
+      </c>
+      <c r="C244" s="3">
+        <v>220</v>
+      </c>
+      <c r="D244" s="8" t="s">
+        <v>583</v>
+      </c>
+      <c r="E244" s="6" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A245" s="7" t="s">
+        <v>576</v>
+      </c>
+      <c r="B245" s="3">
+        <v>1</v>
+      </c>
+      <c r="C245" s="3">
+        <v>250</v>
+      </c>
+      <c r="D245" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="E245" s="6" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A246" s="7" t="s">
+        <v>577</v>
+      </c>
+      <c r="B246" s="3">
+        <v>1</v>
+      </c>
+      <c r="C246" s="3">
+        <v>250</v>
+      </c>
+      <c r="D246" s="8" t="s">
+        <v>585</v>
+      </c>
+      <c r="E246" s="6" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A247" s="7" t="s">
+        <v>578</v>
+      </c>
+      <c r="B247" s="3">
+        <v>1</v>
+      </c>
+      <c r="C247" s="3">
+        <v>220</v>
+      </c>
+      <c r="D247" s="8" t="s">
+        <v>586</v>
+      </c>
+      <c r="E247" s="6" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A248" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B248" s="5">
+        <v>5</v>
+      </c>
+      <c r="C248" s="3">
+        <v>250</v>
+      </c>
+      <c r="D248" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="E248" s="6" t="s">
         <v>193</v>
-      </c>
-    </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A242" t="s">
-        <v>188</v>
-      </c>
-      <c r="B242" s="5">
-        <v>1</v>
-      </c>
-      <c r="C242" s="6">
-        <v>220</v>
-      </c>
-      <c r="D242" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="E242" s="6" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A243" t="s">
-        <v>310</v>
-      </c>
-      <c r="B243" s="5">
-        <v>0</v>
-      </c>
-      <c r="C243" s="6">
-        <v>220</v>
-      </c>
-      <c r="D243" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="E243" s="6" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A244" t="s">
-        <v>189</v>
-      </c>
-      <c r="B244" s="5">
-        <v>2</v>
-      </c>
-      <c r="C244" s="6">
-        <v>220</v>
-      </c>
-      <c r="D244" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="E244" s="6" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A245" t="s">
-        <v>190</v>
-      </c>
-      <c r="B245" s="5">
-        <v>1</v>
-      </c>
-      <c r="C245" s="6">
-        <v>220</v>
-      </c>
-      <c r="D245" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="E245" s="6" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A246" t="s">
-        <v>191</v>
-      </c>
-      <c r="B246" s="5">
-        <v>1</v>
-      </c>
-      <c r="C246" s="6">
-        <v>220</v>
-      </c>
-      <c r="D246" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="E246" s="6" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A247" t="s">
-        <v>192</v>
-      </c>
-      <c r="B247" s="5">
-        <v>5</v>
-      </c>
-      <c r="C247" s="6">
-        <v>350</v>
-      </c>
-      <c r="D247" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="E247" s="6" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A248" t="s">
-        <v>337</v>
-      </c>
-      <c r="B248" s="5">
-        <v>10</v>
-      </c>
-      <c r="C248" s="6">
-        <v>250</v>
-      </c>
-      <c r="D248" s="4" t="s">
-        <v>341</v>
-      </c>
-      <c r="E248" s="6" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>338</v>
+        <v>187</v>
       </c>
       <c r="B249" s="5">
         <v>1</v>
       </c>
-      <c r="C249" s="6">
+      <c r="C249" s="3">
         <v>250</v>
       </c>
-      <c r="D249" s="4" t="s">
-        <v>342</v>
+      <c r="D249" s="2" t="s">
+        <v>311</v>
       </c>
       <c r="E249" s="6" t="s">
-        <v>413</v>
+        <v>193</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>339</v>
+        <v>188</v>
       </c>
       <c r="B250" s="5">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="C250" s="6">
-        <v>250</v>
-      </c>
-      <c r="D250" s="4" t="s">
-        <v>414</v>
+        <v>220</v>
+      </c>
+      <c r="D250" s="2" t="s">
+        <v>312</v>
       </c>
       <c r="E250" s="6" t="s">
-        <v>340</v>
+        <v>395</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>355</v>
+        <v>310</v>
       </c>
       <c r="B251" s="5">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C251" s="6">
-        <v>150</v>
-      </c>
-      <c r="D251" s="4" t="s">
-        <v>348</v>
+        <v>220</v>
+      </c>
+      <c r="D251" s="2" t="s">
+        <v>148</v>
       </c>
       <c r="E251" s="6" t="s">
-        <v>340</v>
+        <v>395</v>
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>353</v>
+        <v>189</v>
       </c>
       <c r="B252" s="5">
         <v>2</v>
       </c>
       <c r="C252" s="6">
-        <v>150</v>
-      </c>
-      <c r="D252" s="4" t="s">
-        <v>351</v>
+        <v>220</v>
+      </c>
+      <c r="D252" s="2" t="s">
+        <v>313</v>
       </c>
       <c r="E252" s="6" t="s">
-        <v>340</v>
+        <v>395</v>
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>354</v>
+        <v>190</v>
       </c>
       <c r="B253" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C253" s="6">
-        <v>150</v>
-      </c>
-      <c r="D253" s="4" t="s">
-        <v>352</v>
+        <v>220</v>
+      </c>
+      <c r="D253" s="2" t="s">
+        <v>334</v>
       </c>
       <c r="E253" s="6" t="s">
-        <v>340</v>
+        <v>395</v>
       </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>350</v>
+        <v>191</v>
       </c>
       <c r="B254" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C254" s="6">
-        <v>550</v>
-      </c>
-      <c r="D254" s="4" t="s">
-        <v>349</v>
+        <v>220</v>
+      </c>
+      <c r="D254" s="2" t="s">
+        <v>335</v>
       </c>
       <c r="E254" s="6" t="s">
-        <v>340</v>
+        <v>395</v>
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>396</v>
+        <v>192</v>
       </c>
       <c r="B255" s="5">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C255" s="6">
-        <v>650</v>
-      </c>
-      <c r="D255" s="4" t="s">
-        <v>397</v>
+        <v>350</v>
+      </c>
+      <c r="D255" s="2" t="s">
+        <v>245</v>
       </c>
       <c r="E255" s="6" t="s">
-        <v>340</v>
+        <v>193</v>
       </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>504</v>
+        <v>337</v>
       </c>
       <c r="B256" s="5">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C256" s="6">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="D256" s="4" t="s">
-        <v>519</v>
+        <v>341</v>
       </c>
       <c r="E256" s="6" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>505</v>
+        <v>338</v>
       </c>
       <c r="B257" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C257" s="6">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="D257" s="4" t="s">
-        <v>520</v>
+        <v>342</v>
       </c>
       <c r="E257" s="6" t="s">
-        <v>343</v>
+        <v>413</v>
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>506</v>
+        <v>339</v>
       </c>
       <c r="B258" s="5">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="C258" s="6">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="D258" s="4" t="s">
-        <v>521</v>
+        <v>414</v>
       </c>
       <c r="E258" s="6" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>507</v>
+        <v>355</v>
       </c>
       <c r="B259" s="5">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C259" s="6">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="D259" s="4" t="s">
-        <v>522</v>
+        <v>348</v>
       </c>
       <c r="E259" s="6" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>508</v>
+        <v>353</v>
       </c>
       <c r="B260" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C260" s="6">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="D260" s="4" t="s">
-        <v>523</v>
+        <v>351</v>
       </c>
       <c r="E260" s="6" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>509</v>
+        <v>354</v>
       </c>
       <c r="B261" s="5">
         <v>2</v>
       </c>
       <c r="C261" s="6">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="D261" s="4" t="s">
-        <v>524</v>
+        <v>352</v>
       </c>
       <c r="E261" s="6" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>510</v>
+        <v>350</v>
       </c>
       <c r="B262" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C262" s="6">
-        <v>300</v>
+        <v>550</v>
       </c>
       <c r="D262" s="4" t="s">
-        <v>525</v>
+        <v>349</v>
       </c>
       <c r="E262" s="6" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>511</v>
+        <v>396</v>
       </c>
       <c r="B263" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C263" s="6">
-        <v>300</v>
+        <v>650</v>
       </c>
       <c r="D263" s="4" t="s">
-        <v>526</v>
+        <v>397</v>
       </c>
       <c r="E263" s="6" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
       <c r="B264" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C264" s="6">
         <v>300</v>
       </c>
       <c r="D264" s="4" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
       <c r="E264" s="6" t="s">
         <v>343</v>
@@ -6774,16 +6819,16 @@
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>513</v>
+        <v>505</v>
       </c>
       <c r="B265" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C265" s="6">
         <v>300</v>
       </c>
       <c r="D265" s="4" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="E265" s="6" t="s">
         <v>343</v>
@@ -6791,7 +6836,7 @@
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>514</v>
+        <v>506</v>
       </c>
       <c r="B266" s="5">
         <v>3</v>
@@ -6800,7 +6845,7 @@
         <v>300</v>
       </c>
       <c r="D266" s="4" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="E266" s="6" t="s">
         <v>343</v>
@@ -6808,16 +6853,16 @@
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>518</v>
+        <v>507</v>
       </c>
       <c r="B267" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C267" s="6">
         <v>300</v>
       </c>
       <c r="D267" s="4" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="E267" s="6" t="s">
         <v>343</v>
@@ -6825,7 +6870,7 @@
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="B268" s="5">
         <v>1</v>
@@ -6834,7 +6879,7 @@
         <v>300</v>
       </c>
       <c r="D268" s="4" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
       <c r="E268" s="6" t="s">
         <v>343</v>
@@ -6842,16 +6887,16 @@
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="B269" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C269" s="6">
         <v>300</v>
       </c>
       <c r="D269" s="4" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
       <c r="E269" s="6" t="s">
         <v>343</v>
@@ -6859,16 +6904,16 @@
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="B270" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C270" s="6">
         <v>300</v>
       </c>
       <c r="D270" s="4" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="E270" s="6" t="s">
         <v>343</v>
@@ -6876,186 +6921,186 @@
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>346</v>
+        <v>511</v>
       </c>
       <c r="B271" s="5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C271" s="6">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="D271" s="4" t="s">
-        <v>344</v>
+        <v>526</v>
       </c>
       <c r="E271" s="6" t="s">
-        <v>193</v>
+        <v>343</v>
       </c>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>347</v>
+        <v>512</v>
       </c>
       <c r="B272" s="5">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="C272" s="6">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="D272" s="4" t="s">
-        <v>345</v>
+        <v>527</v>
       </c>
       <c r="E272" s="6" t="s">
-        <v>193</v>
+        <v>343</v>
       </c>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>358</v>
+        <v>513</v>
       </c>
       <c r="B273" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C273" s="6">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="D273" s="4" t="s">
-        <v>365</v>
+        <v>528</v>
       </c>
       <c r="E273" s="6" t="s">
-        <v>363</v>
+        <v>343</v>
       </c>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>359</v>
+        <v>514</v>
       </c>
       <c r="B274" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C274" s="6">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="D274" s="4" t="s">
-        <v>366</v>
+        <v>529</v>
       </c>
       <c r="E274" s="6" t="s">
-        <v>363</v>
+        <v>343</v>
       </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>360</v>
+        <v>518</v>
       </c>
       <c r="B275" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C275" s="6">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="D275" s="4" t="s">
-        <v>367</v>
+        <v>530</v>
       </c>
       <c r="E275" s="6" t="s">
-        <v>363</v>
+        <v>343</v>
       </c>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>361</v>
+        <v>517</v>
       </c>
       <c r="B276" s="5">
         <v>1</v>
       </c>
       <c r="C276" s="6">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="D276" s="4" t="s">
-        <v>384</v>
+        <v>531</v>
       </c>
       <c r="E276" s="6" t="s">
-        <v>363</v>
+        <v>343</v>
       </c>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>362</v>
+        <v>515</v>
       </c>
       <c r="B277" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C277" s="6">
-        <v>30</v>
+        <v>300</v>
       </c>
       <c r="D277" s="4" t="s">
-        <v>368</v>
+        <v>532</v>
       </c>
       <c r="E277" s="6" t="s">
-        <v>363</v>
+        <v>343</v>
       </c>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>364</v>
+        <v>516</v>
       </c>
       <c r="B278" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C278" s="6">
-        <v>550</v>
+        <v>300</v>
       </c>
       <c r="D278" s="4" t="s">
-        <v>369</v>
+        <v>533</v>
       </c>
       <c r="E278" s="6" t="s">
-        <v>363</v>
+        <v>343</v>
       </c>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>370</v>
+        <v>346</v>
       </c>
       <c r="B279" s="5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C279" s="6">
-        <v>550</v>
+        <v>800</v>
       </c>
       <c r="D279" s="4" t="s">
-        <v>371</v>
+        <v>344</v>
       </c>
       <c r="E279" s="6" t="s">
-        <v>363</v>
+        <v>193</v>
       </c>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>372</v>
+        <v>347</v>
       </c>
       <c r="B280" s="5">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C280" s="6">
-        <v>550</v>
+        <v>200</v>
       </c>
       <c r="D280" s="4" t="s">
-        <v>378</v>
+        <v>345</v>
       </c>
       <c r="E280" s="6" t="s">
-        <v>363</v>
+        <v>193</v>
       </c>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>373</v>
+        <v>358</v>
       </c>
       <c r="B281" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C281" s="6">
-        <v>550</v>
+        <v>150</v>
       </c>
       <c r="D281" s="4" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
       <c r="E281" s="6" t="s">
         <v>363</v>
@@ -7063,16 +7108,16 @@
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>374</v>
+        <v>359</v>
       </c>
       <c r="B282" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C282" s="6">
-        <v>550</v>
+        <v>150</v>
       </c>
       <c r="D282" s="4" t="s">
-        <v>380</v>
+        <v>366</v>
       </c>
       <c r="E282" s="6" t="s">
         <v>363</v>
@@ -7080,16 +7125,16 @@
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>375</v>
+        <v>360</v>
       </c>
       <c r="B283" s="5">
         <v>1</v>
       </c>
       <c r="C283" s="6">
-        <v>550</v>
+        <v>150</v>
       </c>
       <c r="D283" s="4" t="s">
-        <v>381</v>
+        <v>367</v>
       </c>
       <c r="E283" s="6" t="s">
         <v>363</v>
@@ -7097,16 +7142,16 @@
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>377</v>
+        <v>361</v>
       </c>
       <c r="B284" s="5">
         <v>1</v>
       </c>
       <c r="C284" s="6">
-        <v>550</v>
+        <v>150</v>
       </c>
       <c r="D284" s="4" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="E284" s="6" t="s">
         <v>363</v>
@@ -7114,16 +7159,16 @@
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>376</v>
+        <v>362</v>
       </c>
       <c r="B285" s="5">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C285" s="6">
-        <v>550</v>
+        <v>30</v>
       </c>
       <c r="D285" s="4" t="s">
-        <v>383</v>
+        <v>368</v>
       </c>
       <c r="E285" s="6" t="s">
         <v>363</v>
@@ -7131,120 +7176,256 @@
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>385</v>
+        <v>364</v>
       </c>
       <c r="B286" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C286" s="6">
-        <v>250</v>
+        <v>550</v>
       </c>
       <c r="D286" s="4" t="s">
-        <v>389</v>
+        <v>369</v>
       </c>
       <c r="E286" s="6" t="s">
-        <v>193</v>
+        <v>363</v>
       </c>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>386</v>
+        <v>370</v>
       </c>
       <c r="B287" s="5">
         <v>1</v>
       </c>
       <c r="C287" s="6">
-        <v>250</v>
+        <v>550</v>
       </c>
       <c r="D287" s="4" t="s">
-        <v>390</v>
+        <v>371</v>
       </c>
       <c r="E287" s="6" t="s">
-        <v>193</v>
+        <v>363</v>
       </c>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>387</v>
+        <v>372</v>
       </c>
       <c r="B288" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C288" s="6">
-        <v>250</v>
+        <v>550</v>
       </c>
       <c r="D288" s="4" t="s">
-        <v>391</v>
+        <v>378</v>
       </c>
       <c r="E288" s="6" t="s">
-        <v>193</v>
+        <v>363</v>
       </c>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>388</v>
+        <v>373</v>
       </c>
       <c r="B289" s="5">
         <v>1</v>
       </c>
       <c r="C289" s="6">
-        <v>250</v>
+        <v>550</v>
       </c>
       <c r="D289" s="4" t="s">
-        <v>392</v>
+        <v>379</v>
       </c>
       <c r="E289" s="6" t="s">
-        <v>193</v>
+        <v>363</v>
       </c>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>485</v>
+        <v>374</v>
       </c>
       <c r="B290" s="5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C290" s="6">
-        <v>220</v>
+        <v>550</v>
       </c>
       <c r="D290" s="4" t="s">
-        <v>484</v>
+        <v>380</v>
       </c>
       <c r="E290" s="6" t="s">
-        <v>193</v>
+        <v>363</v>
       </c>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>568</v>
+        <v>375</v>
       </c>
       <c r="B291" s="5">
-        <v>2</v>
-      </c>
-      <c r="C291" s="9">
-        <v>1200</v>
+        <v>1</v>
+      </c>
+      <c r="C291" s="6">
+        <v>550</v>
       </c>
       <c r="D291" s="4" t="s">
-        <v>569</v>
+        <v>381</v>
       </c>
       <c r="E291" s="6" t="s">
-        <v>193</v>
+        <v>363</v>
       </c>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
+        <v>377</v>
+      </c>
+      <c r="B292" s="5">
+        <v>1</v>
+      </c>
+      <c r="C292" s="6">
+        <v>550</v>
+      </c>
+      <c r="D292" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="E292" s="6" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A293" t="s">
+        <v>376</v>
+      </c>
+      <c r="B293" s="5">
+        <v>1</v>
+      </c>
+      <c r="C293" s="6">
+        <v>550</v>
+      </c>
+      <c r="D293" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="E293" s="6" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A294" t="s">
+        <v>385</v>
+      </c>
+      <c r="B294" s="5">
+        <v>2</v>
+      </c>
+      <c r="C294" s="6">
+        <v>250</v>
+      </c>
+      <c r="D294" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="E294" s="6" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A295" t="s">
+        <v>386</v>
+      </c>
+      <c r="B295" s="5">
+        <v>1</v>
+      </c>
+      <c r="C295" s="6">
+        <v>250</v>
+      </c>
+      <c r="D295" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="E295" s="6" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A296" t="s">
+        <v>387</v>
+      </c>
+      <c r="B296" s="5">
+        <v>0</v>
+      </c>
+      <c r="C296" s="6">
+        <v>250</v>
+      </c>
+      <c r="D296" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="E296" s="6" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A297" t="s">
+        <v>388</v>
+      </c>
+      <c r="B297" s="5">
+        <v>1</v>
+      </c>
+      <c r="C297" s="6">
+        <v>250</v>
+      </c>
+      <c r="D297" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="E297" s="6" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A298" t="s">
+        <v>485</v>
+      </c>
+      <c r="B298" s="5">
+        <v>4</v>
+      </c>
+      <c r="C298" s="6">
+        <v>220</v>
+      </c>
+      <c r="D298" s="4" t="s">
+        <v>484</v>
+      </c>
+      <c r="E298" s="6" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A299" t="s">
+        <v>568</v>
+      </c>
+      <c r="B299" s="5">
+        <v>2</v>
+      </c>
+      <c r="C299" s="6">
+        <v>1200</v>
+      </c>
+      <c r="D299" s="4" t="s">
+        <v>569</v>
+      </c>
+      <c r="E299" s="6" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A300" t="s">
         <v>567</v>
       </c>
-      <c r="B292" s="5">
+      <c r="B300" s="5">
         <v>2</v>
       </c>
-      <c r="C292" s="9">
+      <c r="C300" s="6">
         <v>1200</v>
       </c>
-      <c r="D292" s="4" t="s">
+      <c r="D300" s="4" t="s">
         <v>570</v>
       </c>
-      <c r="E292" s="6" t="s">
+      <c r="E300" s="6" t="s">
         <v>193</v>
       </c>
     </row>

--- a/data/stock.xlsx
+++ b/data/stock.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\blocks\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BF4F431-C2E3-4964-81AC-EF9D3F91639D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F087A992-D532-4D5A-BA29-4C6C38E0173C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2505" yWindow="2220" windowWidth="21600" windowHeight="11250" xr2:uid="{FC0CBB84-858B-49F6-BA69-44D83C89F7C4}"/>
+    <workbookView xWindow="5205" yWindow="2625" windowWidth="21600" windowHeight="11250" xr2:uid="{FC0CBB84-858B-49F6-BA69-44D83C89F7C4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2318,8 +2318,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCDC9875-9E8E-485C-910E-47B83A1F9902}">
   <dimension ref="A1:E300"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A231" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D248" sqref="D248"/>
+    <sheetView tabSelected="1" topLeftCell="A280" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B296" sqref="B296"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2385,7 +2385,7 @@
         <v>536</v>
       </c>
       <c r="B4" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" s="3">
         <v>350</v>
@@ -2827,7 +2827,7 @@
         <v>22</v>
       </c>
       <c r="B30" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C30" s="3">
         <v>180</v>
@@ -7315,7 +7315,7 @@
         <v>385</v>
       </c>
       <c r="B294" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C294" s="6">
         <v>250</v>
@@ -7332,7 +7332,7 @@
         <v>386</v>
       </c>
       <c r="B295" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C295" s="6">
         <v>250</v>

--- a/data/stock.xlsx
+++ b/data/stock.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\blocks\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F087A992-D532-4D5A-BA29-4C6C38E0173C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AB3B94C-C87C-48FB-8824-9B25C542AADC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5205" yWindow="2625" windowWidth="21600" windowHeight="11250" xr2:uid="{FC0CBB84-858B-49F6-BA69-44D83C89F7C4}"/>
+    <workbookView xWindow="1140" yWindow="2595" windowWidth="21600" windowHeight="11250" xr2:uid="{FC0CBB84-858B-49F6-BA69-44D83C89F7C4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -519,9 +519,6 @@
     <t>Zoro rizz purple.jpg</t>
   </si>
   <si>
-    <t>Zoro Wano</t>
-  </si>
-  <si>
     <t>Zoro Wano.jpg</t>
   </si>
   <si>
@@ -1795,6 +1792,9 @@
   </si>
   <si>
     <t>obiwan.jpg</t>
+  </si>
+  <si>
+    <t>Zoro [Wano]</t>
   </si>
 </sst>
 </file>
@@ -2318,8 +2318,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCDC9875-9E8E-485C-910E-47B83A1F9902}">
   <dimension ref="A1:E300"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A280" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B296" sqref="B296"/>
+    <sheetView tabSelected="1" topLeftCell="A250" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B256" sqref="B256"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2365,7 +2365,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B3" s="3">
         <v>8</v>
@@ -2382,7 +2382,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B4" s="3">
         <v>3</v>
@@ -2433,7 +2433,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B7" s="3">
         <v>2</v>
@@ -2442,7 +2442,7 @@
         <v>200</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>6</v>
@@ -2484,7 +2484,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B10" s="3">
         <v>2</v>
@@ -2493,7 +2493,7 @@
         <v>250</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>6</v>
@@ -2501,7 +2501,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B11" s="3">
         <v>2</v>
@@ -2510,7 +2510,7 @@
         <v>250</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>6</v>
@@ -2518,7 +2518,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B12" s="3">
         <v>3</v>
@@ -2527,7 +2527,7 @@
         <v>250</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>6</v>
@@ -2535,7 +2535,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B13" s="3">
         <v>2</v>
@@ -2544,7 +2544,7 @@
         <v>250</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>6</v>
@@ -2552,7 +2552,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B14" s="3">
         <v>2</v>
@@ -2561,7 +2561,7 @@
         <v>250</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>6</v>
@@ -2569,7 +2569,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B15" s="3">
         <v>1</v>
@@ -2578,7 +2578,7 @@
         <v>250</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>6</v>
@@ -2586,7 +2586,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B16" s="3">
         <v>1</v>
@@ -2595,7 +2595,7 @@
         <v>250</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>6</v>
@@ -2603,7 +2603,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B17" s="3">
         <v>1</v>
@@ -2612,7 +2612,7 @@
         <v>250</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>6</v>
@@ -2620,7 +2620,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B18" s="3">
         <v>2</v>
@@ -2629,7 +2629,7 @@
         <v>250</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>6</v>
@@ -2646,7 +2646,7 @@
         <v>220</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>6</v>
@@ -2680,7 +2680,7 @@
         <v>220</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>6</v>
@@ -2697,7 +2697,7 @@
         <v>220</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>6</v>
@@ -2714,7 +2714,7 @@
         <v>220</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>6</v>
@@ -2731,7 +2731,7 @@
         <v>220</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>6</v>
@@ -2748,7 +2748,7 @@
         <v>220</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>6</v>
@@ -2782,7 +2782,7 @@
         <v>200</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>6</v>
@@ -2833,7 +2833,7 @@
         <v>180</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>6</v>
@@ -2858,7 +2858,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B32" s="3">
         <v>0</v>
@@ -2875,7 +2875,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B33" s="3">
         <v>0</v>
@@ -2892,7 +2892,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B34" s="3">
         <v>2</v>
@@ -2901,7 +2901,7 @@
         <v>180</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>6</v>
@@ -2918,7 +2918,7 @@
         <v>180</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>6</v>
@@ -2926,7 +2926,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B36" s="3">
         <v>0</v>
@@ -2935,7 +2935,7 @@
         <v>270</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>6</v>
@@ -2943,7 +2943,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B37" s="3">
         <v>1</v>
@@ -2960,7 +2960,7 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B38" s="3">
         <v>2</v>
@@ -2969,7 +2969,7 @@
         <v>270</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>6</v>
@@ -2986,7 +2986,7 @@
         <v>450</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>6</v>
@@ -2997,7 +2997,7 @@
         <v>26</v>
       </c>
       <c r="B40" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C40" s="3">
         <v>380</v>
@@ -3037,7 +3037,7 @@
         <v>270</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>6</v>
@@ -3071,7 +3071,7 @@
         <v>270</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>6</v>
@@ -3079,7 +3079,7 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B45" s="3">
         <v>1</v>
@@ -3088,7 +3088,7 @@
         <v>250</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>6</v>
@@ -3113,7 +3113,7 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B47" s="3">
         <v>2</v>
@@ -3122,7 +3122,7 @@
         <v>250</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>6</v>
@@ -3130,7 +3130,7 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B48" s="3">
         <v>2</v>
@@ -3139,7 +3139,7 @@
         <v>250</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>6</v>
@@ -3156,7 +3156,7 @@
         <v>250</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>6</v>
@@ -3173,7 +3173,7 @@
         <v>250</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>6</v>
@@ -3181,7 +3181,7 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B51" s="3">
         <v>1</v>
@@ -3198,7 +3198,7 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B52" s="3">
         <v>1</v>
@@ -3207,7 +3207,7 @@
         <v>250</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>6</v>
@@ -3215,7 +3215,7 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B53" s="3">
         <v>1</v>
@@ -3224,7 +3224,7 @@
         <v>250</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E53" s="3" t="s">
         <v>6</v>
@@ -3232,7 +3232,7 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B54" s="3">
         <v>2</v>
@@ -3241,7 +3241,7 @@
         <v>360</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>6</v>
@@ -3249,7 +3249,7 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B55" s="3">
         <v>1</v>
@@ -3258,7 +3258,7 @@
         <v>360</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E55" s="3" t="s">
         <v>6</v>
@@ -3266,7 +3266,7 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B56" s="3">
         <v>2</v>
@@ -3275,7 +3275,7 @@
         <v>200</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E56" s="3" t="s">
         <v>6</v>
@@ -3283,7 +3283,7 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B57" s="3">
         <v>4</v>
@@ -3292,7 +3292,7 @@
         <v>260</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>6</v>
@@ -3300,7 +3300,7 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B58" s="3">
         <v>2</v>
@@ -3309,7 +3309,7 @@
         <v>260</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>6</v>
@@ -3317,7 +3317,7 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B59" s="3">
         <v>2</v>
@@ -3326,7 +3326,7 @@
         <v>260</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E59" s="3" t="s">
         <v>6</v>
@@ -3334,7 +3334,7 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B60" s="3">
         <v>4</v>
@@ -3343,7 +3343,7 @@
         <v>260</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E60" s="3" t="s">
         <v>6</v>
@@ -3351,7 +3351,7 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="7" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B61" s="3">
         <v>1</v>
@@ -3360,7 +3360,7 @@
         <v>220</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E61" s="3" t="s">
         <v>6</v>
@@ -3368,7 +3368,7 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="7" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B62" s="3">
         <v>0</v>
@@ -3385,7 +3385,7 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B63" s="3">
         <v>5</v>
@@ -3394,7 +3394,7 @@
         <v>250</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E63" s="3" t="s">
         <v>6</v>
@@ -3402,7 +3402,7 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="7" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B64" s="3">
         <v>1</v>
@@ -3411,7 +3411,7 @@
         <v>250</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E64" s="3" t="s">
         <v>6</v>
@@ -3419,7 +3419,7 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B65" s="3">
         <v>2</v>
@@ -3428,7 +3428,7 @@
         <v>250</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E65" s="3" t="s">
         <v>6</v>
@@ -3436,7 +3436,7 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="7" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B66" s="3">
         <v>2</v>
@@ -3445,7 +3445,7 @@
         <v>250</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E66" s="3" t="s">
         <v>6</v>
@@ -3453,7 +3453,7 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B67" s="3">
         <v>3</v>
@@ -3462,7 +3462,7 @@
         <v>220</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E67" s="3" t="s">
         <v>6</v>
@@ -3473,13 +3473,13 @@
         <v>38</v>
       </c>
       <c r="B68" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C68" s="3">
         <v>180</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E68" s="3" t="s">
         <v>35</v>
@@ -3487,7 +3487,7 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B69" s="3">
         <v>1</v>
@@ -3496,7 +3496,7 @@
         <v>250</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E69" s="3" t="s">
         <v>35</v>
@@ -3513,7 +3513,7 @@
         <v>250</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E70" s="3" t="s">
         <v>35</v>
@@ -3521,7 +3521,7 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B71" s="3">
         <v>1</v>
@@ -3530,7 +3530,7 @@
         <v>250</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E71" s="3" t="s">
         <v>35</v>
@@ -3555,7 +3555,7 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B73" s="3">
         <v>1</v>
@@ -3564,7 +3564,7 @@
         <v>250</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E73" s="3" t="s">
         <v>35</v>
@@ -3572,7 +3572,7 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B74" s="3">
         <v>1</v>
@@ -3581,7 +3581,7 @@
         <v>250</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E74" s="3" t="s">
         <v>35</v>
@@ -3589,7 +3589,7 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B75" s="3">
         <v>1</v>
@@ -3598,7 +3598,7 @@
         <v>180</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E75" s="3" t="s">
         <v>35</v>
@@ -3606,7 +3606,7 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B76" s="3">
         <v>1</v>
@@ -3615,7 +3615,7 @@
         <v>180</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E76" s="3" t="s">
         <v>35</v>
@@ -3632,7 +3632,7 @@
         <v>300</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E77" s="3" t="s">
         <v>35</v>
@@ -3649,7 +3649,7 @@
         <v>300</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E78" s="3" t="s">
         <v>35</v>
@@ -3657,7 +3657,7 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B79" s="3">
         <v>1</v>
@@ -3666,7 +3666,7 @@
         <v>1000</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="E79" s="3" t="s">
         <v>35</v>
@@ -3683,7 +3683,7 @@
         <v>350</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E80" s="3" t="s">
         <v>35</v>
@@ -3700,7 +3700,7 @@
         <v>350</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E81" s="3" t="s">
         <v>35</v>
@@ -3717,7 +3717,7 @@
         <v>500</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E82" s="3" t="s">
         <v>35</v>
@@ -3725,7 +3725,7 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="7" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B83" s="3">
         <v>3</v>
@@ -3734,7 +3734,7 @@
         <v>220</v>
       </c>
       <c r="D83" s="8" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E83" s="3" t="s">
         <v>35</v>
@@ -3742,7 +3742,7 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="7" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B84" s="3">
         <v>1</v>
@@ -3751,7 +3751,7 @@
         <v>220</v>
       </c>
       <c r="D84" s="8" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E84" s="3" t="s">
         <v>35</v>
@@ -3759,7 +3759,7 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="7" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B85" s="6">
         <v>1</v>
@@ -3768,7 +3768,7 @@
         <v>200</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E85" s="3" t="s">
         <v>35</v>
@@ -3776,7 +3776,7 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="7" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B86" s="3">
         <v>2</v>
@@ -3785,7 +3785,7 @@
         <v>220</v>
       </c>
       <c r="D86" s="8" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E86" s="3" t="s">
         <v>35</v>
@@ -3793,7 +3793,7 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="7" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B87" s="3">
         <v>0</v>
@@ -3802,7 +3802,7 @@
         <v>250</v>
       </c>
       <c r="D87" s="8" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E87" s="3" t="s">
         <v>35</v>
@@ -3810,7 +3810,7 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="7" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B88" s="3">
         <v>0</v>
@@ -3819,7 +3819,7 @@
         <v>250</v>
       </c>
       <c r="D88" s="8" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E88" s="3" t="s">
         <v>35</v>
@@ -3827,7 +3827,7 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B89" s="3">
         <v>3</v>
@@ -3836,7 +3836,7 @@
         <v>220</v>
       </c>
       <c r="D89" s="8" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E89" s="3" t="s">
         <v>35</v>
@@ -3853,7 +3853,7 @@
         <v>350</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E90" s="3" t="s">
         <v>35</v>
@@ -3870,7 +3870,7 @@
         <v>350</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E91" s="3" t="s">
         <v>35</v>
@@ -3887,7 +3887,7 @@
         <v>350</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E92" s="3" t="s">
         <v>35</v>
@@ -3904,7 +3904,7 @@
         <v>500</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E93" s="3" t="s">
         <v>35</v>
@@ -3912,7 +3912,7 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B94" s="3">
         <v>3</v>
@@ -3921,7 +3921,7 @@
         <v>500</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E94" s="3" t="s">
         <v>35</v>
@@ -3938,7 +3938,7 @@
         <v>300</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E95" s="3" t="s">
         <v>48</v>
@@ -3946,16 +3946,16 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>161</v>
+        <v>586</v>
       </c>
       <c r="B96" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C96" s="3">
         <v>300</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E96" s="3" t="s">
         <v>48</v>
@@ -3972,7 +3972,7 @@
         <v>300</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E97" s="3" t="s">
         <v>48</v>
@@ -4091,7 +4091,7 @@
         <v>300</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E104" s="3" t="s">
         <v>48</v>
@@ -4099,7 +4099,7 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B105" s="3">
         <v>1</v>
@@ -4108,7 +4108,7 @@
         <v>300</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E105" s="3" t="s">
         <v>48</v>
@@ -4125,7 +4125,7 @@
         <v>300</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E106" s="3" t="s">
         <v>48</v>
@@ -4150,16 +4150,16 @@
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B108" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C108" s="3">
         <v>350</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E108" s="3" t="s">
         <v>48</v>
@@ -4278,7 +4278,7 @@
         <v>300</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E115" s="3" t="s">
         <v>48</v>
@@ -4286,16 +4286,16 @@
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B116" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C116" s="3">
         <v>300</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E116" s="3" t="s">
         <v>48</v>
@@ -4303,7 +4303,7 @@
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B117" s="3">
         <v>2</v>
@@ -4320,10 +4320,10 @@
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B118" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C118" s="3">
         <v>350</v>
@@ -4346,7 +4346,7 @@
         <v>350</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E119" s="3" t="s">
         <v>48</v>
@@ -4363,7 +4363,7 @@
         <v>350</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E120" s="3" t="s">
         <v>48</v>
@@ -4380,7 +4380,7 @@
         <v>320</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E121" s="3" t="s">
         <v>48</v>
@@ -4397,7 +4397,7 @@
         <v>320</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E122" s="3" t="s">
         <v>48</v>
@@ -4414,7 +4414,7 @@
         <v>320</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E123" s="3" t="s">
         <v>48</v>
@@ -4425,13 +4425,13 @@
         <v>71</v>
       </c>
       <c r="B124" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C124" s="3">
         <v>320</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E124" s="3" t="s">
         <v>48</v>
@@ -4448,7 +4448,7 @@
         <v>320</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E125" s="3" t="s">
         <v>48</v>
@@ -4465,7 +4465,7 @@
         <v>320</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E126" s="3" t="s">
         <v>48</v>
@@ -4482,7 +4482,7 @@
         <v>320</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E127" s="3" t="s">
         <v>48</v>
@@ -4499,7 +4499,7 @@
         <v>320</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E128" s="3" t="s">
         <v>48</v>
@@ -4516,7 +4516,7 @@
         <v>320</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E129" s="3" t="s">
         <v>48</v>
@@ -4533,7 +4533,7 @@
         <v>320</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E130" s="3" t="s">
         <v>48</v>
@@ -4550,7 +4550,7 @@
         <v>320</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E131" s="3" t="s">
         <v>48</v>
@@ -4561,13 +4561,13 @@
         <v>79</v>
       </c>
       <c r="B132" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C132" s="3">
         <v>320</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E132" s="3" t="s">
         <v>48</v>
@@ -4584,7 +4584,7 @@
         <v>320</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E133" s="3" t="s">
         <v>48</v>
@@ -4601,7 +4601,7 @@
         <v>320</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E134" s="3" t="s">
         <v>48</v>
@@ -4618,7 +4618,7 @@
         <v>320</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E135" s="3" t="s">
         <v>48</v>
@@ -4626,7 +4626,7 @@
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B136" s="3">
         <v>1</v>
@@ -4635,7 +4635,7 @@
         <v>320</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E136" s="3" t="s">
         <v>48</v>
@@ -4652,7 +4652,7 @@
         <v>300</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E137" s="3" t="s">
         <v>48</v>
@@ -4669,7 +4669,7 @@
         <v>300</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E138" s="3" t="s">
         <v>48</v>
@@ -4686,7 +4686,7 @@
         <v>300</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E139" s="3" t="s">
         <v>48</v>
@@ -4703,7 +4703,7 @@
         <v>300</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E140" s="3" t="s">
         <v>48</v>
@@ -4720,7 +4720,7 @@
         <v>300</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E141" s="3" t="s">
         <v>48</v>
@@ -4737,7 +4737,7 @@
         <v>300</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E142" s="3" t="s">
         <v>48</v>
@@ -4754,7 +4754,7 @@
         <v>300</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E143" s="3" t="s">
         <v>48</v>
@@ -4771,7 +4771,7 @@
         <v>300</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E144" s="3" t="s">
         <v>48</v>
@@ -4788,7 +4788,7 @@
         <v>300</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E145" s="3" t="s">
         <v>48</v>
@@ -4805,7 +4805,7 @@
         <v>300</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E146" s="3" t="s">
         <v>48</v>
@@ -4822,7 +4822,7 @@
         <v>300</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E147" s="3" t="s">
         <v>48</v>
@@ -4833,13 +4833,13 @@
         <v>94</v>
       </c>
       <c r="B148" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C148" s="3">
         <v>400</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E148" s="3" t="s">
         <v>48</v>
@@ -4856,7 +4856,7 @@
         <v>400</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E149" s="3" t="s">
         <v>48</v>
@@ -4864,7 +4864,7 @@
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B150" s="3">
         <v>3</v>
@@ -4873,7 +4873,7 @@
         <v>300</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E150" s="3" t="s">
         <v>48</v>
@@ -4890,7 +4890,7 @@
         <v>300</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E151" s="3" t="s">
         <v>48</v>
@@ -4907,7 +4907,7 @@
         <v>300</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E152" s="3" t="s">
         <v>48</v>
@@ -4918,13 +4918,13 @@
         <v>98</v>
       </c>
       <c r="B153" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C153" s="3">
         <v>300</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E153" s="3" t="s">
         <v>48</v>
@@ -4941,7 +4941,7 @@
         <v>300</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E154" s="3" t="s">
         <v>48</v>
@@ -4958,7 +4958,7 @@
         <v>300</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E155" s="3" t="s">
         <v>48</v>
@@ -4975,7 +4975,7 @@
         <v>300</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E156" s="3" t="s">
         <v>48</v>
@@ -4992,7 +4992,7 @@
         <v>500</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E157" s="3" t="s">
         <v>48</v>
@@ -5000,7 +5000,7 @@
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B158" s="3">
         <v>1</v>
@@ -5009,7 +5009,7 @@
         <v>280</v>
       </c>
       <c r="D158" s="8" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E158" s="3" t="s">
         <v>48</v>
@@ -5017,7 +5017,7 @@
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B159" s="3">
         <v>1</v>
@@ -5026,7 +5026,7 @@
         <v>280</v>
       </c>
       <c r="D159" s="8" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E159" s="3" t="s">
         <v>48</v>
@@ -5034,7 +5034,7 @@
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" s="7" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B160" s="3">
         <v>1</v>
@@ -5043,7 +5043,7 @@
         <v>280</v>
       </c>
       <c r="D160" s="8" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E160" s="3" t="s">
         <v>48</v>
@@ -5060,7 +5060,7 @@
         <v>300</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E161" s="3" t="s">
         <v>48</v>
@@ -5077,7 +5077,7 @@
         <v>300</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E162" s="3" t="s">
         <v>48</v>
@@ -5094,7 +5094,7 @@
         <v>250</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E163" s="3" t="s">
         <v>106</v>
@@ -5102,7 +5102,7 @@
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B164" s="3">
         <v>1</v>
@@ -5111,7 +5111,7 @@
         <v>280</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E164" s="3" t="s">
         <v>106</v>
@@ -5119,7 +5119,7 @@
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B165" s="3">
         <v>1</v>
@@ -5128,7 +5128,7 @@
         <v>280</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E165" s="3" t="s">
         <v>106</v>
@@ -5136,7 +5136,7 @@
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B166" s="3">
         <v>2</v>
@@ -5145,7 +5145,7 @@
         <v>260</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E166" s="3" t="s">
         <v>106</v>
@@ -5153,7 +5153,7 @@
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B167" s="3">
         <v>1</v>
@@ -5162,7 +5162,7 @@
         <v>260</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E167" s="3" t="s">
         <v>106</v>
@@ -5187,7 +5187,7 @@
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B169" s="3">
         <v>1</v>
@@ -5196,7 +5196,7 @@
         <v>280</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E169" s="3" t="s">
         <v>106</v>
@@ -5213,7 +5213,7 @@
         <v>220</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E170" s="3" t="s">
         <v>106</v>
@@ -5230,7 +5230,7 @@
         <v>220</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E171" s="3" t="s">
         <v>106</v>
@@ -5247,7 +5247,7 @@
         <v>220</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E172" s="3" t="s">
         <v>106</v>
@@ -5264,7 +5264,7 @@
         <v>220</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E173" s="3" t="s">
         <v>106</v>
@@ -5281,7 +5281,7 @@
         <v>220</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E174" s="3" t="s">
         <v>106</v>
@@ -5298,7 +5298,7 @@
         <v>250</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E175" s="3" t="s">
         <v>106</v>
@@ -5306,7 +5306,7 @@
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B176" s="3">
         <v>2</v>
@@ -5315,7 +5315,7 @@
         <v>220</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E176" s="3" t="s">
         <v>106</v>
@@ -5323,7 +5323,7 @@
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B177" s="3">
         <v>3</v>
@@ -5332,7 +5332,7 @@
         <v>250</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E177" s="3" t="s">
         <v>106</v>
@@ -5340,7 +5340,7 @@
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B178" s="3">
         <v>0</v>
@@ -5349,7 +5349,7 @@
         <v>220</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E178" s="3" t="s">
         <v>106</v>
@@ -5366,7 +5366,7 @@
         <v>220</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E179" s="3" t="s">
         <v>106</v>
@@ -5374,7 +5374,7 @@
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B180" s="3">
         <v>2</v>
@@ -5383,7 +5383,7 @@
         <v>250</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E180" s="3" t="s">
         <v>106</v>
@@ -5400,7 +5400,7 @@
         <v>220</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E181" s="3" t="s">
         <v>106</v>
@@ -5417,7 +5417,7 @@
         <v>220</v>
       </c>
       <c r="D182" s="8" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E182" s="3" t="s">
         <v>106</v>
@@ -5434,7 +5434,7 @@
         <v>350</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E183" s="3" t="s">
         <v>106</v>
@@ -5451,7 +5451,7 @@
         <v>350</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E184" s="3" t="s">
         <v>106</v>
@@ -5468,7 +5468,7 @@
         <v>350</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E185" s="3" t="s">
         <v>106</v>
@@ -5479,13 +5479,13 @@
         <v>120</v>
       </c>
       <c r="B186" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C186" s="3">
         <v>350</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E186" s="3" t="s">
         <v>106</v>
@@ -5502,7 +5502,7 @@
         <v>350</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E187" s="3" t="s">
         <v>106</v>
@@ -5519,7 +5519,7 @@
         <v>350</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E188" s="3" t="s">
         <v>106</v>
@@ -5536,7 +5536,7 @@
         <v>220</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E189" s="3" t="s">
         <v>106</v>
@@ -5544,7 +5544,7 @@
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" s="7" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B190" s="3">
         <v>1</v>
@@ -5553,7 +5553,7 @@
         <v>220</v>
       </c>
       <c r="D190" s="8" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E190" s="3" t="s">
         <v>106</v>
@@ -5561,7 +5561,7 @@
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" s="7" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B191" s="3">
         <v>1</v>
@@ -5570,7 +5570,7 @@
         <v>220</v>
       </c>
       <c r="D191" s="8" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="E191" s="3" t="s">
         <v>106</v>
@@ -5578,7 +5578,7 @@
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" s="7" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B192" s="3">
         <v>1</v>
@@ -5587,7 +5587,7 @@
         <v>220</v>
       </c>
       <c r="D192" s="8" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E192" s="3" t="s">
         <v>106</v>
@@ -5595,7 +5595,7 @@
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B193" s="3">
         <v>1</v>
@@ -5604,7 +5604,7 @@
         <v>250</v>
       </c>
       <c r="D193" s="8" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E193" s="3" t="s">
         <v>106</v>
@@ -5612,16 +5612,16 @@
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" s="7" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B194" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C194" s="3">
         <v>250</v>
       </c>
       <c r="D194" s="8" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E194" s="3" t="s">
         <v>106</v>
@@ -5638,7 +5638,7 @@
         <v>220</v>
       </c>
       <c r="D195" s="8" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="E195" s="3" t="s">
         <v>106</v>
@@ -5646,16 +5646,16 @@
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B196" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C196" s="3">
         <v>220</v>
       </c>
       <c r="D196" s="8" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E196" s="3" t="s">
         <v>106</v>
@@ -5663,7 +5663,7 @@
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" s="7" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B197" s="3">
         <v>1</v>
@@ -5672,7 +5672,7 @@
         <v>250</v>
       </c>
       <c r="D197" s="8" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E197" s="3" t="s">
         <v>106</v>
@@ -5680,7 +5680,7 @@
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B198" s="3">
         <v>1</v>
@@ -5689,7 +5689,7 @@
         <v>250</v>
       </c>
       <c r="D198" s="8" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E198" s="3" t="s">
         <v>106</v>
@@ -5697,7 +5697,7 @@
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" s="7" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B199" s="3">
         <v>0</v>
@@ -5706,7 +5706,7 @@
         <v>250</v>
       </c>
       <c r="D199" s="8" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="E199" s="3" t="s">
         <v>106</v>
@@ -5714,7 +5714,7 @@
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" s="7" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B200" s="3">
         <v>1</v>
@@ -5723,7 +5723,7 @@
         <v>250</v>
       </c>
       <c r="D200" s="8" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E200" s="3" t="s">
         <v>106</v>
@@ -5740,7 +5740,7 @@
         <v>250</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E201" s="3" t="s">
         <v>125</v>
@@ -5774,7 +5774,7 @@
         <v>250</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E203" s="3" t="s">
         <v>125</v>
@@ -5782,7 +5782,7 @@
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B204" s="3">
         <v>4</v>
@@ -5791,7 +5791,7 @@
         <v>250</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E204" s="3" t="s">
         <v>125</v>
@@ -5816,7 +5816,7 @@
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B206" s="3">
         <v>1</v>
@@ -5825,7 +5825,7 @@
         <v>400</v>
       </c>
       <c r="D206" s="8" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E206" s="3" t="s">
         <v>125</v>
@@ -5833,7 +5833,7 @@
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B207" s="3">
         <v>1</v>
@@ -5842,7 +5842,7 @@
         <v>400</v>
       </c>
       <c r="D207" s="8" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E207" s="3" t="s">
         <v>125</v>
@@ -5850,7 +5850,7 @@
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B208" s="3">
         <v>2</v>
@@ -5859,7 +5859,7 @@
         <v>350</v>
       </c>
       <c r="D208" s="8" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E208" s="3" t="s">
         <v>125</v>
@@ -5867,7 +5867,7 @@
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B209" s="3">
         <v>1</v>
@@ -5876,7 +5876,7 @@
         <v>400</v>
       </c>
       <c r="D209" s="8" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E209" s="3" t="s">
         <v>125</v>
@@ -5884,7 +5884,7 @@
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B210" s="3">
         <v>1</v>
@@ -5893,7 +5893,7 @@
         <v>350</v>
       </c>
       <c r="D210" s="8" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E210" s="3" t="s">
         <v>125</v>
@@ -5901,7 +5901,7 @@
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B211" s="3">
         <v>2</v>
@@ -5910,7 +5910,7 @@
         <v>350</v>
       </c>
       <c r="D211" s="8" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E211" s="3" t="s">
         <v>125</v>
@@ -5918,7 +5918,7 @@
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B212" s="3">
         <v>1</v>
@@ -5927,7 +5927,7 @@
         <v>400</v>
       </c>
       <c r="D212" s="8" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E212" s="3" t="s">
         <v>125</v>
@@ -5935,7 +5935,7 @@
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B213" s="3">
         <v>1</v>
@@ -5944,7 +5944,7 @@
         <v>350</v>
       </c>
       <c r="D213" s="8" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="E213" s="3" t="s">
         <v>125</v>
@@ -5952,7 +5952,7 @@
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B214" s="3">
         <v>2</v>
@@ -5961,7 +5961,7 @@
         <v>350</v>
       </c>
       <c r="D214" s="8" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E214" s="3" t="s">
         <v>125</v>
@@ -5969,7 +5969,7 @@
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B215" s="3">
         <v>0</v>
@@ -5978,7 +5978,7 @@
         <v>350</v>
       </c>
       <c r="D215" s="8" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E215" s="3" t="s">
         <v>125</v>
@@ -5986,7 +5986,7 @@
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B216" s="3">
         <v>2</v>
@@ -5995,7 +5995,7 @@
         <v>350</v>
       </c>
       <c r="D216" s="8" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E216" s="3" t="s">
         <v>125</v>
@@ -6012,7 +6012,7 @@
         <v>250</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E217" s="3" t="s">
         <v>130</v>
@@ -6029,7 +6029,7 @@
         <v>250</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E218" s="3" t="s">
         <v>130</v>
@@ -6037,7 +6037,7 @@
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B219" s="3">
         <v>1</v>
@@ -6046,7 +6046,7 @@
         <v>250</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E219" s="3" t="s">
         <v>130</v>
@@ -6063,7 +6063,7 @@
         <v>250</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E220" s="3" t="s">
         <v>130</v>
@@ -6080,7 +6080,7 @@
         <v>250</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E221" s="3" t="s">
         <v>130</v>
@@ -6097,7 +6097,7 @@
         <v>250</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E222" s="3" t="s">
         <v>130</v>
@@ -6114,7 +6114,7 @@
         <v>250</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E223" s="3" t="s">
         <v>130</v>
@@ -6148,7 +6148,7 @@
         <v>250</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E225" s="3" t="s">
         <v>130</v>
@@ -6182,7 +6182,7 @@
         <v>250</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E227" s="3" t="s">
         <v>130</v>
@@ -6199,7 +6199,7 @@
         <v>250</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E228" s="3" t="s">
         <v>130</v>
@@ -6216,7 +6216,7 @@
         <v>250</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E229" s="3" t="s">
         <v>130</v>
@@ -6224,7 +6224,7 @@
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B230" s="3">
         <v>2</v>
@@ -6233,7 +6233,7 @@
         <v>250</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E230" s="3" t="s">
         <v>130</v>
@@ -6275,7 +6275,7 @@
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" s="7" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B233" s="3">
         <v>4</v>
@@ -6284,15 +6284,15 @@
         <v>250</v>
       </c>
       <c r="D233" s="8" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E233" s="6" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B234" s="3">
         <v>2</v>
@@ -6301,15 +6301,15 @@
         <v>250</v>
       </c>
       <c r="D234" s="8" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E234" s="6" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B235" s="3">
         <v>1</v>
@@ -6318,15 +6318,15 @@
         <v>220</v>
       </c>
       <c r="D235" s="8" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E235" s="6" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B236" s="3">
         <v>1</v>
@@ -6335,15 +6335,15 @@
         <v>220</v>
       </c>
       <c r="D236" s="8" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E236" s="6" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B237" s="3">
         <v>1</v>
@@ -6352,15 +6352,15 @@
         <v>220</v>
       </c>
       <c r="D237" s="8" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E237" s="6" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B238" s="3">
         <v>2</v>
@@ -6369,15 +6369,15 @@
         <v>220</v>
       </c>
       <c r="D238" s="8" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E238" s="6" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B239" s="3">
         <v>1</v>
@@ -6386,15 +6386,15 @@
         <v>160</v>
       </c>
       <c r="D239" s="8" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E239" s="6" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" s="7" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B240" s="3">
         <v>1</v>
@@ -6403,15 +6403,15 @@
         <v>250</v>
       </c>
       <c r="D240" s="8" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="E240" s="6" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241" s="7" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B241" s="3">
         <v>1</v>
@@ -6420,15 +6420,15 @@
         <v>250</v>
       </c>
       <c r="D241" s="8" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="E241" s="6" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242" s="7" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B242" s="3">
         <v>1</v>
@@ -6437,15 +6437,15 @@
         <v>220</v>
       </c>
       <c r="D242" s="8" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="E242" s="6" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243" s="7" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B243" s="3">
         <v>1</v>
@@ -6454,15 +6454,15 @@
         <v>220</v>
       </c>
       <c r="D243" s="8" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="E243" s="6" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244" s="7" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B244" s="3">
         <v>1</v>
@@ -6471,15 +6471,15 @@
         <v>220</v>
       </c>
       <c r="D244" s="8" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E244" s="6" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245" s="7" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B245" s="3">
         <v>1</v>
@@ -6488,15 +6488,15 @@
         <v>250</v>
       </c>
       <c r="D245" s="8" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="E245" s="6" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246" s="7" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B246" s="3">
         <v>1</v>
@@ -6505,15 +6505,15 @@
         <v>250</v>
       </c>
       <c r="D246" s="8" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E246" s="6" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247" s="7" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B247" s="3">
         <v>1</v>
@@ -6522,15 +6522,15 @@
         <v>220</v>
       </c>
       <c r="D247" s="8" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="E247" s="6" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B248" s="5">
         <v>5</v>
@@ -6539,15 +6539,15 @@
         <v>250</v>
       </c>
       <c r="D248" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E248" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B249" s="5">
         <v>1</v>
@@ -6556,15 +6556,15 @@
         <v>250</v>
       </c>
       <c r="D249" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E249" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B250" s="5">
         <v>1</v>
@@ -6573,15 +6573,15 @@
         <v>220</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E250" s="6" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B251" s="5">
         <v>0</v>
@@ -6593,12 +6593,12 @@
         <v>148</v>
       </c>
       <c r="E251" s="6" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B252" s="5">
         <v>2</v>
@@ -6607,15 +6607,15 @@
         <v>220</v>
       </c>
       <c r="D252" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E252" s="6" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B253" s="5">
         <v>1</v>
@@ -6624,15 +6624,15 @@
         <v>220</v>
       </c>
       <c r="D253" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E253" s="6" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B254" s="5">
         <v>1</v>
@@ -6641,32 +6641,32 @@
         <v>220</v>
       </c>
       <c r="D254" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E254" s="6" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B255" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C255" s="6">
         <v>350</v>
       </c>
       <c r="D255" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E255" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B256" s="5">
         <v>10</v>
@@ -6675,15 +6675,15 @@
         <v>250</v>
       </c>
       <c r="D256" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E256" s="6" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B257" s="5">
         <v>1</v>
@@ -6692,15 +6692,15 @@
         <v>250</v>
       </c>
       <c r="D257" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E257" s="6" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B258" s="5">
         <v>24</v>
@@ -6709,15 +6709,15 @@
         <v>250</v>
       </c>
       <c r="D258" s="4" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E258" s="6" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B259" s="5">
         <v>6</v>
@@ -6726,15 +6726,15 @@
         <v>150</v>
       </c>
       <c r="D259" s="4" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E259" s="6" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B260" s="5">
         <v>2</v>
@@ -6743,15 +6743,15 @@
         <v>150</v>
       </c>
       <c r="D260" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E260" s="6" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B261" s="5">
         <v>2</v>
@@ -6760,15 +6760,15 @@
         <v>150</v>
       </c>
       <c r="D261" s="4" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E261" s="6" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B262" s="5">
         <v>2</v>
@@ -6777,15 +6777,15 @@
         <v>550</v>
       </c>
       <c r="D262" s="4" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E262" s="6" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B263" s="5">
         <v>2</v>
@@ -6794,32 +6794,32 @@
         <v>650</v>
       </c>
       <c r="D263" s="4" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E263" s="6" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B264" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C264" s="6">
         <v>300</v>
       </c>
       <c r="D264" s="4" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E264" s="6" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B265" s="5">
         <v>2</v>
@@ -6828,32 +6828,32 @@
         <v>300</v>
       </c>
       <c r="D265" s="4" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="E265" s="6" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B266" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C266" s="6">
         <v>300</v>
       </c>
       <c r="D266" s="4" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="E266" s="6" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B267" s="5">
         <v>2</v>
@@ -6862,15 +6862,15 @@
         <v>300</v>
       </c>
       <c r="D267" s="4" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="E267" s="6" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B268" s="5">
         <v>1</v>
@@ -6879,15 +6879,15 @@
         <v>300</v>
       </c>
       <c r="D268" s="4" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E268" s="6" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B269" s="5">
         <v>2</v>
@@ -6896,15 +6896,15 @@
         <v>300</v>
       </c>
       <c r="D269" s="4" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="E269" s="6" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B270" s="5">
         <v>1</v>
@@ -6913,15 +6913,15 @@
         <v>300</v>
       </c>
       <c r="D270" s="4" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="E270" s="6" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B271" s="5">
         <v>1</v>
@@ -6930,15 +6930,15 @@
         <v>300</v>
       </c>
       <c r="D271" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="E271" s="6" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B272" s="5">
         <v>1</v>
@@ -6947,66 +6947,66 @@
         <v>300</v>
       </c>
       <c r="D272" s="4" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="E272" s="6" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B273" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C273" s="6">
         <v>300</v>
       </c>
       <c r="D273" s="4" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E273" s="6" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B274" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C274" s="6">
         <v>300</v>
       </c>
       <c r="D274" s="4" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="E274" s="6" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B275" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C275" s="6">
         <v>300</v>
       </c>
       <c r="D275" s="4" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="E275" s="6" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B276" s="5">
         <v>1</v>
@@ -7015,15 +7015,15 @@
         <v>300</v>
       </c>
       <c r="D276" s="4" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="E276" s="6" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B277" s="5">
         <v>0</v>
@@ -7032,15 +7032,15 @@
         <v>300</v>
       </c>
       <c r="D277" s="4" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="E277" s="6" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B278" s="5">
         <v>0</v>
@@ -7049,15 +7049,15 @@
         <v>300</v>
       </c>
       <c r="D278" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="E278" s="6" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B279" s="5">
         <v>4</v>
@@ -7066,15 +7066,15 @@
         <v>800</v>
       </c>
       <c r="D279" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E279" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B280" s="5">
         <v>13</v>
@@ -7083,15 +7083,15 @@
         <v>200</v>
       </c>
       <c r="D280" s="4" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E280" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B281" s="5">
         <v>3</v>
@@ -7100,15 +7100,15 @@
         <v>150</v>
       </c>
       <c r="D281" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E281" s="6" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B282" s="5">
         <v>2</v>
@@ -7117,15 +7117,15 @@
         <v>150</v>
       </c>
       <c r="D282" s="4" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E282" s="6" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B283" s="5">
         <v>1</v>
@@ -7134,15 +7134,15 @@
         <v>150</v>
       </c>
       <c r="D283" s="4" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E283" s="6" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B284" s="5">
         <v>1</v>
@@ -7151,15 +7151,15 @@
         <v>150</v>
       </c>
       <c r="D284" s="4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E284" s="6" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B285" s="5">
         <v>10</v>
@@ -7168,15 +7168,15 @@
         <v>30</v>
       </c>
       <c r="D285" s="4" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E285" s="6" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B286" s="5">
         <v>1</v>
@@ -7185,15 +7185,15 @@
         <v>550</v>
       </c>
       <c r="D286" s="4" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E286" s="6" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B287" s="5">
         <v>1</v>
@@ -7202,15 +7202,15 @@
         <v>550</v>
       </c>
       <c r="D287" s="4" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E287" s="6" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B288" s="5">
         <v>1</v>
@@ -7219,15 +7219,15 @@
         <v>550</v>
       </c>
       <c r="D288" s="4" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E288" s="6" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B289" s="5">
         <v>1</v>
@@ -7236,15 +7236,15 @@
         <v>550</v>
       </c>
       <c r="D289" s="4" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E289" s="6" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B290" s="5">
         <v>1</v>
@@ -7253,15 +7253,15 @@
         <v>550</v>
       </c>
       <c r="D290" s="4" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E290" s="6" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B291" s="5">
         <v>1</v>
@@ -7270,15 +7270,15 @@
         <v>550</v>
       </c>
       <c r="D291" s="4" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E291" s="6" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B292" s="5">
         <v>1</v>
@@ -7287,15 +7287,15 @@
         <v>550</v>
       </c>
       <c r="D292" s="4" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E292" s="6" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B293" s="5">
         <v>1</v>
@@ -7304,15 +7304,15 @@
         <v>550</v>
       </c>
       <c r="D293" s="4" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E293" s="6" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B294" s="5">
         <v>1</v>
@@ -7321,15 +7321,15 @@
         <v>250</v>
       </c>
       <c r="D294" s="4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E294" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B295" s="5">
         <v>0</v>
@@ -7338,15 +7338,15 @@
         <v>250</v>
       </c>
       <c r="D295" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E295" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B296" s="5">
         <v>0</v>
@@ -7355,15 +7355,15 @@
         <v>250</v>
       </c>
       <c r="D296" s="4" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E296" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B297" s="5">
         <v>1</v>
@@ -7372,15 +7372,15 @@
         <v>250</v>
       </c>
       <c r="D297" s="4" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E297" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B298" s="5">
         <v>4</v>
@@ -7389,15 +7389,15 @@
         <v>220</v>
       </c>
       <c r="D298" s="4" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E298" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B299" s="5">
         <v>2</v>
@@ -7406,15 +7406,15 @@
         <v>1200</v>
       </c>
       <c r="D299" s="4" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="E299" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B300" s="5">
         <v>2</v>
@@ -7423,10 +7423,10 @@
         <v>1200</v>
       </c>
       <c r="D300" s="4" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="E300" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>

--- a/data/stock.xlsx
+++ b/data/stock.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\blocks\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AB3B94C-C87C-48FB-8824-9B25C542AADC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41924A3E-D838-4E92-86B0-EB43FF4B2AF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1140" yWindow="2595" windowWidth="21600" windowHeight="11250" xr2:uid="{FC0CBB84-858B-49F6-BA69-44D83C89F7C4}"/>
   </bookViews>
@@ -2318,8 +2318,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCDC9875-9E8E-485C-910E-47B83A1F9902}">
   <dimension ref="A1:E300"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A250" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B256" sqref="B256"/>
+    <sheetView tabSelected="1" topLeftCell="A241" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B249" sqref="B249"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2402,7 +2402,7 @@
         <v>7</v>
       </c>
       <c r="B5" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" s="3">
         <v>180</v>
@@ -2640,7 +2640,7 @@
         <v>11</v>
       </c>
       <c r="B19" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C19" s="3">
         <v>220</v>
@@ -2674,7 +2674,7 @@
         <v>13</v>
       </c>
       <c r="B21" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C21" s="3">
         <v>220</v>
@@ -2691,7 +2691,7 @@
         <v>14</v>
       </c>
       <c r="B22" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C22" s="3">
         <v>220</v>
@@ -2827,7 +2827,7 @@
         <v>22</v>
       </c>
       <c r="B30" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C30" s="3">
         <v>180</v>
@@ -2895,7 +2895,7 @@
         <v>539</v>
       </c>
       <c r="B34" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C34" s="3">
         <v>180</v>
@@ -2912,7 +2912,7 @@
         <v>24</v>
       </c>
       <c r="B35" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C35" s="3">
         <v>180</v>
@@ -3133,7 +3133,7 @@
         <v>302</v>
       </c>
       <c r="B48" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C48" s="3">
         <v>250</v>
@@ -3184,7 +3184,7 @@
         <v>304</v>
       </c>
       <c r="B51" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C51" s="3">
         <v>250</v>
@@ -3320,7 +3320,7 @@
         <v>414</v>
       </c>
       <c r="B59" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C59" s="3">
         <v>260</v>
@@ -3388,7 +3388,7 @@
         <v>416</v>
       </c>
       <c r="B63" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C63" s="3">
         <v>250</v>
@@ -3422,7 +3422,7 @@
         <v>417</v>
       </c>
       <c r="B65" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C65" s="3">
         <v>250</v>
@@ -3507,7 +3507,7 @@
         <v>34</v>
       </c>
       <c r="B70" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C70" s="3">
         <v>250</v>
@@ -3779,7 +3779,7 @@
         <v>437</v>
       </c>
       <c r="B86" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C86" s="3">
         <v>220</v>
@@ -6397,7 +6397,7 @@
         <v>570</v>
       </c>
       <c r="B240" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C240" s="3">
         <v>250</v>
@@ -6465,7 +6465,7 @@
         <v>574</v>
       </c>
       <c r="B244" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C244" s="3">
         <v>220</v>
@@ -6516,7 +6516,7 @@
         <v>577</v>
       </c>
       <c r="B247" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C247" s="3">
         <v>220</v>
@@ -6550,7 +6550,7 @@
         <v>186</v>
       </c>
       <c r="B249" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C249" s="3">
         <v>250</v>
@@ -7060,7 +7060,7 @@
         <v>345</v>
       </c>
       <c r="B279" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C279" s="6">
         <v>800</v>
@@ -7315,7 +7315,7 @@
         <v>384</v>
       </c>
       <c r="B294" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C294" s="6">
         <v>250</v>

--- a/data/stock.xlsx
+++ b/data/stock.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\blocks\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41924A3E-D838-4E92-86B0-EB43FF4B2AF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6603D2A0-019F-4E0F-A297-D407074AF46F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1140" yWindow="2595" windowWidth="21600" windowHeight="11250" xr2:uid="{FC0CBB84-858B-49F6-BA69-44D83C89F7C4}"/>
   </bookViews>
@@ -2318,8 +2318,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCDC9875-9E8E-485C-910E-47B83A1F9902}">
   <dimension ref="A1:E300"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A241" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B249" sqref="B249"/>
+    <sheetView tabSelected="1" topLeftCell="A166" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B195" sqref="B195"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2368,7 +2368,7 @@
         <v>545</v>
       </c>
       <c r="B3" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" s="3">
         <v>220</v>
@@ -2385,7 +2385,7 @@
         <v>535</v>
       </c>
       <c r="B4" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" s="3">
         <v>350</v>
@@ -4085,7 +4085,7 @@
         <v>56</v>
       </c>
       <c r="B104" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C104" s="3">
         <v>300</v>
@@ -4306,7 +4306,7 @@
         <v>267</v>
       </c>
       <c r="B117" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C117" s="3">
         <v>350</v>
@@ -5462,7 +5462,7 @@
         <v>119</v>
       </c>
       <c r="B185" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C185" s="3">
         <v>350</v>
@@ -5615,7 +5615,7 @@
         <v>550</v>
       </c>
       <c r="B194" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C194" s="3">
         <v>250</v>
@@ -7060,7 +7060,7 @@
         <v>345</v>
       </c>
       <c r="B279" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C279" s="6">
         <v>800</v>

--- a/data/stock.xlsx
+++ b/data/stock.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\blocks\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6603D2A0-019F-4E0F-A297-D407074AF46F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B13AD325-58FB-4FA9-8913-EA33E3C07E4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1140" yWindow="2595" windowWidth="21600" windowHeight="11250" xr2:uid="{FC0CBB84-858B-49F6-BA69-44D83C89F7C4}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="587">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="588">
   <si>
     <t>Product</t>
   </si>
@@ -1795,6 +1795,9 @@
   </si>
   <si>
     <t>Zoro [Wano]</t>
+  </si>
+  <si>
+    <t>Minato [Reincarnated]</t>
   </si>
 </sst>
 </file>
@@ -2318,8 +2321,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCDC9875-9E8E-485C-910E-47B83A1F9902}">
   <dimension ref="A1:E300"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A166" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B195" sqref="B195"/>
+    <sheetView tabSelected="1" topLeftCell="A187" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B193" sqref="B193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5272,10 +5275,10 @@
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
-        <v>112</v>
+        <v>587</v>
       </c>
       <c r="B174" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C174" s="3">
         <v>220</v>
@@ -5547,7 +5550,7 @@
         <v>554</v>
       </c>
       <c r="B190" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C190" s="3">
         <v>220</v>
@@ -5564,7 +5567,7 @@
         <v>553</v>
       </c>
       <c r="B191" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C191" s="3">
         <v>220</v>
@@ -5581,7 +5584,7 @@
         <v>552</v>
       </c>
       <c r="B192" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C192" s="3">
         <v>220</v>

--- a/data/stock.xlsx
+++ b/data/stock.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\blocks\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B13AD325-58FB-4FA9-8913-EA33E3C07E4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3C0A06D-9D95-4865-9F39-8C0274176693}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1140" yWindow="2595" windowWidth="21600" windowHeight="11250" xr2:uid="{FC0CBB84-858B-49F6-BA69-44D83C89F7C4}"/>
   </bookViews>
@@ -2321,8 +2321,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCDC9875-9E8E-485C-910E-47B83A1F9902}">
   <dimension ref="A1:E300"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A187" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B193" sqref="B193"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B70" sqref="B70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3510,7 +3510,7 @@
         <v>34</v>
       </c>
       <c r="B70" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C70" s="3">
         <v>250</v>
@@ -3697,7 +3697,7 @@
         <v>41</v>
       </c>
       <c r="B81" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C81" s="3">
         <v>350</v>
@@ -3731,7 +3731,7 @@
         <v>435</v>
       </c>
       <c r="B83" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C83" s="3">
         <v>220</v>
@@ -3765,7 +3765,7 @@
         <v>433</v>
       </c>
       <c r="B85" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C85" s="6">
         <v>200</v>
@@ -3901,7 +3901,7 @@
         <v>46</v>
       </c>
       <c r="B93" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C93" s="3">
         <v>500</v>
@@ -3918,7 +3918,7 @@
         <v>563</v>
       </c>
       <c r="B94" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C94" s="3">
         <v>500</v>

--- a/data/stock.xlsx
+++ b/data/stock.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\blocks\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3C0A06D-9D95-4865-9F39-8C0274176693}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ABDC058-A8BD-486C-8DC5-CEB77A6DF8AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1140" yWindow="2595" windowWidth="21600" windowHeight="11250" xr2:uid="{FC0CBB84-858B-49F6-BA69-44D83C89F7C4}"/>
   </bookViews>
@@ -2321,8 +2321,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCDC9875-9E8E-485C-910E-47B83A1F9902}">
   <dimension ref="A1:E300"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B70" sqref="B70"/>
+    <sheetView tabSelected="1" topLeftCell="A85" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B87" sqref="B87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3782,7 +3782,7 @@
         <v>437</v>
       </c>
       <c r="B86" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C86" s="3">
         <v>220</v>
@@ -3833,7 +3833,7 @@
         <v>434</v>
       </c>
       <c r="B89" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C89" s="3">
         <v>220</v>

--- a/data/stock.xlsx
+++ b/data/stock.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\blocks\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ABDC058-A8BD-486C-8DC5-CEB77A6DF8AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97E7D735-867D-430D-BC51-498ECD2CB397}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1140" yWindow="2595" windowWidth="21600" windowHeight="11250" xr2:uid="{FC0CBB84-858B-49F6-BA69-44D83C89F7C4}"/>
   </bookViews>
@@ -2321,8 +2321,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCDC9875-9E8E-485C-910E-47B83A1F9902}">
   <dimension ref="A1:E300"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B87" sqref="B87"/>
+    <sheetView tabSelected="1" topLeftCell="A232" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B245" sqref="B245"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3000,7 +3000,7 @@
         <v>26</v>
       </c>
       <c r="B40" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C40" s="3">
         <v>380</v>
@@ -3527,7 +3527,7 @@
         <v>404</v>
       </c>
       <c r="B71" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C71" s="3">
         <v>250</v>
@@ -3561,7 +3561,7 @@
         <v>408</v>
       </c>
       <c r="B73" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C73" s="3">
         <v>250</v>
@@ -6298,7 +6298,7 @@
         <v>448</v>
       </c>
       <c r="B234" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C234" s="3">
         <v>250</v>
@@ -6332,7 +6332,7 @@
         <v>450</v>
       </c>
       <c r="B236" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C236" s="3">
         <v>220</v>
@@ -6485,7 +6485,7 @@
         <v>575</v>
       </c>
       <c r="B245" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C245" s="3">
         <v>250</v>

--- a/data/stock.xlsx
+++ b/data/stock.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\blocks\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97E7D735-867D-430D-BC51-498ECD2CB397}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70B3A4A6-2E23-4AB0-8D4E-BD84348BA9EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="2595" windowWidth="21600" windowHeight="11250" xr2:uid="{FC0CBB84-858B-49F6-BA69-44D83C89F7C4}"/>
+    <workbookView xWindow="4155" yWindow="1785" windowWidth="21600" windowHeight="11250" xr2:uid="{FC0CBB84-858B-49F6-BA69-44D83C89F7C4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2321,8 +2321,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCDC9875-9E8E-485C-910E-47B83A1F9902}">
   <dimension ref="A1:E300"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A232" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B245" sqref="B245"/>
+    <sheetView tabSelected="1" topLeftCell="A280" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B281" sqref="B281"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7097,7 +7097,7 @@
         <v>357</v>
       </c>
       <c r="B281" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C281" s="6">
         <v>150</v>

--- a/data/stock.xlsx
+++ b/data/stock.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\blocks\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70B3A4A6-2E23-4AB0-8D4E-BD84348BA9EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F29A939E-E9A5-4B6C-838C-1B3601799E02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4155" yWindow="1785" windowWidth="21600" windowHeight="11250" xr2:uid="{FC0CBB84-858B-49F6-BA69-44D83C89F7C4}"/>
   </bookViews>
@@ -2321,8 +2321,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCDC9875-9E8E-485C-910E-47B83A1F9902}">
   <dimension ref="A1:E300"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A280" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B281" sqref="B281"/>
+    <sheetView tabSelected="1" topLeftCell="A214" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C217" sqref="C217:C232"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6012,7 +6012,7 @@
         <v>3</v>
       </c>
       <c r="C217" s="3">
-        <v>250</v>
+        <v>265</v>
       </c>
       <c r="D217" s="2" t="s">
         <v>319</v>
@@ -6029,7 +6029,7 @@
         <v>3</v>
       </c>
       <c r="C218" s="3">
-        <v>250</v>
+        <v>265</v>
       </c>
       <c r="D218" s="2" t="s">
         <v>320</v>
@@ -6046,7 +6046,7 @@
         <v>1</v>
       </c>
       <c r="C219" s="3">
-        <v>250</v>
+        <v>265</v>
       </c>
       <c r="D219" s="2" t="s">
         <v>321</v>
@@ -6063,7 +6063,7 @@
         <v>1</v>
       </c>
       <c r="C220" s="3">
-        <v>250</v>
+        <v>265</v>
       </c>
       <c r="D220" s="2" t="s">
         <v>322</v>
@@ -6080,7 +6080,7 @@
         <v>2</v>
       </c>
       <c r="C221" s="3">
-        <v>250</v>
+        <v>265</v>
       </c>
       <c r="D221" s="2" t="s">
         <v>323</v>
@@ -6097,7 +6097,7 @@
         <v>2</v>
       </c>
       <c r="C222" s="3">
-        <v>250</v>
+        <v>265</v>
       </c>
       <c r="D222" s="2" t="s">
         <v>324</v>
@@ -6114,7 +6114,7 @@
         <v>1</v>
       </c>
       <c r="C223" s="3">
-        <v>250</v>
+        <v>265</v>
       </c>
       <c r="D223" s="2" t="s">
         <v>325</v>
@@ -6131,7 +6131,7 @@
         <v>0</v>
       </c>
       <c r="C224" s="3">
-        <v>250</v>
+        <v>265</v>
       </c>
       <c r="D224" s="2" t="s">
         <v>148</v>
@@ -6148,7 +6148,7 @@
         <v>2</v>
       </c>
       <c r="C225" s="3">
-        <v>250</v>
+        <v>265</v>
       </c>
       <c r="D225" s="2" t="s">
         <v>326</v>
@@ -6165,7 +6165,7 @@
         <v>0</v>
       </c>
       <c r="C226" s="3">
-        <v>250</v>
+        <v>265</v>
       </c>
       <c r="D226" s="2" t="s">
         <v>148</v>
@@ -6182,7 +6182,7 @@
         <v>1</v>
       </c>
       <c r="C227" s="3">
-        <v>250</v>
+        <v>265</v>
       </c>
       <c r="D227" s="2" t="s">
         <v>327</v>
@@ -6199,7 +6199,7 @@
         <v>2</v>
       </c>
       <c r="C228" s="3">
-        <v>250</v>
+        <v>265</v>
       </c>
       <c r="D228" s="2" t="s">
         <v>328</v>
@@ -6216,7 +6216,7 @@
         <v>1</v>
       </c>
       <c r="C229" s="3">
-        <v>250</v>
+        <v>265</v>
       </c>
       <c r="D229" s="2" t="s">
         <v>329</v>
@@ -6233,7 +6233,7 @@
         <v>2</v>
       </c>
       <c r="C230" s="3">
-        <v>250</v>
+        <v>265</v>
       </c>
       <c r="D230" s="2" t="s">
         <v>330</v>
@@ -6250,7 +6250,7 @@
         <v>0</v>
       </c>
       <c r="C231" s="3">
-        <v>250</v>
+        <v>265</v>
       </c>
       <c r="D231" s="2" t="s">
         <v>148</v>
@@ -6267,7 +6267,7 @@
         <v>0</v>
       </c>
       <c r="C232" s="3">
-        <v>250</v>
+        <v>265</v>
       </c>
       <c r="D232" s="2" t="s">
         <v>148</v>

--- a/data/stock.xlsx
+++ b/data/stock.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\blocks\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F29A939E-E9A5-4B6C-838C-1B3601799E02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96154105-027B-4417-9D23-508B1D67E33B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4155" yWindow="1785" windowWidth="21600" windowHeight="11250" xr2:uid="{FC0CBB84-858B-49F6-BA69-44D83C89F7C4}"/>
   </bookViews>
@@ -2321,8 +2321,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCDC9875-9E8E-485C-910E-47B83A1F9902}">
   <dimension ref="A1:E300"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A214" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C217" sqref="C217:C232"/>
+    <sheetView tabSelected="1" topLeftCell="A274" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B284" sqref="B284"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3391,7 +3391,7 @@
         <v>416</v>
       </c>
       <c r="B63" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C63" s="3">
         <v>250</v>
@@ -7114,7 +7114,7 @@
         <v>358</v>
       </c>
       <c r="B282" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C282" s="6">
         <v>150</v>
@@ -7131,7 +7131,7 @@
         <v>359</v>
       </c>
       <c r="B283" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C283" s="6">
         <v>150</v>
@@ -7148,7 +7148,7 @@
         <v>360</v>
       </c>
       <c r="B284" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C284" s="6">
         <v>150</v>

--- a/data/stock.xlsx
+++ b/data/stock.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\blocks\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96154105-027B-4417-9D23-508B1D67E33B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C679076-2CB1-4CC3-A378-09774BD83A9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4155" yWindow="1785" windowWidth="21600" windowHeight="11250" xr2:uid="{FC0CBB84-858B-49F6-BA69-44D83C89F7C4}"/>
+    <workbookView xWindow="3690" yWindow="2010" windowWidth="21600" windowHeight="11250" xr2:uid="{FC0CBB84-858B-49F6-BA69-44D83C89F7C4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2321,8 +2321,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCDC9875-9E8E-485C-910E-47B83A1F9902}">
   <dimension ref="A1:E300"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A274" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B284" sqref="B284"/>
+    <sheetView tabSelected="1" topLeftCell="A214" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B219" sqref="B219"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6026,7 +6026,7 @@
         <v>131</v>
       </c>
       <c r="B218" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C218" s="3">
         <v>265</v>
@@ -6043,7 +6043,7 @@
         <v>560</v>
       </c>
       <c r="B219" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C219" s="3">
         <v>265</v>
@@ -6060,7 +6060,7 @@
         <v>132</v>
       </c>
       <c r="B220" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C220" s="3">
         <v>265</v>
@@ -6230,7 +6230,7 @@
         <v>561</v>
       </c>
       <c r="B230" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C230" s="3">
         <v>265</v>

--- a/data/stock.xlsx
+++ b/data/stock.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\blocks\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C679076-2CB1-4CC3-A378-09774BD83A9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D669157-C7C2-4D3E-BB83-CDE487FE56FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3690" yWindow="2010" windowWidth="21600" windowHeight="11250" xr2:uid="{FC0CBB84-858B-49F6-BA69-44D83C89F7C4}"/>
   </bookViews>
@@ -2321,8 +2321,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCDC9875-9E8E-485C-910E-47B83A1F9902}">
   <dimension ref="A1:E300"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A214" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B219" sqref="B219"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3000,7 +3000,7 @@
         <v>26</v>
       </c>
       <c r="B40" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C40" s="3">
         <v>380</v>

--- a/data/stock.xlsx
+++ b/data/stock.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\blocks\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D669157-C7C2-4D3E-BB83-CDE487FE56FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F7F046E-4731-4785-8734-F7C4072D5888}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3690" yWindow="2010" windowWidth="21600" windowHeight="11250" xr2:uid="{FC0CBB84-858B-49F6-BA69-44D83C89F7C4}"/>
   </bookViews>
@@ -2321,8 +2321,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCDC9875-9E8E-485C-910E-47B83A1F9902}">
   <dimension ref="A1:E300"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3170,7 +3170,7 @@
         <v>33</v>
       </c>
       <c r="B50" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C50" s="3">
         <v>250</v>

--- a/data/stock.xlsx
+++ b/data/stock.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\blocks\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F7F046E-4731-4785-8734-F7C4072D5888}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07247D17-4F1A-4644-A339-9A65B0B51625}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3690" yWindow="2010" windowWidth="21600" windowHeight="11250" xr2:uid="{FC0CBB84-858B-49F6-BA69-44D83C89F7C4}"/>
   </bookViews>
@@ -2321,8 +2321,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCDC9875-9E8E-485C-910E-47B83A1F9902}">
   <dimension ref="A1:E300"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+    <sheetView tabSelected="1" topLeftCell="A63" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B69" sqref="B69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2524,7 +2524,7 @@
         <v>401</v>
       </c>
       <c r="B12" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C12" s="3">
         <v>250</v>
@@ -2609,7 +2609,7 @@
         <v>275</v>
       </c>
       <c r="B17" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17" s="3">
         <v>250</v>
@@ -3476,7 +3476,7 @@
         <v>38</v>
       </c>
       <c r="B68" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C68" s="3">
         <v>180</v>
@@ -3493,7 +3493,7 @@
         <v>406</v>
       </c>
       <c r="B69" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C69" s="3">
         <v>250</v>

--- a/data/stock.xlsx
+++ b/data/stock.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\blocks\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07247D17-4F1A-4644-A339-9A65B0B51625}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66A580F0-4C3C-4B0E-B14C-595BA3C77B0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3690" yWindow="2010" windowWidth="21600" windowHeight="11250" xr2:uid="{FC0CBB84-858B-49F6-BA69-44D83C89F7C4}"/>
   </bookViews>
@@ -2321,8 +2321,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCDC9875-9E8E-485C-910E-47B83A1F9902}">
   <dimension ref="A1:E300"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B69" sqref="B69"/>
+    <sheetView tabSelected="1" topLeftCell="A288" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B299" sqref="B299"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7403,7 +7403,7 @@
         <v>567</v>
       </c>
       <c r="B299" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C299" s="6">
         <v>1200</v>

--- a/data/stock.xlsx
+++ b/data/stock.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\blocks\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66A580F0-4C3C-4B0E-B14C-595BA3C77B0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2932C7CA-910A-49C9-AC50-5DF9A7897E80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3690" yWindow="2010" windowWidth="21600" windowHeight="11250" xr2:uid="{FC0CBB84-858B-49F6-BA69-44D83C89F7C4}"/>
   </bookViews>
@@ -2321,8 +2321,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCDC9875-9E8E-485C-910E-47B83A1F9902}">
   <dimension ref="A1:E300"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A288" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B299" sqref="B299"/>
+    <sheetView tabSelected="1" topLeftCell="A257" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B271" sqref="B271"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6808,7 +6808,7 @@
         <v>503</v>
       </c>
       <c r="B264" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C264" s="6">
         <v>300</v>
@@ -6825,7 +6825,7 @@
         <v>504</v>
       </c>
       <c r="B265" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C265" s="6">
         <v>300</v>
@@ -6842,7 +6842,7 @@
         <v>505</v>
       </c>
       <c r="B266" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C266" s="6">
         <v>300</v>
@@ -6859,7 +6859,7 @@
         <v>506</v>
       </c>
       <c r="B267" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C267" s="6">
         <v>300</v>
@@ -6876,7 +6876,7 @@
         <v>507</v>
       </c>
       <c r="B268" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C268" s="6">
         <v>300</v>
@@ -6927,7 +6927,7 @@
         <v>510</v>
       </c>
       <c r="B271" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C271" s="6">
         <v>300</v>

--- a/data/stock.xlsx
+++ b/data/stock.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\blocks\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2932C7CA-910A-49C9-AC50-5DF9A7897E80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FBB16F6-F71E-4A8A-B90D-CAC1361C4C97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3690" yWindow="2010" windowWidth="21600" windowHeight="11250" xr2:uid="{FC0CBB84-858B-49F6-BA69-44D83C89F7C4}"/>
   </bookViews>
@@ -2321,8 +2321,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCDC9875-9E8E-485C-910E-47B83A1F9902}">
   <dimension ref="A1:E300"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A257" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B271" sqref="B271"/>
+    <sheetView tabSelected="1" topLeftCell="A223" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B246" sqref="B246"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2898,7 +2898,7 @@
         <v>539</v>
       </c>
       <c r="B34" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C34" s="3">
         <v>180</v>
@@ -3884,7 +3884,7 @@
         <v>45</v>
       </c>
       <c r="B92" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C92" s="3">
         <v>350</v>
@@ -5244,7 +5244,7 @@
         <v>110</v>
       </c>
       <c r="B172" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C172" s="3">
         <v>220</v>
@@ -5839,7 +5839,7 @@
         <v>555</v>
       </c>
       <c r="B207" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C207" s="3">
         <v>400</v>
@@ -6281,7 +6281,7 @@
         <v>447</v>
       </c>
       <c r="B233" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C233" s="3">
         <v>250</v>
@@ -6298,7 +6298,7 @@
         <v>448</v>
       </c>
       <c r="B234" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C234" s="3">
         <v>250</v>
@@ -6502,7 +6502,7 @@
         <v>576</v>
       </c>
       <c r="B246" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C246" s="3">
         <v>250</v>

--- a/data/stock.xlsx
+++ b/data/stock.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\blocks\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FBB16F6-F71E-4A8A-B90D-CAC1361C4C97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48DBF7F9-C4C3-4015-A6F1-C377CD1B211C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3690" yWindow="2010" windowWidth="21600" windowHeight="11250" xr2:uid="{FC0CBB84-858B-49F6-BA69-44D83C89F7C4}"/>
   </bookViews>
@@ -2321,8 +2321,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCDC9875-9E8E-485C-910E-47B83A1F9902}">
   <dimension ref="A1:E300"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A223" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B246" sqref="B246"/>
+    <sheetView tabSelected="1" topLeftCell="A220" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B228" sqref="B228"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6196,7 +6196,7 @@
         <v>140</v>
       </c>
       <c r="B228" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C228" s="3">
         <v>265</v>
@@ -6230,7 +6230,7 @@
         <v>561</v>
       </c>
       <c r="B230" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C230" s="3">
         <v>265</v>

--- a/data/stock.xlsx
+++ b/data/stock.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\blocks\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48DBF7F9-C4C3-4015-A6F1-C377CD1B211C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0F4CBEC-2969-40D5-9580-05A78018A610}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3690" yWindow="2010" windowWidth="21600" windowHeight="11250" xr2:uid="{FC0CBB84-858B-49F6-BA69-44D83C89F7C4}"/>
   </bookViews>
@@ -2321,8 +2321,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCDC9875-9E8E-485C-910E-47B83A1F9902}">
   <dimension ref="A1:E300"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A220" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B228" sqref="B228"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B70" sqref="B70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3510,7 +3510,7 @@
         <v>34</v>
       </c>
       <c r="B70" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C70" s="3">
         <v>250</v>
@@ -3748,7 +3748,7 @@
         <v>436</v>
       </c>
       <c r="B84" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C84" s="3">
         <v>220</v>

--- a/data/stock.xlsx
+++ b/data/stock.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\blocks\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0F4CBEC-2969-40D5-9580-05A78018A610}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E07E537B-D6D2-427D-8236-80BCD3869DFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3690" yWindow="2010" windowWidth="21600" windowHeight="11250" xr2:uid="{FC0CBB84-858B-49F6-BA69-44D83C89F7C4}"/>
   </bookViews>
@@ -2321,8 +2321,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCDC9875-9E8E-485C-910E-47B83A1F9902}">
   <dimension ref="A1:E300"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B70" sqref="B70"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B65" sqref="B65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3425,7 +3425,7 @@
         <v>417</v>
       </c>
       <c r="B65" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C65" s="3">
         <v>250</v>

--- a/data/stock.xlsx
+++ b/data/stock.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\blocks\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E07E537B-D6D2-427D-8236-80BCD3869DFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F7F61C1-BCDC-42DA-BDC6-AB3292A5E55E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3690" yWindow="2010" windowWidth="21600" windowHeight="11250" xr2:uid="{FC0CBB84-858B-49F6-BA69-44D83C89F7C4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FC0CBB84-858B-49F6-BA69-44D83C89F7C4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="588">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="938" uniqueCount="612">
   <si>
     <t>Product</t>
   </si>
@@ -189,9 +189,6 @@
     <t>Blackbeard</t>
   </si>
   <si>
-    <t>Whitebeard</t>
-  </si>
-  <si>
     <t>Sanji (dy) red</t>
   </si>
   <si>
@@ -1798,6 +1795,81 @@
   </si>
   <si>
     <t>Minato [Reincarnated]</t>
+  </si>
+  <si>
+    <t>Whitebeard XINH</t>
+  </si>
+  <si>
+    <t>Whitebeard WM</t>
+  </si>
+  <si>
+    <t>Kaidou WM</t>
+  </si>
+  <si>
+    <t>whitebeard wm.jpg</t>
+  </si>
+  <si>
+    <t>kaidou wm.jpg</t>
+  </si>
+  <si>
+    <t>Cell</t>
+  </si>
+  <si>
+    <t>Goku Unleashed</t>
+  </si>
+  <si>
+    <t>Vegeta Unleashed</t>
+  </si>
+  <si>
+    <t>majin buu baby.jpg</t>
+  </si>
+  <si>
+    <t>cell.jpg</t>
+  </si>
+  <si>
+    <t>goku unleashed.jpg</t>
+  </si>
+  <si>
+    <t>vegeta unleashed.jpg</t>
+  </si>
+  <si>
+    <t>Mister Fanstastic</t>
+  </si>
+  <si>
+    <t>Invisible woman</t>
+  </si>
+  <si>
+    <t>The Thing</t>
+  </si>
+  <si>
+    <t>Human torch</t>
+  </si>
+  <si>
+    <t>Dr. Doom</t>
+  </si>
+  <si>
+    <t>Silver Surfer female</t>
+  </si>
+  <si>
+    <t>mister fantastic.jpg</t>
+  </si>
+  <si>
+    <t>invi woman.jpg</t>
+  </si>
+  <si>
+    <t>thing.jpg</t>
+  </si>
+  <si>
+    <t>human torch.jpg</t>
+  </si>
+  <si>
+    <t>drdoom.jpg</t>
+  </si>
+  <si>
+    <t>fem silver surfer.jpg</t>
+  </si>
+  <si>
+    <t>Majin buu baby</t>
   </si>
 </sst>
 </file>
@@ -2319,10 +2391,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCDC9875-9E8E-485C-910E-47B83A1F9902}">
-  <dimension ref="A1:E300"/>
+  <dimension ref="A1:E312"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B65" sqref="B65"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A287" sqref="A287"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2350,102 +2422,102 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>5</v>
+      <c r="A2" s="2" t="s">
+        <v>599</v>
       </c>
       <c r="B2" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C2" s="3">
-        <v>220</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>144</v>
+        <v>250</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>605</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>545</v>
+      <c r="A3" s="2" t="s">
+        <v>600</v>
       </c>
       <c r="B3" s="3">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C3" s="3">
-        <v>220</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>145</v>
+        <v>250</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>606</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>535</v>
+      <c r="A4" s="2" t="s">
+        <v>601</v>
       </c>
       <c r="B4" s="3">
         <v>2</v>
       </c>
       <c r="C4" s="3">
-        <v>350</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>146</v>
+        <v>250</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>607</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>7</v>
+      <c r="A5" s="2" t="s">
+        <v>602</v>
       </c>
       <c r="B5" s="3">
         <v>2</v>
       </c>
       <c r="C5" s="3">
-        <v>180</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>147</v>
+        <v>250</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>608</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>8</v>
+      <c r="A6" s="2" t="s">
+        <v>603</v>
       </c>
       <c r="B6" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C6" s="3">
-        <v>180</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>148</v>
+        <v>250</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>609</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>536</v>
+      <c r="A7" s="2" t="s">
+        <v>604</v>
       </c>
       <c r="B7" s="3">
         <v>2</v>
       </c>
       <c r="C7" s="3">
-        <v>200</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>211</v>
+        <v>250</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>610</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>6</v>
@@ -2453,16 +2525,16 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B8" s="3">
         <v>0</v>
       </c>
       <c r="C8" s="3">
-        <v>180</v>
+        <v>220</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>6</v>
@@ -2470,16 +2542,16 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>544</v>
       </c>
       <c r="B9" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C9" s="3">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>6</v>
@@ -2487,16 +2559,16 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>546</v>
+        <v>534</v>
       </c>
       <c r="B10" s="3">
         <v>2</v>
       </c>
       <c r="C10" s="3">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>276</v>
+        <v>145</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>6</v>
@@ -2504,16 +2576,16 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>271</v>
+        <v>7</v>
       </c>
       <c r="B11" s="3">
         <v>2</v>
       </c>
       <c r="C11" s="3">
-        <v>250</v>
+        <v>180</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>277</v>
+        <v>146</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>6</v>
@@ -2521,16 +2593,16 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>401</v>
+        <v>8</v>
       </c>
       <c r="B12" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C12" s="3">
-        <v>250</v>
+        <v>180</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>400</v>
+        <v>147</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>6</v>
@@ -2538,16 +2610,16 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>272</v>
+        <v>535</v>
       </c>
       <c r="B13" s="3">
         <v>2</v>
       </c>
       <c r="C13" s="3">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>279</v>
+        <v>210</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>6</v>
@@ -2555,16 +2627,16 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>273</v>
+        <v>9</v>
       </c>
       <c r="B14" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C14" s="3">
-        <v>250</v>
+        <v>180</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>280</v>
+        <v>147</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>6</v>
@@ -2572,16 +2644,16 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>398</v>
+        <v>10</v>
       </c>
       <c r="B15" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15" s="3">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>399</v>
+        <v>147</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>6</v>
@@ -2589,16 +2661,16 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>274</v>
+        <v>545</v>
       </c>
       <c r="B16" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C16" s="3">
         <v>250</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>6</v>
@@ -2606,16 +2678,16 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="B17" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C17" s="3">
         <v>250</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>6</v>
@@ -2623,7 +2695,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B18" s="3">
         <v>2</v>
@@ -2632,7 +2704,7 @@
         <v>250</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>6</v>
@@ -2640,16 +2712,16 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>11</v>
+        <v>271</v>
       </c>
       <c r="B19" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C19" s="3">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>245</v>
+        <v>278</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>6</v>
@@ -2657,16 +2729,16 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>12</v>
+        <v>272</v>
       </c>
       <c r="B20" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C20" s="3">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>148</v>
+        <v>279</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>6</v>
@@ -2674,16 +2746,16 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>13</v>
+        <v>397</v>
       </c>
       <c r="B21" s="3">
         <v>1</v>
       </c>
       <c r="C21" s="3">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>246</v>
+        <v>398</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>6</v>
@@ -2691,16 +2763,16 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>14</v>
+        <v>273</v>
       </c>
       <c r="B22" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C22" s="3">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>247</v>
+        <v>277</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>6</v>
@@ -2708,16 +2780,16 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>15</v>
+        <v>274</v>
       </c>
       <c r="B23" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C23" s="3">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>248</v>
+        <v>280</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>6</v>
@@ -2725,16 +2797,16 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>16</v>
+        <v>401</v>
       </c>
       <c r="B24" s="3">
         <v>2</v>
       </c>
       <c r="C24" s="3">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>249</v>
+        <v>402</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>6</v>
@@ -2742,7 +2814,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B25" s="3">
         <v>1</v>
@@ -2751,7 +2823,7 @@
         <v>220</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>6</v>
@@ -2759,7 +2831,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B26" s="3">
         <v>0</v>
@@ -2768,7 +2840,7 @@
         <v>220</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>6</v>
@@ -2776,16 +2848,16 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B27" s="3">
         <v>1</v>
       </c>
       <c r="C27" s="3">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>212</v>
+        <v>245</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>6</v>
@@ -2793,16 +2865,16 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B28" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C28" s="3">
         <v>220</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>149</v>
+        <v>246</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>6</v>
@@ -2810,16 +2882,16 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B29" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C29" s="3">
-        <v>180</v>
+        <v>220</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>150</v>
+        <v>247</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>6</v>
@@ -2827,16 +2899,16 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B30" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C30" s="3">
-        <v>180</v>
+        <v>220</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>214</v>
+        <v>248</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>6</v>
@@ -2844,16 +2916,16 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B31" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C31" s="3">
-        <v>180</v>
+        <v>220</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>148</v>
+        <v>249</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>6</v>
@@ -2861,16 +2933,16 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>537</v>
+        <v>18</v>
       </c>
       <c r="B32" s="3">
         <v>0</v>
       </c>
       <c r="C32" s="3">
-        <v>180</v>
+        <v>220</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>6</v>
@@ -2878,16 +2950,16 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>538</v>
+        <v>19</v>
       </c>
       <c r="B33" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C33" s="3">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>148</v>
+        <v>211</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>6</v>
@@ -2895,16 +2967,16 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>539</v>
+        <v>20</v>
       </c>
       <c r="B34" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C34" s="3">
-        <v>180</v>
+        <v>220</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>213</v>
+        <v>148</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>6</v>
@@ -2912,16 +2984,16 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B35" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C35" s="3">
         <v>180</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>215</v>
+        <v>149</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>6</v>
@@ -2929,16 +3001,16 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>540</v>
+        <v>22</v>
       </c>
       <c r="B36" s="3">
         <v>0</v>
       </c>
       <c r="C36" s="3">
-        <v>270</v>
+        <v>180</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>6</v>
@@ -2946,16 +3018,16 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>541</v>
+        <v>23</v>
       </c>
       <c r="B37" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C37" s="3">
-        <v>270</v>
+        <v>180</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>6</v>
@@ -2963,16 +3035,16 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="B38" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C38" s="3">
-        <v>270</v>
+        <v>180</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>217</v>
+        <v>147</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>6</v>
@@ -2980,16 +3052,16 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>25</v>
+        <v>537</v>
       </c>
       <c r="B39" s="3">
         <v>0</v>
       </c>
       <c r="C39" s="3">
-        <v>450</v>
+        <v>180</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>218</v>
+        <v>147</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>6</v>
@@ -2997,16 +3069,16 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>26</v>
+        <v>538</v>
       </c>
       <c r="B40" s="3">
         <v>0</v>
       </c>
       <c r="C40" s="3">
-        <v>380</v>
+        <v>180</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>153</v>
+        <v>212</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>6</v>
@@ -3014,16 +3086,16 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B41" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C41" s="3">
-        <v>800</v>
+        <v>180</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>155</v>
+        <v>214</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>6</v>
@@ -3031,7 +3103,7 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>28</v>
+        <v>539</v>
       </c>
       <c r="B42" s="3">
         <v>0</v>
@@ -3040,7 +3112,7 @@
         <v>270</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>251</v>
+        <v>215</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>6</v>
@@ -3048,16 +3120,16 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>29</v>
+        <v>540</v>
       </c>
       <c r="B43" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C43" s="3">
         <v>270</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>6</v>
@@ -3065,7 +3137,7 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>30</v>
+        <v>541</v>
       </c>
       <c r="B44" s="3">
         <v>2</v>
@@ -3074,7 +3146,7 @@
         <v>270</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>252</v>
+        <v>216</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>6</v>
@@ -3082,16 +3154,16 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>543</v>
+        <v>25</v>
       </c>
       <c r="B45" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C45" s="3">
-        <v>250</v>
-      </c>
-      <c r="D45" s="8" t="s">
-        <v>422</v>
+        <v>450</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>217</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>6</v>
@@ -3099,16 +3171,16 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B46" s="3">
         <v>0</v>
       </c>
       <c r="C46" s="3">
-        <v>850</v>
+        <v>380</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E46" s="3" t="s">
         <v>6</v>
@@ -3116,16 +3188,16 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>301</v>
+        <v>27</v>
       </c>
       <c r="B47" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C47" s="3">
-        <v>250</v>
+        <v>800</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>181</v>
+        <v>154</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>6</v>
@@ -3133,16 +3205,16 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>302</v>
+        <v>28</v>
       </c>
       <c r="B48" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C48" s="3">
+        <v>270</v>
+      </c>
+      <c r="D48" s="2" t="s">
         <v>250</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>219</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>6</v>
@@ -3150,16 +3222,16 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B49" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C49" s="3">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>220</v>
+        <v>147</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>6</v>
@@ -3167,16 +3239,16 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B50" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C50" s="3">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>221</v>
+        <v>251</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>6</v>
@@ -3184,16 +3256,16 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>304</v>
+        <v>542</v>
       </c>
       <c r="B51" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C51" s="3">
         <v>250</v>
       </c>
-      <c r="D51" s="2" t="s">
-        <v>152</v>
+      <c r="D51" s="8" t="s">
+        <v>421</v>
       </c>
       <c r="E51" s="3" t="s">
         <v>6</v>
@@ -3201,16 +3273,16 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>303</v>
+        <v>31</v>
       </c>
       <c r="B52" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C52" s="3">
-        <v>250</v>
+        <v>850</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>207</v>
+        <v>153</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>6</v>
@@ -3218,16 +3290,16 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>547</v>
+        <v>300</v>
       </c>
       <c r="B53" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C53" s="3">
         <v>250</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E53" s="3" t="s">
         <v>6</v>
@@ -3235,16 +3307,16 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="B54" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C54" s="3">
-        <v>360</v>
+        <v>250</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>253</v>
+        <v>218</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>6</v>
@@ -3252,16 +3324,16 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>306</v>
+        <v>32</v>
       </c>
       <c r="B55" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C55" s="3">
-        <v>360</v>
+        <v>250</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>254</v>
+        <v>219</v>
       </c>
       <c r="E55" s="3" t="s">
         <v>6</v>
@@ -3269,50 +3341,50 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>222</v>
+        <v>33</v>
       </c>
       <c r="B56" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C56" s="3">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="E56" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="7" t="s">
-        <v>544</v>
+      <c r="A57" s="1" t="s">
+        <v>303</v>
       </c>
       <c r="B57" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C57" s="3">
-        <v>260</v>
-      </c>
-      <c r="D57" s="8" t="s">
-        <v>423</v>
+        <v>250</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>151</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="7" t="s">
-        <v>419</v>
+      <c r="A58" s="1" t="s">
+        <v>302</v>
       </c>
       <c r="B58" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C58" s="3">
-        <v>260</v>
-      </c>
-      <c r="D58" s="8" t="s">
-        <v>424</v>
+        <v>250</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>206</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>6</v>
@@ -3320,16 +3392,16 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>414</v>
+        <v>546</v>
       </c>
       <c r="B59" s="3">
         <v>1</v>
       </c>
       <c r="C59" s="3">
-        <v>260</v>
-      </c>
-      <c r="D59" s="8" t="s">
-        <v>426</v>
+        <v>250</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>181</v>
       </c>
       <c r="E59" s="3" t="s">
         <v>6</v>
@@ -3337,67 +3409,67 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>415</v>
+        <v>304</v>
       </c>
       <c r="B60" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C60" s="3">
-        <v>260</v>
-      </c>
-      <c r="D60" s="8" t="s">
-        <v>427</v>
+        <v>360</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>252</v>
       </c>
       <c r="E60" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="7" t="s">
-        <v>420</v>
+      <c r="A61" s="1" t="s">
+        <v>305</v>
       </c>
       <c r="B61" s="3">
         <v>1</v>
       </c>
       <c r="C61" s="3">
-        <v>220</v>
-      </c>
-      <c r="D61" s="8" t="s">
-        <v>428</v>
+        <v>360</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>253</v>
       </c>
       <c r="E61" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="7" t="s">
-        <v>421</v>
+      <c r="A62" s="1" t="s">
+        <v>221</v>
       </c>
       <c r="B62" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C62" s="3">
-        <v>250</v>
-      </c>
-      <c r="D62" s="8" t="s">
-        <v>148</v>
+        <v>200</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>222</v>
       </c>
       <c r="E62" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
-        <v>416</v>
+      <c r="A63" s="7" t="s">
+        <v>543</v>
       </c>
       <c r="B63" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C63" s="3">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="E63" s="3" t="s">
         <v>6</v>
@@ -3405,16 +3477,16 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="7" t="s">
-        <v>565</v>
+        <v>418</v>
       </c>
       <c r="B64" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C64" s="3">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="E64" s="3" t="s">
         <v>6</v>
@@ -3422,13 +3494,13 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="B65" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C65" s="3">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="D65" s="8" t="s">
         <v>425</v>
@@ -3438,93 +3510,93 @@
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="7" t="s">
-        <v>564</v>
+      <c r="A66" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="B66" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C66" s="3">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="E66" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
-        <v>418</v>
+      <c r="A67" s="7" t="s">
+        <v>419</v>
       </c>
       <c r="B67" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C67" s="3">
         <v>220</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="E67" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
-        <v>38</v>
+      <c r="A68" s="7" t="s">
+        <v>420</v>
       </c>
       <c r="B68" s="3">
         <v>0</v>
       </c>
       <c r="C68" s="3">
-        <v>180</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>224</v>
+        <v>250</v>
+      </c>
+      <c r="D68" s="8" t="s">
+        <v>147</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>35</v>
+        <v>6</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>406</v>
+        <v>415</v>
       </c>
       <c r="B69" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C69" s="3">
         <v>250</v>
       </c>
-      <c r="D69" s="2" t="s">
-        <v>407</v>
+      <c r="D69" s="8" t="s">
+        <v>428</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>35</v>
+        <v>6</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="1" t="s">
-        <v>34</v>
+      <c r="A70" s="7" t="s">
+        <v>564</v>
       </c>
       <c r="B70" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C70" s="3">
         <v>250</v>
       </c>
-      <c r="D70" s="2" t="s">
-        <v>397</v>
+      <c r="D70" s="8" t="s">
+        <v>429</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>35</v>
+        <v>6</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>404</v>
+        <v>416</v>
       </c>
       <c r="B71" s="3">
         <v>0</v>
@@ -3532,59 +3604,59 @@
       <c r="C71" s="3">
         <v>250</v>
       </c>
-      <c r="D71" s="2" t="s">
-        <v>405</v>
+      <c r="D71" s="8" t="s">
+        <v>424</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>35</v>
+        <v>6</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="1" t="s">
-        <v>39</v>
+      <c r="A72" s="7" t="s">
+        <v>563</v>
       </c>
       <c r="B72" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C72" s="3">
-        <v>180</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>148</v>
+        <v>250</v>
+      </c>
+      <c r="D72" s="8" t="s">
+        <v>430</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>35</v>
+        <v>6</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>408</v>
+        <v>417</v>
       </c>
       <c r="B73" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C73" s="3">
-        <v>250</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>410</v>
+        <v>220</v>
+      </c>
+      <c r="D73" s="8" t="s">
+        <v>431</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>35</v>
+        <v>6</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>409</v>
+        <v>38</v>
       </c>
       <c r="B74" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C74" s="3">
-        <v>250</v>
+        <v>180</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>411</v>
+        <v>223</v>
       </c>
       <c r="E74" s="3" t="s">
         <v>35</v>
@@ -3592,16 +3664,16 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>307</v>
+        <v>405</v>
       </c>
       <c r="B75" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C75" s="3">
-        <v>180</v>
+        <v>250</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>392</v>
+        <v>406</v>
       </c>
       <c r="E75" s="3" t="s">
         <v>35</v>
@@ -3609,16 +3681,16 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>308</v>
+        <v>34</v>
       </c>
       <c r="B76" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C76" s="3">
-        <v>180</v>
+        <v>250</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="E76" s="3" t="s">
         <v>35</v>
@@ -3626,16 +3698,16 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>37</v>
+        <v>403</v>
       </c>
       <c r="B77" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C77" s="3">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>225</v>
+        <v>404</v>
       </c>
       <c r="E77" s="3" t="s">
         <v>35</v>
@@ -3643,16 +3715,16 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B78" s="3">
         <v>0</v>
       </c>
       <c r="C78" s="3">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>226</v>
+        <v>147</v>
       </c>
       <c r="E78" s="3" t="s">
         <v>35</v>
@@ -3660,16 +3732,16 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>533</v>
+        <v>407</v>
       </c>
       <c r="B79" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C79" s="3">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>534</v>
+        <v>409</v>
       </c>
       <c r="E79" s="3" t="s">
         <v>35</v>
@@ -3677,16 +3749,16 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>40</v>
+        <v>408</v>
       </c>
       <c r="B80" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C80" s="3">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>208</v>
+        <v>410</v>
       </c>
       <c r="E80" s="3" t="s">
         <v>35</v>
@@ -3694,16 +3766,16 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>41</v>
+        <v>306</v>
       </c>
       <c r="B81" s="3">
         <v>1</v>
       </c>
       <c r="C81" s="3">
-        <v>350</v>
+        <v>180</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>209</v>
+        <v>391</v>
       </c>
       <c r="E81" s="3" t="s">
         <v>35</v>
@@ -3711,125 +3783,125 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>42</v>
+        <v>307</v>
       </c>
       <c r="B82" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C82" s="3">
-        <v>500</v>
+        <v>180</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>210</v>
+        <v>392</v>
       </c>
       <c r="E82" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" s="7" t="s">
-        <v>435</v>
+      <c r="A83" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="B83" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C83" s="3">
-        <v>220</v>
-      </c>
-      <c r="D83" s="8" t="s">
-        <v>445</v>
+        <v>300</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>224</v>
       </c>
       <c r="E83" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" s="7" t="s">
-        <v>436</v>
+      <c r="A84" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="B84" s="3">
         <v>0</v>
       </c>
       <c r="C84" s="3">
-        <v>220</v>
-      </c>
-      <c r="D84" s="8" t="s">
-        <v>444</v>
+        <v>300</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="E84" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" s="7" t="s">
-        <v>433</v>
-      </c>
-      <c r="B85" s="6">
-        <v>0</v>
-      </c>
-      <c r="C85" s="6">
-        <v>200</v>
-      </c>
-      <c r="D85" s="4" t="s">
-        <v>440</v>
+      <c r="A85" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="B85" s="3">
+        <v>1</v>
+      </c>
+      <c r="C85" s="3">
+        <v>1000</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>533</v>
       </c>
       <c r="E85" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" s="7" t="s">
-        <v>437</v>
+      <c r="A86" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="B86" s="3">
         <v>0</v>
       </c>
       <c r="C86" s="3">
-        <v>220</v>
-      </c>
-      <c r="D86" s="8" t="s">
-        <v>446</v>
+        <v>350</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>207</v>
       </c>
       <c r="E86" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" s="7" t="s">
-        <v>438</v>
+      <c r="A87" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B87" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C87" s="3">
-        <v>250</v>
-      </c>
-      <c r="D87" s="8" t="s">
-        <v>442</v>
+        <v>350</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>208</v>
       </c>
       <c r="E87" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" s="7" t="s">
-        <v>439</v>
+      <c r="A88" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B88" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C88" s="3">
-        <v>250</v>
-      </c>
-      <c r="D88" s="8" t="s">
-        <v>443</v>
+        <v>500</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>209</v>
       </c>
       <c r="E88" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" s="1" t="s">
+      <c r="A89" s="7" t="s">
         <v>434</v>
       </c>
       <c r="B89" s="3">
@@ -3839,92 +3911,92 @@
         <v>220</v>
       </c>
       <c r="D89" s="8" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="E89" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" s="1" t="s">
-        <v>43</v>
+      <c r="A90" s="7" t="s">
+        <v>435</v>
       </c>
       <c r="B90" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C90" s="3">
-        <v>350</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>195</v>
+        <v>220</v>
+      </c>
+      <c r="D90" s="8" t="s">
+        <v>443</v>
       </c>
       <c r="E90" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B91" s="3">
-        <v>0</v>
-      </c>
-      <c r="C91" s="3">
-        <v>350</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>196</v>
+      <c r="A91" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="B91" s="6">
+        <v>0</v>
+      </c>
+      <c r="C91" s="6">
+        <v>200</v>
+      </c>
+      <c r="D91" s="4" t="s">
+        <v>439</v>
       </c>
       <c r="E91" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92" s="1" t="s">
-        <v>45</v>
+      <c r="A92" s="7" t="s">
+        <v>436</v>
       </c>
       <c r="B92" s="3">
         <v>0</v>
       </c>
       <c r="C92" s="3">
-        <v>350</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>197</v>
+        <v>220</v>
+      </c>
+      <c r="D92" s="8" t="s">
+        <v>445</v>
       </c>
       <c r="E92" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" s="1" t="s">
-        <v>46</v>
+      <c r="A93" s="7" t="s">
+        <v>437</v>
       </c>
       <c r="B93" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C93" s="3">
-        <v>500</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>193</v>
+        <v>250</v>
+      </c>
+      <c r="D93" s="8" t="s">
+        <v>441</v>
       </c>
       <c r="E93" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94" s="1" t="s">
-        <v>563</v>
+      <c r="A94" s="7" t="s">
+        <v>438</v>
       </c>
       <c r="B94" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C94" s="3">
-        <v>500</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>194</v>
+        <v>250</v>
+      </c>
+      <c r="D94" s="8" t="s">
+        <v>442</v>
       </c>
       <c r="E94" s="3" t="s">
         <v>35</v>
@@ -3932,118 +4004,118 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>47</v>
+        <v>433</v>
       </c>
       <c r="B95" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C95" s="3">
-        <v>300</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>198</v>
+        <v>220</v>
+      </c>
+      <c r="D95" s="8" t="s">
+        <v>440</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>586</v>
+        <v>43</v>
       </c>
       <c r="B96" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C96" s="3">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>161</v>
+        <v>194</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B97" s="3">
         <v>0</v>
       </c>
       <c r="C97" s="3">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B98" s="3">
         <v>0</v>
       </c>
       <c r="C98" s="3">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>148</v>
+        <v>196</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B99" s="3">
         <v>1</v>
       </c>
       <c r="C99" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>158</v>
+        <v>192</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>52</v>
+        <v>562</v>
       </c>
       <c r="B100" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C100" s="3">
-        <v>270</v>
+        <v>500</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>148</v>
+        <v>193</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B101" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C101" s="3">
-        <v>270</v>
+        <v>300</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>156</v>
+        <v>197</v>
       </c>
       <c r="E101" s="3" t="s">
         <v>48</v>
@@ -4051,16 +4123,16 @@
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>54</v>
+        <v>588</v>
       </c>
       <c r="B102" s="3">
         <v>1</v>
       </c>
       <c r="C102" s="3">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>157</v>
+        <v>590</v>
       </c>
       <c r="E102" s="3" t="s">
         <v>48</v>
@@ -4068,16 +4140,16 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>55</v>
+        <v>585</v>
       </c>
       <c r="B103" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C103" s="3">
         <v>300</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="E103" s="3" t="s">
         <v>48</v>
@@ -4085,7 +4157,7 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B104" s="3">
         <v>0</v>
@@ -4094,7 +4166,7 @@
         <v>300</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="E104" s="3" t="s">
         <v>48</v>
@@ -4102,16 +4174,16 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>355</v>
+        <v>50</v>
       </c>
       <c r="B105" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C105" s="3">
         <v>300</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>183</v>
+        <v>147</v>
       </c>
       <c r="E105" s="3" t="s">
         <v>48</v>
@@ -4119,16 +4191,16 @@
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>57</v>
+        <v>589</v>
       </c>
       <c r="B106" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C106" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>162</v>
+        <v>591</v>
       </c>
       <c r="E106" s="3" t="s">
         <v>48</v>
@@ -4136,16 +4208,16 @@
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>58</v>
+        <v>587</v>
       </c>
       <c r="B107" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C107" s="3">
         <v>300</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="E107" s="3" t="s">
         <v>48</v>
@@ -4153,16 +4225,16 @@
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>269</v>
+        <v>51</v>
       </c>
       <c r="B108" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C108" s="3">
-        <v>350</v>
+        <v>270</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>270</v>
+        <v>147</v>
       </c>
       <c r="E108" s="3" t="s">
         <v>48</v>
@@ -4170,16 +4242,16 @@
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B109" s="3">
         <v>0</v>
       </c>
       <c r="C109" s="3">
-        <v>300</v>
+        <v>270</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="E109" s="3" t="s">
         <v>48</v>
@@ -4187,16 +4259,16 @@
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="B110" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C110" s="3">
         <v>300</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="E110" s="3" t="s">
         <v>48</v>
@@ -4204,7 +4276,7 @@
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="B111" s="3">
         <v>0</v>
@@ -4213,7 +4285,7 @@
         <v>300</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E111" s="3" t="s">
         <v>48</v>
@@ -4221,7 +4293,7 @@
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="B112" s="3">
         <v>0</v>
@@ -4230,7 +4302,7 @@
         <v>300</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>148</v>
+        <v>183</v>
       </c>
       <c r="E112" s="3" t="s">
         <v>48</v>
@@ -4238,16 +4310,16 @@
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>63</v>
+        <v>354</v>
       </c>
       <c r="B113" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C113" s="3">
         <v>300</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>148</v>
+        <v>182</v>
       </c>
       <c r="E113" s="3" t="s">
         <v>48</v>
@@ -4255,7 +4327,7 @@
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="B114" s="3">
         <v>0</v>
@@ -4264,7 +4336,7 @@
         <v>300</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="E114" s="3" t="s">
         <v>48</v>
@@ -4272,16 +4344,16 @@
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="B115" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C115" s="3">
         <v>300</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="E115" s="3" t="s">
         <v>48</v>
@@ -4289,16 +4361,16 @@
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>318</v>
+        <v>268</v>
       </c>
       <c r="B116" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C116" s="3">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>335</v>
+        <v>269</v>
       </c>
       <c r="E116" s="3" t="s">
         <v>48</v>
@@ -4306,16 +4378,16 @@
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>267</v>
+        <v>58</v>
       </c>
       <c r="B117" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C117" s="3">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="E117" s="3" t="s">
         <v>48</v>
@@ -4323,16 +4395,16 @@
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>268</v>
+        <v>59</v>
       </c>
       <c r="B118" s="3">
         <v>0</v>
       </c>
       <c r="C118" s="3">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="E118" s="3" t="s">
         <v>48</v>
@@ -4340,16 +4412,16 @@
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B119" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C119" s="3">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
       <c r="E119" s="3" t="s">
         <v>48</v>
@@ -4357,16 +4429,16 @@
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B120" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C120" s="3">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>165</v>
+        <v>147</v>
       </c>
       <c r="E120" s="3" t="s">
         <v>48</v>
@@ -4374,16 +4446,16 @@
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B121" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C121" s="3">
-        <v>320</v>
+        <v>300</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>166</v>
+        <v>147</v>
       </c>
       <c r="E121" s="3" t="s">
         <v>48</v>
@@ -4391,16 +4463,16 @@
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B122" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C122" s="3">
-        <v>320</v>
-      </c>
-      <c r="D122" s="1" t="s">
-        <v>167</v>
+        <v>300</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>147</v>
       </c>
       <c r="E122" s="3" t="s">
         <v>48</v>
@@ -4408,16 +4480,16 @@
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B123" s="3">
         <v>1</v>
       </c>
       <c r="C123" s="3">
-        <v>320</v>
-      </c>
-      <c r="D123" s="1" t="s">
-        <v>180</v>
+        <v>300</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>162</v>
       </c>
       <c r="E123" s="3" t="s">
         <v>48</v>
@@ -4425,16 +4497,16 @@
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>71</v>
+        <v>317</v>
       </c>
       <c r="B124" s="3">
         <v>0</v>
       </c>
       <c r="C124" s="3">
-        <v>320</v>
-      </c>
-      <c r="D124" s="1" t="s">
-        <v>168</v>
+        <v>300</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>334</v>
       </c>
       <c r="E124" s="3" t="s">
         <v>48</v>
@@ -4442,16 +4514,16 @@
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>72</v>
+        <v>266</v>
       </c>
       <c r="B125" s="3">
         <v>1</v>
       </c>
       <c r="C125" s="3">
-        <v>320</v>
-      </c>
-      <c r="D125" s="1" t="s">
-        <v>169</v>
+        <v>350</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>158</v>
       </c>
       <c r="E125" s="3" t="s">
         <v>48</v>
@@ -4459,16 +4531,16 @@
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>73</v>
+        <v>267</v>
       </c>
       <c r="B126" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C126" s="3">
-        <v>320</v>
-      </c>
-      <c r="D126" s="1" t="s">
-        <v>170</v>
+        <v>350</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>159</v>
       </c>
       <c r="E126" s="3" t="s">
         <v>48</v>
@@ -4476,16 +4548,16 @@
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="B127" s="3">
         <v>2</v>
       </c>
       <c r="C127" s="3">
-        <v>320</v>
-      </c>
-      <c r="D127" s="1" t="s">
-        <v>171</v>
+        <v>350</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>163</v>
       </c>
       <c r="E127" s="3" t="s">
         <v>48</v>
@@ -4493,16 +4565,16 @@
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="B128" s="3">
         <v>0</v>
       </c>
       <c r="C128" s="3">
-        <v>320</v>
-      </c>
-      <c r="D128" s="1" t="s">
-        <v>172</v>
+        <v>350</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>164</v>
       </c>
       <c r="E128" s="3" t="s">
         <v>48</v>
@@ -4510,16 +4582,16 @@
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="B129" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C129" s="3">
         <v>320</v>
       </c>
-      <c r="D129" s="1" t="s">
-        <v>173</v>
+      <c r="D129" s="2" t="s">
+        <v>165</v>
       </c>
       <c r="E129" s="3" t="s">
         <v>48</v>
@@ -4527,7 +4599,7 @@
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B130" s="3">
         <v>1</v>
@@ -4536,7 +4608,7 @@
         <v>320</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="E130" s="3" t="s">
         <v>48</v>
@@ -4544,16 +4616,16 @@
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="B131" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C131" s="3">
         <v>320</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="E131" s="3" t="s">
         <v>48</v>
@@ -4561,7 +4633,7 @@
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="B132" s="3">
         <v>1</v>
@@ -4570,7 +4642,7 @@
         <v>320</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="E132" s="3" t="s">
         <v>48</v>
@@ -4578,7 +4650,7 @@
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="B133" s="3">
         <v>1</v>
@@ -4587,7 +4659,7 @@
         <v>320</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="E133" s="3" t="s">
         <v>48</v>
@@ -4595,16 +4667,16 @@
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="B134" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C134" s="3">
         <v>320</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="E134" s="3" t="s">
         <v>48</v>
@@ -4612,16 +4684,16 @@
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="B135" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C135" s="3">
         <v>320</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="E135" s="3" t="s">
         <v>48</v>
@@ -4629,16 +4701,16 @@
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>331</v>
+        <v>74</v>
       </c>
       <c r="B136" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C136" s="3">
         <v>320</v>
       </c>
-      <c r="D136" s="2" t="s">
-        <v>332</v>
+      <c r="D136" s="1" t="s">
+        <v>171</v>
       </c>
       <c r="E136" s="3" t="s">
         <v>48</v>
@@ -4646,16 +4718,16 @@
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="B137" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C137" s="3">
-        <v>300</v>
-      </c>
-      <c r="D137" s="2" t="s">
-        <v>255</v>
+        <v>320</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>172</v>
       </c>
       <c r="E137" s="3" t="s">
         <v>48</v>
@@ -4663,16 +4735,16 @@
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="B138" s="3">
         <v>1</v>
       </c>
       <c r="C138" s="3">
-        <v>300</v>
-      </c>
-      <c r="D138" s="2" t="s">
-        <v>227</v>
+        <v>320</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>173</v>
       </c>
       <c r="E138" s="3" t="s">
         <v>48</v>
@@ -4680,16 +4752,16 @@
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="B139" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C139" s="3">
-        <v>300</v>
-      </c>
-      <c r="D139" s="2" t="s">
-        <v>256</v>
+        <v>320</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>174</v>
       </c>
       <c r="E139" s="3" t="s">
         <v>48</v>
@@ -4697,16 +4769,16 @@
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="B140" s="3">
         <v>1</v>
       </c>
       <c r="C140" s="3">
-        <v>300</v>
+        <v>320</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="E140" s="3" t="s">
         <v>48</v>
@@ -4714,16 +4786,16 @@
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="B141" s="3">
         <v>1</v>
       </c>
       <c r="C141" s="3">
-        <v>300</v>
+        <v>320</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>201</v>
+        <v>176</v>
       </c>
       <c r="E141" s="3" t="s">
         <v>48</v>
@@ -4731,16 +4803,16 @@
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="B142" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C142" s="3">
-        <v>300</v>
+        <v>320</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>202</v>
+        <v>177</v>
       </c>
       <c r="E142" s="3" t="s">
         <v>48</v>
@@ -4748,16 +4820,16 @@
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="B143" s="3">
         <v>1</v>
       </c>
       <c r="C143" s="3">
-        <v>300</v>
+        <v>320</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>203</v>
+        <v>178</v>
       </c>
       <c r="E143" s="3" t="s">
         <v>48</v>
@@ -4765,16 +4837,16 @@
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
-        <v>90</v>
+        <v>330</v>
       </c>
       <c r="B144" s="3">
         <v>1</v>
       </c>
       <c r="C144" s="3">
-        <v>300</v>
-      </c>
-      <c r="D144" s="1" t="s">
-        <v>204</v>
+        <v>320</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>331</v>
       </c>
       <c r="E144" s="3" t="s">
         <v>48</v>
@@ -4782,7 +4854,7 @@
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="B145" s="3">
         <v>2</v>
@@ -4790,8 +4862,8 @@
       <c r="C145" s="3">
         <v>300</v>
       </c>
-      <c r="D145" s="1" t="s">
-        <v>205</v>
+      <c r="D145" s="2" t="s">
+        <v>254</v>
       </c>
       <c r="E145" s="3" t="s">
         <v>48</v>
@@ -4799,7 +4871,7 @@
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="B146" s="3">
         <v>1</v>
@@ -4807,8 +4879,8 @@
       <c r="C146" s="3">
         <v>300</v>
       </c>
-      <c r="D146" s="1" t="s">
-        <v>206</v>
+      <c r="D146" s="2" t="s">
+        <v>226</v>
       </c>
       <c r="E146" s="3" t="s">
         <v>48</v>
@@ -4816,7 +4888,7 @@
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="B147" s="3">
         <v>1</v>
@@ -4825,7 +4897,7 @@
         <v>300</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E147" s="3" t="s">
         <v>48</v>
@@ -4833,16 +4905,16 @@
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="B148" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C148" s="3">
-        <v>400</v>
-      </c>
-      <c r="D148" s="2" t="s">
-        <v>228</v>
+        <v>300</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>199</v>
       </c>
       <c r="E148" s="3" t="s">
         <v>48</v>
@@ -4850,16 +4922,16 @@
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="B149" s="3">
         <v>1</v>
       </c>
       <c r="C149" s="3">
-        <v>400</v>
-      </c>
-      <c r="D149" s="2" t="s">
-        <v>229</v>
+        <v>300</v>
+      </c>
+      <c r="D149" s="1" t="s">
+        <v>200</v>
       </c>
       <c r="E149" s="3" t="s">
         <v>48</v>
@@ -4867,16 +4939,16 @@
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
-        <v>356</v>
+        <v>87</v>
       </c>
       <c r="B150" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C150" s="3">
         <v>300</v>
       </c>
-      <c r="D150" s="2" t="s">
-        <v>230</v>
+      <c r="D150" s="1" t="s">
+        <v>201</v>
       </c>
       <c r="E150" s="3" t="s">
         <v>48</v>
@@ -4884,16 +4956,16 @@
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="B151" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C151" s="3">
         <v>300</v>
       </c>
-      <c r="D151" s="2" t="s">
-        <v>231</v>
+      <c r="D151" s="1" t="s">
+        <v>202</v>
       </c>
       <c r="E151" s="3" t="s">
         <v>48</v>
@@ -4901,16 +4973,16 @@
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="B152" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C152" s="3">
         <v>300</v>
       </c>
-      <c r="D152" s="2" t="s">
-        <v>232</v>
+      <c r="D152" s="1" t="s">
+        <v>203</v>
       </c>
       <c r="E152" s="3" t="s">
         <v>48</v>
@@ -4918,16 +4990,16 @@
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="B153" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C153" s="3">
         <v>300</v>
       </c>
-      <c r="D153" s="2" t="s">
-        <v>233</v>
+      <c r="D153" s="1" t="s">
+        <v>204</v>
       </c>
       <c r="E153" s="3" t="s">
         <v>48</v>
@@ -4935,7 +5007,7 @@
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="B154" s="3">
         <v>1</v>
@@ -4943,8 +5015,8 @@
       <c r="C154" s="3">
         <v>300</v>
       </c>
-      <c r="D154" s="2" t="s">
-        <v>234</v>
+      <c r="D154" s="1" t="s">
+        <v>205</v>
       </c>
       <c r="E154" s="3" t="s">
         <v>48</v>
@@ -4952,16 +5024,16 @@
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="B155" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C155" s="3">
         <v>300</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>235</v>
+        <v>256</v>
       </c>
       <c r="E155" s="3" t="s">
         <v>48</v>
@@ -4969,16 +5041,16 @@
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="B156" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C156" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="E156" s="3" t="s">
         <v>48</v>
@@ -4986,16 +5058,16 @@
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="B157" s="3">
         <v>0</v>
       </c>
       <c r="C157" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="E157" s="3" t="s">
         <v>48</v>
@@ -5003,16 +5075,16 @@
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
-        <v>462</v>
+        <v>355</v>
       </c>
       <c r="B158" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C158" s="3">
-        <v>280</v>
-      </c>
-      <c r="D158" s="8" t="s">
-        <v>465</v>
+        <v>300</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>229</v>
       </c>
       <c r="E158" s="3" t="s">
         <v>48</v>
@@ -5020,33 +5092,33 @@
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
-        <v>463</v>
+        <v>95</v>
       </c>
       <c r="B159" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C159" s="3">
-        <v>280</v>
-      </c>
-      <c r="D159" s="8" t="s">
-        <v>466</v>
+        <v>300</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>230</v>
       </c>
       <c r="E159" s="3" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A160" s="7" t="s">
-        <v>464</v>
+      <c r="A160" s="1" t="s">
+        <v>96</v>
       </c>
       <c r="B160" s="3">
         <v>1</v>
       </c>
       <c r="C160" s="3">
-        <v>280</v>
-      </c>
-      <c r="D160" s="8" t="s">
-        <v>467</v>
+        <v>300</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>231</v>
       </c>
       <c r="E160" s="3" t="s">
         <v>48</v>
@@ -5054,7 +5126,7 @@
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B161" s="3">
         <v>1</v>
@@ -5063,7 +5135,7 @@
         <v>300</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="E161" s="3" t="s">
         <v>48</v>
@@ -5071,7 +5143,7 @@
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B162" s="3">
         <v>1</v>
@@ -5080,7 +5152,7 @@
         <v>300</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="E162" s="3" t="s">
         <v>48</v>
@@ -5088,262 +5160,262 @@
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B163" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C163" s="3">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>258</v>
+        <v>234</v>
       </c>
       <c r="E163" s="3" t="s">
-        <v>106</v>
+        <v>48</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
-        <v>297</v>
+        <v>100</v>
       </c>
       <c r="B164" s="3">
         <v>1</v>
       </c>
       <c r="C164" s="3">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>313</v>
+        <v>235</v>
       </c>
       <c r="E164" s="3" t="s">
-        <v>106</v>
+        <v>48</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
-        <v>562</v>
+        <v>101</v>
       </c>
       <c r="B165" s="3">
         <v>1</v>
       </c>
       <c r="C165" s="3">
-        <v>280</v>
+        <v>500</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>314</v>
+        <v>236</v>
       </c>
       <c r="E165" s="3" t="s">
-        <v>106</v>
+        <v>48</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
-        <v>298</v>
+        <v>461</v>
       </c>
       <c r="B166" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C166" s="3">
-        <v>260</v>
-      </c>
-      <c r="D166" s="2" t="s">
-        <v>315</v>
+        <v>280</v>
+      </c>
+      <c r="D166" s="8" t="s">
+        <v>464</v>
       </c>
       <c r="E166" s="3" t="s">
-        <v>106</v>
+        <v>48</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
-        <v>299</v>
+        <v>462</v>
       </c>
       <c r="B167" s="3">
         <v>1</v>
       </c>
       <c r="C167" s="3">
-        <v>260</v>
-      </c>
-      <c r="D167" s="2" t="s">
-        <v>316</v>
+        <v>280</v>
+      </c>
+      <c r="D167" s="8" t="s">
+        <v>465</v>
       </c>
       <c r="E167" s="3" t="s">
-        <v>106</v>
+        <v>48</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A168" s="1" t="s">
-        <v>107</v>
+      <c r="A168" s="7" t="s">
+        <v>463</v>
       </c>
       <c r="B168" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C168" s="3">
-        <v>500</v>
-      </c>
-      <c r="D168" s="2" t="s">
-        <v>148</v>
+        <v>280</v>
+      </c>
+      <c r="D168" s="8" t="s">
+        <v>466</v>
       </c>
       <c r="E168" s="3" t="s">
-        <v>106</v>
+        <v>48</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B169" s="3">
+        <v>1</v>
+      </c>
+      <c r="C169" s="3">
         <v>300</v>
       </c>
-      <c r="B169" s="3">
-        <v>1</v>
-      </c>
-      <c r="C169" s="3">
-        <v>280</v>
-      </c>
       <c r="D169" s="2" t="s">
-        <v>317</v>
+        <v>237</v>
       </c>
       <c r="E169" s="3" t="s">
-        <v>106</v>
+        <v>48</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B170" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C170" s="3">
-        <v>220</v>
+        <v>300</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>288</v>
+        <v>238</v>
       </c>
       <c r="E170" s="3" t="s">
-        <v>106</v>
+        <v>48</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B171" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C171" s="3">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>295</v>
+        <v>257</v>
       </c>
       <c r="E171" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
-        <v>110</v>
+        <v>296</v>
       </c>
       <c r="B172" s="3">
         <v>0</v>
       </c>
       <c r="C172" s="3">
-        <v>220</v>
+        <v>280</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>289</v>
+        <v>312</v>
       </c>
       <c r="E172" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
-        <v>111</v>
+        <v>561</v>
       </c>
       <c r="B173" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C173" s="3">
-        <v>220</v>
+        <v>280</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>290</v>
+        <v>313</v>
       </c>
       <c r="E173" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
-        <v>587</v>
+        <v>297</v>
       </c>
       <c r="B174" s="3">
         <v>1</v>
       </c>
       <c r="C174" s="3">
-        <v>220</v>
+        <v>260</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>291</v>
+        <v>314</v>
       </c>
       <c r="E174" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
-        <v>113</v>
+        <v>298</v>
       </c>
       <c r="B175" s="3">
         <v>1</v>
       </c>
       <c r="C175" s="3">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>292</v>
+        <v>315</v>
       </c>
       <c r="E175" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
-        <v>260</v>
+        <v>106</v>
       </c>
       <c r="B176" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C176" s="3">
-        <v>220</v>
+        <v>500</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>259</v>
+        <v>147</v>
       </c>
       <c r="E176" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="B177" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C177" s="3">
-        <v>250</v>
+        <v>280</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>262</v>
+        <v>316</v>
       </c>
       <c r="E177" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
-        <v>264</v>
+        <v>107</v>
       </c>
       <c r="B178" s="3">
         <v>0</v>
@@ -5352,15 +5424,15 @@
         <v>220</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>263</v>
+        <v>287</v>
       </c>
       <c r="E178" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="B179" s="3">
         <v>3</v>
@@ -5372,46 +5444,46 @@
         <v>294</v>
       </c>
       <c r="E179" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
-        <v>265</v>
+        <v>109</v>
       </c>
       <c r="B180" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C180" s="3">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>266</v>
+        <v>288</v>
       </c>
       <c r="E180" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B181" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C181" s="3">
         <v>220</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="E181" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
-        <v>116</v>
+        <v>586</v>
       </c>
       <c r="B182" s="3">
         <v>1</v>
@@ -5419,322 +5491,322 @@
       <c r="C182" s="3">
         <v>220</v>
       </c>
-      <c r="D182" s="8" t="s">
-        <v>481</v>
+      <c r="D182" s="2" t="s">
+        <v>290</v>
       </c>
       <c r="E182" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B183" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C183" s="3">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
       <c r="E183" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
-        <v>118</v>
+        <v>259</v>
       </c>
       <c r="B184" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C184" s="3">
-        <v>350</v>
+        <v>220</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>283</v>
+        <v>258</v>
       </c>
       <c r="E184" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="B185" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C185" s="3">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>284</v>
+        <v>261</v>
       </c>
       <c r="E185" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
-        <v>120</v>
+        <v>263</v>
       </c>
       <c r="B186" s="3">
         <v>0</v>
       </c>
       <c r="C186" s="3">
-        <v>350</v>
+        <v>220</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>285</v>
+        <v>262</v>
       </c>
       <c r="E186" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="B187" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C187" s="3">
-        <v>350</v>
+        <v>220</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="E187" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
-        <v>122</v>
+        <v>264</v>
       </c>
       <c r="B188" s="3">
         <v>2</v>
       </c>
       <c r="C188" s="3">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>287</v>
+        <v>265</v>
       </c>
       <c r="E188" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="B189" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C189" s="3">
         <v>220</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="E189" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A190" s="7" t="s">
-        <v>554</v>
+      <c r="A190" s="1" t="s">
+        <v>115</v>
       </c>
       <c r="B190" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C190" s="3">
         <v>220</v>
       </c>
       <c r="D190" s="8" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="E190" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A191" s="7" t="s">
-        <v>553</v>
+      <c r="A191" s="1" t="s">
+        <v>116</v>
       </c>
       <c r="B191" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C191" s="3">
-        <v>220</v>
-      </c>
-      <c r="D191" s="8" t="s">
-        <v>480</v>
+        <v>350</v>
+      </c>
+      <c r="D191" s="2" t="s">
+        <v>281</v>
       </c>
       <c r="E191" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A192" s="7" t="s">
-        <v>552</v>
+      <c r="A192" s="1" t="s">
+        <v>117</v>
       </c>
       <c r="B192" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C192" s="3">
-        <v>220</v>
-      </c>
-      <c r="D192" s="8" t="s">
-        <v>476</v>
+        <v>350</v>
+      </c>
+      <c r="D192" s="2" t="s">
+        <v>282</v>
       </c>
       <c r="E192" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
-        <v>551</v>
+        <v>118</v>
       </c>
       <c r="B193" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C193" s="3">
-        <v>250</v>
-      </c>
-      <c r="D193" s="8" t="s">
-        <v>471</v>
+        <v>350</v>
+      </c>
+      <c r="D193" s="2" t="s">
+        <v>283</v>
       </c>
       <c r="E193" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A194" s="7" t="s">
-        <v>550</v>
+      <c r="A194" s="1" t="s">
+        <v>119</v>
       </c>
       <c r="B194" s="3">
         <v>0</v>
       </c>
       <c r="C194" s="3">
-        <v>250</v>
-      </c>
-      <c r="D194" s="8" t="s">
-        <v>475</v>
+        <v>350</v>
+      </c>
+      <c r="D194" s="2" t="s">
+        <v>284</v>
       </c>
       <c r="E194" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="B195" s="3">
         <v>1</v>
       </c>
       <c r="C195" s="3">
-        <v>220</v>
-      </c>
-      <c r="D195" s="8" t="s">
-        <v>478</v>
+        <v>350</v>
+      </c>
+      <c r="D195" s="2" t="s">
+        <v>285</v>
       </c>
       <c r="E195" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
-        <v>468</v>
+        <v>121</v>
       </c>
       <c r="B196" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C196" s="3">
+        <v>350</v>
+      </c>
+      <c r="D196" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="E196" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A197" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B197" s="3">
+        <v>1</v>
+      </c>
+      <c r="C197" s="3">
         <v>220</v>
       </c>
-      <c r="D196" s="8" t="s">
-        <v>472</v>
-      </c>
-      <c r="E196" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A197" s="7" t="s">
-        <v>549</v>
-      </c>
-      <c r="B197" s="3">
-        <v>1</v>
-      </c>
-      <c r="C197" s="3">
-        <v>250</v>
-      </c>
-      <c r="D197" s="8" t="s">
-        <v>473</v>
+      <c r="D197" s="2" t="s">
+        <v>295</v>
       </c>
       <c r="E197" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A198" s="1" t="s">
-        <v>469</v>
+      <c r="A198" s="7" t="s">
+        <v>553</v>
       </c>
       <c r="B198" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C198" s="3">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="D198" s="8" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="E198" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" s="7" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="B199" s="3">
         <v>0</v>
       </c>
       <c r="C199" s="3">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="D199" s="8" t="s">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="E199" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" s="7" t="s">
-        <v>470</v>
+        <v>551</v>
       </c>
       <c r="B200" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C200" s="3">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="D200" s="8" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="E200" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
-        <v>124</v>
+        <v>550</v>
       </c>
       <c r="B201" s="3">
         <v>1</v>
@@ -5742,254 +5814,254 @@
       <c r="C201" s="3">
         <v>250</v>
       </c>
-      <c r="D201" s="2" t="s">
-        <v>240</v>
+      <c r="D201" s="8" t="s">
+        <v>470</v>
       </c>
       <c r="E201" s="3" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A202" s="1" t="s">
-        <v>126</v>
+      <c r="A202" s="7" t="s">
+        <v>549</v>
       </c>
       <c r="B202" s="3">
         <v>0</v>
       </c>
       <c r="C202" s="3">
-        <v>460</v>
-      </c>
-      <c r="D202" s="2" t="s">
-        <v>148</v>
+        <v>250</v>
+      </c>
+      <c r="D202" s="8" t="s">
+        <v>474</v>
       </c>
       <c r="E202" s="3" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="B203" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C203" s="3">
-        <v>250</v>
-      </c>
-      <c r="D203" s="2" t="s">
-        <v>241</v>
+        <v>220</v>
+      </c>
+      <c r="D203" s="8" t="s">
+        <v>477</v>
       </c>
       <c r="E203" s="3" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
-        <v>491</v>
+        <v>467</v>
       </c>
       <c r="B204" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C204" s="3">
+        <v>220</v>
+      </c>
+      <c r="D204" s="8" t="s">
+        <v>471</v>
+      </c>
+      <c r="E204" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A205" s="7" t="s">
+        <v>548</v>
+      </c>
+      <c r="B205" s="3">
+        <v>1</v>
+      </c>
+      <c r="C205" s="3">
         <v>250</v>
       </c>
-      <c r="D204" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="E204" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A205" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B205" s="3">
-        <v>0</v>
-      </c>
-      <c r="C205" s="3">
-        <v>240</v>
-      </c>
-      <c r="D205" s="2" t="s">
-        <v>148</v>
+      <c r="D205" s="8" t="s">
+        <v>472</v>
       </c>
       <c r="E205" s="3" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
-        <v>485</v>
+        <v>468</v>
       </c>
       <c r="B206" s="3">
         <v>1</v>
       </c>
       <c r="C206" s="3">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="D206" s="8" t="s">
-        <v>492</v>
+        <v>478</v>
       </c>
       <c r="E206" s="3" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A207" s="1" t="s">
-        <v>555</v>
+      <c r="A207" s="7" t="s">
+        <v>547</v>
       </c>
       <c r="B207" s="3">
         <v>0</v>
       </c>
       <c r="C207" s="3">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="D207" s="8" t="s">
-        <v>493</v>
+        <v>473</v>
       </c>
       <c r="E207" s="3" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A208" s="1" t="s">
-        <v>556</v>
+      <c r="A208" s="7" t="s">
+        <v>469</v>
       </c>
       <c r="B208" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C208" s="3">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="D208" s="8" t="s">
-        <v>494</v>
+        <v>476</v>
       </c>
       <c r="E208" s="3" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
-        <v>557</v>
+        <v>123</v>
       </c>
       <c r="B209" s="3">
         <v>1</v>
       </c>
       <c r="C209" s="3">
-        <v>400</v>
-      </c>
-      <c r="D209" s="8" t="s">
-        <v>495</v>
+        <v>250</v>
+      </c>
+      <c r="D209" s="2" t="s">
+        <v>239</v>
       </c>
       <c r="E209" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
-        <v>558</v>
+        <v>125</v>
       </c>
       <c r="B210" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C210" s="3">
-        <v>350</v>
-      </c>
-      <c r="D210" s="8" t="s">
-        <v>496</v>
+        <v>460</v>
+      </c>
+      <c r="D210" s="2" t="s">
+        <v>147</v>
       </c>
       <c r="E210" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
-        <v>486</v>
+        <v>126</v>
       </c>
       <c r="B211" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C211" s="3">
-        <v>350</v>
-      </c>
-      <c r="D211" s="8" t="s">
-        <v>497</v>
+        <v>250</v>
+      </c>
+      <c r="D211" s="2" t="s">
+        <v>240</v>
       </c>
       <c r="E211" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="B212" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C212" s="3">
-        <v>400</v>
-      </c>
-      <c r="D212" s="8" t="s">
-        <v>498</v>
+        <v>250</v>
+      </c>
+      <c r="D212" s="2" t="s">
+        <v>241</v>
       </c>
       <c r="E212" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
-        <v>488</v>
+        <v>127</v>
       </c>
       <c r="B213" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C213" s="3">
-        <v>350</v>
-      </c>
-      <c r="D213" s="8" t="s">
-        <v>499</v>
+        <v>240</v>
+      </c>
+      <c r="D213" s="2" t="s">
+        <v>147</v>
       </c>
       <c r="E213" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="B214" s="3">
         <v>2</v>
       </c>
       <c r="C214" s="3">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="D214" s="8" t="s">
-        <v>500</v>
+        <v>491</v>
       </c>
       <c r="E214" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
-        <v>490</v>
+        <v>554</v>
       </c>
       <c r="B215" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C215" s="3">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="D215" s="8" t="s">
-        <v>501</v>
+        <v>492</v>
       </c>
       <c r="E215" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="B216" s="3">
         <v>2</v>
@@ -5998,270 +6070,270 @@
         <v>350</v>
       </c>
       <c r="D216" s="8" t="s">
-        <v>502</v>
+        <v>493</v>
       </c>
       <c r="E216" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
-        <v>129</v>
+        <v>556</v>
       </c>
       <c r="B217" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C217" s="3">
-        <v>265</v>
-      </c>
-      <c r="D217" s="2" t="s">
-        <v>319</v>
+        <v>400</v>
+      </c>
+      <c r="D217" s="8" t="s">
+        <v>494</v>
       </c>
       <c r="E217" s="3" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
-        <v>131</v>
+        <v>557</v>
       </c>
       <c r="B218" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C218" s="3">
-        <v>265</v>
-      </c>
-      <c r="D218" s="2" t="s">
-        <v>320</v>
+        <v>350</v>
+      </c>
+      <c r="D218" s="8" t="s">
+        <v>495</v>
       </c>
       <c r="E218" s="3" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
-        <v>560</v>
+        <v>485</v>
       </c>
       <c r="B219" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C219" s="3">
-        <v>265</v>
-      </c>
-      <c r="D219" s="2" t="s">
-        <v>321</v>
+        <v>350</v>
+      </c>
+      <c r="D219" s="8" t="s">
+        <v>496</v>
       </c>
       <c r="E219" s="3" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
-        <v>132</v>
+        <v>486</v>
       </c>
       <c r="B220" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C220" s="3">
-        <v>265</v>
-      </c>
-      <c r="D220" s="2" t="s">
-        <v>322</v>
+        <v>400</v>
+      </c>
+      <c r="D220" s="8" t="s">
+        <v>497</v>
       </c>
       <c r="E220" s="3" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
-        <v>133</v>
+        <v>487</v>
       </c>
       <c r="B221" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C221" s="3">
-        <v>265</v>
-      </c>
-      <c r="D221" s="2" t="s">
-        <v>323</v>
+        <v>350</v>
+      </c>
+      <c r="D221" s="8" t="s">
+        <v>498</v>
       </c>
       <c r="E221" s="3" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
-        <v>134</v>
+        <v>488</v>
       </c>
       <c r="B222" s="3">
         <v>2</v>
       </c>
       <c r="C222" s="3">
-        <v>265</v>
-      </c>
-      <c r="D222" s="2" t="s">
-        <v>324</v>
+        <v>350</v>
+      </c>
+      <c r="D222" s="8" t="s">
+        <v>499</v>
       </c>
       <c r="E222" s="3" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
-        <v>135</v>
+        <v>489</v>
       </c>
       <c r="B223" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C223" s="3">
-        <v>265</v>
-      </c>
-      <c r="D223" s="2" t="s">
-        <v>325</v>
+        <v>350</v>
+      </c>
+      <c r="D223" s="8" t="s">
+        <v>500</v>
       </c>
       <c r="E223" s="3" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
-        <v>136</v>
+        <v>558</v>
       </c>
       <c r="B224" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C224" s="3">
-        <v>265</v>
-      </c>
-      <c r="D224" s="2" t="s">
-        <v>148</v>
+        <v>350</v>
+      </c>
+      <c r="D224" s="8" t="s">
+        <v>501</v>
       </c>
       <c r="E224" s="3" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="B225" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C225" s="3">
         <v>265</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="E225" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="B226" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C226" s="3">
         <v>265</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>148</v>
+        <v>319</v>
       </c>
       <c r="E226" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
-        <v>139</v>
+        <v>559</v>
       </c>
       <c r="B227" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C227" s="3">
         <v>265</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="E227" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="B228" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C228" s="3">
         <v>265</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="E228" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="B229" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C229" s="3">
         <v>265</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="E229" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
-        <v>561</v>
+        <v>133</v>
       </c>
       <c r="B230" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C230" s="3">
         <v>265</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="E230" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="B231" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C231" s="3">
         <v>265</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>148</v>
+        <v>324</v>
       </c>
       <c r="E231" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="B232" s="3">
         <v>0</v>
@@ -6270,185 +6342,185 @@
         <v>265</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E232" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A233" s="7" t="s">
-        <v>447</v>
+      <c r="A233" s="1" t="s">
+        <v>136</v>
       </c>
       <c r="B233" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C233" s="3">
-        <v>250</v>
-      </c>
-      <c r="D233" s="8" t="s">
-        <v>455</v>
-      </c>
-      <c r="E233" s="6" t="s">
-        <v>454</v>
+        <v>265</v>
+      </c>
+      <c r="D233" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="E233" s="3" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
-        <v>448</v>
+        <v>137</v>
       </c>
       <c r="B234" s="3">
         <v>0</v>
       </c>
       <c r="C234" s="3">
-        <v>250</v>
-      </c>
-      <c r="D234" s="8" t="s">
-        <v>458</v>
-      </c>
-      <c r="E234" s="6" t="s">
-        <v>454</v>
+        <v>265</v>
+      </c>
+      <c r="D234" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E234" s="3" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
-        <v>449</v>
+        <v>138</v>
       </c>
       <c r="B235" s="3">
         <v>1</v>
       </c>
       <c r="C235" s="3">
-        <v>220</v>
-      </c>
-      <c r="D235" s="8" t="s">
-        <v>459</v>
-      </c>
-      <c r="E235" s="6" t="s">
-        <v>454</v>
+        <v>265</v>
+      </c>
+      <c r="D235" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="E235" s="3" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
-        <v>450</v>
+        <v>139</v>
       </c>
       <c r="B236" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C236" s="3">
-        <v>220</v>
-      </c>
-      <c r="D236" s="8" t="s">
-        <v>456</v>
-      </c>
-      <c r="E236" s="6" t="s">
-        <v>454</v>
+        <v>265</v>
+      </c>
+      <c r="D236" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="E236" s="3" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
-        <v>451</v>
+        <v>140</v>
       </c>
       <c r="B237" s="3">
         <v>1</v>
       </c>
       <c r="C237" s="3">
-        <v>220</v>
-      </c>
-      <c r="D237" s="8" t="s">
-        <v>457</v>
-      </c>
-      <c r="E237" s="6" t="s">
-        <v>454</v>
+        <v>265</v>
+      </c>
+      <c r="D237" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="E237" s="3" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
-        <v>452</v>
+        <v>560</v>
       </c>
       <c r="B238" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C238" s="3">
-        <v>220</v>
-      </c>
-      <c r="D238" s="8" t="s">
-        <v>460</v>
-      </c>
-      <c r="E238" s="6" t="s">
-        <v>454</v>
+        <v>265</v>
+      </c>
+      <c r="D238" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="E238" s="3" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
-        <v>453</v>
+        <v>141</v>
       </c>
       <c r="B239" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C239" s="3">
-        <v>160</v>
-      </c>
-      <c r="D239" s="8" t="s">
-        <v>461</v>
-      </c>
-      <c r="E239" s="6" t="s">
-        <v>454</v>
+        <v>265</v>
+      </c>
+      <c r="D239" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E239" s="3" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A240" s="7" t="s">
-        <v>570</v>
+      <c r="A240" s="1" t="s">
+        <v>142</v>
       </c>
       <c r="B240" s="3">
         <v>0</v>
       </c>
       <c r="C240" s="3">
-        <v>250</v>
-      </c>
-      <c r="D240" s="8" t="s">
-        <v>578</v>
-      </c>
-      <c r="E240" s="6" t="s">
-        <v>454</v>
+        <v>265</v>
+      </c>
+      <c r="D240" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E240" s="3" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241" s="7" t="s">
-        <v>571</v>
+        <v>446</v>
       </c>
       <c r="B241" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C241" s="3">
         <v>250</v>
       </c>
       <c r="D241" s="8" t="s">
-        <v>579</v>
+        <v>454</v>
       </c>
       <c r="E241" s="6" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A242" s="7" t="s">
-        <v>572</v>
+      <c r="A242" s="1" t="s">
+        <v>447</v>
       </c>
       <c r="B242" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C242" s="3">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="D242" s="8" t="s">
-        <v>580</v>
+        <v>457</v>
       </c>
       <c r="E242" s="6" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A243" s="7" t="s">
-        <v>573</v>
+      <c r="A243" s="1" t="s">
+        <v>448</v>
       </c>
       <c r="B243" s="3">
         <v>1</v>
@@ -6457,15 +6529,15 @@
         <v>220</v>
       </c>
       <c r="D243" s="8" t="s">
-        <v>581</v>
+        <v>458</v>
       </c>
       <c r="E243" s="6" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A244" s="7" t="s">
-        <v>574</v>
+      <c r="A244" s="1" t="s">
+        <v>449</v>
       </c>
       <c r="B244" s="3">
         <v>0</v>
@@ -6474,474 +6546,474 @@
         <v>220</v>
       </c>
       <c r="D244" s="8" t="s">
-        <v>582</v>
+        <v>455</v>
       </c>
       <c r="E244" s="6" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A245" s="7" t="s">
-        <v>575</v>
+      <c r="A245" s="1" t="s">
+        <v>450</v>
       </c>
       <c r="B245" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C245" s="3">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="D245" s="8" t="s">
-        <v>583</v>
+        <v>456</v>
       </c>
       <c r="E245" s="6" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A246" s="7" t="s">
-        <v>576</v>
+      <c r="A246" s="1" t="s">
+        <v>451</v>
       </c>
       <c r="B246" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C246" s="3">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="D246" s="8" t="s">
-        <v>584</v>
+        <v>459</v>
       </c>
       <c r="E246" s="6" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A247" s="7" t="s">
-        <v>577</v>
+      <c r="A247" s="1" t="s">
+        <v>452</v>
       </c>
       <c r="B247" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C247" s="3">
-        <v>220</v>
+        <v>160</v>
       </c>
       <c r="D247" s="8" t="s">
-        <v>585</v>
+        <v>460</v>
       </c>
       <c r="E247" s="6" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A248" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="B248" s="5">
-        <v>5</v>
+      <c r="A248" s="7" t="s">
+        <v>569</v>
+      </c>
+      <c r="B248" s="3">
+        <v>0</v>
       </c>
       <c r="C248" s="3">
         <v>250</v>
       </c>
-      <c r="D248" s="2" t="s">
-        <v>243</v>
+      <c r="D248" s="8" t="s">
+        <v>577</v>
       </c>
       <c r="E248" s="6" t="s">
-        <v>192</v>
+        <v>453</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A249" t="s">
-        <v>186</v>
-      </c>
-      <c r="B249" s="5">
-        <v>0</v>
+      <c r="A249" s="7" t="s">
+        <v>570</v>
+      </c>
+      <c r="B249" s="3">
+        <v>1</v>
       </c>
       <c r="C249" s="3">
         <v>250</v>
       </c>
-      <c r="D249" s="2" t="s">
-        <v>310</v>
+      <c r="D249" s="8" t="s">
+        <v>578</v>
       </c>
       <c r="E249" s="6" t="s">
-        <v>192</v>
+        <v>453</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A250" t="s">
-        <v>187</v>
-      </c>
-      <c r="B250" s="5">
-        <v>1</v>
-      </c>
-      <c r="C250" s="6">
+      <c r="A250" s="7" t="s">
+        <v>571</v>
+      </c>
+      <c r="B250" s="3">
+        <v>1</v>
+      </c>
+      <c r="C250" s="3">
         <v>220</v>
       </c>
-      <c r="D250" s="2" t="s">
-        <v>311</v>
+      <c r="D250" s="8" t="s">
+        <v>579</v>
       </c>
       <c r="E250" s="6" t="s">
-        <v>394</v>
+        <v>453</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A251" t="s">
-        <v>309</v>
-      </c>
-      <c r="B251" s="5">
-        <v>0</v>
-      </c>
-      <c r="C251" s="6">
+      <c r="A251" s="7" t="s">
+        <v>572</v>
+      </c>
+      <c r="B251" s="3">
+        <v>1</v>
+      </c>
+      <c r="C251" s="3">
         <v>220</v>
       </c>
-      <c r="D251" s="2" t="s">
-        <v>148</v>
+      <c r="D251" s="8" t="s">
+        <v>580</v>
       </c>
       <c r="E251" s="6" t="s">
-        <v>394</v>
+        <v>453</v>
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A252" t="s">
-        <v>188</v>
-      </c>
-      <c r="B252" s="5">
-        <v>2</v>
-      </c>
-      <c r="C252" s="6">
+      <c r="A252" s="7" t="s">
+        <v>573</v>
+      </c>
+      <c r="B252" s="3">
+        <v>0</v>
+      </c>
+      <c r="C252" s="3">
         <v>220</v>
       </c>
-      <c r="D252" s="2" t="s">
-        <v>312</v>
+      <c r="D252" s="8" t="s">
+        <v>581</v>
       </c>
       <c r="E252" s="6" t="s">
-        <v>394</v>
+        <v>453</v>
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A253" t="s">
-        <v>189</v>
-      </c>
-      <c r="B253" s="5">
-        <v>1</v>
-      </c>
-      <c r="C253" s="6">
+      <c r="A253" s="7" t="s">
+        <v>574</v>
+      </c>
+      <c r="B253" s="3">
+        <v>0</v>
+      </c>
+      <c r="C253" s="3">
+        <v>250</v>
+      </c>
+      <c r="D253" s="8" t="s">
+        <v>582</v>
+      </c>
+      <c r="E253" s="6" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A254" s="7" t="s">
+        <v>575</v>
+      </c>
+      <c r="B254" s="3">
+        <v>0</v>
+      </c>
+      <c r="C254" s="3">
+        <v>250</v>
+      </c>
+      <c r="D254" s="8" t="s">
+        <v>583</v>
+      </c>
+      <c r="E254" s="6" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A255" s="7" t="s">
+        <v>576</v>
+      </c>
+      <c r="B255" s="3">
+        <v>0</v>
+      </c>
+      <c r="C255" s="3">
         <v>220</v>
       </c>
-      <c r="D253" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="E253" s="6" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A254" t="s">
-        <v>190</v>
-      </c>
-      <c r="B254" s="5">
-        <v>1</v>
-      </c>
-      <c r="C254" s="6">
-        <v>220</v>
-      </c>
-      <c r="D254" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="E254" s="6" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A255" t="s">
+      <c r="D255" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="E255" s="6" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A256" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B256" s="5">
+        <v>5</v>
+      </c>
+      <c r="C256" s="3">
+        <v>250</v>
+      </c>
+      <c r="D256" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="E256" s="6" t="s">
         <v>191</v>
-      </c>
-      <c r="B255" s="5">
-        <v>4</v>
-      </c>
-      <c r="C255" s="6">
-        <v>350</v>
-      </c>
-      <c r="D255" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="E255" s="6" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A256" t="s">
-        <v>336</v>
-      </c>
-      <c r="B256" s="5">
-        <v>10</v>
-      </c>
-      <c r="C256" s="6">
-        <v>250</v>
-      </c>
-      <c r="D256" s="4" t="s">
-        <v>340</v>
-      </c>
-      <c r="E256" s="6" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>337</v>
+        <v>185</v>
       </c>
       <c r="B257" s="5">
-        <v>1</v>
-      </c>
-      <c r="C257" s="6">
+        <v>0</v>
+      </c>
+      <c r="C257" s="3">
         <v>250</v>
       </c>
-      <c r="D257" s="4" t="s">
-        <v>341</v>
+      <c r="D257" s="2" t="s">
+        <v>309</v>
       </c>
       <c r="E257" s="6" t="s">
-        <v>412</v>
+        <v>191</v>
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>338</v>
+        <v>186</v>
       </c>
       <c r="B258" s="5">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="C258" s="6">
-        <v>250</v>
-      </c>
-      <c r="D258" s="4" t="s">
-        <v>413</v>
+        <v>220</v>
+      </c>
+      <c r="D258" s="2" t="s">
+        <v>310</v>
       </c>
       <c r="E258" s="6" t="s">
-        <v>339</v>
+        <v>393</v>
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>354</v>
+        <v>308</v>
       </c>
       <c r="B259" s="5">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C259" s="6">
-        <v>150</v>
-      </c>
-      <c r="D259" s="4" t="s">
-        <v>347</v>
+        <v>220</v>
+      </c>
+      <c r="D259" s="2" t="s">
+        <v>147</v>
       </c>
       <c r="E259" s="6" t="s">
-        <v>339</v>
+        <v>393</v>
       </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>352</v>
+        <v>187</v>
       </c>
       <c r="B260" s="5">
         <v>2</v>
       </c>
       <c r="C260" s="6">
-        <v>150</v>
-      </c>
-      <c r="D260" s="4" t="s">
-        <v>350</v>
+        <v>220</v>
+      </c>
+      <c r="D260" s="2" t="s">
+        <v>311</v>
       </c>
       <c r="E260" s="6" t="s">
-        <v>339</v>
+        <v>393</v>
       </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>353</v>
+        <v>188</v>
       </c>
       <c r="B261" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C261" s="6">
-        <v>150</v>
-      </c>
-      <c r="D261" s="4" t="s">
-        <v>351</v>
+        <v>220</v>
+      </c>
+      <c r="D261" s="2" t="s">
+        <v>332</v>
       </c>
       <c r="E261" s="6" t="s">
-        <v>339</v>
+        <v>393</v>
       </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>349</v>
+        <v>189</v>
       </c>
       <c r="B262" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C262" s="6">
-        <v>550</v>
-      </c>
-      <c r="D262" s="4" t="s">
-        <v>348</v>
+        <v>220</v>
+      </c>
+      <c r="D262" s="2" t="s">
+        <v>333</v>
       </c>
       <c r="E262" s="6" t="s">
-        <v>339</v>
+        <v>393</v>
       </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>395</v>
+        <v>190</v>
       </c>
       <c r="B263" s="5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C263" s="6">
-        <v>650</v>
-      </c>
-      <c r="D263" s="4" t="s">
-        <v>396</v>
+        <v>350</v>
+      </c>
+      <c r="D263" s="2" t="s">
+        <v>243</v>
       </c>
       <c r="E263" s="6" t="s">
-        <v>339</v>
+        <v>191</v>
       </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>503</v>
+        <v>335</v>
       </c>
       <c r="B264" s="5">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C264" s="6">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="D264" s="4" t="s">
-        <v>518</v>
+        <v>339</v>
       </c>
       <c r="E264" s="6" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>504</v>
+        <v>336</v>
       </c>
       <c r="B265" s="5">
         <v>1</v>
       </c>
       <c r="C265" s="6">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="D265" s="4" t="s">
-        <v>519</v>
+        <v>340</v>
       </c>
       <c r="E265" s="6" t="s">
-        <v>342</v>
+        <v>411</v>
       </c>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>505</v>
+        <v>337</v>
       </c>
       <c r="B266" s="5">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="C266" s="6">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="D266" s="4" t="s">
-        <v>520</v>
+        <v>412</v>
       </c>
       <c r="E266" s="6" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>506</v>
+        <v>353</v>
       </c>
       <c r="B267" s="5">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C267" s="6">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="D267" s="4" t="s">
-        <v>521</v>
+        <v>346</v>
       </c>
       <c r="E267" s="6" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>507</v>
+        <v>351</v>
       </c>
       <c r="B268" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C268" s="6">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="D268" s="4" t="s">
-        <v>522</v>
+        <v>349</v>
       </c>
       <c r="E268" s="6" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>508</v>
+        <v>352</v>
       </c>
       <c r="B269" s="5">
         <v>2</v>
       </c>
       <c r="C269" s="6">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="D269" s="4" t="s">
-        <v>523</v>
+        <v>350</v>
       </c>
       <c r="E269" s="6" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>509</v>
+        <v>348</v>
       </c>
       <c r="B270" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C270" s="6">
-        <v>300</v>
+        <v>550</v>
       </c>
       <c r="D270" s="4" t="s">
-        <v>524</v>
+        <v>347</v>
       </c>
       <c r="E270" s="6" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>510</v>
+        <v>394</v>
       </c>
       <c r="B271" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C271" s="6">
-        <v>300</v>
+        <v>650</v>
       </c>
       <c r="D271" s="4" t="s">
-        <v>525</v>
+        <v>395</v>
       </c>
       <c r="E271" s="6" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>511</v>
+        <v>502</v>
       </c>
       <c r="B272" s="5">
         <v>1</v>
@@ -6950,486 +7022,690 @@
         <v>300</v>
       </c>
       <c r="D272" s="4" t="s">
-        <v>526</v>
+        <v>517</v>
       </c>
       <c r="E272" s="6" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>512</v>
+        <v>503</v>
       </c>
       <c r="B273" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C273" s="6">
         <v>300</v>
       </c>
       <c r="D273" s="4" t="s">
-        <v>527</v>
+        <v>518</v>
       </c>
       <c r="E273" s="6" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>513</v>
+        <v>504</v>
       </c>
       <c r="B274" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C274" s="6">
         <v>300</v>
       </c>
       <c r="D274" s="4" t="s">
-        <v>528</v>
+        <v>519</v>
       </c>
       <c r="E274" s="6" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>517</v>
+        <v>505</v>
       </c>
       <c r="B275" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C275" s="6">
         <v>300</v>
       </c>
       <c r="D275" s="4" t="s">
-        <v>529</v>
+        <v>520</v>
       </c>
       <c r="E275" s="6" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>516</v>
+        <v>506</v>
       </c>
       <c r="B276" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C276" s="6">
         <v>300</v>
       </c>
       <c r="D276" s="4" t="s">
-        <v>530</v>
+        <v>521</v>
       </c>
       <c r="E276" s="6" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="B277" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C277" s="6">
         <v>300</v>
       </c>
       <c r="D277" s="4" t="s">
-        <v>531</v>
+        <v>522</v>
       </c>
       <c r="E277" s="6" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="B278" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C278" s="6">
         <v>300</v>
       </c>
       <c r="D278" s="4" t="s">
-        <v>532</v>
+        <v>523</v>
       </c>
       <c r="E278" s="6" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>345</v>
+        <v>509</v>
       </c>
       <c r="B279" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C279" s="6">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="D279" s="4" t="s">
-        <v>343</v>
+        <v>524</v>
       </c>
       <c r="E279" s="6" t="s">
-        <v>192</v>
+        <v>341</v>
       </c>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>346</v>
+        <v>510</v>
       </c>
       <c r="B280" s="5">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="C280" s="6">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="D280" s="4" t="s">
-        <v>344</v>
+        <v>525</v>
       </c>
       <c r="E280" s="6" t="s">
-        <v>192</v>
+        <v>341</v>
       </c>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>357</v>
+        <v>511</v>
       </c>
       <c r="B281" s="5">
         <v>0</v>
       </c>
       <c r="C281" s="6">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="D281" s="4" t="s">
-        <v>364</v>
+        <v>526</v>
       </c>
       <c r="E281" s="6" t="s">
-        <v>362</v>
+        <v>341</v>
       </c>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>358</v>
+        <v>512</v>
       </c>
       <c r="B282" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C282" s="6">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="D282" s="4" t="s">
-        <v>365</v>
+        <v>527</v>
       </c>
       <c r="E282" s="6" t="s">
-        <v>362</v>
+        <v>341</v>
       </c>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>359</v>
+        <v>516</v>
       </c>
       <c r="B283" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C283" s="6">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="D283" s="4" t="s">
-        <v>366</v>
+        <v>528</v>
       </c>
       <c r="E283" s="6" t="s">
-        <v>362</v>
+        <v>341</v>
       </c>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>360</v>
+        <v>515</v>
       </c>
       <c r="B284" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C284" s="6">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="D284" s="4" t="s">
-        <v>383</v>
+        <v>529</v>
       </c>
       <c r="E284" s="6" t="s">
-        <v>362</v>
+        <v>341</v>
       </c>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>361</v>
+        <v>513</v>
       </c>
       <c r="B285" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C285" s="6">
-        <v>30</v>
+        <v>300</v>
       </c>
       <c r="D285" s="4" t="s">
-        <v>367</v>
+        <v>530</v>
       </c>
       <c r="E285" s="6" t="s">
-        <v>362</v>
+        <v>341</v>
       </c>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>363</v>
+        <v>514</v>
       </c>
       <c r="B286" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C286" s="6">
-        <v>550</v>
+        <v>300</v>
       </c>
       <c r="D286" s="4" t="s">
-        <v>368</v>
+        <v>531</v>
       </c>
       <c r="E286" s="6" t="s">
-        <v>362</v>
+        <v>341</v>
       </c>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>369</v>
+        <v>611</v>
       </c>
       <c r="B287" s="5">
         <v>1</v>
       </c>
       <c r="C287" s="6">
-        <v>550</v>
+        <v>320</v>
       </c>
       <c r="D287" s="4" t="s">
-        <v>370</v>
+        <v>595</v>
       </c>
       <c r="E287" s="6" t="s">
-        <v>362</v>
+        <v>341</v>
       </c>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>371</v>
+        <v>592</v>
       </c>
       <c r="B288" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C288" s="6">
-        <v>550</v>
+        <v>320</v>
       </c>
       <c r="D288" s="4" t="s">
-        <v>377</v>
+        <v>596</v>
       </c>
       <c r="E288" s="6" t="s">
-        <v>362</v>
+        <v>341</v>
       </c>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>372</v>
+        <v>593</v>
       </c>
       <c r="B289" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C289" s="6">
-        <v>550</v>
+        <v>320</v>
       </c>
       <c r="D289" s="4" t="s">
-        <v>378</v>
+        <v>597</v>
       </c>
       <c r="E289" s="6" t="s">
-        <v>362</v>
+        <v>341</v>
       </c>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>373</v>
+        <v>594</v>
       </c>
       <c r="B290" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C290" s="6">
-        <v>550</v>
+        <v>320</v>
       </c>
       <c r="D290" s="4" t="s">
-        <v>379</v>
+        <v>598</v>
       </c>
       <c r="E290" s="6" t="s">
-        <v>362</v>
+        <v>341</v>
       </c>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>374</v>
+        <v>344</v>
       </c>
       <c r="B291" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C291" s="6">
-        <v>550</v>
+        <v>800</v>
       </c>
       <c r="D291" s="4" t="s">
-        <v>380</v>
+        <v>342</v>
       </c>
       <c r="E291" s="6" t="s">
-        <v>362</v>
+        <v>191</v>
       </c>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>376</v>
+        <v>345</v>
       </c>
       <c r="B292" s="5">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C292" s="6">
-        <v>550</v>
+        <v>200</v>
       </c>
       <c r="D292" s="4" t="s">
-        <v>381</v>
+        <v>343</v>
       </c>
       <c r="E292" s="6" t="s">
-        <v>362</v>
+        <v>191</v>
       </c>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>375</v>
+        <v>356</v>
       </c>
       <c r="B293" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C293" s="6">
-        <v>550</v>
+        <v>150</v>
       </c>
       <c r="D293" s="4" t="s">
-        <v>382</v>
+        <v>363</v>
       </c>
       <c r="E293" s="6" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>384</v>
+        <v>357</v>
       </c>
       <c r="B294" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C294" s="6">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="D294" s="4" t="s">
-        <v>388</v>
+        <v>364</v>
       </c>
       <c r="E294" s="6" t="s">
-        <v>192</v>
+        <v>361</v>
       </c>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>385</v>
+        <v>358</v>
       </c>
       <c r="B295" s="5">
         <v>0</v>
       </c>
       <c r="C295" s="6">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="D295" s="4" t="s">
-        <v>389</v>
+        <v>365</v>
       </c>
       <c r="E295" s="6" t="s">
-        <v>192</v>
+        <v>361</v>
       </c>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>386</v>
+        <v>359</v>
       </c>
       <c r="B296" s="5">
         <v>0</v>
       </c>
       <c r="C296" s="6">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="D296" s="4" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="E296" s="6" t="s">
-        <v>192</v>
+        <v>361</v>
       </c>
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>387</v>
+        <v>360</v>
       </c>
       <c r="B297" s="5">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C297" s="6">
-        <v>250</v>
+        <v>30</v>
       </c>
       <c r="D297" s="4" t="s">
-        <v>391</v>
+        <v>366</v>
       </c>
       <c r="E297" s="6" t="s">
-        <v>192</v>
+        <v>361</v>
       </c>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>484</v>
+        <v>362</v>
       </c>
       <c r="B298" s="5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C298" s="6">
-        <v>220</v>
+        <v>550</v>
       </c>
       <c r="D298" s="4" t="s">
-        <v>483</v>
+        <v>367</v>
       </c>
       <c r="E298" s="6" t="s">
-        <v>192</v>
+        <v>361</v>
       </c>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>567</v>
+        <v>368</v>
       </c>
       <c r="B299" s="5">
         <v>1</v>
       </c>
       <c r="C299" s="6">
-        <v>1200</v>
+        <v>550</v>
       </c>
       <c r="D299" s="4" t="s">
-        <v>568</v>
+        <v>369</v>
       </c>
       <c r="E299" s="6" t="s">
-        <v>192</v>
+        <v>361</v>
       </c>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
+        <v>370</v>
+      </c>
+      <c r="B300" s="5">
+        <v>1</v>
+      </c>
+      <c r="C300" s="6">
+        <v>550</v>
+      </c>
+      <c r="D300" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="E300" s="6" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A301" t="s">
+        <v>371</v>
+      </c>
+      <c r="B301" s="5">
+        <v>1</v>
+      </c>
+      <c r="C301" s="6">
+        <v>550</v>
+      </c>
+      <c r="D301" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="E301" s="6" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A302" t="s">
+        <v>372</v>
+      </c>
+      <c r="B302" s="5">
+        <v>1</v>
+      </c>
+      <c r="C302" s="6">
+        <v>550</v>
+      </c>
+      <c r="D302" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="E302" s="6" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A303" t="s">
+        <v>373</v>
+      </c>
+      <c r="B303" s="5">
+        <v>1</v>
+      </c>
+      <c r="C303" s="6">
+        <v>550</v>
+      </c>
+      <c r="D303" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="E303" s="6" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A304" t="s">
+        <v>375</v>
+      </c>
+      <c r="B304" s="5">
+        <v>1</v>
+      </c>
+      <c r="C304" s="6">
+        <v>550</v>
+      </c>
+      <c r="D304" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="E304" s="6" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A305" t="s">
+        <v>374</v>
+      </c>
+      <c r="B305" s="5">
+        <v>1</v>
+      </c>
+      <c r="C305" s="6">
+        <v>550</v>
+      </c>
+      <c r="D305" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="E305" s="6" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A306" t="s">
+        <v>383</v>
+      </c>
+      <c r="B306" s="5">
+        <v>0</v>
+      </c>
+      <c r="C306" s="6">
+        <v>250</v>
+      </c>
+      <c r="D306" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="E306" s="6" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A307" t="s">
+        <v>384</v>
+      </c>
+      <c r="B307" s="5">
+        <v>0</v>
+      </c>
+      <c r="C307" s="6">
+        <v>250</v>
+      </c>
+      <c r="D307" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="E307" s="6" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A308" t="s">
+        <v>385</v>
+      </c>
+      <c r="B308" s="5">
+        <v>0</v>
+      </c>
+      <c r="C308" s="6">
+        <v>250</v>
+      </c>
+      <c r="D308" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="E308" s="6" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A309" t="s">
+        <v>386</v>
+      </c>
+      <c r="B309" s="5">
+        <v>1</v>
+      </c>
+      <c r="C309" s="6">
+        <v>250</v>
+      </c>
+      <c r="D309" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="E309" s="6" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A310" t="s">
+        <v>483</v>
+      </c>
+      <c r="B310" s="5">
+        <v>4</v>
+      </c>
+      <c r="C310" s="6">
+        <v>220</v>
+      </c>
+      <c r="D310" s="4" t="s">
+        <v>482</v>
+      </c>
+      <c r="E310" s="6" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A311" t="s">
         <v>566</v>
       </c>
-      <c r="B300" s="5">
+      <c r="B311" s="5">
+        <v>1</v>
+      </c>
+      <c r="C311" s="6">
+        <v>1200</v>
+      </c>
+      <c r="D311" s="4" t="s">
+        <v>567</v>
+      </c>
+      <c r="E311" s="6" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A312" t="s">
+        <v>565</v>
+      </c>
+      <c r="B312" s="5">
         <v>2</v>
       </c>
-      <c r="C300" s="6">
+      <c r="C312" s="6">
         <v>1200</v>
       </c>
-      <c r="D300" s="4" t="s">
-        <v>569</v>
-      </c>
-      <c r="E300" s="6" t="s">
-        <v>192</v>
+      <c r="D312" s="4" t="s">
+        <v>568</v>
+      </c>
+      <c r="E312" s="6" t="s">
+        <v>191</v>
       </c>
     </row>
   </sheetData>

--- a/data/stock.xlsx
+++ b/data/stock.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\blocks\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F7F61C1-BCDC-42DA-BDC6-AB3292A5E55E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67E03642-9A1E-4E7E-95A4-0FEE515EF70B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FC0CBB84-858B-49F6-BA69-44D83C89F7C4}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="938" uniqueCount="612">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="941" uniqueCount="614">
   <si>
     <t>Product</t>
   </si>
@@ -1870,6 +1870,12 @@
   </si>
   <si>
     <t>Majin buu baby</t>
+  </si>
+  <si>
+    <t>Guts</t>
+  </si>
+  <si>
+    <t>guts.jpg</t>
   </si>
 </sst>
 </file>
@@ -2391,10 +2397,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCDC9875-9E8E-485C-910E-47B83A1F9902}">
-  <dimension ref="A1:E312"/>
+  <dimension ref="A1:E313"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A287" sqref="A287"/>
+    <sheetView tabSelected="1" topLeftCell="A254" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="E265" sqref="E265"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6877,67 +6883,67 @@
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>335</v>
+        <v>612</v>
       </c>
       <c r="B264" s="5">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C264" s="6">
-        <v>250</v>
-      </c>
-      <c r="D264" s="4" t="s">
-        <v>339</v>
+        <v>650</v>
+      </c>
+      <c r="D264" s="2" t="s">
+        <v>613</v>
       </c>
       <c r="E264" s="6" t="s">
-        <v>338</v>
+        <v>191</v>
       </c>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B265" s="5">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C265" s="6">
         <v>250</v>
       </c>
       <c r="D265" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E265" s="6" t="s">
-        <v>411</v>
+        <v>338</v>
       </c>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B266" s="5">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="C266" s="6">
         <v>250</v>
       </c>
       <c r="D266" s="4" t="s">
-        <v>412</v>
+        <v>340</v>
       </c>
       <c r="E266" s="6" t="s">
-        <v>338</v>
+        <v>411</v>
       </c>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>353</v>
+        <v>337</v>
       </c>
       <c r="B267" s="5">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="C267" s="6">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="D267" s="4" t="s">
-        <v>346</v>
+        <v>412</v>
       </c>
       <c r="E267" s="6" t="s">
         <v>338</v>
@@ -6945,16 +6951,16 @@
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="B268" s="5">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C268" s="6">
         <v>150</v>
       </c>
       <c r="D268" s="4" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="E268" s="6" t="s">
         <v>338</v>
@@ -6962,7 +6968,7 @@
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B269" s="5">
         <v>2</v>
@@ -6971,7 +6977,7 @@
         <v>150</v>
       </c>
       <c r="D269" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E269" s="6" t="s">
         <v>338</v>
@@ -6979,16 +6985,16 @@
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="B270" s="5">
         <v>2</v>
       </c>
       <c r="C270" s="6">
-        <v>550</v>
+        <v>150</v>
       </c>
       <c r="D270" s="4" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="E270" s="6" t="s">
         <v>338</v>
@@ -6996,16 +7002,16 @@
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>394</v>
+        <v>348</v>
       </c>
       <c r="B271" s="5">
         <v>2</v>
       </c>
       <c r="C271" s="6">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="D271" s="4" t="s">
-        <v>395</v>
+        <v>347</v>
       </c>
       <c r="E271" s="6" t="s">
         <v>338</v>
@@ -7013,24 +7019,24 @@
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>502</v>
+        <v>394</v>
       </c>
       <c r="B272" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C272" s="6">
-        <v>300</v>
+        <v>650</v>
       </c>
       <c r="D272" s="4" t="s">
-        <v>517</v>
+        <v>395</v>
       </c>
       <c r="E272" s="6" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B273" s="5">
         <v>1</v>
@@ -7039,7 +7045,7 @@
         <v>300</v>
       </c>
       <c r="D273" s="4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E273" s="6" t="s">
         <v>341</v>
@@ -7047,7 +7053,7 @@
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B274" s="5">
         <v>1</v>
@@ -7056,7 +7062,7 @@
         <v>300</v>
       </c>
       <c r="D274" s="4" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E274" s="6" t="s">
         <v>341</v>
@@ -7064,7 +7070,7 @@
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B275" s="5">
         <v>1</v>
@@ -7073,7 +7079,7 @@
         <v>300</v>
       </c>
       <c r="D275" s="4" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="E275" s="6" t="s">
         <v>341</v>
@@ -7081,16 +7087,16 @@
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B276" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C276" s="6">
         <v>300</v>
       </c>
       <c r="D276" s="4" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="E276" s="6" t="s">
         <v>341</v>
@@ -7098,16 +7104,16 @@
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B277" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C277" s="6">
         <v>300</v>
       </c>
       <c r="D277" s="4" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="E277" s="6" t="s">
         <v>341</v>
@@ -7115,16 +7121,16 @@
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B278" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C278" s="6">
         <v>300</v>
       </c>
       <c r="D278" s="4" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E278" s="6" t="s">
         <v>341</v>
@@ -7132,16 +7138,16 @@
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B279" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C279" s="6">
         <v>300</v>
       </c>
       <c r="D279" s="4" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="E279" s="6" t="s">
         <v>341</v>
@@ -7149,16 +7155,16 @@
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B280" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C280" s="6">
         <v>300</v>
       </c>
       <c r="D280" s="4" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="E280" s="6" t="s">
         <v>341</v>
@@ -7166,16 +7172,16 @@
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B281" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C281" s="6">
         <v>300</v>
       </c>
       <c r="D281" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="E281" s="6" t="s">
         <v>341</v>
@@ -7183,16 +7189,16 @@
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B282" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C282" s="6">
         <v>300</v>
       </c>
       <c r="D282" s="4" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="E282" s="6" t="s">
         <v>341</v>
@@ -7200,7 +7206,7 @@
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="B283" s="5">
         <v>2</v>
@@ -7209,7 +7215,7 @@
         <v>300</v>
       </c>
       <c r="D283" s="4" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E283" s="6" t="s">
         <v>341</v>
@@ -7217,16 +7223,16 @@
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B284" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C284" s="6">
         <v>300</v>
       </c>
       <c r="D284" s="4" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="E284" s="6" t="s">
         <v>341</v>
@@ -7234,16 +7240,16 @@
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="B285" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C285" s="6">
         <v>300</v>
       </c>
       <c r="D285" s="4" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="E285" s="6" t="s">
         <v>341</v>
@@ -7251,7 +7257,7 @@
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B286" s="5">
         <v>0</v>
@@ -7260,7 +7266,7 @@
         <v>300</v>
       </c>
       <c r="D286" s="4" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="E286" s="6" t="s">
         <v>341</v>
@@ -7268,16 +7274,16 @@
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>611</v>
+        <v>514</v>
       </c>
       <c r="B287" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C287" s="6">
-        <v>320</v>
+        <v>300</v>
       </c>
       <c r="D287" s="4" t="s">
-        <v>595</v>
+        <v>531</v>
       </c>
       <c r="E287" s="6" t="s">
         <v>341</v>
@@ -7285,16 +7291,16 @@
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>592</v>
+        <v>611</v>
       </c>
       <c r="B288" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C288" s="6">
         <v>320</v>
       </c>
       <c r="D288" s="4" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="E288" s="6" t="s">
         <v>341</v>
@@ -7302,16 +7308,16 @@
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B289" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C289" s="6">
         <v>320</v>
       </c>
       <c r="D289" s="4" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="E289" s="6" t="s">
         <v>341</v>
@@ -7319,7 +7325,7 @@
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B290" s="5">
         <v>2</v>
@@ -7328,7 +7334,7 @@
         <v>320</v>
       </c>
       <c r="D290" s="4" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E290" s="6" t="s">
         <v>341</v>
@@ -7336,33 +7342,33 @@
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>344</v>
+        <v>594</v>
       </c>
       <c r="B291" s="5">
         <v>2</v>
       </c>
       <c r="C291" s="6">
-        <v>800</v>
+        <v>320</v>
       </c>
       <c r="D291" s="4" t="s">
-        <v>342</v>
+        <v>598</v>
       </c>
       <c r="E291" s="6" t="s">
-        <v>191</v>
+        <v>341</v>
       </c>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B292" s="5">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="C292" s="6">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="D292" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E292" s="6" t="s">
         <v>191</v>
@@ -7370,33 +7376,33 @@
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>356</v>
+        <v>345</v>
       </c>
       <c r="B293" s="5">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="C293" s="6">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="D293" s="4" t="s">
-        <v>363</v>
+        <v>343</v>
       </c>
       <c r="E293" s="6" t="s">
-        <v>361</v>
+        <v>191</v>
       </c>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B294" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C294" s="6">
         <v>150</v>
       </c>
       <c r="D294" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E294" s="6" t="s">
         <v>361</v>
@@ -7404,16 +7410,16 @@
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B295" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C295" s="6">
         <v>150</v>
       </c>
       <c r="D295" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E295" s="6" t="s">
         <v>361</v>
@@ -7421,7 +7427,7 @@
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B296" s="5">
         <v>0</v>
@@ -7430,7 +7436,7 @@
         <v>150</v>
       </c>
       <c r="D296" s="4" t="s">
-        <v>382</v>
+        <v>365</v>
       </c>
       <c r="E296" s="6" t="s">
         <v>361</v>
@@ -7438,16 +7444,16 @@
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B297" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C297" s="6">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="D297" s="4" t="s">
-        <v>366</v>
+        <v>382</v>
       </c>
       <c r="E297" s="6" t="s">
         <v>361</v>
@@ -7455,16 +7461,16 @@
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B298" s="5">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C298" s="6">
-        <v>550</v>
+        <v>30</v>
       </c>
       <c r="D298" s="4" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E298" s="6" t="s">
         <v>361</v>
@@ -7472,7 +7478,7 @@
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="B299" s="5">
         <v>1</v>
@@ -7481,7 +7487,7 @@
         <v>550</v>
       </c>
       <c r="D299" s="4" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="E299" s="6" t="s">
         <v>361</v>
@@ -7489,7 +7495,7 @@
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B300" s="5">
         <v>1</v>
@@ -7498,7 +7504,7 @@
         <v>550</v>
       </c>
       <c r="D300" s="4" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="E300" s="6" t="s">
         <v>361</v>
@@ -7506,7 +7512,7 @@
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B301" s="5">
         <v>1</v>
@@ -7515,7 +7521,7 @@
         <v>550</v>
       </c>
       <c r="D301" s="4" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E301" s="6" t="s">
         <v>361</v>
@@ -7523,7 +7529,7 @@
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B302" s="5">
         <v>1</v>
@@ -7532,7 +7538,7 @@
         <v>550</v>
       </c>
       <c r="D302" s="4" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E302" s="6" t="s">
         <v>361</v>
@@ -7540,7 +7546,7 @@
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B303" s="5">
         <v>1</v>
@@ -7549,7 +7555,7 @@
         <v>550</v>
       </c>
       <c r="D303" s="4" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E303" s="6" t="s">
         <v>361</v>
@@ -7557,7 +7563,7 @@
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B304" s="5">
         <v>1</v>
@@ -7566,7 +7572,7 @@
         <v>550</v>
       </c>
       <c r="D304" s="4" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E304" s="6" t="s">
         <v>361</v>
@@ -7574,7 +7580,7 @@
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B305" s="5">
         <v>1</v>
@@ -7583,7 +7589,7 @@
         <v>550</v>
       </c>
       <c r="D305" s="4" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E305" s="6" t="s">
         <v>361</v>
@@ -7591,24 +7597,24 @@
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="B306" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C306" s="6">
-        <v>250</v>
+        <v>550</v>
       </c>
       <c r="D306" s="4" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="E306" s="6" t="s">
-        <v>191</v>
+        <v>361</v>
       </c>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B307" s="5">
         <v>0</v>
@@ -7617,7 +7623,7 @@
         <v>250</v>
       </c>
       <c r="D307" s="4" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E307" s="6" t="s">
         <v>191</v>
@@ -7625,7 +7631,7 @@
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B308" s="5">
         <v>0</v>
@@ -7634,7 +7640,7 @@
         <v>250</v>
       </c>
       <c r="D308" s="4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E308" s="6" t="s">
         <v>191</v>
@@ -7642,16 +7648,16 @@
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B309" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C309" s="6">
         <v>250</v>
       </c>
       <c r="D309" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E309" s="6" t="s">
         <v>191</v>
@@ -7659,16 +7665,16 @@
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>483</v>
+        <v>386</v>
       </c>
       <c r="B310" s="5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C310" s="6">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="D310" s="4" t="s">
-        <v>482</v>
+        <v>390</v>
       </c>
       <c r="E310" s="6" t="s">
         <v>191</v>
@@ -7676,16 +7682,16 @@
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>566</v>
+        <v>483</v>
       </c>
       <c r="B311" s="5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C311" s="6">
-        <v>1200</v>
+        <v>220</v>
       </c>
       <c r="D311" s="4" t="s">
-        <v>567</v>
+        <v>482</v>
       </c>
       <c r="E311" s="6" t="s">
         <v>191</v>
@@ -7693,18 +7699,35 @@
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B312" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C312" s="6">
         <v>1200</v>
       </c>
       <c r="D312" s="4" t="s">
+        <v>567</v>
+      </c>
+      <c r="E312" s="6" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A313" t="s">
+        <v>565</v>
+      </c>
+      <c r="B313" s="5">
+        <v>2</v>
+      </c>
+      <c r="C313" s="6">
+        <v>1200</v>
+      </c>
+      <c r="D313" s="4" t="s">
         <v>568</v>
       </c>
-      <c r="E312" s="6" t="s">
+      <c r="E313" s="6" t="s">
         <v>191</v>
       </c>
     </row>

--- a/data/stock.xlsx
+++ b/data/stock.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\blocks\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67E03642-9A1E-4E7E-95A4-0FEE515EF70B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C1867DA-5023-4A3E-AFE9-3B3616001D9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FC0CBB84-858B-49F6-BA69-44D83C89F7C4}"/>
+    <workbookView xWindow="3690" yWindow="2010" windowWidth="21600" windowHeight="11250" xr2:uid="{FC0CBB84-858B-49F6-BA69-44D83C89F7C4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="941" uniqueCount="614">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="962" uniqueCount="628">
   <si>
     <t>Product</t>
   </si>
@@ -1876,13 +1876,55 @@
   </si>
   <si>
     <t>guts.jpg</t>
+  </si>
+  <si>
+    <t>Kuma WM</t>
+  </si>
+  <si>
+    <t>Kuma Battledamaged WM</t>
+  </si>
+  <si>
+    <t>Nami Wholecake WM</t>
+  </si>
+  <si>
+    <t>Jimbe Red WM</t>
+  </si>
+  <si>
+    <t>Nami regular WM</t>
+  </si>
+  <si>
+    <t>Prince Sanji WM</t>
+  </si>
+  <si>
+    <t>Kuzan [Aokiji] WM</t>
+  </si>
+  <si>
+    <t>kuma wm.jpg</t>
+  </si>
+  <si>
+    <t>kuma battle wm.jpg</t>
+  </si>
+  <si>
+    <t>kuzan wm.jpg</t>
+  </si>
+  <si>
+    <t>nami regular.jpg</t>
+  </si>
+  <si>
+    <t>nami wholecake.jpg</t>
+  </si>
+  <si>
+    <t>sanji prince.jpg</t>
+  </si>
+  <si>
+    <t>jinbe red wm.jpg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1909,6 +1951,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1931,7 +1987,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -1951,6 +2007,16 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -2397,10 +2463,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCDC9875-9E8E-485C-910E-47B83A1F9902}">
-  <dimension ref="A1:E313"/>
+  <dimension ref="A1:E320"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A254" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E265" sqref="E265"/>
+    <sheetView tabSelected="1" topLeftCell="A146" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C169" sqref="C169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2530,34 +2596,34 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="3">
-        <v>0</v>
-      </c>
-      <c r="C8" s="3">
-        <v>220</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>6</v>
+      <c r="A8" s="9" t="s">
+        <v>612</v>
+      </c>
+      <c r="B8" s="10">
+        <v>3</v>
+      </c>
+      <c r="C8" s="11">
+        <v>650</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>613</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>544</v>
+        <v>5</v>
       </c>
       <c r="B9" s="3">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C9" s="3">
         <v>220</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>6</v>
@@ -2565,16 +2631,16 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>534</v>
+        <v>544</v>
       </c>
       <c r="B10" s="3">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C10" s="3">
-        <v>350</v>
+        <v>220</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>6</v>
@@ -2582,16 +2648,16 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>7</v>
+        <v>534</v>
       </c>
       <c r="B11" s="3">
         <v>2</v>
       </c>
       <c r="C11" s="3">
-        <v>180</v>
+        <v>350</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>6</v>
@@ -2599,16 +2665,16 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B12" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C12" s="3">
         <v>180</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>6</v>
@@ -2616,16 +2682,16 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>535</v>
+        <v>8</v>
       </c>
       <c r="B13" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C13" s="3">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>210</v>
+        <v>147</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>6</v>
@@ -2633,16 +2699,16 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>9</v>
+        <v>535</v>
       </c>
       <c r="B14" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C14" s="3">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>147</v>
+        <v>210</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>6</v>
@@ -2650,13 +2716,13 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B15" s="3">
         <v>0</v>
       </c>
       <c r="C15" s="3">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>147</v>
@@ -2667,16 +2733,16 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>545</v>
+        <v>10</v>
       </c>
       <c r="B16" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C16" s="3">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>275</v>
+        <v>147</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>6</v>
@@ -2684,7 +2750,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>270</v>
+        <v>545</v>
       </c>
       <c r="B17" s="3">
         <v>2</v>
@@ -2693,7 +2759,7 @@
         <v>250</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>6</v>
@@ -2701,7 +2767,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>400</v>
+        <v>270</v>
       </c>
       <c r="B18" s="3">
         <v>2</v>
@@ -2710,7 +2776,7 @@
         <v>250</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>399</v>
+        <v>276</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>6</v>
@@ -2718,7 +2784,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>271</v>
+        <v>400</v>
       </c>
       <c r="B19" s="3">
         <v>2</v>
@@ -2727,7 +2793,7 @@
         <v>250</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>278</v>
+        <v>399</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>6</v>
@@ -2735,7 +2801,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B20" s="3">
         <v>2</v>
@@ -2744,7 +2810,7 @@
         <v>250</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>6</v>
@@ -2752,16 +2818,16 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>397</v>
+        <v>272</v>
       </c>
       <c r="B21" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C21" s="3">
         <v>250</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>398</v>
+        <v>279</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>6</v>
@@ -2769,7 +2835,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>273</v>
+        <v>397</v>
       </c>
       <c r="B22" s="3">
         <v>1</v>
@@ -2778,7 +2844,7 @@
         <v>250</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>277</v>
+        <v>398</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>6</v>
@@ -2786,16 +2852,16 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B23" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C23" s="3">
         <v>250</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>6</v>
@@ -2803,16 +2869,16 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>401</v>
+        <v>274</v>
       </c>
       <c r="B24" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C24" s="3">
         <v>250</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>402</v>
+        <v>280</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>6</v>
@@ -2820,16 +2886,16 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>11</v>
+        <v>401</v>
       </c>
       <c r="B25" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C25" s="3">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>244</v>
+        <v>402</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>6</v>
@@ -2837,16 +2903,16 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B26" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C26" s="3">
         <v>220</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>147</v>
+        <v>244</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>6</v>
@@ -2854,16 +2920,16 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B27" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C27" s="3">
         <v>220</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>245</v>
+        <v>147</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>6</v>
@@ -2871,16 +2937,16 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B28" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C28" s="3">
         <v>220</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>6</v>
@@ -2888,16 +2954,16 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B29" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C29" s="3">
         <v>220</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>6</v>
@@ -2905,16 +2971,16 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B30" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C30" s="3">
         <v>220</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>6</v>
@@ -2922,16 +2988,16 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B31" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C31" s="3">
         <v>220</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>6</v>
@@ -2939,16 +3005,16 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B32" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C32" s="3">
         <v>220</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>147</v>
+        <v>249</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>6</v>
@@ -2956,16 +3022,16 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B33" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C33" s="3">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>211</v>
+        <v>147</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>6</v>
@@ -2973,16 +3039,16 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B34" s="3">
         <v>1</v>
       </c>
       <c r="C34" s="3">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>148</v>
+        <v>211</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>6</v>
@@ -2990,16 +3056,16 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B35" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C35" s="3">
-        <v>180</v>
+        <v>220</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>6</v>
@@ -3007,16 +3073,16 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B36" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C36" s="3">
         <v>180</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>213</v>
+        <v>149</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>6</v>
@@ -3024,7 +3090,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B37" s="3">
         <v>0</v>
@@ -3033,7 +3099,7 @@
         <v>180</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>147</v>
+        <v>213</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>6</v>
@@ -3041,7 +3107,7 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>536</v>
+        <v>23</v>
       </c>
       <c r="B38" s="3">
         <v>0</v>
@@ -3058,7 +3124,7 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B39" s="3">
         <v>0</v>
@@ -3075,7 +3141,7 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B40" s="3">
         <v>0</v>
@@ -3084,7 +3150,7 @@
         <v>180</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>212</v>
+        <v>147</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>6</v>
@@ -3092,16 +3158,16 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>24</v>
+        <v>538</v>
       </c>
       <c r="B41" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C41" s="3">
         <v>180</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>6</v>
@@ -3109,16 +3175,16 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>539</v>
+        <v>24</v>
       </c>
       <c r="B42" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C42" s="3">
-        <v>270</v>
+        <v>180</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>6</v>
@@ -3126,16 +3192,16 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B43" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C43" s="3">
         <v>270</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>150</v>
+        <v>215</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>6</v>
@@ -3143,16 +3209,16 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B44" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C44" s="3">
         <v>270</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>216</v>
+        <v>150</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>6</v>
@@ -3160,16 +3226,16 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>25</v>
+        <v>541</v>
       </c>
       <c r="B45" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C45" s="3">
-        <v>450</v>
+        <v>270</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>6</v>
@@ -3177,16 +3243,16 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B46" s="3">
         <v>0</v>
       </c>
       <c r="C46" s="3">
-        <v>380</v>
+        <v>450</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>152</v>
+        <v>217</v>
       </c>
       <c r="E46" s="3" t="s">
         <v>6</v>
@@ -3194,16 +3260,16 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B47" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C47" s="3">
-        <v>800</v>
+        <v>380</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>6</v>
@@ -3211,16 +3277,16 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B48" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C48" s="3">
-        <v>270</v>
+        <v>800</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>250</v>
+        <v>154</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>6</v>
@@ -3228,7 +3294,7 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B49" s="3">
         <v>0</v>
@@ -3237,7 +3303,7 @@
         <v>270</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>147</v>
+        <v>250</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>6</v>
@@ -3245,16 +3311,16 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B50" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C50" s="3">
         <v>270</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>251</v>
+        <v>147</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>6</v>
@@ -3262,16 +3328,16 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>542</v>
+        <v>30</v>
       </c>
       <c r="B51" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C51" s="3">
-        <v>250</v>
-      </c>
-      <c r="D51" s="8" t="s">
-        <v>421</v>
+        <v>270</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>251</v>
       </c>
       <c r="E51" s="3" t="s">
         <v>6</v>
@@ -3279,16 +3345,16 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>31</v>
+        <v>542</v>
       </c>
       <c r="B52" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C52" s="3">
-        <v>850</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>153</v>
+        <v>250</v>
+      </c>
+      <c r="D52" s="8" t="s">
+        <v>421</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>6</v>
@@ -3296,16 +3362,16 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>300</v>
+        <v>31</v>
       </c>
       <c r="B53" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C53" s="3">
-        <v>250</v>
+        <v>850</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>180</v>
+        <v>153</v>
       </c>
       <c r="E53" s="3" t="s">
         <v>6</v>
@@ -3313,16 +3379,16 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B54" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C54" s="3">
         <v>250</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>218</v>
+        <v>180</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>6</v>
@@ -3330,16 +3396,16 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>32</v>
+        <v>301</v>
       </c>
       <c r="B55" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C55" s="3">
         <v>250</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E55" s="3" t="s">
         <v>6</v>
@@ -3347,16 +3413,16 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B56" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C56" s="3">
         <v>250</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E56" s="3" t="s">
         <v>6</v>
@@ -3364,7 +3430,7 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>303</v>
+        <v>33</v>
       </c>
       <c r="B57" s="3">
         <v>0</v>
@@ -3373,7 +3439,7 @@
         <v>250</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>151</v>
+        <v>220</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>6</v>
@@ -3381,16 +3447,16 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B58" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C58" s="3">
         <v>250</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>206</v>
+        <v>151</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>6</v>
@@ -3398,7 +3464,7 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>546</v>
+        <v>302</v>
       </c>
       <c r="B59" s="3">
         <v>1</v>
@@ -3407,7 +3473,7 @@
         <v>250</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>181</v>
+        <v>206</v>
       </c>
       <c r="E59" s="3" t="s">
         <v>6</v>
@@ -3415,16 +3481,16 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>304</v>
+        <v>546</v>
       </c>
       <c r="B60" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C60" s="3">
-        <v>360</v>
+        <v>250</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>252</v>
+        <v>181</v>
       </c>
       <c r="E60" s="3" t="s">
         <v>6</v>
@@ -3432,16 +3498,16 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B61" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C61" s="3">
         <v>360</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E61" s="3" t="s">
         <v>6</v>
@@ -3449,33 +3515,33 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>221</v>
+        <v>305</v>
       </c>
       <c r="B62" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C62" s="3">
-        <v>200</v>
+        <v>360</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>222</v>
+        <v>253</v>
       </c>
       <c r="E62" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="7" t="s">
-        <v>543</v>
+      <c r="A63" s="1" t="s">
+        <v>221</v>
       </c>
       <c r="B63" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C63" s="3">
-        <v>260</v>
-      </c>
-      <c r="D63" s="8" t="s">
-        <v>422</v>
+        <v>200</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>222</v>
       </c>
       <c r="E63" s="3" t="s">
         <v>6</v>
@@ -3483,33 +3549,33 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="7" t="s">
-        <v>418</v>
+        <v>543</v>
       </c>
       <c r="B64" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C64" s="3">
         <v>260</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E64" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
-        <v>413</v>
+      <c r="A65" s="7" t="s">
+        <v>418</v>
       </c>
       <c r="B65" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C65" s="3">
         <v>260</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="E65" s="3" t="s">
         <v>6</v>
@@ -3517,33 +3583,33 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B66" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C66" s="3">
         <v>260</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E66" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="7" t="s">
-        <v>419</v>
+      <c r="A67" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="B67" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C67" s="3">
-        <v>220</v>
+        <v>260</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E67" s="3" t="s">
         <v>6</v>
@@ -3551,101 +3617,101 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="7" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B68" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C68" s="3">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>147</v>
+        <v>427</v>
       </c>
       <c r="E68" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="1" t="s">
-        <v>415</v>
+      <c r="A69" s="7" t="s">
+        <v>420</v>
       </c>
       <c r="B69" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C69" s="3">
         <v>250</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>428</v>
+        <v>147</v>
       </c>
       <c r="E69" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="7" t="s">
-        <v>564</v>
+      <c r="A70" s="1" t="s">
+        <v>415</v>
       </c>
       <c r="B70" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C70" s="3">
         <v>250</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E70" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="1" t="s">
-        <v>416</v>
+      <c r="A71" s="7" t="s">
+        <v>564</v>
       </c>
       <c r="B71" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C71" s="3">
         <v>250</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="E71" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="7" t="s">
-        <v>563</v>
+      <c r="A72" s="1" t="s">
+        <v>416</v>
       </c>
       <c r="B72" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C72" s="3">
         <v>250</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="1" t="s">
-        <v>417</v>
+      <c r="A73" s="7" t="s">
+        <v>563</v>
       </c>
       <c r="B73" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C73" s="3">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E73" s="3" t="s">
         <v>6</v>
@@ -3653,33 +3719,33 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>38</v>
+        <v>417</v>
       </c>
       <c r="B74" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C74" s="3">
-        <v>180</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>223</v>
+        <v>220</v>
+      </c>
+      <c r="D74" s="8" t="s">
+        <v>431</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>35</v>
+        <v>6</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>405</v>
+        <v>38</v>
       </c>
       <c r="B75" s="3">
         <v>0</v>
       </c>
       <c r="C75" s="3">
-        <v>250</v>
+        <v>180</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>406</v>
+        <v>223</v>
       </c>
       <c r="E75" s="3" t="s">
         <v>35</v>
@@ -3687,7 +3753,7 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>34</v>
+        <v>405</v>
       </c>
       <c r="B76" s="3">
         <v>0</v>
@@ -3696,7 +3762,7 @@
         <v>250</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>396</v>
+        <v>406</v>
       </c>
       <c r="E76" s="3" t="s">
         <v>35</v>
@@ -3704,7 +3770,7 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>403</v>
+        <v>34</v>
       </c>
       <c r="B77" s="3">
         <v>0</v>
@@ -3713,7 +3779,7 @@
         <v>250</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="E77" s="3" t="s">
         <v>35</v>
@@ -3721,16 +3787,16 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>39</v>
+        <v>403</v>
       </c>
       <c r="B78" s="3">
         <v>0</v>
       </c>
       <c r="C78" s="3">
-        <v>180</v>
+        <v>250</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>147</v>
+        <v>404</v>
       </c>
       <c r="E78" s="3" t="s">
         <v>35</v>
@@ -3738,16 +3804,16 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>407</v>
+        <v>39</v>
       </c>
       <c r="B79" s="3">
         <v>0</v>
       </c>
       <c r="C79" s="3">
-        <v>250</v>
+        <v>180</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>409</v>
+        <v>147</v>
       </c>
       <c r="E79" s="3" t="s">
         <v>35</v>
@@ -3755,16 +3821,16 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B80" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C80" s="3">
         <v>250</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E80" s="3" t="s">
         <v>35</v>
@@ -3772,16 +3838,16 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>306</v>
+        <v>408</v>
       </c>
       <c r="B81" s="3">
         <v>1</v>
       </c>
       <c r="C81" s="3">
-        <v>180</v>
+        <v>250</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>391</v>
+        <v>410</v>
       </c>
       <c r="E81" s="3" t="s">
         <v>35</v>
@@ -3789,7 +3855,7 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B82" s="3">
         <v>1</v>
@@ -3798,7 +3864,7 @@
         <v>180</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E82" s="3" t="s">
         <v>35</v>
@@ -3806,16 +3872,16 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>37</v>
+        <v>307</v>
       </c>
       <c r="B83" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C83" s="3">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>224</v>
+        <v>392</v>
       </c>
       <c r="E83" s="3" t="s">
         <v>35</v>
@@ -3823,16 +3889,16 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B84" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C84" s="3">
         <v>300</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E84" s="3" t="s">
         <v>35</v>
@@ -3840,16 +3906,16 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>532</v>
+        <v>36</v>
       </c>
       <c r="B85" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C85" s="3">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>533</v>
+        <v>225</v>
       </c>
       <c r="E85" s="3" t="s">
         <v>35</v>
@@ -3857,16 +3923,16 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>40</v>
+        <v>532</v>
       </c>
       <c r="B86" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C86" s="3">
-        <v>350</v>
+        <v>1000</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>207</v>
+        <v>533</v>
       </c>
       <c r="E86" s="3" t="s">
         <v>35</v>
@@ -3874,16 +3940,16 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B87" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C87" s="3">
         <v>350</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E87" s="3" t="s">
         <v>35</v>
@@ -3891,33 +3957,33 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B88" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C88" s="3">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E88" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" s="7" t="s">
-        <v>434</v>
+      <c r="A89" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B89" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C89" s="3">
-        <v>220</v>
-      </c>
-      <c r="D89" s="8" t="s">
-        <v>444</v>
+        <v>500</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>209</v>
       </c>
       <c r="E89" s="3" t="s">
         <v>35</v>
@@ -3925,16 +3991,16 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="7" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B90" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C90" s="3">
         <v>220</v>
       </c>
       <c r="D90" s="8" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="E90" s="3" t="s">
         <v>35</v>
@@ -3942,16 +4008,16 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="7" t="s">
-        <v>432</v>
-      </c>
-      <c r="B91" s="6">
-        <v>0</v>
-      </c>
-      <c r="C91" s="6">
-        <v>200</v>
-      </c>
-      <c r="D91" s="4" t="s">
-        <v>439</v>
+        <v>435</v>
+      </c>
+      <c r="B91" s="3">
+        <v>0</v>
+      </c>
+      <c r="C91" s="3">
+        <v>220</v>
+      </c>
+      <c r="D91" s="8" t="s">
+        <v>443</v>
       </c>
       <c r="E91" s="3" t="s">
         <v>35</v>
@@ -3959,16 +4025,16 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="7" t="s">
-        <v>436</v>
-      </c>
-      <c r="B92" s="3">
-        <v>0</v>
-      </c>
-      <c r="C92" s="3">
-        <v>220</v>
-      </c>
-      <c r="D92" s="8" t="s">
-        <v>445</v>
+        <v>432</v>
+      </c>
+      <c r="B92" s="6">
+        <v>0</v>
+      </c>
+      <c r="C92" s="6">
+        <v>200</v>
+      </c>
+      <c r="D92" s="4" t="s">
+        <v>439</v>
       </c>
       <c r="E92" s="3" t="s">
         <v>35</v>
@@ -3976,16 +4042,16 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="7" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B93" s="3">
         <v>0</v>
       </c>
       <c r="C93" s="3">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="D93" s="8" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="E93" s="3" t="s">
         <v>35</v>
@@ -3993,7 +4059,7 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="7" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B94" s="3">
         <v>0</v>
@@ -4002,24 +4068,24 @@
         <v>250</v>
       </c>
       <c r="D94" s="8" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E94" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95" s="1" t="s">
-        <v>433</v>
+      <c r="A95" s="7" t="s">
+        <v>438</v>
       </c>
       <c r="B95" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C95" s="3">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="D95" s="8" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="E95" s="3" t="s">
         <v>35</v>
@@ -4027,16 +4093,16 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>43</v>
+        <v>433</v>
       </c>
       <c r="B96" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C96" s="3">
-        <v>350</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>194</v>
+        <v>220</v>
+      </c>
+      <c r="D96" s="8" t="s">
+        <v>440</v>
       </c>
       <c r="E96" s="3" t="s">
         <v>35</v>
@@ -4044,16 +4110,16 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B97" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C97" s="3">
         <v>350</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E97" s="3" t="s">
         <v>35</v>
@@ -4061,7 +4127,7 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B98" s="3">
         <v>0</v>
@@ -4070,7 +4136,7 @@
         <v>350</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E98" s="3" t="s">
         <v>35</v>
@@ -4078,16 +4144,16 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B99" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C99" s="3">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="E99" s="3" t="s">
         <v>35</v>
@@ -4095,16 +4161,16 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>562</v>
+        <v>46</v>
       </c>
       <c r="B100" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C100" s="3">
         <v>500</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E100" s="3" t="s">
         <v>35</v>
@@ -4112,33 +4178,33 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>47</v>
+        <v>562</v>
       </c>
       <c r="B101" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C101" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>588</v>
+        <v>47</v>
       </c>
       <c r="B102" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C102" s="3">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>590</v>
+        <v>197</v>
       </c>
       <c r="E102" s="3" t="s">
         <v>48</v>
@@ -4146,16 +4212,16 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="B103" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C103" s="3">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>160</v>
+        <v>590</v>
       </c>
       <c r="E103" s="3" t="s">
         <v>48</v>
@@ -4163,16 +4229,16 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>49</v>
+        <v>585</v>
       </c>
       <c r="B104" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C104" s="3">
         <v>300</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>198</v>
+        <v>160</v>
       </c>
       <c r="E104" s="3" t="s">
         <v>48</v>
@@ -4180,7 +4246,7 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B105" s="3">
         <v>0</v>
@@ -4189,7 +4255,7 @@
         <v>300</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>147</v>
+        <v>198</v>
       </c>
       <c r="E105" s="3" t="s">
         <v>48</v>
@@ -4197,16 +4263,16 @@
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>589</v>
+        <v>50</v>
       </c>
       <c r="B106" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C106" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>591</v>
+        <v>147</v>
       </c>
       <c r="E106" s="3" t="s">
         <v>48</v>
@@ -4214,16 +4280,16 @@
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="B107" s="3">
         <v>1</v>
       </c>
       <c r="C107" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>157</v>
+        <v>591</v>
       </c>
       <c r="E107" s="3" t="s">
         <v>48</v>
@@ -4231,16 +4297,16 @@
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>51</v>
+        <v>587</v>
       </c>
       <c r="B108" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C108" s="3">
-        <v>270</v>
+        <v>300</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="E108" s="3" t="s">
         <v>48</v>
@@ -4248,7 +4314,7 @@
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B109" s="3">
         <v>0</v>
@@ -4257,7 +4323,7 @@
         <v>270</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="E109" s="3" t="s">
         <v>48</v>
@@ -4265,16 +4331,16 @@
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B110" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C110" s="3">
-        <v>300</v>
+        <v>270</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E110" s="3" t="s">
         <v>48</v>
@@ -4282,16 +4348,16 @@
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B111" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C111" s="3">
         <v>300</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="E111" s="3" t="s">
         <v>48</v>
@@ -4299,7 +4365,7 @@
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B112" s="3">
         <v>0</v>
@@ -4308,7 +4374,7 @@
         <v>300</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>183</v>
+        <v>147</v>
       </c>
       <c r="E112" s="3" t="s">
         <v>48</v>
@@ -4316,16 +4382,16 @@
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>354</v>
+        <v>55</v>
       </c>
       <c r="B113" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C113" s="3">
         <v>300</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E113" s="3" t="s">
         <v>48</v>
@@ -4333,16 +4399,16 @@
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>56</v>
+        <v>354</v>
       </c>
       <c r="B114" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C114" s="3">
         <v>300</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>161</v>
+        <v>182</v>
       </c>
       <c r="E114" s="3" t="s">
         <v>48</v>
@@ -4350,7 +4416,7 @@
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B115" s="3">
         <v>0</v>
@@ -4359,7 +4425,7 @@
         <v>300</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="E115" s="3" t="s">
         <v>48</v>
@@ -4367,16 +4433,16 @@
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>268</v>
+        <v>57</v>
       </c>
       <c r="B116" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C116" s="3">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>269</v>
+        <v>147</v>
       </c>
       <c r="E116" s="3" t="s">
         <v>48</v>
@@ -4384,16 +4450,16 @@
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>58</v>
+        <v>268</v>
       </c>
       <c r="B117" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C117" s="3">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>147</v>
+        <v>269</v>
       </c>
       <c r="E117" s="3" t="s">
         <v>48</v>
@@ -4401,7 +4467,7 @@
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B118" s="3">
         <v>0</v>
@@ -4418,7 +4484,7 @@
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B119" s="3">
         <v>0</v>
@@ -4435,7 +4501,7 @@
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B120" s="3">
         <v>0</v>
@@ -4452,7 +4518,7 @@
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B121" s="3">
         <v>0</v>
@@ -4469,7 +4535,7 @@
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B122" s="3">
         <v>0</v>
@@ -4486,16 +4552,16 @@
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B123" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C123" s="3">
         <v>300</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="E123" s="3" t="s">
         <v>48</v>
@@ -4503,16 +4569,16 @@
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>317</v>
+        <v>64</v>
       </c>
       <c r="B124" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C124" s="3">
         <v>300</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>334</v>
+        <v>162</v>
       </c>
       <c r="E124" s="3" t="s">
         <v>48</v>
@@ -4520,16 +4586,16 @@
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>266</v>
+        <v>317</v>
       </c>
       <c r="B125" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C125" s="3">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>158</v>
+        <v>334</v>
       </c>
       <c r="E125" s="3" t="s">
         <v>48</v>
@@ -4537,16 +4603,16 @@
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B126" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C126" s="3">
         <v>350</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E126" s="3" t="s">
         <v>48</v>
@@ -4554,16 +4620,16 @@
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>65</v>
+        <v>267</v>
       </c>
       <c r="B127" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C127" s="3">
         <v>350</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="E127" s="3" t="s">
         <v>48</v>
@@ -4571,16 +4637,16 @@
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B128" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C128" s="3">
         <v>350</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E128" s="3" t="s">
         <v>48</v>
@@ -4588,16 +4654,16 @@
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B129" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C129" s="3">
-        <v>320</v>
+        <v>350</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E129" s="3" t="s">
         <v>48</v>
@@ -4605,16 +4671,16 @@
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B130" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C130" s="3">
         <v>320</v>
       </c>
-      <c r="D130" s="1" t="s">
-        <v>166</v>
+      <c r="D130" s="2" t="s">
+        <v>165</v>
       </c>
       <c r="E130" s="3" t="s">
         <v>48</v>
@@ -4622,7 +4688,7 @@
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B131" s="3">
         <v>1</v>
@@ -4631,7 +4697,7 @@
         <v>320</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="E131" s="3" t="s">
         <v>48</v>
@@ -4639,7 +4705,7 @@
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B132" s="3">
         <v>1</v>
@@ -4648,7 +4714,7 @@
         <v>320</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="E132" s="3" t="s">
         <v>48</v>
@@ -4656,7 +4722,7 @@
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B133" s="3">
         <v>1</v>
@@ -4665,7 +4731,7 @@
         <v>320</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E133" s="3" t="s">
         <v>48</v>
@@ -4673,7 +4739,7 @@
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B134" s="3">
         <v>1</v>
@@ -4682,7 +4748,7 @@
         <v>320</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E134" s="3" t="s">
         <v>48</v>
@@ -4690,16 +4756,16 @@
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B135" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C135" s="3">
         <v>320</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E135" s="3" t="s">
         <v>48</v>
@@ -4707,7 +4773,7 @@
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B136" s="3">
         <v>2</v>
@@ -4716,7 +4782,7 @@
         <v>320</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E136" s="3" t="s">
         <v>48</v>
@@ -4724,16 +4790,16 @@
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B137" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C137" s="3">
         <v>320</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E137" s="3" t="s">
         <v>48</v>
@@ -4741,16 +4807,16 @@
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B138" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C138" s="3">
         <v>320</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E138" s="3" t="s">
         <v>48</v>
@@ -4758,16 +4824,16 @@
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B139" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C139" s="3">
         <v>320</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E139" s="3" t="s">
         <v>48</v>
@@ -4775,16 +4841,16 @@
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B140" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C140" s="3">
         <v>320</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E140" s="3" t="s">
         <v>48</v>
@@ -4792,7 +4858,7 @@
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B141" s="3">
         <v>1</v>
@@ -4801,7 +4867,7 @@
         <v>320</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E141" s="3" t="s">
         <v>48</v>
@@ -4809,16 +4875,16 @@
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B142" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C142" s="3">
         <v>320</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E142" s="3" t="s">
         <v>48</v>
@@ -4826,16 +4892,16 @@
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B143" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C143" s="3">
         <v>320</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E143" s="3" t="s">
         <v>48</v>
@@ -4843,7 +4909,7 @@
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
-        <v>330</v>
+        <v>81</v>
       </c>
       <c r="B144" s="3">
         <v>1</v>
@@ -4851,8 +4917,8 @@
       <c r="C144" s="3">
         <v>320</v>
       </c>
-      <c r="D144" s="2" t="s">
-        <v>331</v>
+      <c r="D144" s="1" t="s">
+        <v>178</v>
       </c>
       <c r="E144" s="3" t="s">
         <v>48</v>
@@ -4860,16 +4926,16 @@
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
-        <v>82</v>
+        <v>330</v>
       </c>
       <c r="B145" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C145" s="3">
-        <v>300</v>
+        <v>320</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>254</v>
+        <v>331</v>
       </c>
       <c r="E145" s="3" t="s">
         <v>48</v>
@@ -4877,16 +4943,16 @@
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B146" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C146" s="3">
         <v>300</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>226</v>
+        <v>254</v>
       </c>
       <c r="E146" s="3" t="s">
         <v>48</v>
@@ -4894,7 +4960,7 @@
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B147" s="3">
         <v>1</v>
@@ -4903,7 +4969,7 @@
         <v>300</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>255</v>
+        <v>226</v>
       </c>
       <c r="E147" s="3" t="s">
         <v>48</v>
@@ -4911,7 +4977,7 @@
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B148" s="3">
         <v>1</v>
@@ -4919,8 +4985,8 @@
       <c r="C148" s="3">
         <v>300</v>
       </c>
-      <c r="D148" s="1" t="s">
-        <v>199</v>
+      <c r="D148" s="2" t="s">
+        <v>255</v>
       </c>
       <c r="E148" s="3" t="s">
         <v>48</v>
@@ -4928,7 +4994,7 @@
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B149" s="3">
         <v>1</v>
@@ -4937,7 +5003,7 @@
         <v>300</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E149" s="3" t="s">
         <v>48</v>
@@ -4945,7 +5011,7 @@
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B150" s="3">
         <v>1</v>
@@ -4954,7 +5020,7 @@
         <v>300</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E150" s="3" t="s">
         <v>48</v>
@@ -4962,7 +5028,7 @@
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B151" s="3">
         <v>1</v>
@@ -4971,7 +5037,7 @@
         <v>300</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E151" s="3" t="s">
         <v>48</v>
@@ -4979,16 +5045,16 @@
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B152" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C152" s="3">
         <v>300</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E152" s="3" t="s">
         <v>48</v>
@@ -4996,7 +5062,7 @@
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B153" s="3">
         <v>2</v>
@@ -5005,7 +5071,7 @@
         <v>300</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E153" s="3" t="s">
         <v>48</v>
@@ -5013,16 +5079,16 @@
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B154" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C154" s="3">
         <v>300</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E154" s="3" t="s">
         <v>48</v>
@@ -5030,7 +5096,7 @@
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B155" s="3">
         <v>1</v>
@@ -5038,8 +5104,8 @@
       <c r="C155" s="3">
         <v>300</v>
       </c>
-      <c r="D155" s="2" t="s">
-        <v>256</v>
+      <c r="D155" s="1" t="s">
+        <v>205</v>
       </c>
       <c r="E155" s="3" t="s">
         <v>48</v>
@@ -5047,16 +5113,16 @@
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B156" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C156" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>227</v>
+        <v>256</v>
       </c>
       <c r="E156" s="3" t="s">
         <v>48</v>
@@ -5064,16 +5130,16 @@
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B157" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C157" s="3">
         <v>400</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E157" s="3" t="s">
         <v>48</v>
@@ -5081,16 +5147,16 @@
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
-        <v>355</v>
+        <v>94</v>
       </c>
       <c r="B158" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C158" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E158" s="3" t="s">
         <v>48</v>
@@ -5098,16 +5164,16 @@
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
-        <v>95</v>
+        <v>355</v>
       </c>
       <c r="B159" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C159" s="3">
         <v>300</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E159" s="3" t="s">
         <v>48</v>
@@ -5115,16 +5181,16 @@
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B160" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C160" s="3">
         <v>300</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E160" s="3" t="s">
         <v>48</v>
@@ -5132,7 +5198,7 @@
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B161" s="3">
         <v>1</v>
@@ -5141,15 +5207,15 @@
         <v>300</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E161" s="3" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A162" s="1" t="s">
-        <v>98</v>
+      <c r="A162" s="7" t="s">
+        <v>614</v>
       </c>
       <c r="B162" s="3">
         <v>1</v>
@@ -5157,8 +5223,8 @@
       <c r="C162" s="3">
         <v>300</v>
       </c>
-      <c r="D162" s="2" t="s">
-        <v>233</v>
+      <c r="D162" s="8" t="s">
+        <v>621</v>
       </c>
       <c r="E162" s="3" t="s">
         <v>48</v>
@@ -5166,50 +5232,50 @@
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
-        <v>99</v>
+        <v>615</v>
       </c>
       <c r="B163" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C163" s="3">
         <v>300</v>
       </c>
-      <c r="D163" s="2" t="s">
-        <v>234</v>
+      <c r="D163" s="8" t="s">
+        <v>622</v>
       </c>
       <c r="E163" s="3" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A164" s="1" t="s">
-        <v>100</v>
+      <c r="A164" s="7" t="s">
+        <v>620</v>
       </c>
       <c r="B164" s="3">
         <v>1</v>
       </c>
       <c r="C164" s="3">
-        <v>300</v>
-      </c>
-      <c r="D164" s="2" t="s">
-        <v>235</v>
+        <v>280</v>
+      </c>
+      <c r="D164" s="8" t="s">
+        <v>623</v>
       </c>
       <c r="E164" s="3" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A165" s="1" t="s">
-        <v>101</v>
+      <c r="A165" s="7" t="s">
+        <v>618</v>
       </c>
       <c r="B165" s="3">
         <v>1</v>
       </c>
       <c r="C165" s="3">
-        <v>500</v>
-      </c>
-      <c r="D165" s="2" t="s">
-        <v>236</v>
+        <v>280</v>
+      </c>
+      <c r="D165" s="8" t="s">
+        <v>624</v>
       </c>
       <c r="E165" s="3" t="s">
         <v>48</v>
@@ -5217,7 +5283,7 @@
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
-        <v>461</v>
+        <v>616</v>
       </c>
       <c r="B166" s="3">
         <v>1</v>
@@ -5226,15 +5292,15 @@
         <v>280</v>
       </c>
       <c r="D166" s="8" t="s">
-        <v>464</v>
+        <v>625</v>
       </c>
       <c r="E166" s="3" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A167" s="1" t="s">
-        <v>462</v>
+      <c r="A167" s="7" t="s">
+        <v>619</v>
       </c>
       <c r="B167" s="3">
         <v>1</v>
@@ -5243,24 +5309,24 @@
         <v>280</v>
       </c>
       <c r="D167" s="8" t="s">
-        <v>465</v>
+        <v>626</v>
       </c>
       <c r="E167" s="3" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A168" s="7" t="s">
-        <v>463</v>
+      <c r="A168" s="1" t="s">
+        <v>617</v>
       </c>
       <c r="B168" s="3">
         <v>1</v>
       </c>
       <c r="C168" s="3">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="D168" s="8" t="s">
-        <v>466</v>
+        <v>627</v>
       </c>
       <c r="E168" s="3" t="s">
         <v>48</v>
@@ -5268,7 +5334,7 @@
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B169" s="3">
         <v>1</v>
@@ -5277,7 +5343,7 @@
         <v>300</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="E169" s="3" t="s">
         <v>48</v>
@@ -5285,7 +5351,7 @@
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B170" s="3">
         <v>1</v>
@@ -5294,7 +5360,7 @@
         <v>300</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="E170" s="3" t="s">
         <v>48</v>
@@ -5302,152 +5368,152 @@
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B171" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C171" s="3">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>257</v>
+        <v>234</v>
       </c>
       <c r="E171" s="3" t="s">
-        <v>105</v>
+        <v>48</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
-        <v>296</v>
+        <v>100</v>
       </c>
       <c r="B172" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C172" s="3">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>312</v>
+        <v>235</v>
       </c>
       <c r="E172" s="3" t="s">
-        <v>105</v>
+        <v>48</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
-        <v>561</v>
+        <v>101</v>
       </c>
       <c r="B173" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C173" s="3">
-        <v>280</v>
+        <v>500</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>313</v>
+        <v>236</v>
       </c>
       <c r="E173" s="3" t="s">
-        <v>105</v>
+        <v>48</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
-        <v>297</v>
+        <v>461</v>
       </c>
       <c r="B174" s="3">
         <v>1</v>
       </c>
       <c r="C174" s="3">
-        <v>260</v>
-      </c>
-      <c r="D174" s="2" t="s">
-        <v>314</v>
+        <v>280</v>
+      </c>
+      <c r="D174" s="8" t="s">
+        <v>464</v>
       </c>
       <c r="E174" s="3" t="s">
-        <v>105</v>
+        <v>48</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
-        <v>298</v>
+        <v>462</v>
       </c>
       <c r="B175" s="3">
         <v>1</v>
       </c>
       <c r="C175" s="3">
-        <v>260</v>
-      </c>
-      <c r="D175" s="2" t="s">
-        <v>315</v>
+        <v>280</v>
+      </c>
+      <c r="D175" s="8" t="s">
+        <v>465</v>
       </c>
       <c r="E175" s="3" t="s">
-        <v>105</v>
+        <v>48</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A176" s="1" t="s">
-        <v>106</v>
+      <c r="A176" s="7" t="s">
+        <v>463</v>
       </c>
       <c r="B176" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C176" s="3">
-        <v>500</v>
-      </c>
-      <c r="D176" s="2" t="s">
-        <v>147</v>
+        <v>280</v>
+      </c>
+      <c r="D176" s="8" t="s">
+        <v>466</v>
       </c>
       <c r="E176" s="3" t="s">
-        <v>105</v>
+        <v>48</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
-        <v>299</v>
+        <v>102</v>
       </c>
       <c r="B177" s="3">
         <v>1</v>
       </c>
       <c r="C177" s="3">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>316</v>
+        <v>237</v>
       </c>
       <c r="E177" s="3" t="s">
-        <v>105</v>
+        <v>48</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B178" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C178" s="3">
-        <v>220</v>
+        <v>300</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>287</v>
+        <v>238</v>
       </c>
       <c r="E178" s="3" t="s">
-        <v>105</v>
+        <v>48</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B179" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C179" s="3">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>294</v>
+        <v>257</v>
       </c>
       <c r="E179" s="3" t="s">
         <v>105</v>
@@ -5455,16 +5521,16 @@
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
-        <v>109</v>
+        <v>296</v>
       </c>
       <c r="B180" s="3">
         <v>0</v>
       </c>
       <c r="C180" s="3">
-        <v>220</v>
+        <v>280</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>288</v>
+        <v>312</v>
       </c>
       <c r="E180" s="3" t="s">
         <v>105</v>
@@ -5472,16 +5538,16 @@
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
-        <v>110</v>
+        <v>561</v>
       </c>
       <c r="B181" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C181" s="3">
-        <v>220</v>
+        <v>280</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>289</v>
+        <v>313</v>
       </c>
       <c r="E181" s="3" t="s">
         <v>105</v>
@@ -5489,16 +5555,16 @@
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
-        <v>586</v>
+        <v>297</v>
       </c>
       <c r="B182" s="3">
         <v>1</v>
       </c>
       <c r="C182" s="3">
-        <v>220</v>
+        <v>260</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>290</v>
+        <v>314</v>
       </c>
       <c r="E182" s="3" t="s">
         <v>105</v>
@@ -5506,16 +5572,16 @@
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
-        <v>112</v>
+        <v>298</v>
       </c>
       <c r="B183" s="3">
         <v>1</v>
       </c>
       <c r="C183" s="3">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>291</v>
+        <v>315</v>
       </c>
       <c r="E183" s="3" t="s">
         <v>105</v>
@@ -5523,16 +5589,16 @@
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
-        <v>259</v>
+        <v>106</v>
       </c>
       <c r="B184" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C184" s="3">
-        <v>220</v>
+        <v>500</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>258</v>
+        <v>147</v>
       </c>
       <c r="E184" s="3" t="s">
         <v>105</v>
@@ -5540,16 +5606,16 @@
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
-        <v>260</v>
+        <v>299</v>
       </c>
       <c r="B185" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C185" s="3">
-        <v>250</v>
+        <v>280</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>261</v>
+        <v>316</v>
       </c>
       <c r="E185" s="3" t="s">
         <v>105</v>
@@ -5557,7 +5623,7 @@
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
-        <v>263</v>
+        <v>107</v>
       </c>
       <c r="B186" s="3">
         <v>0</v>
@@ -5566,7 +5632,7 @@
         <v>220</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>262</v>
+        <v>287</v>
       </c>
       <c r="E186" s="3" t="s">
         <v>105</v>
@@ -5574,7 +5640,7 @@
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B187" s="3">
         <v>3</v>
@@ -5583,7 +5649,7 @@
         <v>220</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="E187" s="3" t="s">
         <v>105</v>
@@ -5591,16 +5657,16 @@
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
-        <v>264</v>
+        <v>109</v>
       </c>
       <c r="B188" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C188" s="3">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>265</v>
+        <v>288</v>
       </c>
       <c r="E188" s="3" t="s">
         <v>105</v>
@@ -5608,16 +5674,16 @@
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B189" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C189" s="3">
         <v>220</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E189" s="3" t="s">
         <v>105</v>
@@ -5625,7 +5691,7 @@
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
-        <v>115</v>
+        <v>586</v>
       </c>
       <c r="B190" s="3">
         <v>1</v>
@@ -5633,8 +5699,8 @@
       <c r="C190" s="3">
         <v>220</v>
       </c>
-      <c r="D190" s="8" t="s">
-        <v>480</v>
+      <c r="D190" s="2" t="s">
+        <v>290</v>
       </c>
       <c r="E190" s="3" t="s">
         <v>105</v>
@@ -5642,16 +5708,16 @@
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B191" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C191" s="3">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>281</v>
+        <v>291</v>
       </c>
       <c r="E191" s="3" t="s">
         <v>105</v>
@@ -5659,16 +5725,16 @@
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
-        <v>117</v>
+        <v>259</v>
       </c>
       <c r="B192" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C192" s="3">
-        <v>350</v>
+        <v>220</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>282</v>
+        <v>258</v>
       </c>
       <c r="E192" s="3" t="s">
         <v>105</v>
@@ -5676,16 +5742,16 @@
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
-        <v>118</v>
+        <v>260</v>
       </c>
       <c r="B193" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C193" s="3">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>283</v>
+        <v>261</v>
       </c>
       <c r="E193" s="3" t="s">
         <v>105</v>
@@ -5693,16 +5759,16 @@
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
-        <v>119</v>
+        <v>263</v>
       </c>
       <c r="B194" s="3">
         <v>0</v>
       </c>
       <c r="C194" s="3">
-        <v>350</v>
+        <v>220</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>284</v>
+        <v>262</v>
       </c>
       <c r="E194" s="3" t="s">
         <v>105</v>
@@ -5710,16 +5776,16 @@
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="B195" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C195" s="3">
-        <v>350</v>
+        <v>220</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="E195" s="3" t="s">
         <v>105</v>
@@ -5727,16 +5793,16 @@
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
-        <v>121</v>
+        <v>264</v>
       </c>
       <c r="B196" s="3">
         <v>2</v>
       </c>
       <c r="C196" s="3">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>286</v>
+        <v>265</v>
       </c>
       <c r="E196" s="3" t="s">
         <v>105</v>
@@ -5744,67 +5810,67 @@
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="B197" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C197" s="3">
         <v>220</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="E197" s="3" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A198" s="7" t="s">
-        <v>553</v>
+      <c r="A198" s="1" t="s">
+        <v>115</v>
       </c>
       <c r="B198" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C198" s="3">
         <v>220</v>
       </c>
       <c r="D198" s="8" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="E198" s="3" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A199" s="7" t="s">
-        <v>552</v>
+      <c r="A199" s="1" t="s">
+        <v>116</v>
       </c>
       <c r="B199" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C199" s="3">
-        <v>220</v>
-      </c>
-      <c r="D199" s="8" t="s">
-        <v>479</v>
+        <v>350</v>
+      </c>
+      <c r="D199" s="2" t="s">
+        <v>281</v>
       </c>
       <c r="E199" s="3" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A200" s="7" t="s">
-        <v>551</v>
+      <c r="A200" s="1" t="s">
+        <v>117</v>
       </c>
       <c r="B200" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C200" s="3">
-        <v>220</v>
-      </c>
-      <c r="D200" s="8" t="s">
-        <v>475</v>
+        <v>350</v>
+      </c>
+      <c r="D200" s="2" t="s">
+        <v>282</v>
       </c>
       <c r="E200" s="3" t="s">
         <v>105</v>
@@ -5812,33 +5878,33 @@
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
-        <v>550</v>
+        <v>118</v>
       </c>
       <c r="B201" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C201" s="3">
-        <v>250</v>
-      </c>
-      <c r="D201" s="8" t="s">
-        <v>470</v>
+        <v>350</v>
+      </c>
+      <c r="D201" s="2" t="s">
+        <v>283</v>
       </c>
       <c r="E201" s="3" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A202" s="7" t="s">
-        <v>549</v>
+      <c r="A202" s="1" t="s">
+        <v>119</v>
       </c>
       <c r="B202" s="3">
         <v>0</v>
       </c>
       <c r="C202" s="3">
-        <v>250</v>
-      </c>
-      <c r="D202" s="8" t="s">
-        <v>474</v>
+        <v>350</v>
+      </c>
+      <c r="D202" s="2" t="s">
+        <v>284</v>
       </c>
       <c r="E202" s="3" t="s">
         <v>105</v>
@@ -5846,16 +5912,16 @@
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="B203" s="3">
         <v>1</v>
       </c>
       <c r="C203" s="3">
-        <v>220</v>
-      </c>
-      <c r="D203" s="8" t="s">
-        <v>477</v>
+        <v>350</v>
+      </c>
+      <c r="D203" s="2" t="s">
+        <v>285</v>
       </c>
       <c r="E203" s="3" t="s">
         <v>105</v>
@@ -5863,50 +5929,50 @@
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
-        <v>467</v>
+        <v>121</v>
       </c>
       <c r="B204" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C204" s="3">
-        <v>220</v>
-      </c>
-      <c r="D204" s="8" t="s">
-        <v>471</v>
+        <v>350</v>
+      </c>
+      <c r="D204" s="2" t="s">
+        <v>286</v>
       </c>
       <c r="E204" s="3" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A205" s="7" t="s">
-        <v>548</v>
+      <c r="A205" s="1" t="s">
+        <v>122</v>
       </c>
       <c r="B205" s="3">
         <v>1</v>
       </c>
       <c r="C205" s="3">
-        <v>250</v>
-      </c>
-      <c r="D205" s="8" t="s">
-        <v>472</v>
+        <v>220</v>
+      </c>
+      <c r="D205" s="2" t="s">
+        <v>295</v>
       </c>
       <c r="E205" s="3" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A206" s="1" t="s">
-        <v>468</v>
+      <c r="A206" s="7" t="s">
+        <v>553</v>
       </c>
       <c r="B206" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C206" s="3">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="D206" s="8" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="E206" s="3" t="s">
         <v>105</v>
@@ -5914,16 +5980,16 @@
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" s="7" t="s">
-        <v>547</v>
+        <v>552</v>
       </c>
       <c r="B207" s="3">
         <v>0</v>
       </c>
       <c r="C207" s="3">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="D207" s="8" t="s">
-        <v>473</v>
+        <v>479</v>
       </c>
       <c r="E207" s="3" t="s">
         <v>105</v>
@@ -5931,16 +5997,16 @@
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" s="7" t="s">
-        <v>469</v>
+        <v>551</v>
       </c>
       <c r="B208" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C208" s="3">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="D208" s="8" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E208" s="3" t="s">
         <v>105</v>
@@ -5948,7 +6014,7 @@
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
-        <v>123</v>
+        <v>550</v>
       </c>
       <c r="B209" s="3">
         <v>1</v>
@@ -5956,144 +6022,144 @@
       <c r="C209" s="3">
         <v>250</v>
       </c>
-      <c r="D209" s="2" t="s">
-        <v>239</v>
+      <c r="D209" s="8" t="s">
+        <v>470</v>
       </c>
       <c r="E209" s="3" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A210" s="1" t="s">
-        <v>125</v>
+      <c r="A210" s="7" t="s">
+        <v>549</v>
       </c>
       <c r="B210" s="3">
         <v>0</v>
       </c>
       <c r="C210" s="3">
-        <v>460</v>
-      </c>
-      <c r="D210" s="2" t="s">
-        <v>147</v>
+        <v>250</v>
+      </c>
+      <c r="D210" s="8" t="s">
+        <v>474</v>
       </c>
       <c r="E210" s="3" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="B211" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C211" s="3">
-        <v>250</v>
-      </c>
-      <c r="D211" s="2" t="s">
-        <v>240</v>
+        <v>220</v>
+      </c>
+      <c r="D211" s="8" t="s">
+        <v>477</v>
       </c>
       <c r="E211" s="3" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
-        <v>490</v>
+        <v>467</v>
       </c>
       <c r="B212" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C212" s="3">
+        <v>220</v>
+      </c>
+      <c r="D212" s="8" t="s">
+        <v>471</v>
+      </c>
+      <c r="E212" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A213" s="7" t="s">
+        <v>548</v>
+      </c>
+      <c r="B213" s="3">
+        <v>1</v>
+      </c>
+      <c r="C213" s="3">
         <v>250</v>
       </c>
-      <c r="D212" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="E212" s="3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A213" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B213" s="3">
-        <v>0</v>
-      </c>
-      <c r="C213" s="3">
-        <v>240</v>
-      </c>
-      <c r="D213" s="2" t="s">
-        <v>147</v>
+      <c r="D213" s="8" t="s">
+        <v>472</v>
       </c>
       <c r="E213" s="3" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
-        <v>484</v>
+        <v>468</v>
       </c>
       <c r="B214" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C214" s="3">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="D214" s="8" t="s">
-        <v>491</v>
+        <v>478</v>
       </c>
       <c r="E214" s="3" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A215" s="1" t="s">
-        <v>554</v>
+      <c r="A215" s="7" t="s">
+        <v>547</v>
       </c>
       <c r="B215" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C215" s="3">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="D215" s="8" t="s">
-        <v>492</v>
+        <v>473</v>
       </c>
       <c r="E215" s="3" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A216" s="1" t="s">
-        <v>555</v>
+      <c r="A216" s="7" t="s">
+        <v>469</v>
       </c>
       <c r="B216" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C216" s="3">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="D216" s="8" t="s">
-        <v>493</v>
+        <v>476</v>
       </c>
       <c r="E216" s="3" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
-        <v>556</v>
+        <v>123</v>
       </c>
       <c r="B217" s="3">
         <v>1</v>
       </c>
       <c r="C217" s="3">
-        <v>400</v>
-      </c>
-      <c r="D217" s="8" t="s">
-        <v>494</v>
+        <v>250</v>
+      </c>
+      <c r="D217" s="2" t="s">
+        <v>239</v>
       </c>
       <c r="E217" s="3" t="s">
         <v>124</v>
@@ -6101,16 +6167,16 @@
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
-        <v>557</v>
+        <v>125</v>
       </c>
       <c r="B218" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C218" s="3">
-        <v>350</v>
-      </c>
-      <c r="D218" s="8" t="s">
-        <v>495</v>
+        <v>460</v>
+      </c>
+      <c r="D218" s="2" t="s">
+        <v>147</v>
       </c>
       <c r="E218" s="3" t="s">
         <v>124</v>
@@ -6118,16 +6184,16 @@
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
-        <v>485</v>
+        <v>126</v>
       </c>
       <c r="B219" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C219" s="3">
-        <v>350</v>
-      </c>
-      <c r="D219" s="8" t="s">
-        <v>496</v>
+        <v>250</v>
+      </c>
+      <c r="D219" s="2" t="s">
+        <v>240</v>
       </c>
       <c r="E219" s="3" t="s">
         <v>124</v>
@@ -6135,16 +6201,16 @@
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="B220" s="3">
         <v>4</v>
       </c>
       <c r="C220" s="3">
-        <v>400</v>
-      </c>
-      <c r="D220" s="8" t="s">
-        <v>497</v>
+        <v>250</v>
+      </c>
+      <c r="D220" s="2" t="s">
+        <v>241</v>
       </c>
       <c r="E220" s="3" t="s">
         <v>124</v>
@@ -6152,16 +6218,16 @@
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
-        <v>487</v>
+        <v>127</v>
       </c>
       <c r="B221" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C221" s="3">
-        <v>350</v>
-      </c>
-      <c r="D221" s="8" t="s">
-        <v>498</v>
+        <v>240</v>
+      </c>
+      <c r="D221" s="2" t="s">
+        <v>147</v>
       </c>
       <c r="E221" s="3" t="s">
         <v>124</v>
@@ -6169,16 +6235,16 @@
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="B222" s="3">
         <v>2</v>
       </c>
       <c r="C222" s="3">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="D222" s="8" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="E222" s="3" t="s">
         <v>124</v>
@@ -6186,16 +6252,16 @@
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
-        <v>489</v>
+        <v>554</v>
       </c>
       <c r="B223" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C223" s="3">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="D223" s="8" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="E223" s="3" t="s">
         <v>124</v>
@@ -6203,7 +6269,7 @@
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="B224" s="3">
         <v>2</v>
@@ -6212,7 +6278,7 @@
         <v>350</v>
       </c>
       <c r="D224" s="8" t="s">
-        <v>501</v>
+        <v>493</v>
       </c>
       <c r="E224" s="3" t="s">
         <v>124</v>
@@ -6220,152 +6286,152 @@
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
-        <v>128</v>
+        <v>556</v>
       </c>
       <c r="B225" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C225" s="3">
-        <v>265</v>
-      </c>
-      <c r="D225" s="2" t="s">
-        <v>318</v>
+        <v>400</v>
+      </c>
+      <c r="D225" s="8" t="s">
+        <v>494</v>
       </c>
       <c r="E225" s="3" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
-        <v>130</v>
+        <v>557</v>
       </c>
       <c r="B226" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C226" s="3">
-        <v>265</v>
-      </c>
-      <c r="D226" s="2" t="s">
-        <v>319</v>
+        <v>350</v>
+      </c>
+      <c r="D226" s="8" t="s">
+        <v>495</v>
       </c>
       <c r="E226" s="3" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
-        <v>559</v>
+        <v>485</v>
       </c>
       <c r="B227" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C227" s="3">
-        <v>265</v>
-      </c>
-      <c r="D227" s="2" t="s">
-        <v>320</v>
+        <v>350</v>
+      </c>
+      <c r="D227" s="8" t="s">
+        <v>496</v>
       </c>
       <c r="E227" s="3" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
-        <v>131</v>
+        <v>486</v>
       </c>
       <c r="B228" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C228" s="3">
-        <v>265</v>
-      </c>
-      <c r="D228" s="2" t="s">
-        <v>321</v>
+        <v>400</v>
+      </c>
+      <c r="D228" s="8" t="s">
+        <v>497</v>
       </c>
       <c r="E228" s="3" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
-        <v>132</v>
+        <v>487</v>
       </c>
       <c r="B229" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C229" s="3">
-        <v>265</v>
-      </c>
-      <c r="D229" s="2" t="s">
-        <v>322</v>
+        <v>350</v>
+      </c>
+      <c r="D229" s="8" t="s">
+        <v>498</v>
       </c>
       <c r="E229" s="3" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
-        <v>133</v>
+        <v>488</v>
       </c>
       <c r="B230" s="3">
         <v>2</v>
       </c>
       <c r="C230" s="3">
-        <v>265</v>
-      </c>
-      <c r="D230" s="2" t="s">
-        <v>323</v>
+        <v>350</v>
+      </c>
+      <c r="D230" s="8" t="s">
+        <v>499</v>
       </c>
       <c r="E230" s="3" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
-        <v>134</v>
+        <v>489</v>
       </c>
       <c r="B231" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C231" s="3">
-        <v>265</v>
-      </c>
-      <c r="D231" s="2" t="s">
-        <v>324</v>
+        <v>350</v>
+      </c>
+      <c r="D231" s="8" t="s">
+        <v>500</v>
       </c>
       <c r="E231" s="3" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
-        <v>135</v>
+        <v>558</v>
       </c>
       <c r="B232" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C232" s="3">
-        <v>265</v>
-      </c>
-      <c r="D232" s="2" t="s">
-        <v>147</v>
+        <v>350</v>
+      </c>
+      <c r="D232" s="8" t="s">
+        <v>501</v>
       </c>
       <c r="E232" s="3" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="B233" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C233" s="3">
         <v>265</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="E233" s="3" t="s">
         <v>129</v>
@@ -6373,16 +6439,16 @@
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="B234" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C234" s="3">
         <v>265</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>147</v>
+        <v>319</v>
       </c>
       <c r="E234" s="3" t="s">
         <v>129</v>
@@ -6390,16 +6456,16 @@
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
-        <v>138</v>
+        <v>559</v>
       </c>
       <c r="B235" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C235" s="3">
         <v>265</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="E235" s="3" t="s">
         <v>129</v>
@@ -6407,16 +6473,16 @@
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="B236" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C236" s="3">
         <v>265</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="E236" s="3" t="s">
         <v>129</v>
@@ -6424,16 +6490,16 @@
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B237" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C237" s="3">
         <v>265</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="E237" s="3" t="s">
         <v>129</v>
@@ -6441,16 +6507,16 @@
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
-        <v>560</v>
+        <v>133</v>
       </c>
       <c r="B238" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C238" s="3">
         <v>265</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="E238" s="3" t="s">
         <v>129</v>
@@ -6458,16 +6524,16 @@
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="B239" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C239" s="3">
         <v>265</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>147</v>
+        <v>324</v>
       </c>
       <c r="E239" s="3" t="s">
         <v>129</v>
@@ -6475,7 +6541,7 @@
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="B240" s="3">
         <v>0</v>
@@ -6491,178 +6557,178 @@
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A241" s="7" t="s">
-        <v>446</v>
+      <c r="A241" s="1" t="s">
+        <v>136</v>
       </c>
       <c r="B241" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C241" s="3">
-        <v>250</v>
-      </c>
-      <c r="D241" s="8" t="s">
-        <v>454</v>
-      </c>
-      <c r="E241" s="6" t="s">
-        <v>453</v>
+        <v>265</v>
+      </c>
+      <c r="D241" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="E241" s="3" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
-        <v>447</v>
+        <v>137</v>
       </c>
       <c r="B242" s="3">
         <v>0</v>
       </c>
       <c r="C242" s="3">
-        <v>250</v>
-      </c>
-      <c r="D242" s="8" t="s">
-        <v>457</v>
-      </c>
-      <c r="E242" s="6" t="s">
-        <v>453</v>
+        <v>265</v>
+      </c>
+      <c r="D242" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E242" s="3" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
-        <v>448</v>
+        <v>138</v>
       </c>
       <c r="B243" s="3">
         <v>1</v>
       </c>
       <c r="C243" s="3">
-        <v>220</v>
-      </c>
-      <c r="D243" s="8" t="s">
-        <v>458</v>
-      </c>
-      <c r="E243" s="6" t="s">
-        <v>453</v>
+        <v>265</v>
+      </c>
+      <c r="D243" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="E243" s="3" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
-        <v>449</v>
+        <v>139</v>
       </c>
       <c r="B244" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C244" s="3">
-        <v>220</v>
-      </c>
-      <c r="D244" s="8" t="s">
-        <v>455</v>
-      </c>
-      <c r="E244" s="6" t="s">
-        <v>453</v>
+        <v>265</v>
+      </c>
+      <c r="D244" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="E244" s="3" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
-        <v>450</v>
+        <v>140</v>
       </c>
       <c r="B245" s="3">
         <v>1</v>
       </c>
       <c r="C245" s="3">
-        <v>220</v>
-      </c>
-      <c r="D245" s="8" t="s">
-        <v>456</v>
-      </c>
-      <c r="E245" s="6" t="s">
-        <v>453</v>
+        <v>265</v>
+      </c>
+      <c r="D245" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="E245" s="3" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
-        <v>451</v>
+        <v>560</v>
       </c>
       <c r="B246" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C246" s="3">
-        <v>220</v>
-      </c>
-      <c r="D246" s="8" t="s">
-        <v>459</v>
-      </c>
-      <c r="E246" s="6" t="s">
-        <v>453</v>
+        <v>265</v>
+      </c>
+      <c r="D246" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="E246" s="3" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
-        <v>452</v>
+        <v>141</v>
       </c>
       <c r="B247" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C247" s="3">
-        <v>160</v>
-      </c>
-      <c r="D247" s="8" t="s">
-        <v>460</v>
-      </c>
-      <c r="E247" s="6" t="s">
-        <v>453</v>
+        <v>265</v>
+      </c>
+      <c r="D247" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E247" s="3" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A248" s="7" t="s">
-        <v>569</v>
+      <c r="A248" s="1" t="s">
+        <v>142</v>
       </c>
       <c r="B248" s="3">
         <v>0</v>
       </c>
       <c r="C248" s="3">
-        <v>250</v>
-      </c>
-      <c r="D248" s="8" t="s">
-        <v>577</v>
-      </c>
-      <c r="E248" s="6" t="s">
-        <v>453</v>
+        <v>265</v>
+      </c>
+      <c r="D248" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E248" s="3" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249" s="7" t="s">
-        <v>570</v>
+        <v>446</v>
       </c>
       <c r="B249" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C249" s="3">
         <v>250</v>
       </c>
       <c r="D249" s="8" t="s">
-        <v>578</v>
+        <v>454</v>
       </c>
       <c r="E249" s="6" t="s">
         <v>453</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A250" s="7" t="s">
-        <v>571</v>
+      <c r="A250" s="1" t="s">
+        <v>447</v>
       </c>
       <c r="B250" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C250" s="3">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="D250" s="8" t="s">
-        <v>579</v>
+        <v>457</v>
       </c>
       <c r="E250" s="6" t="s">
         <v>453</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A251" s="7" t="s">
-        <v>572</v>
+      <c r="A251" s="1" t="s">
+        <v>448</v>
       </c>
       <c r="B251" s="3">
         <v>1</v>
@@ -6671,15 +6737,15 @@
         <v>220</v>
       </c>
       <c r="D251" s="8" t="s">
-        <v>580</v>
+        <v>458</v>
       </c>
       <c r="E251" s="6" t="s">
         <v>453</v>
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A252" s="7" t="s">
-        <v>573</v>
+      <c r="A252" s="1" t="s">
+        <v>449</v>
       </c>
       <c r="B252" s="3">
         <v>0</v>
@@ -6688,211 +6754,211 @@
         <v>220</v>
       </c>
       <c r="D252" s="8" t="s">
-        <v>581</v>
+        <v>455</v>
       </c>
       <c r="E252" s="6" t="s">
         <v>453</v>
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A253" s="7" t="s">
-        <v>574</v>
+      <c r="A253" s="1" t="s">
+        <v>450</v>
       </c>
       <c r="B253" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C253" s="3">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="D253" s="8" t="s">
-        <v>582</v>
+        <v>456</v>
       </c>
       <c r="E253" s="6" t="s">
         <v>453</v>
       </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A254" s="7" t="s">
-        <v>575</v>
+      <c r="A254" s="1" t="s">
+        <v>451</v>
       </c>
       <c r="B254" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C254" s="3">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="D254" s="8" t="s">
-        <v>583</v>
+        <v>459</v>
       </c>
       <c r="E254" s="6" t="s">
         <v>453</v>
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A255" s="7" t="s">
-        <v>576</v>
+      <c r="A255" s="1" t="s">
+        <v>452</v>
       </c>
       <c r="B255" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C255" s="3">
-        <v>220</v>
+        <v>160</v>
       </c>
       <c r="D255" s="8" t="s">
-        <v>584</v>
+        <v>460</v>
       </c>
       <c r="E255" s="6" t="s">
         <v>453</v>
       </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A256" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="B256" s="5">
-        <v>5</v>
+      <c r="A256" s="7" t="s">
+        <v>569</v>
+      </c>
+      <c r="B256" s="3">
+        <v>0</v>
       </c>
       <c r="C256" s="3">
         <v>250</v>
       </c>
-      <c r="D256" s="2" t="s">
-        <v>242</v>
+      <c r="D256" s="8" t="s">
+        <v>577</v>
       </c>
       <c r="E256" s="6" t="s">
-        <v>191</v>
+        <v>453</v>
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A257" t="s">
-        <v>185</v>
-      </c>
-      <c r="B257" s="5">
-        <v>0</v>
+      <c r="A257" s="7" t="s">
+        <v>570</v>
+      </c>
+      <c r="B257" s="3">
+        <v>1</v>
       </c>
       <c r="C257" s="3">
         <v>250</v>
       </c>
-      <c r="D257" s="2" t="s">
-        <v>309</v>
+      <c r="D257" s="8" t="s">
+        <v>578</v>
       </c>
       <c r="E257" s="6" t="s">
-        <v>191</v>
+        <v>453</v>
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A258" t="s">
-        <v>186</v>
-      </c>
-      <c r="B258" s="5">
-        <v>1</v>
-      </c>
-      <c r="C258" s="6">
+      <c r="A258" s="7" t="s">
+        <v>571</v>
+      </c>
+      <c r="B258" s="3">
+        <v>1</v>
+      </c>
+      <c r="C258" s="3">
         <v>220</v>
       </c>
-      <c r="D258" s="2" t="s">
-        <v>310</v>
+      <c r="D258" s="8" t="s">
+        <v>579</v>
       </c>
       <c r="E258" s="6" t="s">
-        <v>393</v>
+        <v>453</v>
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A259" t="s">
-        <v>308</v>
-      </c>
-      <c r="B259" s="5">
-        <v>0</v>
-      </c>
-      <c r="C259" s="6">
+      <c r="A259" s="7" t="s">
+        <v>572</v>
+      </c>
+      <c r="B259" s="3">
+        <v>1</v>
+      </c>
+      <c r="C259" s="3">
         <v>220</v>
       </c>
-      <c r="D259" s="2" t="s">
-        <v>147</v>
+      <c r="D259" s="8" t="s">
+        <v>580</v>
       </c>
       <c r="E259" s="6" t="s">
-        <v>393</v>
+        <v>453</v>
       </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A260" t="s">
-        <v>187</v>
-      </c>
-      <c r="B260" s="5">
-        <v>2</v>
-      </c>
-      <c r="C260" s="6">
+      <c r="A260" s="7" t="s">
+        <v>573</v>
+      </c>
+      <c r="B260" s="3">
+        <v>0</v>
+      </c>
+      <c r="C260" s="3">
         <v>220</v>
       </c>
-      <c r="D260" s="2" t="s">
-        <v>311</v>
+      <c r="D260" s="8" t="s">
+        <v>581</v>
       </c>
       <c r="E260" s="6" t="s">
-        <v>393</v>
+        <v>453</v>
       </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A261" t="s">
-        <v>188</v>
-      </c>
-      <c r="B261" s="5">
-        <v>1</v>
-      </c>
-      <c r="C261" s="6">
+      <c r="A261" s="7" t="s">
+        <v>574</v>
+      </c>
+      <c r="B261" s="3">
+        <v>0</v>
+      </c>
+      <c r="C261" s="3">
+        <v>250</v>
+      </c>
+      <c r="D261" s="8" t="s">
+        <v>582</v>
+      </c>
+      <c r="E261" s="6" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A262" s="7" t="s">
+        <v>575</v>
+      </c>
+      <c r="B262" s="3">
+        <v>0</v>
+      </c>
+      <c r="C262" s="3">
+        <v>250</v>
+      </c>
+      <c r="D262" s="8" t="s">
+        <v>583</v>
+      </c>
+      <c r="E262" s="6" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A263" s="7" t="s">
+        <v>576</v>
+      </c>
+      <c r="B263" s="3">
+        <v>0</v>
+      </c>
+      <c r="C263" s="3">
         <v>220</v>
       </c>
-      <c r="D261" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="E261" s="6" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A262" t="s">
-        <v>189</v>
-      </c>
-      <c r="B262" s="5">
-        <v>1</v>
-      </c>
-      <c r="C262" s="6">
-        <v>220</v>
-      </c>
-      <c r="D262" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="E262" s="6" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A263" t="s">
-        <v>190</v>
-      </c>
-      <c r="B263" s="5">
-        <v>4</v>
-      </c>
-      <c r="C263" s="6">
-        <v>350</v>
-      </c>
-      <c r="D263" s="2" t="s">
-        <v>243</v>
+      <c r="D263" s="8" t="s">
+        <v>584</v>
       </c>
       <c r="E263" s="6" t="s">
-        <v>191</v>
+        <v>453</v>
       </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A264" t="s">
-        <v>612</v>
+      <c r="A264" s="1" t="s">
+        <v>184</v>
       </c>
       <c r="B264" s="5">
-        <v>3</v>
-      </c>
-      <c r="C264" s="6">
-        <v>650</v>
+        <v>5</v>
+      </c>
+      <c r="C264" s="3">
+        <v>250</v>
       </c>
       <c r="D264" s="2" t="s">
-        <v>613</v>
+        <v>242</v>
       </c>
       <c r="E264" s="6" t="s">
         <v>191</v>
@@ -6900,135 +6966,135 @@
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>335</v>
+        <v>185</v>
       </c>
       <c r="B265" s="5">
-        <v>10</v>
-      </c>
-      <c r="C265" s="6">
+        <v>0</v>
+      </c>
+      <c r="C265" s="3">
         <v>250</v>
       </c>
-      <c r="D265" s="4" t="s">
-        <v>339</v>
+      <c r="D265" s="2" t="s">
+        <v>309</v>
       </c>
       <c r="E265" s="6" t="s">
-        <v>338</v>
+        <v>191</v>
       </c>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>336</v>
+        <v>186</v>
       </c>
       <c r="B266" s="5">
         <v>1</v>
       </c>
       <c r="C266" s="6">
-        <v>250</v>
-      </c>
-      <c r="D266" s="4" t="s">
-        <v>340</v>
+        <v>220</v>
+      </c>
+      <c r="D266" s="2" t="s">
+        <v>310</v>
       </c>
       <c r="E266" s="6" t="s">
-        <v>411</v>
+        <v>393</v>
       </c>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>337</v>
+        <v>308</v>
       </c>
       <c r="B267" s="5">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="C267" s="6">
-        <v>250</v>
-      </c>
-      <c r="D267" s="4" t="s">
-        <v>412</v>
+        <v>220</v>
+      </c>
+      <c r="D267" s="2" t="s">
+        <v>147</v>
       </c>
       <c r="E267" s="6" t="s">
-        <v>338</v>
+        <v>393</v>
       </c>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>353</v>
+        <v>187</v>
       </c>
       <c r="B268" s="5">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C268" s="6">
-        <v>150</v>
-      </c>
-      <c r="D268" s="4" t="s">
-        <v>346</v>
+        <v>220</v>
+      </c>
+      <c r="D268" s="2" t="s">
+        <v>311</v>
       </c>
       <c r="E268" s="6" t="s">
-        <v>338</v>
+        <v>393</v>
       </c>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>351</v>
+        <v>188</v>
       </c>
       <c r="B269" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C269" s="6">
-        <v>150</v>
-      </c>
-      <c r="D269" s="4" t="s">
-        <v>349</v>
+        <v>220</v>
+      </c>
+      <c r="D269" s="2" t="s">
+        <v>332</v>
       </c>
       <c r="E269" s="6" t="s">
-        <v>338</v>
+        <v>393</v>
       </c>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>352</v>
+        <v>189</v>
       </c>
       <c r="B270" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C270" s="6">
-        <v>150</v>
-      </c>
-      <c r="D270" s="4" t="s">
-        <v>350</v>
+        <v>220</v>
+      </c>
+      <c r="D270" s="2" t="s">
+        <v>333</v>
       </c>
       <c r="E270" s="6" t="s">
-        <v>338</v>
+        <v>393</v>
       </c>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>348</v>
+        <v>190</v>
       </c>
       <c r="B271" s="5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C271" s="6">
-        <v>550</v>
-      </c>
-      <c r="D271" s="4" t="s">
-        <v>347</v>
+        <v>350</v>
+      </c>
+      <c r="D271" s="2" t="s">
+        <v>243</v>
       </c>
       <c r="E271" s="6" t="s">
-        <v>338</v>
+        <v>191</v>
       </c>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>394</v>
+        <v>335</v>
       </c>
       <c r="B272" s="5">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C272" s="6">
-        <v>650</v>
+        <v>250</v>
       </c>
       <c r="D272" s="4" t="s">
-        <v>395</v>
+        <v>339</v>
       </c>
       <c r="E272" s="6" t="s">
         <v>338</v>
@@ -7036,135 +7102,135 @@
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>502</v>
+        <v>336</v>
       </c>
       <c r="B273" s="5">
         <v>1</v>
       </c>
       <c r="C273" s="6">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="D273" s="4" t="s">
-        <v>517</v>
+        <v>340</v>
       </c>
       <c r="E273" s="6" t="s">
-        <v>341</v>
+        <v>411</v>
       </c>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>503</v>
+        <v>337</v>
       </c>
       <c r="B274" s="5">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="C274" s="6">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="D274" s="4" t="s">
-        <v>518</v>
+        <v>412</v>
       </c>
       <c r="E274" s="6" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>504</v>
+        <v>353</v>
       </c>
       <c r="B275" s="5">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C275" s="6">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="D275" s="4" t="s">
-        <v>519</v>
+        <v>346</v>
       </c>
       <c r="E275" s="6" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>505</v>
+        <v>351</v>
       </c>
       <c r="B276" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C276" s="6">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="D276" s="4" t="s">
-        <v>520</v>
+        <v>349</v>
       </c>
       <c r="E276" s="6" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>506</v>
+        <v>352</v>
       </c>
       <c r="B277" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C277" s="6">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="D277" s="4" t="s">
-        <v>521</v>
+        <v>350</v>
       </c>
       <c r="E277" s="6" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>507</v>
+        <v>348</v>
       </c>
       <c r="B278" s="5">
         <v>2</v>
       </c>
       <c r="C278" s="6">
-        <v>300</v>
+        <v>550</v>
       </c>
       <c r="D278" s="4" t="s">
-        <v>522</v>
+        <v>347</v>
       </c>
       <c r="E278" s="6" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>508</v>
+        <v>394</v>
       </c>
       <c r="B279" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C279" s="6">
-        <v>300</v>
+        <v>650</v>
       </c>
       <c r="D279" s="4" t="s">
-        <v>523</v>
+        <v>395</v>
       </c>
       <c r="E279" s="6" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="B280" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C280" s="6">
         <v>300</v>
       </c>
       <c r="D280" s="4" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="E280" s="6" t="s">
         <v>341</v>
@@ -7172,7 +7238,7 @@
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="B281" s="5">
         <v>1</v>
@@ -7181,7 +7247,7 @@
         <v>300</v>
       </c>
       <c r="D281" s="4" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
       <c r="E281" s="6" t="s">
         <v>341</v>
@@ -7189,16 +7255,16 @@
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="B282" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C282" s="6">
         <v>300</v>
       </c>
       <c r="D282" s="4" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
       <c r="E282" s="6" t="s">
         <v>341</v>
@@ -7206,16 +7272,16 @@
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="B283" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C283" s="6">
         <v>300</v>
       </c>
       <c r="D283" s="4" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="E283" s="6" t="s">
         <v>341</v>
@@ -7223,16 +7289,16 @@
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>516</v>
+        <v>506</v>
       </c>
       <c r="B284" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C284" s="6">
         <v>300</v>
       </c>
       <c r="D284" s="4" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="E284" s="6" t="s">
         <v>341</v>
@@ -7240,16 +7306,16 @@
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>515</v>
+        <v>507</v>
       </c>
       <c r="B285" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C285" s="6">
         <v>300</v>
       </c>
       <c r="D285" s="4" t="s">
-        <v>529</v>
+        <v>522</v>
       </c>
       <c r="E285" s="6" t="s">
         <v>341</v>
@@ -7257,16 +7323,16 @@
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="B286" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C286" s="6">
         <v>300</v>
       </c>
       <c r="D286" s="4" t="s">
-        <v>530</v>
+        <v>523</v>
       </c>
       <c r="E286" s="6" t="s">
         <v>341</v>
@@ -7274,7 +7340,7 @@
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="B287" s="5">
         <v>0</v>
@@ -7283,7 +7349,7 @@
         <v>300</v>
       </c>
       <c r="D287" s="4" t="s">
-        <v>531</v>
+        <v>524</v>
       </c>
       <c r="E287" s="6" t="s">
         <v>341</v>
@@ -7291,16 +7357,16 @@
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>611</v>
+        <v>510</v>
       </c>
       <c r="B288" s="5">
         <v>1</v>
       </c>
       <c r="C288" s="6">
-        <v>320</v>
+        <v>300</v>
       </c>
       <c r="D288" s="4" t="s">
-        <v>595</v>
+        <v>525</v>
       </c>
       <c r="E288" s="6" t="s">
         <v>341</v>
@@ -7308,16 +7374,16 @@
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>592</v>
+        <v>511</v>
       </c>
       <c r="B289" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C289" s="6">
-        <v>320</v>
+        <v>300</v>
       </c>
       <c r="D289" s="4" t="s">
-        <v>596</v>
+        <v>526</v>
       </c>
       <c r="E289" s="6" t="s">
         <v>341</v>
@@ -7325,16 +7391,16 @@
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>593</v>
+        <v>512</v>
       </c>
       <c r="B290" s="5">
         <v>2</v>
       </c>
       <c r="C290" s="6">
-        <v>320</v>
+        <v>300</v>
       </c>
       <c r="D290" s="4" t="s">
-        <v>597</v>
+        <v>527</v>
       </c>
       <c r="E290" s="6" t="s">
         <v>341</v>
@@ -7342,16 +7408,16 @@
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>594</v>
+        <v>516</v>
       </c>
       <c r="B291" s="5">
         <v>2</v>
       </c>
       <c r="C291" s="6">
-        <v>320</v>
+        <v>300</v>
       </c>
       <c r="D291" s="4" t="s">
-        <v>598</v>
+        <v>528</v>
       </c>
       <c r="E291" s="6" t="s">
         <v>341</v>
@@ -7359,169 +7425,169 @@
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>344</v>
+        <v>515</v>
       </c>
       <c r="B292" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C292" s="6">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="D292" s="4" t="s">
-        <v>342</v>
+        <v>529</v>
       </c>
       <c r="E292" s="6" t="s">
-        <v>191</v>
+        <v>341</v>
       </c>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>345</v>
+        <v>513</v>
       </c>
       <c r="B293" s="5">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="C293" s="6">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="D293" s="4" t="s">
-        <v>343</v>
+        <v>530</v>
       </c>
       <c r="E293" s="6" t="s">
-        <v>191</v>
+        <v>341</v>
       </c>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>356</v>
+        <v>514</v>
       </c>
       <c r="B294" s="5">
         <v>0</v>
       </c>
       <c r="C294" s="6">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="D294" s="4" t="s">
-        <v>363</v>
+        <v>531</v>
       </c>
       <c r="E294" s="6" t="s">
-        <v>361</v>
+        <v>341</v>
       </c>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>357</v>
+        <v>611</v>
       </c>
       <c r="B295" s="5">
         <v>1</v>
       </c>
       <c r="C295" s="6">
-        <v>150</v>
+        <v>320</v>
       </c>
       <c r="D295" s="4" t="s">
-        <v>364</v>
+        <v>595</v>
       </c>
       <c r="E295" s="6" t="s">
-        <v>361</v>
+        <v>341</v>
       </c>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>358</v>
+        <v>592</v>
       </c>
       <c r="B296" s="5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C296" s="6">
-        <v>150</v>
+        <v>320</v>
       </c>
       <c r="D296" s="4" t="s">
-        <v>365</v>
+        <v>596</v>
       </c>
       <c r="E296" s="6" t="s">
-        <v>361</v>
+        <v>341</v>
       </c>
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>359</v>
+        <v>593</v>
       </c>
       <c r="B297" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C297" s="6">
-        <v>150</v>
+        <v>320</v>
       </c>
       <c r="D297" s="4" t="s">
-        <v>382</v>
+        <v>597</v>
       </c>
       <c r="E297" s="6" t="s">
-        <v>361</v>
+        <v>341</v>
       </c>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>360</v>
+        <v>594</v>
       </c>
       <c r="B298" s="5">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C298" s="6">
-        <v>30</v>
+        <v>320</v>
       </c>
       <c r="D298" s="4" t="s">
-        <v>366</v>
+        <v>598</v>
       </c>
       <c r="E298" s="6" t="s">
-        <v>361</v>
+        <v>341</v>
       </c>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>362</v>
+        <v>344</v>
       </c>
       <c r="B299" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C299" s="6">
-        <v>550</v>
+        <v>800</v>
       </c>
       <c r="D299" s="4" t="s">
-        <v>367</v>
+        <v>342</v>
       </c>
       <c r="E299" s="6" t="s">
-        <v>361</v>
+        <v>191</v>
       </c>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>368</v>
+        <v>345</v>
       </c>
       <c r="B300" s="5">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C300" s="6">
-        <v>550</v>
+        <v>200</v>
       </c>
       <c r="D300" s="4" t="s">
-        <v>369</v>
+        <v>343</v>
       </c>
       <c r="E300" s="6" t="s">
-        <v>361</v>
+        <v>191</v>
       </c>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>370</v>
+        <v>356</v>
       </c>
       <c r="B301" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C301" s="6">
-        <v>550</v>
+        <v>150</v>
       </c>
       <c r="D301" s="4" t="s">
-        <v>376</v>
+        <v>363</v>
       </c>
       <c r="E301" s="6" t="s">
         <v>361</v>
@@ -7529,16 +7595,16 @@
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>371</v>
+        <v>357</v>
       </c>
       <c r="B302" s="5">
         <v>1</v>
       </c>
       <c r="C302" s="6">
-        <v>550</v>
+        <v>150</v>
       </c>
       <c r="D302" s="4" t="s">
-        <v>377</v>
+        <v>364</v>
       </c>
       <c r="E302" s="6" t="s">
         <v>361</v>
@@ -7546,16 +7612,16 @@
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>372</v>
+        <v>358</v>
       </c>
       <c r="B303" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C303" s="6">
-        <v>550</v>
+        <v>150</v>
       </c>
       <c r="D303" s="4" t="s">
-        <v>378</v>
+        <v>365</v>
       </c>
       <c r="E303" s="6" t="s">
         <v>361</v>
@@ -7563,16 +7629,16 @@
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>373</v>
+        <v>359</v>
       </c>
       <c r="B304" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C304" s="6">
-        <v>550</v>
+        <v>150</v>
       </c>
       <c r="D304" s="4" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="E304" s="6" t="s">
         <v>361</v>
@@ -7580,16 +7646,16 @@
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>375</v>
+        <v>360</v>
       </c>
       <c r="B305" s="5">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C305" s="6">
-        <v>550</v>
+        <v>30</v>
       </c>
       <c r="D305" s="4" t="s">
-        <v>380</v>
+        <v>366</v>
       </c>
       <c r="E305" s="6" t="s">
         <v>361</v>
@@ -7597,7 +7663,7 @@
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
       <c r="B306" s="5">
         <v>1</v>
@@ -7606,7 +7672,7 @@
         <v>550</v>
       </c>
       <c r="D306" s="4" t="s">
-        <v>381</v>
+        <v>367</v>
       </c>
       <c r="E306" s="6" t="s">
         <v>361</v>
@@ -7614,120 +7680,239 @@
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>383</v>
+        <v>368</v>
       </c>
       <c r="B307" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C307" s="6">
-        <v>250</v>
+        <v>550</v>
       </c>
       <c r="D307" s="4" t="s">
-        <v>387</v>
+        <v>369</v>
       </c>
       <c r="E307" s="6" t="s">
-        <v>191</v>
+        <v>361</v>
       </c>
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>384</v>
+        <v>370</v>
       </c>
       <c r="B308" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C308" s="6">
-        <v>250</v>
+        <v>550</v>
       </c>
       <c r="D308" s="4" t="s">
-        <v>388</v>
+        <v>376</v>
       </c>
       <c r="E308" s="6" t="s">
-        <v>191</v>
+        <v>361</v>
       </c>
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>385</v>
+        <v>371</v>
       </c>
       <c r="B309" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C309" s="6">
-        <v>250</v>
+        <v>550</v>
       </c>
       <c r="D309" s="4" t="s">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="E309" s="6" t="s">
-        <v>191</v>
+        <v>361</v>
       </c>
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>386</v>
+        <v>372</v>
       </c>
       <c r="B310" s="5">
         <v>1</v>
       </c>
       <c r="C310" s="6">
-        <v>250</v>
+        <v>550</v>
       </c>
       <c r="D310" s="4" t="s">
-        <v>390</v>
+        <v>378</v>
       </c>
       <c r="E310" s="6" t="s">
-        <v>191</v>
+        <v>361</v>
       </c>
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>483</v>
+        <v>373</v>
       </c>
       <c r="B311" s="5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C311" s="6">
-        <v>220</v>
+        <v>550</v>
       </c>
       <c r="D311" s="4" t="s">
-        <v>482</v>
+        <v>379</v>
       </c>
       <c r="E311" s="6" t="s">
-        <v>191</v>
+        <v>361</v>
       </c>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>566</v>
+        <v>375</v>
       </c>
       <c r="B312" s="5">
         <v>1</v>
       </c>
       <c r="C312" s="6">
-        <v>1200</v>
+        <v>550</v>
       </c>
       <c r="D312" s="4" t="s">
-        <v>567</v>
+        <v>380</v>
       </c>
       <c r="E312" s="6" t="s">
-        <v>191</v>
+        <v>361</v>
       </c>
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
+        <v>374</v>
+      </c>
+      <c r="B313" s="5">
+        <v>1</v>
+      </c>
+      <c r="C313" s="6">
+        <v>550</v>
+      </c>
+      <c r="D313" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="E313" s="6" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A314" t="s">
+        <v>383</v>
+      </c>
+      <c r="B314" s="5">
+        <v>0</v>
+      </c>
+      <c r="C314" s="6">
+        <v>250</v>
+      </c>
+      <c r="D314" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="E314" s="6" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A315" t="s">
+        <v>384</v>
+      </c>
+      <c r="B315" s="5">
+        <v>0</v>
+      </c>
+      <c r="C315" s="6">
+        <v>250</v>
+      </c>
+      <c r="D315" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="E315" s="6" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A316" t="s">
+        <v>385</v>
+      </c>
+      <c r="B316" s="5">
+        <v>0</v>
+      </c>
+      <c r="C316" s="6">
+        <v>250</v>
+      </c>
+      <c r="D316" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="E316" s="6" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A317" t="s">
+        <v>386</v>
+      </c>
+      <c r="B317" s="5">
+        <v>1</v>
+      </c>
+      <c r="C317" s="6">
+        <v>250</v>
+      </c>
+      <c r="D317" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="E317" s="6" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A318" t="s">
+        <v>483</v>
+      </c>
+      <c r="B318" s="5">
+        <v>4</v>
+      </c>
+      <c r="C318" s="6">
+        <v>220</v>
+      </c>
+      <c r="D318" s="4" t="s">
+        <v>482</v>
+      </c>
+      <c r="E318" s="6" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A319" t="s">
+        <v>566</v>
+      </c>
+      <c r="B319" s="5">
+        <v>1</v>
+      </c>
+      <c r="C319" s="6">
+        <v>1200</v>
+      </c>
+      <c r="D319" s="4" t="s">
+        <v>567</v>
+      </c>
+      <c r="E319" s="6" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A320" t="s">
         <v>565</v>
       </c>
-      <c r="B313" s="5">
+      <c r="B320" s="5">
         <v>2</v>
       </c>
-      <c r="C313" s="6">
+      <c r="C320" s="6">
         <v>1200</v>
       </c>
-      <c r="D313" s="4" t="s">
+      <c r="D320" s="4" t="s">
         <v>568</v>
       </c>
-      <c r="E313" s="6" t="s">
+      <c r="E320" s="6" t="s">
         <v>191</v>
       </c>
     </row>

--- a/data/stock.xlsx
+++ b/data/stock.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\blocks\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C1867DA-5023-4A3E-AFE9-3B3616001D9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFFEE0AB-5A27-4BF9-9EEE-79C1E3246E66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3690" yWindow="2010" windowWidth="21600" windowHeight="11250" xr2:uid="{FC0CBB84-858B-49F6-BA69-44D83C89F7C4}"/>
   </bookViews>
@@ -2465,8 +2465,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCDC9875-9E8E-485C-910E-47B83A1F9902}">
   <dimension ref="A1:E320"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A146" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C169" sqref="C169"/>
+    <sheetView tabSelected="1" topLeftCell="A152" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C163" sqref="C163:C167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5255,7 +5255,7 @@
         <v>1</v>
       </c>
       <c r="C164" s="3">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="D164" s="8" t="s">
         <v>623</v>
@@ -5272,7 +5272,7 @@
         <v>1</v>
       </c>
       <c r="C165" s="3">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="D165" s="8" t="s">
         <v>624</v>
@@ -5289,7 +5289,7 @@
         <v>1</v>
       </c>
       <c r="C166" s="3">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="D166" s="8" t="s">
         <v>625</v>
@@ -5306,7 +5306,7 @@
         <v>1</v>
       </c>
       <c r="C167" s="3">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="D167" s="8" t="s">
         <v>626</v>

--- a/data/stock.xlsx
+++ b/data/stock.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\blocks\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFFEE0AB-5A27-4BF9-9EEE-79C1E3246E66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC43DD06-F15F-4EAF-BD11-912F34602896}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3690" yWindow="2010" windowWidth="21600" windowHeight="11250" xr2:uid="{FC0CBB84-858B-49F6-BA69-44D83C89F7C4}"/>
   </bookViews>
@@ -2465,8 +2465,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCDC9875-9E8E-485C-910E-47B83A1F9902}">
   <dimension ref="A1:E320"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A152" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C163" sqref="C163:C167"/>
+    <sheetView tabSelected="1" topLeftCell="A212" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B226" sqref="B226"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3654,7 +3654,7 @@
         <v>415</v>
       </c>
       <c r="B70" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C70" s="3">
         <v>250</v>
@@ -5711,7 +5711,7 @@
         <v>112</v>
       </c>
       <c r="B191" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C191" s="3">
         <v>250</v>
@@ -6051,7 +6051,7 @@
         <v>111</v>
       </c>
       <c r="B211" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C211" s="3">
         <v>220</v>
@@ -6085,7 +6085,7 @@
         <v>548</v>
       </c>
       <c r="B213" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C213" s="3">
         <v>250</v>
@@ -6306,7 +6306,7 @@
         <v>557</v>
       </c>
       <c r="B226" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C226" s="3">
         <v>350</v>

--- a/data/stock.xlsx
+++ b/data/stock.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\blocks\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC43DD06-F15F-4EAF-BD11-912F34602896}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F9AC26B-2C83-41F8-B3DD-98F15C721AAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3690" yWindow="2010" windowWidth="21600" windowHeight="11250" xr2:uid="{FC0CBB84-858B-49F6-BA69-44D83C89F7C4}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="962" uniqueCount="628">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1019" uniqueCount="666">
   <si>
     <t>Product</t>
   </si>
@@ -378,9 +378,6 @@
     <t>Obito war</t>
   </si>
   <si>
-    <t>Obito Akatsuki</t>
-  </si>
-  <si>
     <t>Tsunade KDL</t>
   </si>
   <si>
@@ -828,9 +825,6 @@
     <t>Itachi Reincarnated</t>
   </si>
   <si>
-    <t>Itachi akatsuki</t>
-  </si>
-  <si>
     <t>Itachi akatsuki.jpg</t>
   </si>
   <si>
@@ -1440,9 +1434,6 @@
     <t>Tobirama</t>
   </si>
   <si>
-    <t>Naruto Kurama mode</t>
-  </si>
-  <si>
     <t>Madara six path v2</t>
   </si>
   <si>
@@ -1869,9 +1860,6 @@
     <t>fem silver surfer.jpg</t>
   </si>
   <si>
-    <t>Majin buu baby</t>
-  </si>
-  <si>
     <t>Guts</t>
   </si>
   <si>
@@ -1918,6 +1906,132 @@
   </si>
   <si>
     <t>jinbe red wm.jpg</t>
+  </si>
+  <si>
+    <t>Miles Morales [Spiderman] v2</t>
+  </si>
+  <si>
+    <t>miles v2.jpg</t>
+  </si>
+  <si>
+    <t>Spider-Gwen v2</t>
+  </si>
+  <si>
+    <t>spidergwen v2.jpg</t>
+  </si>
+  <si>
+    <t>Scarlet Spider</t>
+  </si>
+  <si>
+    <t>Mutant Spiderman</t>
+  </si>
+  <si>
+    <t>scarlet spider.jpg</t>
+  </si>
+  <si>
+    <t>mutant spiderman.jpg</t>
+  </si>
+  <si>
+    <t>iron spider.jpg</t>
+  </si>
+  <si>
+    <t>Iron Spider</t>
+  </si>
+  <si>
+    <t>Luffy [Egghead]</t>
+  </si>
+  <si>
+    <t>luffy egghead.jpg</t>
+  </si>
+  <si>
+    <t>Zoro [Egghead]</t>
+  </si>
+  <si>
+    <t>zoro egghead.jpg</t>
+  </si>
+  <si>
+    <t>Pain Akatsuki</t>
+  </si>
+  <si>
+    <t>Kisame</t>
+  </si>
+  <si>
+    <t>Hinata</t>
+  </si>
+  <si>
+    <t>Hinata Adult</t>
+  </si>
+  <si>
+    <t>Sakura</t>
+  </si>
+  <si>
+    <t>Tobirama WM</t>
+  </si>
+  <si>
+    <t>Temari</t>
+  </si>
+  <si>
+    <t>Gaara</t>
+  </si>
+  <si>
+    <t>Naruto [Six Path] WM</t>
+  </si>
+  <si>
+    <t>Sasuke [Kid]</t>
+  </si>
+  <si>
+    <t>Naruto [Kid]</t>
+  </si>
+  <si>
+    <t>sasuke kid.jpg</t>
+  </si>
+  <si>
+    <t>hinata adult.jpg</t>
+  </si>
+  <si>
+    <t>naruto six path.jpg</t>
+  </si>
+  <si>
+    <t>tobirama wm.jpg</t>
+  </si>
+  <si>
+    <t>pain wm.jpg</t>
+  </si>
+  <si>
+    <t>kisame.jpg</t>
+  </si>
+  <si>
+    <t>hinata.jpg</t>
+  </si>
+  <si>
+    <t>sakura.jpg</t>
+  </si>
+  <si>
+    <t>temari.jpg</t>
+  </si>
+  <si>
+    <t>gaara.jpg</t>
+  </si>
+  <si>
+    <t>naruto kid9.jpg</t>
+  </si>
+  <si>
+    <t>Itachi [Akatsuki]</t>
+  </si>
+  <si>
+    <t>Obito [Akatsuki]</t>
+  </si>
+  <si>
+    <t>Naruto [Kurama mode]</t>
+  </si>
+  <si>
+    <t>Majin buu [Good form]</t>
+  </si>
+  <si>
+    <t>shikamaru.jpg</t>
+  </si>
+  <si>
+    <t>Shikamaru</t>
   </si>
 </sst>
 </file>
@@ -2463,10 +2577,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCDC9875-9E8E-485C-910E-47B83A1F9902}">
-  <dimension ref="A1:E320"/>
+  <dimension ref="A1:E339"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A212" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B226" sqref="B226"/>
+    <sheetView tabSelected="1" topLeftCell="A193" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A200" sqref="A200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2495,7 +2609,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="B2" s="3">
         <v>2</v>
@@ -2504,7 +2618,7 @@
         <v>250</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>6</v>
@@ -2512,7 +2626,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="B3" s="3">
         <v>2</v>
@@ -2521,7 +2635,7 @@
         <v>250</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>6</v>
@@ -2529,7 +2643,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="B4" s="3">
         <v>2</v>
@@ -2538,7 +2652,7 @@
         <v>250</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>6</v>
@@ -2546,7 +2660,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="B5" s="3">
         <v>2</v>
@@ -2555,7 +2669,7 @@
         <v>250</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>6</v>
@@ -2563,16 +2677,16 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="B6" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6" s="3">
         <v>250</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>6</v>
@@ -2580,7 +2694,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="B7" s="3">
         <v>2</v>
@@ -2589,7 +2703,7 @@
         <v>250</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>6</v>
@@ -2597,50 +2711,50 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="B8" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" s="11">
         <v>650</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="3">
-        <v>0</v>
-      </c>
-      <c r="C9" s="3">
-        <v>220</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E9" s="3" t="s">
+      <c r="A9" s="9" t="s">
+        <v>633</v>
+      </c>
+      <c r="B9" s="10">
+        <v>6</v>
+      </c>
+      <c r="C9" s="11">
+        <v>280</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>632</v>
+      </c>
+      <c r="E9" s="11" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>544</v>
+        <v>5</v>
       </c>
       <c r="B10" s="3">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C10" s="3">
         <v>220</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>6</v>
@@ -2648,16 +2762,16 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>534</v>
+        <v>541</v>
       </c>
       <c r="B11" s="3">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C11" s="3">
-        <v>350</v>
+        <v>220</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>6</v>
@@ -2665,16 +2779,16 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>7</v>
+        <v>531</v>
       </c>
       <c r="B12" s="3">
         <v>2</v>
       </c>
       <c r="C12" s="3">
-        <v>180</v>
+        <v>350</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>6</v>
@@ -2682,16 +2796,16 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B13" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C13" s="3">
         <v>180</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>6</v>
@@ -2699,16 +2813,16 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>535</v>
+        <v>8</v>
       </c>
       <c r="B14" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C14" s="3">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>210</v>
+        <v>146</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>6</v>
@@ -2716,16 +2830,16 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>9</v>
+        <v>532</v>
       </c>
       <c r="B15" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C15" s="3">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>147</v>
+        <v>209</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>6</v>
@@ -2733,16 +2847,16 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B16" s="3">
         <v>0</v>
       </c>
       <c r="C16" s="3">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>6</v>
@@ -2750,16 +2864,16 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>545</v>
+        <v>10</v>
       </c>
       <c r="B17" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C17" s="3">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>275</v>
+        <v>146</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>6</v>
@@ -2767,7 +2881,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>270</v>
+        <v>542</v>
       </c>
       <c r="B18" s="3">
         <v>2</v>
@@ -2776,7 +2890,7 @@
         <v>250</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>6</v>
@@ -2784,16 +2898,16 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>400</v>
+        <v>624</v>
       </c>
       <c r="B19" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C19" s="3">
         <v>250</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>399</v>
+        <v>625</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>6</v>
@@ -2801,7 +2915,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B20" s="3">
         <v>2</v>
@@ -2810,7 +2924,7 @@
         <v>250</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>6</v>
@@ -2818,7 +2932,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>272</v>
+        <v>626</v>
       </c>
       <c r="B21" s="3">
         <v>2</v>
@@ -2827,7 +2941,7 @@
         <v>250</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>279</v>
+        <v>627</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>6</v>
@@ -2835,7 +2949,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B22" s="3">
         <v>1</v>
@@ -2844,7 +2958,7 @@
         <v>250</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>6</v>
@@ -2852,16 +2966,16 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="B23" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C23" s="3">
         <v>250</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>6</v>
@@ -2869,16 +2983,16 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="B24" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C24" s="3">
         <v>250</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>6</v>
@@ -2886,16 +3000,16 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="B25" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C25" s="3">
         <v>250</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>6</v>
@@ -2903,16 +3017,16 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>11</v>
+        <v>271</v>
       </c>
       <c r="B26" s="3">
         <v>1</v>
       </c>
       <c r="C26" s="3">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>244</v>
+        <v>275</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>6</v>
@@ -2920,16 +3034,16 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>12</v>
+        <v>272</v>
       </c>
       <c r="B27" s="3">
         <v>0</v>
       </c>
       <c r="C27" s="3">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>147</v>
+        <v>278</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>6</v>
@@ -2937,16 +3051,16 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>13</v>
+        <v>628</v>
       </c>
       <c r="B28" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C28" s="3">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>245</v>
+        <v>630</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>6</v>
@@ -2954,16 +3068,16 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>14</v>
+        <v>629</v>
       </c>
       <c r="B29" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C29" s="3">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>246</v>
+        <v>631</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>6</v>
@@ -2971,16 +3085,16 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>15</v>
+        <v>399</v>
       </c>
       <c r="B30" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C30" s="3">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>247</v>
+        <v>400</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>6</v>
@@ -2988,16 +3102,16 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B31" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C31" s="3">
         <v>220</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>6</v>
@@ -3005,16 +3119,16 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B32" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C32" s="3">
         <v>220</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>249</v>
+        <v>146</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>6</v>
@@ -3022,16 +3136,16 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B33" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C33" s="3">
         <v>220</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>147</v>
+        <v>244</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>6</v>
@@ -3039,16 +3153,16 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B34" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C34" s="3">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>211</v>
+        <v>245</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>6</v>
@@ -3056,7 +3170,7 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B35" s="3">
         <v>1</v>
@@ -3065,7 +3179,7 @@
         <v>220</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>148</v>
+        <v>246</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>6</v>
@@ -3073,16 +3187,16 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B36" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C36" s="3">
-        <v>180</v>
+        <v>220</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>149</v>
+        <v>247</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>6</v>
@@ -3090,16 +3204,16 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B37" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C37" s="3">
-        <v>180</v>
+        <v>220</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>213</v>
+        <v>248</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>6</v>
@@ -3107,16 +3221,16 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B38" s="3">
         <v>0</v>
       </c>
       <c r="C38" s="3">
-        <v>180</v>
+        <v>220</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>6</v>
@@ -3124,16 +3238,16 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>536</v>
+        <v>19</v>
       </c>
       <c r="B39" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C39" s="3">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>147</v>
+        <v>210</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>6</v>
@@ -3141,13 +3255,13 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>537</v>
+        <v>20</v>
       </c>
       <c r="B40" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C40" s="3">
-        <v>180</v>
+        <v>220</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>147</v>
@@ -3158,16 +3272,16 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>538</v>
+        <v>21</v>
       </c>
       <c r="B41" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C41" s="3">
         <v>180</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>212</v>
+        <v>148</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>6</v>
@@ -3175,16 +3289,16 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B42" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C42" s="3">
         <v>180</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>6</v>
@@ -3192,16 +3306,16 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>539</v>
+        <v>23</v>
       </c>
       <c r="B43" s="3">
         <v>0</v>
       </c>
       <c r="C43" s="3">
-        <v>270</v>
+        <v>180</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>215</v>
+        <v>146</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>6</v>
@@ -3209,16 +3323,16 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="B44" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C44" s="3">
-        <v>270</v>
+        <v>180</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>6</v>
@@ -3226,16 +3340,16 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="B45" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C45" s="3">
-        <v>270</v>
+        <v>180</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>216</v>
+        <v>146</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>6</v>
@@ -3243,16 +3357,16 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>25</v>
+        <v>535</v>
       </c>
       <c r="B46" s="3">
         <v>0</v>
       </c>
       <c r="C46" s="3">
-        <v>450</v>
+        <v>180</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="E46" s="3" t="s">
         <v>6</v>
@@ -3260,16 +3374,16 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B47" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C47" s="3">
-        <v>380</v>
+        <v>180</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>152</v>
+        <v>213</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>6</v>
@@ -3277,16 +3391,16 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>27</v>
+        <v>536</v>
       </c>
       <c r="B48" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C48" s="3">
-        <v>800</v>
+        <v>270</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>154</v>
+        <v>214</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>6</v>
@@ -3294,16 +3408,16 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>28</v>
+        <v>537</v>
       </c>
       <c r="B49" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C49" s="3">
         <v>270</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>250</v>
+        <v>149</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>6</v>
@@ -3311,16 +3425,16 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>29</v>
+        <v>538</v>
       </c>
       <c r="B50" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C50" s="3">
         <v>270</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>147</v>
+        <v>215</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>6</v>
@@ -3328,16 +3442,16 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B51" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C51" s="3">
-        <v>270</v>
+        <v>450</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>251</v>
+        <v>216</v>
       </c>
       <c r="E51" s="3" t="s">
         <v>6</v>
@@ -3345,16 +3459,16 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>542</v>
+        <v>26</v>
       </c>
       <c r="B52" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C52" s="3">
-        <v>250</v>
-      </c>
-      <c r="D52" s="8" t="s">
-        <v>421</v>
+        <v>380</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>151</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>6</v>
@@ -3362,13 +3476,13 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B53" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C53" s="3">
-        <v>850</v>
+        <v>800</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>153</v>
@@ -3379,16 +3493,16 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>300</v>
+        <v>28</v>
       </c>
       <c r="B54" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C54" s="3">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>180</v>
+        <v>249</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>6</v>
@@ -3396,16 +3510,16 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>301</v>
+        <v>29</v>
       </c>
       <c r="B55" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C55" s="3">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>218</v>
+        <v>146</v>
       </c>
       <c r="E55" s="3" t="s">
         <v>6</v>
@@ -3413,16 +3527,16 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B56" s="3">
         <v>2</v>
       </c>
       <c r="C56" s="3">
+        <v>270</v>
+      </c>
+      <c r="D56" s="2" t="s">
         <v>250</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>219</v>
       </c>
       <c r="E56" s="3" t="s">
         <v>6</v>
@@ -3430,7 +3544,7 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>33</v>
+        <v>539</v>
       </c>
       <c r="B57" s="3">
         <v>0</v>
@@ -3438,8 +3552,8 @@
       <c r="C57" s="3">
         <v>250</v>
       </c>
-      <c r="D57" s="2" t="s">
-        <v>220</v>
+      <c r="D57" s="8" t="s">
+        <v>419</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>6</v>
@@ -3447,16 +3561,16 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>303</v>
+        <v>31</v>
       </c>
       <c r="B58" s="3">
         <v>0</v>
       </c>
       <c r="C58" s="3">
-        <v>250</v>
+        <v>850</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>6</v>
@@ -3464,16 +3578,16 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="B59" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C59" s="3">
         <v>250</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>206</v>
+        <v>179</v>
       </c>
       <c r="E59" s="3" t="s">
         <v>6</v>
@@ -3481,7 +3595,7 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>546</v>
+        <v>299</v>
       </c>
       <c r="B60" s="3">
         <v>1</v>
@@ -3490,7 +3604,7 @@
         <v>250</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>181</v>
+        <v>217</v>
       </c>
       <c r="E60" s="3" t="s">
         <v>6</v>
@@ -3498,16 +3612,16 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>304</v>
+        <v>32</v>
       </c>
       <c r="B61" s="3">
         <v>2</v>
       </c>
       <c r="C61" s="3">
-        <v>360</v>
+        <v>250</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>252</v>
+        <v>218</v>
       </c>
       <c r="E61" s="3" t="s">
         <v>6</v>
@@ -3515,16 +3629,16 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>305</v>
+        <v>33</v>
       </c>
       <c r="B62" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C62" s="3">
-        <v>360</v>
+        <v>250</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>253</v>
+        <v>219</v>
       </c>
       <c r="E62" s="3" t="s">
         <v>6</v>
@@ -3532,50 +3646,50 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>221</v>
+        <v>301</v>
       </c>
       <c r="B63" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C63" s="3">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>222</v>
+        <v>150</v>
       </c>
       <c r="E63" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="7" t="s">
-        <v>543</v>
+      <c r="A64" s="1" t="s">
+        <v>300</v>
       </c>
       <c r="B64" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C64" s="3">
-        <v>260</v>
-      </c>
-      <c r="D64" s="8" t="s">
-        <v>422</v>
+        <v>250</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>205</v>
       </c>
       <c r="E64" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="7" t="s">
-        <v>418</v>
+      <c r="A65" s="1" t="s">
+        <v>543</v>
       </c>
       <c r="B65" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C65" s="3">
-        <v>260</v>
-      </c>
-      <c r="D65" s="8" t="s">
-        <v>423</v>
+        <v>250</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>180</v>
       </c>
       <c r="E65" s="3" t="s">
         <v>6</v>
@@ -3583,16 +3697,16 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>413</v>
+        <v>302</v>
       </c>
       <c r="B66" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C66" s="3">
-        <v>260</v>
-      </c>
-      <c r="D66" s="8" t="s">
-        <v>425</v>
+        <v>360</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>251</v>
       </c>
       <c r="E66" s="3" t="s">
         <v>6</v>
@@ -3600,33 +3714,33 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>414</v>
+        <v>303</v>
       </c>
       <c r="B67" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C67" s="3">
-        <v>260</v>
-      </c>
-      <c r="D67" s="8" t="s">
-        <v>426</v>
+        <v>360</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>252</v>
       </c>
       <c r="E67" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="7" t="s">
-        <v>419</v>
+      <c r="A68" s="1" t="s">
+        <v>220</v>
       </c>
       <c r="B68" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C68" s="3">
-        <v>220</v>
-      </c>
-      <c r="D68" s="8" t="s">
-        <v>427</v>
+        <v>200</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>221</v>
       </c>
       <c r="E68" s="3" t="s">
         <v>6</v>
@@ -3634,50 +3748,50 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="B69" s="3">
+        <v>4</v>
+      </c>
+      <c r="C69" s="3">
+        <v>260</v>
+      </c>
+      <c r="D69" s="8" t="s">
         <v>420</v>
-      </c>
-      <c r="B69" s="3">
-        <v>0</v>
-      </c>
-      <c r="C69" s="3">
-        <v>250</v>
-      </c>
-      <c r="D69" s="8" t="s">
-        <v>147</v>
       </c>
       <c r="E69" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="1" t="s">
-        <v>415</v>
+      <c r="A70" s="7" t="s">
+        <v>416</v>
       </c>
       <c r="B70" s="3">
         <v>2</v>
       </c>
       <c r="C70" s="3">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="E70" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="7" t="s">
-        <v>564</v>
+      <c r="A71" s="1" t="s">
+        <v>411</v>
       </c>
       <c r="B71" s="3">
         <v>1</v>
       </c>
       <c r="C71" s="3">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="E71" s="3" t="s">
         <v>6</v>
@@ -3685,13 +3799,13 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="B72" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C72" s="3">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="D72" s="8" t="s">
         <v>424</v>
@@ -3702,33 +3816,33 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="7" t="s">
-        <v>563</v>
+        <v>417</v>
       </c>
       <c r="B73" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C73" s="3">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="E73" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" s="1" t="s">
-        <v>417</v>
+      <c r="A74" s="7" t="s">
+        <v>418</v>
       </c>
       <c r="B74" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C74" s="3">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>431</v>
+        <v>146</v>
       </c>
       <c r="E74" s="3" t="s">
         <v>6</v>
@@ -3736,41 +3850,41 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>38</v>
+        <v>413</v>
       </c>
       <c r="B75" s="3">
         <v>0</v>
       </c>
       <c r="C75" s="3">
-        <v>180</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>223</v>
+        <v>250</v>
+      </c>
+      <c r="D75" s="8" t="s">
+        <v>426</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>35</v>
+        <v>6</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="1" t="s">
-        <v>405</v>
+      <c r="A76" s="7" t="s">
+        <v>561</v>
       </c>
       <c r="B76" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C76" s="3">
         <v>250</v>
       </c>
-      <c r="D76" s="2" t="s">
-        <v>406</v>
+      <c r="D76" s="8" t="s">
+        <v>427</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>35</v>
+        <v>6</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>34</v>
+        <v>414</v>
       </c>
       <c r="B77" s="3">
         <v>0</v>
@@ -3778,59 +3892,59 @@
       <c r="C77" s="3">
         <v>250</v>
       </c>
-      <c r="D77" s="2" t="s">
-        <v>396</v>
+      <c r="D77" s="8" t="s">
+        <v>422</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>35</v>
+        <v>6</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" s="1" t="s">
-        <v>403</v>
+      <c r="A78" s="7" t="s">
+        <v>560</v>
       </c>
       <c r="B78" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C78" s="3">
         <v>250</v>
       </c>
-      <c r="D78" s="2" t="s">
-        <v>404</v>
+      <c r="D78" s="8" t="s">
+        <v>428</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>35</v>
+        <v>6</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>39</v>
+        <v>415</v>
       </c>
       <c r="B79" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C79" s="3">
-        <v>180</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>147</v>
+        <v>220</v>
+      </c>
+      <c r="D79" s="8" t="s">
+        <v>429</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>35</v>
+        <v>6</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>407</v>
+        <v>38</v>
       </c>
       <c r="B80" s="3">
         <v>0</v>
       </c>
       <c r="C80" s="3">
-        <v>250</v>
+        <v>180</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>409</v>
+        <v>222</v>
       </c>
       <c r="E80" s="3" t="s">
         <v>35</v>
@@ -3838,16 +3952,16 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="B81" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C81" s="3">
         <v>250</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="E81" s="3" t="s">
         <v>35</v>
@@ -3855,16 +3969,16 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>306</v>
+        <v>34</v>
       </c>
       <c r="B82" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C82" s="3">
-        <v>180</v>
+        <v>250</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="E82" s="3" t="s">
         <v>35</v>
@@ -3872,16 +3986,16 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>307</v>
+        <v>401</v>
       </c>
       <c r="B83" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C83" s="3">
-        <v>180</v>
+        <v>250</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>392</v>
+        <v>402</v>
       </c>
       <c r="E83" s="3" t="s">
         <v>35</v>
@@ -3889,16 +4003,16 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B84" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C84" s="3">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>224</v>
+        <v>146</v>
       </c>
       <c r="E84" s="3" t="s">
         <v>35</v>
@@ -3906,16 +4020,16 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>36</v>
+        <v>405</v>
       </c>
       <c r="B85" s="3">
         <v>0</v>
       </c>
       <c r="C85" s="3">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>225</v>
+        <v>407</v>
       </c>
       <c r="E85" s="3" t="s">
         <v>35</v>
@@ -3923,16 +4037,16 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>532</v>
+        <v>406</v>
       </c>
       <c r="B86" s="3">
         <v>1</v>
       </c>
       <c r="C86" s="3">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>533</v>
+        <v>408</v>
       </c>
       <c r="E86" s="3" t="s">
         <v>35</v>
@@ -3940,16 +4054,16 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>40</v>
+        <v>304</v>
       </c>
       <c r="B87" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C87" s="3">
-        <v>350</v>
+        <v>180</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>207</v>
+        <v>389</v>
       </c>
       <c r="E87" s="3" t="s">
         <v>35</v>
@@ -3957,16 +4071,16 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>41</v>
+        <v>305</v>
       </c>
       <c r="B88" s="3">
         <v>1</v>
       </c>
       <c r="C88" s="3">
-        <v>350</v>
+        <v>180</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>208</v>
+        <v>390</v>
       </c>
       <c r="E88" s="3" t="s">
         <v>35</v>
@@ -3974,101 +4088,101 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B89" s="3">
         <v>3</v>
       </c>
       <c r="C89" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>209</v>
+        <v>223</v>
       </c>
       <c r="E89" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" s="7" t="s">
-        <v>434</v>
+      <c r="A90" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="B90" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C90" s="3">
-        <v>220</v>
-      </c>
-      <c r="D90" s="8" t="s">
-        <v>444</v>
+        <v>300</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>224</v>
       </c>
       <c r="E90" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" s="7" t="s">
-        <v>435</v>
+      <c r="A91" s="1" t="s">
+        <v>529</v>
       </c>
       <c r="B91" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C91" s="3">
-        <v>220</v>
-      </c>
-      <c r="D91" s="8" t="s">
-        <v>443</v>
+        <v>1000</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>530</v>
       </c>
       <c r="E91" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92" s="7" t="s">
-        <v>432</v>
-      </c>
-      <c r="B92" s="6">
-        <v>0</v>
-      </c>
-      <c r="C92" s="6">
-        <v>200</v>
-      </c>
-      <c r="D92" s="4" t="s">
-        <v>439</v>
+      <c r="A92" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B92" s="3">
+        <v>0</v>
+      </c>
+      <c r="C92" s="3">
+        <v>350</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>206</v>
       </c>
       <c r="E92" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" s="7" t="s">
-        <v>436</v>
+      <c r="A93" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B93" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C93" s="3">
-        <v>220</v>
-      </c>
-      <c r="D93" s="8" t="s">
-        <v>445</v>
+        <v>350</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>207</v>
       </c>
       <c r="E93" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94" s="7" t="s">
-        <v>437</v>
+      <c r="A94" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B94" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C94" s="3">
-        <v>250</v>
-      </c>
-      <c r="D94" s="8" t="s">
-        <v>441</v>
+        <v>500</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>208</v>
       </c>
       <c r="E94" s="3" t="s">
         <v>35</v>
@@ -4076,13 +4190,13 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="7" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="B95" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C95" s="3">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="D95" s="8" t="s">
         <v>442</v>
@@ -4092,85 +4206,85 @@
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A96" s="1" t="s">
+      <c r="A96" s="7" t="s">
         <v>433</v>
       </c>
       <c r="B96" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C96" s="3">
         <v>220</v>
       </c>
       <c r="D96" s="8" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="E96" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A97" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B97" s="3">
-        <v>3</v>
-      </c>
-      <c r="C97" s="3">
-        <v>350</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>194</v>
+      <c r="A97" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="B97" s="6">
+        <v>0</v>
+      </c>
+      <c r="C97" s="6">
+        <v>200</v>
+      </c>
+      <c r="D97" s="4" t="s">
+        <v>437</v>
       </c>
       <c r="E97" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A98" s="1" t="s">
-        <v>44</v>
+      <c r="A98" s="7" t="s">
+        <v>434</v>
       </c>
       <c r="B98" s="3">
         <v>0</v>
       </c>
       <c r="C98" s="3">
-        <v>350</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>195</v>
+        <v>220</v>
+      </c>
+      <c r="D98" s="8" t="s">
+        <v>443</v>
       </c>
       <c r="E98" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A99" s="1" t="s">
-        <v>45</v>
+      <c r="A99" s="7" t="s">
+        <v>435</v>
       </c>
       <c r="B99" s="3">
         <v>0</v>
       </c>
       <c r="C99" s="3">
-        <v>350</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>196</v>
+        <v>250</v>
+      </c>
+      <c r="D99" s="8" t="s">
+        <v>439</v>
       </c>
       <c r="E99" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A100" s="1" t="s">
-        <v>46</v>
+      <c r="A100" s="7" t="s">
+        <v>436</v>
       </c>
       <c r="B100" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C100" s="3">
-        <v>500</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>192</v>
+        <v>250</v>
+      </c>
+      <c r="D100" s="8" t="s">
+        <v>440</v>
       </c>
       <c r="E100" s="3" t="s">
         <v>35</v>
@@ -4178,16 +4292,16 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>562</v>
+        <v>431</v>
       </c>
       <c r="B101" s="3">
         <v>2</v>
       </c>
       <c r="C101" s="3">
-        <v>500</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>193</v>
+        <v>220</v>
+      </c>
+      <c r="D101" s="8" t="s">
+        <v>438</v>
       </c>
       <c r="E101" s="3" t="s">
         <v>35</v>
@@ -4195,101 +4309,101 @@
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B102" s="3">
         <v>3</v>
       </c>
       <c r="C102" s="3">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>588</v>
+        <v>44</v>
       </c>
       <c r="B103" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C103" s="3">
         <v>350</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>590</v>
+        <v>194</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>585</v>
+        <v>45</v>
       </c>
       <c r="B104" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C104" s="3">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>160</v>
+        <v>195</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B105" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C105" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>50</v>
+        <v>559</v>
       </c>
       <c r="B106" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C106" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>147</v>
+        <v>192</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>589</v>
+        <v>47</v>
       </c>
       <c r="B107" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C107" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>591</v>
+        <v>196</v>
       </c>
       <c r="E107" s="3" t="s">
         <v>48</v>
@@ -4297,16 +4411,16 @@
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="B108" s="3">
+        <v>1</v>
+      </c>
+      <c r="C108" s="3">
+        <v>350</v>
+      </c>
+      <c r="D108" s="2" t="s">
         <v>587</v>
-      </c>
-      <c r="B108" s="3">
-        <v>1</v>
-      </c>
-      <c r="C108" s="3">
-        <v>300</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>157</v>
       </c>
       <c r="E108" s="3" t="s">
         <v>48</v>
@@ -4314,16 +4428,16 @@
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>51</v>
+        <v>582</v>
       </c>
       <c r="B109" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C109" s="3">
-        <v>270</v>
+        <v>300</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="E109" s="3" t="s">
         <v>48</v>
@@ -4331,16 +4445,16 @@
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B110" s="3">
         <v>0</v>
       </c>
       <c r="C110" s="3">
-        <v>270</v>
+        <v>300</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>155</v>
+        <v>197</v>
       </c>
       <c r="E110" s="3" t="s">
         <v>48</v>
@@ -4348,16 +4462,16 @@
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B111" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C111" s="3">
         <v>300</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="E111" s="3" t="s">
         <v>48</v>
@@ -4365,16 +4479,16 @@
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>54</v>
+        <v>586</v>
       </c>
       <c r="B112" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C112" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>147</v>
+        <v>588</v>
       </c>
       <c r="E112" s="3" t="s">
         <v>48</v>
@@ -4382,16 +4496,16 @@
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>55</v>
+        <v>584</v>
       </c>
       <c r="B113" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C113" s="3">
         <v>300</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>183</v>
+        <v>156</v>
       </c>
       <c r="E113" s="3" t="s">
         <v>48</v>
@@ -4399,16 +4513,16 @@
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>354</v>
+        <v>51</v>
       </c>
       <c r="B114" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C114" s="3">
-        <v>300</v>
+        <v>270</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>182</v>
+        <v>146</v>
       </c>
       <c r="E114" s="3" t="s">
         <v>48</v>
@@ -4416,16 +4530,16 @@
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B115" s="3">
         <v>0</v>
       </c>
       <c r="C115" s="3">
-        <v>300</v>
+        <v>270</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="E115" s="3" t="s">
         <v>48</v>
@@ -4433,16 +4547,16 @@
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B116" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C116" s="3">
         <v>300</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="E116" s="3" t="s">
         <v>48</v>
@@ -4450,16 +4564,16 @@
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>268</v>
+        <v>634</v>
       </c>
       <c r="B117" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C117" s="3">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>269</v>
+        <v>635</v>
       </c>
       <c r="E117" s="3" t="s">
         <v>48</v>
@@ -4467,7 +4581,7 @@
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B118" s="3">
         <v>0</v>
@@ -4476,7 +4590,7 @@
         <v>300</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E118" s="3" t="s">
         <v>48</v>
@@ -4484,7 +4598,7 @@
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B119" s="3">
         <v>0</v>
@@ -4493,7 +4607,7 @@
         <v>300</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>147</v>
+        <v>182</v>
       </c>
       <c r="E119" s="3" t="s">
         <v>48</v>
@@ -4501,16 +4615,16 @@
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>60</v>
+        <v>352</v>
       </c>
       <c r="B120" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C120" s="3">
         <v>300</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>147</v>
+        <v>181</v>
       </c>
       <c r="E120" s="3" t="s">
         <v>48</v>
@@ -4518,7 +4632,7 @@
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B121" s="3">
         <v>0</v>
@@ -4527,7 +4641,7 @@
         <v>300</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="E121" s="3" t="s">
         <v>48</v>
@@ -4535,7 +4649,7 @@
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B122" s="3">
         <v>0</v>
@@ -4544,7 +4658,7 @@
         <v>300</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E122" s="3" t="s">
         <v>48</v>
@@ -4552,16 +4666,16 @@
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>63</v>
+        <v>266</v>
       </c>
       <c r="B123" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C123" s="3">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>147</v>
+        <v>267</v>
       </c>
       <c r="E123" s="3" t="s">
         <v>48</v>
@@ -4569,16 +4683,16 @@
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B124" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C124" s="3">
         <v>300</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="E124" s="3" t="s">
         <v>48</v>
@@ -4586,7 +4700,7 @@
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>317</v>
+        <v>59</v>
       </c>
       <c r="B125" s="3">
         <v>0</v>
@@ -4595,7 +4709,7 @@
         <v>300</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>334</v>
+        <v>146</v>
       </c>
       <c r="E125" s="3" t="s">
         <v>48</v>
@@ -4603,16 +4717,16 @@
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>266</v>
+        <v>60</v>
       </c>
       <c r="B126" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C126" s="3">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="E126" s="3" t="s">
         <v>48</v>
@@ -4620,16 +4734,16 @@
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>267</v>
+        <v>61</v>
       </c>
       <c r="B127" s="3">
         <v>0</v>
       </c>
       <c r="C127" s="3">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="E127" s="3" t="s">
         <v>48</v>
@@ -4637,16 +4751,16 @@
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B128" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C128" s="3">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="E128" s="3" t="s">
         <v>48</v>
@@ -4654,16 +4768,16 @@
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B129" s="3">
         <v>0</v>
       </c>
       <c r="C129" s="3">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="E129" s="3" t="s">
         <v>48</v>
@@ -4671,16 +4785,16 @@
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B130" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C130" s="3">
-        <v>320</v>
+        <v>300</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="E130" s="3" t="s">
         <v>48</v>
@@ -4688,16 +4802,16 @@
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>68</v>
+        <v>636</v>
       </c>
       <c r="B131" s="3">
         <v>1</v>
       </c>
       <c r="C131" s="3">
-        <v>320</v>
-      </c>
-      <c r="D131" s="1" t="s">
-        <v>166</v>
+        <v>300</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>637</v>
       </c>
       <c r="E131" s="3" t="s">
         <v>48</v>
@@ -4705,16 +4819,16 @@
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>69</v>
+        <v>315</v>
       </c>
       <c r="B132" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C132" s="3">
-        <v>320</v>
-      </c>
-      <c r="D132" s="1" t="s">
-        <v>179</v>
+        <v>300</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>332</v>
       </c>
       <c r="E132" s="3" t="s">
         <v>48</v>
@@ -4722,16 +4836,16 @@
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>70</v>
+        <v>264</v>
       </c>
       <c r="B133" s="3">
         <v>1</v>
       </c>
       <c r="C133" s="3">
-        <v>320</v>
-      </c>
-      <c r="D133" s="1" t="s">
-        <v>167</v>
+        <v>350</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>157</v>
       </c>
       <c r="E133" s="3" t="s">
         <v>48</v>
@@ -4739,16 +4853,16 @@
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>71</v>
+        <v>265</v>
       </c>
       <c r="B134" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C134" s="3">
-        <v>320</v>
-      </c>
-      <c r="D134" s="1" t="s">
-        <v>168</v>
+        <v>350</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>158</v>
       </c>
       <c r="E134" s="3" t="s">
         <v>48</v>
@@ -4756,16 +4870,16 @@
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="B135" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C135" s="3">
-        <v>320</v>
-      </c>
-      <c r="D135" s="1" t="s">
-        <v>169</v>
+        <v>350</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>162</v>
       </c>
       <c r="E135" s="3" t="s">
         <v>48</v>
@@ -4773,16 +4887,16 @@
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="B136" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C136" s="3">
-        <v>320</v>
-      </c>
-      <c r="D136" s="1" t="s">
-        <v>170</v>
+        <v>350</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>163</v>
       </c>
       <c r="E136" s="3" t="s">
         <v>48</v>
@@ -4790,7 +4904,7 @@
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B137" s="3">
         <v>2</v>
@@ -4798,8 +4912,8 @@
       <c r="C137" s="3">
         <v>320</v>
       </c>
-      <c r="D137" s="1" t="s">
-        <v>171</v>
+      <c r="D137" s="2" t="s">
+        <v>164</v>
       </c>
       <c r="E137" s="3" t="s">
         <v>48</v>
@@ -4807,16 +4921,16 @@
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="B138" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C138" s="3">
         <v>320</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="E138" s="3" t="s">
         <v>48</v>
@@ -4824,7 +4938,7 @@
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="B139" s="3">
         <v>1</v>
@@ -4833,7 +4947,7 @@
         <v>320</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="E139" s="3" t="s">
         <v>48</v>
@@ -4841,16 +4955,16 @@
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="B140" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C140" s="3">
         <v>320</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="E140" s="3" t="s">
         <v>48</v>
@@ -4858,7 +4972,7 @@
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B141" s="3">
         <v>1</v>
@@ -4867,7 +4981,7 @@
         <v>320</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="E141" s="3" t="s">
         <v>48</v>
@@ -4875,7 +4989,7 @@
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="B142" s="3">
         <v>1</v>
@@ -4884,7 +4998,7 @@
         <v>320</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="E142" s="3" t="s">
         <v>48</v>
@@ -4892,7 +5006,7 @@
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="B143" s="3">
         <v>2</v>
@@ -4901,7 +5015,7 @@
         <v>320</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="E143" s="3" t="s">
         <v>48</v>
@@ -4909,16 +5023,16 @@
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B144" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C144" s="3">
         <v>320</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="E144" s="3" t="s">
         <v>48</v>
@@ -4926,16 +5040,16 @@
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
-        <v>330</v>
+        <v>75</v>
       </c>
       <c r="B145" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C145" s="3">
         <v>320</v>
       </c>
-      <c r="D145" s="2" t="s">
-        <v>331</v>
+      <c r="D145" s="1" t="s">
+        <v>171</v>
       </c>
       <c r="E145" s="3" t="s">
         <v>48</v>
@@ -4943,16 +5057,16 @@
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B146" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C146" s="3">
-        <v>300</v>
-      </c>
-      <c r="D146" s="2" t="s">
-        <v>254</v>
+        <v>320</v>
+      </c>
+      <c r="D146" s="1" t="s">
+        <v>172</v>
       </c>
       <c r="E146" s="3" t="s">
         <v>48</v>
@@ -4960,16 +5074,16 @@
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B147" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C147" s="3">
-        <v>300</v>
-      </c>
-      <c r="D147" s="2" t="s">
-        <v>226</v>
+        <v>320</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>173</v>
       </c>
       <c r="E147" s="3" t="s">
         <v>48</v>
@@ -4977,16 +5091,16 @@
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B148" s="3">
         <v>1</v>
       </c>
       <c r="C148" s="3">
-        <v>300</v>
-      </c>
-      <c r="D148" s="2" t="s">
-        <v>255</v>
+        <v>320</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>174</v>
       </c>
       <c r="E148" s="3" t="s">
         <v>48</v>
@@ -4994,16 +5108,16 @@
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B149" s="3">
         <v>1</v>
       </c>
       <c r="C149" s="3">
-        <v>300</v>
+        <v>320</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>199</v>
+        <v>175</v>
       </c>
       <c r="E149" s="3" t="s">
         <v>48</v>
@@ -5011,16 +5125,16 @@
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B150" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C150" s="3">
-        <v>300</v>
+        <v>320</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>200</v>
+        <v>176</v>
       </c>
       <c r="E150" s="3" t="s">
         <v>48</v>
@@ -5028,16 +5142,16 @@
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B151" s="3">
         <v>1</v>
       </c>
       <c r="C151" s="3">
-        <v>300</v>
+        <v>320</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>201</v>
+        <v>177</v>
       </c>
       <c r="E151" s="3" t="s">
         <v>48</v>
@@ -5045,16 +5159,16 @@
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
-        <v>88</v>
+        <v>328</v>
       </c>
       <c r="B152" s="3">
         <v>1</v>
       </c>
       <c r="C152" s="3">
-        <v>300</v>
-      </c>
-      <c r="D152" s="1" t="s">
-        <v>202</v>
+        <v>320</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>329</v>
       </c>
       <c r="E152" s="3" t="s">
         <v>48</v>
@@ -5062,7 +5176,7 @@
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="B153" s="3">
         <v>2</v>
@@ -5070,8 +5184,8 @@
       <c r="C153" s="3">
         <v>300</v>
       </c>
-      <c r="D153" s="1" t="s">
-        <v>203</v>
+      <c r="D153" s="2" t="s">
+        <v>253</v>
       </c>
       <c r="E153" s="3" t="s">
         <v>48</v>
@@ -5079,16 +5193,16 @@
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="B154" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C154" s="3">
         <v>300</v>
       </c>
-      <c r="D154" s="1" t="s">
-        <v>204</v>
+      <c r="D154" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="E154" s="3" t="s">
         <v>48</v>
@@ -5096,7 +5210,7 @@
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="B155" s="3">
         <v>1</v>
@@ -5104,8 +5218,8 @@
       <c r="C155" s="3">
         <v>300</v>
       </c>
-      <c r="D155" s="1" t="s">
-        <v>205</v>
+      <c r="D155" s="2" t="s">
+        <v>254</v>
       </c>
       <c r="E155" s="3" t="s">
         <v>48</v>
@@ -5113,7 +5227,7 @@
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="B156" s="3">
         <v>1</v>
@@ -5121,8 +5235,8 @@
       <c r="C156" s="3">
         <v>300</v>
       </c>
-      <c r="D156" s="2" t="s">
-        <v>256</v>
+      <c r="D156" s="1" t="s">
+        <v>198</v>
       </c>
       <c r="E156" s="3" t="s">
         <v>48</v>
@@ -5130,16 +5244,16 @@
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="B157" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C157" s="3">
-        <v>400</v>
-      </c>
-      <c r="D157" s="2" t="s">
-        <v>227</v>
+        <v>300</v>
+      </c>
+      <c r="D157" s="1" t="s">
+        <v>199</v>
       </c>
       <c r="E157" s="3" t="s">
         <v>48</v>
@@ -5147,16 +5261,16 @@
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="B158" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C158" s="3">
-        <v>400</v>
-      </c>
-      <c r="D158" s="2" t="s">
-        <v>228</v>
+        <v>300</v>
+      </c>
+      <c r="D158" s="1" t="s">
+        <v>200</v>
       </c>
       <c r="E158" s="3" t="s">
         <v>48</v>
@@ -5164,16 +5278,16 @@
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
-        <v>355</v>
+        <v>88</v>
       </c>
       <c r="B159" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C159" s="3">
         <v>300</v>
       </c>
-      <c r="D159" s="2" t="s">
-        <v>229</v>
+      <c r="D159" s="1" t="s">
+        <v>201</v>
       </c>
       <c r="E159" s="3" t="s">
         <v>48</v>
@@ -5181,7 +5295,7 @@
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B160" s="3">
         <v>2</v>
@@ -5189,8 +5303,8 @@
       <c r="C160" s="3">
         <v>300</v>
       </c>
-      <c r="D160" s="2" t="s">
-        <v>230</v>
+      <c r="D160" s="1" t="s">
+        <v>202</v>
       </c>
       <c r="E160" s="3" t="s">
         <v>48</v>
@@ -5198,24 +5312,24 @@
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B161" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C161" s="3">
         <v>300</v>
       </c>
-      <c r="D161" s="2" t="s">
-        <v>231</v>
+      <c r="D161" s="1" t="s">
+        <v>203</v>
       </c>
       <c r="E161" s="3" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A162" s="7" t="s">
-        <v>614</v>
+      <c r="A162" s="1" t="s">
+        <v>91</v>
       </c>
       <c r="B162" s="3">
         <v>1</v>
@@ -5223,8 +5337,8 @@
       <c r="C162" s="3">
         <v>300</v>
       </c>
-      <c r="D162" s="8" t="s">
-        <v>621</v>
+      <c r="D162" s="1" t="s">
+        <v>204</v>
       </c>
       <c r="E162" s="3" t="s">
         <v>48</v>
@@ -5232,7 +5346,7 @@
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
-        <v>615</v>
+        <v>92</v>
       </c>
       <c r="B163" s="3">
         <v>1</v>
@@ -5240,42 +5354,42 @@
       <c r="C163" s="3">
         <v>300</v>
       </c>
-      <c r="D163" s="8" t="s">
-        <v>622</v>
+      <c r="D163" s="2" t="s">
+        <v>255</v>
       </c>
       <c r="E163" s="3" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A164" s="7" t="s">
-        <v>620</v>
+      <c r="A164" s="1" t="s">
+        <v>93</v>
       </c>
       <c r="B164" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C164" s="3">
-        <v>300</v>
-      </c>
-      <c r="D164" s="8" t="s">
-        <v>623</v>
+        <v>400</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>226</v>
       </c>
       <c r="E164" s="3" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A165" s="7" t="s">
-        <v>618</v>
+      <c r="A165" s="1" t="s">
+        <v>94</v>
       </c>
       <c r="B165" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C165" s="3">
-        <v>300</v>
-      </c>
-      <c r="D165" s="8" t="s">
-        <v>624</v>
+        <v>400</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>227</v>
       </c>
       <c r="E165" s="3" t="s">
         <v>48</v>
@@ -5283,33 +5397,33 @@
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
-        <v>616</v>
+        <v>353</v>
       </c>
       <c r="B166" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C166" s="3">
         <v>300</v>
       </c>
-      <c r="D166" s="8" t="s">
-        <v>625</v>
+      <c r="D166" s="2" t="s">
+        <v>228</v>
       </c>
       <c r="E166" s="3" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A167" s="7" t="s">
-        <v>619</v>
+      <c r="A167" s="1" t="s">
+        <v>95</v>
       </c>
       <c r="B167" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C167" s="3">
         <v>300</v>
       </c>
-      <c r="D167" s="8" t="s">
-        <v>626</v>
+      <c r="D167" s="2" t="s">
+        <v>229</v>
       </c>
       <c r="E167" s="3" t="s">
         <v>48</v>
@@ -5317,7 +5431,7 @@
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
-        <v>617</v>
+        <v>96</v>
       </c>
       <c r="B168" s="3">
         <v>1</v>
@@ -5325,16 +5439,16 @@
       <c r="C168" s="3">
         <v>300</v>
       </c>
-      <c r="D168" s="8" t="s">
-        <v>627</v>
+      <c r="D168" s="2" t="s">
+        <v>230</v>
       </c>
       <c r="E168" s="3" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A169" s="1" t="s">
-        <v>97</v>
+      <c r="A169" s="7" t="s">
+        <v>610</v>
       </c>
       <c r="B169" s="3">
         <v>1</v>
@@ -5342,8 +5456,8 @@
       <c r="C169" s="3">
         <v>300</v>
       </c>
-      <c r="D169" s="2" t="s">
-        <v>232</v>
+      <c r="D169" s="8" t="s">
+        <v>617</v>
       </c>
       <c r="E169" s="3" t="s">
         <v>48</v>
@@ -5351,7 +5465,7 @@
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
-        <v>98</v>
+        <v>611</v>
       </c>
       <c r="B170" s="3">
         <v>1</v>
@@ -5359,33 +5473,33 @@
       <c r="C170" s="3">
         <v>300</v>
       </c>
-      <c r="D170" s="2" t="s">
-        <v>233</v>
+      <c r="D170" s="8" t="s">
+        <v>618</v>
       </c>
       <c r="E170" s="3" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A171" s="1" t="s">
-        <v>99</v>
+      <c r="A171" s="7" t="s">
+        <v>616</v>
       </c>
       <c r="B171" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C171" s="3">
         <v>300</v>
       </c>
-      <c r="D171" s="2" t="s">
-        <v>234</v>
+      <c r="D171" s="8" t="s">
+        <v>619</v>
       </c>
       <c r="E171" s="3" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A172" s="1" t="s">
-        <v>100</v>
+      <c r="A172" s="7" t="s">
+        <v>614</v>
       </c>
       <c r="B172" s="3">
         <v>1</v>
@@ -5393,8 +5507,8 @@
       <c r="C172" s="3">
         <v>300</v>
       </c>
-      <c r="D172" s="2" t="s">
-        <v>235</v>
+      <c r="D172" s="8" t="s">
+        <v>620</v>
       </c>
       <c r="E172" s="3" t="s">
         <v>48</v>
@@ -5402,33 +5516,33 @@
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
-        <v>101</v>
+        <v>612</v>
       </c>
       <c r="B173" s="3">
         <v>1</v>
       </c>
       <c r="C173" s="3">
-        <v>500</v>
-      </c>
-      <c r="D173" s="2" t="s">
-        <v>236</v>
+        <v>300</v>
+      </c>
+      <c r="D173" s="8" t="s">
+        <v>621</v>
       </c>
       <c r="E173" s="3" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A174" s="1" t="s">
-        <v>461</v>
+      <c r="A174" s="7" t="s">
+        <v>615</v>
       </c>
       <c r="B174" s="3">
         <v>1</v>
       </c>
       <c r="C174" s="3">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="D174" s="8" t="s">
-        <v>464</v>
+        <v>622</v>
       </c>
       <c r="E174" s="3" t="s">
         <v>48</v>
@@ -5436,33 +5550,33 @@
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
-        <v>462</v>
+        <v>613</v>
       </c>
       <c r="B175" s="3">
         <v>1</v>
       </c>
       <c r="C175" s="3">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="D175" s="8" t="s">
-        <v>465</v>
+        <v>623</v>
       </c>
       <c r="E175" s="3" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A176" s="7" t="s">
-        <v>463</v>
+      <c r="A176" s="1" t="s">
+        <v>97</v>
       </c>
       <c r="B176" s="3">
         <v>1</v>
       </c>
       <c r="C176" s="3">
-        <v>280</v>
-      </c>
-      <c r="D176" s="8" t="s">
-        <v>466</v>
+        <v>300</v>
+      </c>
+      <c r="D176" s="2" t="s">
+        <v>231</v>
       </c>
       <c r="E176" s="3" t="s">
         <v>48</v>
@@ -5470,7 +5584,7 @@
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B177" s="3">
         <v>1</v>
@@ -5479,7 +5593,7 @@
         <v>300</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="E177" s="3" t="s">
         <v>48</v>
@@ -5487,16 +5601,16 @@
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B178" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C178" s="3">
         <v>300</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="E178" s="3" t="s">
         <v>48</v>
@@ -5504,135 +5618,135 @@
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
-        <v>104</v>
+        <v>1